--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2018" sheetId="4" r:id="rId1"/>
@@ -4527,6 +4527,288 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4566,287 +4848,122 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4884,123 +5001,6 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5083,58 +5083,58 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6382,28 +6382,28 @@
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="486" t="str">
+      <c r="E2" s="454" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="453" t="s">
+      <c r="F2" s="469" t="s">
         <v>705</v>
       </c>
-      <c r="G2" s="474" t="s">
+      <c r="G2" s="457" t="s">
         <v>666</v>
       </c>
-      <c r="H2" s="471" t="str">
+      <c r="H2" s="487" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="471" t="str">
+      <c r="I2" s="487" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="476" t="s">
+      <c r="J2" s="491" t="s">
         <v>669</v>
       </c>
-      <c r="K2" s="474" t="s">
+      <c r="K2" s="457" t="s">
         <v>706</v>
       </c>
       <c r="L2" s="200" t="s">
@@ -6438,13 +6438,13 @@
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="487"/>
-      <c r="F3" s="454"/>
-      <c r="G3" s="489"/>
-      <c r="H3" s="472"/>
-      <c r="I3" s="472"/>
-      <c r="J3" s="477"/>
-      <c r="K3" s="475"/>
+      <c r="E3" s="455"/>
+      <c r="F3" s="470"/>
+      <c r="G3" s="458"/>
+      <c r="H3" s="488"/>
+      <c r="I3" s="488"/>
+      <c r="J3" s="492"/>
+      <c r="K3" s="490"/>
       <c r="L3" s="203" t="s">
         <v>624</v>
       </c>
@@ -6477,11 +6477,11 @@
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="488"/>
-      <c r="F4" s="455"/>
-      <c r="G4" s="490"/>
-      <c r="H4" s="473"/>
-      <c r="I4" s="473"/>
+      <c r="E4" s="456"/>
+      <c r="F4" s="471"/>
+      <c r="G4" s="459"/>
+      <c r="H4" s="489"/>
+      <c r="I4" s="489"/>
       <c r="J4" s="206" t="s">
         <v>668</v>
       </c>
@@ -6518,21 +6518,21 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="450" t="str">
+      <c r="E5" s="466" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="456" t="s">
+      <c r="F5" s="472" t="s">
         <v>691</v>
       </c>
-      <c r="G5" s="491" t="s">
+      <c r="G5" s="460" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="483" t="str">
+      <c r="H5" s="451" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="483" t="str">
+      <c r="I5" s="451" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
@@ -6568,11 +6568,11 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="451"/>
-      <c r="F6" s="457"/>
-      <c r="G6" s="492"/>
-      <c r="H6" s="484"/>
-      <c r="I6" s="484"/>
+      <c r="E6" s="467"/>
+      <c r="F6" s="473"/>
+      <c r="G6" s="461"/>
+      <c r="H6" s="452"/>
+      <c r="I6" s="452"/>
       <c r="J6" s="208" t="s">
         <v>671</v>
       </c>
@@ -6607,11 +6607,11 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="452"/>
-      <c r="F7" s="458"/>
-      <c r="G7" s="493"/>
-      <c r="H7" s="485"/>
-      <c r="I7" s="485"/>
+      <c r="E7" s="468"/>
+      <c r="F7" s="474"/>
+      <c r="G7" s="462"/>
+      <c r="H7" s="453"/>
+      <c r="I7" s="453"/>
       <c r="J7" s="215" t="s">
         <v>672</v>
       </c>
@@ -6648,7 +6648,7 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="467" t="s">
+      <c r="F8" s="483" t="s">
         <v>696</v>
       </c>
       <c r="G8" s="219" t="s">
@@ -6689,23 +6689,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="465" t="s">
+      <c r="E9" s="481" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="468"/>
-      <c r="G9" s="459" t="s">
+      <c r="F9" s="484"/>
+      <c r="G9" s="475" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="460"/>
-      <c r="I9" s="460"/>
-      <c r="J9" s="460"/>
-      <c r="K9" s="460"/>
-      <c r="L9" s="460"/>
-      <c r="M9" s="460"/>
-      <c r="N9" s="460"/>
-      <c r="O9" s="460"/>
-      <c r="P9" s="460"/>
-      <c r="Q9" s="461"/>
+      <c r="H9" s="476"/>
+      <c r="I9" s="476"/>
+      <c r="J9" s="476"/>
+      <c r="K9" s="476"/>
+      <c r="L9" s="476"/>
+      <c r="M9" s="476"/>
+      <c r="N9" s="476"/>
+      <c r="O9" s="476"/>
+      <c r="P9" s="476"/>
+      <c r="Q9" s="477"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -6721,19 +6721,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="466"/>
-      <c r="F10" s="468"/>
-      <c r="G10" s="462"/>
-      <c r="H10" s="463"/>
-      <c r="I10" s="463"/>
-      <c r="J10" s="463"/>
-      <c r="K10" s="463"/>
-      <c r="L10" s="463"/>
-      <c r="M10" s="463"/>
-      <c r="N10" s="463"/>
-      <c r="O10" s="463"/>
-      <c r="P10" s="463"/>
-      <c r="Q10" s="464"/>
+      <c r="E10" s="482"/>
+      <c r="F10" s="484"/>
+      <c r="G10" s="478"/>
+      <c r="H10" s="479"/>
+      <c r="I10" s="479"/>
+      <c r="J10" s="479"/>
+      <c r="K10" s="479"/>
+      <c r="L10" s="479"/>
+      <c r="M10" s="479"/>
+      <c r="N10" s="479"/>
+      <c r="O10" s="479"/>
+      <c r="P10" s="479"/>
+      <c r="Q10" s="480"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -6754,26 +6754,26 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="500" t="str">
+      <c r="E11" s="416" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="468"/>
-      <c r="G11" s="478" t="s">
+      <c r="F11" s="484"/>
+      <c r="G11" s="449" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="502" t="str">
+      <c r="H11" s="431" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="502" t="str">
+      <c r="I11" s="431" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="478" t="s">
+      <c r="J11" s="449" t="s">
         <v>673</v>
       </c>
-      <c r="K11" s="478" t="s">
+      <c r="K11" s="449" t="s">
         <v>685</v>
       </c>
       <c r="L11" s="224" t="s">
@@ -6806,13 +6806,13 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="501"/>
-      <c r="F12" s="469"/>
-      <c r="G12" s="479"/>
-      <c r="H12" s="503"/>
-      <c r="I12" s="503"/>
-      <c r="J12" s="479"/>
-      <c r="K12" s="479"/>
+      <c r="E12" s="417"/>
+      <c r="F12" s="485"/>
+      <c r="G12" s="450"/>
+      <c r="H12" s="432"/>
+      <c r="I12" s="432"/>
+      <c r="J12" s="450"/>
+      <c r="K12" s="450"/>
       <c r="L12" s="227" t="s">
         <v>631</v>
       </c>
@@ -6841,21 +6841,21 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="510" t="str">
+      <c r="E13" s="439" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="470" t="s">
+      <c r="F13" s="486" t="s">
         <v>698</v>
       </c>
-      <c r="G13" s="447" t="s">
+      <c r="G13" s="463" t="s">
         <v>653</v>
       </c>
-      <c r="H13" s="480" t="str">
+      <c r="H13" s="493" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="480" t="str">
+      <c r="I13" s="493" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
@@ -6891,11 +6891,11 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="511"/>
-      <c r="F14" s="448"/>
-      <c r="G14" s="448"/>
-      <c r="H14" s="481"/>
-      <c r="I14" s="481"/>
+      <c r="E14" s="440"/>
+      <c r="F14" s="464"/>
+      <c r="G14" s="464"/>
+      <c r="H14" s="494"/>
+      <c r="I14" s="494"/>
       <c r="J14" s="385" t="s">
         <v>704</v>
       </c>
@@ -6928,11 +6928,11 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="512"/>
-      <c r="F15" s="449"/>
-      <c r="G15" s="449"/>
-      <c r="H15" s="482"/>
-      <c r="I15" s="482"/>
+      <c r="E15" s="441"/>
+      <c r="F15" s="465"/>
+      <c r="G15" s="465"/>
+      <c r="H15" s="495"/>
+      <c r="I15" s="495"/>
       <c r="J15" s="236" t="s">
         <v>687</v>
       </c>
@@ -6969,21 +6969,21 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="445" t="str">
+      <c r="E16" s="418" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="410" t="s">
+      <c r="F16" s="504" t="s">
         <v>697</v>
       </c>
-      <c r="G16" s="445" t="s">
+      <c r="G16" s="418" t="s">
         <v>654</v>
       </c>
-      <c r="H16" s="513" t="str">
+      <c r="H16" s="445" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="515" t="str">
+      <c r="I16" s="447" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
@@ -7021,11 +7021,11 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="446"/>
-      <c r="F17" s="411"/>
-      <c r="G17" s="446"/>
-      <c r="H17" s="514"/>
-      <c r="I17" s="516"/>
+      <c r="E17" s="419"/>
+      <c r="F17" s="505"/>
+      <c r="G17" s="419"/>
+      <c r="H17" s="446"/>
+      <c r="I17" s="448"/>
       <c r="J17" s="248" t="s">
         <v>645</v>
       </c>
@@ -7055,21 +7055,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="504" t="s">
+      <c r="E18" s="433" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="504"/>
-      <c r="G18" s="504"/>
-      <c r="H18" s="504"/>
-      <c r="I18" s="504"/>
-      <c r="J18" s="504"/>
-      <c r="K18" s="504"/>
-      <c r="L18" s="504"/>
-      <c r="M18" s="504"/>
-      <c r="N18" s="504"/>
-      <c r="O18" s="504"/>
-      <c r="P18" s="505"/>
-      <c r="Q18" s="506"/>
+      <c r="F18" s="433"/>
+      <c r="G18" s="433"/>
+      <c r="H18" s="433"/>
+      <c r="I18" s="433"/>
+      <c r="J18" s="433"/>
+      <c r="K18" s="433"/>
+      <c r="L18" s="433"/>
+      <c r="M18" s="433"/>
+      <c r="N18" s="433"/>
+      <c r="O18" s="433"/>
+      <c r="P18" s="434"/>
+      <c r="Q18" s="435"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7085,19 +7085,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="507"/>
-      <c r="F19" s="507"/>
-      <c r="G19" s="507"/>
-      <c r="H19" s="507"/>
-      <c r="I19" s="507"/>
-      <c r="J19" s="507"/>
-      <c r="K19" s="507"/>
-      <c r="L19" s="507"/>
-      <c r="M19" s="507"/>
-      <c r="N19" s="507"/>
-      <c r="O19" s="507"/>
-      <c r="P19" s="508"/>
-      <c r="Q19" s="509"/>
+      <c r="E19" s="436"/>
+      <c r="F19" s="436"/>
+      <c r="G19" s="436"/>
+      <c r="H19" s="436"/>
+      <c r="I19" s="436"/>
+      <c r="J19" s="436"/>
+      <c r="K19" s="436"/>
+      <c r="L19" s="436"/>
+      <c r="M19" s="436"/>
+      <c r="N19" s="436"/>
+      <c r="O19" s="436"/>
+      <c r="P19" s="437"/>
+      <c r="Q19" s="438"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7118,21 +7118,21 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="434" t="str">
+      <c r="E20" s="420" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="412" t="s">
+      <c r="F20" s="506" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="434" t="s">
+      <c r="G20" s="420" t="s">
         <v>699</v>
       </c>
-      <c r="H20" s="426" t="str">
+      <c r="H20" s="499" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="426" t="str">
+      <c r="I20" s="499" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
@@ -7168,11 +7168,11 @@
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="435"/>
-      <c r="F21" s="413"/>
-      <c r="G21" s="435"/>
-      <c r="H21" s="427"/>
-      <c r="I21" s="427"/>
+      <c r="E21" s="421"/>
+      <c r="F21" s="507"/>
+      <c r="G21" s="421"/>
+      <c r="H21" s="500"/>
+      <c r="I21" s="500"/>
       <c r="J21" s="251"/>
       <c r="K21" s="251"/>
       <c r="L21" s="251" t="s">
@@ -7203,11 +7203,11 @@
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="436"/>
-      <c r="F22" s="414"/>
-      <c r="G22" s="436"/>
-      <c r="H22" s="428"/>
-      <c r="I22" s="428"/>
+      <c r="E22" s="422"/>
+      <c r="F22" s="508"/>
+      <c r="G22" s="422"/>
+      <c r="H22" s="501"/>
+      <c r="I22" s="501"/>
       <c r="J22" s="242"/>
       <c r="K22" s="242"/>
       <c r="L22" s="242" t="s">
@@ -7238,21 +7238,21 @@
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="437" t="str">
+      <c r="E23" s="423" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="415" t="s">
+      <c r="F23" s="509" t="s">
         <v>701</v>
       </c>
-      <c r="G23" s="437" t="s">
+      <c r="G23" s="423" t="s">
         <v>655</v>
       </c>
-      <c r="H23" s="429" t="str">
+      <c r="H23" s="502" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="429" t="str">
+      <c r="I23" s="502" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
@@ -7288,11 +7288,11 @@
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="438"/>
-      <c r="F24" s="416"/>
-      <c r="G24" s="438"/>
-      <c r="H24" s="430"/>
-      <c r="I24" s="430"/>
+      <c r="E24" s="424"/>
+      <c r="F24" s="510"/>
+      <c r="G24" s="424"/>
+      <c r="H24" s="503"/>
+      <c r="I24" s="503"/>
       <c r="J24" s="188" t="s">
         <v>648</v>
       </c>
@@ -7320,21 +7320,21 @@
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="504" t="s">
+      <c r="E25" s="433" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="504"/>
-      <c r="G25" s="504"/>
-      <c r="H25" s="504"/>
-      <c r="I25" s="504"/>
-      <c r="J25" s="504"/>
-      <c r="K25" s="504"/>
-      <c r="L25" s="504"/>
-      <c r="M25" s="504"/>
-      <c r="N25" s="504"/>
-      <c r="O25" s="504"/>
-      <c r="P25" s="505"/>
-      <c r="Q25" s="506"/>
+      <c r="F25" s="433"/>
+      <c r="G25" s="433"/>
+      <c r="H25" s="433"/>
+      <c r="I25" s="433"/>
+      <c r="J25" s="433"/>
+      <c r="K25" s="433"/>
+      <c r="L25" s="433"/>
+      <c r="M25" s="433"/>
+      <c r="N25" s="433"/>
+      <c r="O25" s="433"/>
+      <c r="P25" s="434"/>
+      <c r="Q25" s="435"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7350,19 +7350,19 @@
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="507"/>
-      <c r="F26" s="507"/>
-      <c r="G26" s="507"/>
-      <c r="H26" s="507"/>
-      <c r="I26" s="507"/>
-      <c r="J26" s="507"/>
-      <c r="K26" s="507"/>
-      <c r="L26" s="507"/>
-      <c r="M26" s="507"/>
-      <c r="N26" s="507"/>
-      <c r="O26" s="507"/>
-      <c r="P26" s="508"/>
-      <c r="Q26" s="509"/>
+      <c r="E26" s="436"/>
+      <c r="F26" s="436"/>
+      <c r="G26" s="436"/>
+      <c r="H26" s="436"/>
+      <c r="I26" s="436"/>
+      <c r="J26" s="436"/>
+      <c r="K26" s="436"/>
+      <c r="L26" s="436"/>
+      <c r="M26" s="436"/>
+      <c r="N26" s="436"/>
+      <c r="O26" s="436"/>
+      <c r="P26" s="437"/>
+      <c r="Q26" s="438"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7383,21 +7383,21 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="439" t="str">
+      <c r="E27" s="425" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="417" t="s">
+      <c r="F27" s="511" t="s">
         <v>702</v>
       </c>
-      <c r="G27" s="439" t="s">
+      <c r="G27" s="425" t="s">
         <v>656</v>
       </c>
-      <c r="H27" s="431" t="str">
+      <c r="H27" s="442" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="431" t="str">
+      <c r="I27" s="442" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
@@ -7433,11 +7433,11 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="440"/>
-      <c r="F28" s="418"/>
-      <c r="G28" s="440"/>
-      <c r="H28" s="432"/>
-      <c r="I28" s="432"/>
+      <c r="E28" s="426"/>
+      <c r="F28" s="512"/>
+      <c r="G28" s="426"/>
+      <c r="H28" s="443"/>
+      <c r="I28" s="443"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
@@ -7468,11 +7468,11 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="441"/>
-      <c r="F29" s="419"/>
-      <c r="G29" s="441"/>
-      <c r="H29" s="433"/>
-      <c r="I29" s="433"/>
+      <c r="E29" s="427"/>
+      <c r="F29" s="513"/>
+      <c r="G29" s="427"/>
+      <c r="H29" s="444"/>
+      <c r="I29" s="444"/>
       <c r="J29" s="182" t="s">
         <v>644</v>
       </c>
@@ -7505,15 +7505,15 @@
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="442" t="s">
+      <c r="E30" s="428" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="420" t="s">
+      <c r="F30" s="514" t="s">
         <v>703</v>
       </c>
-      <c r="G30" s="442"/>
-      <c r="H30" s="423"/>
-      <c r="I30" s="423"/>
+      <c r="G30" s="428"/>
+      <c r="H30" s="496"/>
+      <c r="I30" s="496"/>
       <c r="J30" s="191"/>
       <c r="K30" s="191"/>
       <c r="L30" s="191"/>
@@ -7542,11 +7542,11 @@
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="443"/>
-      <c r="F31" s="421"/>
-      <c r="G31" s="443"/>
-      <c r="H31" s="424"/>
-      <c r="I31" s="424"/>
+      <c r="E31" s="429"/>
+      <c r="F31" s="515"/>
+      <c r="G31" s="429"/>
+      <c r="H31" s="497"/>
+      <c r="I31" s="497"/>
       <c r="J31" s="194"/>
       <c r="K31" s="194"/>
       <c r="L31" s="194"/>
@@ -7575,11 +7575,11 @@
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="444"/>
-      <c r="F32" s="422"/>
-      <c r="G32" s="444"/>
-      <c r="H32" s="425"/>
-      <c r="I32" s="425"/>
+      <c r="E32" s="430"/>
+      <c r="F32" s="516"/>
+      <c r="G32" s="430"/>
+      <c r="H32" s="498"/>
+      <c r="I32" s="498"/>
       <c r="J32" s="197"/>
       <c r="K32" s="197"/>
       <c r="L32" s="197"/>
@@ -7605,21 +7605,21 @@
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="494" t="s">
+      <c r="E33" s="410" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="494"/>
-      <c r="G33" s="494"/>
-      <c r="H33" s="494"/>
-      <c r="I33" s="494"/>
-      <c r="J33" s="494"/>
-      <c r="K33" s="494"/>
-      <c r="L33" s="494"/>
-      <c r="M33" s="494"/>
-      <c r="N33" s="494"/>
-      <c r="O33" s="494"/>
-      <c r="P33" s="495"/>
-      <c r="Q33" s="496"/>
+      <c r="F33" s="410"/>
+      <c r="G33" s="410"/>
+      <c r="H33" s="410"/>
+      <c r="I33" s="410"/>
+      <c r="J33" s="410"/>
+      <c r="K33" s="410"/>
+      <c r="L33" s="410"/>
+      <c r="M33" s="410"/>
+      <c r="N33" s="410"/>
+      <c r="O33" s="410"/>
+      <c r="P33" s="411"/>
+      <c r="Q33" s="412"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -7635,19 +7635,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="497"/>
-      <c r="F34" s="497"/>
-      <c r="G34" s="497"/>
-      <c r="H34" s="497"/>
-      <c r="I34" s="497"/>
-      <c r="J34" s="497"/>
-      <c r="K34" s="497"/>
-      <c r="L34" s="497"/>
-      <c r="M34" s="497"/>
-      <c r="N34" s="497"/>
-      <c r="O34" s="497"/>
-      <c r="P34" s="498"/>
-      <c r="Q34" s="499"/>
+      <c r="E34" s="413"/>
+      <c r="F34" s="413"/>
+      <c r="G34" s="413"/>
+      <c r="H34" s="413"/>
+      <c r="I34" s="413"/>
+      <c r="J34" s="413"/>
+      <c r="K34" s="413"/>
+      <c r="L34" s="413"/>
+      <c r="M34" s="413"/>
+      <c r="N34" s="413"/>
+      <c r="O34" s="413"/>
+      <c r="P34" s="414"/>
+      <c r="Q34" s="415"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8137,6 +8137,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G9:Q10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="E33:Q34"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E16:E17"/>
@@ -8153,44 +8191,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G9:Q10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8203,8 +8203,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D9"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8214,38 +8214,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="542" t="s">
+      <c r="A1" s="521" t="s">
         <v>717</v>
       </c>
-      <c r="B1" s="543"/>
-      <c r="C1" s="543"/>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="542" t="s">
+      <c r="B1" s="522"/>
+      <c r="C1" s="522"/>
+      <c r="D1" s="522"/>
+      <c r="E1" s="522"/>
+      <c r="F1" s="521" t="s">
         <v>718</v>
       </c>
-      <c r="G1" s="543"/>
-      <c r="H1" s="543"/>
-      <c r="I1" s="543"/>
-      <c r="J1" s="543"/>
+      <c r="G1" s="522"/>
+      <c r="H1" s="522"/>
+      <c r="I1" s="522"/>
+      <c r="J1" s="522"/>
     </row>
     <row r="2" spans="1:10" s="396" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="544" t="str">
+      <c r="A2" s="532" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="545"/>
-      <c r="C2" s="545"/>
-      <c r="D2" s="545"/>
-      <c r="E2" s="545"/>
-      <c r="F2" s="546" t="str">
+      <c r="B2" s="533"/>
+      <c r="C2" s="533"/>
+      <c r="D2" s="533"/>
+      <c r="E2" s="533"/>
+      <c r="F2" s="534" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="547"/>
-      <c r="H2" s="547"/>
-      <c r="I2" s="547"/>
-      <c r="J2" s="548"/>
+      <c r="G2" s="535"/>
+      <c r="H2" s="535"/>
+      <c r="I2" s="535"/>
+      <c r="J2" s="536"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="395"/>
@@ -8255,116 +8255,116 @@
       <c r="J3" s="395"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="542" t="s">
+      <c r="A4" s="521" t="s">
         <v>725</v>
       </c>
-      <c r="B4" s="543"/>
-      <c r="C4" s="543"/>
-      <c r="D4" s="555"/>
-      <c r="E4" s="542" t="s">
+      <c r="B4" s="522"/>
+      <c r="C4" s="522"/>
+      <c r="D4" s="523"/>
+      <c r="E4" s="521" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="543"/>
-      <c r="G4" s="555"/>
-      <c r="H4" s="542" t="s">
+      <c r="F4" s="522"/>
+      <c r="G4" s="523"/>
+      <c r="H4" s="521" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="543"/>
-      <c r="J4" s="555"/>
+      <c r="I4" s="522"/>
+      <c r="J4" s="523"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="549" t="s">
+      <c r="A5" s="537" t="s">
         <v>666</v>
       </c>
-      <c r="B5" s="550"/>
-      <c r="C5" s="550"/>
-      <c r="D5" s="551"/>
+      <c r="B5" s="538"/>
+      <c r="C5" s="538"/>
+      <c r="D5" s="539"/>
       <c r="E5" s="398" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="556" t="s">
+      <c r="F5" s="517" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="557"/>
+      <c r="G5" s="518"/>
       <c r="H5" s="399" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="556" t="s">
+      <c r="I5" s="517" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="557"/>
+      <c r="J5" s="518"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="549"/>
-      <c r="B6" s="550"/>
-      <c r="C6" s="550"/>
-      <c r="D6" s="551"/>
+      <c r="A6" s="537"/>
+      <c r="B6" s="538"/>
+      <c r="C6" s="538"/>
+      <c r="D6" s="539"/>
       <c r="E6" s="398"/>
-      <c r="F6" s="556"/>
-      <c r="G6" s="557"/>
+      <c r="F6" s="517"/>
+      <c r="G6" s="518"/>
       <c r="H6" s="399" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="556" t="s">
+      <c r="I6" s="517" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="557"/>
+      <c r="J6" s="518"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="549"/>
-      <c r="B7" s="550"/>
-      <c r="C7" s="550"/>
-      <c r="D7" s="551"/>
+      <c r="A7" s="537"/>
+      <c r="B7" s="538"/>
+      <c r="C7" s="538"/>
+      <c r="D7" s="539"/>
       <c r="E7" s="398"/>
-      <c r="F7" s="556"/>
-      <c r="G7" s="557"/>
+      <c r="F7" s="517"/>
+      <c r="G7" s="518"/>
       <c r="H7" s="399" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="556" t="s">
+      <c r="I7" s="517" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="557"/>
+      <c r="J7" s="518"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="549"/>
-      <c r="B8" s="550"/>
-      <c r="C8" s="550"/>
-      <c r="D8" s="551"/>
+      <c r="A8" s="537"/>
+      <c r="B8" s="538"/>
+      <c r="C8" s="538"/>
+      <c r="D8" s="539"/>
       <c r="E8" s="398" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="556" t="s">
+      <c r="F8" s="517" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="557"/>
+      <c r="G8" s="518"/>
       <c r="H8" s="399" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="556" t="s">
+      <c r="I8" s="517" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="557"/>
+      <c r="J8" s="518"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="552"/>
-      <c r="B9" s="553"/>
-      <c r="C9" s="553"/>
-      <c r="D9" s="554"/>
+      <c r="A9" s="540"/>
+      <c r="B9" s="541"/>
+      <c r="C9" s="541"/>
+      <c r="D9" s="542"/>
       <c r="E9" s="400" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="558" t="s">
+      <c r="F9" s="519" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="559"/>
+      <c r="G9" s="520"/>
       <c r="H9" s="400" t="s">
         <v>724</v>
       </c>
-      <c r="I9" s="558" t="s">
+      <c r="I9" s="519" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="559"/>
+      <c r="J9" s="520"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="401"/>
@@ -8374,102 +8374,102 @@
       <c r="J10" s="401"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="542" t="s">
+      <c r="A11" s="521" t="s">
         <v>712</v>
       </c>
-      <c r="B11" s="543"/>
-      <c r="C11" s="543"/>
-      <c r="D11" s="543"/>
-      <c r="E11" s="543"/>
-      <c r="F11" s="542" t="s">
+      <c r="B11" s="522"/>
+      <c r="C11" s="522"/>
+      <c r="D11" s="522"/>
+      <c r="E11" s="522"/>
+      <c r="F11" s="521" t="s">
         <v>723</v>
       </c>
-      <c r="G11" s="543"/>
-      <c r="H11" s="543"/>
-      <c r="I11" s="543"/>
-      <c r="J11" s="555"/>
+      <c r="G11" s="522"/>
+      <c r="H11" s="522"/>
+      <c r="I11" s="522"/>
+      <c r="J11" s="523"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="565" t="s">
+      <c r="A12" s="529" t="s">
         <v>726</v>
       </c>
-      <c r="B12" s="566"/>
-      <c r="C12" s="566"/>
-      <c r="D12" s="566"/>
-      <c r="E12" s="566"/>
-      <c r="F12" s="565" t="s">
+      <c r="B12" s="530"/>
+      <c r="C12" s="530"/>
+      <c r="D12" s="530"/>
+      <c r="E12" s="530"/>
+      <c r="F12" s="529" t="s">
         <v>727</v>
       </c>
-      <c r="G12" s="566"/>
-      <c r="H12" s="566"/>
-      <c r="I12" s="566"/>
-      <c r="J12" s="567"/>
+      <c r="G12" s="530"/>
+      <c r="H12" s="530"/>
+      <c r="I12" s="530"/>
+      <c r="J12" s="531"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="397"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="542" t="s">
+      <c r="A14" s="521" t="s">
         <v>728</v>
       </c>
-      <c r="B14" s="543"/>
-      <c r="C14" s="543"/>
-      <c r="D14" s="543"/>
-      <c r="E14" s="543"/>
-      <c r="F14" s="542" t="s">
+      <c r="B14" s="522"/>
+      <c r="C14" s="522"/>
+      <c r="D14" s="522"/>
+      <c r="E14" s="522"/>
+      <c r="F14" s="521" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="543"/>
-      <c r="H14" s="543"/>
-      <c r="I14" s="543"/>
-      <c r="J14" s="555"/>
+      <c r="G14" s="522"/>
+      <c r="H14" s="522"/>
+      <c r="I14" s="522"/>
+      <c r="J14" s="523"/>
     </row>
     <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="560" t="s">
+      <c r="A15" s="524" t="s">
         <v>729</v>
       </c>
-      <c r="B15" s="561"/>
-      <c r="C15" s="561"/>
-      <c r="D15" s="561"/>
-      <c r="E15" s="561"/>
-      <c r="F15" s="562" t="s">
+      <c r="B15" s="525"/>
+      <c r="C15" s="525"/>
+      <c r="D15" s="525"/>
+      <c r="E15" s="525"/>
+      <c r="F15" s="526" t="s">
         <v>730</v>
       </c>
-      <c r="G15" s="563"/>
-      <c r="H15" s="563"/>
-      <c r="I15" s="563"/>
-      <c r="J15" s="564"/>
+      <c r="G15" s="527"/>
+      <c r="H15" s="527"/>
+      <c r="I15" s="527"/>
+      <c r="J15" s="528"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="535" t="s">
+      <c r="A17" s="549" t="s">
         <v>713</v>
       </c>
-      <c r="B17" s="536"/>
-      <c r="C17" s="536"/>
-      <c r="D17" s="536"/>
-      <c r="E17" s="536"/>
-      <c r="F17" s="536"/>
-      <c r="G17" s="536"/>
-      <c r="H17" s="536"/>
-      <c r="I17" s="536"/>
-      <c r="J17" s="537"/>
+      <c r="B17" s="550"/>
+      <c r="C17" s="550"/>
+      <c r="D17" s="550"/>
+      <c r="E17" s="550"/>
+      <c r="F17" s="550"/>
+      <c r="G17" s="550"/>
+      <c r="H17" s="550"/>
+      <c r="I17" s="550"/>
+      <c r="J17" s="551"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="538" t="s">
+      <c r="A18" s="552" t="s">
         <v>731</v>
       </c>
-      <c r="B18" s="539"/>
-      <c r="C18" s="539"/>
-      <c r="D18" s="539"/>
-      <c r="E18" s="539"/>
-      <c r="F18" s="540" t="s">
+      <c r="B18" s="553"/>
+      <c r="C18" s="553"/>
+      <c r="D18" s="553"/>
+      <c r="E18" s="553"/>
+      <c r="F18" s="554" t="s">
         <v>732</v>
       </c>
-      <c r="G18" s="540"/>
-      <c r="H18" s="540"/>
-      <c r="I18" s="540"/>
-      <c r="J18" s="541"/>
+      <c r="G18" s="554"/>
+      <c r="H18" s="554"/>
+      <c r="I18" s="554"/>
+      <c r="J18" s="555"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="397"/>
@@ -8481,41 +8481,41 @@
       <c r="A20" s="404" t="s">
         <v>722</v>
       </c>
-      <c r="B20" s="529" t="s">
+      <c r="B20" s="543" t="s">
         <v>719</v>
       </c>
-      <c r="C20" s="530"/>
-      <c r="D20" s="531"/>
-      <c r="E20" s="529" t="s">
+      <c r="C20" s="544"/>
+      <c r="D20" s="545"/>
+      <c r="E20" s="543" t="s">
         <v>720</v>
       </c>
-      <c r="F20" s="530"/>
-      <c r="G20" s="531"/>
-      <c r="H20" s="529" t="s">
+      <c r="F20" s="544"/>
+      <c r="G20" s="545"/>
+      <c r="H20" s="543" t="s">
         <v>721</v>
       </c>
-      <c r="I20" s="530"/>
-      <c r="J20" s="531"/>
+      <c r="I20" s="544"/>
+      <c r="J20" s="545"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="402" t="s">
         <v>714</v>
       </c>
-      <c r="B21" s="532" t="s">
+      <c r="B21" s="546" t="s">
         <v>733</v>
       </c>
-      <c r="C21" s="533"/>
-      <c r="D21" s="534"/>
-      <c r="E21" s="532" t="s">
+      <c r="C21" s="547"/>
+      <c r="D21" s="548"/>
+      <c r="E21" s="546" t="s">
         <v>734</v>
       </c>
-      <c r="F21" s="533"/>
-      <c r="G21" s="534"/>
-      <c r="H21" s="532" t="s">
+      <c r="F21" s="547"/>
+      <c r="G21" s="548"/>
+      <c r="H21" s="546" t="s">
         <v>735</v>
       </c>
-      <c r="I21" s="533"/>
-      <c r="J21" s="534"/>
+      <c r="I21" s="547"/>
+      <c r="J21" s="548"/>
     </row>
     <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A22" s="402" t="s">
@@ -8637,47 +8637,47 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="402"/>
-      <c r="B27" s="523"/>
-      <c r="C27" s="524"/>
-      <c r="D27" s="525"/>
-      <c r="E27" s="523"/>
-      <c r="F27" s="524"/>
-      <c r="G27" s="525"/>
-      <c r="H27" s="523"/>
-      <c r="I27" s="524"/>
-      <c r="J27" s="525"/>
+      <c r="B27" s="562"/>
+      <c r="C27" s="563"/>
+      <c r="D27" s="564"/>
+      <c r="E27" s="562"/>
+      <c r="F27" s="563"/>
+      <c r="G27" s="564"/>
+      <c r="H27" s="562"/>
+      <c r="I27" s="563"/>
+      <c r="J27" s="564"/>
     </row>
     <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="402" t="s">
         <v>716</v>
       </c>
-      <c r="B28" s="523"/>
-      <c r="C28" s="524"/>
-      <c r="D28" s="525"/>
-      <c r="E28" s="523"/>
-      <c r="F28" s="524"/>
-      <c r="G28" s="525"/>
-      <c r="H28" s="526"/>
-      <c r="I28" s="527"/>
-      <c r="J28" s="528"/>
+      <c r="B28" s="562"/>
+      <c r="C28" s="563"/>
+      <c r="D28" s="564"/>
+      <c r="E28" s="562"/>
+      <c r="F28" s="563"/>
+      <c r="G28" s="564"/>
+      <c r="H28" s="565"/>
+      <c r="I28" s="566"/>
+      <c r="J28" s="567"/>
     </row>
     <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="403" t="s">
         <v>750</v>
       </c>
-      <c r="B29" s="517" t="s">
+      <c r="B29" s="556" t="s">
         <v>751</v>
       </c>
-      <c r="C29" s="518"/>
-      <c r="D29" s="519"/>
-      <c r="E29" s="517" t="s">
+      <c r="C29" s="557"/>
+      <c r="D29" s="558"/>
+      <c r="E29" s="556" t="s">
         <v>752</v>
       </c>
-      <c r="F29" s="518"/>
-      <c r="G29" s="519"/>
-      <c r="H29" s="520"/>
-      <c r="I29" s="521"/>
-      <c r="J29" s="522"/>
+      <c r="F29" s="557"/>
+      <c r="G29" s="558"/>
+      <c r="H29" s="559"/>
+      <c r="I29" s="560"/>
+      <c r="J29" s="561"/>
     </row>
     <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8689,16 +8689,24 @@
     <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F1:J1"/>
@@ -8715,24 +8723,16 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10046,10 +10046,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="597" t="s">
+      <c r="G10" s="603" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="598" t="s">
+      <c r="H10" s="604" t="s">
         <v>430</v>
       </c>
     </row>
@@ -10069,8 +10069,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="597"/>
-      <c r="H11" s="598"/>
+      <c r="G11" s="603"/>
+      <c r="H11" s="604"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -10088,8 +10088,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="597"/>
-      <c r="H12" s="598"/>
+      <c r="G12" s="603"/>
+      <c r="H12" s="604"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -10107,8 +10107,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="597"/>
-      <c r="H13" s="598"/>
+      <c r="G13" s="603"/>
+      <c r="H13" s="604"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -10126,10 +10126,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="601" t="s">
+      <c r="G14" s="607" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="601" t="s">
+      <c r="H14" s="607" t="s">
         <v>446</v>
       </c>
     </row>
@@ -10149,8 +10149,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="601"/>
-      <c r="H15" s="601"/>
+      <c r="G15" s="607"/>
+      <c r="H15" s="607"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -10262,10 +10262,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="595" t="s">
+      <c r="G22" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="603" t="s">
+      <c r="H22" s="597" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10280,8 +10280,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="595"/>
-      <c r="H23" s="603"/>
+      <c r="G23" s="596"/>
+      <c r="H23" s="597"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -10294,7 +10294,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="595"/>
+      <c r="G24" s="596"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -10308,7 +10308,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="595"/>
+      <c r="G25" s="596"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10327,7 +10327,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="595"/>
+      <c r="G26" s="596"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -10346,7 +10346,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="595"/>
+      <c r="G27" s="596"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10365,7 +10365,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="595"/>
+      <c r="G28" s="596"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -10378,7 +10378,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="595"/>
+      <c r="G29" s="596"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -10387,7 +10387,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="595"/>
+      <c r="G30" s="596"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
@@ -10399,7 +10399,7 @@
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="595"/>
+      <c r="G31" s="596"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10418,7 +10418,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="595"/>
+      <c r="G32" s="596"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -10474,10 +10474,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="599" t="s">
+      <c r="G35" s="605" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="600" t="s">
+      <c r="H35" s="606" t="s">
         <v>89</v>
       </c>
     </row>
@@ -10496,8 +10496,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="599"/>
-      <c r="H36" s="600"/>
+      <c r="G36" s="605"/>
+      <c r="H36" s="606"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -10514,8 +10514,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="599"/>
-      <c r="H37" s="600"/>
+      <c r="G37" s="605"/>
+      <c r="H37" s="606"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -10528,8 +10528,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="599"/>
-      <c r="H38" s="600"/>
+      <c r="G38" s="605"/>
+      <c r="H38" s="606"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -10542,8 +10542,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="599"/>
-      <c r="H39" s="600"/>
+      <c r="G39" s="605"/>
+      <c r="H39" s="606"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -10626,7 +10626,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="607"/>
+      <c r="H44" s="601"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -10639,10 +10639,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="605" t="s">
+      <c r="G45" s="599" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="607"/>
+      <c r="H45" s="601"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -10660,7 +10660,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="605"/>
+      <c r="G46" s="599"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -10700,8 +10700,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="604"/>
-      <c r="G49" s="604" t="s">
+      <c r="F49" s="598"/>
+      <c r="G49" s="598" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -10716,8 +10716,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="604"/>
-      <c r="G50" s="604"/>
+      <c r="F50" s="598"/>
+      <c r="G50" s="598"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -10730,8 +10730,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="604"/>
-      <c r="G51" s="604"/>
+      <c r="F51" s="598"/>
+      <c r="G51" s="598"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10792,10 +10792,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="596" t="s">
+      <c r="G55" s="608" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="606" t="s">
+      <c r="H55" s="600" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10810,8 +10810,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="596"/>
-      <c r="H56" s="606"/>
+      <c r="G56" s="608"/>
+      <c r="H56" s="600"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -10824,8 +10824,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="596"/>
-      <c r="H57" s="606"/>
+      <c r="G57" s="608"/>
+      <c r="H57" s="600"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -10843,8 +10843,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="596"/>
-      <c r="H58" s="606"/>
+      <c r="G58" s="608"/>
+      <c r="H58" s="600"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -11010,10 +11010,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="595" t="s">
+      <c r="G72" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="608"/>
+      <c r="H72" s="602"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -11023,8 +11023,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="595"/>
-      <c r="H73" s="608"/>
+      <c r="G73" s="596"/>
+      <c r="H73" s="602"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -11034,8 +11034,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="595"/>
-      <c r="H74" s="608"/>
+      <c r="G74" s="596"/>
+      <c r="H74" s="602"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -11045,8 +11045,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="595"/>
-      <c r="H75" s="608"/>
+      <c r="G75" s="596"/>
+      <c r="H75" s="602"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -11056,8 +11056,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="595"/>
-      <c r="H76" s="608"/>
+      <c r="G76" s="596"/>
+      <c r="H76" s="602"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -11195,10 +11195,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="595" t="s">
+      <c r="G94" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="602" t="s">
+      <c r="H94" s="595" t="s">
         <v>542</v>
       </c>
     </row>
@@ -11209,8 +11209,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="595"/>
-      <c r="H95" s="602"/>
+      <c r="G95" s="596"/>
+      <c r="H95" s="595"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -11219,8 +11219,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="595"/>
-      <c r="H96" s="602"/>
+      <c r="G96" s="596"/>
+      <c r="H96" s="595"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -11235,7 +11235,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="595" t="s">
+      <c r="G97" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11246,7 +11246,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="595"/>
+      <c r="G98" s="596"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -11255,7 +11255,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="595"/>
+      <c r="G99" s="596"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -11270,7 +11270,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="595" t="s">
+      <c r="G100" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11282,7 +11282,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="595"/>
+      <c r="G101" s="596"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -11292,7 +11292,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="595"/>
+      <c r="G102" s="596"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -11302,7 +11302,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="595"/>
+      <c r="G103" s="596"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -11361,7 +11361,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="595" t="s">
+      <c r="G117" s="596" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -11373,7 +11373,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="595"/>
+      <c r="G118" s="596"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -11389,7 +11389,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="595" t="s">
+      <c r="G119" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11400,7 +11400,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="595"/>
+      <c r="G120" s="596"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -11434,7 +11434,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="595" t="s">
+      <c r="G126" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="595"/>
+      <c r="G127" s="596"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -11471,7 +11471,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="595" t="s">
+      <c r="G130" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11483,7 +11483,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="595"/>
+      <c r="G131" s="596"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -11507,7 +11507,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="595" t="s">
+      <c r="G134" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11518,7 +11518,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="595"/>
+      <c r="G135" s="596"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -11527,7 +11527,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="595"/>
+      <c r="G136" s="596"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -11558,13 +11558,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="595" t="s">
+      <c r="G140" s="596" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="595"/>
+      <c r="G141" s="596"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -11583,7 +11583,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="595"/>
+      <c r="G142" s="596"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -11600,7 +11600,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="595"/>
+      <c r="G143" s="596"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -11617,11 +11617,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="595"/>
+      <c r="G144" s="596"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="595"/>
+      <c r="G145" s="596"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -11673,7 +11673,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="595" t="s">
+      <c r="G152" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11684,7 +11684,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="595"/>
+      <c r="G153" s="596"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -11695,6 +11695,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G140:G145"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H94:H96"/>
     <mergeCell ref="G97:G99"/>
     <mergeCell ref="G22:G32"/>
@@ -11706,22 +11722,6 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G140:G145"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11732,8 +11732,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H135"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B111" sqref="B111"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11847,10 +11847,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="595" t="s">
+      <c r="G13" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="608"/>
+      <c r="H13" s="602"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -11860,8 +11860,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="595"/>
-      <c r="H14" s="608"/>
+      <c r="G14" s="596"/>
+      <c r="H14" s="602"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -11871,8 +11871,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="595"/>
-      <c r="H15" s="608"/>
+      <c r="G15" s="596"/>
+      <c r="H15" s="602"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -11882,8 +11882,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="595"/>
-      <c r="H16" s="608"/>
+      <c r="G16" s="596"/>
+      <c r="H16" s="602"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -11893,8 +11893,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="595"/>
-      <c r="H17" s="608"/>
+      <c r="G17" s="596"/>
+      <c r="H17" s="602"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -11917,10 +11917,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="595" t="s">
+      <c r="G20" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="602" t="s">
+      <c r="H20" s="595" t="s">
         <v>542</v>
       </c>
     </row>
@@ -11931,8 +11931,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="595"/>
-      <c r="H21" s="602"/>
+      <c r="G21" s="596"/>
+      <c r="H21" s="595"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -11941,8 +11941,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="595"/>
-      <c r="H22" s="602"/>
+      <c r="G22" s="596"/>
+      <c r="H22" s="595"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -11957,7 +11957,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="595" t="s">
+      <c r="G23" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11968,7 +11968,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="595"/>
+      <c r="G24" s="596"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -11977,7 +11977,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="595"/>
+      <c r="G25" s="596"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -11992,7 +11992,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="595" t="s">
+      <c r="G26" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12004,7 +12004,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="595"/>
+      <c r="G27" s="596"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -12014,7 +12014,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="595"/>
+      <c r="G28" s="596"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -12024,7 +12024,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="595"/>
+      <c r="G29" s="596"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -12077,10 +12077,10 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="595" t="s">
+      <c r="G37" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="610" t="s">
+      <c r="H37" s="609" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12097,8 +12097,8 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="595"/>
-      <c r="H38" s="610"/>
+      <c r="G38" s="596"/>
+      <c r="H38" s="609"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
@@ -12113,8 +12113,8 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="595"/>
-      <c r="H39" s="610"/>
+      <c r="G39" s="596"/>
+      <c r="H39" s="609"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
@@ -12124,8 +12124,8 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="595"/>
-      <c r="H40" s="610"/>
+      <c r="G40" s="596"/>
+      <c r="H40" s="609"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
@@ -12135,8 +12135,8 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="595"/>
-      <c r="H41" s="610"/>
+      <c r="G41" s="596"/>
+      <c r="H41" s="609"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
@@ -12166,7 +12166,7 @@
       <c r="G46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="27" t="s">
+      <c r="H46" s="602" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12178,10 +12178,10 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="595" t="s">
+      <c r="G47" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="27"/>
+      <c r="H47" s="602"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
@@ -12191,7 +12191,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="595"/>
+      <c r="G48" s="596"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -12202,7 +12202,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="595"/>
+      <c r="G49" s="596"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -12230,10 +12230,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="595" t="s">
+      <c r="G54" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="602" t="s">
+      <c r="H54" s="595" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12244,8 +12244,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="595"/>
-      <c r="H55" s="602"/>
+      <c r="G55" s="596"/>
+      <c r="H55" s="595"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -12254,7 +12254,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="595"/>
+      <c r="G56" s="596"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -12264,7 +12264,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="595"/>
+      <c r="G57" s="596"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12281,7 +12281,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="595"/>
+      <c r="G58" s="596"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12298,7 +12298,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="595"/>
+      <c r="G59" s="596"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -12318,8 +12318,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="595"/>
-      <c r="G61" s="595" t="s">
+      <c r="F61" s="596"/>
+      <c r="G61" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12330,8 +12330,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="595"/>
-      <c r="G62" s="595"/>
+      <c r="F62" s="596"/>
+      <c r="G62" s="596"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -12340,8 +12340,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="595"/>
-      <c r="G63" s="595"/>
+      <c r="F63" s="596"/>
+      <c r="G63" s="596"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -12406,7 +12406,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="595" t="s">
+      <c r="G68" s="596" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -12418,7 +12418,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="595"/>
+      <c r="G69" s="596"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -12434,7 +12434,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="595" t="s">
+      <c r="G70" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12445,7 +12445,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="595"/>
+      <c r="G71" s="596"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -12472,10 +12472,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="595" t="s">
+      <c r="G75" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="608" t="s">
+      <c r="H75" s="602" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12493,8 +12493,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="595"/>
-      <c r="H76" s="608"/>
+      <c r="G76" s="596"/>
+      <c r="H76" s="602"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -12510,8 +12510,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="595"/>
-      <c r="H77" s="608"/>
+      <c r="G77" s="596"/>
+      <c r="H77" s="602"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -12546,10 +12546,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="595" t="s">
+      <c r="G81" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="602" t="s">
+      <c r="H81" s="595" t="s">
         <v>430</v>
       </c>
     </row>
@@ -12567,8 +12567,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="595"/>
-      <c r="H82" s="602"/>
+      <c r="G82" s="596"/>
+      <c r="H82" s="595"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -12584,8 +12584,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="595"/>
-      <c r="H83" s="602"/>
+      <c r="G83" s="596"/>
+      <c r="H83" s="595"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -12601,8 +12601,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="595"/>
-      <c r="H84" s="602"/>
+      <c r="G84" s="596"/>
+      <c r="H84" s="595"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -12618,10 +12618,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="608" t="s">
+      <c r="G85" s="602" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="608" t="s">
+      <c r="H85" s="602" t="s">
         <v>446</v>
       </c>
     </row>
@@ -12639,8 +12639,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="608"/>
-      <c r="H86" s="608"/>
+      <c r="G86" s="602"/>
+      <c r="H86" s="602"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -12672,10 +12672,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="595" t="s">
+      <c r="F89" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="609" t="s">
+      <c r="H89" s="610" t="s">
         <v>473</v>
       </c>
     </row>
@@ -12686,8 +12686,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="595"/>
-      <c r="H90" s="609"/>
+      <c r="F90" s="596"/>
+      <c r="H90" s="610"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -12697,8 +12697,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="595"/>
-      <c r="H91" s="609"/>
+      <c r="F91" s="596"/>
+      <c r="H91" s="610"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -12714,8 +12714,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="595"/>
-      <c r="H92" s="609"/>
+      <c r="F92" s="596"/>
+      <c r="H92" s="610"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -12731,10 +12731,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="595" t="s">
+      <c r="G93" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="608" t="s">
+      <c r="H93" s="602" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12751,8 +12751,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="595"/>
-      <c r="H94" s="608"/>
+      <c r="G94" s="596"/>
+      <c r="H94" s="602"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -12761,7 +12761,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="595" t="s">
+      <c r="G95" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12779,7 +12779,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="595"/>
+      <c r="G96" s="596"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -12802,7 +12802,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="595" t="s">
+      <c r="G99" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="595"/>
+      <c r="G100" s="596"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -12839,7 +12839,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="595" t="s">
+      <c r="G103" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12851,7 +12851,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="595"/>
+      <c r="G104" s="596"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -12875,7 +12875,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="595" t="s">
+      <c r="G107" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12886,7 +12886,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="595"/>
+      <c r="G108" s="596"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -12895,7 +12895,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="595"/>
+      <c r="G109" s="596"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -12912,7 +12912,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="595" t="s">
+      <c r="G110" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12924,7 +12924,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="595"/>
+      <c r="G111" s="596"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -12937,7 +12937,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="595"/>
+      <c r="G112" s="596"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -12954,7 +12954,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="595"/>
+      <c r="G113" s="596"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -13001,7 +13001,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="595" t="s">
+      <c r="G117" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13020,7 +13020,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="595"/>
+      <c r="G118" s="596"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -13039,7 +13039,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="595"/>
+      <c r="G119" s="596"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -13056,7 +13056,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="595"/>
+      <c r="G120" s="596"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -13073,7 +13073,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="595"/>
+      <c r="G121" s="596"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -13090,7 +13090,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="595"/>
+      <c r="G122" s="596"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -13105,7 +13105,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="595"/>
+      <c r="G123" s="596"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -13210,7 +13210,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="595" t="s">
+      <c r="G133" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13221,13 +13221,36 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="595"/>
+      <c r="G134" s="596"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G47:G49"/>
@@ -13237,29 +13260,7 @@
     <mergeCell ref="G26:G29"/>
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="H37:H41"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H46:H47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -13304,10 +13305,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="611" t="s">
+      <c r="B6" s="612" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="602" t="s">
+      <c r="C6" s="595" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -13316,84 +13317,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="595" t="s">
+      <c r="F6" s="596" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="602" t="s">
+      <c r="H6" s="595" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="611"/>
-      <c r="C7" s="602"/>
+      <c r="B7" s="612"/>
+      <c r="C7" s="595"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="595"/>
-      <c r="H7" s="602"/>
+      <c r="F7" s="596"/>
+      <c r="H7" s="595"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="611"/>
-      <c r="C8" s="602"/>
+      <c r="B8" s="612"/>
+      <c r="C8" s="595"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="595"/>
-      <c r="H8" s="602"/>
+      <c r="F8" s="596"/>
+      <c r="H8" s="595"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="611"/>
-      <c r="C9" s="602"/>
+      <c r="B9" s="612"/>
+      <c r="C9" s="595"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="595"/>
-      <c r="H9" s="602"/>
+      <c r="F9" s="596"/>
+      <c r="H9" s="595"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="611"/>
-      <c r="C10" s="602"/>
+      <c r="B10" s="612"/>
+      <c r="C10" s="595"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="595"/>
-      <c r="H10" s="602"/>
+      <c r="F10" s="596"/>
+      <c r="H10" s="595"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="611"/>
-      <c r="C11" s="602"/>
+      <c r="B11" s="612"/>
+      <c r="C11" s="595"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="595"/>
-      <c r="H11" s="602"/>
+      <c r="F11" s="596"/>
+      <c r="H11" s="595"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="611"/>
-      <c r="C12" s="602"/>
+      <c r="B12" s="612"/>
+      <c r="C12" s="595"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="595"/>
-      <c r="H12" s="602"/>
+      <c r="F12" s="596"/>
+      <c r="H12" s="595"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -13434,7 +13435,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="595" t="s">
+      <c r="F16" s="596" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13452,7 +13453,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="595"/>
+      <c r="F17" s="596"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -13493,7 +13494,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="595" t="s">
+      <c r="F21" s="596" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -13513,7 +13514,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="595"/>
+      <c r="F22" s="596"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -13528,7 +13529,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="595"/>
+      <c r="F23" s="596"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -13543,7 +13544,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="595"/>
+      <c r="F24" s="596"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -13558,7 +13559,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="595"/>
+      <c r="F25" s="596"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -13567,7 +13568,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="595"/>
+      <c r="F26" s="596"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -13598,10 +13599,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="595" t="s">
+      <c r="F30" s="596" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="608" t="s">
+      <c r="H30" s="602" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13618,8 +13619,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="595"/>
-      <c r="H31" s="608"/>
+      <c r="F31" s="596"/>
+      <c r="H31" s="602"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -13634,8 +13635,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="595"/>
-      <c r="H32" s="608"/>
+      <c r="F32" s="596"/>
+      <c r="H32" s="602"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -13644,8 +13645,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="595"/>
-      <c r="H33" s="608"/>
+      <c r="F33" s="596"/>
+      <c r="H33" s="602"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -13654,10 +13655,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="595" t="s">
+      <c r="G34" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="608"/>
+      <c r="H34" s="602"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -13666,8 +13667,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="595"/>
-      <c r="H35" s="608"/>
+      <c r="G35" s="596"/>
+      <c r="H35" s="602"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -13676,8 +13677,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="595"/>
-      <c r="H36" s="608"/>
+      <c r="G36" s="596"/>
+      <c r="H36" s="602"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -13692,10 +13693,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="595" t="s">
+      <c r="F37" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="608" t="s">
+      <c r="H37" s="602" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13706,8 +13707,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="595"/>
-      <c r="H38" s="608"/>
+      <c r="F38" s="596"/>
+      <c r="H38" s="602"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -13716,8 +13717,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="595"/>
-      <c r="H39" s="608"/>
+      <c r="F39" s="596"/>
+      <c r="H39" s="602"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -13732,10 +13733,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="595" t="s">
+      <c r="G40" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="608"/>
+      <c r="H40" s="602"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -13745,8 +13746,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="595"/>
-      <c r="H41" s="608"/>
+      <c r="G41" s="596"/>
+      <c r="H41" s="602"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -13756,8 +13757,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="595"/>
-      <c r="H42" s="608"/>
+      <c r="G42" s="596"/>
+      <c r="H42" s="602"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -13767,8 +13768,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="595"/>
-      <c r="H43" s="608"/>
+      <c r="G43" s="596"/>
+      <c r="H43" s="602"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -13778,8 +13779,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="595"/>
-      <c r="H44" s="608"/>
+      <c r="G44" s="596"/>
+      <c r="H44" s="602"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -13802,10 +13803,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="595" t="s">
+      <c r="G47" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="602" t="s">
+      <c r="H47" s="595" t="s">
         <v>542</v>
       </c>
     </row>
@@ -13816,8 +13817,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="595"/>
-      <c r="H48" s="602"/>
+      <c r="G48" s="596"/>
+      <c r="H48" s="595"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -13826,8 +13827,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="595"/>
-      <c r="H49" s="602"/>
+      <c r="G49" s="596"/>
+      <c r="H49" s="595"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -13842,7 +13843,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="595" t="s">
+      <c r="G50" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13853,7 +13854,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="595"/>
+      <c r="G51" s="596"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -13862,7 +13863,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="595"/>
+      <c r="G52" s="596"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -13878,7 +13879,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="595" t="s">
+      <c r="G53" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13891,7 +13892,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="595"/>
+      <c r="G54" s="596"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -13902,7 +13903,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="595"/>
+      <c r="G55" s="596"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -13913,7 +13914,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="595"/>
+      <c r="G56" s="596"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -14034,10 +14035,10 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="595" t="s">
+      <c r="G69" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="610" t="s">
+      <c r="H69" s="609" t="s">
         <v>89</v>
       </c>
     </row>
@@ -14054,8 +14055,8 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="595"/>
-      <c r="H70" s="610"/>
+      <c r="G70" s="596"/>
+      <c r="H70" s="609"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
@@ -14070,8 +14071,8 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="595"/>
-      <c r="H71" s="610"/>
+      <c r="G71" s="596"/>
+      <c r="H71" s="609"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
@@ -14081,8 +14082,8 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="595"/>
-      <c r="H72" s="610"/>
+      <c r="G72" s="596"/>
+      <c r="H72" s="609"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
@@ -14092,8 +14093,8 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="595"/>
-      <c r="H73" s="610"/>
+      <c r="G73" s="596"/>
+      <c r="H73" s="609"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
@@ -14123,7 +14124,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="608" t="s">
+      <c r="H78" s="602" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14135,10 +14136,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="595" t="s">
+      <c r="F79" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="608"/>
+      <c r="H79" s="602"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -14148,8 +14149,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="595"/>
-      <c r="H80" s="608"/>
+      <c r="F80" s="596"/>
+      <c r="H80" s="602"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -14159,7 +14160,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="595" t="s">
+      <c r="G81" s="596" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -14172,7 +14173,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="595"/>
+      <c r="G82" s="596"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -14183,7 +14184,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="595"/>
+      <c r="G83" s="596"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14199,10 +14200,10 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="595" t="s">
+      <c r="F85" s="596" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="612" t="s">
+      <c r="H85" s="611" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14214,8 +14215,8 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="595"/>
-      <c r="H86" s="612"/>
+      <c r="F86" s="596"/>
+      <c r="H86" s="611"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
@@ -14225,8 +14226,8 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="595"/>
-      <c r="H87" s="612"/>
+      <c r="F87" s="596"/>
+      <c r="H87" s="611"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
@@ -14236,8 +14237,8 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="595"/>
-      <c r="H88" s="612"/>
+      <c r="F88" s="596"/>
+      <c r="H88" s="611"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
@@ -14255,7 +14256,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="608" t="s">
+      <c r="H90" s="602" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14272,10 +14273,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="595" t="s">
+      <c r="F91" s="596" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="608"/>
+      <c r="H91" s="602"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -14285,8 +14286,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="595"/>
-      <c r="H92" s="608"/>
+      <c r="F92" s="596"/>
+      <c r="H92" s="602"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -14304,7 +14305,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="608"/>
+      <c r="H93" s="602"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -14322,7 +14323,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="608"/>
+      <c r="H94" s="602"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -14337,7 +14338,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="595" t="s">
+      <c r="F96" s="596" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -14352,7 +14353,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="595"/>
+      <c r="F97" s="596"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -14361,7 +14362,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="595"/>
+      <c r="F98" s="596"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -14376,7 +14377,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="595" t="s">
+      <c r="F99" s="596" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14393,7 +14394,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="595"/>
+      <c r="F100" s="596"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -14405,10 +14406,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="595" t="s">
+      <c r="G101" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="602" t="s">
+      <c r="H101" s="595" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14419,8 +14420,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="595"/>
-      <c r="H102" s="602"/>
+      <c r="G102" s="596"/>
+      <c r="H102" s="595"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -14429,7 +14430,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="595"/>
+      <c r="G103" s="596"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -14439,7 +14440,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="595"/>
+      <c r="G104" s="596"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14456,7 +14457,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="595"/>
+      <c r="G105" s="596"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14473,7 +14474,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="595"/>
+      <c r="G106" s="596"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -14493,7 +14494,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="595" t="s">
+      <c r="F108" s="596" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -14511,7 +14512,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="595"/>
+      <c r="F109" s="596"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -14521,7 +14522,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="595"/>
+      <c r="F110" s="596"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -14531,7 +14532,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="595"/>
+      <c r="F111" s="596"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -14541,7 +14542,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="595"/>
+      <c r="F112" s="596"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -14550,7 +14551,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="595"/>
+      <c r="F113" s="596"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -14565,10 +14566,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="595" t="s">
+      <c r="F114" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="602" t="s">
+      <c r="H114" s="595" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14585,8 +14586,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="595"/>
-      <c r="H115" s="602"/>
+      <c r="F115" s="596"/>
+      <c r="H115" s="595"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -14601,8 +14602,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="595"/>
-      <c r="H116" s="602"/>
+      <c r="F116" s="596"/>
+      <c r="H116" s="595"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -14617,8 +14618,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="595"/>
-      <c r="H117" s="602"/>
+      <c r="F117" s="596"/>
+      <c r="H117" s="595"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -14627,8 +14628,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="595"/>
-      <c r="H118" s="602"/>
+      <c r="F118" s="596"/>
+      <c r="H118" s="595"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -14637,8 +14638,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="595"/>
-      <c r="H119" s="602"/>
+      <c r="F119" s="596"/>
+      <c r="H119" s="595"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -14647,8 +14648,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="595"/>
-      <c r="H120" s="602"/>
+      <c r="F120" s="596"/>
+      <c r="H120" s="595"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -14657,8 +14658,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="595"/>
-      <c r="H121" s="602"/>
+      <c r="F121" s="596"/>
+      <c r="H121" s="595"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -14667,8 +14668,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="595"/>
-      <c r="H122" s="602"/>
+      <c r="F122" s="596"/>
+      <c r="H122" s="595"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -14684,8 +14685,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="595"/>
-      <c r="G123" s="595" t="s">
+      <c r="F123" s="596"/>
+      <c r="G123" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14696,8 +14697,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="595"/>
-      <c r="G124" s="595"/>
+      <c r="F124" s="596"/>
+      <c r="G124" s="596"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -14706,8 +14707,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="595"/>
-      <c r="G125" s="595"/>
+      <c r="F125" s="596"/>
+      <c r="G125" s="596"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -14716,10 +14717,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="595" t="s">
+      <c r="F126" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="608" t="s">
+      <c r="H126" s="602" t="s">
         <v>41</v>
       </c>
     </row>
@@ -14737,8 +14738,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="595"/>
-      <c r="H127" s="608"/>
+      <c r="F127" s="596"/>
+      <c r="H127" s="602"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -14753,7 +14754,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="595"/>
+      <c r="F128" s="596"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -14762,7 +14763,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="595"/>
+      <c r="F129" s="596"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -14772,7 +14773,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="595"/>
+      <c r="F130" s="596"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -14781,7 +14782,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="595"/>
+      <c r="F131" s="596"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -14797,7 +14798,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="595" t="s">
+      <c r="F132" s="596" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14808,7 +14809,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="595"/>
+      <c r="F133" s="596"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -14895,7 +14896,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="595" t="s">
+      <c r="G139" s="596" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -14907,7 +14908,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="595"/>
+      <c r="G140" s="596"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -14923,7 +14924,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="595" t="s">
+      <c r="G141" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14934,7 +14935,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="595"/>
+      <c r="G142" s="596"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -14961,10 +14962,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="595" t="s">
+      <c r="G146" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="608" t="s">
+      <c r="H146" s="602" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14982,8 +14983,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="595"/>
-      <c r="H147" s="608"/>
+      <c r="G147" s="596"/>
+      <c r="H147" s="602"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -14999,8 +15000,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="595"/>
-      <c r="H148" s="608"/>
+      <c r="G148" s="596"/>
+      <c r="H148" s="602"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -15042,10 +15043,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="595" t="s">
+      <c r="F152" s="596" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="608" t="s">
+      <c r="H152" s="602" t="s">
         <v>417</v>
       </c>
     </row>
@@ -15062,8 +15063,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="595"/>
-      <c r="H153" s="608"/>
+      <c r="F153" s="596"/>
+      <c r="H153" s="602"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -15078,8 +15079,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="595"/>
-      <c r="H154" s="608"/>
+      <c r="F154" s="596"/>
+      <c r="H154" s="602"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -15090,10 +15091,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="595" t="s">
+      <c r="G155" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="602" t="s">
+      <c r="H155" s="595" t="s">
         <v>430</v>
       </c>
     </row>
@@ -15112,8 +15113,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="595"/>
-      <c r="H156" s="602"/>
+      <c r="G156" s="596"/>
+      <c r="H156" s="595"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -15130,8 +15131,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="595"/>
-      <c r="H157" s="602"/>
+      <c r="G157" s="596"/>
+      <c r="H157" s="595"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -15148,8 +15149,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="595"/>
-      <c r="H158" s="602"/>
+      <c r="G158" s="596"/>
+      <c r="H158" s="595"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -15165,7 +15166,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="595" t="s">
+      <c r="F159" s="596" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -15185,7 +15186,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="595"/>
+      <c r="F160" s="596"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -15203,10 +15204,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="608" t="s">
+      <c r="G161" s="602" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="608" t="s">
+      <c r="H161" s="602" t="s">
         <v>446</v>
       </c>
     </row>
@@ -15225,8 +15226,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="608"/>
-      <c r="H162" s="608"/>
+      <c r="G162" s="602"/>
+      <c r="H162" s="602"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -15245,11 +15246,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="595" t="s">
+      <c r="F164" s="596" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="608" t="s">
+      <c r="H164" s="602" t="s">
         <v>454</v>
       </c>
     </row>
@@ -15261,9 +15262,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="595"/>
+      <c r="F165" s="596"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="608"/>
+      <c r="H165" s="602"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -15273,9 +15274,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="595"/>
+      <c r="F166" s="596"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="608"/>
+      <c r="H166" s="602"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -15291,9 +15292,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="595"/>
+      <c r="F167" s="596"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="608"/>
+      <c r="H167" s="602"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -15308,8 +15309,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="595"/>
-      <c r="H168" s="608"/>
+      <c r="F168" s="596"/>
+      <c r="H168" s="602"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -15318,8 +15319,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="595"/>
-      <c r="H169" s="608"/>
+      <c r="F169" s="596"/>
+      <c r="H169" s="602"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -15331,7 +15332,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="608"/>
+      <c r="H170" s="602"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -15351,10 +15352,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="595" t="s">
+      <c r="F172" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="609" t="s">
+      <c r="H172" s="610" t="s">
         <v>473</v>
       </c>
     </row>
@@ -15365,8 +15366,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="595"/>
-      <c r="H173" s="609"/>
+      <c r="F173" s="596"/>
+      <c r="H173" s="610"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -15376,8 +15377,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="595"/>
-      <c r="H174" s="609"/>
+      <c r="F174" s="596"/>
+      <c r="H174" s="610"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -15393,8 +15394,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="595"/>
-      <c r="H175" s="609"/>
+      <c r="F175" s="596"/>
+      <c r="H175" s="610"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -15410,10 +15411,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="595" t="s">
+      <c r="G176" s="596" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="608" t="s">
+      <c r="H176" s="602" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15430,8 +15431,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="595"/>
-      <c r="H177" s="608"/>
+      <c r="G177" s="596"/>
+      <c r="H177" s="602"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -15440,7 +15441,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="595" t="s">
+      <c r="G178" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15458,7 +15459,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="595"/>
+      <c r="G179" s="596"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -15484,7 +15485,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="608" t="s">
+      <c r="H182" s="602" t="s">
         <v>55</v>
       </c>
     </row>
@@ -15506,7 +15507,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="608"/>
+      <c r="H183" s="602"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -15523,7 +15524,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="595" t="s">
+      <c r="G184" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15537,7 +15538,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="595"/>
+      <c r="G185" s="596"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -15572,7 +15573,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="608" t="s">
+      <c r="H188" s="602" t="s">
         <v>493</v>
       </c>
     </row>
@@ -15593,7 +15594,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="608"/>
+      <c r="H189" s="602"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -15609,10 +15610,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="595" t="s">
+      <c r="G190" s="596" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="608"/>
+      <c r="H190" s="602"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -15622,8 +15623,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="595"/>
-      <c r="H191" s="608"/>
+      <c r="G191" s="596"/>
+      <c r="H191" s="602"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -15644,7 +15645,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="595" t="s">
+      <c r="F194" s="596" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15656,7 +15657,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="595"/>
+      <c r="F195" s="596"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15674,7 +15675,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="595" t="s">
+      <c r="G196" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15688,7 +15689,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="595"/>
+      <c r="G197" s="596"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -15697,7 +15698,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="595"/>
+      <c r="G198" s="596"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -15714,7 +15715,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="595" t="s">
+      <c r="G199" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15729,7 +15730,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="595"/>
+      <c r="G200" s="596"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -15745,7 +15746,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="595"/>
+      <c r="G201" s="596"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -15763,7 +15764,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="595"/>
+      <c r="G202" s="596"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -15824,7 +15825,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="595" t="s">
+      <c r="G206" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15844,7 +15845,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="595"/>
+      <c r="G207" s="596"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -15863,7 +15864,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="595"/>
+      <c r="G208" s="596"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -15880,7 +15881,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="595"/>
+      <c r="G209" s="596"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -15897,7 +15898,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="595"/>
+      <c r="G210" s="596"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -15914,7 +15915,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="595"/>
+      <c r="G211" s="596"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -15929,7 +15930,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="595"/>
+      <c r="G212" s="596"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -15948,7 +15949,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="608" t="s">
+      <c r="H213" s="602" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15969,7 +15970,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="608"/>
+      <c r="H214" s="602"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -15985,10 +15986,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="595" t="s">
+      <c r="F215" s="596" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="608" t="s">
+      <c r="H215" s="602" t="s">
         <v>546</v>
       </c>
     </row>
@@ -16000,8 +16001,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="595"/>
-      <c r="H216" s="608"/>
+      <c r="F216" s="596"/>
+      <c r="H216" s="602"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -16067,10 +16068,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="595" t="s">
+      <c r="F220" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="608" t="s">
+      <c r="H220" s="602" t="s">
         <v>556</v>
       </c>
     </row>
@@ -16082,8 +16083,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="595"/>
-      <c r="H221" s="608"/>
+      <c r="F221" s="596"/>
+      <c r="H221" s="602"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -16092,8 +16093,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="595"/>
-      <c r="H222" s="608"/>
+      <c r="F222" s="596"/>
+      <c r="H222" s="602"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -16124,10 +16125,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="595" t="s">
+      <c r="F226" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="609" t="s">
+      <c r="H226" s="610" t="s">
         <v>566</v>
       </c>
     </row>
@@ -16138,8 +16139,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="595"/>
-      <c r="H227" s="609"/>
+      <c r="F227" s="596"/>
+      <c r="H227" s="610"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -16148,8 +16149,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="595"/>
-      <c r="H228" s="609"/>
+      <c r="F228" s="596"/>
+      <c r="H228" s="610"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -16159,8 +16160,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="595"/>
-      <c r="H229" s="609"/>
+      <c r="F229" s="596"/>
+      <c r="H229" s="610"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -16169,8 +16170,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="595"/>
-      <c r="H230" s="609"/>
+      <c r="F230" s="596"/>
+      <c r="H230" s="610"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -16189,7 +16190,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="609"/>
+      <c r="H231" s="610"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -16231,10 +16232,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="595" t="s">
+      <c r="F235" s="596" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="608" t="s">
+      <c r="H235" s="602" t="s">
         <v>580</v>
       </c>
     </row>
@@ -16245,8 +16246,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="595"/>
-      <c r="H236" s="608"/>
+      <c r="F236" s="596"/>
+      <c r="H236" s="602"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -16255,8 +16256,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="595"/>
-      <c r="H237" s="608"/>
+      <c r="F237" s="596"/>
+      <c r="H237" s="602"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -16265,8 +16266,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="595"/>
-      <c r="H238" s="608"/>
+      <c r="F238" s="596"/>
+      <c r="H238" s="602"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -16282,7 +16283,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="595" t="s">
+      <c r="G239" s="596" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16293,7 +16294,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="595"/>
+      <c r="G240" s="596"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -16309,11 +16310,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="595" t="s">
+      <c r="F241" s="596" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="608" t="s">
+      <c r="H241" s="602" t="s">
         <v>79</v>
       </c>
     </row>
@@ -16324,9 +16325,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="595"/>
+      <c r="F242" s="596"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="608"/>
+      <c r="H242" s="602"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
@@ -16443,14 +16444,57 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="F226:F230"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="G199:G202"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G101:G106"/>
+    <mergeCell ref="F114:F122"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="F126:F131"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="G206:G212"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H176:H177"/>
     <mergeCell ref="H6:H12"/>
     <mergeCell ref="G53:G56"/>
     <mergeCell ref="H213:H214"/>
@@ -16467,57 +16511,14 @@
     <mergeCell ref="H152:H154"/>
     <mergeCell ref="F152:F154"/>
     <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="G206:G212"/>
-    <mergeCell ref="H220:H222"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="G199:G202"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G101:G106"/>
-    <mergeCell ref="F114:F122"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="F126:F131"/>
-    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="F226:F230"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G239:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2018" sheetId="4" r:id="rId1"/>
     <sheet name="Cycle 1" sheetId="9" r:id="rId2"/>
-    <sheet name="Cycles" sheetId="6" r:id="rId3"/>
-    <sheet name="Liste Systèmes" sheetId="8" r:id="rId4"/>
-    <sheet name="TPxCompe" sheetId="5" r:id="rId5"/>
-    <sheet name="Tri_Semestre" sheetId="3" r:id="rId6"/>
-    <sheet name="Programme_S3_S4" sheetId="2" r:id="rId7"/>
-    <sheet name="Programme" sheetId="1" r:id="rId8"/>
+    <sheet name="Cycle 2" sheetId="10" r:id="rId3"/>
+    <sheet name="Cycles" sheetId="6" r:id="rId4"/>
+    <sheet name="Liste Systèmes" sheetId="8" r:id="rId5"/>
+    <sheet name="TPxCompe" sheetId="5" r:id="rId6"/>
+    <sheet name="Tri_Semestre" sheetId="3" r:id="rId7"/>
+    <sheet name="Programme_S3_S4" sheetId="2" r:id="rId8"/>
+    <sheet name="Programme" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1586" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="764">
   <si>
     <t>A – Analyser</t>
   </si>
@@ -2229,9 +2230,6 @@
     <t>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</t>
   </si>
   <si>
-    <t>Maxpid, Comax, Cheville (s), Cordeuse, ControlX</t>
-  </si>
-  <si>
     <t>Exercices de modélisation multiphysique bouquin.</t>
   </si>
   <si>
@@ -2343,9 +2341,6 @@
     <t>TD - 1h</t>
   </si>
   <si>
-    <t>Analyse d'un modèle multiphysique.</t>
-  </si>
-  <si>
     <t>TP - 2h - Ilot 1/2</t>
   </si>
   <si>
@@ -2391,6 +2386,34 @@
   </si>
   <si>
     <t xml:space="preserve">Synthèse sur les questions suites au TD. </t>
+  </si>
+  <si>
+    <t>Maxpid, Comax, Cheville (s), Cordeuse, ControlX, Ericc</t>
+  </si>
+  <si>
+    <t>Analyse d'un modèle multiphysique. Scooter BMW CEVO</t>
+  </si>
+  <si>
+    <t>Mod 3 : Valider un modèle
+Res 2 : Procéder à la mise en oeuvre d’une démarche de résolution analytique</t>
+  </si>
+  <si>
+    <t>Mod3.C2.SF1</t>
+  </si>
+  <si>
+    <t>Res2.C5.SF1</t>
+  </si>
+  <si>
+    <t>Res2.C6.SF1</t>
+  </si>
+  <si>
+    <t>Res2.C7.SF1</t>
+  </si>
+  <si>
+    <t>Res2.C10.SF1</t>
+  </si>
+  <si>
+    <t>Res2.C11.SF1</t>
   </si>
 </sst>
 </file>
@@ -3370,7 +3393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="613">
+  <cellXfs count="708">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4527,6 +4550,117 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4983,6 +5117,15 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -5001,6 +5144,162 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5135,6 +5434,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5158,16 +5466,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85726</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>600075</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723901</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1114425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>940310</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>61163</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>378335</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>99263</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5188,7 +5496,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3686176" y="7705725"/>
+          <a:off x="1924051" y="8715375"/>
           <a:ext cx="854584" cy="594563"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5210,16 +5518,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>151792</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>94642</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>733425</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>848177</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>524424</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>791027</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1086399</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5242,7 +5550,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3752242" y="7277100"/>
+          <a:off x="1294792" y="8001000"/>
           <a:ext cx="696385" cy="352974"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5254,16 +5562,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>193591</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>360956</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>898441</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>75206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1020205</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>99691</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>524905</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>461641</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5286,7 +5594,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3794041" y="6818906"/>
+          <a:off x="6899191" y="8809631"/>
           <a:ext cx="826614" cy="386435"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5298,16 +5606,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>616150</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>781049</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>663775</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>676274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1143099</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>151991</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1190724</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85316</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5330,7 +5638,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4216600" y="7886699"/>
+          <a:off x="7864675" y="8277224"/>
           <a:ext cx="526949" cy="1018767"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5343,15 +5651,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>158951</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>88778</xdr:rowOff>
+      <xdr:colOff>959051</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>41153</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>914401</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>224978</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>24953</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5381,7 +5689,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="3759401" y="6222878"/>
+          <a:off x="4559501" y="8775578"/>
           <a:ext cx="755450" cy="460050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5422,16 +5730,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>54175</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>739975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>1015058</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>500708</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5452,7 +5760,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3654625" y="5648325"/>
+          <a:off x="5540575" y="8772525"/>
           <a:ext cx="960883" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5468,6 +5776,182 @@
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>789907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFDB3A4A-30E8-4849-9D6F-779194BAEACF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="8390857"/>
+          <a:ext cx="800100" cy="934117"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>503293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>447674</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Image 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8E0600-71BE-46D4-ACAC-6C40662801DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3590925" y="6637393"/>
+          <a:ext cx="1000125" cy="915931"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>949384</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4FDB9DD-5C45-472C-99A1-61F84C51A210}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7620001" y="6257925"/>
+          <a:ext cx="530283" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>231691</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>275231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1058305</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>175891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Image 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EB5C94C-64FF-4A91-BCC7-382945C66F43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3832141" y="5923556"/>
+          <a:ext cx="826614" cy="386435"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6293,11 +6777,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G2" sqref="G2:G4"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6382,35 +6866,35 @@
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="454" t="str">
+      <c r="E2" s="491" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="469" t="s">
+      <c r="F2" s="506" t="s">
         <v>705</v>
       </c>
-      <c r="G2" s="457" t="s">
+      <c r="G2" s="494" t="s">
         <v>666</v>
       </c>
-      <c r="H2" s="487" t="str">
+      <c r="H2" s="524" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="487" t="str">
+      <c r="I2" s="524" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="491" t="s">
+      <c r="J2" s="528" t="s">
         <v>669</v>
       </c>
-      <c r="K2" s="457" t="s">
-        <v>706</v>
+      <c r="K2" s="494" t="s">
+        <v>755</v>
       </c>
       <c r="L2" s="200" t="s">
         <v>623</v>
       </c>
       <c r="M2" s="200" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N2" s="281" t="s">
         <v>688</v>
@@ -6438,24 +6922,24 @@
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="455"/>
-      <c r="F3" s="470"/>
-      <c r="G3" s="458"/>
-      <c r="H3" s="488"/>
-      <c r="I3" s="488"/>
-      <c r="J3" s="492"/>
-      <c r="K3" s="490"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="529"/>
+      <c r="K3" s="527"/>
       <c r="L3" s="203" t="s">
         <v>624</v>
       </c>
       <c r="M3" s="203" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="N3" s="203"/>
       <c r="O3" s="203"/>
       <c r="P3" s="255"/>
       <c r="Q3" s="204" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6477,11 +6961,11 @@
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="456"/>
-      <c r="F4" s="471"/>
-      <c r="G4" s="459"/>
-      <c r="H4" s="489"/>
-      <c r="I4" s="489"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="526"/>
+      <c r="I4" s="526"/>
       <c r="J4" s="206" t="s">
         <v>668</v>
       </c>
@@ -6490,13 +6974,13 @@
         <v>625</v>
       </c>
       <c r="M4" s="206" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="N4" s="206"/>
       <c r="O4" s="206"/>
       <c r="P4" s="256"/>
       <c r="Q4" s="207" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.25">
@@ -6518,21 +7002,21 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="466" t="str">
+      <c r="E5" s="503" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="472" t="s">
+      <c r="F5" s="509" t="s">
         <v>691</v>
       </c>
-      <c r="G5" s="460" t="s">
+      <c r="G5" s="497" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="451" t="str">
+      <c r="H5" s="488" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="451" t="str">
+      <c r="I5" s="488" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
@@ -6568,11 +7052,11 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="467"/>
-      <c r="F6" s="473"/>
-      <c r="G6" s="461"/>
-      <c r="H6" s="452"/>
-      <c r="I6" s="452"/>
+      <c r="E6" s="504"/>
+      <c r="F6" s="510"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="489"/>
+      <c r="I6" s="489"/>
       <c r="J6" s="208" t="s">
         <v>671</v>
       </c>
@@ -6607,11 +7091,11 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="468"/>
-      <c r="F7" s="474"/>
-      <c r="G7" s="462"/>
-      <c r="H7" s="453"/>
-      <c r="I7" s="453"/>
+      <c r="E7" s="505"/>
+      <c r="F7" s="511"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="490"/>
+      <c r="I7" s="490"/>
       <c r="J7" s="215" t="s">
         <v>672</v>
       </c>
@@ -6648,7 +7132,7 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="483" t="s">
+      <c r="F8" s="520" t="s">
         <v>696</v>
       </c>
       <c r="G8" s="219" t="s">
@@ -6689,23 +7173,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="481" t="s">
+      <c r="E9" s="518" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="484"/>
-      <c r="G9" s="475" t="s">
+      <c r="F9" s="521"/>
+      <c r="G9" s="512" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="476"/>
-      <c r="I9" s="476"/>
-      <c r="J9" s="476"/>
-      <c r="K9" s="476"/>
-      <c r="L9" s="476"/>
-      <c r="M9" s="476"/>
-      <c r="N9" s="476"/>
-      <c r="O9" s="476"/>
-      <c r="P9" s="476"/>
-      <c r="Q9" s="477"/>
+      <c r="H9" s="513"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="513"/>
+      <c r="K9" s="513"/>
+      <c r="L9" s="513"/>
+      <c r="M9" s="513"/>
+      <c r="N9" s="513"/>
+      <c r="O9" s="513"/>
+      <c r="P9" s="513"/>
+      <c r="Q9" s="514"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -6721,19 +7205,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="482"/>
-      <c r="F10" s="484"/>
-      <c r="G10" s="478"/>
-      <c r="H10" s="479"/>
-      <c r="I10" s="479"/>
-      <c r="J10" s="479"/>
-      <c r="K10" s="479"/>
-      <c r="L10" s="479"/>
-      <c r="M10" s="479"/>
-      <c r="N10" s="479"/>
-      <c r="O10" s="479"/>
-      <c r="P10" s="479"/>
-      <c r="Q10" s="480"/>
+      <c r="E10" s="519"/>
+      <c r="F10" s="521"/>
+      <c r="G10" s="515"/>
+      <c r="H10" s="516"/>
+      <c r="I10" s="516"/>
+      <c r="J10" s="516"/>
+      <c r="K10" s="516"/>
+      <c r="L10" s="516"/>
+      <c r="M10" s="516"/>
+      <c r="N10" s="516"/>
+      <c r="O10" s="516"/>
+      <c r="P10" s="516"/>
+      <c r="Q10" s="517"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -6754,26 +7238,26 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="416" t="str">
+      <c r="E11" s="453" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="484"/>
-      <c r="G11" s="449" t="s">
+      <c r="F11" s="521"/>
+      <c r="G11" s="486" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="431" t="str">
+      <c r="H11" s="468" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="431" t="str">
+      <c r="I11" s="468" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="449" t="s">
+      <c r="J11" s="486" t="s">
         <v>673</v>
       </c>
-      <c r="K11" s="449" t="s">
+      <c r="K11" s="486" t="s">
         <v>685</v>
       </c>
       <c r="L11" s="224" t="s">
@@ -6806,13 +7290,13 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="417"/>
-      <c r="F12" s="485"/>
-      <c r="G12" s="450"/>
-      <c r="H12" s="432"/>
-      <c r="I12" s="432"/>
-      <c r="J12" s="450"/>
-      <c r="K12" s="450"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="487"/>
+      <c r="H12" s="469"/>
+      <c r="I12" s="469"/>
+      <c r="J12" s="487"/>
+      <c r="K12" s="487"/>
       <c r="L12" s="227" t="s">
         <v>631</v>
       </c>
@@ -6841,21 +7325,21 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="439" t="str">
+      <c r="E13" s="476" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="486" t="s">
+      <c r="F13" s="523" t="s">
         <v>698</v>
       </c>
-      <c r="G13" s="463" t="s">
+      <c r="G13" s="500" t="s">
         <v>653</v>
       </c>
-      <c r="H13" s="493" t="str">
+      <c r="H13" s="530" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="493" t="str">
+      <c r="I13" s="530" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
@@ -6891,11 +7375,11 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="440"/>
-      <c r="F14" s="464"/>
-      <c r="G14" s="464"/>
-      <c r="H14" s="494"/>
-      <c r="I14" s="494"/>
+      <c r="E14" s="477"/>
+      <c r="F14" s="501"/>
+      <c r="G14" s="501"/>
+      <c r="H14" s="531"/>
+      <c r="I14" s="531"/>
       <c r="J14" s="385" t="s">
         <v>704</v>
       </c>
@@ -6928,11 +7412,11 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="441"/>
-      <c r="F15" s="465"/>
-      <c r="G15" s="465"/>
-      <c r="H15" s="495"/>
-      <c r="I15" s="495"/>
+      <c r="E15" s="478"/>
+      <c r="F15" s="502"/>
+      <c r="G15" s="502"/>
+      <c r="H15" s="532"/>
+      <c r="I15" s="532"/>
       <c r="J15" s="236" t="s">
         <v>687</v>
       </c>
@@ -6969,21 +7453,21 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="418" t="str">
+      <c r="E16" s="455" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="504" t="s">
+      <c r="F16" s="541" t="s">
         <v>697</v>
       </c>
-      <c r="G16" s="418" t="s">
+      <c r="G16" s="455" t="s">
         <v>654</v>
       </c>
-      <c r="H16" s="445" t="str">
+      <c r="H16" s="482" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="447" t="str">
+      <c r="I16" s="484" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
@@ -7021,11 +7505,11 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="419"/>
-      <c r="F17" s="505"/>
-      <c r="G17" s="419"/>
-      <c r="H17" s="446"/>
-      <c r="I17" s="448"/>
+      <c r="E17" s="456"/>
+      <c r="F17" s="542"/>
+      <c r="G17" s="456"/>
+      <c r="H17" s="483"/>
+      <c r="I17" s="485"/>
       <c r="J17" s="248" t="s">
         <v>645</v>
       </c>
@@ -7055,21 +7539,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="433" t="s">
+      <c r="E18" s="470" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="433"/>
-      <c r="G18" s="433"/>
-      <c r="H18" s="433"/>
-      <c r="I18" s="433"/>
-      <c r="J18" s="433"/>
-      <c r="K18" s="433"/>
-      <c r="L18" s="433"/>
-      <c r="M18" s="433"/>
-      <c r="N18" s="433"/>
-      <c r="O18" s="433"/>
-      <c r="P18" s="434"/>
-      <c r="Q18" s="435"/>
+      <c r="F18" s="470"/>
+      <c r="G18" s="470"/>
+      <c r="H18" s="470"/>
+      <c r="I18" s="470"/>
+      <c r="J18" s="470"/>
+      <c r="K18" s="470"/>
+      <c r="L18" s="470"/>
+      <c r="M18" s="470"/>
+      <c r="N18" s="470"/>
+      <c r="O18" s="470"/>
+      <c r="P18" s="471"/>
+      <c r="Q18" s="472"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7085,19 +7569,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="436"/>
-      <c r="F19" s="436"/>
-      <c r="G19" s="436"/>
-      <c r="H19" s="436"/>
-      <c r="I19" s="436"/>
-      <c r="J19" s="436"/>
-      <c r="K19" s="436"/>
-      <c r="L19" s="436"/>
-      <c r="M19" s="436"/>
-      <c r="N19" s="436"/>
-      <c r="O19" s="436"/>
-      <c r="P19" s="437"/>
-      <c r="Q19" s="438"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="473"/>
+      <c r="G19" s="473"/>
+      <c r="H19" s="473"/>
+      <c r="I19" s="473"/>
+      <c r="J19" s="473"/>
+      <c r="K19" s="473"/>
+      <c r="L19" s="473"/>
+      <c r="M19" s="473"/>
+      <c r="N19" s="473"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="474"/>
+      <c r="Q19" s="475"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7118,21 +7602,21 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="420" t="str">
+      <c r="E20" s="457" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="506" t="s">
+      <c r="F20" s="543" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="420" t="s">
+      <c r="G20" s="457" t="s">
         <v>699</v>
       </c>
-      <c r="H20" s="499" t="str">
+      <c r="H20" s="536" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="499" t="str">
+      <c r="I20" s="536" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
@@ -7168,11 +7652,11 @@
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="421"/>
-      <c r="F21" s="507"/>
-      <c r="G21" s="421"/>
-      <c r="H21" s="500"/>
-      <c r="I21" s="500"/>
+      <c r="E21" s="458"/>
+      <c r="F21" s="544"/>
+      <c r="G21" s="458"/>
+      <c r="H21" s="537"/>
+      <c r="I21" s="537"/>
       <c r="J21" s="251"/>
       <c r="K21" s="251"/>
       <c r="L21" s="251" t="s">
@@ -7203,11 +7687,11 @@
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="422"/>
-      <c r="F22" s="508"/>
-      <c r="G22" s="422"/>
-      <c r="H22" s="501"/>
-      <c r="I22" s="501"/>
+      <c r="E22" s="459"/>
+      <c r="F22" s="545"/>
+      <c r="G22" s="459"/>
+      <c r="H22" s="538"/>
+      <c r="I22" s="538"/>
       <c r="J22" s="242"/>
       <c r="K22" s="242"/>
       <c r="L22" s="242" t="s">
@@ -7238,21 +7722,21 @@
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="423" t="str">
+      <c r="E23" s="460" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="509" t="s">
+      <c r="F23" s="546" t="s">
         <v>701</v>
       </c>
-      <c r="G23" s="423" t="s">
+      <c r="G23" s="460" t="s">
         <v>655</v>
       </c>
-      <c r="H23" s="502" t="str">
+      <c r="H23" s="539" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="502" t="str">
+      <c r="I23" s="539" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
@@ -7288,11 +7772,11 @@
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="424"/>
-      <c r="F24" s="510"/>
-      <c r="G24" s="424"/>
-      <c r="H24" s="503"/>
-      <c r="I24" s="503"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="547"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="540"/>
+      <c r="I24" s="540"/>
       <c r="J24" s="188" t="s">
         <v>648</v>
       </c>
@@ -7320,21 +7804,21 @@
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="433" t="s">
+      <c r="E25" s="470" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="433"/>
-      <c r="G25" s="433"/>
-      <c r="H25" s="433"/>
-      <c r="I25" s="433"/>
-      <c r="J25" s="433"/>
-      <c r="K25" s="433"/>
-      <c r="L25" s="433"/>
-      <c r="M25" s="433"/>
-      <c r="N25" s="433"/>
-      <c r="O25" s="433"/>
-      <c r="P25" s="434"/>
-      <c r="Q25" s="435"/>
+      <c r="F25" s="470"/>
+      <c r="G25" s="470"/>
+      <c r="H25" s="470"/>
+      <c r="I25" s="470"/>
+      <c r="J25" s="470"/>
+      <c r="K25" s="470"/>
+      <c r="L25" s="470"/>
+      <c r="M25" s="470"/>
+      <c r="N25" s="470"/>
+      <c r="O25" s="470"/>
+      <c r="P25" s="471"/>
+      <c r="Q25" s="472"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7350,19 +7834,19 @@
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="436"/>
-      <c r="F26" s="436"/>
-      <c r="G26" s="436"/>
-      <c r="H26" s="436"/>
-      <c r="I26" s="436"/>
-      <c r="J26" s="436"/>
-      <c r="K26" s="436"/>
-      <c r="L26" s="436"/>
-      <c r="M26" s="436"/>
-      <c r="N26" s="436"/>
-      <c r="O26" s="436"/>
-      <c r="P26" s="437"/>
-      <c r="Q26" s="438"/>
+      <c r="E26" s="473"/>
+      <c r="F26" s="473"/>
+      <c r="G26" s="473"/>
+      <c r="H26" s="473"/>
+      <c r="I26" s="473"/>
+      <c r="J26" s="473"/>
+      <c r="K26" s="473"/>
+      <c r="L26" s="473"/>
+      <c r="M26" s="473"/>
+      <c r="N26" s="473"/>
+      <c r="O26" s="473"/>
+      <c r="P26" s="474"/>
+      <c r="Q26" s="475"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7383,21 +7867,21 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="425" t="str">
+      <c r="E27" s="462" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="511" t="s">
+      <c r="F27" s="548" t="s">
         <v>702</v>
       </c>
-      <c r="G27" s="425" t="s">
+      <c r="G27" s="462" t="s">
         <v>656</v>
       </c>
-      <c r="H27" s="442" t="str">
+      <c r="H27" s="479" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="442" t="str">
+      <c r="I27" s="479" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
@@ -7433,11 +7917,11 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="426"/>
-      <c r="F28" s="512"/>
-      <c r="G28" s="426"/>
-      <c r="H28" s="443"/>
-      <c r="I28" s="443"/>
+      <c r="E28" s="463"/>
+      <c r="F28" s="549"/>
+      <c r="G28" s="463"/>
+      <c r="H28" s="480"/>
+      <c r="I28" s="480"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
@@ -7468,11 +7952,11 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="427"/>
-      <c r="F29" s="513"/>
-      <c r="G29" s="427"/>
-      <c r="H29" s="444"/>
-      <c r="I29" s="444"/>
+      <c r="E29" s="464"/>
+      <c r="F29" s="550"/>
+      <c r="G29" s="464"/>
+      <c r="H29" s="481"/>
+      <c r="I29" s="481"/>
       <c r="J29" s="182" t="s">
         <v>644</v>
       </c>
@@ -7505,15 +7989,15 @@
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="428" t="s">
+      <c r="E30" s="465" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="514" t="s">
+      <c r="F30" s="551" t="s">
         <v>703</v>
       </c>
-      <c r="G30" s="428"/>
-      <c r="H30" s="496"/>
-      <c r="I30" s="496"/>
+      <c r="G30" s="465"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="533"/>
       <c r="J30" s="191"/>
       <c r="K30" s="191"/>
       <c r="L30" s="191"/>
@@ -7542,11 +8026,11 @@
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="429"/>
-      <c r="F31" s="515"/>
-      <c r="G31" s="429"/>
-      <c r="H31" s="497"/>
-      <c r="I31" s="497"/>
+      <c r="E31" s="466"/>
+      <c r="F31" s="552"/>
+      <c r="G31" s="466"/>
+      <c r="H31" s="534"/>
+      <c r="I31" s="534"/>
       <c r="J31" s="194"/>
       <c r="K31" s="194"/>
       <c r="L31" s="194"/>
@@ -7575,11 +8059,11 @@
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="430"/>
-      <c r="F32" s="516"/>
-      <c r="G32" s="430"/>
-      <c r="H32" s="498"/>
-      <c r="I32" s="498"/>
+      <c r="E32" s="467"/>
+      <c r="F32" s="553"/>
+      <c r="G32" s="467"/>
+      <c r="H32" s="535"/>
+      <c r="I32" s="535"/>
       <c r="J32" s="197"/>
       <c r="K32" s="197"/>
       <c r="L32" s="197"/>
@@ -7605,21 +8089,21 @@
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="410" t="s">
+      <c r="E33" s="447" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="410"/>
-      <c r="G33" s="410"/>
-      <c r="H33" s="410"/>
-      <c r="I33" s="410"/>
-      <c r="J33" s="410"/>
-      <c r="K33" s="410"/>
-      <c r="L33" s="410"/>
-      <c r="M33" s="410"/>
-      <c r="N33" s="410"/>
-      <c r="O33" s="410"/>
-      <c r="P33" s="411"/>
-      <c r="Q33" s="412"/>
+      <c r="F33" s="447"/>
+      <c r="G33" s="447"/>
+      <c r="H33" s="447"/>
+      <c r="I33" s="447"/>
+      <c r="J33" s="447"/>
+      <c r="K33" s="447"/>
+      <c r="L33" s="447"/>
+      <c r="M33" s="447"/>
+      <c r="N33" s="447"/>
+      <c r="O33" s="447"/>
+      <c r="P33" s="448"/>
+      <c r="Q33" s="449"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -7635,19 +8119,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="413"/>
-      <c r="F34" s="413"/>
-      <c r="G34" s="413"/>
-      <c r="H34" s="413"/>
-      <c r="I34" s="413"/>
-      <c r="J34" s="413"/>
-      <c r="K34" s="413"/>
-      <c r="L34" s="413"/>
-      <c r="M34" s="413"/>
-      <c r="N34" s="413"/>
-      <c r="O34" s="413"/>
-      <c r="P34" s="414"/>
-      <c r="Q34" s="415"/>
+      <c r="E34" s="450"/>
+      <c r="F34" s="450"/>
+      <c r="G34" s="450"/>
+      <c r="H34" s="450"/>
+      <c r="I34" s="450"/>
+      <c r="J34" s="450"/>
+      <c r="K34" s="450"/>
+      <c r="L34" s="450"/>
+      <c r="M34" s="450"/>
+      <c r="N34" s="450"/>
+      <c r="O34" s="450"/>
+      <c r="P34" s="451"/>
+      <c r="Q34" s="452"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8201,10 +8685,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8214,38 +8698,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="521" t="s">
+      <c r="A1" s="558" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="559"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="558" t="s">
         <v>717</v>
       </c>
-      <c r="B1" s="522"/>
-      <c r="C1" s="522"/>
-      <c r="D1" s="522"/>
-      <c r="E1" s="522"/>
-      <c r="F1" s="521" t="s">
-        <v>718</v>
-      </c>
-      <c r="G1" s="522"/>
-      <c r="H1" s="522"/>
-      <c r="I1" s="522"/>
-      <c r="J1" s="522"/>
+      <c r="G1" s="559"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
     </row>
     <row r="2" spans="1:10" s="396" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="532" t="str">
+      <c r="A2" s="569" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="533"/>
-      <c r="C2" s="533"/>
-      <c r="D2" s="533"/>
-      <c r="E2" s="533"/>
-      <c r="F2" s="534" t="str">
+      <c r="B2" s="570"/>
+      <c r="C2" s="570"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="570"/>
+      <c r="F2" s="571" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="535"/>
-      <c r="H2" s="535"/>
-      <c r="I2" s="535"/>
-      <c r="J2" s="536"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="572"/>
+      <c r="J2" s="573"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="395"/>
@@ -8255,116 +8739,116 @@
       <c r="J3" s="395"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="521" t="s">
-        <v>725</v>
-      </c>
-      <c r="B4" s="522"/>
-      <c r="C4" s="522"/>
-      <c r="D4" s="523"/>
-      <c r="E4" s="521" t="s">
+      <c r="A4" s="558" t="s">
+        <v>724</v>
+      </c>
+      <c r="B4" s="559"/>
+      <c r="C4" s="559"/>
+      <c r="D4" s="560"/>
+      <c r="E4" s="558" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="522"/>
-      <c r="G4" s="523"/>
-      <c r="H4" s="521" t="s">
+      <c r="F4" s="559"/>
+      <c r="G4" s="560"/>
+      <c r="H4" s="558" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="522"/>
-      <c r="J4" s="523"/>
+      <c r="I4" s="559"/>
+      <c r="J4" s="560"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="537" t="s">
+      <c r="A5" s="574" t="s">
         <v>666</v>
       </c>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="539"/>
+      <c r="B5" s="575"/>
+      <c r="C5" s="575"/>
+      <c r="D5" s="576"/>
       <c r="E5" s="398" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="517" t="s">
+      <c r="F5" s="554" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="518"/>
+      <c r="G5" s="555"/>
       <c r="H5" s="399" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="517" t="s">
+      <c r="I5" s="554" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="518"/>
+      <c r="J5" s="555"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="537"/>
-      <c r="B6" s="538"/>
-      <c r="C6" s="538"/>
-      <c r="D6" s="539"/>
+      <c r="A6" s="574"/>
+      <c r="B6" s="575"/>
+      <c r="C6" s="575"/>
+      <c r="D6" s="576"/>
       <c r="E6" s="398"/>
-      <c r="F6" s="517"/>
-      <c r="G6" s="518"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="555"/>
       <c r="H6" s="399" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="517" t="s">
+      <c r="I6" s="554" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="518"/>
+      <c r="J6" s="555"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="537"/>
-      <c r="B7" s="538"/>
-      <c r="C7" s="538"/>
-      <c r="D7" s="539"/>
+      <c r="A7" s="574"/>
+      <c r="B7" s="575"/>
+      <c r="C7" s="575"/>
+      <c r="D7" s="576"/>
       <c r="E7" s="398"/>
-      <c r="F7" s="517"/>
-      <c r="G7" s="518"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="555"/>
       <c r="H7" s="399" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="517" t="s">
+      <c r="I7" s="554" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="518"/>
+      <c r="J7" s="555"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="537"/>
-      <c r="B8" s="538"/>
-      <c r="C8" s="538"/>
-      <c r="D8" s="539"/>
+      <c r="A8" s="574"/>
+      <c r="B8" s="575"/>
+      <c r="C8" s="575"/>
+      <c r="D8" s="576"/>
       <c r="E8" s="398" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="517" t="s">
+      <c r="F8" s="554" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="518"/>
+      <c r="G8" s="555"/>
       <c r="H8" s="399" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="517" t="s">
+      <c r="I8" s="554" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="518"/>
+      <c r="J8" s="555"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="540"/>
-      <c r="B9" s="541"/>
-      <c r="C9" s="541"/>
-      <c r="D9" s="542"/>
+      <c r="A9" s="577"/>
+      <c r="B9" s="578"/>
+      <c r="C9" s="578"/>
+      <c r="D9" s="579"/>
       <c r="E9" s="400" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="519" t="s">
+      <c r="F9" s="556" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="520"/>
+      <c r="G9" s="557"/>
       <c r="H9" s="400" t="s">
-        <v>724</v>
-      </c>
-      <c r="I9" s="519" t="s">
+        <v>723</v>
+      </c>
+      <c r="I9" s="556" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="520"/>
+      <c r="J9" s="557"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="401"/>
@@ -8374,102 +8858,102 @@
       <c r="J10" s="401"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="521" t="s">
-        <v>712</v>
-      </c>
-      <c r="B11" s="522"/>
-      <c r="C11" s="522"/>
-      <c r="D11" s="522"/>
-      <c r="E11" s="522"/>
-      <c r="F11" s="521" t="s">
-        <v>723</v>
-      </c>
-      <c r="G11" s="522"/>
-      <c r="H11" s="522"/>
-      <c r="I11" s="522"/>
-      <c r="J11" s="523"/>
+      <c r="A11" s="558" t="s">
+        <v>711</v>
+      </c>
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="559"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="558" t="s">
+        <v>722</v>
+      </c>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="559"/>
+      <c r="J11" s="560"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="529" t="s">
+      <c r="A12" s="566" t="s">
+        <v>725</v>
+      </c>
+      <c r="B12" s="567"/>
+      <c r="C12" s="567"/>
+      <c r="D12" s="567"/>
+      <c r="E12" s="567"/>
+      <c r="F12" s="566" t="s">
         <v>726</v>
       </c>
-      <c r="B12" s="530"/>
-      <c r="C12" s="530"/>
-      <c r="D12" s="530"/>
-      <c r="E12" s="530"/>
-      <c r="F12" s="529" t="s">
-        <v>727</v>
-      </c>
-      <c r="G12" s="530"/>
-      <c r="H12" s="530"/>
-      <c r="I12" s="530"/>
-      <c r="J12" s="531"/>
+      <c r="G12" s="567"/>
+      <c r="H12" s="567"/>
+      <c r="I12" s="567"/>
+      <c r="J12" s="568"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="397"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="521" t="s">
+      <c r="A14" s="558" t="s">
+        <v>727</v>
+      </c>
+      <c r="B14" s="559"/>
+      <c r="C14" s="559"/>
+      <c r="D14" s="559"/>
+      <c r="E14" s="559"/>
+      <c r="F14" s="558" t="s">
+        <v>606</v>
+      </c>
+      <c r="G14" s="559"/>
+      <c r="H14" s="559"/>
+      <c r="I14" s="559"/>
+      <c r="J14" s="560"/>
+    </row>
+    <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="561" t="s">
         <v>728</v>
       </c>
-      <c r="B14" s="522"/>
-      <c r="C14" s="522"/>
-      <c r="D14" s="522"/>
-      <c r="E14" s="522"/>
-      <c r="F14" s="521" t="s">
-        <v>606</v>
-      </c>
-      <c r="G14" s="522"/>
-      <c r="H14" s="522"/>
-      <c r="I14" s="522"/>
-      <c r="J14" s="523"/>
-    </row>
-    <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="524" t="s">
+      <c r="B15" s="562"/>
+      <c r="C15" s="562"/>
+      <c r="D15" s="562"/>
+      <c r="E15" s="562"/>
+      <c r="F15" s="563" t="s">
         <v>729</v>
       </c>
-      <c r="B15" s="525"/>
-      <c r="C15" s="525"/>
-      <c r="D15" s="525"/>
-      <c r="E15" s="525"/>
-      <c r="F15" s="526" t="s">
-        <v>730</v>
-      </c>
-      <c r="G15" s="527"/>
-      <c r="H15" s="527"/>
-      <c r="I15" s="527"/>
-      <c r="J15" s="528"/>
+      <c r="G15" s="564"/>
+      <c r="H15" s="564"/>
+      <c r="I15" s="564"/>
+      <c r="J15" s="565"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="549" t="s">
-        <v>713</v>
-      </c>
-      <c r="B17" s="550"/>
-      <c r="C17" s="550"/>
-      <c r="D17" s="550"/>
-      <c r="E17" s="550"/>
-      <c r="F17" s="550"/>
-      <c r="G17" s="550"/>
-      <c r="H17" s="550"/>
-      <c r="I17" s="550"/>
-      <c r="J17" s="551"/>
+      <c r="A17" s="586" t="s">
+        <v>712</v>
+      </c>
+      <c r="B17" s="587"/>
+      <c r="C17" s="587"/>
+      <c r="D17" s="587"/>
+      <c r="E17" s="587"/>
+      <c r="F17" s="587"/>
+      <c r="G17" s="587"/>
+      <c r="H17" s="587"/>
+      <c r="I17" s="587"/>
+      <c r="J17" s="588"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="552" t="s">
+      <c r="A18" s="589" t="s">
+        <v>730</v>
+      </c>
+      <c r="B18" s="590"/>
+      <c r="C18" s="590"/>
+      <c r="D18" s="590"/>
+      <c r="E18" s="590"/>
+      <c r="F18" s="591" t="s">
         <v>731</v>
       </c>
-      <c r="B18" s="553"/>
-      <c r="C18" s="553"/>
-      <c r="D18" s="553"/>
-      <c r="E18" s="553"/>
-      <c r="F18" s="554" t="s">
-        <v>732</v>
-      </c>
-      <c r="G18" s="554"/>
-      <c r="H18" s="554"/>
-      <c r="I18" s="554"/>
-      <c r="J18" s="555"/>
+      <c r="G18" s="591"/>
+      <c r="H18" s="591"/>
+      <c r="I18" s="591"/>
+      <c r="J18" s="592"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="397"/>
@@ -8479,225 +8963,235 @@
     </row>
     <row r="20" spans="1:10" s="396" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="404" t="s">
-        <v>722</v>
-      </c>
-      <c r="B20" s="543" t="s">
+        <v>721</v>
+      </c>
+      <c r="B20" s="580" t="s">
+        <v>718</v>
+      </c>
+      <c r="C20" s="581"/>
+      <c r="D20" s="582"/>
+      <c r="E20" s="580" t="s">
         <v>719</v>
       </c>
-      <c r="C20" s="544"/>
-      <c r="D20" s="545"/>
-      <c r="E20" s="543" t="s">
+      <c r="F20" s="581"/>
+      <c r="G20" s="582"/>
+      <c r="H20" s="580" t="s">
         <v>720</v>
       </c>
-      <c r="F20" s="544"/>
-      <c r="G20" s="545"/>
-      <c r="H20" s="543" t="s">
-        <v>721</v>
-      </c>
-      <c r="I20" s="544"/>
-      <c r="J20" s="545"/>
+      <c r="I20" s="581"/>
+      <c r="J20" s="582"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="402" t="s">
+        <v>713</v>
+      </c>
+      <c r="B21" s="583" t="s">
+        <v>732</v>
+      </c>
+      <c r="C21" s="584"/>
+      <c r="D21" s="585"/>
+      <c r="E21" s="583" t="s">
+        <v>733</v>
+      </c>
+      <c r="F21" s="584"/>
+      <c r="G21" s="585"/>
+      <c r="H21" s="583" t="s">
+        <v>734</v>
+      </c>
+      <c r="I21" s="584"/>
+      <c r="J21" s="585"/>
+    </row>
+    <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="402" t="s">
         <v>714</v>
       </c>
-      <c r="B21" s="546" t="s">
-        <v>733</v>
-      </c>
-      <c r="C21" s="547"/>
-      <c r="D21" s="548"/>
-      <c r="E21" s="546" t="s">
-        <v>734</v>
-      </c>
-      <c r="F21" s="547"/>
-      <c r="G21" s="548"/>
-      <c r="H21" s="546" t="s">
+      <c r="B22" s="405" t="s">
         <v>735</v>
       </c>
-      <c r="I21" s="547"/>
-      <c r="J21" s="548"/>
-    </row>
-    <row r="22" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A22" s="402" t="s">
-        <v>715</v>
-      </c>
-      <c r="B22" s="405" t="s">
+      <c r="C22" s="406" t="s">
         <v>736</v>
-      </c>
-      <c r="C22" s="406" t="s">
-        <v>737</v>
       </c>
       <c r="D22" s="407"/>
       <c r="E22" s="408" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="F22" s="406" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G22" s="409"/>
-      <c r="H22" s="408" t="s">
+      <c r="H22" s="410" t="s">
+        <v>735</v>
+      </c>
+      <c r="I22" s="411" t="s">
         <v>753</v>
       </c>
-      <c r="I22" s="406" t="s">
-        <v>754</v>
-      </c>
       <c r="J22" s="409"/>
     </row>
-    <row r="23" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="402"/>
       <c r="B23" s="405" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C23" s="406" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D23" s="407"/>
       <c r="E23" s="408" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F23" s="406" t="s">
-        <v>746</v>
-      </c>
-      <c r="G23" s="409"/>
+        <v>745</v>
+      </c>
+      <c r="G23" s="407"/>
       <c r="H23" s="408" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I23" s="406" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="J23" s="409"/>
     </row>
-    <row r="24" spans="1:10" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="402"/>
-      <c r="B24" s="405" t="s">
-        <v>740</v>
-      </c>
-      <c r="C24" s="406" t="s">
-        <v>741</v>
-      </c>
+      <c r="B24" s="405"/>
+      <c r="C24" s="406"/>
       <c r="D24" s="407"/>
       <c r="E24" s="408" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F24" s="406" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G24" s="407"/>
       <c r="H24" s="408" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I24" s="406" t="s">
-        <v>756</v>
-      </c>
-      <c r="J24" s="407"/>
-    </row>
-    <row r="25" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+        <v>746</v>
+      </c>
+      <c r="J24" s="409"/>
+    </row>
+    <row r="25" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="402"/>
       <c r="B25" s="405" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="C25" s="406" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="D25" s="407"/>
       <c r="E25" s="408" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="F25" s="406" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G25" s="407"/>
       <c r="H25" s="408" t="s">
-        <v>736</v>
+        <v>739</v>
       </c>
       <c r="I25" s="406" t="s">
+        <v>747</v>
+      </c>
+      <c r="J25" s="407"/>
+    </row>
+    <row r="26" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="412"/>
+      <c r="B26" s="413" t="s">
+        <v>740</v>
+      </c>
+      <c r="C26" s="414" t="s">
+        <v>742</v>
+      </c>
+      <c r="D26" s="415"/>
+      <c r="E26" s="416" t="s">
+        <v>741</v>
+      </c>
+      <c r="F26" s="414" t="s">
+        <v>743</v>
+      </c>
+      <c r="G26" s="415"/>
+      <c r="H26" s="416" t="s">
+        <v>751</v>
+      </c>
+      <c r="I26" s="414" t="s">
+        <v>752</v>
+      </c>
+      <c r="J26" s="415"/>
+    </row>
+    <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="402"/>
+      <c r="B27" s="405"/>
+      <c r="C27" s="406"/>
+      <c r="D27" s="407"/>
+      <c r="E27" s="408"/>
+      <c r="F27" s="406"/>
+      <c r="G27" s="407"/>
+      <c r="H27" s="408"/>
+      <c r="I27" s="406"/>
+      <c r="J27" s="407"/>
+    </row>
+    <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="403"/>
+      <c r="B28" s="599"/>
+      <c r="C28" s="600"/>
+      <c r="D28" s="601"/>
+      <c r="E28" s="417"/>
+      <c r="F28" s="418"/>
+      <c r="G28" s="419"/>
+      <c r="H28" s="420"/>
+      <c r="I28" s="421"/>
+      <c r="J28" s="422"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="402" t="s">
+        <v>715</v>
+      </c>
+      <c r="B29" s="602"/>
+      <c r="C29" s="603"/>
+      <c r="D29" s="604"/>
+      <c r="E29" s="602"/>
+      <c r="F29" s="603"/>
+      <c r="G29" s="604"/>
+      <c r="H29" s="605"/>
+      <c r="I29" s="606"/>
+      <c r="J29" s="607"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="403" t="s">
         <v>748</v>
       </c>
-      <c r="J25" s="407"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="402"/>
-      <c r="B26" s="405"/>
-      <c r="C26" s="406"/>
-      <c r="D26" s="407"/>
-      <c r="E26" s="408" t="s">
-        <v>740</v>
-      </c>
-      <c r="F26" s="406" t="s">
+      <c r="B30" s="593" t="s">
         <v>749</v>
       </c>
-      <c r="G26" s="407"/>
-      <c r="H26" s="408" t="s">
-        <v>740</v>
-      </c>
-      <c r="I26" s="406" t="s">
-        <v>749</v>
-      </c>
-      <c r="J26" s="407"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="402"/>
-      <c r="B27" s="562"/>
-      <c r="C27" s="563"/>
-      <c r="D27" s="564"/>
-      <c r="E27" s="562"/>
-      <c r="F27" s="563"/>
-      <c r="G27" s="564"/>
-      <c r="H27" s="562"/>
-      <c r="I27" s="563"/>
-      <c r="J27" s="564"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="402" t="s">
-        <v>716</v>
-      </c>
-      <c r="B28" s="562"/>
-      <c r="C28" s="563"/>
-      <c r="D28" s="564"/>
-      <c r="E28" s="562"/>
-      <c r="F28" s="563"/>
-      <c r="G28" s="564"/>
-      <c r="H28" s="565"/>
-      <c r="I28" s="566"/>
-      <c r="J28" s="567"/>
-    </row>
-    <row r="29" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="403" t="s">
+      <c r="C30" s="594"/>
+      <c r="D30" s="595"/>
+      <c r="E30" s="593" t="s">
         <v>750</v>
       </c>
-      <c r="B29" s="556" t="s">
-        <v>751</v>
-      </c>
-      <c r="C29" s="557"/>
-      <c r="D29" s="558"/>
-      <c r="E29" s="556" t="s">
-        <v>752</v>
-      </c>
-      <c r="F29" s="557"/>
-      <c r="G29" s="558"/>
-      <c r="H29" s="559"/>
-      <c r="I29" s="560"/>
-      <c r="J29" s="561"/>
-    </row>
-    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="F30" s="594"/>
+      <c r="G30" s="595"/>
+      <c r="H30" s="596"/>
+      <c r="I30" s="597"/>
+      <c r="J30" s="598"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="38" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="39" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="44">
+  <mergeCells count="42">
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="E21:G21"/>
@@ -8743,6 +9237,560 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="10" width="18" style="288" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="288"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="643" t="s">
+        <v>716</v>
+      </c>
+      <c r="B1" s="644"/>
+      <c r="C1" s="644"/>
+      <c r="D1" s="644"/>
+      <c r="E1" s="644"/>
+      <c r="F1" s="643" t="s">
+        <v>717</v>
+      </c>
+      <c r="G1" s="644"/>
+      <c r="H1" s="644"/>
+      <c r="I1" s="644"/>
+      <c r="J1" s="644"/>
+    </row>
+    <row r="2" spans="1:20" s="396" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="655" t="str">
+        <f>Cycles!A2</f>
+        <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
+      </c>
+      <c r="B2" s="656"/>
+      <c r="C2" s="656"/>
+      <c r="D2" s="656"/>
+      <c r="E2" s="656"/>
+      <c r="F2" s="657" t="s">
+        <v>691</v>
+      </c>
+      <c r="G2" s="658"/>
+      <c r="H2" s="658"/>
+      <c r="I2" s="658"/>
+      <c r="J2" s="659"/>
+    </row>
+    <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F3" s="395"/>
+      <c r="G3" s="395"/>
+      <c r="H3" s="395"/>
+      <c r="I3" s="395"/>
+      <c r="J3" s="395"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="643" t="s">
+        <v>724</v>
+      </c>
+      <c r="B4" s="644"/>
+      <c r="C4" s="644"/>
+      <c r="D4" s="645"/>
+      <c r="E4" s="643" t="s">
+        <v>650</v>
+      </c>
+      <c r="F4" s="644"/>
+      <c r="G4" s="645"/>
+      <c r="H4" s="643" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="644"/>
+      <c r="J4" s="645"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="649" t="s">
+        <v>757</v>
+      </c>
+      <c r="B5" s="650"/>
+      <c r="C5" s="650"/>
+      <c r="D5" s="651"/>
+      <c r="E5" s="444" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="608" t="s">
+        <v>390</v>
+      </c>
+      <c r="G5" s="609"/>
+      <c r="H5" s="445" t="s">
+        <v>758</v>
+      </c>
+      <c r="I5" s="608" t="s">
+        <v>106</v>
+      </c>
+      <c r="J5" s="609"/>
+      <c r="Q5" s="610"/>
+      <c r="R5" s="610"/>
+      <c r="S5" s="288" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="649"/>
+      <c r="B6" s="650"/>
+      <c r="C6" s="650"/>
+      <c r="D6" s="651"/>
+      <c r="E6" s="444" t="s">
+        <v>422</v>
+      </c>
+      <c r="F6" s="608" t="s">
+        <v>437</v>
+      </c>
+      <c r="G6" s="609"/>
+      <c r="H6" s="445"/>
+      <c r="I6" s="608"/>
+      <c r="J6" s="609"/>
+      <c r="Q6" s="610"/>
+      <c r="R6" s="610"/>
+      <c r="S6" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="T6" s="288" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="649"/>
+      <c r="B7" s="650"/>
+      <c r="C7" s="650"/>
+      <c r="D7" s="651"/>
+      <c r="E7" s="444" t="s">
+        <v>423</v>
+      </c>
+      <c r="F7" s="608" t="s">
+        <v>597</v>
+      </c>
+      <c r="G7" s="609"/>
+      <c r="H7" s="445" t="s">
+        <v>759</v>
+      </c>
+      <c r="I7" s="608" t="s">
+        <v>427</v>
+      </c>
+      <c r="J7" s="609"/>
+      <c r="Q7" s="610"/>
+      <c r="R7" s="610"/>
+    </row>
+    <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="649"/>
+      <c r="B8" s="650"/>
+      <c r="C8" s="650"/>
+      <c r="D8" s="651"/>
+      <c r="E8" s="444" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="608" t="s">
+        <v>438</v>
+      </c>
+      <c r="G8" s="609"/>
+      <c r="H8" s="445" t="s">
+        <v>760</v>
+      </c>
+      <c r="I8" s="608" t="s">
+        <v>428</v>
+      </c>
+      <c r="J8" s="609"/>
+      <c r="Q8" s="610"/>
+      <c r="R8" s="610"/>
+    </row>
+    <row r="9" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="649"/>
+      <c r="B9" s="650"/>
+      <c r="C9" s="650"/>
+      <c r="D9" s="651"/>
+      <c r="E9" s="444" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" s="608" t="s">
+        <v>439</v>
+      </c>
+      <c r="G9" s="609"/>
+      <c r="H9" s="445" t="s">
+        <v>761</v>
+      </c>
+      <c r="I9" s="608" t="s">
+        <v>429</v>
+      </c>
+      <c r="J9" s="609"/>
+    </row>
+    <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="649"/>
+      <c r="B10" s="650"/>
+      <c r="C10" s="650"/>
+      <c r="D10" s="651"/>
+      <c r="E10" s="444" t="s">
+        <v>434</v>
+      </c>
+      <c r="F10" s="608" t="s">
+        <v>441</v>
+      </c>
+      <c r="G10" s="609"/>
+      <c r="H10" s="445" t="s">
+        <v>762</v>
+      </c>
+      <c r="I10" s="608" t="s">
+        <v>444</v>
+      </c>
+      <c r="J10" s="609"/>
+    </row>
+    <row r="11" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="652"/>
+      <c r="B11" s="653"/>
+      <c r="C11" s="653"/>
+      <c r="D11" s="654"/>
+      <c r="E11" s="446" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="641" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" s="642"/>
+      <c r="H11" s="446" t="s">
+        <v>763</v>
+      </c>
+      <c r="I11" s="641" t="s">
+        <v>445</v>
+      </c>
+      <c r="J11" s="642"/>
+    </row>
+    <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="401"/>
+      <c r="G12" s="401"/>
+      <c r="H12" s="401"/>
+      <c r="I12" s="401"/>
+      <c r="J12" s="401"/>
+      <c r="S12" s="288" t="s">
+        <v>16</v>
+      </c>
+      <c r="T12" s="288" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="643" t="s">
+        <v>711</v>
+      </c>
+      <c r="B13" s="644"/>
+      <c r="C13" s="644"/>
+      <c r="D13" s="644"/>
+      <c r="E13" s="644"/>
+      <c r="F13" s="643" t="s">
+        <v>722</v>
+      </c>
+      <c r="G13" s="644"/>
+      <c r="H13" s="644"/>
+      <c r="I13" s="644"/>
+      <c r="J13" s="645"/>
+    </row>
+    <row r="14" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="646"/>
+      <c r="B14" s="647"/>
+      <c r="C14" s="647"/>
+      <c r="D14" s="647"/>
+      <c r="E14" s="647"/>
+      <c r="F14" s="646"/>
+      <c r="G14" s="647"/>
+      <c r="H14" s="647"/>
+      <c r="I14" s="647"/>
+      <c r="J14" s="648"/>
+    </row>
+    <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J15" s="397"/>
+    </row>
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="643" t="s">
+        <v>727</v>
+      </c>
+      <c r="B16" s="644"/>
+      <c r="C16" s="644"/>
+      <c r="D16" s="644"/>
+      <c r="E16" s="644"/>
+      <c r="F16" s="643" t="s">
+        <v>606</v>
+      </c>
+      <c r="G16" s="644"/>
+      <c r="H16" s="644"/>
+      <c r="I16" s="644"/>
+      <c r="J16" s="645"/>
+    </row>
+    <row r="17" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="626"/>
+      <c r="B17" s="627"/>
+      <c r="C17" s="627"/>
+      <c r="D17" s="627"/>
+      <c r="E17" s="627"/>
+      <c r="F17" s="628"/>
+      <c r="G17" s="629"/>
+      <c r="H17" s="629"/>
+      <c r="I17" s="629"/>
+      <c r="J17" s="630"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="631" t="s">
+        <v>712</v>
+      </c>
+      <c r="B19" s="632"/>
+      <c r="C19" s="632"/>
+      <c r="D19" s="632"/>
+      <c r="E19" s="632"/>
+      <c r="F19" s="632"/>
+      <c r="G19" s="632"/>
+      <c r="H19" s="632"/>
+      <c r="I19" s="632"/>
+      <c r="J19" s="633"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="634"/>
+      <c r="B20" s="635"/>
+      <c r="C20" s="635"/>
+      <c r="D20" s="635"/>
+      <c r="E20" s="635"/>
+      <c r="F20" s="636"/>
+      <c r="G20" s="636"/>
+      <c r="H20" s="636"/>
+      <c r="I20" s="636"/>
+      <c r="J20" s="637"/>
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="397"/>
+      <c r="G21" s="397"/>
+      <c r="H21" s="397"/>
+      <c r="I21" s="397"/>
+    </row>
+    <row r="22" spans="1:10" s="396" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="423" t="s">
+        <v>721</v>
+      </c>
+      <c r="B22" s="638" t="s">
+        <v>718</v>
+      </c>
+      <c r="C22" s="639"/>
+      <c r="D22" s="640"/>
+      <c r="E22" s="638" t="s">
+        <v>719</v>
+      </c>
+      <c r="F22" s="639"/>
+      <c r="G22" s="640"/>
+      <c r="H22" s="638" t="s">
+        <v>720</v>
+      </c>
+      <c r="I22" s="639"/>
+      <c r="J22" s="640"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="424" t="s">
+        <v>713</v>
+      </c>
+      <c r="B23" s="705"/>
+      <c r="C23" s="706"/>
+      <c r="D23" s="707"/>
+      <c r="E23" s="705"/>
+      <c r="F23" s="706"/>
+      <c r="G23" s="707"/>
+      <c r="H23" s="705"/>
+      <c r="I23" s="706"/>
+      <c r="J23" s="707"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="424" t="s">
+        <v>714</v>
+      </c>
+      <c r="B24" s="425"/>
+      <c r="C24" s="426"/>
+      <c r="D24" s="427"/>
+      <c r="E24" s="428"/>
+      <c r="F24" s="426"/>
+      <c r="G24" s="429"/>
+      <c r="H24" s="430"/>
+      <c r="I24" s="431"/>
+      <c r="J24" s="429"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="424"/>
+      <c r="B25" s="425"/>
+      <c r="C25" s="426"/>
+      <c r="D25" s="427"/>
+      <c r="E25" s="428"/>
+      <c r="F25" s="426"/>
+      <c r="G25" s="427"/>
+      <c r="H25" s="428"/>
+      <c r="I25" s="426"/>
+      <c r="J25" s="429"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="424"/>
+      <c r="B26" s="425"/>
+      <c r="C26" s="426"/>
+      <c r="D26" s="427"/>
+      <c r="E26" s="428"/>
+      <c r="F26" s="426"/>
+      <c r="G26" s="427"/>
+      <c r="H26" s="428"/>
+      <c r="I26" s="426"/>
+      <c r="J26" s="429"/>
+    </row>
+    <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="424"/>
+      <c r="B27" s="425"/>
+      <c r="C27" s="426"/>
+      <c r="D27" s="427"/>
+      <c r="E27" s="428"/>
+      <c r="F27" s="426"/>
+      <c r="G27" s="427"/>
+      <c r="H27" s="428"/>
+      <c r="I27" s="426"/>
+      <c r="J27" s="427"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="432"/>
+      <c r="B28" s="433"/>
+      <c r="C28" s="434"/>
+      <c r="D28" s="435"/>
+      <c r="E28" s="436"/>
+      <c r="F28" s="434"/>
+      <c r="G28" s="435"/>
+      <c r="H28" s="436"/>
+      <c r="I28" s="434"/>
+      <c r="J28" s="435"/>
+    </row>
+    <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="424"/>
+      <c r="B29" s="425"/>
+      <c r="C29" s="426"/>
+      <c r="D29" s="427"/>
+      <c r="E29" s="428"/>
+      <c r="F29" s="426"/>
+      <c r="G29" s="427"/>
+      <c r="H29" s="428"/>
+      <c r="I29" s="426"/>
+      <c r="J29" s="427"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="437"/>
+      <c r="B30" s="617"/>
+      <c r="C30" s="618"/>
+      <c r="D30" s="619"/>
+      <c r="E30" s="438"/>
+      <c r="F30" s="439"/>
+      <c r="G30" s="440"/>
+      <c r="H30" s="441"/>
+      <c r="I30" s="442"/>
+      <c r="J30" s="443"/>
+    </row>
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="424" t="s">
+        <v>715</v>
+      </c>
+      <c r="B31" s="620"/>
+      <c r="C31" s="621"/>
+      <c r="D31" s="622"/>
+      <c r="E31" s="620"/>
+      <c r="F31" s="621"/>
+      <c r="G31" s="622"/>
+      <c r="H31" s="623"/>
+      <c r="I31" s="624"/>
+      <c r="J31" s="625"/>
+    </row>
+    <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="437" t="s">
+        <v>748</v>
+      </c>
+      <c r="B32" s="611" t="s">
+        <v>749</v>
+      </c>
+      <c r="C32" s="612"/>
+      <c r="D32" s="613"/>
+      <c r="E32" s="611" t="s">
+        <v>750</v>
+      </c>
+      <c r="F32" s="612"/>
+      <c r="G32" s="613"/>
+      <c r="H32" s="614"/>
+      <c r="I32" s="615"/>
+      <c r="J32" s="616"/>
+    </row>
+    <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="A5:D11"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="I8:J8"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="72" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8804,7 +9852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A12"/>
   <sheetViews>
@@ -8878,7 +9926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S35"/>
   <sheetViews>
@@ -8900,35 +9948,35 @@
   <sheetData>
     <row r="1" spans="1:19" s="337" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="289"/>
-      <c r="C1" s="568" t="s">
+      <c r="C1" s="660" t="s">
         <v>662</v>
       </c>
-      <c r="D1" s="576"/>
-      <c r="E1" s="576"/>
-      <c r="F1" s="576"/>
-      <c r="G1" s="569"/>
-      <c r="H1" s="568" t="s">
+      <c r="D1" s="668"/>
+      <c r="E1" s="668"/>
+      <c r="F1" s="668"/>
+      <c r="G1" s="661"/>
+      <c r="H1" s="660" t="s">
         <v>661</v>
       </c>
-      <c r="I1" s="576"/>
-      <c r="J1" s="569"/>
-      <c r="K1" s="568" t="s">
+      <c r="I1" s="668"/>
+      <c r="J1" s="661"/>
+      <c r="K1" s="660" t="s">
         <v>663</v>
       </c>
-      <c r="L1" s="576"/>
-      <c r="M1" s="569"/>
-      <c r="N1" s="568" t="s">
+      <c r="L1" s="668"/>
+      <c r="M1" s="661"/>
+      <c r="N1" s="660" t="s">
         <v>664</v>
       </c>
-      <c r="O1" s="576"/>
-      <c r="P1" s="569"/>
+      <c r="O1" s="668"/>
+      <c r="P1" s="661"/>
       <c r="Q1" s="393" t="s">
         <v>690</v>
       </c>
-      <c r="R1" s="568" t="s">
+      <c r="R1" s="660" t="s">
         <v>665</v>
       </c>
-      <c r="S1" s="569"/>
+      <c r="S1" s="661"/>
     </row>
     <row r="2" spans="1:19" s="290" customFormat="1" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="389" t="s">
@@ -8984,7 +10032,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="577" t="str">
+      <c r="A3" s="669" t="str">
         <f>Cycles!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
@@ -9014,7 +10062,7 @@
       <c r="S3" s="388"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="578"/>
+      <c r="A4" s="670"/>
       <c r="B4" s="362" t="s">
         <v>657</v>
       </c>
@@ -9037,7 +10085,7 @@
       <c r="S4" s="292"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="578"/>
+      <c r="A5" s="670"/>
       <c r="B5" s="362" t="s">
         <v>658</v>
       </c>
@@ -9060,7 +10108,7 @@
       <c r="S5" s="292"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="579"/>
+      <c r="A6" s="671"/>
       <c r="B6" s="363" t="s">
         <v>659</v>
       </c>
@@ -9083,7 +10131,7 @@
       <c r="S6" s="294"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="580" t="str">
+      <c r="A7" s="672" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
@@ -9113,7 +10161,7 @@
       <c r="S7" s="296"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="581"/>
+      <c r="A8" s="673"/>
       <c r="B8" s="365" t="s">
         <v>657</v>
       </c>
@@ -9136,7 +10184,7 @@
       <c r="S8" s="298"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="581"/>
+      <c r="A9" s="673"/>
       <c r="B9" s="365" t="s">
         <v>658</v>
       </c>
@@ -9159,7 +10207,7 @@
       <c r="S9" s="298"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="582"/>
+      <c r="A10" s="674"/>
       <c r="B10" s="366" t="s">
         <v>659</v>
       </c>
@@ -9182,7 +10230,7 @@
       <c r="S10" s="300"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="583" t="str">
+      <c r="A11" s="675" t="str">
         <f>Cycles!A3</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
@@ -9212,7 +10260,7 @@
       <c r="S11" s="302"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="584"/>
+      <c r="A12" s="676"/>
       <c r="B12" s="368" t="s">
         <v>657</v>
       </c>
@@ -9235,7 +10283,7 @@
       <c r="S12" s="304"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="584"/>
+      <c r="A13" s="676"/>
       <c r="B13" s="368" t="s">
         <v>658</v>
       </c>
@@ -9258,7 +10306,7 @@
       <c r="S13" s="304"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="585"/>
+      <c r="A14" s="677"/>
       <c r="B14" s="369" t="s">
         <v>659</v>
       </c>
@@ -9281,7 +10329,7 @@
       <c r="S14" s="306"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="586" t="str">
+      <c r="A15" s="678" t="str">
         <f>Cycles!A4</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
@@ -9311,7 +10359,7 @@
       <c r="S15" s="308"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="587"/>
+      <c r="A16" s="679"/>
       <c r="B16" s="371" t="s">
         <v>657</v>
       </c>
@@ -9334,7 +10382,7 @@
       <c r="S16" s="310"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="587"/>
+      <c r="A17" s="679"/>
       <c r="B17" s="371" t="s">
         <v>658</v>
       </c>
@@ -9357,7 +10405,7 @@
       <c r="S17" s="310"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="588"/>
+      <c r="A18" s="680"/>
       <c r="B18" s="372" t="s">
         <v>659</v>
       </c>
@@ -9380,7 +10428,7 @@
       <c r="S18" s="312"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="589" t="str">
+      <c r="A19" s="681" t="str">
         <f>Cycles!A5</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
@@ -9412,7 +10460,7 @@
       <c r="S19" s="314"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="590"/>
+      <c r="A20" s="682"/>
       <c r="B20" s="374" t="s">
         <v>657</v>
       </c>
@@ -9435,7 +10483,7 @@
       <c r="S20" s="316"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="590"/>
+      <c r="A21" s="682"/>
       <c r="B21" s="374" t="s">
         <v>658</v>
       </c>
@@ -9458,7 +10506,7 @@
       <c r="S21" s="316"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="591"/>
+      <c r="A22" s="683"/>
       <c r="B22" s="375" t="s">
         <v>659</v>
       </c>
@@ -9481,7 +10529,7 @@
       <c r="S22" s="318"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="592" t="str">
+      <c r="A23" s="684" t="str">
         <f>Cycles!A6</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
@@ -9511,7 +10559,7 @@
       <c r="S23" s="320"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="593"/>
+      <c r="A24" s="685"/>
       <c r="B24" s="377" t="s">
         <v>657</v>
       </c>
@@ -9534,7 +10582,7 @@
       <c r="S24" s="322"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="593"/>
+      <c r="A25" s="685"/>
       <c r="B25" s="377" t="s">
         <v>658</v>
       </c>
@@ -9557,7 +10605,7 @@
       <c r="S25" s="322"/>
     </row>
     <row r="26" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="594"/>
+      <c r="A26" s="686"/>
       <c r="B26" s="378" t="s">
         <v>659</v>
       </c>
@@ -9580,7 +10628,7 @@
       <c r="S26" s="324"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="570" t="str">
+      <c r="A27" s="662" t="str">
         <f>Cycles!A7</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
@@ -9610,7 +10658,7 @@
       <c r="S27" s="326"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="571"/>
+      <c r="A28" s="663"/>
       <c r="B28" s="380" t="s">
         <v>657</v>
       </c>
@@ -9633,7 +10681,7 @@
       <c r="S28" s="328"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="571"/>
+      <c r="A29" s="663"/>
       <c r="B29" s="380" t="s">
         <v>658</v>
       </c>
@@ -9656,7 +10704,7 @@
       <c r="S29" s="328"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="572"/>
+      <c r="A30" s="664"/>
       <c r="B30" s="381" t="s">
         <v>659</v>
       </c>
@@ -9679,7 +10727,7 @@
       <c r="S30" s="330"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="573" t="str">
+      <c r="A31" s="665" t="str">
         <f>Cycles!A8</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
@@ -9709,7 +10757,7 @@
       <c r="S31" s="332"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="574"/>
+      <c r="A32" s="666"/>
       <c r="B32" s="383" t="s">
         <v>657</v>
       </c>
@@ -9732,7 +10780,7 @@
       <c r="S32" s="334"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="574"/>
+      <c r="A33" s="666"/>
       <c r="B33" s="383" t="s">
         <v>658</v>
       </c>
@@ -9755,7 +10803,7 @@
       <c r="S33" s="334"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="575"/>
+      <c r="A34" s="667"/>
       <c r="B34" s="384" t="s">
         <v>659</v>
       </c>
@@ -9868,12 +10916,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10046,10 +11094,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="603" t="s">
+      <c r="G10" s="695" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="604" t="s">
+      <c r="H10" s="696" t="s">
         <v>430</v>
       </c>
     </row>
@@ -10069,8 +11117,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="603"/>
-      <c r="H11" s="604"/>
+      <c r="G11" s="695"/>
+      <c r="H11" s="696"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -10088,8 +11136,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="603"/>
-      <c r="H12" s="604"/>
+      <c r="G12" s="695"/>
+      <c r="H12" s="696"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -10107,8 +11155,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="603"/>
-      <c r="H13" s="604"/>
+      <c r="G13" s="695"/>
+      <c r="H13" s="696"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -10126,10 +11174,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="607" t="s">
+      <c r="G14" s="699" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="607" t="s">
+      <c r="H14" s="699" t="s">
         <v>446</v>
       </c>
     </row>
@@ -10149,8 +11197,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="607"/>
-      <c r="H15" s="607"/>
+      <c r="G15" s="699"/>
+      <c r="H15" s="699"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -10262,10 +11310,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="596" t="s">
+      <c r="G22" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="597" t="s">
+      <c r="H22" s="689" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10280,8 +11328,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="596"/>
-      <c r="H23" s="597"/>
+      <c r="G23" s="688"/>
+      <c r="H23" s="689"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -10294,7 +11342,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="596"/>
+      <c r="G24" s="688"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -10308,7 +11356,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="596"/>
+      <c r="G25" s="688"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10327,7 +11375,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="596"/>
+      <c r="G26" s="688"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -10346,7 +11394,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="596"/>
+      <c r="G27" s="688"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10365,7 +11413,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="596"/>
+      <c r="G28" s="688"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -10378,7 +11426,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="596"/>
+      <c r="G29" s="688"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -10387,7 +11435,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="596"/>
+      <c r="G30" s="688"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
@@ -10399,7 +11447,7 @@
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="596"/>
+      <c r="G31" s="688"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10418,7 +11466,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="596"/>
+      <c r="G32" s="688"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -10474,10 +11522,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="605" t="s">
+      <c r="G35" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="606" t="s">
+      <c r="H35" s="698" t="s">
         <v>89</v>
       </c>
     </row>
@@ -10496,8 +11544,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="605"/>
-      <c r="H36" s="606"/>
+      <c r="G36" s="697"/>
+      <c r="H36" s="698"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -10514,8 +11562,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="605"/>
-      <c r="H37" s="606"/>
+      <c r="G37" s="697"/>
+      <c r="H37" s="698"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -10528,8 +11576,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="605"/>
-      <c r="H38" s="606"/>
+      <c r="G38" s="697"/>
+      <c r="H38" s="698"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -10542,8 +11590,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="605"/>
-      <c r="H39" s="606"/>
+      <c r="G39" s="697"/>
+      <c r="H39" s="698"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -10626,7 +11674,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="601"/>
+      <c r="H44" s="693"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -10639,10 +11687,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="599" t="s">
+      <c r="G45" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="601"/>
+      <c r="H45" s="693"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -10660,7 +11708,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="599"/>
+      <c r="G46" s="691"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -10700,8 +11748,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="598"/>
-      <c r="G49" s="598" t="s">
+      <c r="F49" s="690"/>
+      <c r="G49" s="690" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -10716,8 +11764,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="598"/>
-      <c r="G50" s="598"/>
+      <c r="F50" s="690"/>
+      <c r="G50" s="690"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -10730,8 +11778,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="598"/>
-      <c r="G51" s="598"/>
+      <c r="F51" s="690"/>
+      <c r="G51" s="690"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -10792,10 +11840,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="608" t="s">
+      <c r="G55" s="700" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="600" t="s">
+      <c r="H55" s="692" t="s">
         <v>63</v>
       </c>
     </row>
@@ -10810,8 +11858,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="608"/>
-      <c r="H56" s="600"/>
+      <c r="G56" s="700"/>
+      <c r="H56" s="692"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -10824,8 +11872,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="608"/>
-      <c r="H57" s="600"/>
+      <c r="G57" s="700"/>
+      <c r="H57" s="692"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -10843,8 +11891,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="608"/>
-      <c r="H58" s="600"/>
+      <c r="G58" s="700"/>
+      <c r="H58" s="692"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -11010,10 +12058,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="596" t="s">
+      <c r="G72" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="602"/>
+      <c r="H72" s="694"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -11023,8 +12071,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="596"/>
-      <c r="H73" s="602"/>
+      <c r="G73" s="688"/>
+      <c r="H73" s="694"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -11034,8 +12082,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="596"/>
-      <c r="H74" s="602"/>
+      <c r="G74" s="688"/>
+      <c r="H74" s="694"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -11045,8 +12093,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="596"/>
-      <c r="H75" s="602"/>
+      <c r="G75" s="688"/>
+      <c r="H75" s="694"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -11056,8 +12104,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="596"/>
-      <c r="H76" s="602"/>
+      <c r="G76" s="688"/>
+      <c r="H76" s="694"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -11195,10 +12243,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="596" t="s">
+      <c r="G94" s="688" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="595" t="s">
+      <c r="H94" s="687" t="s">
         <v>542</v>
       </c>
     </row>
@@ -11209,8 +12257,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="596"/>
-      <c r="H95" s="595"/>
+      <c r="G95" s="688"/>
+      <c r="H95" s="687"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -11219,8 +12267,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="596"/>
-      <c r="H96" s="595"/>
+      <c r="G96" s="688"/>
+      <c r="H96" s="687"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -11235,7 +12283,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="596" t="s">
+      <c r="G97" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11246,7 +12294,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="596"/>
+      <c r="G98" s="688"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -11255,7 +12303,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="596"/>
+      <c r="G99" s="688"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -11270,7 +12318,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="596" t="s">
+      <c r="G100" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11282,7 +12330,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="596"/>
+      <c r="G101" s="688"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -11292,7 +12340,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="596"/>
+      <c r="G102" s="688"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -11302,7 +12350,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="596"/>
+      <c r="G103" s="688"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -11361,7 +12409,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="596" t="s">
+      <c r="G117" s="688" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -11373,7 +12421,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="596"/>
+      <c r="G118" s="688"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -11389,7 +12437,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="596" t="s">
+      <c r="G119" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11400,7 +12448,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="596"/>
+      <c r="G120" s="688"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -11434,7 +12482,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="596" t="s">
+      <c r="G126" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11445,7 +12493,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="596"/>
+      <c r="G127" s="688"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -11471,7 +12519,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="596" t="s">
+      <c r="G130" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11483,7 +12531,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="596"/>
+      <c r="G131" s="688"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -11507,7 +12555,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="596" t="s">
+      <c r="G134" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11518,7 +12566,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="596"/>
+      <c r="G135" s="688"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -11527,7 +12575,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="596"/>
+      <c r="G136" s="688"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -11558,13 +12606,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="596" t="s">
+      <c r="G140" s="688" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="596"/>
+      <c r="G141" s="688"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -11583,7 +12631,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="596"/>
+      <c r="G142" s="688"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -11600,7 +12648,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="596"/>
+      <c r="G143" s="688"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -11617,11 +12665,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="596"/>
+      <c r="G144" s="688"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="596"/>
+      <c r="G145" s="688"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -11673,7 +12721,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="596" t="s">
+      <c r="G152" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11684,7 +12732,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="596"/>
+      <c r="G153" s="688"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -11728,12 +12776,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46:C46"/>
+    <sheetView topLeftCell="A87" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11847,10 +12895,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="596" t="s">
+      <c r="G13" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="602"/>
+      <c r="H13" s="694"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -11860,8 +12908,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="596"/>
-      <c r="H14" s="602"/>
+      <c r="G14" s="688"/>
+      <c r="H14" s="694"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -11871,8 +12919,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="596"/>
-      <c r="H15" s="602"/>
+      <c r="G15" s="688"/>
+      <c r="H15" s="694"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -11882,8 +12930,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="596"/>
-      <c r="H16" s="602"/>
+      <c r="G16" s="688"/>
+      <c r="H16" s="694"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -11893,8 +12941,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="596"/>
-      <c r="H17" s="602"/>
+      <c r="G17" s="688"/>
+      <c r="H17" s="694"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -11917,10 +12965,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="596" t="s">
+      <c r="G20" s="688" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="595" t="s">
+      <c r="H20" s="687" t="s">
         <v>542</v>
       </c>
     </row>
@@ -11931,8 +12979,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="596"/>
-      <c r="H21" s="595"/>
+      <c r="G21" s="688"/>
+      <c r="H21" s="687"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -11941,8 +12989,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="596"/>
-      <c r="H22" s="595"/>
+      <c r="G22" s="688"/>
+      <c r="H22" s="687"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -11957,7 +13005,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="596" t="s">
+      <c r="G23" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -11968,7 +13016,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="596"/>
+      <c r="G24" s="688"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -11977,7 +13025,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="596"/>
+      <c r="G25" s="688"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -11992,7 +13040,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="596" t="s">
+      <c r="G26" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12004,7 +13052,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="596"/>
+      <c r="G27" s="688"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -12014,7 +13062,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="596"/>
+      <c r="G28" s="688"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -12024,7 +13072,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="596"/>
+      <c r="G29" s="688"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -12077,10 +13125,10 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="596" t="s">
+      <c r="G37" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="609" t="s">
+      <c r="H37" s="701" t="s">
         <v>89</v>
       </c>
     </row>
@@ -12097,8 +13145,8 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="596"/>
-      <c r="H38" s="609"/>
+      <c r="G38" s="688"/>
+      <c r="H38" s="701"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
@@ -12113,8 +13161,8 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="596"/>
-      <c r="H39" s="609"/>
+      <c r="G39" s="688"/>
+      <c r="H39" s="701"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
@@ -12124,8 +13172,8 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="596"/>
-      <c r="H40" s="609"/>
+      <c r="G40" s="688"/>
+      <c r="H40" s="701"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
@@ -12135,8 +13183,8 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="596"/>
-      <c r="H41" s="609"/>
+      <c r="G41" s="688"/>
+      <c r="H41" s="701"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
@@ -12166,7 +13214,7 @@
       <c r="G46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="602" t="s">
+      <c r="H46" s="694" t="s">
         <v>32</v>
       </c>
     </row>
@@ -12178,10 +13226,10 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="596" t="s">
+      <c r="G47" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="602"/>
+      <c r="H47" s="694"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
@@ -12191,7 +13239,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="596"/>
+      <c r="G48" s="688"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -12202,7 +13250,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="596"/>
+      <c r="G49" s="688"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -12230,10 +13278,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="596" t="s">
+      <c r="G54" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="595" t="s">
+      <c r="H54" s="687" t="s">
         <v>40</v>
       </c>
     </row>
@@ -12244,8 +13292,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="596"/>
-      <c r="H55" s="595"/>
+      <c r="G55" s="688"/>
+      <c r="H55" s="687"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -12254,7 +13302,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="596"/>
+      <c r="G56" s="688"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -12264,7 +13312,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="596"/>
+      <c r="G57" s="688"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12281,7 +13329,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="596"/>
+      <c r="G58" s="688"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -12298,7 +13346,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="596"/>
+      <c r="G59" s="688"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -12318,8 +13366,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="596"/>
-      <c r="G61" s="596" t="s">
+      <c r="F61" s="688"/>
+      <c r="G61" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12330,8 +13378,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="596"/>
-      <c r="G62" s="596"/>
+      <c r="F62" s="688"/>
+      <c r="G62" s="688"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -12340,8 +13388,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="596"/>
-      <c r="G63" s="596"/>
+      <c r="F63" s="688"/>
+      <c r="G63" s="688"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -12406,7 +13454,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="596" t="s">
+      <c r="G68" s="688" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -12418,7 +13466,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="596"/>
+      <c r="G69" s="688"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -12434,7 +13482,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="596" t="s">
+      <c r="G70" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12445,7 +13493,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="596"/>
+      <c r="G71" s="688"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -12472,10 +13520,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="596" t="s">
+      <c r="G75" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="602" t="s">
+      <c r="H75" s="694" t="s">
         <v>48</v>
       </c>
     </row>
@@ -12493,8 +13541,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="596"/>
-      <c r="H76" s="602"/>
+      <c r="G76" s="688"/>
+      <c r="H76" s="694"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -12510,8 +13558,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="596"/>
-      <c r="H77" s="602"/>
+      <c r="G77" s="688"/>
+      <c r="H77" s="694"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -12546,10 +13594,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="596" t="s">
+      <c r="G81" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="595" t="s">
+      <c r="H81" s="687" t="s">
         <v>430</v>
       </c>
     </row>
@@ -12567,8 +13615,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="596"/>
-      <c r="H82" s="595"/>
+      <c r="G82" s="688"/>
+      <c r="H82" s="687"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -12584,8 +13632,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="596"/>
-      <c r="H83" s="595"/>
+      <c r="G83" s="688"/>
+      <c r="H83" s="687"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -12601,8 +13649,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="596"/>
-      <c r="H84" s="595"/>
+      <c r="G84" s="688"/>
+      <c r="H84" s="687"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -12618,10 +13666,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="602" t="s">
+      <c r="G85" s="694" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="602" t="s">
+      <c r="H85" s="694" t="s">
         <v>446</v>
       </c>
     </row>
@@ -12639,8 +13687,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="602"/>
-      <c r="H86" s="602"/>
+      <c r="G86" s="694"/>
+      <c r="H86" s="694"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -12672,10 +13720,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="596" t="s">
+      <c r="F89" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="610" t="s">
+      <c r="H89" s="702" t="s">
         <v>473</v>
       </c>
     </row>
@@ -12686,8 +13734,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="596"/>
-      <c r="H90" s="610"/>
+      <c r="F90" s="688"/>
+      <c r="H90" s="702"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -12697,8 +13745,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="596"/>
-      <c r="H91" s="610"/>
+      <c r="F91" s="688"/>
+      <c r="H91" s="702"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -12714,8 +13762,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="596"/>
-      <c r="H92" s="610"/>
+      <c r="F92" s="688"/>
+      <c r="H92" s="702"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -12731,10 +13779,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="596" t="s">
+      <c r="G93" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="602" t="s">
+      <c r="H93" s="694" t="s">
         <v>51</v>
       </c>
     </row>
@@ -12751,8 +13799,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="596"/>
-      <c r="H94" s="602"/>
+      <c r="G94" s="688"/>
+      <c r="H94" s="694"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -12761,7 +13809,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="596" t="s">
+      <c r="G95" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12779,7 +13827,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="596"/>
+      <c r="G96" s="688"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -12802,7 +13850,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="596" t="s">
+      <c r="G99" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12813,7 +13861,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="596"/>
+      <c r="G100" s="688"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -12839,7 +13887,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="596" t="s">
+      <c r="G103" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12851,7 +13899,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="596"/>
+      <c r="G104" s="688"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -12875,7 +13923,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="596" t="s">
+      <c r="G107" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12886,7 +13934,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="596"/>
+      <c r="G108" s="688"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -12895,7 +13943,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="596"/>
+      <c r="G109" s="688"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -12912,7 +13960,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="596" t="s">
+      <c r="G110" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12924,7 +13972,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="596"/>
+      <c r="G111" s="688"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -12937,7 +13985,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="596"/>
+      <c r="G112" s="688"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -12954,7 +14002,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="596"/>
+      <c r="G113" s="688"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -13001,7 +14049,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="596" t="s">
+      <c r="G117" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13020,7 +14068,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="596"/>
+      <c r="G118" s="688"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -13039,7 +14087,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="596"/>
+      <c r="G119" s="688"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -13056,7 +14104,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="596"/>
+      <c r="G120" s="688"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -13073,7 +14121,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="596"/>
+      <c r="G121" s="688"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -13090,7 +14138,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="596"/>
+      <c r="G122" s="688"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -13105,7 +14153,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="596"/>
+      <c r="G123" s="688"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -13210,7 +14258,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="596" t="s">
+      <c r="G133" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13221,7 +14269,7 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="596"/>
+      <c r="G134" s="688"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
@@ -13267,12 +14315,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H270"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13305,10 +14353,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="612" t="s">
+      <c r="B6" s="704" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="595" t="s">
+      <c r="C6" s="687" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -13317,84 +14365,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="596" t="s">
+      <c r="F6" s="688" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="595" t="s">
+      <c r="H6" s="687" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="612"/>
-      <c r="C7" s="595"/>
+      <c r="B7" s="704"/>
+      <c r="C7" s="687"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="596"/>
-      <c r="H7" s="595"/>
+      <c r="F7" s="688"/>
+      <c r="H7" s="687"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="612"/>
-      <c r="C8" s="595"/>
+      <c r="B8" s="704"/>
+      <c r="C8" s="687"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="596"/>
-      <c r="H8" s="595"/>
+      <c r="F8" s="688"/>
+      <c r="H8" s="687"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="612"/>
-      <c r="C9" s="595"/>
+      <c r="B9" s="704"/>
+      <c r="C9" s="687"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="596"/>
-      <c r="H9" s="595"/>
+      <c r="F9" s="688"/>
+      <c r="H9" s="687"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="612"/>
-      <c r="C10" s="595"/>
+      <c r="B10" s="704"/>
+      <c r="C10" s="687"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="596"/>
-      <c r="H10" s="595"/>
+      <c r="F10" s="688"/>
+      <c r="H10" s="687"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="612"/>
-      <c r="C11" s="595"/>
+      <c r="B11" s="704"/>
+      <c r="C11" s="687"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="596"/>
-      <c r="H11" s="595"/>
+      <c r="F11" s="688"/>
+      <c r="H11" s="687"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="612"/>
-      <c r="C12" s="595"/>
+      <c r="B12" s="704"/>
+      <c r="C12" s="687"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="596"/>
-      <c r="H12" s="595"/>
+      <c r="F12" s="688"/>
+      <c r="H12" s="687"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -13435,7 +14483,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="596" t="s">
+      <c r="F16" s="688" t="s">
         <v>9</v>
       </c>
     </row>
@@ -13453,7 +14501,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="596"/>
+      <c r="F17" s="688"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -13494,7 +14542,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="596" t="s">
+      <c r="F21" s="688" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -13514,7 +14562,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="596"/>
+      <c r="F22" s="688"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -13529,7 +14577,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="596"/>
+      <c r="F23" s="688"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -13544,7 +14592,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="596"/>
+      <c r="F24" s="688"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -13559,7 +14607,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="596"/>
+      <c r="F25" s="688"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -13568,7 +14616,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="596"/>
+      <c r="F26" s="688"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -13599,10 +14647,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="596" t="s">
+      <c r="F30" s="688" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="602" t="s">
+      <c r="H30" s="694" t="s">
         <v>15</v>
       </c>
     </row>
@@ -13619,8 +14667,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="596"/>
-      <c r="H31" s="602"/>
+      <c r="F31" s="688"/>
+      <c r="H31" s="694"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -13635,8 +14683,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="596"/>
-      <c r="H32" s="602"/>
+      <c r="F32" s="688"/>
+      <c r="H32" s="694"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -13645,8 +14693,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="596"/>
-      <c r="H33" s="602"/>
+      <c r="F33" s="688"/>
+      <c r="H33" s="694"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -13655,10 +14703,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="596" t="s">
+      <c r="G34" s="688" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="602"/>
+      <c r="H34" s="694"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -13667,8 +14715,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="596"/>
-      <c r="H35" s="602"/>
+      <c r="G35" s="688"/>
+      <c r="H35" s="694"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -13677,8 +14725,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="596"/>
-      <c r="H36" s="602"/>
+      <c r="G36" s="688"/>
+      <c r="H36" s="694"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -13693,10 +14741,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="596" t="s">
+      <c r="F37" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="602" t="s">
+      <c r="H37" s="694" t="s">
         <v>17</v>
       </c>
     </row>
@@ -13707,8 +14755,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="596"/>
-      <c r="H38" s="602"/>
+      <c r="F38" s="688"/>
+      <c r="H38" s="694"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -13717,8 +14765,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="596"/>
-      <c r="H39" s="602"/>
+      <c r="F39" s="688"/>
+      <c r="H39" s="694"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -13733,10 +14781,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="596" t="s">
+      <c r="G40" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="602"/>
+      <c r="H40" s="694"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -13746,8 +14794,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="596"/>
-      <c r="H41" s="602"/>
+      <c r="G41" s="688"/>
+      <c r="H41" s="694"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -13757,8 +14805,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="596"/>
-      <c r="H42" s="602"/>
+      <c r="G42" s="688"/>
+      <c r="H42" s="694"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -13768,8 +14816,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="596"/>
-      <c r="H43" s="602"/>
+      <c r="G43" s="688"/>
+      <c r="H43" s="694"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -13779,8 +14827,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="596"/>
-      <c r="H44" s="602"/>
+      <c r="G44" s="688"/>
+      <c r="H44" s="694"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -13803,10 +14851,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="596" t="s">
+      <c r="G47" s="688" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="595" t="s">
+      <c r="H47" s="687" t="s">
         <v>542</v>
       </c>
     </row>
@@ -13817,8 +14865,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="596"/>
-      <c r="H48" s="595"/>
+      <c r="G48" s="688"/>
+      <c r="H48" s="687"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -13827,8 +14875,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="596"/>
-      <c r="H49" s="595"/>
+      <c r="G49" s="688"/>
+      <c r="H49" s="687"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -13843,7 +14891,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="596" t="s">
+      <c r="G50" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13854,7 +14902,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="596"/>
+      <c r="G51" s="688"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -13863,7 +14911,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="596"/>
+      <c r="G52" s="688"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -13879,7 +14927,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="596" t="s">
+      <c r="G53" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13892,7 +14940,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="596"/>
+      <c r="G54" s="688"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -13903,7 +14951,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="596"/>
+      <c r="G55" s="688"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -13914,7 +14962,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="596"/>
+      <c r="G56" s="688"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -14035,10 +15083,10 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="596" t="s">
+      <c r="G69" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="609" t="s">
+      <c r="H69" s="701" t="s">
         <v>89</v>
       </c>
     </row>
@@ -14055,8 +15103,8 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="596"/>
-      <c r="H70" s="609"/>
+      <c r="G70" s="688"/>
+      <c r="H70" s="701"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
@@ -14071,8 +15119,8 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="596"/>
-      <c r="H71" s="609"/>
+      <c r="G71" s="688"/>
+      <c r="H71" s="701"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
@@ -14082,8 +15130,8 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="596"/>
-      <c r="H72" s="609"/>
+      <c r="G72" s="688"/>
+      <c r="H72" s="701"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
@@ -14093,8 +15141,8 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="596"/>
-      <c r="H73" s="609"/>
+      <c r="G73" s="688"/>
+      <c r="H73" s="701"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
@@ -14124,7 +15172,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="602" t="s">
+      <c r="H78" s="694" t="s">
         <v>32</v>
       </c>
     </row>
@@ -14136,10 +15184,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="596" t="s">
+      <c r="F79" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="602"/>
+      <c r="H79" s="694"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -14149,8 +15197,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="596"/>
-      <c r="H80" s="602"/>
+      <c r="F80" s="688"/>
+      <c r="H80" s="694"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -14160,7 +15208,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="596" t="s">
+      <c r="G81" s="688" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -14173,7 +15221,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="596"/>
+      <c r="G82" s="688"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -14184,7 +15232,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="596"/>
+      <c r="G83" s="688"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14200,10 +15248,10 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="596" t="s">
+      <c r="F85" s="688" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="611" t="s">
+      <c r="H85" s="703" t="s">
         <v>92</v>
       </c>
     </row>
@@ -14215,8 +15263,8 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="596"/>
-      <c r="H86" s="611"/>
+      <c r="F86" s="688"/>
+      <c r="H86" s="703"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
@@ -14226,8 +15274,8 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="596"/>
-      <c r="H87" s="611"/>
+      <c r="F87" s="688"/>
+      <c r="H87" s="703"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
@@ -14237,8 +15285,8 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="596"/>
-      <c r="H88" s="611"/>
+      <c r="F88" s="688"/>
+      <c r="H88" s="703"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
@@ -14256,7 +15304,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="602" t="s">
+      <c r="H90" s="694" t="s">
         <v>36</v>
       </c>
     </row>
@@ -14273,10 +15321,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="596" t="s">
+      <c r="F91" s="688" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="602"/>
+      <c r="H91" s="694"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -14286,8 +15334,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="596"/>
-      <c r="H92" s="602"/>
+      <c r="F92" s="688"/>
+      <c r="H92" s="694"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -14305,7 +15353,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="602"/>
+      <c r="H93" s="694"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -14323,7 +15371,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="602"/>
+      <c r="H94" s="694"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -14338,7 +15386,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="596" t="s">
+      <c r="F96" s="688" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -14353,7 +15401,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="596"/>
+      <c r="F97" s="688"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -14362,7 +15410,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="596"/>
+      <c r="F98" s="688"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -14377,7 +15425,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="596" t="s">
+      <c r="F99" s="688" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14394,7 +15442,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="596"/>
+      <c r="F100" s="688"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -14406,10 +15454,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="596" t="s">
+      <c r="G101" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="595" t="s">
+      <c r="H101" s="687" t="s">
         <v>40</v>
       </c>
     </row>
@@ -14420,8 +15468,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="596"/>
-      <c r="H102" s="595"/>
+      <c r="G102" s="688"/>
+      <c r="H102" s="687"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -14430,7 +15478,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="596"/>
+      <c r="G103" s="688"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -14440,7 +15488,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="596"/>
+      <c r="G104" s="688"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14457,7 +15505,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="596"/>
+      <c r="G105" s="688"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -14474,7 +15522,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="596"/>
+      <c r="G106" s="688"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -14494,7 +15542,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="596" t="s">
+      <c r="F108" s="688" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -14512,7 +15560,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="596"/>
+      <c r="F109" s="688"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -14522,7 +15570,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="596"/>
+      <c r="F110" s="688"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -14532,7 +15580,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="596"/>
+      <c r="F111" s="688"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -14542,7 +15590,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="596"/>
+      <c r="F112" s="688"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -14551,7 +15599,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="596"/>
+      <c r="F113" s="688"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -14566,10 +15614,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="596" t="s">
+      <c r="F114" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="595" t="s">
+      <c r="H114" s="687" t="s">
         <v>101</v>
       </c>
     </row>
@@ -14586,8 +15634,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="596"/>
-      <c r="H115" s="595"/>
+      <c r="F115" s="688"/>
+      <c r="H115" s="687"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -14602,8 +15650,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="596"/>
-      <c r="H116" s="595"/>
+      <c r="F116" s="688"/>
+      <c r="H116" s="687"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -14618,8 +15666,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="596"/>
-      <c r="H117" s="595"/>
+      <c r="F117" s="688"/>
+      <c r="H117" s="687"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -14628,8 +15676,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="596"/>
-      <c r="H118" s="595"/>
+      <c r="F118" s="688"/>
+      <c r="H118" s="687"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -14638,8 +15686,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="596"/>
-      <c r="H119" s="595"/>
+      <c r="F119" s="688"/>
+      <c r="H119" s="687"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -14648,8 +15696,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="596"/>
-      <c r="H120" s="595"/>
+      <c r="F120" s="688"/>
+      <c r="H120" s="687"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -14658,8 +15706,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="596"/>
-      <c r="H121" s="595"/>
+      <c r="F121" s="688"/>
+      <c r="H121" s="687"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -14668,8 +15716,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="596"/>
-      <c r="H122" s="595"/>
+      <c r="F122" s="688"/>
+      <c r="H122" s="687"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -14685,8 +15733,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="596"/>
-      <c r="G123" s="596" t="s">
+      <c r="F123" s="688"/>
+      <c r="G123" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14697,8 +15745,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="596"/>
-      <c r="G124" s="596"/>
+      <c r="F124" s="688"/>
+      <c r="G124" s="688"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -14707,8 +15755,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="596"/>
-      <c r="G125" s="596"/>
+      <c r="F125" s="688"/>
+      <c r="G125" s="688"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -14717,10 +15765,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="596" t="s">
+      <c r="F126" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="602" t="s">
+      <c r="H126" s="694" t="s">
         <v>41</v>
       </c>
     </row>
@@ -14738,8 +15786,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="596"/>
-      <c r="H127" s="602"/>
+      <c r="F127" s="688"/>
+      <c r="H127" s="694"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -14754,7 +15802,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="596"/>
+      <c r="F128" s="688"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -14763,7 +15811,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="596"/>
+      <c r="F129" s="688"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -14773,7 +15821,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="596"/>
+      <c r="F130" s="688"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -14782,7 +15830,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="596"/>
+      <c r="F131" s="688"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -14798,7 +15846,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="596" t="s">
+      <c r="F132" s="688" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14809,7 +15857,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="596"/>
+      <c r="F133" s="688"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -14896,7 +15944,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="596" t="s">
+      <c r="G139" s="688" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -14908,7 +15956,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="596"/>
+      <c r="G140" s="688"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -14924,7 +15972,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="596" t="s">
+      <c r="G141" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14935,7 +15983,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="596"/>
+      <c r="G142" s="688"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -14962,10 +16010,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="596" t="s">
+      <c r="G146" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="602" t="s">
+      <c r="H146" s="694" t="s">
         <v>48</v>
       </c>
     </row>
@@ -14983,8 +16031,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="596"/>
-      <c r="H147" s="602"/>
+      <c r="G147" s="688"/>
+      <c r="H147" s="694"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -15000,8 +16048,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="596"/>
-      <c r="H148" s="602"/>
+      <c r="G148" s="688"/>
+      <c r="H148" s="694"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -15043,10 +16091,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="596" t="s">
+      <c r="F152" s="688" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="602" t="s">
+      <c r="H152" s="694" t="s">
         <v>417</v>
       </c>
     </row>
@@ -15063,8 +16111,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="596"/>
-      <c r="H153" s="602"/>
+      <c r="F153" s="688"/>
+      <c r="H153" s="694"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -15079,8 +16127,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="596"/>
-      <c r="H154" s="602"/>
+      <c r="F154" s="688"/>
+      <c r="H154" s="694"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -15091,10 +16139,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="596" t="s">
+      <c r="G155" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="595" t="s">
+      <c r="H155" s="687" t="s">
         <v>430</v>
       </c>
     </row>
@@ -15113,8 +16161,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="596"/>
-      <c r="H156" s="595"/>
+      <c r="G156" s="688"/>
+      <c r="H156" s="687"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -15131,8 +16179,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="596"/>
-      <c r="H157" s="595"/>
+      <c r="G157" s="688"/>
+      <c r="H157" s="687"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -15149,8 +16197,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="596"/>
-      <c r="H158" s="595"/>
+      <c r="G158" s="688"/>
+      <c r="H158" s="687"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -15166,7 +16214,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="596" t="s">
+      <c r="F159" s="688" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -15186,7 +16234,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="596"/>
+      <c r="F160" s="688"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -15204,10 +16252,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="602" t="s">
+      <c r="G161" s="694" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="602" t="s">
+      <c r="H161" s="694" t="s">
         <v>446</v>
       </c>
     </row>
@@ -15226,8 +16274,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="602"/>
-      <c r="H162" s="602"/>
+      <c r="G162" s="694"/>
+      <c r="H162" s="694"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -15246,11 +16294,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="596" t="s">
+      <c r="F164" s="688" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="602" t="s">
+      <c r="H164" s="694" t="s">
         <v>454</v>
       </c>
     </row>
@@ -15262,9 +16310,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="596"/>
+      <c r="F165" s="688"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="602"/>
+      <c r="H165" s="694"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -15274,9 +16322,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="596"/>
+      <c r="F166" s="688"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="602"/>
+      <c r="H166" s="694"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -15292,9 +16340,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="596"/>
+      <c r="F167" s="688"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="602"/>
+      <c r="H167" s="694"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -15309,8 +16357,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="596"/>
-      <c r="H168" s="602"/>
+      <c r="F168" s="688"/>
+      <c r="H168" s="694"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -15319,8 +16367,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="596"/>
-      <c r="H169" s="602"/>
+      <c r="F169" s="688"/>
+      <c r="H169" s="694"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -15332,7 +16380,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="602"/>
+      <c r="H170" s="694"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -15352,10 +16400,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="596" t="s">
+      <c r="F172" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="610" t="s">
+      <c r="H172" s="702" t="s">
         <v>473</v>
       </c>
     </row>
@@ -15366,8 +16414,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="596"/>
-      <c r="H173" s="610"/>
+      <c r="F173" s="688"/>
+      <c r="H173" s="702"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -15377,8 +16425,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="596"/>
-      <c r="H174" s="610"/>
+      <c r="F174" s="688"/>
+      <c r="H174" s="702"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -15394,8 +16442,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="596"/>
-      <c r="H175" s="610"/>
+      <c r="F175" s="688"/>
+      <c r="H175" s="702"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -15411,10 +16459,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="596" t="s">
+      <c r="G176" s="688" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="602" t="s">
+      <c r="H176" s="694" t="s">
         <v>51</v>
       </c>
     </row>
@@ -15431,8 +16479,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="596"/>
-      <c r="H177" s="602"/>
+      <c r="G177" s="688"/>
+      <c r="H177" s="694"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -15441,7 +16489,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="596" t="s">
+      <c r="G178" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15459,7 +16507,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="596"/>
+      <c r="G179" s="688"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -15485,7 +16533,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="602" t="s">
+      <c r="H182" s="694" t="s">
         <v>55</v>
       </c>
     </row>
@@ -15507,7 +16555,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="602"/>
+      <c r="H183" s="694"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -15524,7 +16572,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="596" t="s">
+      <c r="G184" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15538,7 +16586,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="596"/>
+      <c r="G185" s="688"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -15573,7 +16621,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="602" t="s">
+      <c r="H188" s="694" t="s">
         <v>493</v>
       </c>
     </row>
@@ -15594,7 +16642,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="602"/>
+      <c r="H189" s="694"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -15610,10 +16658,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="596" t="s">
+      <c r="G190" s="688" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="602"/>
+      <c r="H190" s="694"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -15623,8 +16671,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="596"/>
-      <c r="H191" s="602"/>
+      <c r="G191" s="688"/>
+      <c r="H191" s="694"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -15645,7 +16693,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="596" t="s">
+      <c r="F194" s="688" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15657,7 +16705,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="596"/>
+      <c r="F195" s="688"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15675,7 +16723,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="596" t="s">
+      <c r="G196" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15689,7 +16737,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="596"/>
+      <c r="G197" s="688"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -15698,7 +16746,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="596"/>
+      <c r="G198" s="688"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -15715,7 +16763,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="596" t="s">
+      <c r="G199" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15730,7 +16778,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="596"/>
+      <c r="G200" s="688"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -15746,7 +16794,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="596"/>
+      <c r="G201" s="688"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -15764,7 +16812,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="596"/>
+      <c r="G202" s="688"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -15825,7 +16873,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="596" t="s">
+      <c r="G206" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15845,7 +16893,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="596"/>
+      <c r="G207" s="688"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -15864,7 +16912,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="596"/>
+      <c r="G208" s="688"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -15881,7 +16929,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="596"/>
+      <c r="G209" s="688"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -15898,7 +16946,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="596"/>
+      <c r="G210" s="688"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -15915,7 +16963,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="596"/>
+      <c r="G211" s="688"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -15930,7 +16978,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="596"/>
+      <c r="G212" s="688"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -15949,7 +16997,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="602" t="s">
+      <c r="H213" s="694" t="s">
         <v>67</v>
       </c>
     </row>
@@ -15970,7 +17018,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="602"/>
+      <c r="H214" s="694"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -15986,10 +17034,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="596" t="s">
+      <c r="F215" s="688" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="602" t="s">
+      <c r="H215" s="694" t="s">
         <v>546</v>
       </c>
     </row>
@@ -16001,8 +17049,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="596"/>
-      <c r="H216" s="602"/>
+      <c r="F216" s="688"/>
+      <c r="H216" s="694"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -16068,10 +17116,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="596" t="s">
+      <c r="F220" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="602" t="s">
+      <c r="H220" s="694" t="s">
         <v>556</v>
       </c>
     </row>
@@ -16083,8 +17131,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="596"/>
-      <c r="H221" s="602"/>
+      <c r="F221" s="688"/>
+      <c r="H221" s="694"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -16093,8 +17141,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="596"/>
-      <c r="H222" s="602"/>
+      <c r="F222" s="688"/>
+      <c r="H222" s="694"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -16125,10 +17173,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="596" t="s">
+      <c r="F226" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="610" t="s">
+      <c r="H226" s="702" t="s">
         <v>566</v>
       </c>
     </row>
@@ -16139,8 +17187,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="596"/>
-      <c r="H227" s="610"/>
+      <c r="F227" s="688"/>
+      <c r="H227" s="702"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -16149,8 +17197,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="596"/>
-      <c r="H228" s="610"/>
+      <c r="F228" s="688"/>
+      <c r="H228" s="702"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -16160,8 +17208,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="596"/>
-      <c r="H229" s="610"/>
+      <c r="F229" s="688"/>
+      <c r="H229" s="702"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -16170,8 +17218,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="596"/>
-      <c r="H230" s="610"/>
+      <c r="F230" s="688"/>
+      <c r="H230" s="702"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -16190,7 +17238,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="610"/>
+      <c r="H231" s="702"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -16232,10 +17280,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="596" t="s">
+      <c r="F235" s="688" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="602" t="s">
+      <c r="H235" s="694" t="s">
         <v>580</v>
       </c>
     </row>
@@ -16246,8 +17294,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="596"/>
-      <c r="H236" s="602"/>
+      <c r="F236" s="688"/>
+      <c r="H236" s="694"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -16256,8 +17304,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="596"/>
-      <c r="H237" s="602"/>
+      <c r="F237" s="688"/>
+      <c r="H237" s="694"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -16266,8 +17314,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="596"/>
-      <c r="H238" s="602"/>
+      <c r="F238" s="688"/>
+      <c r="H238" s="694"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -16283,7 +17331,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="596" t="s">
+      <c r="G239" s="688" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16294,7 +17342,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="596"/>
+      <c r="G240" s="688"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -16310,11 +17358,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="596" t="s">
+      <c r="F241" s="688" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="602" t="s">
+      <c r="H241" s="694" t="s">
         <v>79</v>
       </c>
     </row>
@@ -16325,9 +17373,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="596"/>
+      <c r="F242" s="688"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="602"/>
+      <c r="H242" s="694"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="765">
   <si>
     <t>A – Analyser</t>
   </si>
@@ -2414,6 +2414,9 @@
   </si>
   <si>
     <t>Res2.C11.SF1</t>
+  </si>
+  <si>
+    <t>EDUSPOT DU 14 1U 16 MARS</t>
   </si>
 </sst>
 </file>
@@ -3873,9 +3876,6 @@
     <xf numFmtId="0" fontId="4" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4661,6 +4661,258 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4685,45 +4937,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4757,15 +4970,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4778,209 +4982,131 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4994,15 +5120,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -5027,122 +5144,71 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -5150,156 +5216,99 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5382,10 +5391,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5405,44 +5432,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6778,10 +6781,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6841,7 +6844,7 @@
       <c r="O1" s="169" t="s">
         <v>608</v>
       </c>
-      <c r="P1" s="253" t="s">
+      <c r="P1" s="252" t="s">
         <v>622</v>
       </c>
       <c r="Q1" s="172" t="s">
@@ -6860,48 +6863,48 @@
         <f>B2+6</f>
         <v>42988</v>
       </c>
-      <c r="D2" s="199" t="str">
+      <c r="D2" s="198" t="str">
         <f>CONCATENATE(TEXT(B2,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C2,"JJ/MM/AA"))</f>
         <v>04/09/17
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="491" t="str">
+      <c r="E2" s="522" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="506" t="s">
+      <c r="F2" s="489" t="s">
         <v>705</v>
       </c>
-      <c r="G2" s="494" t="s">
+      <c r="G2" s="510" t="s">
         <v>666</v>
       </c>
-      <c r="H2" s="524" t="str">
+      <c r="H2" s="507" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="524" t="str">
+      <c r="I2" s="507" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="528" t="s">
+      <c r="J2" s="512" t="s">
         <v>669</v>
       </c>
-      <c r="K2" s="494" t="s">
+      <c r="K2" s="510" t="s">
         <v>755</v>
       </c>
-      <c r="L2" s="200" t="s">
+      <c r="L2" s="199" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="200" t="s">
+      <c r="M2" s="199" t="s">
         <v>706</v>
       </c>
-      <c r="N2" s="281" t="s">
+      <c r="N2" s="280" t="s">
         <v>688</v>
       </c>
-      <c r="O2" s="200"/>
-      <c r="P2" s="254"/>
-      <c r="Q2" s="201"/>
+      <c r="O2" s="199"/>
+      <c r="P2" s="253"/>
+      <c r="Q2" s="200"/>
     </row>
     <row r="3" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="158">
@@ -6916,29 +6919,29 @@
         <f>B3+6</f>
         <v>42995</v>
       </c>
-      <c r="D3" s="202" t="str">
+      <c r="D3" s="201" t="str">
         <f t="shared" ref="D3:D45" si="0">CONCATENATE(TEXT(B3,"JJ/MM/AA"),CHAR(10),"au",CHAR(10),TEXT(C3,"JJ/MM/AA"))</f>
         <v>11/09/17
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="492"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="525"/>
-      <c r="I3" s="525"/>
-      <c r="J3" s="529"/>
-      <c r="K3" s="527"/>
-      <c r="L3" s="203" t="s">
+      <c r="E3" s="523"/>
+      <c r="F3" s="490"/>
+      <c r="G3" s="525"/>
+      <c r="H3" s="508"/>
+      <c r="I3" s="508"/>
+      <c r="J3" s="513"/>
+      <c r="K3" s="511"/>
+      <c r="L3" s="202" t="s">
         <v>624</v>
       </c>
-      <c r="M3" s="203" t="s">
+      <c r="M3" s="202" t="s">
         <v>710</v>
       </c>
-      <c r="N3" s="203"/>
-      <c r="O3" s="203"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="204" t="s">
+      <c r="N3" s="202"/>
+      <c r="O3" s="202"/>
+      <c r="P3" s="254"/>
+      <c r="Q3" s="203" t="s">
         <v>707</v>
       </c>
     </row>
@@ -6955,31 +6958,31 @@
         <f t="shared" ref="C4:C45" si="3">B4+6</f>
         <v>43002</v>
       </c>
-      <c r="D4" s="205" t="str">
+      <c r="D4" s="204" t="str">
         <f t="shared" si="0"/>
         <v>18/09/17
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="493"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="496"/>
-      <c r="H4" s="526"/>
-      <c r="I4" s="526"/>
-      <c r="J4" s="206" t="s">
+      <c r="E4" s="524"/>
+      <c r="F4" s="491"/>
+      <c r="G4" s="526"/>
+      <c r="H4" s="509"/>
+      <c r="I4" s="509"/>
+      <c r="J4" s="205" t="s">
         <v>668</v>
       </c>
-      <c r="K4" s="287"/>
-      <c r="L4" s="206" t="s">
+      <c r="K4" s="286"/>
+      <c r="L4" s="205" t="s">
         <v>625</v>
       </c>
-      <c r="M4" s="206" t="s">
+      <c r="M4" s="205" t="s">
         <v>709</v>
       </c>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="256"/>
-      <c r="Q4" s="207" t="s">
+      <c r="N4" s="205"/>
+      <c r="O4" s="205"/>
+      <c r="P4" s="255"/>
+      <c r="Q4" s="206" t="s">
         <v>708</v>
       </c>
     </row>
@@ -6996,42 +6999,42 @@
         <f t="shared" si="3"/>
         <v>43009</v>
       </c>
-      <c r="D5" s="210" t="str">
+      <c r="D5" s="209" t="str">
         <f t="shared" si="0"/>
         <v>25/09/17
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="503" t="str">
+      <c r="E5" s="486" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="509" t="s">
+      <c r="F5" s="492" t="s">
         <v>691</v>
       </c>
-      <c r="G5" s="497" t="s">
+      <c r="G5" s="527" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="488" t="str">
+      <c r="H5" s="519" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="488" t="str">
+      <c r="I5" s="519" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
-      <c r="J5" s="211" t="s">
+      <c r="J5" s="210" t="s">
         <v>670</v>
       </c>
-      <c r="K5" s="284"/>
-      <c r="L5" s="211" t="s">
+      <c r="K5" s="283"/>
+      <c r="L5" s="210" t="s">
         <v>626</v>
       </c>
-      <c r="M5" s="211"/>
-      <c r="N5" s="211"/>
-      <c r="O5" s="211"/>
-      <c r="P5" s="257"/>
-      <c r="Q5" s="212"/>
+      <c r="M5" s="210"/>
+      <c r="N5" s="210"/>
+      <c r="O5" s="210"/>
+      <c r="P5" s="256"/>
+      <c r="Q5" s="211"/>
     </row>
     <row r="6" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="158">
@@ -7046,31 +7049,31 @@
         <f t="shared" si="3"/>
         <v>43016</v>
       </c>
-      <c r="D6" s="213" t="str">
+      <c r="D6" s="212" t="str">
         <f t="shared" si="0"/>
         <v>02/10/17
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="504"/>
-      <c r="F6" s="510"/>
-      <c r="G6" s="498"/>
-      <c r="H6" s="489"/>
-      <c r="I6" s="489"/>
-      <c r="J6" s="208" t="s">
+      <c r="E6" s="487"/>
+      <c r="F6" s="493"/>
+      <c r="G6" s="528"/>
+      <c r="H6" s="520"/>
+      <c r="I6" s="520"/>
+      <c r="J6" s="207" t="s">
         <v>671</v>
       </c>
-      <c r="K6" s="285" t="s">
+      <c r="K6" s="284" t="s">
         <v>689</v>
       </c>
-      <c r="L6" s="208" t="s">
+      <c r="L6" s="207" t="s">
         <v>627</v>
       </c>
-      <c r="M6" s="208"/>
-      <c r="N6" s="208"/>
-      <c r="O6" s="208"/>
-      <c r="P6" s="258"/>
-      <c r="Q6" s="209"/>
+      <c r="M6" s="207"/>
+      <c r="N6" s="207"/>
+      <c r="O6" s="207"/>
+      <c r="P6" s="257"/>
+      <c r="Q6" s="208"/>
     </row>
     <row r="7" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="158">
@@ -7085,29 +7088,29 @@
         <f t="shared" si="3"/>
         <v>43023</v>
       </c>
-      <c r="D7" s="214" t="str">
+      <c r="D7" s="213" t="str">
         <f t="shared" si="0"/>
         <v>09/10/17
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="505"/>
-      <c r="F7" s="511"/>
-      <c r="G7" s="499"/>
-      <c r="H7" s="490"/>
-      <c r="I7" s="490"/>
-      <c r="J7" s="215" t="s">
+      <c r="E7" s="488"/>
+      <c r="F7" s="494"/>
+      <c r="G7" s="529"/>
+      <c r="H7" s="521"/>
+      <c r="I7" s="521"/>
+      <c r="J7" s="214" t="s">
         <v>672</v>
       </c>
-      <c r="K7" s="286"/>
-      <c r="L7" s="215" t="s">
+      <c r="K7" s="285"/>
+      <c r="L7" s="214" t="s">
         <v>628</v>
       </c>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
-      <c r="P7" s="259"/>
-      <c r="Q7" s="216"/>
+      <c r="M7" s="214"/>
+      <c r="N7" s="214"/>
+      <c r="O7" s="214"/>
+      <c r="P7" s="258"/>
+      <c r="Q7" s="215"/>
     </row>
     <row r="8" spans="1:17" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="158">
@@ -7122,42 +7125,42 @@
         <f t="shared" si="3"/>
         <v>43030</v>
       </c>
-      <c r="D8" s="218" t="str">
+      <c r="D8" s="217" t="str">
         <f t="shared" si="0"/>
         <v>16/10/17
 au
 22/10/17</v>
       </c>
-      <c r="E8" s="219" t="str">
+      <c r="E8" s="218" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="520" t="s">
+      <c r="F8" s="503" t="s">
         <v>696</v>
       </c>
-      <c r="G8" s="219" t="s">
+      <c r="G8" s="218" t="s">
         <v>652</v>
       </c>
-      <c r="H8" s="220" t="str">
+      <c r="H8" s="219" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I8" s="220" t="str">
+      <c r="I8" s="219" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J8" s="219" t="s">
+      <c r="J8" s="218" t="s">
         <v>644</v>
       </c>
-      <c r="K8" s="219"/>
-      <c r="L8" s="219" t="s">
+      <c r="K8" s="218"/>
+      <c r="L8" s="218" t="s">
         <v>629</v>
       </c>
-      <c r="M8" s="219"/>
-      <c r="N8" s="219"/>
-      <c r="O8" s="219"/>
-      <c r="P8" s="260"/>
-      <c r="Q8" s="221"/>
+      <c r="M8" s="218"/>
+      <c r="N8" s="218"/>
+      <c r="O8" s="218"/>
+      <c r="P8" s="259"/>
+      <c r="Q8" s="220"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="158"/>
@@ -7169,27 +7172,27 @@
         <f t="shared" si="3"/>
         <v>43037</v>
       </c>
-      <c r="D9" s="217" t="str">
+      <c r="D9" s="216" t="str">
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="518" t="s">
+      <c r="E9" s="501" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="521"/>
-      <c r="G9" s="512" t="s">
+      <c r="F9" s="504"/>
+      <c r="G9" s="495" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="513"/>
-      <c r="I9" s="513"/>
-      <c r="J9" s="513"/>
-      <c r="K9" s="513"/>
-      <c r="L9" s="513"/>
-      <c r="M9" s="513"/>
-      <c r="N9" s="513"/>
-      <c r="O9" s="513"/>
-      <c r="P9" s="513"/>
-      <c r="Q9" s="514"/>
+      <c r="H9" s="496"/>
+      <c r="I9" s="496"/>
+      <c r="J9" s="496"/>
+      <c r="K9" s="496"/>
+      <c r="L9" s="496"/>
+      <c r="M9" s="496"/>
+      <c r="N9" s="496"/>
+      <c r="O9" s="496"/>
+      <c r="P9" s="496"/>
+      <c r="Q9" s="497"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -7201,23 +7204,23 @@
         <f t="shared" si="3"/>
         <v>43044</v>
       </c>
-      <c r="D10" s="222" t="str">
+      <c r="D10" s="221" t="str">
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="519"/>
-      <c r="F10" s="521"/>
-      <c r="G10" s="515"/>
-      <c r="H10" s="516"/>
-      <c r="I10" s="516"/>
-      <c r="J10" s="516"/>
-      <c r="K10" s="516"/>
-      <c r="L10" s="516"/>
-      <c r="M10" s="516"/>
-      <c r="N10" s="516"/>
-      <c r="O10" s="516"/>
-      <c r="P10" s="516"/>
-      <c r="Q10" s="517"/>
+      <c r="E10" s="502"/>
+      <c r="F10" s="504"/>
+      <c r="G10" s="498"/>
+      <c r="H10" s="499"/>
+      <c r="I10" s="499"/>
+      <c r="J10" s="499"/>
+      <c r="K10" s="499"/>
+      <c r="L10" s="499"/>
+      <c r="M10" s="499"/>
+      <c r="N10" s="499"/>
+      <c r="O10" s="499"/>
+      <c r="P10" s="499"/>
+      <c r="Q10" s="500"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -7232,42 +7235,42 @@
         <f t="shared" si="3"/>
         <v>43051</v>
       </c>
-      <c r="D11" s="223" t="str">
+      <c r="D11" s="222" t="str">
         <f t="shared" si="0"/>
         <v>06/11/17
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="453" t="str">
+      <c r="E11" s="536" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="486" t="s">
+      <c r="F11" s="504"/>
+      <c r="G11" s="514" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="468" t="str">
+      <c r="H11" s="538" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="468" t="str">
+      <c r="I11" s="538" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="486" t="s">
+      <c r="J11" s="514" t="s">
         <v>673</v>
       </c>
-      <c r="K11" s="486" t="s">
+      <c r="K11" s="514" t="s">
         <v>685</v>
       </c>
-      <c r="L11" s="224" t="s">
+      <c r="L11" s="223" t="s">
         <v>630</v>
       </c>
-      <c r="M11" s="224"/>
-      <c r="N11" s="224"/>
-      <c r="O11" s="224"/>
-      <c r="P11" s="261"/>
-      <c r="Q11" s="225" t="s">
+      <c r="M11" s="223"/>
+      <c r="N11" s="223"/>
+      <c r="O11" s="223"/>
+      <c r="P11" s="260"/>
+      <c r="Q11" s="224" t="s">
         <v>616</v>
       </c>
     </row>
@@ -7284,27 +7287,27 @@
         <f t="shared" si="3"/>
         <v>43058</v>
       </c>
-      <c r="D12" s="226" t="str">
+      <c r="D12" s="225" t="str">
         <f t="shared" si="0"/>
         <v>13/11/17
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="454"/>
-      <c r="F12" s="522"/>
-      <c r="G12" s="487"/>
-      <c r="H12" s="469"/>
-      <c r="I12" s="469"/>
-      <c r="J12" s="487"/>
-      <c r="K12" s="487"/>
-      <c r="L12" s="227" t="s">
+      <c r="E12" s="537"/>
+      <c r="F12" s="505"/>
+      <c r="G12" s="515"/>
+      <c r="H12" s="539"/>
+      <c r="I12" s="539"/>
+      <c r="J12" s="515"/>
+      <c r="K12" s="515"/>
+      <c r="L12" s="226" t="s">
         <v>631</v>
       </c>
-      <c r="M12" s="227"/>
-      <c r="N12" s="227"/>
-      <c r="O12" s="227"/>
-      <c r="P12" s="262"/>
-      <c r="Q12" s="228"/>
+      <c r="M12" s="226"/>
+      <c r="N12" s="226"/>
+      <c r="O12" s="226"/>
+      <c r="P12" s="261"/>
+      <c r="Q12" s="227"/>
     </row>
     <row r="13" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A13" s="158">
@@ -7319,42 +7322,42 @@
         <f t="shared" si="3"/>
         <v>43065</v>
       </c>
-      <c r="D13" s="229" t="str">
+      <c r="D13" s="228" t="str">
         <f t="shared" si="0"/>
         <v>20/11/17
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="476" t="str">
+      <c r="E13" s="546" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="523" t="s">
+      <c r="F13" s="506" t="s">
         <v>698</v>
       </c>
-      <c r="G13" s="500" t="s">
+      <c r="G13" s="483" t="s">
         <v>653</v>
       </c>
-      <c r="H13" s="530" t="str">
+      <c r="H13" s="516" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="530" t="str">
+      <c r="I13" s="516" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
-      <c r="J13" s="394" t="s">
+      <c r="J13" s="393" t="s">
         <v>704</v>
       </c>
-      <c r="K13" s="282"/>
-      <c r="L13" s="230" t="s">
+      <c r="K13" s="281"/>
+      <c r="L13" s="229" t="s">
         <v>632</v>
       </c>
-      <c r="M13" s="230"/>
-      <c r="N13" s="230"/>
-      <c r="O13" s="230"/>
-      <c r="P13" s="263"/>
-      <c r="Q13" s="231"/>
+      <c r="M13" s="229"/>
+      <c r="N13" s="229"/>
+      <c r="O13" s="229"/>
+      <c r="P13" s="262"/>
+      <c r="Q13" s="230"/>
     </row>
     <row r="14" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="158">
@@ -7369,29 +7372,29 @@
         <f t="shared" si="3"/>
         <v>43072</v>
       </c>
-      <c r="D14" s="232" t="str">
+      <c r="D14" s="231" t="str">
         <f t="shared" si="0"/>
         <v>27/11/17
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="477"/>
-      <c r="F14" s="501"/>
-      <c r="G14" s="501"/>
-      <c r="H14" s="531"/>
-      <c r="I14" s="531"/>
-      <c r="J14" s="385" t="s">
+      <c r="E14" s="547"/>
+      <c r="F14" s="484"/>
+      <c r="G14" s="484"/>
+      <c r="H14" s="517"/>
+      <c r="I14" s="517"/>
+      <c r="J14" s="384" t="s">
         <v>704</v>
       </c>
-      <c r="K14" s="385"/>
-      <c r="L14" s="233" t="s">
+      <c r="K14" s="384"/>
+      <c r="L14" s="232" t="s">
         <v>633</v>
       </c>
-      <c r="M14" s="233"/>
-      <c r="N14" s="233"/>
-      <c r="O14" s="233"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="234"/>
+      <c r="M14" s="232"/>
+      <c r="N14" s="232"/>
+      <c r="O14" s="232"/>
+      <c r="P14" s="263"/>
+      <c r="Q14" s="233"/>
     </row>
     <row r="15" spans="1:17" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="158">
@@ -7406,33 +7409,33 @@
         <f t="shared" si="3"/>
         <v>43079</v>
       </c>
-      <c r="D15" s="235" t="str">
+      <c r="D15" s="234" t="str">
         <f t="shared" si="0"/>
         <v>04/12/17
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="478"/>
-      <c r="F15" s="502"/>
-      <c r="G15" s="502"/>
-      <c r="H15" s="532"/>
-      <c r="I15" s="532"/>
-      <c r="J15" s="236" t="s">
+      <c r="E15" s="548"/>
+      <c r="F15" s="485"/>
+      <c r="G15" s="485"/>
+      <c r="H15" s="518"/>
+      <c r="I15" s="518"/>
+      <c r="J15" s="235" t="s">
         <v>687</v>
       </c>
-      <c r="K15" s="283" t="s">
+      <c r="K15" s="282" t="s">
         <v>686</v>
       </c>
-      <c r="L15" s="236" t="s">
+      <c r="L15" s="235" t="s">
         <v>634</v>
       </c>
-      <c r="M15" s="236" t="s">
+      <c r="M15" s="235" t="s">
         <v>637</v>
       </c>
-      <c r="N15" s="236"/>
-      <c r="O15" s="236"/>
-      <c r="P15" s="265"/>
-      <c r="Q15" s="237"/>
+      <c r="N15" s="235"/>
+      <c r="O15" s="235"/>
+      <c r="P15" s="264"/>
+      <c r="Q15" s="236"/>
     </row>
     <row r="16" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="158">
@@ -7447,44 +7450,44 @@
         <f t="shared" si="3"/>
         <v>43086</v>
       </c>
-      <c r="D16" s="244" t="str">
+      <c r="D16" s="243" t="str">
         <f t="shared" si="0"/>
         <v>11/12/17
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="455" t="str">
+      <c r="E16" s="481" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="541" t="s">
+      <c r="F16" s="446" t="s">
         <v>697</v>
       </c>
-      <c r="G16" s="455" t="s">
+      <c r="G16" s="481" t="s">
         <v>654</v>
       </c>
-      <c r="H16" s="482" t="str">
+      <c r="H16" s="549" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="484" t="str">
+      <c r="I16" s="551" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
-      <c r="J16" s="245" t="s">
+      <c r="J16" s="244" t="s">
         <v>645</v>
       </c>
-      <c r="K16" s="245"/>
-      <c r="L16" s="245" t="s">
+      <c r="K16" s="244"/>
+      <c r="L16" s="244" t="s">
         <v>636</v>
       </c>
-      <c r="M16" s="245" t="s">
+      <c r="M16" s="244" t="s">
         <v>638</v>
       </c>
-      <c r="N16" s="245"/>
-      <c r="O16" s="245"/>
-      <c r="P16" s="266"/>
-      <c r="Q16" s="246"/>
+      <c r="N16" s="244"/>
+      <c r="O16" s="244"/>
+      <c r="P16" s="265"/>
+      <c r="Q16" s="245"/>
     </row>
     <row r="17" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="158">
@@ -7499,31 +7502,31 @@
         <f t="shared" si="3"/>
         <v>43093</v>
       </c>
-      <c r="D17" s="247" t="str">
+      <c r="D17" s="246" t="str">
         <f t="shared" si="0"/>
         <v>18/12/17
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="456"/>
-      <c r="F17" s="542"/>
-      <c r="G17" s="456"/>
-      <c r="H17" s="483"/>
-      <c r="I17" s="485"/>
-      <c r="J17" s="248" t="s">
+      <c r="E17" s="482"/>
+      <c r="F17" s="447"/>
+      <c r="G17" s="482"/>
+      <c r="H17" s="550"/>
+      <c r="I17" s="552"/>
+      <c r="J17" s="247" t="s">
         <v>645</v>
       </c>
-      <c r="K17" s="248"/>
-      <c r="L17" s="248" t="s">
+      <c r="K17" s="247"/>
+      <c r="L17" s="247" t="s">
         <v>635</v>
       </c>
-      <c r="M17" s="248" t="s">
+      <c r="M17" s="247" t="s">
         <v>637</v>
       </c>
-      <c r="N17" s="248"/>
-      <c r="O17" s="248"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="249"/>
+      <c r="N17" s="247"/>
+      <c r="O17" s="247"/>
+      <c r="P17" s="266"/>
+      <c r="Q17" s="248"/>
     </row>
     <row r="18" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A18" s="158"/>
@@ -7535,25 +7538,25 @@
         <f t="shared" si="3"/>
         <v>43100</v>
       </c>
-      <c r="D18" s="217" t="str">
+      <c r="D18" s="216" t="str">
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="470" t="s">
+      <c r="E18" s="540" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="470"/>
-      <c r="G18" s="470"/>
-      <c r="H18" s="470"/>
-      <c r="I18" s="470"/>
-      <c r="J18" s="470"/>
-      <c r="K18" s="470"/>
-      <c r="L18" s="470"/>
-      <c r="M18" s="470"/>
-      <c r="N18" s="470"/>
-      <c r="O18" s="470"/>
-      <c r="P18" s="471"/>
-      <c r="Q18" s="472"/>
+      <c r="F18" s="540"/>
+      <c r="G18" s="540"/>
+      <c r="H18" s="540"/>
+      <c r="I18" s="540"/>
+      <c r="J18" s="540"/>
+      <c r="K18" s="540"/>
+      <c r="L18" s="540"/>
+      <c r="M18" s="540"/>
+      <c r="N18" s="540"/>
+      <c r="O18" s="540"/>
+      <c r="P18" s="541"/>
+      <c r="Q18" s="542"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7565,23 +7568,23 @@
         <f t="shared" si="3"/>
         <v>43107</v>
       </c>
-      <c r="D19" s="222" t="str">
+      <c r="D19" s="221" t="str">
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="473"/>
-      <c r="F19" s="473"/>
-      <c r="G19" s="473"/>
-      <c r="H19" s="473"/>
-      <c r="I19" s="473"/>
-      <c r="J19" s="473"/>
-      <c r="K19" s="473"/>
-      <c r="L19" s="473"/>
-      <c r="M19" s="473"/>
-      <c r="N19" s="473"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="474"/>
-      <c r="Q19" s="475"/>
+      <c r="E19" s="543"/>
+      <c r="F19" s="543"/>
+      <c r="G19" s="543"/>
+      <c r="H19" s="543"/>
+      <c r="I19" s="543"/>
+      <c r="J19" s="543"/>
+      <c r="K19" s="543"/>
+      <c r="L19" s="543"/>
+      <c r="M19" s="543"/>
+      <c r="N19" s="543"/>
+      <c r="O19" s="543"/>
+      <c r="P19" s="544"/>
+      <c r="Q19" s="545"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7596,42 +7599,42 @@
         <f t="shared" si="3"/>
         <v>43114</v>
       </c>
-      <c r="D20" s="238" t="str">
+      <c r="D20" s="237" t="str">
         <f t="shared" si="0"/>
         <v>08/01/18
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="457" t="str">
+      <c r="E20" s="470" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="543" t="s">
+      <c r="F20" s="448" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="457" t="s">
+      <c r="G20" s="470" t="s">
         <v>699</v>
       </c>
-      <c r="H20" s="536" t="str">
+      <c r="H20" s="462" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="536" t="str">
+      <c r="I20" s="462" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
-      <c r="J20" s="239" t="s">
+      <c r="J20" s="238" t="s">
         <v>646</v>
       </c>
-      <c r="K20" s="239"/>
-      <c r="L20" s="239" t="s">
+      <c r="K20" s="238"/>
+      <c r="L20" s="238" t="s">
         <v>639</v>
       </c>
-      <c r="M20" s="239"/>
-      <c r="N20" s="239"/>
-      <c r="O20" s="239"/>
-      <c r="P20" s="268"/>
-      <c r="Q20" s="240"/>
+      <c r="M20" s="238"/>
+      <c r="N20" s="238"/>
+      <c r="O20" s="238"/>
+      <c r="P20" s="267"/>
+      <c r="Q20" s="239"/>
     </row>
     <row r="21" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A21" s="158">
@@ -7646,27 +7649,27 @@
         <f t="shared" si="3"/>
         <v>43121</v>
       </c>
-      <c r="D21" s="250" t="str">
+      <c r="D21" s="249" t="str">
         <f t="shared" si="0"/>
         <v>15/01/18
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="458"/>
-      <c r="F21" s="544"/>
-      <c r="G21" s="458"/>
-      <c r="H21" s="537"/>
-      <c r="I21" s="537"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="251"/>
-      <c r="L21" s="251" t="s">
+      <c r="E21" s="471"/>
+      <c r="F21" s="449"/>
+      <c r="G21" s="471"/>
+      <c r="H21" s="463"/>
+      <c r="I21" s="463"/>
+      <c r="J21" s="250"/>
+      <c r="K21" s="250"/>
+      <c r="L21" s="250" t="s">
         <v>640</v>
       </c>
-      <c r="M21" s="251"/>
-      <c r="N21" s="251"/>
-      <c r="O21" s="251"/>
-      <c r="P21" s="269"/>
-      <c r="Q21" s="252"/>
+      <c r="M21" s="250"/>
+      <c r="N21" s="250"/>
+      <c r="O21" s="250"/>
+      <c r="P21" s="268"/>
+      <c r="Q21" s="251"/>
     </row>
     <row r="22" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="158">
@@ -7681,27 +7684,27 @@
         <f t="shared" si="3"/>
         <v>43128</v>
       </c>
-      <c r="D22" s="241" t="str">
+      <c r="D22" s="240" t="str">
         <f t="shared" si="0"/>
         <v>22/01/18
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="459"/>
-      <c r="F22" s="545"/>
-      <c r="G22" s="459"/>
-      <c r="H22" s="538"/>
-      <c r="I22" s="538"/>
-      <c r="J22" s="242"/>
-      <c r="K22" s="242"/>
-      <c r="L22" s="242" t="s">
+      <c r="E22" s="472"/>
+      <c r="F22" s="450"/>
+      <c r="G22" s="472"/>
+      <c r="H22" s="464"/>
+      <c r="I22" s="464"/>
+      <c r="J22" s="241"/>
+      <c r="K22" s="241"/>
+      <c r="L22" s="241" t="s">
         <v>641</v>
       </c>
-      <c r="M22" s="242"/>
-      <c r="N22" s="242"/>
-      <c r="O22" s="242"/>
-      <c r="P22" s="270"/>
-      <c r="Q22" s="243"/>
+      <c r="M22" s="241"/>
+      <c r="N22" s="241"/>
+      <c r="O22" s="241"/>
+      <c r="P22" s="269"/>
+      <c r="Q22" s="242"/>
     </row>
     <row r="23" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A23" s="158">
@@ -7716,42 +7719,42 @@
         <f t="shared" si="3"/>
         <v>43135</v>
       </c>
-      <c r="D23" s="184" t="str">
+      <c r="D23" s="183" t="str">
         <f t="shared" si="0"/>
         <v>29/01/18
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="460" t="str">
+      <c r="E23" s="473" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="546" t="s">
+      <c r="F23" s="451" t="s">
         <v>701</v>
       </c>
-      <c r="G23" s="460" t="s">
+      <c r="G23" s="473" t="s">
         <v>655</v>
       </c>
-      <c r="H23" s="539" t="str">
+      <c r="H23" s="465" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="539" t="str">
+      <c r="I23" s="465" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
-      <c r="J23" s="185" t="s">
+      <c r="J23" s="184" t="s">
         <v>647</v>
       </c>
-      <c r="K23" s="185"/>
-      <c r="L23" s="185" t="s">
+      <c r="K23" s="184"/>
+      <c r="L23" s="184" t="s">
         <v>642</v>
       </c>
-      <c r="M23" s="185"/>
-      <c r="N23" s="185"/>
-      <c r="O23" s="185"/>
-      <c r="P23" s="271"/>
-      <c r="Q23" s="186"/>
+      <c r="M23" s="184"/>
+      <c r="N23" s="184"/>
+      <c r="O23" s="184"/>
+      <c r="P23" s="270"/>
+      <c r="Q23" s="185"/>
     </row>
     <row r="24" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="158">
@@ -7766,29 +7769,29 @@
         <f t="shared" si="3"/>
         <v>43142</v>
       </c>
-      <c r="D24" s="187" t="str">
+      <c r="D24" s="186" t="str">
         <f t="shared" si="0"/>
         <v>05/02/18
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="461"/>
-      <c r="F24" s="547"/>
-      <c r="G24" s="461"/>
-      <c r="H24" s="540"/>
-      <c r="I24" s="540"/>
-      <c r="J24" s="188" t="s">
+      <c r="E24" s="474"/>
+      <c r="F24" s="452"/>
+      <c r="G24" s="474"/>
+      <c r="H24" s="466"/>
+      <c r="I24" s="466"/>
+      <c r="J24" s="187" t="s">
         <v>648</v>
       </c>
-      <c r="K24" s="188"/>
-      <c r="L24" s="188" t="s">
+      <c r="K24" s="187"/>
+      <c r="L24" s="187" t="s">
         <v>642</v>
       </c>
-      <c r="M24" s="188"/>
-      <c r="N24" s="188"/>
-      <c r="O24" s="188"/>
-      <c r="P24" s="272"/>
-      <c r="Q24" s="189"/>
+      <c r="M24" s="187"/>
+      <c r="N24" s="187"/>
+      <c r="O24" s="187"/>
+      <c r="P24" s="271"/>
+      <c r="Q24" s="188"/>
     </row>
     <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="158"/>
@@ -7800,25 +7803,25 @@
         <f t="shared" si="3"/>
         <v>43149</v>
       </c>
-      <c r="D25" s="217" t="str">
+      <c r="D25" s="216" t="str">
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="470" t="s">
+      <c r="E25" s="540" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="470"/>
-      <c r="G25" s="470"/>
-      <c r="H25" s="470"/>
-      <c r="I25" s="470"/>
-      <c r="J25" s="470"/>
-      <c r="K25" s="470"/>
-      <c r="L25" s="470"/>
-      <c r="M25" s="470"/>
-      <c r="N25" s="470"/>
-      <c r="O25" s="470"/>
-      <c r="P25" s="471"/>
-      <c r="Q25" s="472"/>
+      <c r="F25" s="540"/>
+      <c r="G25" s="540"/>
+      <c r="H25" s="540"/>
+      <c r="I25" s="540"/>
+      <c r="J25" s="540"/>
+      <c r="K25" s="540"/>
+      <c r="L25" s="540"/>
+      <c r="M25" s="540"/>
+      <c r="N25" s="540"/>
+      <c r="O25" s="540"/>
+      <c r="P25" s="541"/>
+      <c r="Q25" s="542"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7830,23 +7833,23 @@
         <f t="shared" si="3"/>
         <v>43156</v>
       </c>
-      <c r="D26" s="222" t="str">
+      <c r="D26" s="221" t="str">
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="473"/>
-      <c r="F26" s="473"/>
-      <c r="G26" s="473"/>
-      <c r="H26" s="473"/>
-      <c r="I26" s="473"/>
-      <c r="J26" s="473"/>
-      <c r="K26" s="473"/>
-      <c r="L26" s="473"/>
-      <c r="M26" s="473"/>
-      <c r="N26" s="473"/>
-      <c r="O26" s="473"/>
-      <c r="P26" s="474"/>
-      <c r="Q26" s="475"/>
+      <c r="E26" s="543"/>
+      <c r="F26" s="543"/>
+      <c r="G26" s="543"/>
+      <c r="H26" s="543"/>
+      <c r="I26" s="543"/>
+      <c r="J26" s="543"/>
+      <c r="K26" s="543"/>
+      <c r="L26" s="543"/>
+      <c r="M26" s="543"/>
+      <c r="N26" s="543"/>
+      <c r="O26" s="543"/>
+      <c r="P26" s="544"/>
+      <c r="Q26" s="545"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7867,21 +7870,21 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="462" t="str">
+      <c r="E27" s="475" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="548" t="s">
+      <c r="F27" s="453" t="s">
         <v>702</v>
       </c>
-      <c r="G27" s="462" t="s">
+      <c r="G27" s="475" t="s">
         <v>656</v>
       </c>
-      <c r="H27" s="479" t="str">
+      <c r="H27" s="467" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="479" t="str">
+      <c r="I27" s="467" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
@@ -7895,7 +7898,7 @@
       <c r="M27" s="176"/>
       <c r="N27" s="176"/>
       <c r="O27" s="176"/>
-      <c r="P27" s="273"/>
+      <c r="P27" s="272"/>
       <c r="Q27" s="177"/>
     </row>
     <row r="28" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -7917,11 +7920,11 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="463"/>
-      <c r="F28" s="549"/>
-      <c r="G28" s="463"/>
-      <c r="H28" s="480"/>
-      <c r="I28" s="480"/>
+      <c r="E28" s="476"/>
+      <c r="F28" s="454"/>
+      <c r="G28" s="476"/>
+      <c r="H28" s="468"/>
+      <c r="I28" s="468"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
@@ -7930,7 +7933,7 @@
       <c r="M28" s="179"/>
       <c r="N28" s="179"/>
       <c r="O28" s="179"/>
-      <c r="P28" s="274"/>
+      <c r="P28" s="273"/>
       <c r="Q28" s="180"/>
     </row>
     <row r="29" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -7952,11 +7955,11 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="464"/>
-      <c r="F29" s="550"/>
-      <c r="G29" s="464"/>
-      <c r="H29" s="481"/>
-      <c r="I29" s="481"/>
+      <c r="E29" s="477"/>
+      <c r="F29" s="455"/>
+      <c r="G29" s="477"/>
+      <c r="H29" s="469"/>
+      <c r="I29" s="469"/>
       <c r="J29" s="182" t="s">
         <v>644</v>
       </c>
@@ -7967,8 +7970,10 @@
       <c r="M29" s="182"/>
       <c r="N29" s="182"/>
       <c r="O29" s="182"/>
-      <c r="P29" s="275"/>
-      <c r="Q29" s="183"/>
+      <c r="P29" s="274"/>
+      <c r="Q29" s="707" t="s">
+        <v>764</v>
+      </c>
     </row>
     <row r="30" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="158">
@@ -7983,29 +7988,29 @@
         <f t="shared" si="3"/>
         <v>43184</v>
       </c>
-      <c r="D30" s="190" t="str">
+      <c r="D30" s="189" t="str">
         <f t="shared" si="0"/>
         <v>19/03/18
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="465" t="s">
+      <c r="E30" s="478" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="551" t="s">
+      <c r="F30" s="456" t="s">
         <v>703</v>
       </c>
-      <c r="G30" s="465"/>
-      <c r="H30" s="533"/>
-      <c r="I30" s="533"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="191"/>
-      <c r="L30" s="191"/>
-      <c r="M30" s="191"/>
-      <c r="N30" s="191"/>
-      <c r="O30" s="191"/>
-      <c r="P30" s="276"/>
-      <c r="Q30" s="192"/>
+      <c r="G30" s="478"/>
+      <c r="H30" s="459"/>
+      <c r="I30" s="459"/>
+      <c r="J30" s="190"/>
+      <c r="K30" s="190"/>
+      <c r="L30" s="190"/>
+      <c r="M30" s="190"/>
+      <c r="N30" s="190"/>
+      <c r="O30" s="190"/>
+      <c r="P30" s="275"/>
+      <c r="Q30" s="191"/>
     </row>
     <row r="31" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A31" s="158">
@@ -8020,25 +8025,25 @@
         <f t="shared" si="3"/>
         <v>43191</v>
       </c>
-      <c r="D31" s="193" t="str">
+      <c r="D31" s="192" t="str">
         <f t="shared" si="0"/>
         <v>26/03/18
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="466"/>
-      <c r="F31" s="552"/>
-      <c r="G31" s="466"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="534"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="194"/>
-      <c r="L31" s="194"/>
-      <c r="M31" s="194"/>
-      <c r="N31" s="194"/>
-      <c r="O31" s="194"/>
-      <c r="P31" s="277"/>
-      <c r="Q31" s="195"/>
+      <c r="E31" s="479"/>
+      <c r="F31" s="457"/>
+      <c r="G31" s="479"/>
+      <c r="H31" s="460"/>
+      <c r="I31" s="460"/>
+      <c r="J31" s="193"/>
+      <c r="K31" s="193"/>
+      <c r="L31" s="193"/>
+      <c r="M31" s="193"/>
+      <c r="N31" s="193"/>
+      <c r="O31" s="193"/>
+      <c r="P31" s="276"/>
+      <c r="Q31" s="194"/>
     </row>
     <row r="32" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="158">
@@ -8053,25 +8058,25 @@
         <f t="shared" si="3"/>
         <v>43198</v>
       </c>
-      <c r="D32" s="196" t="str">
+      <c r="D32" s="195" t="str">
         <f t="shared" si="0"/>
         <v>02/04/18
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="467"/>
-      <c r="F32" s="553"/>
-      <c r="G32" s="467"/>
-      <c r="H32" s="535"/>
-      <c r="I32" s="535"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="197"/>
-      <c r="L32" s="197"/>
-      <c r="M32" s="197"/>
-      <c r="N32" s="197"/>
-      <c r="O32" s="197"/>
-      <c r="P32" s="278"/>
-      <c r="Q32" s="198" t="s">
+      <c r="E32" s="480"/>
+      <c r="F32" s="458"/>
+      <c r="G32" s="480"/>
+      <c r="H32" s="461"/>
+      <c r="I32" s="461"/>
+      <c r="J32" s="196"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
+      <c r="M32" s="196"/>
+      <c r="N32" s="196"/>
+      <c r="O32" s="196"/>
+      <c r="P32" s="277"/>
+      <c r="Q32" s="197" t="s">
         <v>614</v>
       </c>
     </row>
@@ -8085,25 +8090,25 @@
         <f t="shared" si="3"/>
         <v>43205</v>
       </c>
-      <c r="D33" s="217" t="str">
+      <c r="D33" s="216" t="str">
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="447" t="s">
+      <c r="E33" s="530" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="447"/>
-      <c r="G33" s="447"/>
-      <c r="H33" s="447"/>
-      <c r="I33" s="447"/>
-      <c r="J33" s="447"/>
-      <c r="K33" s="447"/>
-      <c r="L33" s="447"/>
-      <c r="M33" s="447"/>
-      <c r="N33" s="447"/>
-      <c r="O33" s="447"/>
-      <c r="P33" s="448"/>
-      <c r="Q33" s="449"/>
+      <c r="F33" s="530"/>
+      <c r="G33" s="530"/>
+      <c r="H33" s="530"/>
+      <c r="I33" s="530"/>
+      <c r="J33" s="530"/>
+      <c r="K33" s="530"/>
+      <c r="L33" s="530"/>
+      <c r="M33" s="530"/>
+      <c r="N33" s="530"/>
+      <c r="O33" s="530"/>
+      <c r="P33" s="531"/>
+      <c r="Q33" s="532"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -8119,19 +8124,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="450"/>
-      <c r="F34" s="450"/>
-      <c r="G34" s="450"/>
-      <c r="H34" s="450"/>
-      <c r="I34" s="450"/>
-      <c r="J34" s="450"/>
-      <c r="K34" s="450"/>
-      <c r="L34" s="450"/>
-      <c r="M34" s="450"/>
-      <c r="N34" s="450"/>
-      <c r="O34" s="450"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="452"/>
+      <c r="E34" s="533"/>
+      <c r="F34" s="533"/>
+      <c r="G34" s="533"/>
+      <c r="H34" s="533"/>
+      <c r="I34" s="533"/>
+      <c r="J34" s="533"/>
+      <c r="K34" s="533"/>
+      <c r="L34" s="533"/>
+      <c r="M34" s="533"/>
+      <c r="N34" s="533"/>
+      <c r="O34" s="533"/>
+      <c r="P34" s="534"/>
+      <c r="Q34" s="535"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8160,7 +8165,7 @@
       <c r="M35" s="148"/>
       <c r="N35" s="148"/>
       <c r="O35" s="148"/>
-      <c r="P35" s="279"/>
+      <c r="P35" s="278"/>
       <c r="Q35" s="150"/>
     </row>
     <row r="36" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -8190,7 +8195,7 @@
       <c r="M36" s="148"/>
       <c r="N36" s="148"/>
       <c r="O36" s="148"/>
-      <c r="P36" s="279"/>
+      <c r="P36" s="278"/>
       <c r="Q36" s="150" t="s">
         <v>615</v>
       </c>
@@ -8222,7 +8227,7 @@
       <c r="M37" s="148"/>
       <c r="N37" s="148"/>
       <c r="O37" s="148"/>
-      <c r="P37" s="279"/>
+      <c r="P37" s="278"/>
       <c r="Q37" s="150" t="s">
         <v>617</v>
       </c>
@@ -8254,7 +8259,7 @@
       <c r="M38" s="148"/>
       <c r="N38" s="148"/>
       <c r="O38" s="148"/>
-      <c r="P38" s="279"/>
+      <c r="P38" s="278"/>
       <c r="Q38" s="150"/>
     </row>
     <row r="39" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -8284,7 +8289,7 @@
       <c r="M39" s="148"/>
       <c r="N39" s="148"/>
       <c r="O39" s="148"/>
-      <c r="P39" s="279"/>
+      <c r="P39" s="278"/>
       <c r="Q39" s="150" t="s">
         <v>618</v>
       </c>
@@ -8316,7 +8321,7 @@
       <c r="M40" s="148"/>
       <c r="N40" s="148"/>
       <c r="O40" s="148"/>
-      <c r="P40" s="279"/>
+      <c r="P40" s="278"/>
       <c r="Q40" s="150"/>
     </row>
     <row r="41" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -8346,7 +8351,7 @@
       <c r="M41" s="148"/>
       <c r="N41" s="148"/>
       <c r="O41" s="148"/>
-      <c r="P41" s="279"/>
+      <c r="P41" s="278"/>
       <c r="Q41" s="150"/>
     </row>
     <row r="42" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -8376,7 +8381,7 @@
       <c r="M42" s="148"/>
       <c r="N42" s="148"/>
       <c r="O42" s="148"/>
-      <c r="P42" s="279"/>
+      <c r="P42" s="278"/>
       <c r="Q42" s="150"/>
     </row>
     <row r="43" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -8406,7 +8411,7 @@
       <c r="M43" s="148"/>
       <c r="N43" s="148"/>
       <c r="O43" s="148"/>
-      <c r="P43" s="279"/>
+      <c r="P43" s="278"/>
       <c r="Q43" s="150"/>
     </row>
     <row r="44" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -8436,7 +8441,7 @@
       <c r="M44" s="148"/>
       <c r="N44" s="148"/>
       <c r="O44" s="148"/>
-      <c r="P44" s="279"/>
+      <c r="P44" s="278"/>
       <c r="Q44" s="150"/>
     </row>
     <row r="45" spans="1:17" ht="39" thickBot="1" x14ac:dyDescent="0.3">
@@ -8466,7 +8471,7 @@
       <c r="M45" s="151"/>
       <c r="N45" s="151"/>
       <c r="O45" s="151"/>
-      <c r="P45" s="280"/>
+      <c r="P45" s="279"/>
       <c r="Q45" s="164"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -8621,23 +8626,27 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E33:Q34"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E18:Q19"/>
+    <mergeCell ref="E25:Q26"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F2:F4"/>
@@ -8654,27 +8663,23 @@
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E33:Q34"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="E18:Q19"/>
-    <mergeCell ref="E25:Q26"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8693,487 +8698,487 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="18" style="288" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="288"/>
+    <col min="1" max="10" width="18" style="287" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="287"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="581" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="559"/>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="558" t="s">
+      <c r="B1" s="582"/>
+      <c r="C1" s="582"/>
+      <c r="D1" s="582"/>
+      <c r="E1" s="582"/>
+      <c r="F1" s="581" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="559"/>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
-    </row>
-    <row r="2" spans="1:10" s="396" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="569" t="str">
+      <c r="G1" s="582"/>
+      <c r="H1" s="582"/>
+      <c r="I1" s="582"/>
+      <c r="J1" s="582"/>
+    </row>
+    <row r="2" spans="1:10" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="583" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="570"/>
-      <c r="C2" s="570"/>
-      <c r="D2" s="570"/>
-      <c r="E2" s="570"/>
-      <c r="F2" s="571" t="str">
+      <c r="B2" s="584"/>
+      <c r="C2" s="584"/>
+      <c r="D2" s="584"/>
+      <c r="E2" s="584"/>
+      <c r="F2" s="585" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="572"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="572"/>
-      <c r="J2" s="573"/>
+      <c r="G2" s="586"/>
+      <c r="H2" s="586"/>
+      <c r="I2" s="586"/>
+      <c r="J2" s="587"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394"/>
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="558" t="s">
+      <c r="A4" s="581" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="559"/>
-      <c r="C4" s="559"/>
-      <c r="D4" s="560"/>
-      <c r="E4" s="558" t="s">
+      <c r="B4" s="582"/>
+      <c r="C4" s="582"/>
+      <c r="D4" s="594"/>
+      <c r="E4" s="581" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="G4" s="560"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="582"/>
+      <c r="G4" s="594"/>
+      <c r="H4" s="581" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="559"/>
-      <c r="J4" s="560"/>
+      <c r="I4" s="582"/>
+      <c r="J4" s="594"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="574" t="s">
+      <c r="A5" s="588" t="s">
         <v>666</v>
       </c>
-      <c r="B5" s="575"/>
-      <c r="C5" s="575"/>
-      <c r="D5" s="576"/>
-      <c r="E5" s="398" t="s">
+      <c r="B5" s="589"/>
+      <c r="C5" s="589"/>
+      <c r="D5" s="590"/>
+      <c r="E5" s="397" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="554" t="s">
+      <c r="F5" s="595" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="555"/>
-      <c r="H5" s="399" t="s">
+      <c r="G5" s="596"/>
+      <c r="H5" s="398" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="554" t="s">
+      <c r="I5" s="595" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="555"/>
+      <c r="J5" s="596"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="574"/>
-      <c r="B6" s="575"/>
-      <c r="C6" s="575"/>
-      <c r="D6" s="576"/>
-      <c r="E6" s="398"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="555"/>
-      <c r="H6" s="399" t="s">
+      <c r="A6" s="588"/>
+      <c r="B6" s="589"/>
+      <c r="C6" s="589"/>
+      <c r="D6" s="590"/>
+      <c r="E6" s="397"/>
+      <c r="F6" s="595"/>
+      <c r="G6" s="596"/>
+      <c r="H6" s="398" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="554" t="s">
+      <c r="I6" s="595" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="555"/>
+      <c r="J6" s="596"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="574"/>
-      <c r="B7" s="575"/>
-      <c r="C7" s="575"/>
-      <c r="D7" s="576"/>
-      <c r="E7" s="398"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="555"/>
-      <c r="H7" s="399" t="s">
+      <c r="A7" s="588"/>
+      <c r="B7" s="589"/>
+      <c r="C7" s="589"/>
+      <c r="D7" s="590"/>
+      <c r="E7" s="397"/>
+      <c r="F7" s="595"/>
+      <c r="G7" s="596"/>
+      <c r="H7" s="398" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="554" t="s">
+      <c r="I7" s="595" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="555"/>
+      <c r="J7" s="596"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="574"/>
-      <c r="B8" s="575"/>
-      <c r="C8" s="575"/>
-      <c r="D8" s="576"/>
-      <c r="E8" s="398" t="s">
+      <c r="A8" s="588"/>
+      <c r="B8" s="589"/>
+      <c r="C8" s="589"/>
+      <c r="D8" s="590"/>
+      <c r="E8" s="397" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="554" t="s">
+      <c r="F8" s="595" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="555"/>
-      <c r="H8" s="399" t="s">
+      <c r="G8" s="596"/>
+      <c r="H8" s="398" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="554" t="s">
+      <c r="I8" s="595" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="555"/>
+      <c r="J8" s="596"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="577"/>
-      <c r="B9" s="578"/>
-      <c r="C9" s="578"/>
-      <c r="D9" s="579"/>
-      <c r="E9" s="400" t="s">
+      <c r="A9" s="591"/>
+      <c r="B9" s="592"/>
+      <c r="C9" s="592"/>
+      <c r="D9" s="593"/>
+      <c r="E9" s="399" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="556" t="s">
+      <c r="F9" s="597" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="557"/>
-      <c r="H9" s="400" t="s">
+      <c r="G9" s="598"/>
+      <c r="H9" s="399" t="s">
         <v>723</v>
       </c>
-      <c r="I9" s="556" t="s">
+      <c r="I9" s="597" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="557"/>
+      <c r="J9" s="598"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F10" s="401"/>
-      <c r="G10" s="401"/>
-      <c r="H10" s="401"/>
-      <c r="I10" s="401"/>
-      <c r="J10" s="401"/>
+      <c r="F10" s="400"/>
+      <c r="G10" s="400"/>
+      <c r="H10" s="400"/>
+      <c r="I10" s="400"/>
+      <c r="J10" s="400"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="558" t="s">
+      <c r="A11" s="581" t="s">
         <v>711</v>
       </c>
-      <c r="B11" s="559"/>
-      <c r="C11" s="559"/>
-      <c r="D11" s="559"/>
-      <c r="E11" s="559"/>
-      <c r="F11" s="558" t="s">
+      <c r="B11" s="582"/>
+      <c r="C11" s="582"/>
+      <c r="D11" s="582"/>
+      <c r="E11" s="582"/>
+      <c r="F11" s="581" t="s">
         <v>722</v>
       </c>
-      <c r="G11" s="559"/>
-      <c r="H11" s="559"/>
-      <c r="I11" s="559"/>
-      <c r="J11" s="560"/>
+      <c r="G11" s="582"/>
+      <c r="H11" s="582"/>
+      <c r="I11" s="582"/>
+      <c r="J11" s="594"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="566" t="s">
+      <c r="A12" s="604" t="s">
         <v>725</v>
       </c>
-      <c r="B12" s="567"/>
-      <c r="C12" s="567"/>
-      <c r="D12" s="567"/>
-      <c r="E12" s="567"/>
-      <c r="F12" s="566" t="s">
+      <c r="B12" s="605"/>
+      <c r="C12" s="605"/>
+      <c r="D12" s="605"/>
+      <c r="E12" s="605"/>
+      <c r="F12" s="604" t="s">
         <v>726</v>
       </c>
-      <c r="G12" s="567"/>
-      <c r="H12" s="567"/>
-      <c r="I12" s="567"/>
-      <c r="J12" s="568"/>
+      <c r="G12" s="605"/>
+      <c r="H12" s="605"/>
+      <c r="I12" s="605"/>
+      <c r="J12" s="606"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J13" s="397"/>
+      <c r="J13" s="396"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="558" t="s">
+      <c r="A14" s="581" t="s">
         <v>727</v>
       </c>
-      <c r="B14" s="559"/>
-      <c r="C14" s="559"/>
-      <c r="D14" s="559"/>
-      <c r="E14" s="559"/>
-      <c r="F14" s="558" t="s">
+      <c r="B14" s="582"/>
+      <c r="C14" s="582"/>
+      <c r="D14" s="582"/>
+      <c r="E14" s="582"/>
+      <c r="F14" s="581" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="559"/>
-      <c r="H14" s="559"/>
-      <c r="I14" s="559"/>
-      <c r="J14" s="560"/>
+      <c r="G14" s="582"/>
+      <c r="H14" s="582"/>
+      <c r="I14" s="582"/>
+      <c r="J14" s="594"/>
     </row>
     <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="561" t="s">
+      <c r="A15" s="599" t="s">
         <v>728</v>
       </c>
-      <c r="B15" s="562"/>
-      <c r="C15" s="562"/>
-      <c r="D15" s="562"/>
-      <c r="E15" s="562"/>
-      <c r="F15" s="563" t="s">
+      <c r="B15" s="600"/>
+      <c r="C15" s="600"/>
+      <c r="D15" s="600"/>
+      <c r="E15" s="600"/>
+      <c r="F15" s="601" t="s">
         <v>729</v>
       </c>
-      <c r="G15" s="564"/>
-      <c r="H15" s="564"/>
-      <c r="I15" s="564"/>
-      <c r="J15" s="565"/>
+      <c r="G15" s="602"/>
+      <c r="H15" s="602"/>
+      <c r="I15" s="602"/>
+      <c r="J15" s="603"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="586" t="s">
+      <c r="A17" s="574" t="s">
         <v>712</v>
       </c>
-      <c r="B17" s="587"/>
-      <c r="C17" s="587"/>
-      <c r="D17" s="587"/>
-      <c r="E17" s="587"/>
-      <c r="F17" s="587"/>
-      <c r="G17" s="587"/>
-      <c r="H17" s="587"/>
-      <c r="I17" s="587"/>
-      <c r="J17" s="588"/>
+      <c r="B17" s="575"/>
+      <c r="C17" s="575"/>
+      <c r="D17" s="575"/>
+      <c r="E17" s="575"/>
+      <c r="F17" s="575"/>
+      <c r="G17" s="575"/>
+      <c r="H17" s="575"/>
+      <c r="I17" s="575"/>
+      <c r="J17" s="576"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="589" t="s">
+      <c r="A18" s="577" t="s">
         <v>730</v>
       </c>
-      <c r="B18" s="590"/>
-      <c r="C18" s="590"/>
-      <c r="D18" s="590"/>
-      <c r="E18" s="590"/>
-      <c r="F18" s="591" t="s">
+      <c r="B18" s="578"/>
+      <c r="C18" s="578"/>
+      <c r="D18" s="578"/>
+      <c r="E18" s="578"/>
+      <c r="F18" s="579" t="s">
         <v>731</v>
       </c>
-      <c r="G18" s="591"/>
-      <c r="H18" s="591"/>
-      <c r="I18" s="591"/>
-      <c r="J18" s="592"/>
+      <c r="G18" s="579"/>
+      <c r="H18" s="579"/>
+      <c r="I18" s="579"/>
+      <c r="J18" s="580"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="397"/>
-      <c r="G19" s="397"/>
-      <c r="H19" s="397"/>
-      <c r="I19" s="397"/>
-    </row>
-    <row r="20" spans="1:10" s="396" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="404" t="s">
+      <c r="F19" s="396"/>
+      <c r="G19" s="396"/>
+      <c r="H19" s="396"/>
+      <c r="I19" s="396"/>
+    </row>
+    <row r="20" spans="1:10" s="395" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="403" t="s">
         <v>721</v>
       </c>
-      <c r="B20" s="580" t="s">
+      <c r="B20" s="568" t="s">
         <v>718</v>
       </c>
-      <c r="C20" s="581"/>
-      <c r="D20" s="582"/>
-      <c r="E20" s="580" t="s">
+      <c r="C20" s="569"/>
+      <c r="D20" s="570"/>
+      <c r="E20" s="568" t="s">
         <v>719</v>
       </c>
-      <c r="F20" s="581"/>
-      <c r="G20" s="582"/>
-      <c r="H20" s="580" t="s">
+      <c r="F20" s="569"/>
+      <c r="G20" s="570"/>
+      <c r="H20" s="568" t="s">
         <v>720</v>
       </c>
-      <c r="I20" s="581"/>
-      <c r="J20" s="582"/>
+      <c r="I20" s="569"/>
+      <c r="J20" s="570"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="402" t="s">
+      <c r="A21" s="401" t="s">
         <v>713</v>
       </c>
-      <c r="B21" s="583" t="s">
+      <c r="B21" s="571" t="s">
         <v>732</v>
       </c>
-      <c r="C21" s="584"/>
-      <c r="D21" s="585"/>
-      <c r="E21" s="583" t="s">
+      <c r="C21" s="572"/>
+      <c r="D21" s="573"/>
+      <c r="E21" s="571" t="s">
         <v>733</v>
       </c>
-      <c r="F21" s="584"/>
-      <c r="G21" s="585"/>
-      <c r="H21" s="583" t="s">
+      <c r="F21" s="572"/>
+      <c r="G21" s="573"/>
+      <c r="H21" s="571" t="s">
         <v>734</v>
       </c>
-      <c r="I21" s="584"/>
-      <c r="J21" s="585"/>
+      <c r="I21" s="572"/>
+      <c r="J21" s="573"/>
     </row>
     <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="402" t="s">
+      <c r="A22" s="401" t="s">
         <v>714</v>
       </c>
-      <c r="B22" s="405" t="s">
+      <c r="B22" s="404" t="s">
         <v>735</v>
       </c>
-      <c r="C22" s="406" t="s">
+      <c r="C22" s="405" t="s">
         <v>736</v>
       </c>
-      <c r="D22" s="407"/>
-      <c r="E22" s="408" t="s">
+      <c r="D22" s="406"/>
+      <c r="E22" s="407" t="s">
         <v>735</v>
       </c>
-      <c r="F22" s="406" t="s">
+      <c r="F22" s="405" t="s">
         <v>744</v>
       </c>
-      <c r="G22" s="409"/>
-      <c r="H22" s="410" t="s">
+      <c r="G22" s="408"/>
+      <c r="H22" s="409" t="s">
         <v>735</v>
       </c>
-      <c r="I22" s="411" t="s">
+      <c r="I22" s="410" t="s">
         <v>753</v>
       </c>
-      <c r="J22" s="409"/>
+      <c r="J22" s="408"/>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="402"/>
-      <c r="B23" s="405" t="s">
+      <c r="A23" s="401"/>
+      <c r="B23" s="404" t="s">
         <v>738</v>
       </c>
-      <c r="C23" s="406" t="s">
+      <c r="C23" s="405" t="s">
         <v>737</v>
       </c>
-      <c r="D23" s="407"/>
-      <c r="E23" s="408" t="s">
+      <c r="D23" s="406"/>
+      <c r="E23" s="407" t="s">
         <v>735</v>
       </c>
-      <c r="F23" s="406" t="s">
+      <c r="F23" s="405" t="s">
         <v>745</v>
       </c>
-      <c r="G23" s="407"/>
-      <c r="H23" s="408" t="s">
+      <c r="G23" s="406"/>
+      <c r="H23" s="407" t="s">
         <v>735</v>
       </c>
-      <c r="I23" s="406" t="s">
+      <c r="I23" s="405" t="s">
         <v>754</v>
       </c>
-      <c r="J23" s="409"/>
+      <c r="J23" s="408"/>
     </row>
     <row r="24" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="402"/>
-      <c r="B24" s="405"/>
-      <c r="C24" s="406"/>
-      <c r="D24" s="407"/>
-      <c r="E24" s="408" t="s">
+      <c r="A24" s="401"/>
+      <c r="B24" s="404"/>
+      <c r="C24" s="405"/>
+      <c r="D24" s="406"/>
+      <c r="E24" s="407" t="s">
         <v>735</v>
       </c>
-      <c r="F24" s="406" t="s">
+      <c r="F24" s="405" t="s">
         <v>746</v>
       </c>
-      <c r="G24" s="407"/>
-      <c r="H24" s="408" t="s">
+      <c r="G24" s="406"/>
+      <c r="H24" s="407" t="s">
         <v>735</v>
       </c>
-      <c r="I24" s="406" t="s">
+      <c r="I24" s="405" t="s">
         <v>746</v>
       </c>
-      <c r="J24" s="409"/>
+      <c r="J24" s="408"/>
     </row>
     <row r="25" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="402"/>
-      <c r="B25" s="405" t="s">
+      <c r="A25" s="401"/>
+      <c r="B25" s="404" t="s">
         <v>739</v>
       </c>
-      <c r="C25" s="406" t="s">
+      <c r="C25" s="405" t="s">
         <v>756</v>
       </c>
-      <c r="D25" s="407"/>
-      <c r="E25" s="408" t="s">
+      <c r="D25" s="406"/>
+      <c r="E25" s="407" t="s">
         <v>739</v>
       </c>
-      <c r="F25" s="406" t="s">
+      <c r="F25" s="405" t="s">
         <v>747</v>
       </c>
-      <c r="G25" s="407"/>
-      <c r="H25" s="408" t="s">
+      <c r="G25" s="406"/>
+      <c r="H25" s="407" t="s">
         <v>739</v>
       </c>
-      <c r="I25" s="406" t="s">
+      <c r="I25" s="405" t="s">
         <v>747</v>
       </c>
-      <c r="J25" s="407"/>
+      <c r="J25" s="406"/>
     </row>
     <row r="26" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="412"/>
-      <c r="B26" s="413" t="s">
+      <c r="A26" s="411"/>
+      <c r="B26" s="412" t="s">
         <v>740</v>
       </c>
-      <c r="C26" s="414" t="s">
+      <c r="C26" s="413" t="s">
         <v>742</v>
       </c>
-      <c r="D26" s="415"/>
-      <c r="E26" s="416" t="s">
+      <c r="D26" s="414"/>
+      <c r="E26" s="415" t="s">
         <v>741</v>
       </c>
-      <c r="F26" s="414" t="s">
+      <c r="F26" s="413" t="s">
         <v>743</v>
       </c>
-      <c r="G26" s="415"/>
-      <c r="H26" s="416" t="s">
+      <c r="G26" s="414"/>
+      <c r="H26" s="415" t="s">
         <v>751</v>
       </c>
-      <c r="I26" s="414" t="s">
+      <c r="I26" s="413" t="s">
         <v>752</v>
       </c>
-      <c r="J26" s="415"/>
+      <c r="J26" s="414"/>
     </row>
     <row r="27" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="402"/>
-      <c r="B27" s="405"/>
-      <c r="C27" s="406"/>
-      <c r="D27" s="407"/>
-      <c r="E27" s="408"/>
-      <c r="F27" s="406"/>
-      <c r="G27" s="407"/>
-      <c r="H27" s="408"/>
-      <c r="I27" s="406"/>
-      <c r="J27" s="407"/>
+      <c r="A27" s="401"/>
+      <c r="B27" s="404"/>
+      <c r="C27" s="405"/>
+      <c r="D27" s="406"/>
+      <c r="E27" s="407"/>
+      <c r="F27" s="405"/>
+      <c r="G27" s="406"/>
+      <c r="H27" s="407"/>
+      <c r="I27" s="405"/>
+      <c r="J27" s="406"/>
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="403"/>
-      <c r="B28" s="599"/>
-      <c r="C28" s="600"/>
-      <c r="D28" s="601"/>
-      <c r="E28" s="417"/>
-      <c r="F28" s="418"/>
-      <c r="G28" s="419"/>
-      <c r="H28" s="420"/>
-      <c r="I28" s="421"/>
-      <c r="J28" s="422"/>
+      <c r="A28" s="402"/>
+      <c r="B28" s="559"/>
+      <c r="C28" s="560"/>
+      <c r="D28" s="561"/>
+      <c r="E28" s="416"/>
+      <c r="F28" s="417"/>
+      <c r="G28" s="418"/>
+      <c r="H28" s="419"/>
+      <c r="I28" s="420"/>
+      <c r="J28" s="421"/>
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="402" t="s">
+      <c r="A29" s="401" t="s">
         <v>715</v>
       </c>
-      <c r="B29" s="602"/>
-      <c r="C29" s="603"/>
-      <c r="D29" s="604"/>
-      <c r="E29" s="602"/>
-      <c r="F29" s="603"/>
-      <c r="G29" s="604"/>
-      <c r="H29" s="605"/>
-      <c r="I29" s="606"/>
-      <c r="J29" s="607"/>
+      <c r="B29" s="562"/>
+      <c r="C29" s="563"/>
+      <c r="D29" s="564"/>
+      <c r="E29" s="562"/>
+      <c r="F29" s="563"/>
+      <c r="G29" s="564"/>
+      <c r="H29" s="565"/>
+      <c r="I29" s="566"/>
+      <c r="J29" s="567"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="403" t="s">
+      <c r="A30" s="402" t="s">
         <v>748</v>
       </c>
-      <c r="B30" s="593" t="s">
+      <c r="B30" s="553" t="s">
         <v>749</v>
       </c>
-      <c r="C30" s="594"/>
-      <c r="D30" s="595"/>
-      <c r="E30" s="593" t="s">
+      <c r="C30" s="554"/>
+      <c r="D30" s="555"/>
+      <c r="E30" s="553" t="s">
         <v>750</v>
       </c>
-      <c r="F30" s="594"/>
-      <c r="G30" s="595"/>
-      <c r="H30" s="596"/>
-      <c r="I30" s="597"/>
-      <c r="J30" s="598"/>
+      <c r="F30" s="554"/>
+      <c r="G30" s="555"/>
+      <c r="H30" s="556"/>
+      <c r="I30" s="557"/>
+      <c r="J30" s="558"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9185,22 +9190,16 @@
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F1:J1"/>
@@ -9217,16 +9216,22 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9248,479 +9253,479 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="10" width="18" style="288" customWidth="1"/>
-    <col min="11" max="16384" width="11.42578125" style="288"/>
+    <col min="1" max="10" width="18" style="287" customWidth="1"/>
+    <col min="11" max="16384" width="11.42578125" style="287"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="643" t="s">
+      <c r="A1" s="609" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="644"/>
-      <c r="C1" s="644"/>
-      <c r="D1" s="644"/>
-      <c r="E1" s="644"/>
-      <c r="F1" s="643" t="s">
+      <c r="B1" s="610"/>
+      <c r="C1" s="610"/>
+      <c r="D1" s="610"/>
+      <c r="E1" s="610"/>
+      <c r="F1" s="609" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="644"/>
-      <c r="H1" s="644"/>
-      <c r="I1" s="644"/>
-      <c r="J1" s="644"/>
-    </row>
-    <row r="2" spans="1:20" s="396" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="655" t="str">
+      <c r="G1" s="610"/>
+      <c r="H1" s="610"/>
+      <c r="I1" s="610"/>
+      <c r="J1" s="610"/>
+    </row>
+    <row r="2" spans="1:20" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="611" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="B2" s="656"/>
-      <c r="C2" s="656"/>
-      <c r="D2" s="656"/>
-      <c r="E2" s="656"/>
-      <c r="F2" s="657" t="s">
+      <c r="B2" s="612"/>
+      <c r="C2" s="612"/>
+      <c r="D2" s="612"/>
+      <c r="E2" s="612"/>
+      <c r="F2" s="613" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="658"/>
-      <c r="H2" s="658"/>
-      <c r="I2" s="658"/>
-      <c r="J2" s="659"/>
+      <c r="G2" s="614"/>
+      <c r="H2" s="614"/>
+      <c r="I2" s="614"/>
+      <c r="J2" s="615"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F3" s="395"/>
-      <c r="G3" s="395"/>
-      <c r="H3" s="395"/>
-      <c r="I3" s="395"/>
-      <c r="J3" s="395"/>
+      <c r="F3" s="394"/>
+      <c r="G3" s="394"/>
+      <c r="H3" s="394"/>
+      <c r="I3" s="394"/>
+      <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="643" t="s">
+      <c r="A4" s="609" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="644"/>
-      <c r="C4" s="644"/>
-      <c r="D4" s="645"/>
-      <c r="E4" s="643" t="s">
+      <c r="B4" s="610"/>
+      <c r="C4" s="610"/>
+      <c r="D4" s="616"/>
+      <c r="E4" s="609" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="644"/>
-      <c r="G4" s="645"/>
-      <c r="H4" s="643" t="s">
+      <c r="F4" s="610"/>
+      <c r="G4" s="616"/>
+      <c r="H4" s="609" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="644"/>
-      <c r="J4" s="645"/>
+      <c r="I4" s="610"/>
+      <c r="J4" s="616"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="649" t="s">
+      <c r="A5" s="623" t="s">
         <v>757</v>
       </c>
-      <c r="B5" s="650"/>
-      <c r="C5" s="650"/>
-      <c r="D5" s="651"/>
-      <c r="E5" s="444" t="s">
+      <c r="B5" s="624"/>
+      <c r="C5" s="624"/>
+      <c r="D5" s="625"/>
+      <c r="E5" s="443" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="608" t="s">
+      <c r="F5" s="629" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="609"/>
-      <c r="H5" s="445" t="s">
+      <c r="G5" s="630"/>
+      <c r="H5" s="444" t="s">
         <v>758</v>
       </c>
-      <c r="I5" s="608" t="s">
+      <c r="I5" s="629" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="609"/>
-      <c r="Q5" s="610"/>
-      <c r="R5" s="610"/>
-      <c r="S5" s="288" t="s">
+      <c r="J5" s="630"/>
+      <c r="Q5" s="661"/>
+      <c r="R5" s="661"/>
+      <c r="S5" s="287" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="649"/>
-      <c r="B6" s="650"/>
-      <c r="C6" s="650"/>
-      <c r="D6" s="651"/>
-      <c r="E6" s="444" t="s">
+      <c r="A6" s="623"/>
+      <c r="B6" s="624"/>
+      <c r="C6" s="624"/>
+      <c r="D6" s="625"/>
+      <c r="E6" s="443" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="608" t="s">
+      <c r="F6" s="629" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="609"/>
-      <c r="H6" s="445"/>
-      <c r="I6" s="608"/>
-      <c r="J6" s="609"/>
-      <c r="Q6" s="610"/>
-      <c r="R6" s="610"/>
-      <c r="S6" s="288" t="s">
+      <c r="G6" s="630"/>
+      <c r="H6" s="444"/>
+      <c r="I6" s="629"/>
+      <c r="J6" s="630"/>
+      <c r="Q6" s="661"/>
+      <c r="R6" s="661"/>
+      <c r="S6" s="287" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="288" t="s">
+      <c r="T6" s="287" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="649"/>
-      <c r="B7" s="650"/>
-      <c r="C7" s="650"/>
-      <c r="D7" s="651"/>
-      <c r="E7" s="444" t="s">
+      <c r="A7" s="623"/>
+      <c r="B7" s="624"/>
+      <c r="C7" s="624"/>
+      <c r="D7" s="625"/>
+      <c r="E7" s="443" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="608" t="s">
+      <c r="F7" s="629" t="s">
         <v>597</v>
       </c>
-      <c r="G7" s="609"/>
-      <c r="H7" s="445" t="s">
+      <c r="G7" s="630"/>
+      <c r="H7" s="444" t="s">
         <v>759</v>
       </c>
-      <c r="I7" s="608" t="s">
+      <c r="I7" s="629" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="609"/>
-      <c r="Q7" s="610"/>
-      <c r="R7" s="610"/>
+      <c r="J7" s="630"/>
+      <c r="Q7" s="661"/>
+      <c r="R7" s="661"/>
     </row>
     <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="649"/>
-      <c r="B8" s="650"/>
-      <c r="C8" s="650"/>
-      <c r="D8" s="651"/>
-      <c r="E8" s="444" t="s">
+      <c r="A8" s="623"/>
+      <c r="B8" s="624"/>
+      <c r="C8" s="624"/>
+      <c r="D8" s="625"/>
+      <c r="E8" s="443" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="608" t="s">
+      <c r="F8" s="629" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="609"/>
-      <c r="H8" s="445" t="s">
+      <c r="G8" s="630"/>
+      <c r="H8" s="444" t="s">
         <v>760</v>
       </c>
-      <c r="I8" s="608" t="s">
+      <c r="I8" s="629" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="609"/>
-      <c r="Q8" s="610"/>
-      <c r="R8" s="610"/>
+      <c r="J8" s="630"/>
+      <c r="Q8" s="661"/>
+      <c r="R8" s="661"/>
     </row>
     <row r="9" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="649"/>
-      <c r="B9" s="650"/>
-      <c r="C9" s="650"/>
-      <c r="D9" s="651"/>
-      <c r="E9" s="444" t="s">
+      <c r="A9" s="623"/>
+      <c r="B9" s="624"/>
+      <c r="C9" s="624"/>
+      <c r="D9" s="625"/>
+      <c r="E9" s="443" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="608" t="s">
+      <c r="F9" s="629" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="609"/>
-      <c r="H9" s="445" t="s">
+      <c r="G9" s="630"/>
+      <c r="H9" s="444" t="s">
         <v>761</v>
       </c>
-      <c r="I9" s="608" t="s">
+      <c r="I9" s="629" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="609"/>
+      <c r="J9" s="630"/>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="649"/>
-      <c r="B10" s="650"/>
-      <c r="C10" s="650"/>
-      <c r="D10" s="651"/>
-      <c r="E10" s="444" t="s">
+      <c r="A10" s="623"/>
+      <c r="B10" s="624"/>
+      <c r="C10" s="624"/>
+      <c r="D10" s="625"/>
+      <c r="E10" s="443" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="608" t="s">
+      <c r="F10" s="629" t="s">
         <v>441</v>
       </c>
-      <c r="G10" s="609"/>
-      <c r="H10" s="445" t="s">
+      <c r="G10" s="630"/>
+      <c r="H10" s="444" t="s">
         <v>762</v>
       </c>
-      <c r="I10" s="608" t="s">
+      <c r="I10" s="629" t="s">
         <v>444</v>
       </c>
-      <c r="J10" s="609"/>
+      <c r="J10" s="630"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="652"/>
-      <c r="B11" s="653"/>
-      <c r="C11" s="653"/>
-      <c r="D11" s="654"/>
-      <c r="E11" s="446" t="s">
+      <c r="A11" s="626"/>
+      <c r="B11" s="627"/>
+      <c r="C11" s="627"/>
+      <c r="D11" s="628"/>
+      <c r="E11" s="445" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="641" t="s">
+      <c r="F11" s="607" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="642"/>
-      <c r="H11" s="446" t="s">
+      <c r="G11" s="608"/>
+      <c r="H11" s="445" t="s">
         <v>763</v>
       </c>
-      <c r="I11" s="641" t="s">
+      <c r="I11" s="607" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="642"/>
+      <c r="J11" s="608"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F12" s="401"/>
-      <c r="G12" s="401"/>
-      <c r="H12" s="401"/>
-      <c r="I12" s="401"/>
-      <c r="J12" s="401"/>
-      <c r="S12" s="288" t="s">
+      <c r="F12" s="400"/>
+      <c r="G12" s="400"/>
+      <c r="H12" s="400"/>
+      <c r="I12" s="400"/>
+      <c r="J12" s="400"/>
+      <c r="S12" s="287" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="288" t="s">
+      <c r="T12" s="287" t="s">
         <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="643" t="s">
+      <c r="A13" s="609" t="s">
         <v>711</v>
       </c>
-      <c r="B13" s="644"/>
-      <c r="C13" s="644"/>
-      <c r="D13" s="644"/>
-      <c r="E13" s="644"/>
-      <c r="F13" s="643" t="s">
+      <c r="B13" s="610"/>
+      <c r="C13" s="610"/>
+      <c r="D13" s="610"/>
+      <c r="E13" s="610"/>
+      <c r="F13" s="609" t="s">
         <v>722</v>
       </c>
-      <c r="G13" s="644"/>
-      <c r="H13" s="644"/>
-      <c r="I13" s="644"/>
-      <c r="J13" s="645"/>
+      <c r="G13" s="610"/>
+      <c r="H13" s="610"/>
+      <c r="I13" s="610"/>
+      <c r="J13" s="616"/>
     </row>
     <row r="14" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="646"/>
-      <c r="B14" s="647"/>
-      <c r="C14" s="647"/>
-      <c r="D14" s="647"/>
-      <c r="E14" s="647"/>
-      <c r="F14" s="646"/>
-      <c r="G14" s="647"/>
-      <c r="H14" s="647"/>
-      <c r="I14" s="647"/>
-      <c r="J14" s="648"/>
+      <c r="A14" s="620"/>
+      <c r="B14" s="621"/>
+      <c r="C14" s="621"/>
+      <c r="D14" s="621"/>
+      <c r="E14" s="621"/>
+      <c r="F14" s="620"/>
+      <c r="G14" s="621"/>
+      <c r="H14" s="621"/>
+      <c r="I14" s="621"/>
+      <c r="J14" s="622"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="J15" s="397"/>
+      <c r="J15" s="396"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="643" t="s">
+      <c r="A16" s="609" t="s">
         <v>727</v>
       </c>
-      <c r="B16" s="644"/>
-      <c r="C16" s="644"/>
-      <c r="D16" s="644"/>
-      <c r="E16" s="644"/>
-      <c r="F16" s="643" t="s">
+      <c r="B16" s="610"/>
+      <c r="C16" s="610"/>
+      <c r="D16" s="610"/>
+      <c r="E16" s="610"/>
+      <c r="F16" s="609" t="s">
         <v>606</v>
       </c>
-      <c r="G16" s="644"/>
-      <c r="H16" s="644"/>
-      <c r="I16" s="644"/>
-      <c r="J16" s="645"/>
+      <c r="G16" s="610"/>
+      <c r="H16" s="610"/>
+      <c r="I16" s="610"/>
+      <c r="J16" s="616"/>
     </row>
     <row r="17" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="626"/>
-      <c r="B17" s="627"/>
-      <c r="C17" s="627"/>
-      <c r="D17" s="627"/>
-      <c r="E17" s="627"/>
-      <c r="F17" s="628"/>
-      <c r="G17" s="629"/>
-      <c r="H17" s="629"/>
-      <c r="I17" s="629"/>
-      <c r="J17" s="630"/>
+      <c r="A17" s="631"/>
+      <c r="B17" s="632"/>
+      <c r="C17" s="632"/>
+      <c r="D17" s="632"/>
+      <c r="E17" s="632"/>
+      <c r="F17" s="633"/>
+      <c r="G17" s="634"/>
+      <c r="H17" s="634"/>
+      <c r="I17" s="634"/>
+      <c r="J17" s="635"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="631" t="s">
+      <c r="A19" s="636" t="s">
         <v>712</v>
       </c>
-      <c r="B19" s="632"/>
-      <c r="C19" s="632"/>
-      <c r="D19" s="632"/>
-      <c r="E19" s="632"/>
-      <c r="F19" s="632"/>
-      <c r="G19" s="632"/>
-      <c r="H19" s="632"/>
-      <c r="I19" s="632"/>
-      <c r="J19" s="633"/>
+      <c r="B19" s="637"/>
+      <c r="C19" s="637"/>
+      <c r="D19" s="637"/>
+      <c r="E19" s="637"/>
+      <c r="F19" s="637"/>
+      <c r="G19" s="637"/>
+      <c r="H19" s="637"/>
+      <c r="I19" s="637"/>
+      <c r="J19" s="638"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="634"/>
-      <c r="B20" s="635"/>
-      <c r="C20" s="635"/>
-      <c r="D20" s="635"/>
-      <c r="E20" s="635"/>
-      <c r="F20" s="636"/>
-      <c r="G20" s="636"/>
-      <c r="H20" s="636"/>
-      <c r="I20" s="636"/>
-      <c r="J20" s="637"/>
+      <c r="A20" s="639"/>
+      <c r="B20" s="640"/>
+      <c r="C20" s="640"/>
+      <c r="D20" s="640"/>
+      <c r="E20" s="640"/>
+      <c r="F20" s="641"/>
+      <c r="G20" s="641"/>
+      <c r="H20" s="641"/>
+      <c r="I20" s="641"/>
+      <c r="J20" s="642"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="397"/>
-      <c r="G21" s="397"/>
-      <c r="H21" s="397"/>
-      <c r="I21" s="397"/>
-    </row>
-    <row r="22" spans="1:10" s="396" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="423" t="s">
+      <c r="F21" s="396"/>
+      <c r="G21" s="396"/>
+      <c r="H21" s="396"/>
+      <c r="I21" s="396"/>
+    </row>
+    <row r="22" spans="1:10" s="395" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="422" t="s">
         <v>721</v>
       </c>
-      <c r="B22" s="638" t="s">
+      <c r="B22" s="617" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="639"/>
-      <c r="D22" s="640"/>
-      <c r="E22" s="638" t="s">
+      <c r="C22" s="618"/>
+      <c r="D22" s="619"/>
+      <c r="E22" s="617" t="s">
         <v>719</v>
       </c>
-      <c r="F22" s="639"/>
-      <c r="G22" s="640"/>
-      <c r="H22" s="638" t="s">
+      <c r="F22" s="618"/>
+      <c r="G22" s="619"/>
+      <c r="H22" s="617" t="s">
         <v>720</v>
       </c>
-      <c r="I22" s="639"/>
-      <c r="J22" s="640"/>
+      <c r="I22" s="618"/>
+      <c r="J22" s="619"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="424" t="s">
+      <c r="A23" s="423" t="s">
         <v>713</v>
       </c>
-      <c r="B23" s="705"/>
-      <c r="C23" s="706"/>
-      <c r="D23" s="707"/>
-      <c r="E23" s="705"/>
-      <c r="F23" s="706"/>
-      <c r="G23" s="707"/>
-      <c r="H23" s="705"/>
-      <c r="I23" s="706"/>
-      <c r="J23" s="707"/>
+      <c r="B23" s="649"/>
+      <c r="C23" s="650"/>
+      <c r="D23" s="651"/>
+      <c r="E23" s="649"/>
+      <c r="F23" s="650"/>
+      <c r="G23" s="651"/>
+      <c r="H23" s="649"/>
+      <c r="I23" s="650"/>
+      <c r="J23" s="651"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="424" t="s">
+      <c r="A24" s="423" t="s">
         <v>714</v>
       </c>
-      <c r="B24" s="425"/>
-      <c r="C24" s="426"/>
-      <c r="D24" s="427"/>
-      <c r="E24" s="428"/>
-      <c r="F24" s="426"/>
-      <c r="G24" s="429"/>
-      <c r="H24" s="430"/>
-      <c r="I24" s="431"/>
-      <c r="J24" s="429"/>
+      <c r="B24" s="424"/>
+      <c r="C24" s="425"/>
+      <c r="D24" s="426"/>
+      <c r="E24" s="427"/>
+      <c r="F24" s="425"/>
+      <c r="G24" s="428"/>
+      <c r="H24" s="429"/>
+      <c r="I24" s="430"/>
+      <c r="J24" s="428"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="424"/>
-      <c r="B25" s="425"/>
-      <c r="C25" s="426"/>
-      <c r="D25" s="427"/>
-      <c r="E25" s="428"/>
-      <c r="F25" s="426"/>
-      <c r="G25" s="427"/>
-      <c r="H25" s="428"/>
-      <c r="I25" s="426"/>
-      <c r="J25" s="429"/>
+      <c r="A25" s="423"/>
+      <c r="B25" s="424"/>
+      <c r="C25" s="425"/>
+      <c r="D25" s="426"/>
+      <c r="E25" s="427"/>
+      <c r="F25" s="425"/>
+      <c r="G25" s="426"/>
+      <c r="H25" s="427"/>
+      <c r="I25" s="425"/>
+      <c r="J25" s="428"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="424"/>
-      <c r="B26" s="425"/>
-      <c r="C26" s="426"/>
-      <c r="D26" s="427"/>
-      <c r="E26" s="428"/>
-      <c r="F26" s="426"/>
-      <c r="G26" s="427"/>
-      <c r="H26" s="428"/>
-      <c r="I26" s="426"/>
-      <c r="J26" s="429"/>
+      <c r="A26" s="423"/>
+      <c r="B26" s="424"/>
+      <c r="C26" s="425"/>
+      <c r="D26" s="426"/>
+      <c r="E26" s="427"/>
+      <c r="F26" s="425"/>
+      <c r="G26" s="426"/>
+      <c r="H26" s="427"/>
+      <c r="I26" s="425"/>
+      <c r="J26" s="428"/>
     </row>
     <row r="27" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="424"/>
-      <c r="B27" s="425"/>
-      <c r="C27" s="426"/>
-      <c r="D27" s="427"/>
-      <c r="E27" s="428"/>
-      <c r="F27" s="426"/>
-      <c r="G27" s="427"/>
-      <c r="H27" s="428"/>
-      <c r="I27" s="426"/>
-      <c r="J27" s="427"/>
+      <c r="A27" s="423"/>
+      <c r="B27" s="424"/>
+      <c r="C27" s="425"/>
+      <c r="D27" s="426"/>
+      <c r="E27" s="427"/>
+      <c r="F27" s="425"/>
+      <c r="G27" s="426"/>
+      <c r="H27" s="427"/>
+      <c r="I27" s="425"/>
+      <c r="J27" s="426"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="432"/>
-      <c r="B28" s="433"/>
-      <c r="C28" s="434"/>
-      <c r="D28" s="435"/>
-      <c r="E28" s="436"/>
-      <c r="F28" s="434"/>
-      <c r="G28" s="435"/>
-      <c r="H28" s="436"/>
-      <c r="I28" s="434"/>
-      <c r="J28" s="435"/>
+      <c r="A28" s="431"/>
+      <c r="B28" s="432"/>
+      <c r="C28" s="433"/>
+      <c r="D28" s="434"/>
+      <c r="E28" s="435"/>
+      <c r="F28" s="433"/>
+      <c r="G28" s="434"/>
+      <c r="H28" s="435"/>
+      <c r="I28" s="433"/>
+      <c r="J28" s="434"/>
     </row>
     <row r="29" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="424"/>
-      <c r="B29" s="425"/>
-      <c r="C29" s="426"/>
-      <c r="D29" s="427"/>
-      <c r="E29" s="428"/>
-      <c r="F29" s="426"/>
-      <c r="G29" s="427"/>
-      <c r="H29" s="428"/>
-      <c r="I29" s="426"/>
-      <c r="J29" s="427"/>
+      <c r="A29" s="423"/>
+      <c r="B29" s="424"/>
+      <c r="C29" s="425"/>
+      <c r="D29" s="426"/>
+      <c r="E29" s="427"/>
+      <c r="F29" s="425"/>
+      <c r="G29" s="426"/>
+      <c r="H29" s="427"/>
+      <c r="I29" s="425"/>
+      <c r="J29" s="426"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="437"/>
-      <c r="B30" s="617"/>
-      <c r="C30" s="618"/>
-      <c r="D30" s="619"/>
-      <c r="E30" s="438"/>
-      <c r="F30" s="439"/>
-      <c r="G30" s="440"/>
-      <c r="H30" s="441"/>
-      <c r="I30" s="442"/>
-      <c r="J30" s="443"/>
+      <c r="A30" s="436"/>
+      <c r="B30" s="652"/>
+      <c r="C30" s="653"/>
+      <c r="D30" s="654"/>
+      <c r="E30" s="437"/>
+      <c r="F30" s="438"/>
+      <c r="G30" s="439"/>
+      <c r="H30" s="440"/>
+      <c r="I30" s="441"/>
+      <c r="J30" s="442"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="424" t="s">
+      <c r="A31" s="423" t="s">
         <v>715</v>
       </c>
-      <c r="B31" s="620"/>
-      <c r="C31" s="621"/>
-      <c r="D31" s="622"/>
-      <c r="E31" s="620"/>
-      <c r="F31" s="621"/>
-      <c r="G31" s="622"/>
-      <c r="H31" s="623"/>
-      <c r="I31" s="624"/>
-      <c r="J31" s="625"/>
+      <c r="B31" s="655"/>
+      <c r="C31" s="656"/>
+      <c r="D31" s="657"/>
+      <c r="E31" s="655"/>
+      <c r="F31" s="656"/>
+      <c r="G31" s="657"/>
+      <c r="H31" s="658"/>
+      <c r="I31" s="659"/>
+      <c r="J31" s="660"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="437" t="s">
+      <c r="A32" s="436" t="s">
         <v>748</v>
       </c>
-      <c r="B32" s="611" t="s">
+      <c r="B32" s="643" t="s">
         <v>749</v>
       </c>
-      <c r="C32" s="612"/>
-      <c r="D32" s="613"/>
-      <c r="E32" s="611" t="s">
+      <c r="C32" s="644"/>
+      <c r="D32" s="645"/>
+      <c r="E32" s="643" t="s">
         <v>750</v>
       </c>
-      <c r="F32" s="612"/>
-      <c r="G32" s="613"/>
-      <c r="H32" s="614"/>
-      <c r="I32" s="615"/>
-      <c r="J32" s="616"/>
+      <c r="F32" s="644"/>
+      <c r="G32" s="645"/>
+      <c r="H32" s="646"/>
+      <c r="I32" s="647"/>
+      <c r="J32" s="648"/>
     </row>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9732,14 +9737,27 @@
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
@@ -9756,32 +9774,19 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="I7:J7"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9940,957 +9945,957 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" style="288" customWidth="1"/>
-    <col min="2" max="2" width="6.5703125" style="289" customWidth="1"/>
-    <col min="3" max="19" width="7.140625" style="288" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="288"/>
+    <col min="1" max="1" width="37.5703125" style="287" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" style="288" customWidth="1"/>
+    <col min="3" max="19" width="7.140625" style="287" customWidth="1"/>
+    <col min="20" max="16384" width="11.42578125" style="287"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="337" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="289"/>
-      <c r="C1" s="660" t="s">
+    <row r="1" spans="1:19" s="336" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="288"/>
+      <c r="C1" s="662" t="s">
         <v>662</v>
       </c>
-      <c r="D1" s="668"/>
-      <c r="E1" s="668"/>
-      <c r="F1" s="668"/>
-      <c r="G1" s="661"/>
-      <c r="H1" s="660" t="s">
+      <c r="D1" s="670"/>
+      <c r="E1" s="670"/>
+      <c r="F1" s="670"/>
+      <c r="G1" s="663"/>
+      <c r="H1" s="662" t="s">
         <v>661</v>
       </c>
-      <c r="I1" s="668"/>
-      <c r="J1" s="661"/>
-      <c r="K1" s="660" t="s">
+      <c r="I1" s="670"/>
+      <c r="J1" s="663"/>
+      <c r="K1" s="662" t="s">
         <v>663</v>
       </c>
-      <c r="L1" s="668"/>
-      <c r="M1" s="661"/>
-      <c r="N1" s="660" t="s">
+      <c r="L1" s="670"/>
+      <c r="M1" s="663"/>
+      <c r="N1" s="662" t="s">
         <v>664</v>
       </c>
-      <c r="O1" s="668"/>
-      <c r="P1" s="661"/>
-      <c r="Q1" s="393" t="s">
+      <c r="O1" s="670"/>
+      <c r="P1" s="663"/>
+      <c r="Q1" s="392" t="s">
         <v>690</v>
       </c>
-      <c r="R1" s="660" t="s">
+      <c r="R1" s="662" t="s">
         <v>665</v>
       </c>
-      <c r="S1" s="661"/>
-    </row>
-    <row r="2" spans="1:19" s="290" customFormat="1" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="389" t="s">
+      <c r="S1" s="663"/>
+    </row>
+    <row r="2" spans="1:19" s="289" customFormat="1" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="388" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="390" t="s">
+      <c r="D2" s="389" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="390" t="s">
+      <c r="E2" s="389" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="390" t="s">
+      <c r="F2" s="389" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="391" t="s">
+      <c r="G2" s="390" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="389" t="s">
+      <c r="H2" s="388" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="390" t="s">
+      <c r="I2" s="389" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="391" t="s">
+      <c r="J2" s="390" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="389" t="s">
+      <c r="K2" s="388" t="s">
         <v>47</v>
       </c>
-      <c r="L2" s="390" t="s">
+      <c r="L2" s="389" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="391" t="s">
+      <c r="M2" s="390" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="389" t="s">
+      <c r="N2" s="388" t="s">
         <v>57</v>
       </c>
-      <c r="O2" s="390" t="s">
+      <c r="O2" s="389" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="391" t="s">
+      <c r="P2" s="390" t="s">
         <v>64</v>
       </c>
-      <c r="Q2" s="392" t="s">
+      <c r="Q2" s="391" t="s">
         <v>68</v>
       </c>
-      <c r="R2" s="389" t="s">
+      <c r="R2" s="388" t="s">
         <v>71</v>
       </c>
-      <c r="S2" s="391" t="s">
+      <c r="S2" s="390" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="669" t="str">
+      <c r="A3" s="671" t="str">
         <f>Cycles!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B3" s="361" t="s">
+      <c r="B3" s="360" t="s">
         <v>603</v>
       </c>
-      <c r="C3" s="386"/>
-      <c r="D3" s="387"/>
-      <c r="E3" s="387"/>
-      <c r="F3" s="387"/>
-      <c r="G3" s="387"/>
-      <c r="H3" s="387"/>
-      <c r="I3" s="387" t="s">
+      <c r="C3" s="385"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="386"/>
+      <c r="F3" s="386"/>
+      <c r="G3" s="386"/>
+      <c r="H3" s="386"/>
+      <c r="I3" s="386" t="s">
         <v>660</v>
       </c>
-      <c r="J3" s="387" t="s">
+      <c r="J3" s="386" t="s">
         <v>660</v>
       </c>
-      <c r="K3" s="387"/>
-      <c r="L3" s="387"/>
-      <c r="M3" s="387"/>
-      <c r="N3" s="387"/>
-      <c r="O3" s="387"/>
-      <c r="P3" s="387"/>
-      <c r="Q3" s="387"/>
-      <c r="R3" s="387"/>
-      <c r="S3" s="388"/>
+      <c r="K3" s="386"/>
+      <c r="L3" s="386"/>
+      <c r="M3" s="386"/>
+      <c r="N3" s="386"/>
+      <c r="O3" s="386"/>
+      <c r="P3" s="386"/>
+      <c r="Q3" s="386"/>
+      <c r="R3" s="386"/>
+      <c r="S3" s="387"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="670"/>
-      <c r="B4" s="362" t="s">
+      <c r="A4" s="672"/>
+      <c r="B4" s="361" t="s">
         <v>657</v>
       </c>
-      <c r="C4" s="338"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
-      <c r="F4" s="291"/>
-      <c r="G4" s="291"/>
-      <c r="H4" s="291"/>
-      <c r="I4" s="291"/>
-      <c r="J4" s="291"/>
-      <c r="K4" s="291"/>
-      <c r="L4" s="291"/>
-      <c r="M4" s="291"/>
-      <c r="N4" s="291"/>
-      <c r="O4" s="291"/>
-      <c r="P4" s="291"/>
-      <c r="Q4" s="291"/>
-      <c r="R4" s="291"/>
-      <c r="S4" s="292"/>
+      <c r="C4" s="337"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
+      <c r="M4" s="290"/>
+      <c r="N4" s="290"/>
+      <c r="O4" s="290"/>
+      <c r="P4" s="290"/>
+      <c r="Q4" s="290"/>
+      <c r="R4" s="290"/>
+      <c r="S4" s="291"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="670"/>
-      <c r="B5" s="362" t="s">
+      <c r="A5" s="672"/>
+      <c r="B5" s="361" t="s">
         <v>658</v>
       </c>
-      <c r="C5" s="338"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
-      <c r="F5" s="291"/>
-      <c r="G5" s="291"/>
-      <c r="H5" s="291"/>
-      <c r="I5" s="291"/>
-      <c r="J5" s="291"/>
-      <c r="K5" s="291"/>
-      <c r="L5" s="291"/>
-      <c r="M5" s="291"/>
-      <c r="N5" s="291"/>
-      <c r="O5" s="291"/>
-      <c r="P5" s="291"/>
-      <c r="Q5" s="291"/>
-      <c r="R5" s="291"/>
-      <c r="S5" s="292"/>
+      <c r="C5" s="337"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="290"/>
+      <c r="H5" s="290"/>
+      <c r="I5" s="290"/>
+      <c r="J5" s="290"/>
+      <c r="K5" s="290"/>
+      <c r="L5" s="290"/>
+      <c r="M5" s="290"/>
+      <c r="N5" s="290"/>
+      <c r="O5" s="290"/>
+      <c r="P5" s="290"/>
+      <c r="Q5" s="290"/>
+      <c r="R5" s="290"/>
+      <c r="S5" s="291"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="671"/>
-      <c r="B6" s="363" t="s">
+      <c r="A6" s="673"/>
+      <c r="B6" s="362" t="s">
         <v>659</v>
       </c>
-      <c r="C6" s="339"/>
-      <c r="D6" s="293"/>
-      <c r="E6" s="293"/>
-      <c r="F6" s="293"/>
-      <c r="G6" s="293"/>
-      <c r="H6" s="293"/>
-      <c r="I6" s="293"/>
-      <c r="J6" s="293"/>
-      <c r="K6" s="293"/>
-      <c r="L6" s="293"/>
-      <c r="M6" s="293"/>
-      <c r="N6" s="293"/>
-      <c r="O6" s="293"/>
-      <c r="P6" s="293"/>
-      <c r="Q6" s="293"/>
-      <c r="R6" s="293"/>
-      <c r="S6" s="294"/>
+      <c r="C6" s="338"/>
+      <c r="D6" s="292"/>
+      <c r="E6" s="292"/>
+      <c r="F6" s="292"/>
+      <c r="G6" s="292"/>
+      <c r="H6" s="292"/>
+      <c r="I6" s="292"/>
+      <c r="J6" s="292"/>
+      <c r="K6" s="292"/>
+      <c r="L6" s="292"/>
+      <c r="M6" s="292"/>
+      <c r="N6" s="292"/>
+      <c r="O6" s="292"/>
+      <c r="P6" s="292"/>
+      <c r="Q6" s="292"/>
+      <c r="R6" s="292"/>
+      <c r="S6" s="293"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="672" t="str">
+      <c r="A7" s="674" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="B7" s="364" t="s">
+      <c r="B7" s="363" t="s">
         <v>603</v>
       </c>
-      <c r="C7" s="340"/>
-      <c r="D7" s="295"/>
-      <c r="E7" s="295"/>
-      <c r="F7" s="295"/>
-      <c r="G7" s="295"/>
-      <c r="H7" s="295"/>
-      <c r="I7" s="295"/>
-      <c r="J7" s="295" t="s">
+      <c r="C7" s="339"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="294"/>
+      <c r="I7" s="294"/>
+      <c r="J7" s="294" t="s">
         <v>660</v>
       </c>
-      <c r="K7" s="295"/>
-      <c r="L7" s="295" t="s">
+      <c r="K7" s="294"/>
+      <c r="L7" s="294" t="s">
         <v>660</v>
       </c>
-      <c r="M7" s="295"/>
-      <c r="N7" s="295"/>
-      <c r="O7" s="295"/>
-      <c r="P7" s="295"/>
-      <c r="Q7" s="295"/>
-      <c r="R7" s="295"/>
-      <c r="S7" s="296"/>
+      <c r="M7" s="294"/>
+      <c r="N7" s="294"/>
+      <c r="O7" s="294"/>
+      <c r="P7" s="294"/>
+      <c r="Q7" s="294"/>
+      <c r="R7" s="294"/>
+      <c r="S7" s="295"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="673"/>
-      <c r="B8" s="365" t="s">
+      <c r="A8" s="675"/>
+      <c r="B8" s="364" t="s">
         <v>657</v>
       </c>
-      <c r="C8" s="341"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="297"/>
-      <c r="G8" s="297"/>
-      <c r="H8" s="297"/>
-      <c r="I8" s="297"/>
-      <c r="J8" s="297"/>
-      <c r="K8" s="297"/>
-      <c r="L8" s="297"/>
-      <c r="M8" s="297"/>
-      <c r="N8" s="297"/>
-      <c r="O8" s="297"/>
-      <c r="P8" s="297"/>
-      <c r="Q8" s="297"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="298"/>
+      <c r="C8" s="340"/>
+      <c r="D8" s="296"/>
+      <c r="E8" s="296"/>
+      <c r="F8" s="296"/>
+      <c r="G8" s="296"/>
+      <c r="H8" s="296"/>
+      <c r="I8" s="296"/>
+      <c r="J8" s="296"/>
+      <c r="K8" s="296"/>
+      <c r="L8" s="296"/>
+      <c r="M8" s="296"/>
+      <c r="N8" s="296"/>
+      <c r="O8" s="296"/>
+      <c r="P8" s="296"/>
+      <c r="Q8" s="296"/>
+      <c r="R8" s="296"/>
+      <c r="S8" s="297"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="673"/>
-      <c r="B9" s="365" t="s">
+      <c r="A9" s="675"/>
+      <c r="B9" s="364" t="s">
         <v>658</v>
       </c>
-      <c r="C9" s="341"/>
-      <c r="D9" s="297"/>
-      <c r="E9" s="297"/>
-      <c r="F9" s="297"/>
-      <c r="G9" s="297"/>
-      <c r="H9" s="297"/>
-      <c r="I9" s="297"/>
-      <c r="J9" s="297"/>
-      <c r="K9" s="297"/>
-      <c r="L9" s="297"/>
-      <c r="M9" s="297"/>
-      <c r="N9" s="297"/>
-      <c r="O9" s="297"/>
-      <c r="P9" s="297"/>
-      <c r="Q9" s="297"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="298"/>
+      <c r="C9" s="340"/>
+      <c r="D9" s="296"/>
+      <c r="E9" s="296"/>
+      <c r="F9" s="296"/>
+      <c r="G9" s="296"/>
+      <c r="H9" s="296"/>
+      <c r="I9" s="296"/>
+      <c r="J9" s="296"/>
+      <c r="K9" s="296"/>
+      <c r="L9" s="296"/>
+      <c r="M9" s="296"/>
+      <c r="N9" s="296"/>
+      <c r="O9" s="296"/>
+      <c r="P9" s="296"/>
+      <c r="Q9" s="296"/>
+      <c r="R9" s="296"/>
+      <c r="S9" s="297"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="674"/>
-      <c r="B10" s="366" t="s">
+      <c r="A10" s="676"/>
+      <c r="B10" s="365" t="s">
         <v>659</v>
       </c>
-      <c r="C10" s="342"/>
-      <c r="D10" s="299"/>
-      <c r="E10" s="299"/>
-      <c r="F10" s="299"/>
-      <c r="G10" s="299"/>
-      <c r="H10" s="299"/>
-      <c r="I10" s="299"/>
-      <c r="J10" s="299"/>
-      <c r="K10" s="299"/>
-      <c r="L10" s="299"/>
-      <c r="M10" s="299"/>
-      <c r="N10" s="299"/>
-      <c r="O10" s="299"/>
-      <c r="P10" s="299"/>
-      <c r="Q10" s="299"/>
-      <c r="R10" s="299"/>
-      <c r="S10" s="300"/>
+      <c r="C10" s="341"/>
+      <c r="D10" s="298"/>
+      <c r="E10" s="298"/>
+      <c r="F10" s="298"/>
+      <c r="G10" s="298"/>
+      <c r="H10" s="298"/>
+      <c r="I10" s="298"/>
+      <c r="J10" s="298"/>
+      <c r="K10" s="298"/>
+      <c r="L10" s="298"/>
+      <c r="M10" s="298"/>
+      <c r="N10" s="298"/>
+      <c r="O10" s="298"/>
+      <c r="P10" s="298"/>
+      <c r="Q10" s="298"/>
+      <c r="R10" s="298"/>
+      <c r="S10" s="299"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="675" t="str">
+      <c r="A11" s="677" t="str">
         <f>Cycles!A3</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="B11" s="367" t="s">
+      <c r="B11" s="366" t="s">
         <v>603</v>
       </c>
-      <c r="C11" s="343"/>
-      <c r="D11" s="301"/>
-      <c r="E11" s="301"/>
-      <c r="F11" s="301"/>
-      <c r="G11" s="301"/>
-      <c r="H11" s="301"/>
-      <c r="I11" s="301"/>
-      <c r="J11" s="301"/>
-      <c r="K11" s="301" t="s">
+      <c r="C11" s="342"/>
+      <c r="D11" s="300"/>
+      <c r="E11" s="300"/>
+      <c r="F11" s="300"/>
+      <c r="G11" s="300"/>
+      <c r="H11" s="300"/>
+      <c r="I11" s="300"/>
+      <c r="J11" s="300"/>
+      <c r="K11" s="300" t="s">
         <v>660</v>
       </c>
-      <c r="L11" s="301"/>
-      <c r="M11" s="301"/>
-      <c r="N11" s="301"/>
-      <c r="O11" s="301"/>
-      <c r="P11" s="301"/>
-      <c r="Q11" s="301" t="s">
+      <c r="L11" s="300"/>
+      <c r="M11" s="300"/>
+      <c r="N11" s="300"/>
+      <c r="O11" s="300"/>
+      <c r="P11" s="300"/>
+      <c r="Q11" s="300" t="s">
         <v>660</v>
       </c>
-      <c r="R11" s="301"/>
-      <c r="S11" s="302"/>
+      <c r="R11" s="300"/>
+      <c r="S11" s="301"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="676"/>
-      <c r="B12" s="368" t="s">
+      <c r="A12" s="678"/>
+      <c r="B12" s="367" t="s">
         <v>657</v>
       </c>
-      <c r="C12" s="344"/>
-      <c r="D12" s="303"/>
-      <c r="E12" s="303"/>
-      <c r="F12" s="303"/>
-      <c r="G12" s="303"/>
-      <c r="H12" s="303"/>
-      <c r="I12" s="303"/>
-      <c r="J12" s="303"/>
-      <c r="K12" s="303"/>
-      <c r="L12" s="303"/>
-      <c r="M12" s="303"/>
-      <c r="N12" s="303"/>
-      <c r="O12" s="303"/>
-      <c r="P12" s="303"/>
-      <c r="Q12" s="303"/>
-      <c r="R12" s="303"/>
-      <c r="S12" s="304"/>
+      <c r="C12" s="343"/>
+      <c r="D12" s="302"/>
+      <c r="E12" s="302"/>
+      <c r="F12" s="302"/>
+      <c r="G12" s="302"/>
+      <c r="H12" s="302"/>
+      <c r="I12" s="302"/>
+      <c r="J12" s="302"/>
+      <c r="K12" s="302"/>
+      <c r="L12" s="302"/>
+      <c r="M12" s="302"/>
+      <c r="N12" s="302"/>
+      <c r="O12" s="302"/>
+      <c r="P12" s="302"/>
+      <c r="Q12" s="302"/>
+      <c r="R12" s="302"/>
+      <c r="S12" s="303"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="676"/>
-      <c r="B13" s="368" t="s">
+      <c r="A13" s="678"/>
+      <c r="B13" s="367" t="s">
         <v>658</v>
       </c>
-      <c r="C13" s="344"/>
-      <c r="D13" s="303"/>
-      <c r="E13" s="303"/>
-      <c r="F13" s="303"/>
-      <c r="G13" s="303"/>
-      <c r="H13" s="303"/>
-      <c r="I13" s="303"/>
-      <c r="J13" s="303"/>
-      <c r="K13" s="303"/>
-      <c r="L13" s="303"/>
-      <c r="M13" s="303"/>
-      <c r="N13" s="303"/>
-      <c r="O13" s="303"/>
-      <c r="P13" s="303"/>
-      <c r="Q13" s="303"/>
-      <c r="R13" s="303"/>
-      <c r="S13" s="304"/>
+      <c r="C13" s="343"/>
+      <c r="D13" s="302"/>
+      <c r="E13" s="302"/>
+      <c r="F13" s="302"/>
+      <c r="G13" s="302"/>
+      <c r="H13" s="302"/>
+      <c r="I13" s="302"/>
+      <c r="J13" s="302"/>
+      <c r="K13" s="302"/>
+      <c r="L13" s="302"/>
+      <c r="M13" s="302"/>
+      <c r="N13" s="302"/>
+      <c r="O13" s="302"/>
+      <c r="P13" s="302"/>
+      <c r="Q13" s="302"/>
+      <c r="R13" s="302"/>
+      <c r="S13" s="303"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="677"/>
-      <c r="B14" s="369" t="s">
+      <c r="A14" s="679"/>
+      <c r="B14" s="368" t="s">
         <v>659</v>
       </c>
-      <c r="C14" s="345"/>
-      <c r="D14" s="305"/>
-      <c r="E14" s="305"/>
-      <c r="F14" s="305"/>
-      <c r="G14" s="305"/>
-      <c r="H14" s="305"/>
-      <c r="I14" s="305"/>
-      <c r="J14" s="305"/>
-      <c r="K14" s="305"/>
-      <c r="L14" s="305"/>
-      <c r="M14" s="305"/>
-      <c r="N14" s="305"/>
-      <c r="O14" s="305"/>
-      <c r="P14" s="305"/>
-      <c r="Q14" s="305"/>
-      <c r="R14" s="305"/>
-      <c r="S14" s="306"/>
+      <c r="C14" s="344"/>
+      <c r="D14" s="304"/>
+      <c r="E14" s="304"/>
+      <c r="F14" s="304"/>
+      <c r="G14" s="304"/>
+      <c r="H14" s="304"/>
+      <c r="I14" s="304"/>
+      <c r="J14" s="304"/>
+      <c r="K14" s="304"/>
+      <c r="L14" s="304"/>
+      <c r="M14" s="304"/>
+      <c r="N14" s="304"/>
+      <c r="O14" s="304"/>
+      <c r="P14" s="304"/>
+      <c r="Q14" s="304"/>
+      <c r="R14" s="304"/>
+      <c r="S14" s="305"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="678" t="str">
+      <c r="A15" s="680" t="str">
         <f>Cycles!A4</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="B15" s="370" t="s">
+      <c r="B15" s="369" t="s">
         <v>603</v>
       </c>
-      <c r="C15" s="346"/>
-      <c r="D15" s="307"/>
-      <c r="E15" s="307"/>
-      <c r="F15" s="307"/>
-      <c r="G15" s="307"/>
-      <c r="H15" s="307"/>
-      <c r="I15" s="307" t="s">
+      <c r="C15" s="345"/>
+      <c r="D15" s="306"/>
+      <c r="E15" s="306"/>
+      <c r="F15" s="306"/>
+      <c r="G15" s="306"/>
+      <c r="H15" s="306"/>
+      <c r="I15" s="306" t="s">
         <v>660</v>
       </c>
-      <c r="J15" s="307"/>
-      <c r="K15" s="307" t="s">
+      <c r="J15" s="306"/>
+      <c r="K15" s="306" t="s">
         <v>660</v>
       </c>
-      <c r="L15" s="307"/>
-      <c r="M15" s="307"/>
-      <c r="N15" s="307"/>
-      <c r="O15" s="307"/>
-      <c r="P15" s="307"/>
-      <c r="Q15" s="307"/>
-      <c r="R15" s="307"/>
-      <c r="S15" s="308"/>
+      <c r="L15" s="306"/>
+      <c r="M15" s="306"/>
+      <c r="N15" s="306"/>
+      <c r="O15" s="306"/>
+      <c r="P15" s="306"/>
+      <c r="Q15" s="306"/>
+      <c r="R15" s="306"/>
+      <c r="S15" s="307"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="679"/>
-      <c r="B16" s="371" t="s">
+      <c r="A16" s="681"/>
+      <c r="B16" s="370" t="s">
         <v>657</v>
       </c>
-      <c r="C16" s="347"/>
-      <c r="D16" s="309"/>
-      <c r="E16" s="309"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="309"/>
-      <c r="I16" s="309"/>
-      <c r="J16" s="309"/>
-      <c r="K16" s="309"/>
-      <c r="L16" s="309"/>
-      <c r="M16" s="309"/>
-      <c r="N16" s="309"/>
-      <c r="O16" s="309"/>
-      <c r="P16" s="309"/>
-      <c r="Q16" s="309"/>
-      <c r="R16" s="309"/>
-      <c r="S16" s="310"/>
+      <c r="C16" s="346"/>
+      <c r="D16" s="308"/>
+      <c r="E16" s="308"/>
+      <c r="F16" s="308"/>
+      <c r="G16" s="308"/>
+      <c r="H16" s="308"/>
+      <c r="I16" s="308"/>
+      <c r="J16" s="308"/>
+      <c r="K16" s="308"/>
+      <c r="L16" s="308"/>
+      <c r="M16" s="308"/>
+      <c r="N16" s="308"/>
+      <c r="O16" s="308"/>
+      <c r="P16" s="308"/>
+      <c r="Q16" s="308"/>
+      <c r="R16" s="308"/>
+      <c r="S16" s="309"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="679"/>
-      <c r="B17" s="371" t="s">
+      <c r="A17" s="681"/>
+      <c r="B17" s="370" t="s">
         <v>658</v>
       </c>
-      <c r="C17" s="347"/>
-      <c r="D17" s="309"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="309"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="309"/>
-      <c r="L17" s="309"/>
-      <c r="M17" s="309"/>
-      <c r="N17" s="309"/>
-      <c r="O17" s="309"/>
-      <c r="P17" s="309"/>
-      <c r="Q17" s="309"/>
-      <c r="R17" s="309"/>
-      <c r="S17" s="310"/>
+      <c r="C17" s="346"/>
+      <c r="D17" s="308"/>
+      <c r="E17" s="308"/>
+      <c r="F17" s="308"/>
+      <c r="G17" s="308"/>
+      <c r="H17" s="308"/>
+      <c r="I17" s="308"/>
+      <c r="J17" s="308"/>
+      <c r="K17" s="308"/>
+      <c r="L17" s="308"/>
+      <c r="M17" s="308"/>
+      <c r="N17" s="308"/>
+      <c r="O17" s="308"/>
+      <c r="P17" s="308"/>
+      <c r="Q17" s="308"/>
+      <c r="R17" s="308"/>
+      <c r="S17" s="309"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="680"/>
-      <c r="B18" s="372" t="s">
+      <c r="A18" s="682"/>
+      <c r="B18" s="371" t="s">
         <v>659</v>
       </c>
-      <c r="C18" s="348"/>
-      <c r="D18" s="311"/>
-      <c r="E18" s="311"/>
-      <c r="F18" s="311"/>
-      <c r="G18" s="311"/>
-      <c r="H18" s="311"/>
-      <c r="I18" s="311"/>
-      <c r="J18" s="311"/>
-      <c r="K18" s="311"/>
-      <c r="L18" s="311"/>
-      <c r="M18" s="311"/>
-      <c r="N18" s="311"/>
-      <c r="O18" s="311"/>
-      <c r="P18" s="311"/>
-      <c r="Q18" s="311"/>
-      <c r="R18" s="311"/>
-      <c r="S18" s="312"/>
+      <c r="C18" s="347"/>
+      <c r="D18" s="310"/>
+      <c r="E18" s="310"/>
+      <c r="F18" s="310"/>
+      <c r="G18" s="310"/>
+      <c r="H18" s="310"/>
+      <c r="I18" s="310"/>
+      <c r="J18" s="310"/>
+      <c r="K18" s="310"/>
+      <c r="L18" s="310"/>
+      <c r="M18" s="310"/>
+      <c r="N18" s="310"/>
+      <c r="O18" s="310"/>
+      <c r="P18" s="310"/>
+      <c r="Q18" s="310"/>
+      <c r="R18" s="310"/>
+      <c r="S18" s="311"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="681" t="str">
+      <c r="A19" s="683" t="str">
         <f>Cycles!A5</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="B19" s="373" t="s">
+      <c r="B19" s="372" t="s">
         <v>603</v>
       </c>
-      <c r="C19" s="349"/>
-      <c r="D19" s="313"/>
-      <c r="E19" s="313"/>
-      <c r="F19" s="313"/>
-      <c r="G19" s="313"/>
-      <c r="H19" s="313" t="s">
+      <c r="C19" s="348"/>
+      <c r="D19" s="312"/>
+      <c r="E19" s="312"/>
+      <c r="F19" s="312"/>
+      <c r="G19" s="312"/>
+      <c r="H19" s="312" t="s">
         <v>660</v>
       </c>
-      <c r="I19" s="313" t="s">
+      <c r="I19" s="312" t="s">
         <v>660</v>
       </c>
-      <c r="J19" s="313"/>
-      <c r="K19" s="313" t="s">
+      <c r="J19" s="312"/>
+      <c r="K19" s="312" t="s">
         <v>660</v>
       </c>
-      <c r="L19" s="313"/>
-      <c r="M19" s="313"/>
-      <c r="N19" s="313"/>
-      <c r="O19" s="313"/>
-      <c r="P19" s="313"/>
-      <c r="Q19" s="313"/>
-      <c r="R19" s="313"/>
-      <c r="S19" s="314"/>
+      <c r="L19" s="312"/>
+      <c r="M19" s="312"/>
+      <c r="N19" s="312"/>
+      <c r="O19" s="312"/>
+      <c r="P19" s="312"/>
+      <c r="Q19" s="312"/>
+      <c r="R19" s="312"/>
+      <c r="S19" s="313"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="682"/>
-      <c r="B20" s="374" t="s">
+      <c r="A20" s="684"/>
+      <c r="B20" s="373" t="s">
         <v>657</v>
       </c>
-      <c r="C20" s="350"/>
-      <c r="D20" s="315"/>
-      <c r="E20" s="315"/>
-      <c r="F20" s="315"/>
-      <c r="G20" s="315"/>
-      <c r="H20" s="315"/>
-      <c r="I20" s="315"/>
-      <c r="J20" s="315"/>
-      <c r="K20" s="315"/>
-      <c r="L20" s="315"/>
-      <c r="M20" s="315"/>
-      <c r="N20" s="315"/>
-      <c r="O20" s="315"/>
-      <c r="P20" s="315"/>
-      <c r="Q20" s="315"/>
-      <c r="R20" s="315"/>
-      <c r="S20" s="316"/>
+      <c r="C20" s="349"/>
+      <c r="D20" s="314"/>
+      <c r="E20" s="314"/>
+      <c r="F20" s="314"/>
+      <c r="G20" s="314"/>
+      <c r="H20" s="314"/>
+      <c r="I20" s="314"/>
+      <c r="J20" s="314"/>
+      <c r="K20" s="314"/>
+      <c r="L20" s="314"/>
+      <c r="M20" s="314"/>
+      <c r="N20" s="314"/>
+      <c r="O20" s="314"/>
+      <c r="P20" s="314"/>
+      <c r="Q20" s="314"/>
+      <c r="R20" s="314"/>
+      <c r="S20" s="315"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="682"/>
-      <c r="B21" s="374" t="s">
+      <c r="A21" s="684"/>
+      <c r="B21" s="373" t="s">
         <v>658</v>
       </c>
-      <c r="C21" s="350"/>
-      <c r="D21" s="315"/>
-      <c r="E21" s="315"/>
-      <c r="F21" s="315"/>
-      <c r="G21" s="315"/>
-      <c r="H21" s="315"/>
-      <c r="I21" s="315"/>
-      <c r="J21" s="315"/>
-      <c r="K21" s="315"/>
-      <c r="L21" s="315"/>
-      <c r="M21" s="315"/>
-      <c r="N21" s="315"/>
-      <c r="O21" s="315"/>
-      <c r="P21" s="315"/>
-      <c r="Q21" s="315"/>
-      <c r="R21" s="315"/>
-      <c r="S21" s="316"/>
+      <c r="C21" s="349"/>
+      <c r="D21" s="314"/>
+      <c r="E21" s="314"/>
+      <c r="F21" s="314"/>
+      <c r="G21" s="314"/>
+      <c r="H21" s="314"/>
+      <c r="I21" s="314"/>
+      <c r="J21" s="314"/>
+      <c r="K21" s="314"/>
+      <c r="L21" s="314"/>
+      <c r="M21" s="314"/>
+      <c r="N21" s="314"/>
+      <c r="O21" s="314"/>
+      <c r="P21" s="314"/>
+      <c r="Q21" s="314"/>
+      <c r="R21" s="314"/>
+      <c r="S21" s="315"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="683"/>
-      <c r="B22" s="375" t="s">
+      <c r="A22" s="685"/>
+      <c r="B22" s="374" t="s">
         <v>659</v>
       </c>
-      <c r="C22" s="351"/>
-      <c r="D22" s="317"/>
-      <c r="E22" s="317"/>
-      <c r="F22" s="317"/>
-      <c r="G22" s="317"/>
-      <c r="H22" s="317"/>
-      <c r="I22" s="317"/>
-      <c r="J22" s="317"/>
-      <c r="K22" s="317"/>
-      <c r="L22" s="317"/>
-      <c r="M22" s="317"/>
-      <c r="N22" s="317"/>
-      <c r="O22" s="317"/>
-      <c r="P22" s="317"/>
-      <c r="Q22" s="317"/>
-      <c r="R22" s="317"/>
-      <c r="S22" s="318"/>
+      <c r="C22" s="350"/>
+      <c r="D22" s="316"/>
+      <c r="E22" s="316"/>
+      <c r="F22" s="316"/>
+      <c r="G22" s="316"/>
+      <c r="H22" s="316"/>
+      <c r="I22" s="316"/>
+      <c r="J22" s="316"/>
+      <c r="K22" s="316"/>
+      <c r="L22" s="316"/>
+      <c r="M22" s="316"/>
+      <c r="N22" s="316"/>
+      <c r="O22" s="316"/>
+      <c r="P22" s="316"/>
+      <c r="Q22" s="316"/>
+      <c r="R22" s="316"/>
+      <c r="S22" s="317"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="684" t="str">
+      <c r="A23" s="686" t="str">
         <f>Cycles!A6</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="B23" s="376" t="s">
+      <c r="B23" s="375" t="s">
         <v>603</v>
       </c>
-      <c r="C23" s="352"/>
-      <c r="D23" s="319"/>
-      <c r="E23" s="319"/>
-      <c r="F23" s="319"/>
-      <c r="G23" s="319"/>
-      <c r="H23" s="319"/>
-      <c r="I23" s="319"/>
-      <c r="J23" s="319"/>
-      <c r="K23" s="319" t="s">
+      <c r="C23" s="351"/>
+      <c r="D23" s="318"/>
+      <c r="E23" s="318"/>
+      <c r="F23" s="318"/>
+      <c r="G23" s="318"/>
+      <c r="H23" s="318"/>
+      <c r="I23" s="318"/>
+      <c r="J23" s="318"/>
+      <c r="K23" s="318" t="s">
         <v>660</v>
       </c>
-      <c r="L23" s="319" t="s">
+      <c r="L23" s="318" t="s">
         <v>660</v>
       </c>
-      <c r="M23" s="319"/>
-      <c r="N23" s="319"/>
-      <c r="O23" s="319"/>
-      <c r="P23" s="319"/>
-      <c r="Q23" s="319"/>
-      <c r="R23" s="319"/>
-      <c r="S23" s="320"/>
+      <c r="M23" s="318"/>
+      <c r="N23" s="318"/>
+      <c r="O23" s="318"/>
+      <c r="P23" s="318"/>
+      <c r="Q23" s="318"/>
+      <c r="R23" s="318"/>
+      <c r="S23" s="319"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="685"/>
-      <c r="B24" s="377" t="s">
+      <c r="A24" s="687"/>
+      <c r="B24" s="376" t="s">
         <v>657</v>
       </c>
-      <c r="C24" s="353"/>
-      <c r="D24" s="321"/>
-      <c r="E24" s="321"/>
-      <c r="F24" s="321"/>
-      <c r="G24" s="321"/>
-      <c r="H24" s="321"/>
-      <c r="I24" s="321"/>
-      <c r="J24" s="321"/>
-      <c r="K24" s="321"/>
-      <c r="L24" s="321"/>
-      <c r="M24" s="321"/>
-      <c r="N24" s="321"/>
-      <c r="O24" s="321"/>
-      <c r="P24" s="321"/>
-      <c r="Q24" s="321"/>
-      <c r="R24" s="321"/>
-      <c r="S24" s="322"/>
+      <c r="C24" s="352"/>
+      <c r="D24" s="320"/>
+      <c r="E24" s="320"/>
+      <c r="F24" s="320"/>
+      <c r="G24" s="320"/>
+      <c r="H24" s="320"/>
+      <c r="I24" s="320"/>
+      <c r="J24" s="320"/>
+      <c r="K24" s="320"/>
+      <c r="L24" s="320"/>
+      <c r="M24" s="320"/>
+      <c r="N24" s="320"/>
+      <c r="O24" s="320"/>
+      <c r="P24" s="320"/>
+      <c r="Q24" s="320"/>
+      <c r="R24" s="320"/>
+      <c r="S24" s="321"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="685"/>
-      <c r="B25" s="377" t="s">
+      <c r="A25" s="687"/>
+      <c r="B25" s="376" t="s">
         <v>658</v>
       </c>
-      <c r="C25" s="353"/>
-      <c r="D25" s="321"/>
-      <c r="E25" s="321"/>
-      <c r="F25" s="321"/>
-      <c r="G25" s="321"/>
-      <c r="H25" s="321"/>
-      <c r="I25" s="321"/>
-      <c r="J25" s="321"/>
-      <c r="K25" s="321"/>
-      <c r="L25" s="321"/>
-      <c r="M25" s="321"/>
-      <c r="N25" s="321"/>
-      <c r="O25" s="321"/>
-      <c r="P25" s="321"/>
-      <c r="Q25" s="321"/>
-      <c r="R25" s="321"/>
-      <c r="S25" s="322"/>
+      <c r="C25" s="352"/>
+      <c r="D25" s="320"/>
+      <c r="E25" s="320"/>
+      <c r="F25" s="320"/>
+      <c r="G25" s="320"/>
+      <c r="H25" s="320"/>
+      <c r="I25" s="320"/>
+      <c r="J25" s="320"/>
+      <c r="K25" s="320"/>
+      <c r="L25" s="320"/>
+      <c r="M25" s="320"/>
+      <c r="N25" s="320"/>
+      <c r="O25" s="320"/>
+      <c r="P25" s="320"/>
+      <c r="Q25" s="320"/>
+      <c r="R25" s="320"/>
+      <c r="S25" s="321"/>
     </row>
     <row r="26" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="686"/>
-      <c r="B26" s="378" t="s">
+      <c r="A26" s="688"/>
+      <c r="B26" s="377" t="s">
         <v>659</v>
       </c>
-      <c r="C26" s="354"/>
-      <c r="D26" s="323"/>
-      <c r="E26" s="323"/>
-      <c r="F26" s="323"/>
-      <c r="G26" s="323"/>
-      <c r="H26" s="323"/>
-      <c r="I26" s="323"/>
-      <c r="J26" s="323"/>
-      <c r="K26" s="323"/>
-      <c r="L26" s="323"/>
-      <c r="M26" s="323"/>
-      <c r="N26" s="323"/>
-      <c r="O26" s="323"/>
-      <c r="P26" s="323"/>
-      <c r="Q26" s="323"/>
-      <c r="R26" s="323"/>
-      <c r="S26" s="324"/>
+      <c r="C26" s="353"/>
+      <c r="D26" s="322"/>
+      <c r="E26" s="322"/>
+      <c r="F26" s="322"/>
+      <c r="G26" s="322"/>
+      <c r="H26" s="322"/>
+      <c r="I26" s="322"/>
+      <c r="J26" s="322"/>
+      <c r="K26" s="322"/>
+      <c r="L26" s="322"/>
+      <c r="M26" s="322"/>
+      <c r="N26" s="322"/>
+      <c r="O26" s="322"/>
+      <c r="P26" s="322"/>
+      <c r="Q26" s="322"/>
+      <c r="R26" s="322"/>
+      <c r="S26" s="323"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="662" t="str">
+      <c r="A27" s="664" t="str">
         <f>Cycles!A7</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="B27" s="379" t="s">
+      <c r="B27" s="378" t="s">
         <v>603</v>
       </c>
-      <c r="C27" s="355"/>
-      <c r="D27" s="325"/>
-      <c r="E27" s="325"/>
-      <c r="F27" s="325"/>
-      <c r="G27" s="325"/>
-      <c r="H27" s="325"/>
-      <c r="I27" s="325" t="s">
+      <c r="C27" s="354"/>
+      <c r="D27" s="324"/>
+      <c r="E27" s="324"/>
+      <c r="F27" s="324"/>
+      <c r="G27" s="324"/>
+      <c r="H27" s="324"/>
+      <c r="I27" s="324" t="s">
         <v>660</v>
       </c>
-      <c r="J27" s="325"/>
-      <c r="K27" s="325"/>
-      <c r="L27" s="325" t="s">
+      <c r="J27" s="324"/>
+      <c r="K27" s="324"/>
+      <c r="L27" s="324" t="s">
         <v>660</v>
       </c>
-      <c r="M27" s="325"/>
-      <c r="N27" s="325"/>
-      <c r="O27" s="325"/>
-      <c r="P27" s="325"/>
-      <c r="Q27" s="325"/>
-      <c r="R27" s="325"/>
-      <c r="S27" s="326"/>
+      <c r="M27" s="324"/>
+      <c r="N27" s="324"/>
+      <c r="O27" s="324"/>
+      <c r="P27" s="324"/>
+      <c r="Q27" s="324"/>
+      <c r="R27" s="324"/>
+      <c r="S27" s="325"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="663"/>
-      <c r="B28" s="380" t="s">
+      <c r="A28" s="665"/>
+      <c r="B28" s="379" t="s">
         <v>657</v>
       </c>
-      <c r="C28" s="356"/>
-      <c r="D28" s="327"/>
-      <c r="E28" s="327"/>
-      <c r="F28" s="327"/>
-      <c r="G28" s="327"/>
-      <c r="H28" s="327"/>
-      <c r="I28" s="327"/>
-      <c r="J28" s="327"/>
-      <c r="K28" s="327"/>
-      <c r="L28" s="327"/>
-      <c r="M28" s="327"/>
-      <c r="N28" s="327"/>
-      <c r="O28" s="327"/>
-      <c r="P28" s="327"/>
-      <c r="Q28" s="327"/>
-      <c r="R28" s="327"/>
-      <c r="S28" s="328"/>
+      <c r="C28" s="355"/>
+      <c r="D28" s="326"/>
+      <c r="E28" s="326"/>
+      <c r="F28" s="326"/>
+      <c r="G28" s="326"/>
+      <c r="H28" s="326"/>
+      <c r="I28" s="326"/>
+      <c r="J28" s="326"/>
+      <c r="K28" s="326"/>
+      <c r="L28" s="326"/>
+      <c r="M28" s="326"/>
+      <c r="N28" s="326"/>
+      <c r="O28" s="326"/>
+      <c r="P28" s="326"/>
+      <c r="Q28" s="326"/>
+      <c r="R28" s="326"/>
+      <c r="S28" s="327"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="663"/>
-      <c r="B29" s="380" t="s">
+      <c r="A29" s="665"/>
+      <c r="B29" s="379" t="s">
         <v>658</v>
       </c>
-      <c r="C29" s="356"/>
-      <c r="D29" s="327"/>
-      <c r="E29" s="327"/>
-      <c r="F29" s="327"/>
-      <c r="G29" s="327"/>
-      <c r="H29" s="327"/>
-      <c r="I29" s="327"/>
-      <c r="J29" s="327"/>
-      <c r="K29" s="327"/>
-      <c r="L29" s="327"/>
-      <c r="M29" s="327"/>
-      <c r="N29" s="327"/>
-      <c r="O29" s="327"/>
-      <c r="P29" s="327"/>
-      <c r="Q29" s="327"/>
-      <c r="R29" s="327"/>
-      <c r="S29" s="328"/>
+      <c r="C29" s="355"/>
+      <c r="D29" s="326"/>
+      <c r="E29" s="326"/>
+      <c r="F29" s="326"/>
+      <c r="G29" s="326"/>
+      <c r="H29" s="326"/>
+      <c r="I29" s="326"/>
+      <c r="J29" s="326"/>
+      <c r="K29" s="326"/>
+      <c r="L29" s="326"/>
+      <c r="M29" s="326"/>
+      <c r="N29" s="326"/>
+      <c r="O29" s="326"/>
+      <c r="P29" s="326"/>
+      <c r="Q29" s="326"/>
+      <c r="R29" s="326"/>
+      <c r="S29" s="327"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="664"/>
-      <c r="B30" s="381" t="s">
+      <c r="A30" s="666"/>
+      <c r="B30" s="380" t="s">
         <v>659</v>
       </c>
-      <c r="C30" s="357"/>
-      <c r="D30" s="329"/>
-      <c r="E30" s="329"/>
-      <c r="F30" s="329"/>
-      <c r="G30" s="329"/>
-      <c r="H30" s="329"/>
-      <c r="I30" s="329"/>
-      <c r="J30" s="329"/>
-      <c r="K30" s="329"/>
-      <c r="L30" s="329"/>
-      <c r="M30" s="329"/>
-      <c r="N30" s="329"/>
-      <c r="O30" s="329"/>
-      <c r="P30" s="329"/>
-      <c r="Q30" s="329"/>
-      <c r="R30" s="329"/>
-      <c r="S30" s="330"/>
+      <c r="C30" s="356"/>
+      <c r="D30" s="328"/>
+      <c r="E30" s="328"/>
+      <c r="F30" s="328"/>
+      <c r="G30" s="328"/>
+      <c r="H30" s="328"/>
+      <c r="I30" s="328"/>
+      <c r="J30" s="328"/>
+      <c r="K30" s="328"/>
+      <c r="L30" s="328"/>
+      <c r="M30" s="328"/>
+      <c r="N30" s="328"/>
+      <c r="O30" s="328"/>
+      <c r="P30" s="328"/>
+      <c r="Q30" s="328"/>
+      <c r="R30" s="328"/>
+      <c r="S30" s="329"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="665" t="str">
+      <c r="A31" s="667" t="str">
         <f>Cycles!A8</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="B31" s="382" t="s">
+      <c r="B31" s="381" t="s">
         <v>603</v>
       </c>
-      <c r="C31" s="358"/>
-      <c r="D31" s="331"/>
-      <c r="E31" s="331"/>
-      <c r="F31" s="331"/>
-      <c r="G31" s="331"/>
-      <c r="H31" s="331"/>
-      <c r="I31" s="331"/>
-      <c r="J31" s="331"/>
-      <c r="K31" s="331"/>
-      <c r="L31" s="331"/>
-      <c r="M31" s="331"/>
-      <c r="N31" s="331"/>
-      <c r="O31" s="331" t="s">
+      <c r="C31" s="357"/>
+      <c r="D31" s="330"/>
+      <c r="E31" s="330"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="330"/>
+      <c r="J31" s="330"/>
+      <c r="K31" s="330"/>
+      <c r="L31" s="330"/>
+      <c r="M31" s="330"/>
+      <c r="N31" s="330"/>
+      <c r="O31" s="330" t="s">
         <v>660</v>
       </c>
-      <c r="P31" s="331" t="s">
+      <c r="P31" s="330" t="s">
         <v>660</v>
       </c>
-      <c r="Q31" s="331"/>
-      <c r="R31" s="331"/>
-      <c r="S31" s="332"/>
+      <c r="Q31" s="330"/>
+      <c r="R31" s="330"/>
+      <c r="S31" s="331"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="666"/>
-      <c r="B32" s="383" t="s">
+      <c r="A32" s="668"/>
+      <c r="B32" s="382" t="s">
         <v>657</v>
       </c>
-      <c r="C32" s="359"/>
-      <c r="D32" s="333"/>
-      <c r="E32" s="333"/>
-      <c r="F32" s="333"/>
-      <c r="G32" s="333"/>
-      <c r="H32" s="333"/>
-      <c r="I32" s="333"/>
-      <c r="J32" s="333"/>
-      <c r="K32" s="333"/>
-      <c r="L32" s="333"/>
-      <c r="M32" s="333"/>
-      <c r="N32" s="333"/>
-      <c r="O32" s="333"/>
-      <c r="P32" s="333"/>
-      <c r="Q32" s="333"/>
-      <c r="R32" s="333"/>
-      <c r="S32" s="334"/>
+      <c r="C32" s="358"/>
+      <c r="D32" s="332"/>
+      <c r="E32" s="332"/>
+      <c r="F32" s="332"/>
+      <c r="G32" s="332"/>
+      <c r="H32" s="332"/>
+      <c r="I32" s="332"/>
+      <c r="J32" s="332"/>
+      <c r="K32" s="332"/>
+      <c r="L32" s="332"/>
+      <c r="M32" s="332"/>
+      <c r="N32" s="332"/>
+      <c r="O32" s="332"/>
+      <c r="P32" s="332"/>
+      <c r="Q32" s="332"/>
+      <c r="R32" s="332"/>
+      <c r="S32" s="333"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="666"/>
-      <c r="B33" s="383" t="s">
+      <c r="A33" s="668"/>
+      <c r="B33" s="382" t="s">
         <v>658</v>
       </c>
-      <c r="C33" s="359"/>
-      <c r="D33" s="333"/>
-      <c r="E33" s="333"/>
-      <c r="F33" s="333"/>
-      <c r="G33" s="333"/>
-      <c r="H33" s="333"/>
-      <c r="I33" s="333"/>
-      <c r="J33" s="333"/>
-      <c r="K33" s="333"/>
-      <c r="L33" s="333"/>
-      <c r="M33" s="333"/>
-      <c r="N33" s="333"/>
-      <c r="O33" s="333"/>
-      <c r="P33" s="333"/>
-      <c r="Q33" s="333"/>
-      <c r="R33" s="333"/>
-      <c r="S33" s="334"/>
+      <c r="C33" s="358"/>
+      <c r="D33" s="332"/>
+      <c r="E33" s="332"/>
+      <c r="F33" s="332"/>
+      <c r="G33" s="332"/>
+      <c r="H33" s="332"/>
+      <c r="I33" s="332"/>
+      <c r="J33" s="332"/>
+      <c r="K33" s="332"/>
+      <c r="L33" s="332"/>
+      <c r="M33" s="332"/>
+      <c r="N33" s="332"/>
+      <c r="O33" s="332"/>
+      <c r="P33" s="332"/>
+      <c r="Q33" s="332"/>
+      <c r="R33" s="332"/>
+      <c r="S33" s="333"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="667"/>
-      <c r="B34" s="384" t="s">
+      <c r="A34" s="669"/>
+      <c r="B34" s="383" t="s">
         <v>659</v>
       </c>
-      <c r="C34" s="360"/>
-      <c r="D34" s="335"/>
-      <c r="E34" s="335"/>
-      <c r="F34" s="335"/>
-      <c r="G34" s="335"/>
-      <c r="H34" s="335"/>
-      <c r="I34" s="335"/>
-      <c r="J34" s="335"/>
-      <c r="K34" s="335"/>
-      <c r="L34" s="335"/>
-      <c r="M34" s="335"/>
-      <c r="N34" s="335"/>
-      <c r="O34" s="335"/>
-      <c r="P34" s="335"/>
-      <c r="Q34" s="335"/>
-      <c r="R34" s="335"/>
-      <c r="S34" s="336"/>
+      <c r="C34" s="359"/>
+      <c r="D34" s="334"/>
+      <c r="E34" s="334"/>
+      <c r="F34" s="334"/>
+      <c r="G34" s="334"/>
+      <c r="H34" s="334"/>
+      <c r="I34" s="334"/>
+      <c r="J34" s="334"/>
+      <c r="K34" s="334"/>
+      <c r="L34" s="334"/>
+      <c r="M34" s="334"/>
+      <c r="N34" s="334"/>
+      <c r="O34" s="334"/>
+      <c r="P34" s="334"/>
+      <c r="Q34" s="334"/>
+      <c r="R34" s="334"/>
+      <c r="S34" s="335"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="C35" s="289">
+      <c r="C35" s="288">
         <f>COUNTIF(C3:C34,"x")</f>
         <v>0</v>
       </c>
-      <c r="D35" s="289">
+      <c r="D35" s="288">
         <f t="shared" ref="D35:S35" si="0">COUNTIF(D3:D34,"x")</f>
         <v>0</v>
       </c>
-      <c r="E35" s="289">
+      <c r="E35" s="288">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F35" s="289">
+      <c r="F35" s="288">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G35" s="289">
+      <c r="G35" s="288">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="289">
+      <c r="H35" s="288">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="I35" s="289">
+      <c r="I35" s="288">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J35" s="289">
+      <c r="J35" s="288">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K35" s="289">
+      <c r="K35" s="288">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="L35" s="289">
+      <c r="L35" s="288">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M35" s="289">
+      <c r="M35" s="288">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N35" s="289">
+      <c r="N35" s="288">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O35" s="289">
+      <c r="O35" s="288">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="P35" s="289">
+      <c r="P35" s="288">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="289">
+      <c r="Q35" s="288">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="R35" s="289">
+      <c r="R35" s="288">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S35" s="289">
+      <c r="S35" s="288">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -11094,10 +11099,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="695" t="s">
+      <c r="G10" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="696" t="s">
+      <c r="H10" s="692" t="s">
         <v>430</v>
       </c>
     </row>
@@ -11117,8 +11122,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="695"/>
-      <c r="H11" s="696"/>
+      <c r="G11" s="691"/>
+      <c r="H11" s="692"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -11136,8 +11141,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="695"/>
-      <c r="H12" s="696"/>
+      <c r="G12" s="691"/>
+      <c r="H12" s="692"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -11155,8 +11160,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="695"/>
-      <c r="H13" s="696"/>
+      <c r="G13" s="691"/>
+      <c r="H13" s="692"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -11174,10 +11179,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="699" t="s">
+      <c r="G14" s="695" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="699" t="s">
+      <c r="H14" s="695" t="s">
         <v>446</v>
       </c>
     </row>
@@ -11197,8 +11202,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="699"/>
-      <c r="H15" s="699"/>
+      <c r="G15" s="695"/>
+      <c r="H15" s="695"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -11310,10 +11315,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="688" t="s">
+      <c r="G22" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="689" t="s">
+      <c r="H22" s="697" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11328,8 +11333,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="688"/>
-      <c r="H23" s="689"/>
+      <c r="G23" s="689"/>
+      <c r="H23" s="697"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -11342,7 +11347,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="688"/>
+      <c r="G24" s="689"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11356,7 +11361,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="688"/>
+      <c r="G25" s="689"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11375,7 +11380,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="688"/>
+      <c r="G26" s="689"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11394,7 +11399,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="688"/>
+      <c r="G27" s="689"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11413,7 +11418,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="688"/>
+      <c r="G28" s="689"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11426,7 +11431,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="688"/>
+      <c r="G29" s="689"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11435,7 +11440,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="688"/>
+      <c r="G30" s="689"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
@@ -11447,7 +11452,7 @@
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="688"/>
+      <c r="G31" s="689"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11466,7 +11471,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="688"/>
+      <c r="G32" s="689"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -11522,10 +11527,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="697" t="s">
+      <c r="G35" s="693" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="698" t="s">
+      <c r="H35" s="694" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11544,8 +11549,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="697"/>
-      <c r="H36" s="698"/>
+      <c r="G36" s="693"/>
+      <c r="H36" s="694"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -11562,8 +11567,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="697"/>
-      <c r="H37" s="698"/>
+      <c r="G37" s="693"/>
+      <c r="H37" s="694"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -11576,8 +11581,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="697"/>
-      <c r="H38" s="698"/>
+      <c r="G38" s="693"/>
+      <c r="H38" s="694"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -11590,8 +11595,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="697"/>
-      <c r="H39" s="698"/>
+      <c r="G39" s="693"/>
+      <c r="H39" s="694"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -11674,7 +11679,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="693"/>
+      <c r="H44" s="701"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -11687,10 +11692,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="691" t="s">
+      <c r="G45" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="693"/>
+      <c r="H45" s="701"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -11708,7 +11713,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="691"/>
+      <c r="G46" s="699"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -11748,8 +11753,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="690"/>
-      <c r="G49" s="690" t="s">
+      <c r="F49" s="698"/>
+      <c r="G49" s="698" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -11764,8 +11769,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="690"/>
-      <c r="G50" s="690"/>
+      <c r="F50" s="698"/>
+      <c r="G50" s="698"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -11778,8 +11783,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="690"/>
-      <c r="G51" s="690"/>
+      <c r="F51" s="698"/>
+      <c r="G51" s="698"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11840,10 +11845,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="700" t="s">
+      <c r="G55" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="692" t="s">
+      <c r="H55" s="700" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11858,8 +11863,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="700"/>
-      <c r="H56" s="692"/>
+      <c r="G56" s="690"/>
+      <c r="H56" s="700"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -11872,8 +11877,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="700"/>
-      <c r="H57" s="692"/>
+      <c r="G57" s="690"/>
+      <c r="H57" s="700"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -11891,8 +11896,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="700"/>
-      <c r="H58" s="692"/>
+      <c r="G58" s="690"/>
+      <c r="H58" s="700"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -12058,10 +12063,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="688" t="s">
+      <c r="G72" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="694"/>
+      <c r="H72" s="702"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -12071,8 +12076,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="688"/>
-      <c r="H73" s="694"/>
+      <c r="G73" s="689"/>
+      <c r="H73" s="702"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -12082,8 +12087,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="688"/>
-      <c r="H74" s="694"/>
+      <c r="G74" s="689"/>
+      <c r="H74" s="702"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -12093,8 +12098,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="688"/>
-      <c r="H75" s="694"/>
+      <c r="G75" s="689"/>
+      <c r="H75" s="702"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -12104,8 +12109,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="688"/>
-      <c r="H76" s="694"/>
+      <c r="G76" s="689"/>
+      <c r="H76" s="702"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -12243,10 +12248,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="688" t="s">
+      <c r="G94" s="689" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="687" t="s">
+      <c r="H94" s="696" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12257,8 +12262,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="688"/>
-      <c r="H95" s="687"/>
+      <c r="G95" s="689"/>
+      <c r="H95" s="696"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -12267,8 +12272,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="688"/>
-      <c r="H96" s="687"/>
+      <c r="G96" s="689"/>
+      <c r="H96" s="696"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -12283,7 +12288,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="688" t="s">
+      <c r="G97" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12294,7 +12299,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="688"/>
+      <c r="G98" s="689"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -12303,7 +12308,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="688"/>
+      <c r="G99" s="689"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -12318,7 +12323,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="688" t="s">
+      <c r="G100" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12330,7 +12335,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="688"/>
+      <c r="G101" s="689"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -12340,7 +12345,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="688"/>
+      <c r="G102" s="689"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -12350,7 +12355,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="688"/>
+      <c r="G103" s="689"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -12409,7 +12414,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="688" t="s">
+      <c r="G117" s="689" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -12421,7 +12426,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="688"/>
+      <c r="G118" s="689"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -12437,7 +12442,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="688" t="s">
+      <c r="G119" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12448,7 +12453,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="688"/>
+      <c r="G120" s="689"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -12482,7 +12487,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="688" t="s">
+      <c r="G126" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12493,7 +12498,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="688"/>
+      <c r="G127" s="689"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -12519,7 +12524,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="688" t="s">
+      <c r="G130" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12531,7 +12536,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="688"/>
+      <c r="G131" s="689"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -12555,7 +12560,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="688" t="s">
+      <c r="G134" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12566,7 +12571,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="688"/>
+      <c r="G135" s="689"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -12575,7 +12580,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="688"/>
+      <c r="G136" s="689"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -12606,13 +12611,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="688" t="s">
+      <c r="G140" s="689" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="688"/>
+      <c r="G141" s="689"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -12631,7 +12636,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="688"/>
+      <c r="G142" s="689"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12648,7 +12653,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="688"/>
+      <c r="G143" s="689"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12665,11 +12670,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="688"/>
+      <c r="G144" s="689"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="688"/>
+      <c r="G145" s="689"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -12721,7 +12726,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="688" t="s">
+      <c r="G152" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12732,7 +12737,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="688"/>
+      <c r="G153" s="689"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -12743,22 +12748,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G140:G145"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H94:H96"/>
     <mergeCell ref="G97:G99"/>
     <mergeCell ref="G22:G32"/>
@@ -12770,6 +12759,22 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G140:G145"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12895,10 +12900,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="688" t="s">
+      <c r="G13" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="694"/>
+      <c r="H13" s="702"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -12908,8 +12913,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="688"/>
-      <c r="H14" s="694"/>
+      <c r="G14" s="689"/>
+      <c r="H14" s="702"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -12919,8 +12924,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="688"/>
-      <c r="H15" s="694"/>
+      <c r="G15" s="689"/>
+      <c r="H15" s="702"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -12930,8 +12935,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="688"/>
-      <c r="H16" s="694"/>
+      <c r="G16" s="689"/>
+      <c r="H16" s="702"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -12941,8 +12946,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="688"/>
-      <c r="H17" s="694"/>
+      <c r="G17" s="689"/>
+      <c r="H17" s="702"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -12965,10 +12970,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="688" t="s">
+      <c r="G20" s="689" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="687" t="s">
+      <c r="H20" s="696" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12979,8 +12984,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="688"/>
-      <c r="H21" s="687"/>
+      <c r="G21" s="689"/>
+      <c r="H21" s="696"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -12989,8 +12994,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="688"/>
-      <c r="H22" s="687"/>
+      <c r="G22" s="689"/>
+      <c r="H22" s="696"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -13005,7 +13010,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="688" t="s">
+      <c r="G23" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13016,7 +13021,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="688"/>
+      <c r="G24" s="689"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -13025,7 +13030,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="688"/>
+      <c r="G25" s="689"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -13040,7 +13045,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="688" t="s">
+      <c r="G26" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13052,7 +13057,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="688"/>
+      <c r="G27" s="689"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -13062,7 +13067,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="688"/>
+      <c r="G28" s="689"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -13072,7 +13077,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="688"/>
+      <c r="G29" s="689"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -13125,10 +13130,10 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="688" t="s">
+      <c r="G37" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="701" t="s">
+      <c r="H37" s="704" t="s">
         <v>89</v>
       </c>
     </row>
@@ -13145,8 +13150,8 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="688"/>
-      <c r="H38" s="701"/>
+      <c r="G38" s="689"/>
+      <c r="H38" s="704"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
@@ -13161,8 +13166,8 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="688"/>
-      <c r="H39" s="701"/>
+      <c r="G39" s="689"/>
+      <c r="H39" s="704"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
@@ -13172,8 +13177,8 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="688"/>
-      <c r="H40" s="701"/>
+      <c r="G40" s="689"/>
+      <c r="H40" s="704"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
@@ -13183,8 +13188,8 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="688"/>
-      <c r="H41" s="701"/>
+      <c r="G41" s="689"/>
+      <c r="H41" s="704"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
@@ -13214,7 +13219,7 @@
       <c r="G46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="694" t="s">
+      <c r="H46" s="702" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13226,10 +13231,10 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="688" t="s">
+      <c r="G47" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="694"/>
+      <c r="H47" s="702"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
@@ -13239,7 +13244,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="688"/>
+      <c r="G48" s="689"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -13250,7 +13255,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="688"/>
+      <c r="G49" s="689"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -13278,10 +13283,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="688" t="s">
+      <c r="G54" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="687" t="s">
+      <c r="H54" s="696" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13292,8 +13297,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="688"/>
-      <c r="H55" s="687"/>
+      <c r="G55" s="689"/>
+      <c r="H55" s="696"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -13302,7 +13307,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="688"/>
+      <c r="G56" s="689"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -13312,7 +13317,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="688"/>
+      <c r="G57" s="689"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13329,7 +13334,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="688"/>
+      <c r="G58" s="689"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13346,7 +13351,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="688"/>
+      <c r="G59" s="689"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -13366,8 +13371,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="688"/>
-      <c r="G61" s="688" t="s">
+      <c r="F61" s="689"/>
+      <c r="G61" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13378,8 +13383,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="688"/>
-      <c r="G62" s="688"/>
+      <c r="F62" s="689"/>
+      <c r="G62" s="689"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -13388,8 +13393,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="688"/>
-      <c r="G63" s="688"/>
+      <c r="F63" s="689"/>
+      <c r="G63" s="689"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -13454,7 +13459,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="688" t="s">
+      <c r="G68" s="689" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -13466,7 +13471,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="688"/>
+      <c r="G69" s="689"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -13482,7 +13487,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="688" t="s">
+      <c r="G70" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13493,7 +13498,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="688"/>
+      <c r="G71" s="689"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -13520,10 +13525,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="688" t="s">
+      <c r="G75" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="694" t="s">
+      <c r="H75" s="702" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13541,8 +13546,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="688"/>
-      <c r="H76" s="694"/>
+      <c r="G76" s="689"/>
+      <c r="H76" s="702"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -13558,8 +13563,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="688"/>
-      <c r="H77" s="694"/>
+      <c r="G77" s="689"/>
+      <c r="H77" s="702"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -13594,10 +13599,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="688" t="s">
+      <c r="G81" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="687" t="s">
+      <c r="H81" s="696" t="s">
         <v>430</v>
       </c>
     </row>
@@ -13615,8 +13620,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="688"/>
-      <c r="H82" s="687"/>
+      <c r="G82" s="689"/>
+      <c r="H82" s="696"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -13632,8 +13637,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="688"/>
-      <c r="H83" s="687"/>
+      <c r="G83" s="689"/>
+      <c r="H83" s="696"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -13649,8 +13654,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="688"/>
-      <c r="H84" s="687"/>
+      <c r="G84" s="689"/>
+      <c r="H84" s="696"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -13666,10 +13671,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="694" t="s">
+      <c r="G85" s="702" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="694" t="s">
+      <c r="H85" s="702" t="s">
         <v>446</v>
       </c>
     </row>
@@ -13687,8 +13692,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="694"/>
-      <c r="H86" s="694"/>
+      <c r="G86" s="702"/>
+      <c r="H86" s="702"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -13720,10 +13725,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="688" t="s">
+      <c r="F89" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="702" t="s">
+      <c r="H89" s="703" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13734,8 +13739,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="688"/>
-      <c r="H90" s="702"/>
+      <c r="F90" s="689"/>
+      <c r="H90" s="703"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -13745,8 +13750,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="688"/>
-      <c r="H91" s="702"/>
+      <c r="F91" s="689"/>
+      <c r="H91" s="703"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -13762,8 +13767,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="688"/>
-      <c r="H92" s="702"/>
+      <c r="F92" s="689"/>
+      <c r="H92" s="703"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -13779,10 +13784,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="688" t="s">
+      <c r="G93" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="694" t="s">
+      <c r="H93" s="702" t="s">
         <v>51</v>
       </c>
     </row>
@@ -13799,8 +13804,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="688"/>
-      <c r="H94" s="694"/>
+      <c r="G94" s="689"/>
+      <c r="H94" s="702"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -13809,7 +13814,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="688" t="s">
+      <c r="G95" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13827,7 +13832,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="688"/>
+      <c r="G96" s="689"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -13850,7 +13855,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="688" t="s">
+      <c r="G99" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13861,7 +13866,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="688"/>
+      <c r="G100" s="689"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -13887,7 +13892,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="688" t="s">
+      <c r="G103" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13899,7 +13904,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="688"/>
+      <c r="G104" s="689"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -13923,7 +13928,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="688" t="s">
+      <c r="G107" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13934,7 +13939,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="688"/>
+      <c r="G108" s="689"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -13943,7 +13948,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="688"/>
+      <c r="G109" s="689"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -13960,7 +13965,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="688" t="s">
+      <c r="G110" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13972,7 +13977,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="688"/>
+      <c r="G111" s="689"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -13985,7 +13990,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="688"/>
+      <c r="G112" s="689"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -14002,7 +14007,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="688"/>
+      <c r="G113" s="689"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -14049,7 +14054,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="688" t="s">
+      <c r="G117" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14068,7 +14073,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="688"/>
+      <c r="G118" s="689"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -14087,7 +14092,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="688"/>
+      <c r="G119" s="689"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -14104,7 +14109,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="688"/>
+      <c r="G120" s="689"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -14121,7 +14126,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="688"/>
+      <c r="G121" s="689"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -14138,7 +14143,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="688"/>
+      <c r="G122" s="689"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -14153,7 +14158,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="688"/>
+      <c r="G123" s="689"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -14258,7 +14263,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="688" t="s">
+      <c r="G133" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14269,36 +14274,13 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="688"/>
+      <c r="G134" s="689"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G47:G49"/>
@@ -14309,6 +14291,29 @@
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="H37:H41"/>
     <mergeCell ref="H46:H47"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14353,10 +14358,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="704" t="s">
+      <c r="B6" s="705" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="687" t="s">
+      <c r="C6" s="696" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -14365,84 +14370,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="688" t="s">
+      <c r="F6" s="689" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="687" t="s">
+      <c r="H6" s="696" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="704"/>
-      <c r="C7" s="687"/>
+      <c r="B7" s="705"/>
+      <c r="C7" s="696"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="688"/>
-      <c r="H7" s="687"/>
+      <c r="F7" s="689"/>
+      <c r="H7" s="696"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="704"/>
-      <c r="C8" s="687"/>
+      <c r="B8" s="705"/>
+      <c r="C8" s="696"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="688"/>
-      <c r="H8" s="687"/>
+      <c r="F8" s="689"/>
+      <c r="H8" s="696"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="704"/>
-      <c r="C9" s="687"/>
+      <c r="B9" s="705"/>
+      <c r="C9" s="696"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="688"/>
-      <c r="H9" s="687"/>
+      <c r="F9" s="689"/>
+      <c r="H9" s="696"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="704"/>
-      <c r="C10" s="687"/>
+      <c r="B10" s="705"/>
+      <c r="C10" s="696"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="688"/>
-      <c r="H10" s="687"/>
+      <c r="F10" s="689"/>
+      <c r="H10" s="696"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="704"/>
-      <c r="C11" s="687"/>
+      <c r="B11" s="705"/>
+      <c r="C11" s="696"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="688"/>
-      <c r="H11" s="687"/>
+      <c r="F11" s="689"/>
+      <c r="H11" s="696"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="704"/>
-      <c r="C12" s="687"/>
+      <c r="B12" s="705"/>
+      <c r="C12" s="696"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="688"/>
-      <c r="H12" s="687"/>
+      <c r="F12" s="689"/>
+      <c r="H12" s="696"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -14483,7 +14488,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="688" t="s">
+      <c r="F16" s="689" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14501,7 +14506,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="688"/>
+      <c r="F17" s="689"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -14542,7 +14547,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="688" t="s">
+      <c r="F21" s="689" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -14562,7 +14567,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="688"/>
+      <c r="F22" s="689"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -14577,7 +14582,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="688"/>
+      <c r="F23" s="689"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -14592,7 +14597,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="688"/>
+      <c r="F24" s="689"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -14607,7 +14612,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="688"/>
+      <c r="F25" s="689"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -14616,7 +14621,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="688"/>
+      <c r="F26" s="689"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -14647,10 +14652,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="688" t="s">
+      <c r="F30" s="689" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="694" t="s">
+      <c r="H30" s="702" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14667,8 +14672,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="688"/>
-      <c r="H31" s="694"/>
+      <c r="F31" s="689"/>
+      <c r="H31" s="702"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -14683,8 +14688,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="688"/>
-      <c r="H32" s="694"/>
+      <c r="F32" s="689"/>
+      <c r="H32" s="702"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -14693,8 +14698,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="688"/>
-      <c r="H33" s="694"/>
+      <c r="F33" s="689"/>
+      <c r="H33" s="702"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -14703,10 +14708,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="688" t="s">
+      <c r="G34" s="689" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="694"/>
+      <c r="H34" s="702"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -14715,8 +14720,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="688"/>
-      <c r="H35" s="694"/>
+      <c r="G35" s="689"/>
+      <c r="H35" s="702"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -14725,8 +14730,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="688"/>
-      <c r="H36" s="694"/>
+      <c r="G36" s="689"/>
+      <c r="H36" s="702"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -14741,10 +14746,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="688" t="s">
+      <c r="F37" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="694" t="s">
+      <c r="H37" s="702" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14755,8 +14760,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="688"/>
-      <c r="H38" s="694"/>
+      <c r="F38" s="689"/>
+      <c r="H38" s="702"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -14765,8 +14770,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="688"/>
-      <c r="H39" s="694"/>
+      <c r="F39" s="689"/>
+      <c r="H39" s="702"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -14781,10 +14786,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="688" t="s">
+      <c r="G40" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="694"/>
+      <c r="H40" s="702"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -14794,8 +14799,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="688"/>
-      <c r="H41" s="694"/>
+      <c r="G41" s="689"/>
+      <c r="H41" s="702"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -14805,8 +14810,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="688"/>
-      <c r="H42" s="694"/>
+      <c r="G42" s="689"/>
+      <c r="H42" s="702"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -14816,8 +14821,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="688"/>
-      <c r="H43" s="694"/>
+      <c r="G43" s="689"/>
+      <c r="H43" s="702"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -14827,8 +14832,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="688"/>
-      <c r="H44" s="694"/>
+      <c r="G44" s="689"/>
+      <c r="H44" s="702"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -14851,10 +14856,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="688" t="s">
+      <c r="G47" s="689" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="687" t="s">
+      <c r="H47" s="696" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14865,8 +14870,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="688"/>
-      <c r="H48" s="687"/>
+      <c r="G48" s="689"/>
+      <c r="H48" s="696"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -14875,8 +14880,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="688"/>
-      <c r="H49" s="687"/>
+      <c r="G49" s="689"/>
+      <c r="H49" s="696"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -14891,7 +14896,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="688" t="s">
+      <c r="G50" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14902,7 +14907,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="688"/>
+      <c r="G51" s="689"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -14911,7 +14916,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="688"/>
+      <c r="G52" s="689"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -14927,7 +14932,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="688" t="s">
+      <c r="G53" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14940,7 +14945,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="688"/>
+      <c r="G54" s="689"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -14951,7 +14956,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="688"/>
+      <c r="G55" s="689"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -14962,7 +14967,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="688"/>
+      <c r="G56" s="689"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -15083,10 +15088,10 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="688" t="s">
+      <c r="G69" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="701" t="s">
+      <c r="H69" s="704" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15103,8 +15108,8 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="688"/>
-      <c r="H70" s="701"/>
+      <c r="G70" s="689"/>
+      <c r="H70" s="704"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
@@ -15119,8 +15124,8 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="688"/>
-      <c r="H71" s="701"/>
+      <c r="G71" s="689"/>
+      <c r="H71" s="704"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
@@ -15130,8 +15135,8 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="688"/>
-      <c r="H72" s="701"/>
+      <c r="G72" s="689"/>
+      <c r="H72" s="704"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
@@ -15141,8 +15146,8 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="688"/>
-      <c r="H73" s="701"/>
+      <c r="G73" s="689"/>
+      <c r="H73" s="704"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
@@ -15172,7 +15177,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="694" t="s">
+      <c r="H78" s="702" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15184,10 +15189,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="688" t="s">
+      <c r="F79" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="694"/>
+      <c r="H79" s="702"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -15197,8 +15202,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="688"/>
-      <c r="H80" s="694"/>
+      <c r="F80" s="689"/>
+      <c r="H80" s="702"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -15208,7 +15213,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="688" t="s">
+      <c r="G81" s="689" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -15221,7 +15226,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="688"/>
+      <c r="G82" s="689"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -15232,7 +15237,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="688"/>
+      <c r="G83" s="689"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15248,10 +15253,10 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="688" t="s">
+      <c r="F85" s="689" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="703" t="s">
+      <c r="H85" s="706" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15263,8 +15268,8 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="688"/>
-      <c r="H86" s="703"/>
+      <c r="F86" s="689"/>
+      <c r="H86" s="706"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
@@ -15274,8 +15279,8 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="688"/>
-      <c r="H87" s="703"/>
+      <c r="F87" s="689"/>
+      <c r="H87" s="706"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
@@ -15285,8 +15290,8 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="688"/>
-      <c r="H88" s="703"/>
+      <c r="F88" s="689"/>
+      <c r="H88" s="706"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
@@ -15304,7 +15309,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="694" t="s">
+      <c r="H90" s="702" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15321,10 +15326,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="688" t="s">
+      <c r="F91" s="689" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="694"/>
+      <c r="H91" s="702"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -15334,8 +15339,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="688"/>
-      <c r="H92" s="694"/>
+      <c r="F92" s="689"/>
+      <c r="H92" s="702"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -15353,7 +15358,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="694"/>
+      <c r="H93" s="702"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -15371,7 +15376,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="694"/>
+      <c r="H94" s="702"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -15386,7 +15391,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="688" t="s">
+      <c r="F96" s="689" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -15401,7 +15406,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="688"/>
+      <c r="F97" s="689"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -15410,7 +15415,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="688"/>
+      <c r="F98" s="689"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -15425,7 +15430,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="688" t="s">
+      <c r="F99" s="689" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15442,7 +15447,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="688"/>
+      <c r="F100" s="689"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -15454,10 +15459,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="688" t="s">
+      <c r="G101" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="687" t="s">
+      <c r="H101" s="696" t="s">
         <v>40</v>
       </c>
     </row>
@@ -15468,8 +15473,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="688"/>
-      <c r="H102" s="687"/>
+      <c r="G102" s="689"/>
+      <c r="H102" s="696"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -15478,7 +15483,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="688"/>
+      <c r="G103" s="689"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -15488,7 +15493,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="688"/>
+      <c r="G104" s="689"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15505,7 +15510,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="688"/>
+      <c r="G105" s="689"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15522,7 +15527,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="688"/>
+      <c r="G106" s="689"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -15542,7 +15547,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="688" t="s">
+      <c r="F108" s="689" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -15560,7 +15565,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="688"/>
+      <c r="F109" s="689"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -15570,7 +15575,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="688"/>
+      <c r="F110" s="689"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -15580,7 +15585,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="688"/>
+      <c r="F111" s="689"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -15590,7 +15595,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="688"/>
+      <c r="F112" s="689"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -15599,7 +15604,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="688"/>
+      <c r="F113" s="689"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -15614,10 +15619,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="688" t="s">
+      <c r="F114" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="687" t="s">
+      <c r="H114" s="696" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15634,8 +15639,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="688"/>
-      <c r="H115" s="687"/>
+      <c r="F115" s="689"/>
+      <c r="H115" s="696"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -15650,8 +15655,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="688"/>
-      <c r="H116" s="687"/>
+      <c r="F116" s="689"/>
+      <c r="H116" s="696"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -15666,8 +15671,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="688"/>
-      <c r="H117" s="687"/>
+      <c r="F117" s="689"/>
+      <c r="H117" s="696"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -15676,8 +15681,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="688"/>
-      <c r="H118" s="687"/>
+      <c r="F118" s="689"/>
+      <c r="H118" s="696"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -15686,8 +15691,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="688"/>
-      <c r="H119" s="687"/>
+      <c r="F119" s="689"/>
+      <c r="H119" s="696"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -15696,8 +15701,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="688"/>
-      <c r="H120" s="687"/>
+      <c r="F120" s="689"/>
+      <c r="H120" s="696"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -15706,8 +15711,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="688"/>
-      <c r="H121" s="687"/>
+      <c r="F121" s="689"/>
+      <c r="H121" s="696"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -15716,8 +15721,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="688"/>
-      <c r="H122" s="687"/>
+      <c r="F122" s="689"/>
+      <c r="H122" s="696"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -15733,8 +15738,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="688"/>
-      <c r="G123" s="688" t="s">
+      <c r="F123" s="689"/>
+      <c r="G123" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15745,8 +15750,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="688"/>
-      <c r="G124" s="688"/>
+      <c r="F124" s="689"/>
+      <c r="G124" s="689"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -15755,8 +15760,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="688"/>
-      <c r="G125" s="688"/>
+      <c r="F125" s="689"/>
+      <c r="G125" s="689"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -15765,10 +15770,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="688" t="s">
+      <c r="F126" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="694" t="s">
+      <c r="H126" s="702" t="s">
         <v>41</v>
       </c>
     </row>
@@ -15786,8 +15791,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="688"/>
-      <c r="H127" s="694"/>
+      <c r="F127" s="689"/>
+      <c r="H127" s="702"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -15802,7 +15807,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="688"/>
+      <c r="F128" s="689"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -15811,7 +15816,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="688"/>
+      <c r="F129" s="689"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -15821,7 +15826,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="688"/>
+      <c r="F130" s="689"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -15830,7 +15835,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="688"/>
+      <c r="F131" s="689"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -15846,7 +15851,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="688" t="s">
+      <c r="F132" s="689" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15857,7 +15862,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="688"/>
+      <c r="F133" s="689"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -15944,7 +15949,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="688" t="s">
+      <c r="G139" s="689" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -15956,7 +15961,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="688"/>
+      <c r="G140" s="689"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -15972,7 +15977,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="688" t="s">
+      <c r="G141" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15983,7 +15988,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="688"/>
+      <c r="G142" s="689"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -16010,10 +16015,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="688" t="s">
+      <c r="G146" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="694" t="s">
+      <c r="H146" s="702" t="s">
         <v>48</v>
       </c>
     </row>
@@ -16031,8 +16036,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="688"/>
-      <c r="H147" s="694"/>
+      <c r="G147" s="689"/>
+      <c r="H147" s="702"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -16048,8 +16053,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="688"/>
-      <c r="H148" s="694"/>
+      <c r="G148" s="689"/>
+      <c r="H148" s="702"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -16091,10 +16096,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="688" t="s">
+      <c r="F152" s="689" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="694" t="s">
+      <c r="H152" s="702" t="s">
         <v>417</v>
       </c>
     </row>
@@ -16111,8 +16116,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="688"/>
-      <c r="H153" s="694"/>
+      <c r="F153" s="689"/>
+      <c r="H153" s="702"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -16127,8 +16132,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="688"/>
-      <c r="H154" s="694"/>
+      <c r="F154" s="689"/>
+      <c r="H154" s="702"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -16139,10 +16144,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="688" t="s">
+      <c r="G155" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="687" t="s">
+      <c r="H155" s="696" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16161,8 +16166,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="688"/>
-      <c r="H156" s="687"/>
+      <c r="G156" s="689"/>
+      <c r="H156" s="696"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -16179,8 +16184,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="688"/>
-      <c r="H157" s="687"/>
+      <c r="G157" s="689"/>
+      <c r="H157" s="696"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -16197,8 +16202,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="688"/>
-      <c r="H158" s="687"/>
+      <c r="G158" s="689"/>
+      <c r="H158" s="696"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -16214,7 +16219,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="688" t="s">
+      <c r="F159" s="689" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -16234,7 +16239,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="688"/>
+      <c r="F160" s="689"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -16252,10 +16257,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="694" t="s">
+      <c r="G161" s="702" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="694" t="s">
+      <c r="H161" s="702" t="s">
         <v>446</v>
       </c>
     </row>
@@ -16274,8 +16279,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="694"/>
-      <c r="H162" s="694"/>
+      <c r="G162" s="702"/>
+      <c r="H162" s="702"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -16294,11 +16299,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="688" t="s">
+      <c r="F164" s="689" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="694" t="s">
+      <c r="H164" s="702" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16310,9 +16315,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="688"/>
+      <c r="F165" s="689"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="694"/>
+      <c r="H165" s="702"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -16322,9 +16327,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="688"/>
+      <c r="F166" s="689"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="694"/>
+      <c r="H166" s="702"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -16340,9 +16345,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="688"/>
+      <c r="F167" s="689"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="694"/>
+      <c r="H167" s="702"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -16357,8 +16362,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="688"/>
-      <c r="H168" s="694"/>
+      <c r="F168" s="689"/>
+      <c r="H168" s="702"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -16367,8 +16372,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="688"/>
-      <c r="H169" s="694"/>
+      <c r="F169" s="689"/>
+      <c r="H169" s="702"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -16380,7 +16385,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="694"/>
+      <c r="H170" s="702"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -16400,10 +16405,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="688" t="s">
+      <c r="F172" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="702" t="s">
+      <c r="H172" s="703" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16414,8 +16419,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="688"/>
-      <c r="H173" s="702"/>
+      <c r="F173" s="689"/>
+      <c r="H173" s="703"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -16425,8 +16430,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="688"/>
-      <c r="H174" s="702"/>
+      <c r="F174" s="689"/>
+      <c r="H174" s="703"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -16442,8 +16447,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="688"/>
-      <c r="H175" s="702"/>
+      <c r="F175" s="689"/>
+      <c r="H175" s="703"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -16459,10 +16464,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="688" t="s">
+      <c r="G176" s="689" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="694" t="s">
+      <c r="H176" s="702" t="s">
         <v>51</v>
       </c>
     </row>
@@ -16479,8 +16484,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="688"/>
-      <c r="H177" s="694"/>
+      <c r="G177" s="689"/>
+      <c r="H177" s="702"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -16489,7 +16494,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="688" t="s">
+      <c r="G178" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16507,7 +16512,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="688"/>
+      <c r="G179" s="689"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -16533,7 +16538,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="694" t="s">
+      <c r="H182" s="702" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16555,7 +16560,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="694"/>
+      <c r="H183" s="702"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -16572,7 +16577,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="688" t="s">
+      <c r="G184" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16586,7 +16591,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="688"/>
+      <c r="G185" s="689"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -16621,7 +16626,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="694" t="s">
+      <c r="H188" s="702" t="s">
         <v>493</v>
       </c>
     </row>
@@ -16642,7 +16647,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="694"/>
+      <c r="H189" s="702"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -16658,10 +16663,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="688" t="s">
+      <c r="G190" s="689" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="694"/>
+      <c r="H190" s="702"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -16671,8 +16676,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="688"/>
-      <c r="H191" s="694"/>
+      <c r="G191" s="689"/>
+      <c r="H191" s="702"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -16693,7 +16698,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="688" t="s">
+      <c r="F194" s="689" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16705,7 +16710,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="688"/>
+      <c r="F195" s="689"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16723,7 +16728,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="688" t="s">
+      <c r="G196" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16737,7 +16742,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="688"/>
+      <c r="G197" s="689"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -16746,7 +16751,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="688"/>
+      <c r="G198" s="689"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -16763,7 +16768,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="688" t="s">
+      <c r="G199" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16778,7 +16783,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="688"/>
+      <c r="G200" s="689"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -16794,7 +16799,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="688"/>
+      <c r="G201" s="689"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -16812,7 +16817,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="688"/>
+      <c r="G202" s="689"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -16873,7 +16878,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="688" t="s">
+      <c r="G206" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16893,7 +16898,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="688"/>
+      <c r="G207" s="689"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -16912,7 +16917,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="688"/>
+      <c r="G208" s="689"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -16929,7 +16934,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="688"/>
+      <c r="G209" s="689"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -16946,7 +16951,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="688"/>
+      <c r="G210" s="689"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -16963,7 +16968,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="688"/>
+      <c r="G211" s="689"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -16978,7 +16983,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="688"/>
+      <c r="G212" s="689"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -16997,7 +17002,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="694" t="s">
+      <c r="H213" s="702" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17018,7 +17023,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="694"/>
+      <c r="H214" s="702"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -17034,10 +17039,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="688" t="s">
+      <c r="F215" s="689" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="694" t="s">
+      <c r="H215" s="702" t="s">
         <v>546</v>
       </c>
     </row>
@@ -17049,8 +17054,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="688"/>
-      <c r="H216" s="694"/>
+      <c r="F216" s="689"/>
+      <c r="H216" s="702"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -17116,10 +17121,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="688" t="s">
+      <c r="F220" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="694" t="s">
+      <c r="H220" s="702" t="s">
         <v>556</v>
       </c>
     </row>
@@ -17131,8 +17136,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="688"/>
-      <c r="H221" s="694"/>
+      <c r="F221" s="689"/>
+      <c r="H221" s="702"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -17141,8 +17146,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="688"/>
-      <c r="H222" s="694"/>
+      <c r="F222" s="689"/>
+      <c r="H222" s="702"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -17173,10 +17178,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="688" t="s">
+      <c r="F226" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="702" t="s">
+      <c r="H226" s="703" t="s">
         <v>566</v>
       </c>
     </row>
@@ -17187,8 +17192,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="688"/>
-      <c r="H227" s="702"/>
+      <c r="F227" s="689"/>
+      <c r="H227" s="703"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -17197,8 +17202,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="688"/>
-      <c r="H228" s="702"/>
+      <c r="F228" s="689"/>
+      <c r="H228" s="703"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -17208,8 +17213,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="688"/>
-      <c r="H229" s="702"/>
+      <c r="F229" s="689"/>
+      <c r="H229" s="703"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -17218,8 +17223,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="688"/>
-      <c r="H230" s="702"/>
+      <c r="F230" s="689"/>
+      <c r="H230" s="703"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -17238,7 +17243,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="702"/>
+      <c r="H231" s="703"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -17280,10 +17285,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="688" t="s">
+      <c r="F235" s="689" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="694" t="s">
+      <c r="H235" s="702" t="s">
         <v>580</v>
       </c>
     </row>
@@ -17294,8 +17299,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="688"/>
-      <c r="H236" s="694"/>
+      <c r="F236" s="689"/>
+      <c r="H236" s="702"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -17304,8 +17309,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="688"/>
-      <c r="H237" s="694"/>
+      <c r="F237" s="689"/>
+      <c r="H237" s="702"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -17314,8 +17319,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="688"/>
-      <c r="H238" s="694"/>
+      <c r="F238" s="689"/>
+      <c r="H238" s="702"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -17331,7 +17336,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="688" t="s">
+      <c r="G239" s="689" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17342,7 +17347,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="688"/>
+      <c r="G240" s="689"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -17358,11 +17363,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="688" t="s">
+      <c r="F241" s="689" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="694" t="s">
+      <c r="H241" s="702" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17373,9 +17378,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="688"/>
+      <c r="F242" s="689"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="694"/>
+      <c r="H242" s="702"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
@@ -17492,6 +17497,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="F226:F230"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="F164:F169"/>
+    <mergeCell ref="H164:H170"/>
+    <mergeCell ref="H172:H175"/>
+    <mergeCell ref="F172:F175"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="H146:H148"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="G206:G212"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="F91:F92"/>
     <mergeCell ref="F194:F195"/>
     <mergeCell ref="G196:G198"/>
     <mergeCell ref="G199:G202"/>
@@ -17508,65 +17572,6 @@
     <mergeCell ref="F123:F125"/>
     <mergeCell ref="F126:F131"/>
     <mergeCell ref="F21:F26"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="G206:G212"/>
-    <mergeCell ref="H220:H222"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="F164:F169"/>
-    <mergeCell ref="H164:H170"/>
-    <mergeCell ref="H172:H175"/>
-    <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="H146:H148"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="F226:F230"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G239:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2018" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="766">
   <si>
     <t>A – Analyser</t>
   </si>
@@ -2417,6 +2417,9 @@
   </si>
   <si>
     <t>EDUSPOT DU 14 1U 16 MARS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En MPSI/PCSI une analyse et une modélisation des SLCI. Des moyens ont été mis en œuvres pour mesurer ou prévoir les performances des systèmes (rapidité, stabilité, précision). </t>
   </si>
 </sst>
 </file>
@@ -4661,6 +4664,291 @@
     <xf numFmtId="0" fontId="9" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4700,287 +4988,122 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5027,122 +5150,113 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5156,6 +5270,36 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5171,144 +5315,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5391,61 +5397,58 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6780,7 +6783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -6869,28 +6872,28 @@
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="522" t="str">
+      <c r="E2" s="491" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="489" t="s">
+      <c r="F2" s="506" t="s">
         <v>705</v>
       </c>
-      <c r="G2" s="510" t="s">
+      <c r="G2" s="494" t="s">
         <v>666</v>
       </c>
-      <c r="H2" s="507" t="str">
+      <c r="H2" s="524" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="507" t="str">
+      <c r="I2" s="524" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="512" t="s">
+      <c r="J2" s="528" t="s">
         <v>669</v>
       </c>
-      <c r="K2" s="510" t="s">
+      <c r="K2" s="494" t="s">
         <v>755</v>
       </c>
       <c r="L2" s="199" t="s">
@@ -6925,13 +6928,13 @@
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="523"/>
-      <c r="F3" s="490"/>
-      <c r="G3" s="525"/>
-      <c r="H3" s="508"/>
-      <c r="I3" s="508"/>
-      <c r="J3" s="513"/>
-      <c r="K3" s="511"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="529"/>
+      <c r="K3" s="527"/>
       <c r="L3" s="202" t="s">
         <v>624</v>
       </c>
@@ -6964,11 +6967,11 @@
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="524"/>
-      <c r="F4" s="491"/>
-      <c r="G4" s="526"/>
-      <c r="H4" s="509"/>
-      <c r="I4" s="509"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="526"/>
+      <c r="I4" s="526"/>
       <c r="J4" s="205" t="s">
         <v>668</v>
       </c>
@@ -7005,21 +7008,21 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="486" t="str">
+      <c r="E5" s="503" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="492" t="s">
+      <c r="F5" s="509" t="s">
         <v>691</v>
       </c>
-      <c r="G5" s="527" t="s">
+      <c r="G5" s="497" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="519" t="str">
+      <c r="H5" s="488" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="519" t="str">
+      <c r="I5" s="488" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
@@ -7055,11 +7058,11 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="487"/>
-      <c r="F6" s="493"/>
-      <c r="G6" s="528"/>
-      <c r="H6" s="520"/>
-      <c r="I6" s="520"/>
+      <c r="E6" s="504"/>
+      <c r="F6" s="510"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="489"/>
+      <c r="I6" s="489"/>
       <c r="J6" s="207" t="s">
         <v>671</v>
       </c>
@@ -7094,11 +7097,11 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="488"/>
-      <c r="F7" s="494"/>
-      <c r="G7" s="529"/>
-      <c r="H7" s="521"/>
-      <c r="I7" s="521"/>
+      <c r="E7" s="505"/>
+      <c r="F7" s="511"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="490"/>
+      <c r="I7" s="490"/>
       <c r="J7" s="214" t="s">
         <v>672</v>
       </c>
@@ -7135,7 +7138,7 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="503" t="s">
+      <c r="F8" s="520" t="s">
         <v>696</v>
       </c>
       <c r="G8" s="218" t="s">
@@ -7176,23 +7179,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="501" t="s">
+      <c r="E9" s="518" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="504"/>
-      <c r="G9" s="495" t="s">
+      <c r="F9" s="521"/>
+      <c r="G9" s="512" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="496"/>
-      <c r="I9" s="496"/>
-      <c r="J9" s="496"/>
-      <c r="K9" s="496"/>
-      <c r="L9" s="496"/>
-      <c r="M9" s="496"/>
-      <c r="N9" s="496"/>
-      <c r="O9" s="496"/>
-      <c r="P9" s="496"/>
-      <c r="Q9" s="497"/>
+      <c r="H9" s="513"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="513"/>
+      <c r="K9" s="513"/>
+      <c r="L9" s="513"/>
+      <c r="M9" s="513"/>
+      <c r="N9" s="513"/>
+      <c r="O9" s="513"/>
+      <c r="P9" s="513"/>
+      <c r="Q9" s="514"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -7208,19 +7211,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="502"/>
-      <c r="F10" s="504"/>
-      <c r="G10" s="498"/>
-      <c r="H10" s="499"/>
-      <c r="I10" s="499"/>
-      <c r="J10" s="499"/>
-      <c r="K10" s="499"/>
-      <c r="L10" s="499"/>
-      <c r="M10" s="499"/>
-      <c r="N10" s="499"/>
-      <c r="O10" s="499"/>
-      <c r="P10" s="499"/>
-      <c r="Q10" s="500"/>
+      <c r="E10" s="519"/>
+      <c r="F10" s="521"/>
+      <c r="G10" s="515"/>
+      <c r="H10" s="516"/>
+      <c r="I10" s="516"/>
+      <c r="J10" s="516"/>
+      <c r="K10" s="516"/>
+      <c r="L10" s="516"/>
+      <c r="M10" s="516"/>
+      <c r="N10" s="516"/>
+      <c r="O10" s="516"/>
+      <c r="P10" s="516"/>
+      <c r="Q10" s="517"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -7241,26 +7244,26 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="536" t="str">
+      <c r="E11" s="453" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="504"/>
-      <c r="G11" s="514" t="s">
+      <c r="F11" s="521"/>
+      <c r="G11" s="486" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="538" t="str">
+      <c r="H11" s="468" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="538" t="str">
+      <c r="I11" s="468" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="514" t="s">
+      <c r="J11" s="486" t="s">
         <v>673</v>
       </c>
-      <c r="K11" s="514" t="s">
+      <c r="K11" s="486" t="s">
         <v>685</v>
       </c>
       <c r="L11" s="223" t="s">
@@ -7293,13 +7296,13 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="537"/>
-      <c r="F12" s="505"/>
-      <c r="G12" s="515"/>
-      <c r="H12" s="539"/>
-      <c r="I12" s="539"/>
-      <c r="J12" s="515"/>
-      <c r="K12" s="515"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="487"/>
+      <c r="H12" s="469"/>
+      <c r="I12" s="469"/>
+      <c r="J12" s="487"/>
+      <c r="K12" s="487"/>
       <c r="L12" s="226" t="s">
         <v>631</v>
       </c>
@@ -7328,21 +7331,21 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="546" t="str">
+      <c r="E13" s="476" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="506" t="s">
+      <c r="F13" s="523" t="s">
         <v>698</v>
       </c>
-      <c r="G13" s="483" t="s">
+      <c r="G13" s="500" t="s">
         <v>653</v>
       </c>
-      <c r="H13" s="516" t="str">
+      <c r="H13" s="530" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="516" t="str">
+      <c r="I13" s="530" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
@@ -7378,11 +7381,11 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="547"/>
-      <c r="F14" s="484"/>
-      <c r="G14" s="484"/>
-      <c r="H14" s="517"/>
-      <c r="I14" s="517"/>
+      <c r="E14" s="477"/>
+      <c r="F14" s="501"/>
+      <c r="G14" s="501"/>
+      <c r="H14" s="531"/>
+      <c r="I14" s="531"/>
       <c r="J14" s="384" t="s">
         <v>704</v>
       </c>
@@ -7415,11 +7418,11 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="548"/>
-      <c r="F15" s="485"/>
-      <c r="G15" s="485"/>
-      <c r="H15" s="518"/>
-      <c r="I15" s="518"/>
+      <c r="E15" s="478"/>
+      <c r="F15" s="502"/>
+      <c r="G15" s="502"/>
+      <c r="H15" s="532"/>
+      <c r="I15" s="532"/>
       <c r="J15" s="235" t="s">
         <v>687</v>
       </c>
@@ -7456,21 +7459,21 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="481" t="str">
+      <c r="E16" s="455" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="446" t="s">
+      <c r="F16" s="541" t="s">
         <v>697</v>
       </c>
-      <c r="G16" s="481" t="s">
+      <c r="G16" s="455" t="s">
         <v>654</v>
       </c>
-      <c r="H16" s="549" t="str">
+      <c r="H16" s="482" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="551" t="str">
+      <c r="I16" s="484" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
@@ -7508,11 +7511,11 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="482"/>
-      <c r="F17" s="447"/>
-      <c r="G17" s="482"/>
-      <c r="H17" s="550"/>
-      <c r="I17" s="552"/>
+      <c r="E17" s="456"/>
+      <c r="F17" s="542"/>
+      <c r="G17" s="456"/>
+      <c r="H17" s="483"/>
+      <c r="I17" s="485"/>
       <c r="J17" s="247" t="s">
         <v>645</v>
       </c>
@@ -7542,21 +7545,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="540" t="s">
+      <c r="E18" s="470" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="540"/>
-      <c r="G18" s="540"/>
-      <c r="H18" s="540"/>
-      <c r="I18" s="540"/>
-      <c r="J18" s="540"/>
-      <c r="K18" s="540"/>
-      <c r="L18" s="540"/>
-      <c r="M18" s="540"/>
-      <c r="N18" s="540"/>
-      <c r="O18" s="540"/>
-      <c r="P18" s="541"/>
-      <c r="Q18" s="542"/>
+      <c r="F18" s="470"/>
+      <c r="G18" s="470"/>
+      <c r="H18" s="470"/>
+      <c r="I18" s="470"/>
+      <c r="J18" s="470"/>
+      <c r="K18" s="470"/>
+      <c r="L18" s="470"/>
+      <c r="M18" s="470"/>
+      <c r="N18" s="470"/>
+      <c r="O18" s="470"/>
+      <c r="P18" s="471"/>
+      <c r="Q18" s="472"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7572,19 +7575,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="543"/>
-      <c r="F19" s="543"/>
-      <c r="G19" s="543"/>
-      <c r="H19" s="543"/>
-      <c r="I19" s="543"/>
-      <c r="J19" s="543"/>
-      <c r="K19" s="543"/>
-      <c r="L19" s="543"/>
-      <c r="M19" s="543"/>
-      <c r="N19" s="543"/>
-      <c r="O19" s="543"/>
-      <c r="P19" s="544"/>
-      <c r="Q19" s="545"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="473"/>
+      <c r="G19" s="473"/>
+      <c r="H19" s="473"/>
+      <c r="I19" s="473"/>
+      <c r="J19" s="473"/>
+      <c r="K19" s="473"/>
+      <c r="L19" s="473"/>
+      <c r="M19" s="473"/>
+      <c r="N19" s="473"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="474"/>
+      <c r="Q19" s="475"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7605,21 +7608,21 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="470" t="str">
+      <c r="E20" s="457" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="448" t="s">
+      <c r="F20" s="543" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="470" t="s">
+      <c r="G20" s="457" t="s">
         <v>699</v>
       </c>
-      <c r="H20" s="462" t="str">
+      <c r="H20" s="536" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="462" t="str">
+      <c r="I20" s="536" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
@@ -7655,11 +7658,11 @@
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="471"/>
-      <c r="F21" s="449"/>
-      <c r="G21" s="471"/>
-      <c r="H21" s="463"/>
-      <c r="I21" s="463"/>
+      <c r="E21" s="458"/>
+      <c r="F21" s="544"/>
+      <c r="G21" s="458"/>
+      <c r="H21" s="537"/>
+      <c r="I21" s="537"/>
       <c r="J21" s="250"/>
       <c r="K21" s="250"/>
       <c r="L21" s="250" t="s">
@@ -7690,11 +7693,11 @@
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="472"/>
-      <c r="F22" s="450"/>
-      <c r="G22" s="472"/>
-      <c r="H22" s="464"/>
-      <c r="I22" s="464"/>
+      <c r="E22" s="459"/>
+      <c r="F22" s="545"/>
+      <c r="G22" s="459"/>
+      <c r="H22" s="538"/>
+      <c r="I22" s="538"/>
       <c r="J22" s="241"/>
       <c r="K22" s="241"/>
       <c r="L22" s="241" t="s">
@@ -7725,21 +7728,21 @@
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="473" t="str">
+      <c r="E23" s="460" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="451" t="s">
+      <c r="F23" s="546" t="s">
         <v>701</v>
       </c>
-      <c r="G23" s="473" t="s">
+      <c r="G23" s="460" t="s">
         <v>655</v>
       </c>
-      <c r="H23" s="465" t="str">
+      <c r="H23" s="539" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="465" t="str">
+      <c r="I23" s="539" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
@@ -7775,11 +7778,11 @@
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="474"/>
-      <c r="F24" s="452"/>
-      <c r="G24" s="474"/>
-      <c r="H24" s="466"/>
-      <c r="I24" s="466"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="547"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="540"/>
+      <c r="I24" s="540"/>
       <c r="J24" s="187" t="s">
         <v>648</v>
       </c>
@@ -7807,21 +7810,21 @@
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="540" t="s">
+      <c r="E25" s="470" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="540"/>
-      <c r="G25" s="540"/>
-      <c r="H25" s="540"/>
-      <c r="I25" s="540"/>
-      <c r="J25" s="540"/>
-      <c r="K25" s="540"/>
-      <c r="L25" s="540"/>
-      <c r="M25" s="540"/>
-      <c r="N25" s="540"/>
-      <c r="O25" s="540"/>
-      <c r="P25" s="541"/>
-      <c r="Q25" s="542"/>
+      <c r="F25" s="470"/>
+      <c r="G25" s="470"/>
+      <c r="H25" s="470"/>
+      <c r="I25" s="470"/>
+      <c r="J25" s="470"/>
+      <c r="K25" s="470"/>
+      <c r="L25" s="470"/>
+      <c r="M25" s="470"/>
+      <c r="N25" s="470"/>
+      <c r="O25" s="470"/>
+      <c r="P25" s="471"/>
+      <c r="Q25" s="472"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7837,19 +7840,19 @@
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="543"/>
-      <c r="F26" s="543"/>
-      <c r="G26" s="543"/>
-      <c r="H26" s="543"/>
-      <c r="I26" s="543"/>
-      <c r="J26" s="543"/>
-      <c r="K26" s="543"/>
-      <c r="L26" s="543"/>
-      <c r="M26" s="543"/>
-      <c r="N26" s="543"/>
-      <c r="O26" s="543"/>
-      <c r="P26" s="544"/>
-      <c r="Q26" s="545"/>
+      <c r="E26" s="473"/>
+      <c r="F26" s="473"/>
+      <c r="G26" s="473"/>
+      <c r="H26" s="473"/>
+      <c r="I26" s="473"/>
+      <c r="J26" s="473"/>
+      <c r="K26" s="473"/>
+      <c r="L26" s="473"/>
+      <c r="M26" s="473"/>
+      <c r="N26" s="473"/>
+      <c r="O26" s="473"/>
+      <c r="P26" s="474"/>
+      <c r="Q26" s="475"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7870,21 +7873,21 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="475" t="str">
+      <c r="E27" s="462" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="453" t="s">
+      <c r="F27" s="548" t="s">
         <v>702</v>
       </c>
-      <c r="G27" s="475" t="s">
+      <c r="G27" s="462" t="s">
         <v>656</v>
       </c>
-      <c r="H27" s="467" t="str">
+      <c r="H27" s="479" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="467" t="str">
+      <c r="I27" s="479" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
@@ -7920,11 +7923,11 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="476"/>
-      <c r="F28" s="454"/>
-      <c r="G28" s="476"/>
-      <c r="H28" s="468"/>
-      <c r="I28" s="468"/>
+      <c r="E28" s="463"/>
+      <c r="F28" s="549"/>
+      <c r="G28" s="463"/>
+      <c r="H28" s="480"/>
+      <c r="I28" s="480"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
@@ -7955,11 +7958,11 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="477"/>
-      <c r="F29" s="455"/>
-      <c r="G29" s="477"/>
-      <c r="H29" s="469"/>
-      <c r="I29" s="469"/>
+      <c r="E29" s="464"/>
+      <c r="F29" s="550"/>
+      <c r="G29" s="464"/>
+      <c r="H29" s="481"/>
+      <c r="I29" s="481"/>
       <c r="J29" s="182" t="s">
         <v>644</v>
       </c>
@@ -7971,7 +7974,7 @@
       <c r="N29" s="182"/>
       <c r="O29" s="182"/>
       <c r="P29" s="274"/>
-      <c r="Q29" s="707" t="s">
+      <c r="Q29" s="446" t="s">
         <v>764</v>
       </c>
     </row>
@@ -7994,15 +7997,15 @@
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="478" t="s">
+      <c r="E30" s="465" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="456" t="s">
+      <c r="F30" s="551" t="s">
         <v>703</v>
       </c>
-      <c r="G30" s="478"/>
-      <c r="H30" s="459"/>
-      <c r="I30" s="459"/>
+      <c r="G30" s="465"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="533"/>
       <c r="J30" s="190"/>
       <c r="K30" s="190"/>
       <c r="L30" s="190"/>
@@ -8031,11 +8034,11 @@
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="479"/>
-      <c r="F31" s="457"/>
-      <c r="G31" s="479"/>
-      <c r="H31" s="460"/>
-      <c r="I31" s="460"/>
+      <c r="E31" s="466"/>
+      <c r="F31" s="552"/>
+      <c r="G31" s="466"/>
+      <c r="H31" s="534"/>
+      <c r="I31" s="534"/>
       <c r="J31" s="193"/>
       <c r="K31" s="193"/>
       <c r="L31" s="193"/>
@@ -8064,11 +8067,11 @@
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="480"/>
-      <c r="F32" s="458"/>
-      <c r="G32" s="480"/>
-      <c r="H32" s="461"/>
-      <c r="I32" s="461"/>
+      <c r="E32" s="467"/>
+      <c r="F32" s="553"/>
+      <c r="G32" s="467"/>
+      <c r="H32" s="535"/>
+      <c r="I32" s="535"/>
       <c r="J32" s="196"/>
       <c r="K32" s="196"/>
       <c r="L32" s="196"/>
@@ -8094,21 +8097,21 @@
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="530" t="s">
+      <c r="E33" s="447" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="530"/>
-      <c r="G33" s="530"/>
-      <c r="H33" s="530"/>
-      <c r="I33" s="530"/>
-      <c r="J33" s="530"/>
-      <c r="K33" s="530"/>
-      <c r="L33" s="530"/>
-      <c r="M33" s="530"/>
-      <c r="N33" s="530"/>
-      <c r="O33" s="530"/>
-      <c r="P33" s="531"/>
-      <c r="Q33" s="532"/>
+      <c r="F33" s="447"/>
+      <c r="G33" s="447"/>
+      <c r="H33" s="447"/>
+      <c r="I33" s="447"/>
+      <c r="J33" s="447"/>
+      <c r="K33" s="447"/>
+      <c r="L33" s="447"/>
+      <c r="M33" s="447"/>
+      <c r="N33" s="447"/>
+      <c r="O33" s="447"/>
+      <c r="P33" s="448"/>
+      <c r="Q33" s="449"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -8124,19 +8127,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="533"/>
-      <c r="F34" s="533"/>
-      <c r="G34" s="533"/>
-      <c r="H34" s="533"/>
-      <c r="I34" s="533"/>
-      <c r="J34" s="533"/>
-      <c r="K34" s="533"/>
-      <c r="L34" s="533"/>
-      <c r="M34" s="533"/>
-      <c r="N34" s="533"/>
-      <c r="O34" s="533"/>
-      <c r="P34" s="534"/>
-      <c r="Q34" s="535"/>
+      <c r="E34" s="450"/>
+      <c r="F34" s="450"/>
+      <c r="G34" s="450"/>
+      <c r="H34" s="450"/>
+      <c r="I34" s="450"/>
+      <c r="J34" s="450"/>
+      <c r="K34" s="450"/>
+      <c r="L34" s="450"/>
+      <c r="M34" s="450"/>
+      <c r="N34" s="450"/>
+      <c r="O34" s="450"/>
+      <c r="P34" s="451"/>
+      <c r="Q34" s="452"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8626,6 +8629,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G9:Q10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="E33:Q34"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E16:E17"/>
@@ -8642,44 +8683,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G9:Q10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8692,8 +8695,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8703,38 +8706,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="581" t="s">
+      <c r="A1" s="558" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="582"/>
-      <c r="C1" s="582"/>
-      <c r="D1" s="582"/>
-      <c r="E1" s="582"/>
-      <c r="F1" s="581" t="s">
+      <c r="B1" s="559"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="558" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="582"/>
-      <c r="H1" s="582"/>
-      <c r="I1" s="582"/>
-      <c r="J1" s="582"/>
+      <c r="G1" s="559"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
     </row>
     <row r="2" spans="1:10" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="583" t="str">
+      <c r="A2" s="569" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="584"/>
-      <c r="C2" s="584"/>
-      <c r="D2" s="584"/>
-      <c r="E2" s="584"/>
-      <c r="F2" s="585" t="str">
+      <c r="B2" s="570"/>
+      <c r="C2" s="570"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="570"/>
+      <c r="F2" s="571" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="586"/>
-      <c r="H2" s="586"/>
-      <c r="I2" s="586"/>
-      <c r="J2" s="587"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="572"/>
+      <c r="J2" s="573"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -8744,116 +8747,116 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="581" t="s">
+      <c r="A4" s="558" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="582"/>
-      <c r="C4" s="582"/>
-      <c r="D4" s="594"/>
-      <c r="E4" s="581" t="s">
+      <c r="B4" s="559"/>
+      <c r="C4" s="559"/>
+      <c r="D4" s="560"/>
+      <c r="E4" s="558" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="582"/>
-      <c r="G4" s="594"/>
-      <c r="H4" s="581" t="s">
+      <c r="F4" s="559"/>
+      <c r="G4" s="560"/>
+      <c r="H4" s="558" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="582"/>
-      <c r="J4" s="594"/>
+      <c r="I4" s="559"/>
+      <c r="J4" s="560"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="588" t="s">
+      <c r="A5" s="574" t="s">
         <v>666</v>
       </c>
-      <c r="B5" s="589"/>
-      <c r="C5" s="589"/>
-      <c r="D5" s="590"/>
+      <c r="B5" s="575"/>
+      <c r="C5" s="575"/>
+      <c r="D5" s="576"/>
       <c r="E5" s="397" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="595" t="s">
+      <c r="F5" s="554" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="596"/>
+      <c r="G5" s="555"/>
       <c r="H5" s="398" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="595" t="s">
+      <c r="I5" s="554" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="596"/>
+      <c r="J5" s="555"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="588"/>
-      <c r="B6" s="589"/>
-      <c r="C6" s="589"/>
-      <c r="D6" s="590"/>
+      <c r="A6" s="574"/>
+      <c r="B6" s="575"/>
+      <c r="C6" s="575"/>
+      <c r="D6" s="576"/>
       <c r="E6" s="397"/>
-      <c r="F6" s="595"/>
-      <c r="G6" s="596"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="555"/>
       <c r="H6" s="398" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="595" t="s">
+      <c r="I6" s="554" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="596"/>
+      <c r="J6" s="555"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="588"/>
-      <c r="B7" s="589"/>
-      <c r="C7" s="589"/>
-      <c r="D7" s="590"/>
+      <c r="A7" s="574"/>
+      <c r="B7" s="575"/>
+      <c r="C7" s="575"/>
+      <c r="D7" s="576"/>
       <c r="E7" s="397"/>
-      <c r="F7" s="595"/>
-      <c r="G7" s="596"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="555"/>
       <c r="H7" s="398" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="595" t="s">
+      <c r="I7" s="554" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="596"/>
+      <c r="J7" s="555"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="588"/>
-      <c r="B8" s="589"/>
-      <c r="C8" s="589"/>
-      <c r="D8" s="590"/>
+      <c r="A8" s="574"/>
+      <c r="B8" s="575"/>
+      <c r="C8" s="575"/>
+      <c r="D8" s="576"/>
       <c r="E8" s="397" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="595" t="s">
+      <c r="F8" s="554" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="596"/>
+      <c r="G8" s="555"/>
       <c r="H8" s="398" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="595" t="s">
+      <c r="I8" s="554" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="596"/>
+      <c r="J8" s="555"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="591"/>
-      <c r="B9" s="592"/>
-      <c r="C9" s="592"/>
-      <c r="D9" s="593"/>
+      <c r="A9" s="577"/>
+      <c r="B9" s="578"/>
+      <c r="C9" s="578"/>
+      <c r="D9" s="579"/>
       <c r="E9" s="399" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="597" t="s">
+      <c r="F9" s="556" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="598"/>
+      <c r="G9" s="557"/>
       <c r="H9" s="399" t="s">
         <v>723</v>
       </c>
-      <c r="I9" s="597" t="s">
+      <c r="I9" s="556" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="598"/>
+      <c r="J9" s="557"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="400"/>
@@ -8863,102 +8866,102 @@
       <c r="J10" s="400"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="581" t="s">
+      <c r="A11" s="558" t="s">
         <v>711</v>
       </c>
-      <c r="B11" s="582"/>
-      <c r="C11" s="582"/>
-      <c r="D11" s="582"/>
-      <c r="E11" s="582"/>
-      <c r="F11" s="581" t="s">
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="559"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="558" t="s">
         <v>722</v>
       </c>
-      <c r="G11" s="582"/>
-      <c r="H11" s="582"/>
-      <c r="I11" s="582"/>
-      <c r="J11" s="594"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="559"/>
+      <c r="J11" s="560"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="604" t="s">
+      <c r="A12" s="566" t="s">
         <v>725</v>
       </c>
-      <c r="B12" s="605"/>
-      <c r="C12" s="605"/>
-      <c r="D12" s="605"/>
-      <c r="E12" s="605"/>
-      <c r="F12" s="604" t="s">
+      <c r="B12" s="567"/>
+      <c r="C12" s="567"/>
+      <c r="D12" s="567"/>
+      <c r="E12" s="567"/>
+      <c r="F12" s="566" t="s">
         <v>726</v>
       </c>
-      <c r="G12" s="605"/>
-      <c r="H12" s="605"/>
-      <c r="I12" s="605"/>
-      <c r="J12" s="606"/>
+      <c r="G12" s="567"/>
+      <c r="H12" s="567"/>
+      <c r="I12" s="567"/>
+      <c r="J12" s="568"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="396"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="581" t="s">
+      <c r="A14" s="558" t="s">
         <v>727</v>
       </c>
-      <c r="B14" s="582"/>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
-      <c r="E14" s="582"/>
-      <c r="F14" s="581" t="s">
+      <c r="B14" s="559"/>
+      <c r="C14" s="559"/>
+      <c r="D14" s="559"/>
+      <c r="E14" s="559"/>
+      <c r="F14" s="558" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="582"/>
-      <c r="H14" s="582"/>
-      <c r="I14" s="582"/>
-      <c r="J14" s="594"/>
+      <c r="G14" s="559"/>
+      <c r="H14" s="559"/>
+      <c r="I14" s="559"/>
+      <c r="J14" s="560"/>
     </row>
     <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="599" t="s">
+      <c r="A15" s="561" t="s">
         <v>728</v>
       </c>
-      <c r="B15" s="600"/>
-      <c r="C15" s="600"/>
-      <c r="D15" s="600"/>
-      <c r="E15" s="600"/>
-      <c r="F15" s="601" t="s">
+      <c r="B15" s="562"/>
+      <c r="C15" s="562"/>
+      <c r="D15" s="562"/>
+      <c r="E15" s="562"/>
+      <c r="F15" s="563" t="s">
         <v>729</v>
       </c>
-      <c r="G15" s="602"/>
-      <c r="H15" s="602"/>
-      <c r="I15" s="602"/>
-      <c r="J15" s="603"/>
+      <c r="G15" s="564"/>
+      <c r="H15" s="564"/>
+      <c r="I15" s="564"/>
+      <c r="J15" s="565"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="574" t="s">
+      <c r="A17" s="586" t="s">
         <v>712</v>
       </c>
-      <c r="B17" s="575"/>
-      <c r="C17" s="575"/>
-      <c r="D17" s="575"/>
-      <c r="E17" s="575"/>
-      <c r="F17" s="575"/>
-      <c r="G17" s="575"/>
-      <c r="H17" s="575"/>
-      <c r="I17" s="575"/>
-      <c r="J17" s="576"/>
+      <c r="B17" s="587"/>
+      <c r="C17" s="587"/>
+      <c r="D17" s="587"/>
+      <c r="E17" s="587"/>
+      <c r="F17" s="587"/>
+      <c r="G17" s="587"/>
+      <c r="H17" s="587"/>
+      <c r="I17" s="587"/>
+      <c r="J17" s="588"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="577" t="s">
+      <c r="A18" s="589" t="s">
         <v>730</v>
       </c>
-      <c r="B18" s="578"/>
-      <c r="C18" s="578"/>
-      <c r="D18" s="578"/>
-      <c r="E18" s="578"/>
-      <c r="F18" s="579" t="s">
+      <c r="B18" s="590"/>
+      <c r="C18" s="590"/>
+      <c r="D18" s="590"/>
+      <c r="E18" s="590"/>
+      <c r="F18" s="591" t="s">
         <v>731</v>
       </c>
-      <c r="G18" s="579"/>
-      <c r="H18" s="579"/>
-      <c r="I18" s="579"/>
-      <c r="J18" s="580"/>
+      <c r="G18" s="591"/>
+      <c r="H18" s="591"/>
+      <c r="I18" s="591"/>
+      <c r="J18" s="592"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="396"/>
@@ -8970,41 +8973,41 @@
       <c r="A20" s="403" t="s">
         <v>721</v>
       </c>
-      <c r="B20" s="568" t="s">
+      <c r="B20" s="580" t="s">
         <v>718</v>
       </c>
-      <c r="C20" s="569"/>
-      <c r="D20" s="570"/>
-      <c r="E20" s="568" t="s">
+      <c r="C20" s="581"/>
+      <c r="D20" s="582"/>
+      <c r="E20" s="580" t="s">
         <v>719</v>
       </c>
-      <c r="F20" s="569"/>
-      <c r="G20" s="570"/>
-      <c r="H20" s="568" t="s">
+      <c r="F20" s="581"/>
+      <c r="G20" s="582"/>
+      <c r="H20" s="580" t="s">
         <v>720</v>
       </c>
-      <c r="I20" s="569"/>
-      <c r="J20" s="570"/>
+      <c r="I20" s="581"/>
+      <c r="J20" s="582"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="401" t="s">
         <v>713</v>
       </c>
-      <c r="B21" s="571" t="s">
+      <c r="B21" s="583" t="s">
         <v>732</v>
       </c>
-      <c r="C21" s="572"/>
-      <c r="D21" s="573"/>
-      <c r="E21" s="571" t="s">
+      <c r="C21" s="584"/>
+      <c r="D21" s="585"/>
+      <c r="E21" s="583" t="s">
         <v>733</v>
       </c>
-      <c r="F21" s="572"/>
-      <c r="G21" s="573"/>
-      <c r="H21" s="571" t="s">
+      <c r="F21" s="584"/>
+      <c r="G21" s="585"/>
+      <c r="H21" s="583" t="s">
         <v>734</v>
       </c>
-      <c r="I21" s="572"/>
-      <c r="J21" s="573"/>
+      <c r="I21" s="584"/>
+      <c r="J21" s="585"/>
     </row>
     <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="401" t="s">
@@ -9138,9 +9141,9 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="402"/>
-      <c r="B28" s="559"/>
-      <c r="C28" s="560"/>
-      <c r="D28" s="561"/>
+      <c r="B28" s="599"/>
+      <c r="C28" s="600"/>
+      <c r="D28" s="601"/>
       <c r="E28" s="416"/>
       <c r="F28" s="417"/>
       <c r="G28" s="418"/>
@@ -9152,33 +9155,33 @@
       <c r="A29" s="401" t="s">
         <v>715</v>
       </c>
-      <c r="B29" s="562"/>
-      <c r="C29" s="563"/>
-      <c r="D29" s="564"/>
-      <c r="E29" s="562"/>
-      <c r="F29" s="563"/>
-      <c r="G29" s="564"/>
-      <c r="H29" s="565"/>
-      <c r="I29" s="566"/>
-      <c r="J29" s="567"/>
+      <c r="B29" s="602"/>
+      <c r="C29" s="603"/>
+      <c r="D29" s="604"/>
+      <c r="E29" s="602"/>
+      <c r="F29" s="603"/>
+      <c r="G29" s="604"/>
+      <c r="H29" s="605"/>
+      <c r="I29" s="606"/>
+      <c r="J29" s="607"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="402" t="s">
         <v>748</v>
       </c>
-      <c r="B30" s="553" t="s">
+      <c r="B30" s="593" t="s">
         <v>749</v>
       </c>
-      <c r="C30" s="554"/>
-      <c r="D30" s="555"/>
-      <c r="E30" s="553" t="s">
+      <c r="C30" s="594"/>
+      <c r="D30" s="595"/>
+      <c r="E30" s="593" t="s">
         <v>750</v>
       </c>
-      <c r="F30" s="554"/>
-      <c r="G30" s="555"/>
-      <c r="H30" s="556"/>
-      <c r="I30" s="557"/>
-      <c r="J30" s="558"/>
+      <c r="F30" s="594"/>
+      <c r="G30" s="595"/>
+      <c r="H30" s="596"/>
+      <c r="I30" s="597"/>
+      <c r="J30" s="598"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9190,16 +9193,22 @@
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F1:J1"/>
@@ -9216,22 +9225,16 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9247,8 +9250,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9258,37 +9261,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="609" t="s">
+      <c r="A1" s="646" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="610"/>
-      <c r="C1" s="610"/>
-      <c r="D1" s="610"/>
-      <c r="E1" s="610"/>
-      <c r="F1" s="609" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="647"/>
+      <c r="D1" s="647"/>
+      <c r="E1" s="647"/>
+      <c r="F1" s="646" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="610"/>
-      <c r="H1" s="610"/>
-      <c r="I1" s="610"/>
-      <c r="J1" s="610"/>
+      <c r="G1" s="647"/>
+      <c r="H1" s="647"/>
+      <c r="I1" s="647"/>
+      <c r="J1" s="647"/>
     </row>
     <row r="2" spans="1:20" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="611" t="str">
+      <c r="A2" s="658" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="B2" s="612"/>
-      <c r="C2" s="612"/>
-      <c r="D2" s="612"/>
-      <c r="E2" s="612"/>
-      <c r="F2" s="613" t="s">
+      <c r="B2" s="659"/>
+      <c r="C2" s="659"/>
+      <c r="D2" s="659"/>
+      <c r="E2" s="659"/>
+      <c r="F2" s="660" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="614"/>
-      <c r="H2" s="614"/>
-      <c r="I2" s="614"/>
-      <c r="J2" s="615"/>
+      <c r="G2" s="661"/>
+      <c r="H2" s="661"/>
+      <c r="I2" s="661"/>
+      <c r="J2" s="662"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -9298,67 +9301,67 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="609" t="s">
+      <c r="A4" s="646" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="610"/>
-      <c r="C4" s="610"/>
-      <c r="D4" s="616"/>
-      <c r="E4" s="609" t="s">
+      <c r="B4" s="647"/>
+      <c r="C4" s="647"/>
+      <c r="D4" s="648"/>
+      <c r="E4" s="646" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="610"/>
-      <c r="G4" s="616"/>
-      <c r="H4" s="609" t="s">
+      <c r="F4" s="647"/>
+      <c r="G4" s="648"/>
+      <c r="H4" s="646" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="610"/>
-      <c r="J4" s="616"/>
+      <c r="I4" s="647"/>
+      <c r="J4" s="648"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A5" s="623" t="s">
+      <c r="A5" s="652" t="s">
         <v>757</v>
       </c>
-      <c r="B5" s="624"/>
-      <c r="C5" s="624"/>
-      <c r="D5" s="625"/>
+      <c r="B5" s="653"/>
+      <c r="C5" s="653"/>
+      <c r="D5" s="654"/>
       <c r="E5" s="443" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="629" t="s">
+      <c r="F5" s="609" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="630"/>
+      <c r="G5" s="610"/>
       <c r="H5" s="444" t="s">
         <v>758</v>
       </c>
-      <c r="I5" s="629" t="s">
+      <c r="I5" s="609" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="630"/>
-      <c r="Q5" s="661"/>
-      <c r="R5" s="661"/>
+      <c r="J5" s="610"/>
+      <c r="Q5" s="608"/>
+      <c r="R5" s="608"/>
       <c r="S5" s="287" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="623"/>
-      <c r="B6" s="624"/>
-      <c r="C6" s="624"/>
-      <c r="D6" s="625"/>
+      <c r="A6" s="652"/>
+      <c r="B6" s="653"/>
+      <c r="C6" s="653"/>
+      <c r="D6" s="654"/>
       <c r="E6" s="443" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="629" t="s">
+      <c r="F6" s="609" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="630"/>
+      <c r="G6" s="610"/>
       <c r="H6" s="444"/>
-      <c r="I6" s="629"/>
-      <c r="J6" s="630"/>
-      <c r="Q6" s="661"/>
-      <c r="R6" s="661"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="Q6" s="608"/>
+      <c r="R6" s="608"/>
       <c r="S6" s="287" t="s">
         <v>16</v>
       </c>
@@ -9367,108 +9370,108 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="623"/>
-      <c r="B7" s="624"/>
-      <c r="C7" s="624"/>
-      <c r="D7" s="625"/>
+      <c r="A7" s="652"/>
+      <c r="B7" s="653"/>
+      <c r="C7" s="653"/>
+      <c r="D7" s="654"/>
       <c r="E7" s="443" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="629" t="s">
+      <c r="F7" s="609" t="s">
         <v>597</v>
       </c>
-      <c r="G7" s="630"/>
+      <c r="G7" s="610"/>
       <c r="H7" s="444" t="s">
         <v>759</v>
       </c>
-      <c r="I7" s="629" t="s">
+      <c r="I7" s="609" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="630"/>
-      <c r="Q7" s="661"/>
-      <c r="R7" s="661"/>
+      <c r="J7" s="610"/>
+      <c r="Q7" s="608"/>
+      <c r="R7" s="608"/>
     </row>
     <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="623"/>
-      <c r="B8" s="624"/>
-      <c r="C8" s="624"/>
-      <c r="D8" s="625"/>
+      <c r="A8" s="652"/>
+      <c r="B8" s="653"/>
+      <c r="C8" s="653"/>
+      <c r="D8" s="654"/>
       <c r="E8" s="443" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="629" t="s">
+      <c r="F8" s="609" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="630"/>
+      <c r="G8" s="610"/>
       <c r="H8" s="444" t="s">
         <v>760</v>
       </c>
-      <c r="I8" s="629" t="s">
+      <c r="I8" s="609" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="630"/>
-      <c r="Q8" s="661"/>
-      <c r="R8" s="661"/>
+      <c r="J8" s="610"/>
+      <c r="Q8" s="608"/>
+      <c r="R8" s="608"/>
     </row>
     <row r="9" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="623"/>
-      <c r="B9" s="624"/>
-      <c r="C9" s="624"/>
-      <c r="D9" s="625"/>
+      <c r="A9" s="652"/>
+      <c r="B9" s="653"/>
+      <c r="C9" s="653"/>
+      <c r="D9" s="654"/>
       <c r="E9" s="443" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="629" t="s">
+      <c r="F9" s="609" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="630"/>
+      <c r="G9" s="610"/>
       <c r="H9" s="444" t="s">
         <v>761</v>
       </c>
-      <c r="I9" s="629" t="s">
+      <c r="I9" s="609" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="630"/>
+      <c r="J9" s="610"/>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="623"/>
-      <c r="B10" s="624"/>
-      <c r="C10" s="624"/>
-      <c r="D10" s="625"/>
+      <c r="A10" s="652"/>
+      <c r="B10" s="653"/>
+      <c r="C10" s="653"/>
+      <c r="D10" s="654"/>
       <c r="E10" s="443" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="629" t="s">
+      <c r="F10" s="609" t="s">
         <v>441</v>
       </c>
-      <c r="G10" s="630"/>
+      <c r="G10" s="610"/>
       <c r="H10" s="444" t="s">
         <v>762</v>
       </c>
-      <c r="I10" s="629" t="s">
+      <c r="I10" s="609" t="s">
         <v>444</v>
       </c>
-      <c r="J10" s="630"/>
+      <c r="J10" s="610"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="626"/>
-      <c r="B11" s="627"/>
-      <c r="C11" s="627"/>
-      <c r="D11" s="628"/>
+      <c r="A11" s="655"/>
+      <c r="B11" s="656"/>
+      <c r="C11" s="656"/>
+      <c r="D11" s="657"/>
       <c r="E11" s="445" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="607" t="s">
+      <c r="F11" s="644" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="608"/>
+      <c r="G11" s="645"/>
       <c r="H11" s="445" t="s">
         <v>763</v>
       </c>
-      <c r="I11" s="607" t="s">
+      <c r="I11" s="644" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="608"/>
+      <c r="J11" s="645"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="400"/>
@@ -9484,90 +9487,92 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="609" t="s">
+      <c r="A13" s="646" t="s">
         <v>711</v>
       </c>
-      <c r="B13" s="610"/>
-      <c r="C13" s="610"/>
-      <c r="D13" s="610"/>
-      <c r="E13" s="610"/>
-      <c r="F13" s="609" t="s">
+      <c r="B13" s="647"/>
+      <c r="C13" s="647"/>
+      <c r="D13" s="647"/>
+      <c r="E13" s="647"/>
+      <c r="F13" s="646" t="s">
         <v>722</v>
       </c>
-      <c r="G13" s="610"/>
-      <c r="H13" s="610"/>
-      <c r="I13" s="610"/>
-      <c r="J13" s="616"/>
+      <c r="G13" s="647"/>
+      <c r="H13" s="647"/>
+      <c r="I13" s="647"/>
+      <c r="J13" s="648"/>
     </row>
     <row r="14" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="620"/>
-      <c r="B14" s="621"/>
-      <c r="C14" s="621"/>
-      <c r="D14" s="621"/>
-      <c r="E14" s="621"/>
-      <c r="F14" s="620"/>
-      <c r="G14" s="621"/>
-      <c r="H14" s="621"/>
-      <c r="I14" s="621"/>
-      <c r="J14" s="622"/>
+      <c r="A14" s="649" t="s">
+        <v>765</v>
+      </c>
+      <c r="B14" s="650"/>
+      <c r="C14" s="650"/>
+      <c r="D14" s="650"/>
+      <c r="E14" s="650"/>
+      <c r="F14" s="649"/>
+      <c r="G14" s="650"/>
+      <c r="H14" s="650"/>
+      <c r="I14" s="650"/>
+      <c r="J14" s="651"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J15" s="396"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="609" t="s">
+      <c r="A16" s="646" t="s">
         <v>727</v>
       </c>
-      <c r="B16" s="610"/>
-      <c r="C16" s="610"/>
-      <c r="D16" s="610"/>
-      <c r="E16" s="610"/>
-      <c r="F16" s="609" t="s">
+      <c r="B16" s="647"/>
+      <c r="C16" s="647"/>
+      <c r="D16" s="647"/>
+      <c r="E16" s="647"/>
+      <c r="F16" s="646" t="s">
         <v>606</v>
       </c>
-      <c r="G16" s="610"/>
-      <c r="H16" s="610"/>
-      <c r="I16" s="610"/>
-      <c r="J16" s="616"/>
+      <c r="G16" s="647"/>
+      <c r="H16" s="647"/>
+      <c r="I16" s="647"/>
+      <c r="J16" s="648"/>
     </row>
     <row r="17" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="631"/>
-      <c r="B17" s="632"/>
-      <c r="C17" s="632"/>
-      <c r="D17" s="632"/>
-      <c r="E17" s="632"/>
-      <c r="F17" s="633"/>
-      <c r="G17" s="634"/>
-      <c r="H17" s="634"/>
-      <c r="I17" s="634"/>
-      <c r="J17" s="635"/>
+      <c r="A17" s="629"/>
+      <c r="B17" s="630"/>
+      <c r="C17" s="630"/>
+      <c r="D17" s="630"/>
+      <c r="E17" s="630"/>
+      <c r="F17" s="631"/>
+      <c r="G17" s="632"/>
+      <c r="H17" s="632"/>
+      <c r="I17" s="632"/>
+      <c r="J17" s="633"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="636" t="s">
+      <c r="A19" s="634" t="s">
         <v>712</v>
       </c>
-      <c r="B19" s="637"/>
-      <c r="C19" s="637"/>
-      <c r="D19" s="637"/>
-      <c r="E19" s="637"/>
-      <c r="F19" s="637"/>
-      <c r="G19" s="637"/>
-      <c r="H19" s="637"/>
-      <c r="I19" s="637"/>
-      <c r="J19" s="638"/>
+      <c r="B19" s="635"/>
+      <c r="C19" s="635"/>
+      <c r="D19" s="635"/>
+      <c r="E19" s="635"/>
+      <c r="F19" s="635"/>
+      <c r="G19" s="635"/>
+      <c r="H19" s="635"/>
+      <c r="I19" s="635"/>
+      <c r="J19" s="636"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="639"/>
-      <c r="B20" s="640"/>
-      <c r="C20" s="640"/>
-      <c r="D20" s="640"/>
-      <c r="E20" s="640"/>
-      <c r="F20" s="641"/>
-      <c r="G20" s="641"/>
-      <c r="H20" s="641"/>
-      <c r="I20" s="641"/>
-      <c r="J20" s="642"/>
+      <c r="A20" s="637"/>
+      <c r="B20" s="638"/>
+      <c r="C20" s="638"/>
+      <c r="D20" s="638"/>
+      <c r="E20" s="638"/>
+      <c r="F20" s="639"/>
+      <c r="G20" s="639"/>
+      <c r="H20" s="639"/>
+      <c r="I20" s="639"/>
+      <c r="J20" s="640"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="396"/>
@@ -9579,35 +9584,35 @@
       <c r="A22" s="422" t="s">
         <v>721</v>
       </c>
-      <c r="B22" s="617" t="s">
+      <c r="B22" s="641" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="618"/>
-      <c r="D22" s="619"/>
-      <c r="E22" s="617" t="s">
+      <c r="C22" s="642"/>
+      <c r="D22" s="643"/>
+      <c r="E22" s="641" t="s">
         <v>719</v>
       </c>
-      <c r="F22" s="618"/>
-      <c r="G22" s="619"/>
-      <c r="H22" s="617" t="s">
+      <c r="F22" s="642"/>
+      <c r="G22" s="643"/>
+      <c r="H22" s="641" t="s">
         <v>720</v>
       </c>
-      <c r="I22" s="618"/>
-      <c r="J22" s="619"/>
+      <c r="I22" s="642"/>
+      <c r="J22" s="643"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="423" t="s">
         <v>713</v>
       </c>
-      <c r="B23" s="649"/>
-      <c r="C23" s="650"/>
-      <c r="D23" s="651"/>
-      <c r="E23" s="649"/>
-      <c r="F23" s="650"/>
-      <c r="G23" s="651"/>
-      <c r="H23" s="649"/>
-      <c r="I23" s="650"/>
-      <c r="J23" s="651"/>
+      <c r="B23" s="617"/>
+      <c r="C23" s="618"/>
+      <c r="D23" s="619"/>
+      <c r="E23" s="617"/>
+      <c r="F23" s="618"/>
+      <c r="G23" s="619"/>
+      <c r="H23" s="617"/>
+      <c r="I23" s="618"/>
+      <c r="J23" s="619"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="423" t="s">
@@ -9685,9 +9690,9 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="436"/>
-      <c r="B30" s="652"/>
-      <c r="C30" s="653"/>
-      <c r="D30" s="654"/>
+      <c r="B30" s="620"/>
+      <c r="C30" s="621"/>
+      <c r="D30" s="622"/>
       <c r="E30" s="437"/>
       <c r="F30" s="438"/>
       <c r="G30" s="439"/>
@@ -9699,33 +9704,33 @@
       <c r="A31" s="423" t="s">
         <v>715</v>
       </c>
-      <c r="B31" s="655"/>
-      <c r="C31" s="656"/>
-      <c r="D31" s="657"/>
-      <c r="E31" s="655"/>
-      <c r="F31" s="656"/>
-      <c r="G31" s="657"/>
-      <c r="H31" s="658"/>
-      <c r="I31" s="659"/>
-      <c r="J31" s="660"/>
+      <c r="B31" s="623"/>
+      <c r="C31" s="624"/>
+      <c r="D31" s="625"/>
+      <c r="E31" s="623"/>
+      <c r="F31" s="624"/>
+      <c r="G31" s="625"/>
+      <c r="H31" s="626"/>
+      <c r="I31" s="627"/>
+      <c r="J31" s="628"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="436" t="s">
         <v>748</v>
       </c>
-      <c r="B32" s="643" t="s">
+      <c r="B32" s="611" t="s">
         <v>749</v>
       </c>
-      <c r="C32" s="644"/>
-      <c r="D32" s="645"/>
-      <c r="E32" s="643" t="s">
+      <c r="C32" s="612"/>
+      <c r="D32" s="613"/>
+      <c r="E32" s="611" t="s">
         <v>750</v>
       </c>
-      <c r="F32" s="644"/>
-      <c r="G32" s="645"/>
-      <c r="H32" s="646"/>
-      <c r="I32" s="647"/>
-      <c r="J32" s="648"/>
+      <c r="F32" s="612"/>
+      <c r="G32" s="613"/>
+      <c r="H32" s="614"/>
+      <c r="I32" s="615"/>
+      <c r="J32" s="616"/>
     </row>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9737,27 +9742,19 @@
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
@@ -9774,19 +9771,27 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9953,35 +9958,35 @@
   <sheetData>
     <row r="1" spans="1:19" s="336" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="288"/>
-      <c r="C1" s="662" t="s">
+      <c r="C1" s="663" t="s">
         <v>662</v>
       </c>
-      <c r="D1" s="670"/>
-      <c r="E1" s="670"/>
-      <c r="F1" s="670"/>
-      <c r="G1" s="663"/>
-      <c r="H1" s="662" t="s">
+      <c r="D1" s="671"/>
+      <c r="E1" s="671"/>
+      <c r="F1" s="671"/>
+      <c r="G1" s="664"/>
+      <c r="H1" s="663" t="s">
         <v>661</v>
       </c>
-      <c r="I1" s="670"/>
-      <c r="J1" s="663"/>
-      <c r="K1" s="662" t="s">
+      <c r="I1" s="671"/>
+      <c r="J1" s="664"/>
+      <c r="K1" s="663" t="s">
         <v>663</v>
       </c>
-      <c r="L1" s="670"/>
-      <c r="M1" s="663"/>
-      <c r="N1" s="662" t="s">
+      <c r="L1" s="671"/>
+      <c r="M1" s="664"/>
+      <c r="N1" s="663" t="s">
         <v>664</v>
       </c>
-      <c r="O1" s="670"/>
-      <c r="P1" s="663"/>
+      <c r="O1" s="671"/>
+      <c r="P1" s="664"/>
       <c r="Q1" s="392" t="s">
         <v>690</v>
       </c>
-      <c r="R1" s="662" t="s">
+      <c r="R1" s="663" t="s">
         <v>665</v>
       </c>
-      <c r="S1" s="663"/>
+      <c r="S1" s="664"/>
     </row>
     <row r="2" spans="1:19" s="289" customFormat="1" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C2" s="388" t="s">
@@ -10037,7 +10042,7 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="671" t="str">
+      <c r="A3" s="672" t="str">
         <f>Cycles!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
@@ -10067,7 +10072,7 @@
       <c r="S3" s="387"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="672"/>
+      <c r="A4" s="673"/>
       <c r="B4" s="361" t="s">
         <v>657</v>
       </c>
@@ -10090,7 +10095,7 @@
       <c r="S4" s="291"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="672"/>
+      <c r="A5" s="673"/>
       <c r="B5" s="361" t="s">
         <v>658</v>
       </c>
@@ -10113,7 +10118,7 @@
       <c r="S5" s="291"/>
     </row>
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="673"/>
+      <c r="A6" s="674"/>
       <c r="B6" s="362" t="s">
         <v>659</v>
       </c>
@@ -10136,7 +10141,7 @@
       <c r="S6" s="293"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="674" t="str">
+      <c r="A7" s="675" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
@@ -10166,7 +10171,7 @@
       <c r="S7" s="295"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="675"/>
+      <c r="A8" s="676"/>
       <c r="B8" s="364" t="s">
         <v>657</v>
       </c>
@@ -10189,7 +10194,7 @@
       <c r="S8" s="297"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="675"/>
+      <c r="A9" s="676"/>
       <c r="B9" s="364" t="s">
         <v>658</v>
       </c>
@@ -10212,7 +10217,7 @@
       <c r="S9" s="297"/>
     </row>
     <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="676"/>
+      <c r="A10" s="677"/>
       <c r="B10" s="365" t="s">
         <v>659</v>
       </c>
@@ -10235,7 +10240,7 @@
       <c r="S10" s="299"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="677" t="str">
+      <c r="A11" s="678" t="str">
         <f>Cycles!A3</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
@@ -10265,7 +10270,7 @@
       <c r="S11" s="301"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="678"/>
+      <c r="A12" s="679"/>
       <c r="B12" s="367" t="s">
         <v>657</v>
       </c>
@@ -10288,7 +10293,7 @@
       <c r="S12" s="303"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="678"/>
+      <c r="A13" s="679"/>
       <c r="B13" s="367" t="s">
         <v>658</v>
       </c>
@@ -10311,7 +10316,7 @@
       <c r="S13" s="303"/>
     </row>
     <row r="14" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="679"/>
+      <c r="A14" s="680"/>
       <c r="B14" s="368" t="s">
         <v>659</v>
       </c>
@@ -10334,7 +10339,7 @@
       <c r="S14" s="305"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="680" t="str">
+      <c r="A15" s="681" t="str">
         <f>Cycles!A4</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
@@ -10364,7 +10369,7 @@
       <c r="S15" s="307"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="681"/>
+      <c r="A16" s="682"/>
       <c r="B16" s="370" t="s">
         <v>657</v>
       </c>
@@ -10387,7 +10392,7 @@
       <c r="S16" s="309"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="681"/>
+      <c r="A17" s="682"/>
       <c r="B17" s="370" t="s">
         <v>658</v>
       </c>
@@ -10410,7 +10415,7 @@
       <c r="S17" s="309"/>
     </row>
     <row r="18" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="682"/>
+      <c r="A18" s="683"/>
       <c r="B18" s="371" t="s">
         <v>659</v>
       </c>
@@ -10433,7 +10438,7 @@
       <c r="S18" s="311"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="683" t="str">
+      <c r="A19" s="684" t="str">
         <f>Cycles!A5</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
@@ -10465,7 +10470,7 @@
       <c r="S19" s="313"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="684"/>
+      <c r="A20" s="685"/>
       <c r="B20" s="373" t="s">
         <v>657</v>
       </c>
@@ -10488,7 +10493,7 @@
       <c r="S20" s="315"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="684"/>
+      <c r="A21" s="685"/>
       <c r="B21" s="373" t="s">
         <v>658</v>
       </c>
@@ -10511,7 +10516,7 @@
       <c r="S21" s="315"/>
     </row>
     <row r="22" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="685"/>
+      <c r="A22" s="686"/>
       <c r="B22" s="374" t="s">
         <v>659</v>
       </c>
@@ -10534,7 +10539,7 @@
       <c r="S22" s="317"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="686" t="str">
+      <c r="A23" s="687" t="str">
         <f>Cycles!A6</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
@@ -10564,7 +10569,7 @@
       <c r="S23" s="319"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="687"/>
+      <c r="A24" s="688"/>
       <c r="B24" s="376" t="s">
         <v>657</v>
       </c>
@@ -10587,7 +10592,7 @@
       <c r="S24" s="321"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="687"/>
+      <c r="A25" s="688"/>
       <c r="B25" s="376" t="s">
         <v>658</v>
       </c>
@@ -10610,7 +10615,7 @@
       <c r="S25" s="321"/>
     </row>
     <row r="26" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="688"/>
+      <c r="A26" s="689"/>
       <c r="B26" s="377" t="s">
         <v>659</v>
       </c>
@@ -10633,7 +10638,7 @@
       <c r="S26" s="323"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="664" t="str">
+      <c r="A27" s="665" t="str">
         <f>Cycles!A7</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
@@ -10663,7 +10668,7 @@
       <c r="S27" s="325"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="665"/>
+      <c r="A28" s="666"/>
       <c r="B28" s="379" t="s">
         <v>657</v>
       </c>
@@ -10686,7 +10691,7 @@
       <c r="S28" s="327"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="665"/>
+      <c r="A29" s="666"/>
       <c r="B29" s="379" t="s">
         <v>658</v>
       </c>
@@ -10709,7 +10714,7 @@
       <c r="S29" s="327"/>
     </row>
     <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="666"/>
+      <c r="A30" s="667"/>
       <c r="B30" s="380" t="s">
         <v>659</v>
       </c>
@@ -10732,7 +10737,7 @@
       <c r="S30" s="329"/>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="667" t="str">
+      <c r="A31" s="668" t="str">
         <f>Cycles!A8</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
@@ -10762,7 +10767,7 @@
       <c r="S31" s="331"/>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="668"/>
+      <c r="A32" s="669"/>
       <c r="B32" s="382" t="s">
         <v>657</v>
       </c>
@@ -10785,7 +10790,7 @@
       <c r="S32" s="333"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A33" s="668"/>
+      <c r="A33" s="669"/>
       <c r="B33" s="382" t="s">
         <v>658</v>
       </c>
@@ -10808,7 +10813,7 @@
       <c r="S33" s="333"/>
     </row>
     <row r="34" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="669"/>
+      <c r="A34" s="670"/>
       <c r="B34" s="383" t="s">
         <v>659</v>
       </c>
@@ -11099,10 +11104,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="691" t="s">
+      <c r="G10" s="698" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="692" t="s">
+      <c r="H10" s="699" t="s">
         <v>430</v>
       </c>
     </row>
@@ -11122,8 +11127,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="691"/>
-      <c r="H11" s="692"/>
+      <c r="G11" s="698"/>
+      <c r="H11" s="699"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -11141,8 +11146,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="691"/>
-      <c r="H12" s="692"/>
+      <c r="G12" s="698"/>
+      <c r="H12" s="699"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -11160,8 +11165,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="691"/>
-      <c r="H13" s="692"/>
+      <c r="G13" s="698"/>
+      <c r="H13" s="699"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -11179,10 +11184,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="695" t="s">
+      <c r="G14" s="702" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="695" t="s">
+      <c r="H14" s="702" t="s">
         <v>446</v>
       </c>
     </row>
@@ -11202,8 +11207,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="695"/>
-      <c r="H15" s="695"/>
+      <c r="G15" s="702"/>
+      <c r="H15" s="702"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -11315,10 +11320,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="689" t="s">
+      <c r="G22" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="697" t="s">
+      <c r="H22" s="692" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11333,8 +11338,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="689"/>
-      <c r="H23" s="697"/>
+      <c r="G23" s="691"/>
+      <c r="H23" s="692"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -11347,7 +11352,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="689"/>
+      <c r="G24" s="691"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11361,7 +11366,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="689"/>
+      <c r="G25" s="691"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11380,7 +11385,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="689"/>
+      <c r="G26" s="691"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11399,7 +11404,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="689"/>
+      <c r="G27" s="691"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11418,7 +11423,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="689"/>
+      <c r="G28" s="691"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11431,7 +11436,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="689"/>
+      <c r="G29" s="691"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11440,7 +11445,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="689"/>
+      <c r="G30" s="691"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
@@ -11452,7 +11457,7 @@
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="689"/>
+      <c r="G31" s="691"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11471,7 +11476,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="689"/>
+      <c r="G32" s="691"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -11527,10 +11532,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="693" t="s">
+      <c r="G35" s="700" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="694" t="s">
+      <c r="H35" s="701" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11549,8 +11554,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="693"/>
-      <c r="H36" s="694"/>
+      <c r="G36" s="700"/>
+      <c r="H36" s="701"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -11567,8 +11572,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="693"/>
-      <c r="H37" s="694"/>
+      <c r="G37" s="700"/>
+      <c r="H37" s="701"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -11581,8 +11586,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="693"/>
-      <c r="H38" s="694"/>
+      <c r="G38" s="700"/>
+      <c r="H38" s="701"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -11595,8 +11600,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="693"/>
-      <c r="H39" s="694"/>
+      <c r="G39" s="700"/>
+      <c r="H39" s="701"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -11679,7 +11684,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="701"/>
+      <c r="H44" s="696"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -11692,10 +11697,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="699" t="s">
+      <c r="G45" s="694" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="701"/>
+      <c r="H45" s="696"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -11713,7 +11718,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="699"/>
+      <c r="G46" s="694"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -11753,8 +11758,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="698"/>
-      <c r="G49" s="698" t="s">
+      <c r="F49" s="693"/>
+      <c r="G49" s="693" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -11769,8 +11774,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="698"/>
-      <c r="G50" s="698"/>
+      <c r="F50" s="693"/>
+      <c r="G50" s="693"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -11783,8 +11788,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="698"/>
-      <c r="G51" s="698"/>
+      <c r="F51" s="693"/>
+      <c r="G51" s="693"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11845,10 +11850,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="690" t="s">
+      <c r="G55" s="703" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="700" t="s">
+      <c r="H55" s="695" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11863,8 +11868,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="690"/>
-      <c r="H56" s="700"/>
+      <c r="G56" s="703"/>
+      <c r="H56" s="695"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -11877,8 +11882,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="690"/>
-      <c r="H57" s="700"/>
+      <c r="G57" s="703"/>
+      <c r="H57" s="695"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -11896,8 +11901,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="690"/>
-      <c r="H58" s="700"/>
+      <c r="G58" s="703"/>
+      <c r="H58" s="695"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -12063,10 +12068,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="689" t="s">
+      <c r="G72" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="702"/>
+      <c r="H72" s="697"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -12076,8 +12081,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="689"/>
-      <c r="H73" s="702"/>
+      <c r="G73" s="691"/>
+      <c r="H73" s="697"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -12087,8 +12092,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="689"/>
-      <c r="H74" s="702"/>
+      <c r="G74" s="691"/>
+      <c r="H74" s="697"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -12098,8 +12103,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="689"/>
-      <c r="H75" s="702"/>
+      <c r="G75" s="691"/>
+      <c r="H75" s="697"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -12109,8 +12114,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="689"/>
-      <c r="H76" s="702"/>
+      <c r="G76" s="691"/>
+      <c r="H76" s="697"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -12248,10 +12253,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="689" t="s">
+      <c r="G94" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="696" t="s">
+      <c r="H94" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12262,8 +12267,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="689"/>
-      <c r="H95" s="696"/>
+      <c r="G95" s="691"/>
+      <c r="H95" s="690"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -12272,8 +12277,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="689"/>
-      <c r="H96" s="696"/>
+      <c r="G96" s="691"/>
+      <c r="H96" s="690"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -12288,7 +12293,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="689" t="s">
+      <c r="G97" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12299,7 +12304,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="689"/>
+      <c r="G98" s="691"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -12308,7 +12313,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="689"/>
+      <c r="G99" s="691"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -12323,7 +12328,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="689" t="s">
+      <c r="G100" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12335,7 +12340,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="689"/>
+      <c r="G101" s="691"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -12345,7 +12350,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="689"/>
+      <c r="G102" s="691"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -12355,7 +12360,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="689"/>
+      <c r="G103" s="691"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -12414,7 +12419,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="689" t="s">
+      <c r="G117" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -12426,7 +12431,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="689"/>
+      <c r="G118" s="691"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -12442,7 +12447,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="689" t="s">
+      <c r="G119" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12453,7 +12458,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="689"/>
+      <c r="G120" s="691"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -12487,7 +12492,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="689" t="s">
+      <c r="G126" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12498,7 +12503,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="689"/>
+      <c r="G127" s="691"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -12524,7 +12529,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="689" t="s">
+      <c r="G130" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12536,7 +12541,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="689"/>
+      <c r="G131" s="691"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -12560,7 +12565,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="689" t="s">
+      <c r="G134" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12571,7 +12576,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="689"/>
+      <c r="G135" s="691"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -12580,7 +12585,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="689"/>
+      <c r="G136" s="691"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -12611,13 +12616,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="689" t="s">
+      <c r="G140" s="691" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="689"/>
+      <c r="G141" s="691"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -12636,7 +12641,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="689"/>
+      <c r="G142" s="691"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12653,7 +12658,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="689"/>
+      <c r="G143" s="691"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12670,11 +12675,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="689"/>
+      <c r="G144" s="691"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="689"/>
+      <c r="G145" s="691"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -12726,7 +12731,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="689" t="s">
+      <c r="G152" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12737,7 +12742,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="689"/>
+      <c r="G153" s="691"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -12748,6 +12753,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G140:G145"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H94:H96"/>
     <mergeCell ref="G97:G99"/>
     <mergeCell ref="G22:G32"/>
@@ -12759,22 +12780,6 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G140:G145"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12900,10 +12905,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="689" t="s">
+      <c r="G13" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="702"/>
+      <c r="H13" s="697"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -12913,8 +12918,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="689"/>
-      <c r="H14" s="702"/>
+      <c r="G14" s="691"/>
+      <c r="H14" s="697"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -12924,8 +12929,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="689"/>
-      <c r="H15" s="702"/>
+      <c r="G15" s="691"/>
+      <c r="H15" s="697"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -12935,8 +12940,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="689"/>
-      <c r="H16" s="702"/>
+      <c r="G16" s="691"/>
+      <c r="H16" s="697"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -12946,8 +12951,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="689"/>
-      <c r="H17" s="702"/>
+      <c r="G17" s="691"/>
+      <c r="H17" s="697"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -12970,10 +12975,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="689" t="s">
+      <c r="G20" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="696" t="s">
+      <c r="H20" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12984,8 +12989,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="689"/>
-      <c r="H21" s="696"/>
+      <c r="G21" s="691"/>
+      <c r="H21" s="690"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -12994,8 +12999,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="689"/>
-      <c r="H22" s="696"/>
+      <c r="G22" s="691"/>
+      <c r="H22" s="690"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -13010,7 +13015,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="689" t="s">
+      <c r="G23" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13021,7 +13026,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="689"/>
+      <c r="G24" s="691"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -13030,7 +13035,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="689"/>
+      <c r="G25" s="691"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -13045,7 +13050,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="689" t="s">
+      <c r="G26" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13057,7 +13062,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="689"/>
+      <c r="G27" s="691"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -13067,7 +13072,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="689"/>
+      <c r="G28" s="691"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -13077,7 +13082,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="689"/>
+      <c r="G29" s="691"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -13130,7 +13135,7 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="689" t="s">
+      <c r="G37" s="691" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="704" t="s">
@@ -13150,7 +13155,7 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="689"/>
+      <c r="G38" s="691"/>
       <c r="H38" s="704"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -13166,7 +13171,7 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="689"/>
+      <c r="G39" s="691"/>
       <c r="H39" s="704"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13177,7 +13182,7 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="689"/>
+      <c r="G40" s="691"/>
       <c r="H40" s="704"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13188,7 +13193,7 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="689"/>
+      <c r="G41" s="691"/>
       <c r="H41" s="704"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -13219,7 +13224,7 @@
       <c r="G46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="702" t="s">
+      <c r="H46" s="697" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13231,10 +13236,10 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="689" t="s">
+      <c r="G47" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="702"/>
+      <c r="H47" s="697"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
@@ -13244,7 +13249,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="689"/>
+      <c r="G48" s="691"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -13255,7 +13260,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="689"/>
+      <c r="G49" s="691"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -13283,10 +13288,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="689" t="s">
+      <c r="G54" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="696" t="s">
+      <c r="H54" s="690" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13297,8 +13302,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="689"/>
-      <c r="H55" s="696"/>
+      <c r="G55" s="691"/>
+      <c r="H55" s="690"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -13307,7 +13312,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="689"/>
+      <c r="G56" s="691"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -13317,7 +13322,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="689"/>
+      <c r="G57" s="691"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13334,7 +13339,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="689"/>
+      <c r="G58" s="691"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13351,7 +13356,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="689"/>
+      <c r="G59" s="691"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -13371,8 +13376,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="689"/>
-      <c r="G61" s="689" t="s">
+      <c r="F61" s="691"/>
+      <c r="G61" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13383,8 +13388,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="689"/>
-      <c r="G62" s="689"/>
+      <c r="F62" s="691"/>
+      <c r="G62" s="691"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -13393,8 +13398,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="689"/>
-      <c r="G63" s="689"/>
+      <c r="F63" s="691"/>
+      <c r="G63" s="691"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -13459,7 +13464,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="689" t="s">
+      <c r="G68" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -13471,7 +13476,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="689"/>
+      <c r="G69" s="691"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -13487,7 +13492,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="689" t="s">
+      <c r="G70" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13498,7 +13503,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="689"/>
+      <c r="G71" s="691"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -13525,10 +13530,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="689" t="s">
+      <c r="G75" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="702" t="s">
+      <c r="H75" s="697" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13546,8 +13551,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="689"/>
-      <c r="H76" s="702"/>
+      <c r="G76" s="691"/>
+      <c r="H76" s="697"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -13563,8 +13568,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="689"/>
-      <c r="H77" s="702"/>
+      <c r="G77" s="691"/>
+      <c r="H77" s="697"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -13599,10 +13604,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="689" t="s">
+      <c r="G81" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="696" t="s">
+      <c r="H81" s="690" t="s">
         <v>430</v>
       </c>
     </row>
@@ -13620,8 +13625,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="689"/>
-      <c r="H82" s="696"/>
+      <c r="G82" s="691"/>
+      <c r="H82" s="690"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -13637,8 +13642,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="689"/>
-      <c r="H83" s="696"/>
+      <c r="G83" s="691"/>
+      <c r="H83" s="690"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -13654,8 +13659,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="689"/>
-      <c r="H84" s="696"/>
+      <c r="G84" s="691"/>
+      <c r="H84" s="690"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -13671,10 +13676,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="702" t="s">
+      <c r="G85" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="702" t="s">
+      <c r="H85" s="697" t="s">
         <v>446</v>
       </c>
     </row>
@@ -13692,8 +13697,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="702"/>
-      <c r="H86" s="702"/>
+      <c r="G86" s="697"/>
+      <c r="H86" s="697"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -13725,10 +13730,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="689" t="s">
+      <c r="F89" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="703" t="s">
+      <c r="H89" s="705" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13739,8 +13744,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="689"/>
-      <c r="H90" s="703"/>
+      <c r="F90" s="691"/>
+      <c r="H90" s="705"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -13750,8 +13755,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="689"/>
-      <c r="H91" s="703"/>
+      <c r="F91" s="691"/>
+      <c r="H91" s="705"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -13767,8 +13772,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="689"/>
-      <c r="H92" s="703"/>
+      <c r="F92" s="691"/>
+      <c r="H92" s="705"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -13784,10 +13789,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="689" t="s">
+      <c r="G93" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="702" t="s">
+      <c r="H93" s="697" t="s">
         <v>51</v>
       </c>
     </row>
@@ -13804,8 +13809,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="689"/>
-      <c r="H94" s="702"/>
+      <c r="G94" s="691"/>
+      <c r="H94" s="697"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -13814,7 +13819,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="689" t="s">
+      <c r="G95" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13832,7 +13837,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="689"/>
+      <c r="G96" s="691"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -13855,7 +13860,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="689" t="s">
+      <c r="G99" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13866,7 +13871,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="689"/>
+      <c r="G100" s="691"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -13892,7 +13897,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="689" t="s">
+      <c r="G103" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13904,7 +13909,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="689"/>
+      <c r="G104" s="691"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -13928,7 +13933,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="689" t="s">
+      <c r="G107" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13939,7 +13944,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="689"/>
+      <c r="G108" s="691"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -13948,7 +13953,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="689"/>
+      <c r="G109" s="691"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -13965,7 +13970,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="689" t="s">
+      <c r="G110" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13977,7 +13982,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="689"/>
+      <c r="G111" s="691"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -13990,7 +13995,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="689"/>
+      <c r="G112" s="691"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -14007,7 +14012,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="689"/>
+      <c r="G113" s="691"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -14054,7 +14059,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="689" t="s">
+      <c r="G117" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14073,7 +14078,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="689"/>
+      <c r="G118" s="691"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -14092,7 +14097,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="689"/>
+      <c r="G119" s="691"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -14109,7 +14114,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="689"/>
+      <c r="G120" s="691"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -14126,7 +14131,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="689"/>
+      <c r="G121" s="691"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -14143,7 +14148,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="689"/>
+      <c r="G122" s="691"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -14158,7 +14163,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="689"/>
+      <c r="G123" s="691"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -14263,7 +14268,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="689" t="s">
+      <c r="G133" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14274,13 +14279,36 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="689"/>
+      <c r="G134" s="691"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G47:G49"/>
@@ -14291,29 +14319,6 @@
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="H37:H41"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14358,10 +14363,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="705" t="s">
+      <c r="B6" s="707" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="696" t="s">
+      <c r="C6" s="690" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -14370,84 +14375,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="689" t="s">
+      <c r="F6" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="696" t="s">
+      <c r="H6" s="690" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="705"/>
-      <c r="C7" s="696"/>
+      <c r="B7" s="707"/>
+      <c r="C7" s="690"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="689"/>
-      <c r="H7" s="696"/>
+      <c r="F7" s="691"/>
+      <c r="H7" s="690"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="705"/>
-      <c r="C8" s="696"/>
+      <c r="B8" s="707"/>
+      <c r="C8" s="690"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="689"/>
-      <c r="H8" s="696"/>
+      <c r="F8" s="691"/>
+      <c r="H8" s="690"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="705"/>
-      <c r="C9" s="696"/>
+      <c r="B9" s="707"/>
+      <c r="C9" s="690"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="689"/>
-      <c r="H9" s="696"/>
+      <c r="F9" s="691"/>
+      <c r="H9" s="690"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="705"/>
-      <c r="C10" s="696"/>
+      <c r="B10" s="707"/>
+      <c r="C10" s="690"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="689"/>
-      <c r="H10" s="696"/>
+      <c r="F10" s="691"/>
+      <c r="H10" s="690"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="705"/>
-      <c r="C11" s="696"/>
+      <c r="B11" s="707"/>
+      <c r="C11" s="690"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="689"/>
-      <c r="H11" s="696"/>
+      <c r="F11" s="691"/>
+      <c r="H11" s="690"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="705"/>
-      <c r="C12" s="696"/>
+      <c r="B12" s="707"/>
+      <c r="C12" s="690"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="689"/>
-      <c r="H12" s="696"/>
+      <c r="F12" s="691"/>
+      <c r="H12" s="690"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -14488,7 +14493,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="689" t="s">
+      <c r="F16" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14506,7 +14511,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="689"/>
+      <c r="F17" s="691"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -14547,7 +14552,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="689" t="s">
+      <c r="F21" s="691" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -14567,7 +14572,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="689"/>
+      <c r="F22" s="691"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -14582,7 +14587,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="689"/>
+      <c r="F23" s="691"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -14597,7 +14602,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="689"/>
+      <c r="F24" s="691"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -14612,7 +14617,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="689"/>
+      <c r="F25" s="691"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -14621,7 +14626,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="689"/>
+      <c r="F26" s="691"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -14652,10 +14657,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="689" t="s">
+      <c r="F30" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="702" t="s">
+      <c r="H30" s="697" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14672,8 +14677,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="689"/>
-      <c r="H31" s="702"/>
+      <c r="F31" s="691"/>
+      <c r="H31" s="697"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -14688,8 +14693,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="689"/>
-      <c r="H32" s="702"/>
+      <c r="F32" s="691"/>
+      <c r="H32" s="697"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -14698,8 +14703,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="689"/>
-      <c r="H33" s="702"/>
+      <c r="F33" s="691"/>
+      <c r="H33" s="697"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -14708,10 +14713,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="689" t="s">
+      <c r="G34" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="702"/>
+      <c r="H34" s="697"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -14720,8 +14725,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="689"/>
-      <c r="H35" s="702"/>
+      <c r="G35" s="691"/>
+      <c r="H35" s="697"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -14730,8 +14735,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="689"/>
-      <c r="H36" s="702"/>
+      <c r="G36" s="691"/>
+      <c r="H36" s="697"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -14746,10 +14751,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="689" t="s">
+      <c r="F37" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="702" t="s">
+      <c r="H37" s="697" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14760,8 +14765,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="689"/>
-      <c r="H38" s="702"/>
+      <c r="F38" s="691"/>
+      <c r="H38" s="697"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -14770,8 +14775,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="689"/>
-      <c r="H39" s="702"/>
+      <c r="F39" s="691"/>
+      <c r="H39" s="697"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -14786,10 +14791,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="689" t="s">
+      <c r="G40" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="702"/>
+      <c r="H40" s="697"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -14799,8 +14804,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="689"/>
-      <c r="H41" s="702"/>
+      <c r="G41" s="691"/>
+      <c r="H41" s="697"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -14810,8 +14815,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="689"/>
-      <c r="H42" s="702"/>
+      <c r="G42" s="691"/>
+      <c r="H42" s="697"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -14821,8 +14826,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="689"/>
-      <c r="H43" s="702"/>
+      <c r="G43" s="691"/>
+      <c r="H43" s="697"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -14832,8 +14837,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="689"/>
-      <c r="H44" s="702"/>
+      <c r="G44" s="691"/>
+      <c r="H44" s="697"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -14856,10 +14861,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="689" t="s">
+      <c r="G47" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="696" t="s">
+      <c r="H47" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14870,8 +14875,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="689"/>
-      <c r="H48" s="696"/>
+      <c r="G48" s="691"/>
+      <c r="H48" s="690"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -14880,8 +14885,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="689"/>
-      <c r="H49" s="696"/>
+      <c r="G49" s="691"/>
+      <c r="H49" s="690"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -14896,7 +14901,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="689" t="s">
+      <c r="G50" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14907,7 +14912,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="689"/>
+      <c r="G51" s="691"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -14916,7 +14921,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="689"/>
+      <c r="G52" s="691"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -14932,7 +14937,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="689" t="s">
+      <c r="G53" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14945,7 +14950,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="689"/>
+      <c r="G54" s="691"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -14956,7 +14961,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="689"/>
+      <c r="G55" s="691"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -14967,7 +14972,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="689"/>
+      <c r="G56" s="691"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -15088,7 +15093,7 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="689" t="s">
+      <c r="G69" s="691" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="704" t="s">
@@ -15108,7 +15113,7 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="689"/>
+      <c r="G70" s="691"/>
       <c r="H70" s="704"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -15124,7 +15129,7 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="689"/>
+      <c r="G71" s="691"/>
       <c r="H71" s="704"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15135,7 +15140,7 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="689"/>
+      <c r="G72" s="691"/>
       <c r="H72" s="704"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15146,7 +15151,7 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="689"/>
+      <c r="G73" s="691"/>
       <c r="H73" s="704"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -15177,7 +15182,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="702" t="s">
+      <c r="H78" s="697" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15189,10 +15194,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="689" t="s">
+      <c r="F79" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="702"/>
+      <c r="H79" s="697"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -15202,8 +15207,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="689"/>
-      <c r="H80" s="702"/>
+      <c r="F80" s="691"/>
+      <c r="H80" s="697"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -15213,7 +15218,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="689" t="s">
+      <c r="G81" s="691" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -15226,7 +15231,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="689"/>
+      <c r="G82" s="691"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -15237,7 +15242,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="689"/>
+      <c r="G83" s="691"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15253,7 +15258,7 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="689" t="s">
+      <c r="F85" s="691" t="s">
         <v>4</v>
       </c>
       <c r="H85" s="706" t="s">
@@ -15268,7 +15273,7 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="689"/>
+      <c r="F86" s="691"/>
       <c r="H86" s="706"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -15279,7 +15284,7 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="689"/>
+      <c r="F87" s="691"/>
       <c r="H87" s="706"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -15290,7 +15295,7 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="689"/>
+      <c r="F88" s="691"/>
       <c r="H88" s="706"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
@@ -15309,7 +15314,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="702" t="s">
+      <c r="H90" s="697" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15326,10 +15331,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="689" t="s">
+      <c r="F91" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="702"/>
+      <c r="H91" s="697"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -15339,8 +15344,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="689"/>
-      <c r="H92" s="702"/>
+      <c r="F92" s="691"/>
+      <c r="H92" s="697"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -15358,7 +15363,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="702"/>
+      <c r="H93" s="697"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -15376,7 +15381,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="702"/>
+      <c r="H94" s="697"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -15391,7 +15396,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="689" t="s">
+      <c r="F96" s="691" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -15406,7 +15411,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="689"/>
+      <c r="F97" s="691"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -15415,7 +15420,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="689"/>
+      <c r="F98" s="691"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -15430,7 +15435,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="689" t="s">
+      <c r="F99" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15447,7 +15452,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="689"/>
+      <c r="F100" s="691"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -15459,10 +15464,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="689" t="s">
+      <c r="G101" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="696" t="s">
+      <c r="H101" s="690" t="s">
         <v>40</v>
       </c>
     </row>
@@ -15473,8 +15478,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="689"/>
-      <c r="H102" s="696"/>
+      <c r="G102" s="691"/>
+      <c r="H102" s="690"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -15483,7 +15488,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="689"/>
+      <c r="G103" s="691"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -15493,7 +15498,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="689"/>
+      <c r="G104" s="691"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15510,7 +15515,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="689"/>
+      <c r="G105" s="691"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15527,7 +15532,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="689"/>
+      <c r="G106" s="691"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -15547,7 +15552,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="689" t="s">
+      <c r="F108" s="691" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -15565,7 +15570,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="689"/>
+      <c r="F109" s="691"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -15575,7 +15580,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="689"/>
+      <c r="F110" s="691"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -15585,7 +15590,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="689"/>
+      <c r="F111" s="691"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -15595,7 +15600,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="689"/>
+      <c r="F112" s="691"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -15604,7 +15609,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="689"/>
+      <c r="F113" s="691"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -15619,10 +15624,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="689" t="s">
+      <c r="F114" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="696" t="s">
+      <c r="H114" s="690" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15639,8 +15644,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="689"/>
-      <c r="H115" s="696"/>
+      <c r="F115" s="691"/>
+      <c r="H115" s="690"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -15655,8 +15660,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="689"/>
-      <c r="H116" s="696"/>
+      <c r="F116" s="691"/>
+      <c r="H116" s="690"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -15671,8 +15676,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="689"/>
-      <c r="H117" s="696"/>
+      <c r="F117" s="691"/>
+      <c r="H117" s="690"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -15681,8 +15686,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="689"/>
-      <c r="H118" s="696"/>
+      <c r="F118" s="691"/>
+      <c r="H118" s="690"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -15691,8 +15696,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="689"/>
-      <c r="H119" s="696"/>
+      <c r="F119" s="691"/>
+      <c r="H119" s="690"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -15701,8 +15706,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="689"/>
-      <c r="H120" s="696"/>
+      <c r="F120" s="691"/>
+      <c r="H120" s="690"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -15711,8 +15716,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="689"/>
-      <c r="H121" s="696"/>
+      <c r="F121" s="691"/>
+      <c r="H121" s="690"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -15721,8 +15726,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="689"/>
-      <c r="H122" s="696"/>
+      <c r="F122" s="691"/>
+      <c r="H122" s="690"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -15738,8 +15743,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="689"/>
-      <c r="G123" s="689" t="s">
+      <c r="F123" s="691"/>
+      <c r="G123" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15750,8 +15755,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="689"/>
-      <c r="G124" s="689"/>
+      <c r="F124" s="691"/>
+      <c r="G124" s="691"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -15760,8 +15765,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="689"/>
-      <c r="G125" s="689"/>
+      <c r="F125" s="691"/>
+      <c r="G125" s="691"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -15770,10 +15775,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="689" t="s">
+      <c r="F126" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="702" t="s">
+      <c r="H126" s="697" t="s">
         <v>41</v>
       </c>
     </row>
@@ -15791,8 +15796,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="689"/>
-      <c r="H127" s="702"/>
+      <c r="F127" s="691"/>
+      <c r="H127" s="697"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -15807,7 +15812,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="689"/>
+      <c r="F128" s="691"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -15816,7 +15821,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="689"/>
+      <c r="F129" s="691"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -15826,7 +15831,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="689"/>
+      <c r="F130" s="691"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -15835,7 +15840,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="689"/>
+      <c r="F131" s="691"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -15851,7 +15856,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="689" t="s">
+      <c r="F132" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15862,7 +15867,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="689"/>
+      <c r="F133" s="691"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -15949,7 +15954,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="689" t="s">
+      <c r="G139" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -15961,7 +15966,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="689"/>
+      <c r="G140" s="691"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -15977,7 +15982,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="689" t="s">
+      <c r="G141" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15988,7 +15993,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="689"/>
+      <c r="G142" s="691"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -16015,10 +16020,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="689" t="s">
+      <c r="G146" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="702" t="s">
+      <c r="H146" s="697" t="s">
         <v>48</v>
       </c>
     </row>
@@ -16036,8 +16041,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="689"/>
-      <c r="H147" s="702"/>
+      <c r="G147" s="691"/>
+      <c r="H147" s="697"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -16053,8 +16058,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="689"/>
-      <c r="H148" s="702"/>
+      <c r="G148" s="691"/>
+      <c r="H148" s="697"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -16096,10 +16101,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="689" t="s">
+      <c r="F152" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="702" t="s">
+      <c r="H152" s="697" t="s">
         <v>417</v>
       </c>
     </row>
@@ -16116,8 +16121,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="689"/>
-      <c r="H153" s="702"/>
+      <c r="F153" s="691"/>
+      <c r="H153" s="697"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -16132,8 +16137,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="689"/>
-      <c r="H154" s="702"/>
+      <c r="F154" s="691"/>
+      <c r="H154" s="697"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -16144,10 +16149,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="689" t="s">
+      <c r="G155" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="696" t="s">
+      <c r="H155" s="690" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16166,8 +16171,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="689"/>
-      <c r="H156" s="696"/>
+      <c r="G156" s="691"/>
+      <c r="H156" s="690"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -16184,8 +16189,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="689"/>
-      <c r="H157" s="696"/>
+      <c r="G157" s="691"/>
+      <c r="H157" s="690"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -16202,8 +16207,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="689"/>
-      <c r="H158" s="696"/>
+      <c r="G158" s="691"/>
+      <c r="H158" s="690"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -16219,7 +16224,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="689" t="s">
+      <c r="F159" s="691" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -16239,7 +16244,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="689"/>
+      <c r="F160" s="691"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -16257,10 +16262,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="702" t="s">
+      <c r="G161" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="702" t="s">
+      <c r="H161" s="697" t="s">
         <v>446</v>
       </c>
     </row>
@@ -16279,8 +16284,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="702"/>
-      <c r="H162" s="702"/>
+      <c r="G162" s="697"/>
+      <c r="H162" s="697"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -16299,11 +16304,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="689" t="s">
+      <c r="F164" s="691" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="702" t="s">
+      <c r="H164" s="697" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16315,9 +16320,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="689"/>
+      <c r="F165" s="691"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="702"/>
+      <c r="H165" s="697"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -16327,9 +16332,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="689"/>
+      <c r="F166" s="691"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="702"/>
+      <c r="H166" s="697"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -16345,9 +16350,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="689"/>
+      <c r="F167" s="691"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="702"/>
+      <c r="H167" s="697"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -16362,8 +16367,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="689"/>
-      <c r="H168" s="702"/>
+      <c r="F168" s="691"/>
+      <c r="H168" s="697"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -16372,8 +16377,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="689"/>
-      <c r="H169" s="702"/>
+      <c r="F169" s="691"/>
+      <c r="H169" s="697"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -16385,7 +16390,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="702"/>
+      <c r="H170" s="697"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -16405,10 +16410,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="689" t="s">
+      <c r="F172" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="703" t="s">
+      <c r="H172" s="705" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16419,8 +16424,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="689"/>
-      <c r="H173" s="703"/>
+      <c r="F173" s="691"/>
+      <c r="H173" s="705"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -16430,8 +16435,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="689"/>
-      <c r="H174" s="703"/>
+      <c r="F174" s="691"/>
+      <c r="H174" s="705"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -16447,8 +16452,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="689"/>
-      <c r="H175" s="703"/>
+      <c r="F175" s="691"/>
+      <c r="H175" s="705"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -16464,10 +16469,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="689" t="s">
+      <c r="G176" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="702" t="s">
+      <c r="H176" s="697" t="s">
         <v>51</v>
       </c>
     </row>
@@ -16484,8 +16489,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="689"/>
-      <c r="H177" s="702"/>
+      <c r="G177" s="691"/>
+      <c r="H177" s="697"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -16494,7 +16499,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="689" t="s">
+      <c r="G178" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16512,7 +16517,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="689"/>
+      <c r="G179" s="691"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -16538,7 +16543,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="702" t="s">
+      <c r="H182" s="697" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16560,7 +16565,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="702"/>
+      <c r="H183" s="697"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -16577,7 +16582,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="689" t="s">
+      <c r="G184" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16591,7 +16596,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="689"/>
+      <c r="G185" s="691"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -16626,7 +16631,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="702" t="s">
+      <c r="H188" s="697" t="s">
         <v>493</v>
       </c>
     </row>
@@ -16647,7 +16652,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="702"/>
+      <c r="H189" s="697"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -16663,10 +16668,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="689" t="s">
+      <c r="G190" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="702"/>
+      <c r="H190" s="697"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -16676,8 +16681,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="689"/>
-      <c r="H191" s="702"/>
+      <c r="G191" s="691"/>
+      <c r="H191" s="697"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -16698,7 +16703,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="689" t="s">
+      <c r="F194" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16710,7 +16715,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="689"/>
+      <c r="F195" s="691"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16728,7 +16733,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="689" t="s">
+      <c r="G196" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16742,7 +16747,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="689"/>
+      <c r="G197" s="691"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -16751,7 +16756,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="689"/>
+      <c r="G198" s="691"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -16768,7 +16773,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="689" t="s">
+      <c r="G199" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16783,7 +16788,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="689"/>
+      <c r="G200" s="691"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -16799,7 +16804,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="689"/>
+      <c r="G201" s="691"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -16817,7 +16822,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="689"/>
+      <c r="G202" s="691"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -16878,7 +16883,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="689" t="s">
+      <c r="G206" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16898,7 +16903,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="689"/>
+      <c r="G207" s="691"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -16917,7 +16922,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="689"/>
+      <c r="G208" s="691"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -16934,7 +16939,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="689"/>
+      <c r="G209" s="691"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -16951,7 +16956,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="689"/>
+      <c r="G210" s="691"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -16968,7 +16973,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="689"/>
+      <c r="G211" s="691"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -16983,7 +16988,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="689"/>
+      <c r="G212" s="691"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -17002,7 +17007,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="702" t="s">
+      <c r="H213" s="697" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17023,7 +17028,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="702"/>
+      <c r="H214" s="697"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -17039,10 +17044,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="689" t="s">
+      <c r="F215" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="702" t="s">
+      <c r="H215" s="697" t="s">
         <v>546</v>
       </c>
     </row>
@@ -17054,8 +17059,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="689"/>
-      <c r="H216" s="702"/>
+      <c r="F216" s="691"/>
+      <c r="H216" s="697"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -17121,10 +17126,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="689" t="s">
+      <c r="F220" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="702" t="s">
+      <c r="H220" s="697" t="s">
         <v>556</v>
       </c>
     </row>
@@ -17136,8 +17141,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="689"/>
-      <c r="H221" s="702"/>
+      <c r="F221" s="691"/>
+      <c r="H221" s="697"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -17146,8 +17151,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="689"/>
-      <c r="H222" s="702"/>
+      <c r="F222" s="691"/>
+      <c r="H222" s="697"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -17178,10 +17183,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="689" t="s">
+      <c r="F226" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="703" t="s">
+      <c r="H226" s="705" t="s">
         <v>566</v>
       </c>
     </row>
@@ -17192,8 +17197,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="689"/>
-      <c r="H227" s="703"/>
+      <c r="F227" s="691"/>
+      <c r="H227" s="705"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -17202,8 +17207,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="689"/>
-      <c r="H228" s="703"/>
+      <c r="F228" s="691"/>
+      <c r="H228" s="705"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -17213,8 +17218,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="689"/>
-      <c r="H229" s="703"/>
+      <c r="F229" s="691"/>
+      <c r="H229" s="705"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -17223,8 +17228,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="689"/>
-      <c r="H230" s="703"/>
+      <c r="F230" s="691"/>
+      <c r="H230" s="705"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -17243,7 +17248,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="703"/>
+      <c r="H231" s="705"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -17285,10 +17290,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="689" t="s">
+      <c r="F235" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="702" t="s">
+      <c r="H235" s="697" t="s">
         <v>580</v>
       </c>
     </row>
@@ -17299,8 +17304,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="689"/>
-      <c r="H236" s="702"/>
+      <c r="F236" s="691"/>
+      <c r="H236" s="697"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -17309,8 +17314,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="689"/>
-      <c r="H237" s="702"/>
+      <c r="F237" s="691"/>
+      <c r="H237" s="697"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -17319,8 +17324,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="689"/>
-      <c r="H238" s="702"/>
+      <c r="F238" s="691"/>
+      <c r="H238" s="697"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -17336,7 +17341,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="689" t="s">
+      <c r="G239" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17347,7 +17352,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="689"/>
+      <c r="G240" s="691"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -17363,11 +17368,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="689" t="s">
+      <c r="F241" s="691" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="702" t="s">
+      <c r="H241" s="697" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17378,9 +17383,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="689"/>
+      <c r="F242" s="691"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="702"/>
+      <c r="H242" s="697"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
@@ -17497,14 +17502,57 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="F226:F230"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="G199:G202"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G101:G106"/>
+    <mergeCell ref="F114:F122"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="F126:F131"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="G206:G212"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H176:H177"/>
     <mergeCell ref="H6:H12"/>
     <mergeCell ref="G53:G56"/>
     <mergeCell ref="H213:H214"/>
@@ -17521,57 +17569,14 @@
     <mergeCell ref="H152:H154"/>
     <mergeCell ref="F152:F154"/>
     <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="G206:G212"/>
-    <mergeCell ref="H220:H222"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="G199:G202"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G101:G106"/>
-    <mergeCell ref="F114:F122"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="F126:F131"/>
-    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="F226:F230"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G239:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2018" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="767">
   <si>
     <t>A – Analyser</t>
   </si>
@@ -2358,9 +2358,6 @@
     <t>Synthèse sur les non linéarités.</t>
   </si>
   <si>
-    <t xml:space="preserve">Synthèse sur les questions suites aux exercices d'application. </t>
-  </si>
-  <si>
     <t>Démarrage TD en groupe.</t>
   </si>
   <si>
@@ -2420,6 +2417,12 @@
   </si>
   <si>
     <t xml:space="preserve">En MPSI/PCSI une analyse et une modélisation des SLCI. Des moyens ont été mis en œuvres pour mesurer ou prévoir les performances des systèmes (rapidité, stabilité, précision). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synthèse sur les questions suite aux exercices d'application. </t>
+  </si>
+  <si>
+    <t>Suite du TD.  Eventuellement lanceur vega</t>
   </si>
 </sst>
 </file>
@@ -5481,7 +5484,7 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>378335</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>99263</xdr:rowOff>
+      <xdr:rowOff>99264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5621,7 +5624,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>1190724</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>85316</xdr:rowOff>
+      <xdr:rowOff>85317</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5797,7 +5800,7 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>942975</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6894,7 +6897,7 @@
         <v>669</v>
       </c>
       <c r="K2" s="494" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="L2" s="199" t="s">
         <v>623</v>
@@ -7975,7 +7978,7 @@
       <c r="O29" s="182"/>
       <c r="P29" s="274"/>
       <c r="Q29" s="446" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -8695,8 +8698,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:E12"/>
+    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9031,7 +9034,7 @@
         <v>735</v>
       </c>
       <c r="I22" s="410" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="J22" s="408"/>
     </row>
@@ -9048,14 +9051,14 @@
         <v>735</v>
       </c>
       <c r="F23" s="405" t="s">
-        <v>745</v>
+        <v>765</v>
       </c>
       <c r="G23" s="406"/>
       <c r="H23" s="407" t="s">
         <v>735</v>
       </c>
       <c r="I23" s="405" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J23" s="408"/>
     </row>
@@ -9068,38 +9071,38 @@
         <v>735</v>
       </c>
       <c r="F24" s="405" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G24" s="406"/>
       <c r="H24" s="407" t="s">
         <v>735</v>
       </c>
       <c r="I24" s="405" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="J24" s="408"/>
     </row>
-    <row r="25" spans="1:10" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="401"/>
       <c r="B25" s="404" t="s">
         <v>739</v>
       </c>
       <c r="C25" s="405" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D25" s="406"/>
       <c r="E25" s="407" t="s">
         <v>739</v>
       </c>
       <c r="F25" s="405" t="s">
-        <v>747</v>
+        <v>766</v>
       </c>
       <c r="G25" s="406"/>
       <c r="H25" s="407" t="s">
         <v>739</v>
       </c>
       <c r="I25" s="405" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="J25" s="406"/>
     </row>
@@ -9120,10 +9123,10 @@
       </c>
       <c r="G26" s="414"/>
       <c r="H26" s="415" t="s">
+        <v>750</v>
+      </c>
+      <c r="I26" s="413" t="s">
         <v>751</v>
-      </c>
-      <c r="I26" s="413" t="s">
-        <v>752</v>
       </c>
       <c r="J26" s="414"/>
     </row>
@@ -9167,15 +9170,15 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="402" t="s">
+        <v>747</v>
+      </c>
+      <c r="B30" s="593" t="s">
         <v>748</v>
-      </c>
-      <c r="B30" s="593" t="s">
-        <v>749</v>
       </c>
       <c r="C30" s="594"/>
       <c r="D30" s="595"/>
       <c r="E30" s="593" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F30" s="594"/>
       <c r="G30" s="595"/>
@@ -9250,8 +9253,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7:J7"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9318,9 +9321,9 @@
       <c r="I4" s="647"/>
       <c r="J4" s="648"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="652" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B5" s="653"/>
       <c r="C5" s="653"/>
@@ -9333,7 +9336,7 @@
       </c>
       <c r="G5" s="610"/>
       <c r="H5" s="444" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I5" s="609" t="s">
         <v>106</v>
@@ -9345,7 +9348,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="652"/>
       <c r="B6" s="653"/>
       <c r="C6" s="653"/>
@@ -9369,7 +9372,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="652"/>
       <c r="B7" s="653"/>
       <c r="C7" s="653"/>
@@ -9382,7 +9385,7 @@
       </c>
       <c r="G7" s="610"/>
       <c r="H7" s="444" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I7" s="609" t="s">
         <v>427</v>
@@ -9391,7 +9394,7 @@
       <c r="Q7" s="608"/>
       <c r="R7" s="608"/>
     </row>
-    <row r="8" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="652"/>
       <c r="B8" s="653"/>
       <c r="C8" s="653"/>
@@ -9404,7 +9407,7 @@
       </c>
       <c r="G8" s="610"/>
       <c r="H8" s="444" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I8" s="609" t="s">
         <v>428</v>
@@ -9413,7 +9416,7 @@
       <c r="Q8" s="608"/>
       <c r="R8" s="608"/>
     </row>
-    <row r="9" spans="1:20" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="652"/>
       <c r="B9" s="653"/>
       <c r="C9" s="653"/>
@@ -9426,14 +9429,14 @@
       </c>
       <c r="G9" s="610"/>
       <c r="H9" s="444" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I9" s="609" t="s">
         <v>429</v>
       </c>
       <c r="J9" s="610"/>
     </row>
-    <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="652"/>
       <c r="B10" s="653"/>
       <c r="C10" s="653"/>
@@ -9446,7 +9449,7 @@
       </c>
       <c r="G10" s="610"/>
       <c r="H10" s="444" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I10" s="609" t="s">
         <v>444</v>
@@ -9466,7 +9469,7 @@
       </c>
       <c r="G11" s="645"/>
       <c r="H11" s="445" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I11" s="644" t="s">
         <v>445</v>
@@ -9504,7 +9507,7 @@
     </row>
     <row r="14" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="649" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B14" s="650"/>
       <c r="C14" s="650"/>
@@ -9716,15 +9719,15 @@
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="436" t="s">
+        <v>747</v>
+      </c>
+      <c r="B32" s="611" t="s">
         <v>748</v>
-      </c>
-      <c r="B32" s="611" t="s">
-        <v>749</v>
       </c>
       <c r="C32" s="612"/>
       <c r="D32" s="613"/>
       <c r="E32" s="611" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F32" s="612"/>
       <c r="G32" s="613"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2018" sheetId="4" r:id="rId1"/>
@@ -3402,7 +3402,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="708">
+  <cellXfs count="709">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4670,6 +4670,258 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4694,45 +4946,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4766,15 +4979,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4787,209 +4991,131 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5003,15 +5129,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -5036,288 +5153,171 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5400,10 +5400,28 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5423,35 +5441,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6875,28 +6878,28 @@
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="491" t="str">
+      <c r="E2" s="523" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="506" t="s">
+      <c r="F2" s="490" t="s">
         <v>705</v>
       </c>
-      <c r="G2" s="494" t="s">
+      <c r="G2" s="511" t="s">
         <v>666</v>
       </c>
-      <c r="H2" s="524" t="str">
+      <c r="H2" s="508" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="524" t="str">
+      <c r="I2" s="508" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="528" t="s">
+      <c r="J2" s="513" t="s">
         <v>669</v>
       </c>
-      <c r="K2" s="494" t="s">
+      <c r="K2" s="511" t="s">
         <v>754</v>
       </c>
       <c r="L2" s="199" t="s">
@@ -6931,13 +6934,13 @@
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="492"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="525"/>
-      <c r="I3" s="525"/>
-      <c r="J3" s="529"/>
-      <c r="K3" s="527"/>
+      <c r="E3" s="524"/>
+      <c r="F3" s="491"/>
+      <c r="G3" s="526"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="514"/>
+      <c r="K3" s="512"/>
       <c r="L3" s="202" t="s">
         <v>624</v>
       </c>
@@ -6970,11 +6973,11 @@
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="493"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="496"/>
-      <c r="H4" s="526"/>
-      <c r="I4" s="526"/>
+      <c r="E4" s="525"/>
+      <c r="F4" s="492"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="510"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="205" t="s">
         <v>668</v>
       </c>
@@ -7011,21 +7014,21 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="503" t="str">
+      <c r="E5" s="487" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="509" t="s">
+      <c r="F5" s="493" t="s">
         <v>691</v>
       </c>
-      <c r="G5" s="497" t="s">
+      <c r="G5" s="528" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="488" t="str">
+      <c r="H5" s="520" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="488" t="str">
+      <c r="I5" s="520" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
@@ -7061,11 +7064,11 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="504"/>
-      <c r="F6" s="510"/>
-      <c r="G6" s="498"/>
-      <c r="H6" s="489"/>
-      <c r="I6" s="489"/>
+      <c r="E6" s="488"/>
+      <c r="F6" s="494"/>
+      <c r="G6" s="529"/>
+      <c r="H6" s="521"/>
+      <c r="I6" s="521"/>
       <c r="J6" s="207" t="s">
         <v>671</v>
       </c>
@@ -7100,11 +7103,11 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="505"/>
-      <c r="F7" s="511"/>
-      <c r="G7" s="499"/>
-      <c r="H7" s="490"/>
-      <c r="I7" s="490"/>
+      <c r="E7" s="489"/>
+      <c r="F7" s="495"/>
+      <c r="G7" s="530"/>
+      <c r="H7" s="522"/>
+      <c r="I7" s="522"/>
       <c r="J7" s="214" t="s">
         <v>672</v>
       </c>
@@ -7141,7 +7144,7 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="520" t="s">
+      <c r="F8" s="504" t="s">
         <v>696</v>
       </c>
       <c r="G8" s="218" t="s">
@@ -7182,23 +7185,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="518" t="s">
+      <c r="E9" s="502" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="521"/>
-      <c r="G9" s="512" t="s">
+      <c r="F9" s="505"/>
+      <c r="G9" s="496" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="513"/>
-      <c r="I9" s="513"/>
-      <c r="J9" s="513"/>
-      <c r="K9" s="513"/>
-      <c r="L9" s="513"/>
-      <c r="M9" s="513"/>
-      <c r="N9" s="513"/>
-      <c r="O9" s="513"/>
-      <c r="P9" s="513"/>
-      <c r="Q9" s="514"/>
+      <c r="H9" s="497"/>
+      <c r="I9" s="497"/>
+      <c r="J9" s="497"/>
+      <c r="K9" s="497"/>
+      <c r="L9" s="497"/>
+      <c r="M9" s="497"/>
+      <c r="N9" s="497"/>
+      <c r="O9" s="497"/>
+      <c r="P9" s="497"/>
+      <c r="Q9" s="498"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -7214,19 +7217,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="519"/>
-      <c r="F10" s="521"/>
-      <c r="G10" s="515"/>
-      <c r="H10" s="516"/>
-      <c r="I10" s="516"/>
-      <c r="J10" s="516"/>
-      <c r="K10" s="516"/>
-      <c r="L10" s="516"/>
-      <c r="M10" s="516"/>
-      <c r="N10" s="516"/>
-      <c r="O10" s="516"/>
-      <c r="P10" s="516"/>
-      <c r="Q10" s="517"/>
+      <c r="E10" s="503"/>
+      <c r="F10" s="505"/>
+      <c r="G10" s="499"/>
+      <c r="H10" s="500"/>
+      <c r="I10" s="500"/>
+      <c r="J10" s="500"/>
+      <c r="K10" s="500"/>
+      <c r="L10" s="500"/>
+      <c r="M10" s="500"/>
+      <c r="N10" s="500"/>
+      <c r="O10" s="500"/>
+      <c r="P10" s="500"/>
+      <c r="Q10" s="501"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -7247,26 +7250,26 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="453" t="str">
+      <c r="E11" s="537" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="486" t="s">
+      <c r="F11" s="505"/>
+      <c r="G11" s="515" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="468" t="str">
+      <c r="H11" s="539" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="468" t="str">
+      <c r="I11" s="539" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="486" t="s">
+      <c r="J11" s="515" t="s">
         <v>673</v>
       </c>
-      <c r="K11" s="486" t="s">
+      <c r="K11" s="515" t="s">
         <v>685</v>
       </c>
       <c r="L11" s="223" t="s">
@@ -7299,13 +7302,13 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="454"/>
-      <c r="F12" s="522"/>
-      <c r="G12" s="487"/>
-      <c r="H12" s="469"/>
-      <c r="I12" s="469"/>
-      <c r="J12" s="487"/>
-      <c r="K12" s="487"/>
+      <c r="E12" s="538"/>
+      <c r="F12" s="506"/>
+      <c r="G12" s="516"/>
+      <c r="H12" s="540"/>
+      <c r="I12" s="540"/>
+      <c r="J12" s="516"/>
+      <c r="K12" s="516"/>
       <c r="L12" s="226" t="s">
         <v>631</v>
       </c>
@@ -7334,21 +7337,21 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="476" t="str">
+      <c r="E13" s="547" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="523" t="s">
+      <c r="F13" s="507" t="s">
         <v>698</v>
       </c>
-      <c r="G13" s="500" t="s">
+      <c r="G13" s="484" t="s">
         <v>653</v>
       </c>
-      <c r="H13" s="530" t="str">
+      <c r="H13" s="517" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="530" t="str">
+      <c r="I13" s="517" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
@@ -7384,11 +7387,11 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="477"/>
-      <c r="F14" s="501"/>
-      <c r="G14" s="501"/>
-      <c r="H14" s="531"/>
-      <c r="I14" s="531"/>
+      <c r="E14" s="548"/>
+      <c r="F14" s="485"/>
+      <c r="G14" s="485"/>
+      <c r="H14" s="518"/>
+      <c r="I14" s="518"/>
       <c r="J14" s="384" t="s">
         <v>704</v>
       </c>
@@ -7421,11 +7424,11 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="478"/>
-      <c r="F15" s="502"/>
-      <c r="G15" s="502"/>
-      <c r="H15" s="532"/>
-      <c r="I15" s="532"/>
+      <c r="E15" s="549"/>
+      <c r="F15" s="486"/>
+      <c r="G15" s="486"/>
+      <c r="H15" s="519"/>
+      <c r="I15" s="519"/>
       <c r="J15" s="235" t="s">
         <v>687</v>
       </c>
@@ -7462,21 +7465,21 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="455" t="str">
+      <c r="E16" s="482" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="541" t="s">
+      <c r="F16" s="447" t="s">
         <v>697</v>
       </c>
-      <c r="G16" s="455" t="s">
+      <c r="G16" s="482" t="s">
         <v>654</v>
       </c>
-      <c r="H16" s="482" t="str">
+      <c r="H16" s="550" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="484" t="str">
+      <c r="I16" s="552" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
@@ -7514,11 +7517,11 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="456"/>
-      <c r="F17" s="542"/>
-      <c r="G17" s="456"/>
-      <c r="H17" s="483"/>
-      <c r="I17" s="485"/>
+      <c r="E17" s="483"/>
+      <c r="F17" s="448"/>
+      <c r="G17" s="483"/>
+      <c r="H17" s="551"/>
+      <c r="I17" s="553"/>
       <c r="J17" s="247" t="s">
         <v>645</v>
       </c>
@@ -7548,21 +7551,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="470" t="s">
+      <c r="E18" s="541" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="470"/>
-      <c r="G18" s="470"/>
-      <c r="H18" s="470"/>
-      <c r="I18" s="470"/>
-      <c r="J18" s="470"/>
-      <c r="K18" s="470"/>
-      <c r="L18" s="470"/>
-      <c r="M18" s="470"/>
-      <c r="N18" s="470"/>
-      <c r="O18" s="470"/>
-      <c r="P18" s="471"/>
-      <c r="Q18" s="472"/>
+      <c r="F18" s="541"/>
+      <c r="G18" s="541"/>
+      <c r="H18" s="541"/>
+      <c r="I18" s="541"/>
+      <c r="J18" s="541"/>
+      <c r="K18" s="541"/>
+      <c r="L18" s="541"/>
+      <c r="M18" s="541"/>
+      <c r="N18" s="541"/>
+      <c r="O18" s="541"/>
+      <c r="P18" s="542"/>
+      <c r="Q18" s="543"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7578,19 +7581,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="473"/>
-      <c r="F19" s="473"/>
-      <c r="G19" s="473"/>
-      <c r="H19" s="473"/>
-      <c r="I19" s="473"/>
-      <c r="J19" s="473"/>
-      <c r="K19" s="473"/>
-      <c r="L19" s="473"/>
-      <c r="M19" s="473"/>
-      <c r="N19" s="473"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="474"/>
-      <c r="Q19" s="475"/>
+      <c r="E19" s="544"/>
+      <c r="F19" s="544"/>
+      <c r="G19" s="544"/>
+      <c r="H19" s="544"/>
+      <c r="I19" s="544"/>
+      <c r="J19" s="544"/>
+      <c r="K19" s="544"/>
+      <c r="L19" s="544"/>
+      <c r="M19" s="544"/>
+      <c r="N19" s="544"/>
+      <c r="O19" s="544"/>
+      <c r="P19" s="545"/>
+      <c r="Q19" s="546"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7611,21 +7614,21 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="457" t="str">
+      <c r="E20" s="471" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="543" t="s">
+      <c r="F20" s="449" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="457" t="s">
+      <c r="G20" s="471" t="s">
         <v>699</v>
       </c>
-      <c r="H20" s="536" t="str">
+      <c r="H20" s="463" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="536" t="str">
+      <c r="I20" s="463" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
@@ -7661,11 +7664,11 @@
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="458"/>
-      <c r="F21" s="544"/>
-      <c r="G21" s="458"/>
-      <c r="H21" s="537"/>
-      <c r="I21" s="537"/>
+      <c r="E21" s="472"/>
+      <c r="F21" s="450"/>
+      <c r="G21" s="472"/>
+      <c r="H21" s="464"/>
+      <c r="I21" s="464"/>
       <c r="J21" s="250"/>
       <c r="K21" s="250"/>
       <c r="L21" s="250" t="s">
@@ -7696,11 +7699,11 @@
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="459"/>
-      <c r="F22" s="545"/>
-      <c r="G22" s="459"/>
-      <c r="H22" s="538"/>
-      <c r="I22" s="538"/>
+      <c r="E22" s="473"/>
+      <c r="F22" s="451"/>
+      <c r="G22" s="473"/>
+      <c r="H22" s="465"/>
+      <c r="I22" s="465"/>
       <c r="J22" s="241"/>
       <c r="K22" s="241"/>
       <c r="L22" s="241" t="s">
@@ -7731,21 +7734,21 @@
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="460" t="str">
+      <c r="E23" s="474" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="546" t="s">
+      <c r="F23" s="452" t="s">
         <v>701</v>
       </c>
-      <c r="G23" s="460" t="s">
+      <c r="G23" s="474" t="s">
         <v>655</v>
       </c>
-      <c r="H23" s="539" t="str">
+      <c r="H23" s="466" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="539" t="str">
+      <c r="I23" s="466" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
@@ -7781,11 +7784,11 @@
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="461"/>
-      <c r="F24" s="547"/>
-      <c r="G24" s="461"/>
-      <c r="H24" s="540"/>
-      <c r="I24" s="540"/>
+      <c r="E24" s="475"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="475"/>
+      <c r="H24" s="467"/>
+      <c r="I24" s="467"/>
       <c r="J24" s="187" t="s">
         <v>648</v>
       </c>
@@ -7813,21 +7816,21 @@
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="470" t="s">
+      <c r="E25" s="541" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="470"/>
-      <c r="G25" s="470"/>
-      <c r="H25" s="470"/>
-      <c r="I25" s="470"/>
-      <c r="J25" s="470"/>
-      <c r="K25" s="470"/>
-      <c r="L25" s="470"/>
-      <c r="M25" s="470"/>
-      <c r="N25" s="470"/>
-      <c r="O25" s="470"/>
-      <c r="P25" s="471"/>
-      <c r="Q25" s="472"/>
+      <c r="F25" s="541"/>
+      <c r="G25" s="541"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="541"/>
+      <c r="J25" s="541"/>
+      <c r="K25" s="541"/>
+      <c r="L25" s="541"/>
+      <c r="M25" s="541"/>
+      <c r="N25" s="541"/>
+      <c r="O25" s="541"/>
+      <c r="P25" s="542"/>
+      <c r="Q25" s="543"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7843,19 +7846,19 @@
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="473"/>
-      <c r="F26" s="473"/>
-      <c r="G26" s="473"/>
-      <c r="H26" s="473"/>
-      <c r="I26" s="473"/>
-      <c r="J26" s="473"/>
-      <c r="K26" s="473"/>
-      <c r="L26" s="473"/>
-      <c r="M26" s="473"/>
-      <c r="N26" s="473"/>
-      <c r="O26" s="473"/>
-      <c r="P26" s="474"/>
-      <c r="Q26" s="475"/>
+      <c r="E26" s="544"/>
+      <c r="F26" s="544"/>
+      <c r="G26" s="544"/>
+      <c r="H26" s="544"/>
+      <c r="I26" s="544"/>
+      <c r="J26" s="544"/>
+      <c r="K26" s="544"/>
+      <c r="L26" s="544"/>
+      <c r="M26" s="544"/>
+      <c r="N26" s="544"/>
+      <c r="O26" s="544"/>
+      <c r="P26" s="545"/>
+      <c r="Q26" s="546"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7876,21 +7879,21 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="462" t="str">
+      <c r="E27" s="476" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="548" t="s">
+      <c r="F27" s="454" t="s">
         <v>702</v>
       </c>
-      <c r="G27" s="462" t="s">
+      <c r="G27" s="476" t="s">
         <v>656</v>
       </c>
-      <c r="H27" s="479" t="str">
+      <c r="H27" s="468" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="479" t="str">
+      <c r="I27" s="468" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
@@ -7926,11 +7929,11 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="463"/>
-      <c r="F28" s="549"/>
-      <c r="G28" s="463"/>
-      <c r="H28" s="480"/>
-      <c r="I28" s="480"/>
+      <c r="E28" s="477"/>
+      <c r="F28" s="455"/>
+      <c r="G28" s="477"/>
+      <c r="H28" s="469"/>
+      <c r="I28" s="469"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
@@ -7961,11 +7964,11 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="464"/>
-      <c r="F29" s="550"/>
-      <c r="G29" s="464"/>
-      <c r="H29" s="481"/>
-      <c r="I29" s="481"/>
+      <c r="E29" s="478"/>
+      <c r="F29" s="456"/>
+      <c r="G29" s="478"/>
+      <c r="H29" s="470"/>
+      <c r="I29" s="470"/>
       <c r="J29" s="182" t="s">
         <v>644</v>
       </c>
@@ -8000,15 +8003,15 @@
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="465" t="s">
+      <c r="E30" s="479" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="551" t="s">
+      <c r="F30" s="457" t="s">
         <v>703</v>
       </c>
-      <c r="G30" s="465"/>
-      <c r="H30" s="533"/>
-      <c r="I30" s="533"/>
+      <c r="G30" s="479"/>
+      <c r="H30" s="460"/>
+      <c r="I30" s="460"/>
       <c r="J30" s="190"/>
       <c r="K30" s="190"/>
       <c r="L30" s="190"/>
@@ -8037,11 +8040,11 @@
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="466"/>
-      <c r="F31" s="552"/>
-      <c r="G31" s="466"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="534"/>
+      <c r="E31" s="480"/>
+      <c r="F31" s="458"/>
+      <c r="G31" s="480"/>
+      <c r="H31" s="461"/>
+      <c r="I31" s="461"/>
       <c r="J31" s="193"/>
       <c r="K31" s="193"/>
       <c r="L31" s="193"/>
@@ -8070,11 +8073,11 @@
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="467"/>
-      <c r="F32" s="553"/>
-      <c r="G32" s="467"/>
-      <c r="H32" s="535"/>
-      <c r="I32" s="535"/>
+      <c r="E32" s="481"/>
+      <c r="F32" s="459"/>
+      <c r="G32" s="481"/>
+      <c r="H32" s="462"/>
+      <c r="I32" s="462"/>
       <c r="J32" s="196"/>
       <c r="K32" s="196"/>
       <c r="L32" s="196"/>
@@ -8100,21 +8103,21 @@
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="447" t="s">
+      <c r="E33" s="531" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="447"/>
-      <c r="G33" s="447"/>
-      <c r="H33" s="447"/>
-      <c r="I33" s="447"/>
-      <c r="J33" s="447"/>
-      <c r="K33" s="447"/>
-      <c r="L33" s="447"/>
-      <c r="M33" s="447"/>
-      <c r="N33" s="447"/>
-      <c r="O33" s="447"/>
-      <c r="P33" s="448"/>
-      <c r="Q33" s="449"/>
+      <c r="F33" s="531"/>
+      <c r="G33" s="531"/>
+      <c r="H33" s="531"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="531"/>
+      <c r="K33" s="531"/>
+      <c r="L33" s="531"/>
+      <c r="M33" s="531"/>
+      <c r="N33" s="531"/>
+      <c r="O33" s="531"/>
+      <c r="P33" s="532"/>
+      <c r="Q33" s="533"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -8130,19 +8133,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="450"/>
-      <c r="F34" s="450"/>
-      <c r="G34" s="450"/>
-      <c r="H34" s="450"/>
-      <c r="I34" s="450"/>
-      <c r="J34" s="450"/>
-      <c r="K34" s="450"/>
-      <c r="L34" s="450"/>
-      <c r="M34" s="450"/>
-      <c r="N34" s="450"/>
-      <c r="O34" s="450"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="452"/>
+      <c r="E34" s="534"/>
+      <c r="F34" s="534"/>
+      <c r="G34" s="534"/>
+      <c r="H34" s="534"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="534"/>
+      <c r="K34" s="534"/>
+      <c r="L34" s="534"/>
+      <c r="M34" s="534"/>
+      <c r="N34" s="534"/>
+      <c r="O34" s="534"/>
+      <c r="P34" s="535"/>
+      <c r="Q34" s="536"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8632,23 +8635,27 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E33:Q34"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E18:Q19"/>
+    <mergeCell ref="E25:Q26"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F2:F4"/>
@@ -8665,27 +8672,23 @@
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E33:Q34"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="E18:Q19"/>
-    <mergeCell ref="E25:Q26"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8709,38 +8712,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="558" t="s">
+      <c r="A1" s="582" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="559"/>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="558" t="s">
+      <c r="B1" s="583"/>
+      <c r="C1" s="583"/>
+      <c r="D1" s="583"/>
+      <c r="E1" s="583"/>
+      <c r="F1" s="582" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="559"/>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
+      <c r="G1" s="583"/>
+      <c r="H1" s="583"/>
+      <c r="I1" s="583"/>
+      <c r="J1" s="583"/>
     </row>
     <row r="2" spans="1:10" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="569" t="str">
+      <c r="A2" s="584" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="570"/>
-      <c r="C2" s="570"/>
-      <c r="D2" s="570"/>
-      <c r="E2" s="570"/>
-      <c r="F2" s="571" t="str">
+      <c r="B2" s="585"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="585"/>
+      <c r="E2" s="585"/>
+      <c r="F2" s="586" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="572"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="572"/>
-      <c r="J2" s="573"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="587"/>
+      <c r="I2" s="587"/>
+      <c r="J2" s="588"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -8750,116 +8753,116 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="558" t="s">
+      <c r="A4" s="582" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="559"/>
-      <c r="C4" s="559"/>
-      <c r="D4" s="560"/>
-      <c r="E4" s="558" t="s">
+      <c r="B4" s="583"/>
+      <c r="C4" s="583"/>
+      <c r="D4" s="595"/>
+      <c r="E4" s="582" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="559"/>
-      <c r="G4" s="560"/>
-      <c r="H4" s="558" t="s">
+      <c r="F4" s="583"/>
+      <c r="G4" s="595"/>
+      <c r="H4" s="582" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="559"/>
-      <c r="J4" s="560"/>
+      <c r="I4" s="583"/>
+      <c r="J4" s="595"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="574" t="s">
+      <c r="A5" s="589" t="s">
         <v>666</v>
       </c>
-      <c r="B5" s="575"/>
-      <c r="C5" s="575"/>
-      <c r="D5" s="576"/>
+      <c r="B5" s="590"/>
+      <c r="C5" s="590"/>
+      <c r="D5" s="591"/>
       <c r="E5" s="397" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="554" t="s">
+      <c r="F5" s="596" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="555"/>
+      <c r="G5" s="597"/>
       <c r="H5" s="398" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="554" t="s">
+      <c r="I5" s="596" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="555"/>
+      <c r="J5" s="597"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="574"/>
-      <c r="B6" s="575"/>
-      <c r="C6" s="575"/>
-      <c r="D6" s="576"/>
+      <c r="A6" s="589"/>
+      <c r="B6" s="590"/>
+      <c r="C6" s="590"/>
+      <c r="D6" s="591"/>
       <c r="E6" s="397"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="555"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="597"/>
       <c r="H6" s="398" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="554" t="s">
+      <c r="I6" s="596" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="555"/>
+      <c r="J6" s="597"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="574"/>
-      <c r="B7" s="575"/>
-      <c r="C7" s="575"/>
-      <c r="D7" s="576"/>
+      <c r="A7" s="589"/>
+      <c r="B7" s="590"/>
+      <c r="C7" s="590"/>
+      <c r="D7" s="591"/>
       <c r="E7" s="397"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="555"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="597"/>
       <c r="H7" s="398" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="554" t="s">
+      <c r="I7" s="596" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="555"/>
+      <c r="J7" s="597"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="574"/>
-      <c r="B8" s="575"/>
-      <c r="C8" s="575"/>
-      <c r="D8" s="576"/>
+      <c r="A8" s="589"/>
+      <c r="B8" s="590"/>
+      <c r="C8" s="590"/>
+      <c r="D8" s="591"/>
       <c r="E8" s="397" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="554" t="s">
+      <c r="F8" s="596" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="555"/>
+      <c r="G8" s="597"/>
       <c r="H8" s="398" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="554" t="s">
+      <c r="I8" s="596" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="555"/>
+      <c r="J8" s="597"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="577"/>
-      <c r="B9" s="578"/>
-      <c r="C9" s="578"/>
-      <c r="D9" s="579"/>
+      <c r="A9" s="592"/>
+      <c r="B9" s="593"/>
+      <c r="C9" s="593"/>
+      <c r="D9" s="594"/>
       <c r="E9" s="399" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="556" t="s">
+      <c r="F9" s="598" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="557"/>
+      <c r="G9" s="599"/>
       <c r="H9" s="399" t="s">
         <v>723</v>
       </c>
-      <c r="I9" s="556" t="s">
+      <c r="I9" s="598" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="557"/>
+      <c r="J9" s="599"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="400"/>
@@ -8869,102 +8872,102 @@
       <c r="J10" s="400"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="558" t="s">
+      <c r="A11" s="582" t="s">
         <v>711</v>
       </c>
-      <c r="B11" s="559"/>
-      <c r="C11" s="559"/>
-      <c r="D11" s="559"/>
-      <c r="E11" s="559"/>
-      <c r="F11" s="558" t="s">
+      <c r="B11" s="583"/>
+      <c r="C11" s="583"/>
+      <c r="D11" s="583"/>
+      <c r="E11" s="583"/>
+      <c r="F11" s="582" t="s">
         <v>722</v>
       </c>
-      <c r="G11" s="559"/>
-      <c r="H11" s="559"/>
-      <c r="I11" s="559"/>
-      <c r="J11" s="560"/>
+      <c r="G11" s="583"/>
+      <c r="H11" s="583"/>
+      <c r="I11" s="583"/>
+      <c r="J11" s="595"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="566" t="s">
+      <c r="A12" s="605" t="s">
         <v>725</v>
       </c>
-      <c r="B12" s="567"/>
-      <c r="C12" s="567"/>
-      <c r="D12" s="567"/>
-      <c r="E12" s="567"/>
-      <c r="F12" s="566" t="s">
+      <c r="B12" s="606"/>
+      <c r="C12" s="606"/>
+      <c r="D12" s="606"/>
+      <c r="E12" s="606"/>
+      <c r="F12" s="605" t="s">
         <v>726</v>
       </c>
-      <c r="G12" s="567"/>
-      <c r="H12" s="567"/>
-      <c r="I12" s="567"/>
-      <c r="J12" s="568"/>
+      <c r="G12" s="606"/>
+      <c r="H12" s="606"/>
+      <c r="I12" s="606"/>
+      <c r="J12" s="607"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="396"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="558" t="s">
+      <c r="A14" s="582" t="s">
         <v>727</v>
       </c>
-      <c r="B14" s="559"/>
-      <c r="C14" s="559"/>
-      <c r="D14" s="559"/>
-      <c r="E14" s="559"/>
-      <c r="F14" s="558" t="s">
+      <c r="B14" s="583"/>
+      <c r="C14" s="583"/>
+      <c r="D14" s="583"/>
+      <c r="E14" s="583"/>
+      <c r="F14" s="582" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="559"/>
-      <c r="H14" s="559"/>
-      <c r="I14" s="559"/>
-      <c r="J14" s="560"/>
+      <c r="G14" s="583"/>
+      <c r="H14" s="583"/>
+      <c r="I14" s="583"/>
+      <c r="J14" s="595"/>
     </row>
     <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="561" t="s">
+      <c r="A15" s="600" t="s">
         <v>728</v>
       </c>
-      <c r="B15" s="562"/>
-      <c r="C15" s="562"/>
-      <c r="D15" s="562"/>
-      <c r="E15" s="562"/>
-      <c r="F15" s="563" t="s">
+      <c r="B15" s="601"/>
+      <c r="C15" s="601"/>
+      <c r="D15" s="601"/>
+      <c r="E15" s="601"/>
+      <c r="F15" s="602" t="s">
         <v>729</v>
       </c>
-      <c r="G15" s="564"/>
-      <c r="H15" s="564"/>
-      <c r="I15" s="564"/>
-      <c r="J15" s="565"/>
+      <c r="G15" s="603"/>
+      <c r="H15" s="603"/>
+      <c r="I15" s="603"/>
+      <c r="J15" s="604"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="586" t="s">
+      <c r="A17" s="575" t="s">
         <v>712</v>
       </c>
-      <c r="B17" s="587"/>
-      <c r="C17" s="587"/>
-      <c r="D17" s="587"/>
-      <c r="E17" s="587"/>
-      <c r="F17" s="587"/>
-      <c r="G17" s="587"/>
-      <c r="H17" s="587"/>
-      <c r="I17" s="587"/>
-      <c r="J17" s="588"/>
+      <c r="B17" s="576"/>
+      <c r="C17" s="576"/>
+      <c r="D17" s="576"/>
+      <c r="E17" s="576"/>
+      <c r="F17" s="576"/>
+      <c r="G17" s="576"/>
+      <c r="H17" s="576"/>
+      <c r="I17" s="576"/>
+      <c r="J17" s="577"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="589" t="s">
+      <c r="A18" s="578" t="s">
         <v>730</v>
       </c>
-      <c r="B18" s="590"/>
-      <c r="C18" s="590"/>
-      <c r="D18" s="590"/>
-      <c r="E18" s="590"/>
-      <c r="F18" s="591" t="s">
+      <c r="B18" s="579"/>
+      <c r="C18" s="579"/>
+      <c r="D18" s="579"/>
+      <c r="E18" s="579"/>
+      <c r="F18" s="580" t="s">
         <v>731</v>
       </c>
-      <c r="G18" s="591"/>
-      <c r="H18" s="591"/>
-      <c r="I18" s="591"/>
-      <c r="J18" s="592"/>
+      <c r="G18" s="580"/>
+      <c r="H18" s="580"/>
+      <c r="I18" s="580"/>
+      <c r="J18" s="581"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="396"/>
@@ -8976,41 +8979,41 @@
       <c r="A20" s="403" t="s">
         <v>721</v>
       </c>
-      <c r="B20" s="580" t="s">
+      <c r="B20" s="569" t="s">
         <v>718</v>
       </c>
-      <c r="C20" s="581"/>
-      <c r="D20" s="582"/>
-      <c r="E20" s="580" t="s">
+      <c r="C20" s="570"/>
+      <c r="D20" s="571"/>
+      <c r="E20" s="569" t="s">
         <v>719</v>
       </c>
-      <c r="F20" s="581"/>
-      <c r="G20" s="582"/>
-      <c r="H20" s="580" t="s">
+      <c r="F20" s="570"/>
+      <c r="G20" s="571"/>
+      <c r="H20" s="569" t="s">
         <v>720</v>
       </c>
-      <c r="I20" s="581"/>
-      <c r="J20" s="582"/>
+      <c r="I20" s="570"/>
+      <c r="J20" s="571"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="401" t="s">
         <v>713</v>
       </c>
-      <c r="B21" s="583" t="s">
+      <c r="B21" s="572" t="s">
         <v>732</v>
       </c>
-      <c r="C21" s="584"/>
-      <c r="D21" s="585"/>
-      <c r="E21" s="583" t="s">
+      <c r="C21" s="573"/>
+      <c r="D21" s="574"/>
+      <c r="E21" s="572" t="s">
         <v>733</v>
       </c>
-      <c r="F21" s="584"/>
-      <c r="G21" s="585"/>
-      <c r="H21" s="583" t="s">
+      <c r="F21" s="573"/>
+      <c r="G21" s="574"/>
+      <c r="H21" s="572" t="s">
         <v>734</v>
       </c>
-      <c r="I21" s="584"/>
-      <c r="J21" s="585"/>
+      <c r="I21" s="573"/>
+      <c r="J21" s="574"/>
     </row>
     <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="401" t="s">
@@ -9144,9 +9147,9 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="402"/>
-      <c r="B28" s="599"/>
-      <c r="C28" s="600"/>
-      <c r="D28" s="601"/>
+      <c r="B28" s="560"/>
+      <c r="C28" s="561"/>
+      <c r="D28" s="562"/>
       <c r="E28" s="416"/>
       <c r="F28" s="417"/>
       <c r="G28" s="418"/>
@@ -9158,33 +9161,33 @@
       <c r="A29" s="401" t="s">
         <v>715</v>
       </c>
-      <c r="B29" s="602"/>
-      <c r="C29" s="603"/>
-      <c r="D29" s="604"/>
-      <c r="E29" s="602"/>
-      <c r="F29" s="603"/>
-      <c r="G29" s="604"/>
-      <c r="H29" s="605"/>
-      <c r="I29" s="606"/>
-      <c r="J29" s="607"/>
+      <c r="B29" s="563"/>
+      <c r="C29" s="564"/>
+      <c r="D29" s="565"/>
+      <c r="E29" s="563"/>
+      <c r="F29" s="564"/>
+      <c r="G29" s="565"/>
+      <c r="H29" s="566"/>
+      <c r="I29" s="567"/>
+      <c r="J29" s="568"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="402" t="s">
         <v>747</v>
       </c>
-      <c r="B30" s="593" t="s">
+      <c r="B30" s="554" t="s">
         <v>748</v>
       </c>
-      <c r="C30" s="594"/>
-      <c r="D30" s="595"/>
-      <c r="E30" s="593" t="s">
+      <c r="C30" s="555"/>
+      <c r="D30" s="556"/>
+      <c r="E30" s="554" t="s">
         <v>749</v>
       </c>
-      <c r="F30" s="594"/>
-      <c r="G30" s="595"/>
-      <c r="H30" s="596"/>
-      <c r="I30" s="597"/>
-      <c r="J30" s="598"/>
+      <c r="F30" s="555"/>
+      <c r="G30" s="556"/>
+      <c r="H30" s="557"/>
+      <c r="I30" s="558"/>
+      <c r="J30" s="559"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9196,22 +9199,16 @@
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F1:J1"/>
@@ -9228,16 +9225,22 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9253,8 +9256,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:G11"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9264,37 +9267,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="646" t="s">
+      <c r="A1" s="610" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="647"/>
-      <c r="C1" s="647"/>
-      <c r="D1" s="647"/>
-      <c r="E1" s="647"/>
-      <c r="F1" s="646" t="s">
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="610" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="647"/>
-      <c r="H1" s="647"/>
-      <c r="I1" s="647"/>
-      <c r="J1" s="647"/>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
     </row>
     <row r="2" spans="1:20" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="658" t="str">
+      <c r="A2" s="612" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="B2" s="659"/>
-      <c r="C2" s="659"/>
-      <c r="D2" s="659"/>
-      <c r="E2" s="659"/>
-      <c r="F2" s="660" t="s">
+      <c r="B2" s="613"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="613"/>
+      <c r="E2" s="613"/>
+      <c r="F2" s="614" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="661"/>
-      <c r="H2" s="661"/>
-      <c r="I2" s="661"/>
-      <c r="J2" s="662"/>
+      <c r="G2" s="615"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="615"/>
+      <c r="J2" s="616"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -9304,67 +9307,67 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="646" t="s">
+      <c r="A4" s="610" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="647"/>
-      <c r="C4" s="647"/>
-      <c r="D4" s="648"/>
-      <c r="E4" s="646" t="s">
+      <c r="B4" s="611"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="617"/>
+      <c r="E4" s="610" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="647"/>
-      <c r="G4" s="648"/>
-      <c r="H4" s="646" t="s">
+      <c r="F4" s="611"/>
+      <c r="G4" s="617"/>
+      <c r="H4" s="610" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="647"/>
-      <c r="J4" s="648"/>
+      <c r="I4" s="611"/>
+      <c r="J4" s="617"/>
     </row>
     <row r="5" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="652" t="s">
+      <c r="A5" s="626" t="s">
         <v>756</v>
       </c>
-      <c r="B5" s="653"/>
-      <c r="C5" s="653"/>
-      <c r="D5" s="654"/>
+      <c r="B5" s="627"/>
+      <c r="C5" s="627"/>
+      <c r="D5" s="628"/>
       <c r="E5" s="443" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="609" t="s">
+      <c r="F5" s="618" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="610"/>
+      <c r="G5" s="619"/>
       <c r="H5" s="444" t="s">
         <v>757</v>
       </c>
-      <c r="I5" s="609" t="s">
+      <c r="I5" s="618" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="610"/>
-      <c r="Q5" s="608"/>
-      <c r="R5" s="608"/>
+      <c r="J5" s="619"/>
+      <c r="Q5" s="662"/>
+      <c r="R5" s="662"/>
       <c r="S5" s="287" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="652"/>
-      <c r="B6" s="653"/>
-      <c r="C6" s="653"/>
-      <c r="D6" s="654"/>
+      <c r="A6" s="626"/>
+      <c r="B6" s="627"/>
+      <c r="C6" s="627"/>
+      <c r="D6" s="628"/>
       <c r="E6" s="443" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="609" t="s">
+      <c r="F6" s="618" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="610"/>
+      <c r="G6" s="619"/>
       <c r="H6" s="444"/>
-      <c r="I6" s="609"/>
-      <c r="J6" s="610"/>
-      <c r="Q6" s="608"/>
-      <c r="R6" s="608"/>
+      <c r="I6" s="618"/>
+      <c r="J6" s="619"/>
+      <c r="Q6" s="662"/>
+      <c r="R6" s="662"/>
       <c r="S6" s="287" t="s">
         <v>16</v>
       </c>
@@ -9373,108 +9376,108 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="652"/>
-      <c r="B7" s="653"/>
-      <c r="C7" s="653"/>
-      <c r="D7" s="654"/>
+      <c r="A7" s="626"/>
+      <c r="B7" s="627"/>
+      <c r="C7" s="627"/>
+      <c r="D7" s="628"/>
       <c r="E7" s="443" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="609" t="s">
+      <c r="F7" s="618" t="s">
         <v>597</v>
       </c>
-      <c r="G7" s="610"/>
+      <c r="G7" s="619"/>
       <c r="H7" s="444" t="s">
         <v>758</v>
       </c>
-      <c r="I7" s="609" t="s">
+      <c r="I7" s="618" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="Q7" s="608"/>
-      <c r="R7" s="608"/>
+      <c r="J7" s="619"/>
+      <c r="Q7" s="662"/>
+      <c r="R7" s="662"/>
     </row>
     <row r="8" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="652"/>
-      <c r="B8" s="653"/>
-      <c r="C8" s="653"/>
-      <c r="D8" s="654"/>
+      <c r="A8" s="626"/>
+      <c r="B8" s="627"/>
+      <c r="C8" s="627"/>
+      <c r="D8" s="628"/>
       <c r="E8" s="443" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="609" t="s">
+      <c r="F8" s="618" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="610"/>
+      <c r="G8" s="619"/>
       <c r="H8" s="444" t="s">
         <v>759</v>
       </c>
-      <c r="I8" s="609" t="s">
+      <c r="I8" s="618" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="610"/>
-      <c r="Q8" s="608"/>
-      <c r="R8" s="608"/>
+      <c r="J8" s="619"/>
+      <c r="Q8" s="662"/>
+      <c r="R8" s="662"/>
     </row>
     <row r="9" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="652"/>
-      <c r="B9" s="653"/>
-      <c r="C9" s="653"/>
-      <c r="D9" s="654"/>
+      <c r="A9" s="626"/>
+      <c r="B9" s="627"/>
+      <c r="C9" s="627"/>
+      <c r="D9" s="628"/>
       <c r="E9" s="443" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="609" t="s">
+      <c r="F9" s="618" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="610"/>
+      <c r="G9" s="619"/>
       <c r="H9" s="444" t="s">
         <v>760</v>
       </c>
-      <c r="I9" s="609" t="s">
+      <c r="I9" s="618" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="610"/>
+      <c r="J9" s="619"/>
     </row>
     <row r="10" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="652"/>
-      <c r="B10" s="653"/>
-      <c r="C10" s="653"/>
-      <c r="D10" s="654"/>
+      <c r="A10" s="626"/>
+      <c r="B10" s="627"/>
+      <c r="C10" s="627"/>
+      <c r="D10" s="628"/>
       <c r="E10" s="443" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="609" t="s">
+      <c r="F10" s="618" t="s">
         <v>441</v>
       </c>
-      <c r="G10" s="610"/>
+      <c r="G10" s="619"/>
       <c r="H10" s="444" t="s">
         <v>761</v>
       </c>
-      <c r="I10" s="609" t="s">
+      <c r="I10" s="618" t="s">
         <v>444</v>
       </c>
-      <c r="J10" s="610"/>
+      <c r="J10" s="619"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="655"/>
-      <c r="B11" s="656"/>
-      <c r="C11" s="656"/>
-      <c r="D11" s="657"/>
+      <c r="A11" s="629"/>
+      <c r="B11" s="630"/>
+      <c r="C11" s="630"/>
+      <c r="D11" s="631"/>
       <c r="E11" s="445" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="644" t="s">
+      <c r="F11" s="608" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="645"/>
+      <c r="G11" s="609"/>
       <c r="H11" s="445" t="s">
         <v>762</v>
       </c>
-      <c r="I11" s="644" t="s">
+      <c r="I11" s="608" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="645"/>
+      <c r="J11" s="609"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="400"/>
@@ -9490,92 +9493,92 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="646" t="s">
+      <c r="A13" s="610" t="s">
         <v>711</v>
       </c>
-      <c r="B13" s="647"/>
-      <c r="C13" s="647"/>
-      <c r="D13" s="647"/>
-      <c r="E13" s="647"/>
-      <c r="F13" s="646" t="s">
+      <c r="B13" s="611"/>
+      <c r="C13" s="611"/>
+      <c r="D13" s="611"/>
+      <c r="E13" s="611"/>
+      <c r="F13" s="610" t="s">
         <v>722</v>
       </c>
-      <c r="G13" s="647"/>
-      <c r="H13" s="647"/>
-      <c r="I13" s="647"/>
-      <c r="J13" s="648"/>
+      <c r="G13" s="611"/>
+      <c r="H13" s="611"/>
+      <c r="I13" s="611"/>
+      <c r="J13" s="617"/>
     </row>
     <row r="14" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="649" t="s">
+      <c r="A14" s="623" t="s">
         <v>764</v>
       </c>
-      <c r="B14" s="650"/>
-      <c r="C14" s="650"/>
-      <c r="D14" s="650"/>
-      <c r="E14" s="650"/>
-      <c r="F14" s="649"/>
-      <c r="G14" s="650"/>
-      <c r="H14" s="650"/>
-      <c r="I14" s="650"/>
-      <c r="J14" s="651"/>
+      <c r="B14" s="624"/>
+      <c r="C14" s="624"/>
+      <c r="D14" s="624"/>
+      <c r="E14" s="624"/>
+      <c r="F14" s="623"/>
+      <c r="G14" s="624"/>
+      <c r="H14" s="624"/>
+      <c r="I14" s="624"/>
+      <c r="J14" s="625"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J15" s="396"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="646" t="s">
+      <c r="A16" s="610" t="s">
         <v>727</v>
       </c>
-      <c r="B16" s="647"/>
-      <c r="C16" s="647"/>
-      <c r="D16" s="647"/>
-      <c r="E16" s="647"/>
-      <c r="F16" s="646" t="s">
+      <c r="B16" s="611"/>
+      <c r="C16" s="611"/>
+      <c r="D16" s="611"/>
+      <c r="E16" s="611"/>
+      <c r="F16" s="610" t="s">
         <v>606</v>
       </c>
-      <c r="G16" s="647"/>
-      <c r="H16" s="647"/>
-      <c r="I16" s="647"/>
-      <c r="J16" s="648"/>
+      <c r="G16" s="611"/>
+      <c r="H16" s="611"/>
+      <c r="I16" s="611"/>
+      <c r="J16" s="617"/>
     </row>
     <row r="17" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="629"/>
-      <c r="B17" s="630"/>
-      <c r="C17" s="630"/>
-      <c r="D17" s="630"/>
-      <c r="E17" s="630"/>
-      <c r="F17" s="631"/>
-      <c r="G17" s="632"/>
-      <c r="H17" s="632"/>
-      <c r="I17" s="632"/>
-      <c r="J17" s="633"/>
+      <c r="A17" s="632"/>
+      <c r="B17" s="633"/>
+      <c r="C17" s="633"/>
+      <c r="D17" s="633"/>
+      <c r="E17" s="633"/>
+      <c r="F17" s="634"/>
+      <c r="G17" s="635"/>
+      <c r="H17" s="635"/>
+      <c r="I17" s="635"/>
+      <c r="J17" s="636"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="634" t="s">
+      <c r="A19" s="637" t="s">
         <v>712</v>
       </c>
-      <c r="B19" s="635"/>
-      <c r="C19" s="635"/>
-      <c r="D19" s="635"/>
-      <c r="E19" s="635"/>
-      <c r="F19" s="635"/>
-      <c r="G19" s="635"/>
-      <c r="H19" s="635"/>
-      <c r="I19" s="635"/>
-      <c r="J19" s="636"/>
+      <c r="B19" s="638"/>
+      <c r="C19" s="638"/>
+      <c r="D19" s="638"/>
+      <c r="E19" s="638"/>
+      <c r="F19" s="638"/>
+      <c r="G19" s="638"/>
+      <c r="H19" s="638"/>
+      <c r="I19" s="638"/>
+      <c r="J19" s="639"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="637"/>
-      <c r="B20" s="638"/>
-      <c r="C20" s="638"/>
-      <c r="D20" s="638"/>
-      <c r="E20" s="638"/>
-      <c r="F20" s="639"/>
-      <c r="G20" s="639"/>
-      <c r="H20" s="639"/>
-      <c r="I20" s="639"/>
-      <c r="J20" s="640"/>
+      <c r="A20" s="640"/>
+      <c r="B20" s="641"/>
+      <c r="C20" s="641"/>
+      <c r="D20" s="641"/>
+      <c r="E20" s="641"/>
+      <c r="F20" s="642"/>
+      <c r="G20" s="642"/>
+      <c r="H20" s="642"/>
+      <c r="I20" s="642"/>
+      <c r="J20" s="643"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="396"/>
@@ -9587,35 +9590,35 @@
       <c r="A22" s="422" t="s">
         <v>721</v>
       </c>
-      <c r="B22" s="641" t="s">
+      <c r="B22" s="620" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="642"/>
-      <c r="D22" s="643"/>
-      <c r="E22" s="641" t="s">
+      <c r="C22" s="621"/>
+      <c r="D22" s="622"/>
+      <c r="E22" s="620" t="s">
         <v>719</v>
       </c>
-      <c r="F22" s="642"/>
-      <c r="G22" s="643"/>
-      <c r="H22" s="641" t="s">
+      <c r="F22" s="621"/>
+      <c r="G22" s="622"/>
+      <c r="H22" s="620" t="s">
         <v>720</v>
       </c>
-      <c r="I22" s="642"/>
-      <c r="J22" s="643"/>
+      <c r="I22" s="621"/>
+      <c r="J22" s="622"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="423" t="s">
         <v>713</v>
       </c>
-      <c r="B23" s="617"/>
-      <c r="C23" s="618"/>
-      <c r="D23" s="619"/>
-      <c r="E23" s="617"/>
-      <c r="F23" s="618"/>
-      <c r="G23" s="619"/>
-      <c r="H23" s="617"/>
-      <c r="I23" s="618"/>
-      <c r="J23" s="619"/>
+      <c r="B23" s="650"/>
+      <c r="C23" s="651"/>
+      <c r="D23" s="652"/>
+      <c r="E23" s="650"/>
+      <c r="F23" s="651"/>
+      <c r="G23" s="652"/>
+      <c r="H23" s="650"/>
+      <c r="I23" s="651"/>
+      <c r="J23" s="652"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="423" t="s">
@@ -9693,9 +9696,9 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="436"/>
-      <c r="B30" s="620"/>
-      <c r="C30" s="621"/>
-      <c r="D30" s="622"/>
+      <c r="B30" s="653"/>
+      <c r="C30" s="654"/>
+      <c r="D30" s="655"/>
       <c r="E30" s="437"/>
       <c r="F30" s="438"/>
       <c r="G30" s="439"/>
@@ -9707,33 +9710,33 @@
       <c r="A31" s="423" t="s">
         <v>715</v>
       </c>
-      <c r="B31" s="623"/>
-      <c r="C31" s="624"/>
-      <c r="D31" s="625"/>
-      <c r="E31" s="623"/>
-      <c r="F31" s="624"/>
-      <c r="G31" s="625"/>
-      <c r="H31" s="626"/>
-      <c r="I31" s="627"/>
-      <c r="J31" s="628"/>
+      <c r="B31" s="656"/>
+      <c r="C31" s="657"/>
+      <c r="D31" s="658"/>
+      <c r="E31" s="656"/>
+      <c r="F31" s="657"/>
+      <c r="G31" s="658"/>
+      <c r="H31" s="659"/>
+      <c r="I31" s="660"/>
+      <c r="J31" s="661"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="436" t="s">
         <v>747</v>
       </c>
-      <c r="B32" s="611" t="s">
+      <c r="B32" s="644" t="s">
         <v>748</v>
       </c>
-      <c r="C32" s="612"/>
-      <c r="D32" s="613"/>
-      <c r="E32" s="611" t="s">
+      <c r="C32" s="645"/>
+      <c r="D32" s="646"/>
+      <c r="E32" s="644" t="s">
         <v>749</v>
       </c>
-      <c r="F32" s="612"/>
-      <c r="G32" s="613"/>
-      <c r="H32" s="614"/>
-      <c r="I32" s="615"/>
-      <c r="J32" s="616"/>
+      <c r="F32" s="645"/>
+      <c r="G32" s="646"/>
+      <c r="H32" s="647"/>
+      <c r="I32" s="648"/>
+      <c r="J32" s="649"/>
     </row>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9745,19 +9748,27 @@
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
@@ -9774,27 +9785,19 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10933,8 +10936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11107,10 +11110,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="698" t="s">
+      <c r="G10" s="692" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="699" t="s">
+      <c r="H10" s="693" t="s">
         <v>430</v>
       </c>
     </row>
@@ -11130,8 +11133,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="698"/>
-      <c r="H11" s="699"/>
+      <c r="G11" s="692"/>
+      <c r="H11" s="693"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -11149,8 +11152,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="698"/>
-      <c r="H12" s="699"/>
+      <c r="G12" s="692"/>
+      <c r="H12" s="693"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -11168,8 +11171,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="698"/>
-      <c r="H13" s="699"/>
+      <c r="G13" s="692"/>
+      <c r="H13" s="693"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -11187,10 +11190,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="702" t="s">
+      <c r="G14" s="696" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="702" t="s">
+      <c r="H14" s="708" t="s">
         <v>446</v>
       </c>
     </row>
@@ -11210,8 +11213,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="702"/>
-      <c r="H15" s="702"/>
+      <c r="G15" s="696"/>
+      <c r="H15" s="708"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -11323,10 +11326,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="691" t="s">
+      <c r="G22" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="692" t="s">
+      <c r="H22" s="698" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11341,8 +11344,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="691"/>
-      <c r="H23" s="692"/>
+      <c r="G23" s="690"/>
+      <c r="H23" s="698"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -11355,7 +11358,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="691"/>
+      <c r="G24" s="690"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11369,7 +11372,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="691"/>
+      <c r="G25" s="690"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11388,7 +11391,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="691"/>
+      <c r="G26" s="690"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11407,7 +11410,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="691"/>
+      <c r="G27" s="690"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11426,7 +11429,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="691"/>
+      <c r="G28" s="690"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11439,7 +11442,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="691"/>
+      <c r="G29" s="690"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11448,7 +11451,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="691"/>
+      <c r="G30" s="690"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
@@ -11460,7 +11463,7 @@
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="691"/>
+      <c r="G31" s="690"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11479,7 +11482,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="691"/>
+      <c r="G32" s="690"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -11535,10 +11538,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="700" t="s">
+      <c r="G35" s="694" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="701" t="s">
+      <c r="H35" s="695" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11557,8 +11560,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="700"/>
-      <c r="H36" s="701"/>
+      <c r="G36" s="694"/>
+      <c r="H36" s="695"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -11575,8 +11578,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="700"/>
-      <c r="H37" s="701"/>
+      <c r="G37" s="694"/>
+      <c r="H37" s="695"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -11589,8 +11592,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="700"/>
-      <c r="H38" s="701"/>
+      <c r="G38" s="694"/>
+      <c r="H38" s="695"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -11603,8 +11606,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="700"/>
-      <c r="H39" s="701"/>
+      <c r="G39" s="694"/>
+      <c r="H39" s="695"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -11687,7 +11690,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="696"/>
+      <c r="H44" s="702"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -11700,10 +11703,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="694" t="s">
+      <c r="G45" s="700" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="696"/>
+      <c r="H45" s="702"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -11721,7 +11724,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="694"/>
+      <c r="G46" s="700"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -11761,8 +11764,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="693"/>
-      <c r="G49" s="693" t="s">
+      <c r="F49" s="699"/>
+      <c r="G49" s="699" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -11777,8 +11780,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="693"/>
-      <c r="G50" s="693"/>
+      <c r="F50" s="699"/>
+      <c r="G50" s="699"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -11791,8 +11794,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="693"/>
-      <c r="G51" s="693"/>
+      <c r="F51" s="699"/>
+      <c r="G51" s="699"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11853,10 +11856,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="703" t="s">
+      <c r="G55" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="695" t="s">
+      <c r="H55" s="701" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11871,8 +11874,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="703"/>
-      <c r="H56" s="695"/>
+      <c r="G56" s="691"/>
+      <c r="H56" s="701"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -11885,8 +11888,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="703"/>
-      <c r="H57" s="695"/>
+      <c r="G57" s="691"/>
+      <c r="H57" s="701"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -11904,8 +11907,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="703"/>
-      <c r="H58" s="695"/>
+      <c r="G58" s="691"/>
+      <c r="H58" s="701"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -12071,10 +12074,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="691" t="s">
+      <c r="G72" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="697"/>
+      <c r="H72" s="703"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -12084,8 +12087,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="691"/>
-      <c r="H73" s="697"/>
+      <c r="G73" s="690"/>
+      <c r="H73" s="703"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -12095,8 +12098,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="691"/>
-      <c r="H74" s="697"/>
+      <c r="G74" s="690"/>
+      <c r="H74" s="703"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -12106,8 +12109,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="691"/>
-      <c r="H75" s="697"/>
+      <c r="G75" s="690"/>
+      <c r="H75" s="703"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -12117,8 +12120,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="691"/>
-      <c r="H76" s="697"/>
+      <c r="G76" s="690"/>
+      <c r="H76" s="703"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -12256,10 +12259,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="691" t="s">
+      <c r="G94" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="690" t="s">
+      <c r="H94" s="697" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12270,8 +12273,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="691"/>
-      <c r="H95" s="690"/>
+      <c r="G95" s="690"/>
+      <c r="H95" s="697"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -12280,8 +12283,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="691"/>
-      <c r="H96" s="690"/>
+      <c r="G96" s="690"/>
+      <c r="H96" s="697"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -12296,7 +12299,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="691" t="s">
+      <c r="G97" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12307,7 +12310,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="691"/>
+      <c r="G98" s="690"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -12316,7 +12319,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="691"/>
+      <c r="G99" s="690"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -12331,7 +12334,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="691" t="s">
+      <c r="G100" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12343,7 +12346,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="691"/>
+      <c r="G101" s="690"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -12353,7 +12356,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="691"/>
+      <c r="G102" s="690"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -12363,7 +12366,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="691"/>
+      <c r="G103" s="690"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -12422,7 +12425,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="691" t="s">
+      <c r="G117" s="690" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -12434,7 +12437,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="691"/>
+      <c r="G118" s="690"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -12450,7 +12453,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="691" t="s">
+      <c r="G119" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12461,7 +12464,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="691"/>
+      <c r="G120" s="690"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -12495,7 +12498,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="691" t="s">
+      <c r="G126" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12506,7 +12509,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="691"/>
+      <c r="G127" s="690"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -12532,7 +12535,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="691" t="s">
+      <c r="G130" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12544,7 +12547,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="691"/>
+      <c r="G131" s="690"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -12568,7 +12571,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="691" t="s">
+      <c r="G134" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12579,7 +12582,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="691"/>
+      <c r="G135" s="690"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -12588,7 +12591,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="691"/>
+      <c r="G136" s="690"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -12619,13 +12622,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="691" t="s">
+      <c r="G140" s="690" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="691"/>
+      <c r="G141" s="690"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -12644,7 +12647,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="691"/>
+      <c r="G142" s="690"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12661,7 +12664,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="691"/>
+      <c r="G143" s="690"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12678,11 +12681,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="691"/>
+      <c r="G144" s="690"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="691"/>
+      <c r="G145" s="690"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -12734,7 +12737,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="691" t="s">
+      <c r="G152" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12745,7 +12748,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="691"/>
+      <c r="G153" s="690"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -12756,22 +12759,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G140:G145"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H94:H96"/>
     <mergeCell ref="G97:G99"/>
     <mergeCell ref="G22:G32"/>
@@ -12783,6 +12770,22 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G140:G145"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12908,10 +12911,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="691" t="s">
+      <c r="G13" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="697"/>
+      <c r="H13" s="703"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -12921,8 +12924,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="691"/>
-      <c r="H14" s="697"/>
+      <c r="G14" s="690"/>
+      <c r="H14" s="703"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -12932,8 +12935,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="691"/>
-      <c r="H15" s="697"/>
+      <c r="G15" s="690"/>
+      <c r="H15" s="703"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -12943,8 +12946,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="691"/>
-      <c r="H16" s="697"/>
+      <c r="G16" s="690"/>
+      <c r="H16" s="703"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -12954,8 +12957,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="691"/>
-      <c r="H17" s="697"/>
+      <c r="G17" s="690"/>
+      <c r="H17" s="703"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -12978,10 +12981,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="691" t="s">
+      <c r="G20" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="690" t="s">
+      <c r="H20" s="697" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12992,8 +12995,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="691"/>
-      <c r="H21" s="690"/>
+      <c r="G21" s="690"/>
+      <c r="H21" s="697"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -13002,8 +13005,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="691"/>
-      <c r="H22" s="690"/>
+      <c r="G22" s="690"/>
+      <c r="H22" s="697"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -13018,7 +13021,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="691" t="s">
+      <c r="G23" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13029,7 +13032,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="691"/>
+      <c r="G24" s="690"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -13038,7 +13041,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="691"/>
+      <c r="G25" s="690"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -13053,7 +13056,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="691" t="s">
+      <c r="G26" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13065,7 +13068,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="691"/>
+      <c r="G27" s="690"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -13075,7 +13078,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="691"/>
+      <c r="G28" s="690"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -13085,7 +13088,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="691"/>
+      <c r="G29" s="690"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -13138,10 +13141,10 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="691" t="s">
+      <c r="G37" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="704" t="s">
+      <c r="H37" s="705" t="s">
         <v>89</v>
       </c>
     </row>
@@ -13158,8 +13161,8 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="691"/>
-      <c r="H38" s="704"/>
+      <c r="G38" s="690"/>
+      <c r="H38" s="705"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
@@ -13174,8 +13177,8 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="691"/>
-      <c r="H39" s="704"/>
+      <c r="G39" s="690"/>
+      <c r="H39" s="705"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
@@ -13185,8 +13188,8 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="691"/>
-      <c r="H40" s="704"/>
+      <c r="G40" s="690"/>
+      <c r="H40" s="705"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
@@ -13196,8 +13199,8 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="691"/>
-      <c r="H41" s="704"/>
+      <c r="G41" s="690"/>
+      <c r="H41" s="705"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
@@ -13227,7 +13230,7 @@
       <c r="G46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="697" t="s">
+      <c r="H46" s="703" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13239,10 +13242,10 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="691" t="s">
+      <c r="G47" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="697"/>
+      <c r="H47" s="703"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
@@ -13252,7 +13255,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="691"/>
+      <c r="G48" s="690"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -13263,7 +13266,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="691"/>
+      <c r="G49" s="690"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -13291,10 +13294,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="691" t="s">
+      <c r="G54" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="690" t="s">
+      <c r="H54" s="697" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13305,8 +13308,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="691"/>
-      <c r="H55" s="690"/>
+      <c r="G55" s="690"/>
+      <c r="H55" s="697"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -13315,7 +13318,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="691"/>
+      <c r="G56" s="690"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -13325,7 +13328,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="691"/>
+      <c r="G57" s="690"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13342,7 +13345,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="691"/>
+      <c r="G58" s="690"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13359,7 +13362,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="691"/>
+      <c r="G59" s="690"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -13379,8 +13382,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="691"/>
-      <c r="G61" s="691" t="s">
+      <c r="F61" s="690"/>
+      <c r="G61" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13391,8 +13394,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="691"/>
-      <c r="G62" s="691"/>
+      <c r="F62" s="690"/>
+      <c r="G62" s="690"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -13401,8 +13404,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="691"/>
-      <c r="G63" s="691"/>
+      <c r="F63" s="690"/>
+      <c r="G63" s="690"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -13467,7 +13470,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="691" t="s">
+      <c r="G68" s="690" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -13479,7 +13482,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="691"/>
+      <c r="G69" s="690"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -13495,7 +13498,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="691" t="s">
+      <c r="G70" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13506,7 +13509,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="691"/>
+      <c r="G71" s="690"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -13533,10 +13536,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="691" t="s">
+      <c r="G75" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="697" t="s">
+      <c r="H75" s="703" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13554,8 +13557,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="691"/>
-      <c r="H76" s="697"/>
+      <c r="G76" s="690"/>
+      <c r="H76" s="703"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -13571,8 +13574,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="691"/>
-      <c r="H77" s="697"/>
+      <c r="G77" s="690"/>
+      <c r="H77" s="703"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -13607,10 +13610,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="691" t="s">
+      <c r="G81" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="690" t="s">
+      <c r="H81" s="697" t="s">
         <v>430</v>
       </c>
     </row>
@@ -13628,8 +13631,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="691"/>
-      <c r="H82" s="690"/>
+      <c r="G82" s="690"/>
+      <c r="H82" s="697"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -13645,8 +13648,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="691"/>
-      <c r="H83" s="690"/>
+      <c r="G83" s="690"/>
+      <c r="H83" s="697"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -13662,8 +13665,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="691"/>
-      <c r="H84" s="690"/>
+      <c r="G84" s="690"/>
+      <c r="H84" s="697"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -13679,10 +13682,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="697" t="s">
+      <c r="G85" s="703" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="697" t="s">
+      <c r="H85" s="703" t="s">
         <v>446</v>
       </c>
     </row>
@@ -13700,8 +13703,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="697"/>
-      <c r="H86" s="697"/>
+      <c r="G86" s="703"/>
+      <c r="H86" s="703"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -13733,10 +13736,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="691" t="s">
+      <c r="F89" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="705" t="s">
+      <c r="H89" s="704" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13747,8 +13750,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="691"/>
-      <c r="H90" s="705"/>
+      <c r="F90" s="690"/>
+      <c r="H90" s="704"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -13758,8 +13761,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="691"/>
-      <c r="H91" s="705"/>
+      <c r="F91" s="690"/>
+      <c r="H91" s="704"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -13775,8 +13778,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="691"/>
-      <c r="H92" s="705"/>
+      <c r="F92" s="690"/>
+      <c r="H92" s="704"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -13792,10 +13795,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="691" t="s">
+      <c r="G93" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="697" t="s">
+      <c r="H93" s="703" t="s">
         <v>51</v>
       </c>
     </row>
@@ -13812,8 +13815,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="691"/>
-      <c r="H94" s="697"/>
+      <c r="G94" s="690"/>
+      <c r="H94" s="703"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -13822,7 +13825,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="691" t="s">
+      <c r="G95" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13840,7 +13843,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="691"/>
+      <c r="G96" s="690"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -13863,7 +13866,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="691" t="s">
+      <c r="G99" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13874,7 +13877,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="691"/>
+      <c r="G100" s="690"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -13900,7 +13903,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="691" t="s">
+      <c r="G103" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13912,7 +13915,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="691"/>
+      <c r="G104" s="690"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -13936,7 +13939,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="691" t="s">
+      <c r="G107" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13947,7 +13950,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="691"/>
+      <c r="G108" s="690"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -13956,7 +13959,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="691"/>
+      <c r="G109" s="690"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -13973,7 +13976,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="691" t="s">
+      <c r="G110" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13985,7 +13988,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="691"/>
+      <c r="G111" s="690"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -13998,7 +14001,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="691"/>
+      <c r="G112" s="690"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -14015,7 +14018,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="691"/>
+      <c r="G113" s="690"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -14062,7 +14065,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="691" t="s">
+      <c r="G117" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14081,7 +14084,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="691"/>
+      <c r="G118" s="690"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -14100,7 +14103,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="691"/>
+      <c r="G119" s="690"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -14117,7 +14120,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="691"/>
+      <c r="G120" s="690"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -14134,7 +14137,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="691"/>
+      <c r="G121" s="690"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -14151,7 +14154,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="691"/>
+      <c r="G122" s="690"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -14166,7 +14169,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="691"/>
+      <c r="G123" s="690"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -14271,7 +14274,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="691" t="s">
+      <c r="G133" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14282,36 +14285,13 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="691"/>
+      <c r="G134" s="690"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G47:G49"/>
@@ -14322,6 +14302,29 @@
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="H37:H41"/>
     <mergeCell ref="H46:H47"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14366,10 +14369,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="707" t="s">
+      <c r="B6" s="706" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="690" t="s">
+      <c r="C6" s="697" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -14378,84 +14381,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="691" t="s">
+      <c r="F6" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="690" t="s">
+      <c r="H6" s="697" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="707"/>
-      <c r="C7" s="690"/>
+      <c r="B7" s="706"/>
+      <c r="C7" s="697"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="691"/>
-      <c r="H7" s="690"/>
+      <c r="F7" s="690"/>
+      <c r="H7" s="697"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="707"/>
-      <c r="C8" s="690"/>
+      <c r="B8" s="706"/>
+      <c r="C8" s="697"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="691"/>
-      <c r="H8" s="690"/>
+      <c r="F8" s="690"/>
+      <c r="H8" s="697"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="707"/>
-      <c r="C9" s="690"/>
+      <c r="B9" s="706"/>
+      <c r="C9" s="697"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="691"/>
-      <c r="H9" s="690"/>
+      <c r="F9" s="690"/>
+      <c r="H9" s="697"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="707"/>
-      <c r="C10" s="690"/>
+      <c r="B10" s="706"/>
+      <c r="C10" s="697"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="691"/>
-      <c r="H10" s="690"/>
+      <c r="F10" s="690"/>
+      <c r="H10" s="697"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="707"/>
-      <c r="C11" s="690"/>
+      <c r="B11" s="706"/>
+      <c r="C11" s="697"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="691"/>
-      <c r="H11" s="690"/>
+      <c r="F11" s="690"/>
+      <c r="H11" s="697"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="707"/>
-      <c r="C12" s="690"/>
+      <c r="B12" s="706"/>
+      <c r="C12" s="697"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="691"/>
-      <c r="H12" s="690"/>
+      <c r="F12" s="690"/>
+      <c r="H12" s="697"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -14496,7 +14499,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="691" t="s">
+      <c r="F16" s="690" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14514,7 +14517,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="691"/>
+      <c r="F17" s="690"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -14555,7 +14558,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="691" t="s">
+      <c r="F21" s="690" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -14575,7 +14578,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="691"/>
+      <c r="F22" s="690"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -14590,7 +14593,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="691"/>
+      <c r="F23" s="690"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -14605,7 +14608,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="691"/>
+      <c r="F24" s="690"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -14620,7 +14623,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="691"/>
+      <c r="F25" s="690"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -14629,7 +14632,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="691"/>
+      <c r="F26" s="690"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -14660,10 +14663,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="691" t="s">
+      <c r="F30" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="697" t="s">
+      <c r="H30" s="703" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14680,8 +14683,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="691"/>
-      <c r="H31" s="697"/>
+      <c r="F31" s="690"/>
+      <c r="H31" s="703"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -14696,8 +14699,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="691"/>
-      <c r="H32" s="697"/>
+      <c r="F32" s="690"/>
+      <c r="H32" s="703"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -14706,8 +14709,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="691"/>
-      <c r="H33" s="697"/>
+      <c r="F33" s="690"/>
+      <c r="H33" s="703"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -14716,10 +14719,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="691" t="s">
+      <c r="G34" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="697"/>
+      <c r="H34" s="703"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -14728,8 +14731,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="691"/>
-      <c r="H35" s="697"/>
+      <c r="G35" s="690"/>
+      <c r="H35" s="703"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -14738,8 +14741,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="691"/>
-      <c r="H36" s="697"/>
+      <c r="G36" s="690"/>
+      <c r="H36" s="703"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -14754,10 +14757,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="691" t="s">
+      <c r="F37" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="697" t="s">
+      <c r="H37" s="703" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14768,8 +14771,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="691"/>
-      <c r="H38" s="697"/>
+      <c r="F38" s="690"/>
+      <c r="H38" s="703"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -14778,8 +14781,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="691"/>
-      <c r="H39" s="697"/>
+      <c r="F39" s="690"/>
+      <c r="H39" s="703"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -14794,10 +14797,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="691" t="s">
+      <c r="G40" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="697"/>
+      <c r="H40" s="703"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -14807,8 +14810,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="691"/>
-      <c r="H41" s="697"/>
+      <c r="G41" s="690"/>
+      <c r="H41" s="703"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -14818,8 +14821,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="691"/>
-      <c r="H42" s="697"/>
+      <c r="G42" s="690"/>
+      <c r="H42" s="703"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -14829,8 +14832,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="691"/>
-      <c r="H43" s="697"/>
+      <c r="G43" s="690"/>
+      <c r="H43" s="703"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -14840,8 +14843,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="691"/>
-      <c r="H44" s="697"/>
+      <c r="G44" s="690"/>
+      <c r="H44" s="703"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -14864,10 +14867,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="691" t="s">
+      <c r="G47" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="690" t="s">
+      <c r="H47" s="697" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14878,8 +14881,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="691"/>
-      <c r="H48" s="690"/>
+      <c r="G48" s="690"/>
+      <c r="H48" s="697"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -14888,8 +14891,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="691"/>
-      <c r="H49" s="690"/>
+      <c r="G49" s="690"/>
+      <c r="H49" s="697"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -14904,7 +14907,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="691" t="s">
+      <c r="G50" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14915,7 +14918,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="691"/>
+      <c r="G51" s="690"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -14924,7 +14927,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="691"/>
+      <c r="G52" s="690"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -14940,7 +14943,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="691" t="s">
+      <c r="G53" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14953,7 +14956,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="691"/>
+      <c r="G54" s="690"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -14964,7 +14967,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="691"/>
+      <c r="G55" s="690"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -14975,7 +14978,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="691"/>
+      <c r="G56" s="690"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -15096,10 +15099,10 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="691" t="s">
+      <c r="G69" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="704" t="s">
+      <c r="H69" s="705" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15116,8 +15119,8 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="691"/>
-      <c r="H70" s="704"/>
+      <c r="G70" s="690"/>
+      <c r="H70" s="705"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
@@ -15132,8 +15135,8 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="691"/>
-      <c r="H71" s="704"/>
+      <c r="G71" s="690"/>
+      <c r="H71" s="705"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
@@ -15143,8 +15146,8 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="691"/>
-      <c r="H72" s="704"/>
+      <c r="G72" s="690"/>
+      <c r="H72" s="705"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
@@ -15154,8 +15157,8 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="691"/>
-      <c r="H73" s="704"/>
+      <c r="G73" s="690"/>
+      <c r="H73" s="705"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
@@ -15185,7 +15188,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="697" t="s">
+      <c r="H78" s="703" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15197,10 +15200,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="691" t="s">
+      <c r="F79" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="697"/>
+      <c r="H79" s="703"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -15210,8 +15213,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="691"/>
-      <c r="H80" s="697"/>
+      <c r="F80" s="690"/>
+      <c r="H80" s="703"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -15221,7 +15224,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="691" t="s">
+      <c r="G81" s="690" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -15234,7 +15237,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="691"/>
+      <c r="G82" s="690"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -15245,7 +15248,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="691"/>
+      <c r="G83" s="690"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15261,10 +15264,10 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="691" t="s">
+      <c r="F85" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="706" t="s">
+      <c r="H85" s="707" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15276,8 +15279,8 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="691"/>
-      <c r="H86" s="706"/>
+      <c r="F86" s="690"/>
+      <c r="H86" s="707"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
@@ -15287,8 +15290,8 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="691"/>
-      <c r="H87" s="706"/>
+      <c r="F87" s="690"/>
+      <c r="H87" s="707"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
@@ -15298,8 +15301,8 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="691"/>
-      <c r="H88" s="706"/>
+      <c r="F88" s="690"/>
+      <c r="H88" s="707"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
@@ -15317,7 +15320,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="697" t="s">
+      <c r="H90" s="703" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15334,10 +15337,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="691" t="s">
+      <c r="F91" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="697"/>
+      <c r="H91" s="703"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -15347,8 +15350,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="691"/>
-      <c r="H92" s="697"/>
+      <c r="F92" s="690"/>
+      <c r="H92" s="703"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -15366,7 +15369,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="697"/>
+      <c r="H93" s="703"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -15384,7 +15387,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="697"/>
+      <c r="H94" s="703"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -15399,7 +15402,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="691" t="s">
+      <c r="F96" s="690" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -15414,7 +15417,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="691"/>
+      <c r="F97" s="690"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -15423,7 +15426,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="691"/>
+      <c r="F98" s="690"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -15438,7 +15441,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="691" t="s">
+      <c r="F99" s="690" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15455,7 +15458,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="691"/>
+      <c r="F100" s="690"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -15467,10 +15470,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="691" t="s">
+      <c r="G101" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="690" t="s">
+      <c r="H101" s="697" t="s">
         <v>40</v>
       </c>
     </row>
@@ -15481,8 +15484,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="691"/>
-      <c r="H102" s="690"/>
+      <c r="G102" s="690"/>
+      <c r="H102" s="697"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -15491,7 +15494,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="691"/>
+      <c r="G103" s="690"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -15501,7 +15504,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="691"/>
+      <c r="G104" s="690"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15518,7 +15521,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="691"/>
+      <c r="G105" s="690"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15535,7 +15538,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="691"/>
+      <c r="G106" s="690"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -15555,7 +15558,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="691" t="s">
+      <c r="F108" s="690" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -15573,7 +15576,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="691"/>
+      <c r="F109" s="690"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -15583,7 +15586,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="691"/>
+      <c r="F110" s="690"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -15593,7 +15596,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="691"/>
+      <c r="F111" s="690"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -15603,7 +15606,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="691"/>
+      <c r="F112" s="690"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -15612,7 +15615,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="691"/>
+      <c r="F113" s="690"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -15627,10 +15630,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="691" t="s">
+      <c r="F114" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="690" t="s">
+      <c r="H114" s="697" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15647,8 +15650,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="691"/>
-      <c r="H115" s="690"/>
+      <c r="F115" s="690"/>
+      <c r="H115" s="697"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -15663,8 +15666,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="691"/>
-      <c r="H116" s="690"/>
+      <c r="F116" s="690"/>
+      <c r="H116" s="697"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -15679,8 +15682,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="691"/>
-      <c r="H117" s="690"/>
+      <c r="F117" s="690"/>
+      <c r="H117" s="697"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -15689,8 +15692,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="691"/>
-      <c r="H118" s="690"/>
+      <c r="F118" s="690"/>
+      <c r="H118" s="697"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -15699,8 +15702,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="691"/>
-      <c r="H119" s="690"/>
+      <c r="F119" s="690"/>
+      <c r="H119" s="697"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -15709,8 +15712,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="691"/>
-      <c r="H120" s="690"/>
+      <c r="F120" s="690"/>
+      <c r="H120" s="697"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -15719,8 +15722,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="691"/>
-      <c r="H121" s="690"/>
+      <c r="F121" s="690"/>
+      <c r="H121" s="697"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -15729,8 +15732,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="691"/>
-      <c r="H122" s="690"/>
+      <c r="F122" s="690"/>
+      <c r="H122" s="697"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -15746,8 +15749,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="691"/>
-      <c r="G123" s="691" t="s">
+      <c r="F123" s="690"/>
+      <c r="G123" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15758,8 +15761,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="691"/>
-      <c r="G124" s="691"/>
+      <c r="F124" s="690"/>
+      <c r="G124" s="690"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -15768,8 +15771,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="691"/>
-      <c r="G125" s="691"/>
+      <c r="F125" s="690"/>
+      <c r="G125" s="690"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -15778,10 +15781,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="691" t="s">
+      <c r="F126" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="697" t="s">
+      <c r="H126" s="703" t="s">
         <v>41</v>
       </c>
     </row>
@@ -15799,8 +15802,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="691"/>
-      <c r="H127" s="697"/>
+      <c r="F127" s="690"/>
+      <c r="H127" s="703"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -15815,7 +15818,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="691"/>
+      <c r="F128" s="690"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -15824,7 +15827,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="691"/>
+      <c r="F129" s="690"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -15834,7 +15837,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="691"/>
+      <c r="F130" s="690"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -15843,7 +15846,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="691"/>
+      <c r="F131" s="690"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -15859,7 +15862,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="691" t="s">
+      <c r="F132" s="690" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15870,7 +15873,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="691"/>
+      <c r="F133" s="690"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -15957,7 +15960,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="691" t="s">
+      <c r="G139" s="690" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -15969,7 +15972,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="691"/>
+      <c r="G140" s="690"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -15985,7 +15988,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="691" t="s">
+      <c r="G141" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15996,7 +15999,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="691"/>
+      <c r="G142" s="690"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -16023,10 +16026,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="691" t="s">
+      <c r="G146" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="697" t="s">
+      <c r="H146" s="703" t="s">
         <v>48</v>
       </c>
     </row>
@@ -16044,8 +16047,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="691"/>
-      <c r="H147" s="697"/>
+      <c r="G147" s="690"/>
+      <c r="H147" s="703"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -16061,8 +16064,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="691"/>
-      <c r="H148" s="697"/>
+      <c r="G148" s="690"/>
+      <c r="H148" s="703"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -16104,10 +16107,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="691" t="s">
+      <c r="F152" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="697" t="s">
+      <c r="H152" s="703" t="s">
         <v>417</v>
       </c>
     </row>
@@ -16124,8 +16127,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="691"/>
-      <c r="H153" s="697"/>
+      <c r="F153" s="690"/>
+      <c r="H153" s="703"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -16140,8 +16143,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="691"/>
-      <c r="H154" s="697"/>
+      <c r="F154" s="690"/>
+      <c r="H154" s="703"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -16152,10 +16155,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="691" t="s">
+      <c r="G155" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="690" t="s">
+      <c r="H155" s="697" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16174,8 +16177,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="691"/>
-      <c r="H156" s="690"/>
+      <c r="G156" s="690"/>
+      <c r="H156" s="697"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -16192,8 +16195,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="691"/>
-      <c r="H157" s="690"/>
+      <c r="G157" s="690"/>
+      <c r="H157" s="697"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -16210,8 +16213,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="691"/>
-      <c r="H158" s="690"/>
+      <c r="G158" s="690"/>
+      <c r="H158" s="697"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -16227,7 +16230,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="691" t="s">
+      <c r="F159" s="690" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -16247,7 +16250,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="691"/>
+      <c r="F160" s="690"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -16265,10 +16268,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="697" t="s">
+      <c r="G161" s="703" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="697" t="s">
+      <c r="H161" s="703" t="s">
         <v>446</v>
       </c>
     </row>
@@ -16287,8 +16290,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="697"/>
-      <c r="H162" s="697"/>
+      <c r="G162" s="703"/>
+      <c r="H162" s="703"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -16307,11 +16310,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="691" t="s">
+      <c r="F164" s="690" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="697" t="s">
+      <c r="H164" s="703" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16323,9 +16326,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="691"/>
+      <c r="F165" s="690"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="697"/>
+      <c r="H165" s="703"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -16335,9 +16338,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="691"/>
+      <c r="F166" s="690"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="697"/>
+      <c r="H166" s="703"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -16353,9 +16356,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="691"/>
+      <c r="F167" s="690"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="697"/>
+      <c r="H167" s="703"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -16370,8 +16373,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="691"/>
-      <c r="H168" s="697"/>
+      <c r="F168" s="690"/>
+      <c r="H168" s="703"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -16380,8 +16383,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="691"/>
-      <c r="H169" s="697"/>
+      <c r="F169" s="690"/>
+      <c r="H169" s="703"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -16393,7 +16396,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="697"/>
+      <c r="H170" s="703"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -16413,10 +16416,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="691" t="s">
+      <c r="F172" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="705" t="s">
+      <c r="H172" s="704" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16427,8 +16430,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="691"/>
-      <c r="H173" s="705"/>
+      <c r="F173" s="690"/>
+      <c r="H173" s="704"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -16438,8 +16441,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="691"/>
-      <c r="H174" s="705"/>
+      <c r="F174" s="690"/>
+      <c r="H174" s="704"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -16455,8 +16458,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="691"/>
-      <c r="H175" s="705"/>
+      <c r="F175" s="690"/>
+      <c r="H175" s="704"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -16472,10 +16475,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="691" t="s">
+      <c r="G176" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="697" t="s">
+      <c r="H176" s="703" t="s">
         <v>51</v>
       </c>
     </row>
@@ -16492,8 +16495,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="691"/>
-      <c r="H177" s="697"/>
+      <c r="G177" s="690"/>
+      <c r="H177" s="703"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -16502,7 +16505,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="691" t="s">
+      <c r="G178" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16520,7 +16523,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="691"/>
+      <c r="G179" s="690"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -16546,7 +16549,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="697" t="s">
+      <c r="H182" s="703" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16568,7 +16571,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="697"/>
+      <c r="H183" s="703"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -16585,7 +16588,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="691" t="s">
+      <c r="G184" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16599,7 +16602,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="691"/>
+      <c r="G185" s="690"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -16634,7 +16637,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="697" t="s">
+      <c r="H188" s="703" t="s">
         <v>493</v>
       </c>
     </row>
@@ -16655,7 +16658,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="697"/>
+      <c r="H189" s="703"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -16671,10 +16674,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="691" t="s">
+      <c r="G190" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="697"/>
+      <c r="H190" s="703"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -16684,8 +16687,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="691"/>
-      <c r="H191" s="697"/>
+      <c r="G191" s="690"/>
+      <c r="H191" s="703"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -16706,7 +16709,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="691" t="s">
+      <c r="F194" s="690" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16718,7 +16721,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="691"/>
+      <c r="F195" s="690"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16736,7 +16739,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="691" t="s">
+      <c r="G196" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16750,7 +16753,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="691"/>
+      <c r="G197" s="690"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -16759,7 +16762,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="691"/>
+      <c r="G198" s="690"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -16776,7 +16779,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="691" t="s">
+      <c r="G199" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16791,7 +16794,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="691"/>
+      <c r="G200" s="690"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -16807,7 +16810,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="691"/>
+      <c r="G201" s="690"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -16825,7 +16828,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="691"/>
+      <c r="G202" s="690"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -16886,7 +16889,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="691" t="s">
+      <c r="G206" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16906,7 +16909,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="691"/>
+      <c r="G207" s="690"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -16925,7 +16928,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="691"/>
+      <c r="G208" s="690"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -16942,7 +16945,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="691"/>
+      <c r="G209" s="690"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -16959,7 +16962,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="691"/>
+      <c r="G210" s="690"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -16976,7 +16979,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="691"/>
+      <c r="G211" s="690"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -16991,7 +16994,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="691"/>
+      <c r="G212" s="690"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -17010,7 +17013,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="697" t="s">
+      <c r="H213" s="703" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17031,7 +17034,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="697"/>
+      <c r="H214" s="703"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -17047,10 +17050,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="691" t="s">
+      <c r="F215" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="697" t="s">
+      <c r="H215" s="703" t="s">
         <v>546</v>
       </c>
     </row>
@@ -17062,8 +17065,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="691"/>
-      <c r="H216" s="697"/>
+      <c r="F216" s="690"/>
+      <c r="H216" s="703"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -17129,10 +17132,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="691" t="s">
+      <c r="F220" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="697" t="s">
+      <c r="H220" s="703" t="s">
         <v>556</v>
       </c>
     </row>
@@ -17144,8 +17147,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="691"/>
-      <c r="H221" s="697"/>
+      <c r="F221" s="690"/>
+      <c r="H221" s="703"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -17154,8 +17157,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="691"/>
-      <c r="H222" s="697"/>
+      <c r="F222" s="690"/>
+      <c r="H222" s="703"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -17186,10 +17189,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="691" t="s">
+      <c r="F226" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="705" t="s">
+      <c r="H226" s="704" t="s">
         <v>566</v>
       </c>
     </row>
@@ -17200,8 +17203,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="691"/>
-      <c r="H227" s="705"/>
+      <c r="F227" s="690"/>
+      <c r="H227" s="704"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -17210,8 +17213,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="691"/>
-      <c r="H228" s="705"/>
+      <c r="F228" s="690"/>
+      <c r="H228" s="704"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -17221,8 +17224,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="691"/>
-      <c r="H229" s="705"/>
+      <c r="F229" s="690"/>
+      <c r="H229" s="704"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -17231,8 +17234,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="691"/>
-      <c r="H230" s="705"/>
+      <c r="F230" s="690"/>
+      <c r="H230" s="704"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -17251,7 +17254,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="705"/>
+      <c r="H231" s="704"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -17293,10 +17296,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="691" t="s">
+      <c r="F235" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="697" t="s">
+      <c r="H235" s="703" t="s">
         <v>580</v>
       </c>
     </row>
@@ -17307,8 +17310,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="691"/>
-      <c r="H236" s="697"/>
+      <c r="F236" s="690"/>
+      <c r="H236" s="703"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -17317,8 +17320,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="691"/>
-      <c r="H237" s="697"/>
+      <c r="F237" s="690"/>
+      <c r="H237" s="703"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -17327,8 +17330,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="691"/>
-      <c r="H238" s="697"/>
+      <c r="F238" s="690"/>
+      <c r="H238" s="703"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -17344,7 +17347,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="691" t="s">
+      <c r="G239" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17355,7 +17358,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="691"/>
+      <c r="G240" s="690"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -17371,11 +17374,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="691" t="s">
+      <c r="F241" s="690" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="697" t="s">
+      <c r="H241" s="703" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17386,9 +17389,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="691"/>
+      <c r="F242" s="690"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="697"/>
+      <c r="H242" s="703"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
@@ -17505,6 +17508,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="F226:F230"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="F164:F169"/>
+    <mergeCell ref="H164:H170"/>
+    <mergeCell ref="H172:H175"/>
+    <mergeCell ref="F172:F175"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="H146:H148"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="G206:G212"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="F91:F92"/>
     <mergeCell ref="F194:F195"/>
     <mergeCell ref="G196:G198"/>
     <mergeCell ref="G199:G202"/>
@@ -17521,65 +17583,6 @@
     <mergeCell ref="F123:F125"/>
     <mergeCell ref="F126:F131"/>
     <mergeCell ref="F21:F26"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="G206:G212"/>
-    <mergeCell ref="H220:H222"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="F164:F169"/>
-    <mergeCell ref="H164:H170"/>
-    <mergeCell ref="H172:H175"/>
-    <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="H146:H148"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="F226:F230"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G239:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -4670,6 +4670,288 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4709,287 +4991,122 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5036,122 +5153,113 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5165,6 +5273,36 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5180,144 +5318,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5400,61 +5400,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6878,28 +6878,28 @@
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="523" t="str">
+      <c r="E2" s="491" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="490" t="s">
+      <c r="F2" s="506" t="s">
         <v>705</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="494" t="s">
         <v>666</v>
       </c>
-      <c r="H2" s="508" t="str">
+      <c r="H2" s="524" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="508" t="str">
+      <c r="I2" s="524" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="513" t="s">
+      <c r="J2" s="528" t="s">
         <v>669</v>
       </c>
-      <c r="K2" s="511" t="s">
+      <c r="K2" s="494" t="s">
         <v>754</v>
       </c>
       <c r="L2" s="199" t="s">
@@ -6934,13 +6934,13 @@
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="524"/>
-      <c r="F3" s="491"/>
-      <c r="G3" s="526"/>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="514"/>
-      <c r="K3" s="512"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="529"/>
+      <c r="K3" s="527"/>
       <c r="L3" s="202" t="s">
         <v>624</v>
       </c>
@@ -6973,11 +6973,11 @@
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="525"/>
-      <c r="F4" s="492"/>
-      <c r="G4" s="527"/>
-      <c r="H4" s="510"/>
-      <c r="I4" s="510"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="526"/>
+      <c r="I4" s="526"/>
       <c r="J4" s="205" t="s">
         <v>668</v>
       </c>
@@ -7014,21 +7014,21 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="487" t="str">
+      <c r="E5" s="503" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="493" t="s">
+      <c r="F5" s="509" t="s">
         <v>691</v>
       </c>
-      <c r="G5" s="528" t="s">
+      <c r="G5" s="497" t="s">
         <v>651</v>
       </c>
-      <c r="H5" s="520" t="str">
+      <c r="H5" s="488" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="520" t="str">
+      <c r="I5" s="488" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
@@ -7064,11 +7064,11 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="488"/>
-      <c r="F6" s="494"/>
-      <c r="G6" s="529"/>
-      <c r="H6" s="521"/>
-      <c r="I6" s="521"/>
+      <c r="E6" s="504"/>
+      <c r="F6" s="510"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="489"/>
+      <c r="I6" s="489"/>
       <c r="J6" s="207" t="s">
         <v>671</v>
       </c>
@@ -7103,11 +7103,11 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="489"/>
-      <c r="F7" s="495"/>
-      <c r="G7" s="530"/>
-      <c r="H7" s="522"/>
-      <c r="I7" s="522"/>
+      <c r="E7" s="505"/>
+      <c r="F7" s="511"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="490"/>
+      <c r="I7" s="490"/>
       <c r="J7" s="214" t="s">
         <v>672</v>
       </c>
@@ -7144,7 +7144,7 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="504" t="s">
+      <c r="F8" s="520" t="s">
         <v>696</v>
       </c>
       <c r="G8" s="218" t="s">
@@ -7185,23 +7185,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="502" t="s">
+      <c r="E9" s="518" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="505"/>
-      <c r="G9" s="496" t="s">
+      <c r="F9" s="521"/>
+      <c r="G9" s="512" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="497"/>
-      <c r="I9" s="497"/>
-      <c r="J9" s="497"/>
-      <c r="K9" s="497"/>
-      <c r="L9" s="497"/>
-      <c r="M9" s="497"/>
-      <c r="N9" s="497"/>
-      <c r="O9" s="497"/>
-      <c r="P9" s="497"/>
-      <c r="Q9" s="498"/>
+      <c r="H9" s="513"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="513"/>
+      <c r="K9" s="513"/>
+      <c r="L9" s="513"/>
+      <c r="M9" s="513"/>
+      <c r="N9" s="513"/>
+      <c r="O9" s="513"/>
+      <c r="P9" s="513"/>
+      <c r="Q9" s="514"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -7217,19 +7217,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="503"/>
-      <c r="F10" s="505"/>
-      <c r="G10" s="499"/>
-      <c r="H10" s="500"/>
-      <c r="I10" s="500"/>
-      <c r="J10" s="500"/>
-      <c r="K10" s="500"/>
-      <c r="L10" s="500"/>
-      <c r="M10" s="500"/>
-      <c r="N10" s="500"/>
-      <c r="O10" s="500"/>
-      <c r="P10" s="500"/>
-      <c r="Q10" s="501"/>
+      <c r="E10" s="519"/>
+      <c r="F10" s="521"/>
+      <c r="G10" s="515"/>
+      <c r="H10" s="516"/>
+      <c r="I10" s="516"/>
+      <c r="J10" s="516"/>
+      <c r="K10" s="516"/>
+      <c r="L10" s="516"/>
+      <c r="M10" s="516"/>
+      <c r="N10" s="516"/>
+      <c r="O10" s="516"/>
+      <c r="P10" s="516"/>
+      <c r="Q10" s="517"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -7250,26 +7250,26 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="537" t="str">
+      <c r="E11" s="453" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="505"/>
-      <c r="G11" s="515" t="s">
+      <c r="F11" s="521"/>
+      <c r="G11" s="486" t="s">
         <v>652</v>
       </c>
-      <c r="H11" s="539" t="str">
+      <c r="H11" s="468" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="539" t="str">
+      <c r="I11" s="468" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="515" t="s">
+      <c r="J11" s="486" t="s">
         <v>673</v>
       </c>
-      <c r="K11" s="515" t="s">
+      <c r="K11" s="486" t="s">
         <v>685</v>
       </c>
       <c r="L11" s="223" t="s">
@@ -7302,13 +7302,13 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="538"/>
-      <c r="F12" s="506"/>
-      <c r="G12" s="516"/>
-      <c r="H12" s="540"/>
-      <c r="I12" s="540"/>
-      <c r="J12" s="516"/>
-      <c r="K12" s="516"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="487"/>
+      <c r="H12" s="469"/>
+      <c r="I12" s="469"/>
+      <c r="J12" s="487"/>
+      <c r="K12" s="487"/>
       <c r="L12" s="226" t="s">
         <v>631</v>
       </c>
@@ -7337,21 +7337,21 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="547" t="str">
+      <c r="E13" s="476" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="507" t="s">
+      <c r="F13" s="523" t="s">
         <v>698</v>
       </c>
-      <c r="G13" s="484" t="s">
+      <c r="G13" s="500" t="s">
         <v>653</v>
       </c>
-      <c r="H13" s="517" t="str">
+      <c r="H13" s="530" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="517" t="str">
+      <c r="I13" s="530" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
@@ -7387,11 +7387,11 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="548"/>
-      <c r="F14" s="485"/>
-      <c r="G14" s="485"/>
-      <c r="H14" s="518"/>
-      <c r="I14" s="518"/>
+      <c r="E14" s="477"/>
+      <c r="F14" s="501"/>
+      <c r="G14" s="501"/>
+      <c r="H14" s="531"/>
+      <c r="I14" s="531"/>
       <c r="J14" s="384" t="s">
         <v>704</v>
       </c>
@@ -7424,11 +7424,11 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="549"/>
-      <c r="F15" s="486"/>
-      <c r="G15" s="486"/>
-      <c r="H15" s="519"/>
-      <c r="I15" s="519"/>
+      <c r="E15" s="478"/>
+      <c r="F15" s="502"/>
+      <c r="G15" s="502"/>
+      <c r="H15" s="532"/>
+      <c r="I15" s="532"/>
       <c r="J15" s="235" t="s">
         <v>687</v>
       </c>
@@ -7465,21 +7465,21 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="482" t="str">
+      <c r="E16" s="455" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="447" t="s">
+      <c r="F16" s="541" t="s">
         <v>697</v>
       </c>
-      <c r="G16" s="482" t="s">
+      <c r="G16" s="455" t="s">
         <v>654</v>
       </c>
-      <c r="H16" s="550" t="str">
+      <c r="H16" s="482" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="552" t="str">
+      <c r="I16" s="484" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
@@ -7517,11 +7517,11 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="483"/>
-      <c r="F17" s="448"/>
-      <c r="G17" s="483"/>
-      <c r="H17" s="551"/>
-      <c r="I17" s="553"/>
+      <c r="E17" s="456"/>
+      <c r="F17" s="542"/>
+      <c r="G17" s="456"/>
+      <c r="H17" s="483"/>
+      <c r="I17" s="485"/>
       <c r="J17" s="247" t="s">
         <v>645</v>
       </c>
@@ -7551,21 +7551,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="541" t="s">
+      <c r="E18" s="470" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="541"/>
-      <c r="G18" s="541"/>
-      <c r="H18" s="541"/>
-      <c r="I18" s="541"/>
-      <c r="J18" s="541"/>
-      <c r="K18" s="541"/>
-      <c r="L18" s="541"/>
-      <c r="M18" s="541"/>
-      <c r="N18" s="541"/>
-      <c r="O18" s="541"/>
-      <c r="P18" s="542"/>
-      <c r="Q18" s="543"/>
+      <c r="F18" s="470"/>
+      <c r="G18" s="470"/>
+      <c r="H18" s="470"/>
+      <c r="I18" s="470"/>
+      <c r="J18" s="470"/>
+      <c r="K18" s="470"/>
+      <c r="L18" s="470"/>
+      <c r="M18" s="470"/>
+      <c r="N18" s="470"/>
+      <c r="O18" s="470"/>
+      <c r="P18" s="471"/>
+      <c r="Q18" s="472"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7581,19 +7581,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="544"/>
-      <c r="F19" s="544"/>
-      <c r="G19" s="544"/>
-      <c r="H19" s="544"/>
-      <c r="I19" s="544"/>
-      <c r="J19" s="544"/>
-      <c r="K19" s="544"/>
-      <c r="L19" s="544"/>
-      <c r="M19" s="544"/>
-      <c r="N19" s="544"/>
-      <c r="O19" s="544"/>
-      <c r="P19" s="545"/>
-      <c r="Q19" s="546"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="473"/>
+      <c r="G19" s="473"/>
+      <c r="H19" s="473"/>
+      <c r="I19" s="473"/>
+      <c r="J19" s="473"/>
+      <c r="K19" s="473"/>
+      <c r="L19" s="473"/>
+      <c r="M19" s="473"/>
+      <c r="N19" s="473"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="474"/>
+      <c r="Q19" s="475"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7614,21 +7614,21 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="471" t="str">
+      <c r="E20" s="457" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="449" t="s">
+      <c r="F20" s="543" t="s">
         <v>700</v>
       </c>
-      <c r="G20" s="471" t="s">
+      <c r="G20" s="457" t="s">
         <v>699</v>
       </c>
-      <c r="H20" s="463" t="str">
+      <c r="H20" s="536" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="463" t="str">
+      <c r="I20" s="536" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
@@ -7664,11 +7664,11 @@
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="472"/>
-      <c r="F21" s="450"/>
-      <c r="G21" s="472"/>
-      <c r="H21" s="464"/>
-      <c r="I21" s="464"/>
+      <c r="E21" s="458"/>
+      <c r="F21" s="544"/>
+      <c r="G21" s="458"/>
+      <c r="H21" s="537"/>
+      <c r="I21" s="537"/>
       <c r="J21" s="250"/>
       <c r="K21" s="250"/>
       <c r="L21" s="250" t="s">
@@ -7699,11 +7699,11 @@
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="473"/>
-      <c r="F22" s="451"/>
-      <c r="G22" s="473"/>
-      <c r="H22" s="465"/>
-      <c r="I22" s="465"/>
+      <c r="E22" s="459"/>
+      <c r="F22" s="545"/>
+      <c r="G22" s="459"/>
+      <c r="H22" s="538"/>
+      <c r="I22" s="538"/>
       <c r="J22" s="241"/>
       <c r="K22" s="241"/>
       <c r="L22" s="241" t="s">
@@ -7734,21 +7734,21 @@
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="474" t="str">
+      <c r="E23" s="460" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="452" t="s">
+      <c r="F23" s="546" t="s">
         <v>701</v>
       </c>
-      <c r="G23" s="474" t="s">
+      <c r="G23" s="460" t="s">
         <v>655</v>
       </c>
-      <c r="H23" s="466" t="str">
+      <c r="H23" s="539" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="466" t="str">
+      <c r="I23" s="539" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
@@ -7784,11 +7784,11 @@
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="475"/>
-      <c r="F24" s="453"/>
-      <c r="G24" s="475"/>
-      <c r="H24" s="467"/>
-      <c r="I24" s="467"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="547"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="540"/>
+      <c r="I24" s="540"/>
       <c r="J24" s="187" t="s">
         <v>648</v>
       </c>
@@ -7816,21 +7816,21 @@
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="541" t="s">
+      <c r="E25" s="470" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="541"/>
-      <c r="G25" s="541"/>
-      <c r="H25" s="541"/>
-      <c r="I25" s="541"/>
-      <c r="J25" s="541"/>
-      <c r="K25" s="541"/>
-      <c r="L25" s="541"/>
-      <c r="M25" s="541"/>
-      <c r="N25" s="541"/>
-      <c r="O25" s="541"/>
-      <c r="P25" s="542"/>
-      <c r="Q25" s="543"/>
+      <c r="F25" s="470"/>
+      <c r="G25" s="470"/>
+      <c r="H25" s="470"/>
+      <c r="I25" s="470"/>
+      <c r="J25" s="470"/>
+      <c r="K25" s="470"/>
+      <c r="L25" s="470"/>
+      <c r="M25" s="470"/>
+      <c r="N25" s="470"/>
+      <c r="O25" s="470"/>
+      <c r="P25" s="471"/>
+      <c r="Q25" s="472"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7846,19 +7846,19 @@
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="544"/>
-      <c r="F26" s="544"/>
-      <c r="G26" s="544"/>
-      <c r="H26" s="544"/>
-      <c r="I26" s="544"/>
-      <c r="J26" s="544"/>
-      <c r="K26" s="544"/>
-      <c r="L26" s="544"/>
-      <c r="M26" s="544"/>
-      <c r="N26" s="544"/>
-      <c r="O26" s="544"/>
-      <c r="P26" s="545"/>
-      <c r="Q26" s="546"/>
+      <c r="E26" s="473"/>
+      <c r="F26" s="473"/>
+      <c r="G26" s="473"/>
+      <c r="H26" s="473"/>
+      <c r="I26" s="473"/>
+      <c r="J26" s="473"/>
+      <c r="K26" s="473"/>
+      <c r="L26" s="473"/>
+      <c r="M26" s="473"/>
+      <c r="N26" s="473"/>
+      <c r="O26" s="473"/>
+      <c r="P26" s="474"/>
+      <c r="Q26" s="475"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7879,21 +7879,21 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="476" t="str">
+      <c r="E27" s="462" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="454" t="s">
+      <c r="F27" s="548" t="s">
         <v>702</v>
       </c>
-      <c r="G27" s="476" t="s">
+      <c r="G27" s="462" t="s">
         <v>656</v>
       </c>
-      <c r="H27" s="468" t="str">
+      <c r="H27" s="479" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="468" t="str">
+      <c r="I27" s="479" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
@@ -7929,11 +7929,11 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="477"/>
-      <c r="F28" s="455"/>
-      <c r="G28" s="477"/>
-      <c r="H28" s="469"/>
-      <c r="I28" s="469"/>
+      <c r="E28" s="463"/>
+      <c r="F28" s="549"/>
+      <c r="G28" s="463"/>
+      <c r="H28" s="480"/>
+      <c r="I28" s="480"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
@@ -7964,11 +7964,11 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="478"/>
-      <c r="F29" s="456"/>
-      <c r="G29" s="478"/>
-      <c r="H29" s="470"/>
-      <c r="I29" s="470"/>
+      <c r="E29" s="464"/>
+      <c r="F29" s="550"/>
+      <c r="G29" s="464"/>
+      <c r="H29" s="481"/>
+      <c r="I29" s="481"/>
       <c r="J29" s="182" t="s">
         <v>644</v>
       </c>
@@ -8003,15 +8003,15 @@
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="479" t="s">
+      <c r="E30" s="465" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="457" t="s">
+      <c r="F30" s="551" t="s">
         <v>703</v>
       </c>
-      <c r="G30" s="479"/>
-      <c r="H30" s="460"/>
-      <c r="I30" s="460"/>
+      <c r="G30" s="465"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="533"/>
       <c r="J30" s="190"/>
       <c r="K30" s="190"/>
       <c r="L30" s="190"/>
@@ -8040,11 +8040,11 @@
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="480"/>
-      <c r="F31" s="458"/>
-      <c r="G31" s="480"/>
-      <c r="H31" s="461"/>
-      <c r="I31" s="461"/>
+      <c r="E31" s="466"/>
+      <c r="F31" s="552"/>
+      <c r="G31" s="466"/>
+      <c r="H31" s="534"/>
+      <c r="I31" s="534"/>
       <c r="J31" s="193"/>
       <c r="K31" s="193"/>
       <c r="L31" s="193"/>
@@ -8073,11 +8073,11 @@
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="481"/>
-      <c r="F32" s="459"/>
-      <c r="G32" s="481"/>
-      <c r="H32" s="462"/>
-      <c r="I32" s="462"/>
+      <c r="E32" s="467"/>
+      <c r="F32" s="553"/>
+      <c r="G32" s="467"/>
+      <c r="H32" s="535"/>
+      <c r="I32" s="535"/>
       <c r="J32" s="196"/>
       <c r="K32" s="196"/>
       <c r="L32" s="196"/>
@@ -8103,21 +8103,21 @@
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="531" t="s">
+      <c r="E33" s="447" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="531"/>
-      <c r="G33" s="531"/>
-      <c r="H33" s="531"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="531"/>
-      <c r="K33" s="531"/>
-      <c r="L33" s="531"/>
-      <c r="M33" s="531"/>
-      <c r="N33" s="531"/>
-      <c r="O33" s="531"/>
-      <c r="P33" s="532"/>
-      <c r="Q33" s="533"/>
+      <c r="F33" s="447"/>
+      <c r="G33" s="447"/>
+      <c r="H33" s="447"/>
+      <c r="I33" s="447"/>
+      <c r="J33" s="447"/>
+      <c r="K33" s="447"/>
+      <c r="L33" s="447"/>
+      <c r="M33" s="447"/>
+      <c r="N33" s="447"/>
+      <c r="O33" s="447"/>
+      <c r="P33" s="448"/>
+      <c r="Q33" s="449"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -8133,19 +8133,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="534"/>
-      <c r="F34" s="534"/>
-      <c r="G34" s="534"/>
-      <c r="H34" s="534"/>
-      <c r="I34" s="534"/>
-      <c r="J34" s="534"/>
-      <c r="K34" s="534"/>
-      <c r="L34" s="534"/>
-      <c r="M34" s="534"/>
-      <c r="N34" s="534"/>
-      <c r="O34" s="534"/>
-      <c r="P34" s="535"/>
-      <c r="Q34" s="536"/>
+      <c r="E34" s="450"/>
+      <c r="F34" s="450"/>
+      <c r="G34" s="450"/>
+      <c r="H34" s="450"/>
+      <c r="I34" s="450"/>
+      <c r="J34" s="450"/>
+      <c r="K34" s="450"/>
+      <c r="L34" s="450"/>
+      <c r="M34" s="450"/>
+      <c r="N34" s="450"/>
+      <c r="O34" s="450"/>
+      <c r="P34" s="451"/>
+      <c r="Q34" s="452"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8635,6 +8635,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G9:Q10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="E33:Q34"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E16:E17"/>
@@ -8651,44 +8689,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G9:Q10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8712,38 +8712,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="582" t="s">
+      <c r="A1" s="558" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="583"/>
-      <c r="C1" s="583"/>
-      <c r="D1" s="583"/>
-      <c r="E1" s="583"/>
-      <c r="F1" s="582" t="s">
+      <c r="B1" s="559"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="558" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="583"/>
-      <c r="H1" s="583"/>
-      <c r="I1" s="583"/>
-      <c r="J1" s="583"/>
+      <c r="G1" s="559"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
     </row>
     <row r="2" spans="1:10" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="584" t="str">
+      <c r="A2" s="569" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="585"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="585"/>
-      <c r="E2" s="585"/>
-      <c r="F2" s="586" t="str">
+      <c r="B2" s="570"/>
+      <c r="C2" s="570"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="570"/>
+      <c r="F2" s="571" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="587"/>
-      <c r="H2" s="587"/>
-      <c r="I2" s="587"/>
-      <c r="J2" s="588"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="572"/>
+      <c r="J2" s="573"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -8753,116 +8753,116 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="582" t="s">
+      <c r="A4" s="558" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="583"/>
-      <c r="C4" s="583"/>
-      <c r="D4" s="595"/>
-      <c r="E4" s="582" t="s">
+      <c r="B4" s="559"/>
+      <c r="C4" s="559"/>
+      <c r="D4" s="560"/>
+      <c r="E4" s="558" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="583"/>
-      <c r="G4" s="595"/>
-      <c r="H4" s="582" t="s">
+      <c r="F4" s="559"/>
+      <c r="G4" s="560"/>
+      <c r="H4" s="558" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="583"/>
-      <c r="J4" s="595"/>
+      <c r="I4" s="559"/>
+      <c r="J4" s="560"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="589" t="s">
+      <c r="A5" s="574" t="s">
         <v>666</v>
       </c>
-      <c r="B5" s="590"/>
-      <c r="C5" s="590"/>
-      <c r="D5" s="591"/>
+      <c r="B5" s="575"/>
+      <c r="C5" s="575"/>
+      <c r="D5" s="576"/>
       <c r="E5" s="397" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="596" t="s">
+      <c r="F5" s="554" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="597"/>
+      <c r="G5" s="555"/>
       <c r="H5" s="398" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="596" t="s">
+      <c r="I5" s="554" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="597"/>
+      <c r="J5" s="555"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="589"/>
-      <c r="B6" s="590"/>
-      <c r="C6" s="590"/>
-      <c r="D6" s="591"/>
+      <c r="A6" s="574"/>
+      <c r="B6" s="575"/>
+      <c r="C6" s="575"/>
+      <c r="D6" s="576"/>
       <c r="E6" s="397"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="597"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="555"/>
       <c r="H6" s="398" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="596" t="s">
+      <c r="I6" s="554" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="597"/>
+      <c r="J6" s="555"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="589"/>
-      <c r="B7" s="590"/>
-      <c r="C7" s="590"/>
-      <c r="D7" s="591"/>
+      <c r="A7" s="574"/>
+      <c r="B7" s="575"/>
+      <c r="C7" s="575"/>
+      <c r="D7" s="576"/>
       <c r="E7" s="397"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="597"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="555"/>
       <c r="H7" s="398" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="596" t="s">
+      <c r="I7" s="554" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="597"/>
+      <c r="J7" s="555"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="589"/>
-      <c r="B8" s="590"/>
-      <c r="C8" s="590"/>
-      <c r="D8" s="591"/>
+      <c r="A8" s="574"/>
+      <c r="B8" s="575"/>
+      <c r="C8" s="575"/>
+      <c r="D8" s="576"/>
       <c r="E8" s="397" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="596" t="s">
+      <c r="F8" s="554" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="597"/>
+      <c r="G8" s="555"/>
       <c r="H8" s="398" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="596" t="s">
+      <c r="I8" s="554" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="597"/>
+      <c r="J8" s="555"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="592"/>
-      <c r="B9" s="593"/>
-      <c r="C9" s="593"/>
-      <c r="D9" s="594"/>
+      <c r="A9" s="577"/>
+      <c r="B9" s="578"/>
+      <c r="C9" s="578"/>
+      <c r="D9" s="579"/>
       <c r="E9" s="399" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="598" t="s">
+      <c r="F9" s="556" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="599"/>
+      <c r="G9" s="557"/>
       <c r="H9" s="399" t="s">
         <v>723</v>
       </c>
-      <c r="I9" s="598" t="s">
+      <c r="I9" s="556" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="599"/>
+      <c r="J9" s="557"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="400"/>
@@ -8872,102 +8872,102 @@
       <c r="J10" s="400"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="582" t="s">
+      <c r="A11" s="558" t="s">
         <v>711</v>
       </c>
-      <c r="B11" s="583"/>
-      <c r="C11" s="583"/>
-      <c r="D11" s="583"/>
-      <c r="E11" s="583"/>
-      <c r="F11" s="582" t="s">
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="559"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="558" t="s">
         <v>722</v>
       </c>
-      <c r="G11" s="583"/>
-      <c r="H11" s="583"/>
-      <c r="I11" s="583"/>
-      <c r="J11" s="595"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="559"/>
+      <c r="J11" s="560"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="605" t="s">
+      <c r="A12" s="566" t="s">
         <v>725</v>
       </c>
-      <c r="B12" s="606"/>
-      <c r="C12" s="606"/>
-      <c r="D12" s="606"/>
-      <c r="E12" s="606"/>
-      <c r="F12" s="605" t="s">
+      <c r="B12" s="567"/>
+      <c r="C12" s="567"/>
+      <c r="D12" s="567"/>
+      <c r="E12" s="567"/>
+      <c r="F12" s="566" t="s">
         <v>726</v>
       </c>
-      <c r="G12" s="606"/>
-      <c r="H12" s="606"/>
-      <c r="I12" s="606"/>
-      <c r="J12" s="607"/>
+      <c r="G12" s="567"/>
+      <c r="H12" s="567"/>
+      <c r="I12" s="567"/>
+      <c r="J12" s="568"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="396"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="582" t="s">
+      <c r="A14" s="558" t="s">
         <v>727</v>
       </c>
-      <c r="B14" s="583"/>
-      <c r="C14" s="583"/>
-      <c r="D14" s="583"/>
-      <c r="E14" s="583"/>
-      <c r="F14" s="582" t="s">
+      <c r="B14" s="559"/>
+      <c r="C14" s="559"/>
+      <c r="D14" s="559"/>
+      <c r="E14" s="559"/>
+      <c r="F14" s="558" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="583"/>
-      <c r="H14" s="583"/>
-      <c r="I14" s="583"/>
-      <c r="J14" s="595"/>
+      <c r="G14" s="559"/>
+      <c r="H14" s="559"/>
+      <c r="I14" s="559"/>
+      <c r="J14" s="560"/>
     </row>
     <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="600" t="s">
+      <c r="A15" s="561" t="s">
         <v>728</v>
       </c>
-      <c r="B15" s="601"/>
-      <c r="C15" s="601"/>
-      <c r="D15" s="601"/>
-      <c r="E15" s="601"/>
-      <c r="F15" s="602" t="s">
+      <c r="B15" s="562"/>
+      <c r="C15" s="562"/>
+      <c r="D15" s="562"/>
+      <c r="E15" s="562"/>
+      <c r="F15" s="563" t="s">
         <v>729</v>
       </c>
-      <c r="G15" s="603"/>
-      <c r="H15" s="603"/>
-      <c r="I15" s="603"/>
-      <c r="J15" s="604"/>
+      <c r="G15" s="564"/>
+      <c r="H15" s="564"/>
+      <c r="I15" s="564"/>
+      <c r="J15" s="565"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575" t="s">
+      <c r="A17" s="586" t="s">
         <v>712</v>
       </c>
-      <c r="B17" s="576"/>
-      <c r="C17" s="576"/>
-      <c r="D17" s="576"/>
-      <c r="E17" s="576"/>
-      <c r="F17" s="576"/>
-      <c r="G17" s="576"/>
-      <c r="H17" s="576"/>
-      <c r="I17" s="576"/>
-      <c r="J17" s="577"/>
+      <c r="B17" s="587"/>
+      <c r="C17" s="587"/>
+      <c r="D17" s="587"/>
+      <c r="E17" s="587"/>
+      <c r="F17" s="587"/>
+      <c r="G17" s="587"/>
+      <c r="H17" s="587"/>
+      <c r="I17" s="587"/>
+      <c r="J17" s="588"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="578" t="s">
+      <c r="A18" s="589" t="s">
         <v>730</v>
       </c>
-      <c r="B18" s="579"/>
-      <c r="C18" s="579"/>
-      <c r="D18" s="579"/>
-      <c r="E18" s="579"/>
-      <c r="F18" s="580" t="s">
+      <c r="B18" s="590"/>
+      <c r="C18" s="590"/>
+      <c r="D18" s="590"/>
+      <c r="E18" s="590"/>
+      <c r="F18" s="591" t="s">
         <v>731</v>
       </c>
-      <c r="G18" s="580"/>
-      <c r="H18" s="580"/>
-      <c r="I18" s="580"/>
-      <c r="J18" s="581"/>
+      <c r="G18" s="591"/>
+      <c r="H18" s="591"/>
+      <c r="I18" s="591"/>
+      <c r="J18" s="592"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="396"/>
@@ -8979,41 +8979,41 @@
       <c r="A20" s="403" t="s">
         <v>721</v>
       </c>
-      <c r="B20" s="569" t="s">
+      <c r="B20" s="580" t="s">
         <v>718</v>
       </c>
-      <c r="C20" s="570"/>
-      <c r="D20" s="571"/>
-      <c r="E20" s="569" t="s">
+      <c r="C20" s="581"/>
+      <c r="D20" s="582"/>
+      <c r="E20" s="580" t="s">
         <v>719</v>
       </c>
-      <c r="F20" s="570"/>
-      <c r="G20" s="571"/>
-      <c r="H20" s="569" t="s">
+      <c r="F20" s="581"/>
+      <c r="G20" s="582"/>
+      <c r="H20" s="580" t="s">
         <v>720</v>
       </c>
-      <c r="I20" s="570"/>
-      <c r="J20" s="571"/>
+      <c r="I20" s="581"/>
+      <c r="J20" s="582"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="401" t="s">
         <v>713</v>
       </c>
-      <c r="B21" s="572" t="s">
+      <c r="B21" s="583" t="s">
         <v>732</v>
       </c>
-      <c r="C21" s="573"/>
-      <c r="D21" s="574"/>
-      <c r="E21" s="572" t="s">
+      <c r="C21" s="584"/>
+      <c r="D21" s="585"/>
+      <c r="E21" s="583" t="s">
         <v>733</v>
       </c>
-      <c r="F21" s="573"/>
-      <c r="G21" s="574"/>
-      <c r="H21" s="572" t="s">
+      <c r="F21" s="584"/>
+      <c r="G21" s="585"/>
+      <c r="H21" s="583" t="s">
         <v>734</v>
       </c>
-      <c r="I21" s="573"/>
-      <c r="J21" s="574"/>
+      <c r="I21" s="584"/>
+      <c r="J21" s="585"/>
     </row>
     <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="401" t="s">
@@ -9147,9 +9147,9 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="402"/>
-      <c r="B28" s="560"/>
-      <c r="C28" s="561"/>
-      <c r="D28" s="562"/>
+      <c r="B28" s="599"/>
+      <c r="C28" s="600"/>
+      <c r="D28" s="601"/>
       <c r="E28" s="416"/>
       <c r="F28" s="417"/>
       <c r="G28" s="418"/>
@@ -9161,33 +9161,33 @@
       <c r="A29" s="401" t="s">
         <v>715</v>
       </c>
-      <c r="B29" s="563"/>
-      <c r="C29" s="564"/>
-      <c r="D29" s="565"/>
-      <c r="E29" s="563"/>
-      <c r="F29" s="564"/>
-      <c r="G29" s="565"/>
-      <c r="H29" s="566"/>
-      <c r="I29" s="567"/>
-      <c r="J29" s="568"/>
+      <c r="B29" s="602"/>
+      <c r="C29" s="603"/>
+      <c r="D29" s="604"/>
+      <c r="E29" s="602"/>
+      <c r="F29" s="603"/>
+      <c r="G29" s="604"/>
+      <c r="H29" s="605"/>
+      <c r="I29" s="606"/>
+      <c r="J29" s="607"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="402" t="s">
         <v>747</v>
       </c>
-      <c r="B30" s="554" t="s">
+      <c r="B30" s="593" t="s">
         <v>748</v>
       </c>
-      <c r="C30" s="555"/>
-      <c r="D30" s="556"/>
-      <c r="E30" s="554" t="s">
+      <c r="C30" s="594"/>
+      <c r="D30" s="595"/>
+      <c r="E30" s="593" t="s">
         <v>749</v>
       </c>
-      <c r="F30" s="555"/>
-      <c r="G30" s="556"/>
-      <c r="H30" s="557"/>
-      <c r="I30" s="558"/>
-      <c r="J30" s="559"/>
+      <c r="F30" s="594"/>
+      <c r="G30" s="595"/>
+      <c r="H30" s="596"/>
+      <c r="I30" s="597"/>
+      <c r="J30" s="598"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9199,16 +9199,22 @@
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F1:J1"/>
@@ -9225,22 +9231,16 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9267,37 +9267,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="610" t="s">
+      <c r="A1" s="646" t="s">
         <v>716</v>
       </c>
-      <c r="B1" s="611"/>
-      <c r="C1" s="611"/>
-      <c r="D1" s="611"/>
-      <c r="E1" s="611"/>
-      <c r="F1" s="610" t="s">
+      <c r="B1" s="647"/>
+      <c r="C1" s="647"/>
+      <c r="D1" s="647"/>
+      <c r="E1" s="647"/>
+      <c r="F1" s="646" t="s">
         <v>717</v>
       </c>
-      <c r="G1" s="611"/>
-      <c r="H1" s="611"/>
-      <c r="I1" s="611"/>
-      <c r="J1" s="611"/>
+      <c r="G1" s="647"/>
+      <c r="H1" s="647"/>
+      <c r="I1" s="647"/>
+      <c r="J1" s="647"/>
     </row>
     <row r="2" spans="1:20" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="612" t="str">
+      <c r="A2" s="658" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="B2" s="613"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="613"/>
-      <c r="F2" s="614" t="s">
+      <c r="B2" s="659"/>
+      <c r="C2" s="659"/>
+      <c r="D2" s="659"/>
+      <c r="E2" s="659"/>
+      <c r="F2" s="660" t="s">
         <v>691</v>
       </c>
-      <c r="G2" s="615"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="615"/>
-      <c r="J2" s="616"/>
+      <c r="G2" s="661"/>
+      <c r="H2" s="661"/>
+      <c r="I2" s="661"/>
+      <c r="J2" s="662"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -9307,67 +9307,67 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="610" t="s">
+      <c r="A4" s="646" t="s">
         <v>724</v>
       </c>
-      <c r="B4" s="611"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="617"/>
-      <c r="E4" s="610" t="s">
+      <c r="B4" s="647"/>
+      <c r="C4" s="647"/>
+      <c r="D4" s="648"/>
+      <c r="E4" s="646" t="s">
         <v>650</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="G4" s="617"/>
-      <c r="H4" s="610" t="s">
+      <c r="F4" s="647"/>
+      <c r="G4" s="648"/>
+      <c r="H4" s="646" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="611"/>
-      <c r="J4" s="617"/>
+      <c r="I4" s="647"/>
+      <c r="J4" s="648"/>
     </row>
     <row r="5" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="626" t="s">
+      <c r="A5" s="652" t="s">
         <v>756</v>
       </c>
-      <c r="B5" s="627"/>
-      <c r="C5" s="627"/>
-      <c r="D5" s="628"/>
+      <c r="B5" s="653"/>
+      <c r="C5" s="653"/>
+      <c r="D5" s="654"/>
       <c r="E5" s="443" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="618" t="s">
+      <c r="F5" s="609" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="619"/>
+      <c r="G5" s="610"/>
       <c r="H5" s="444" t="s">
         <v>757</v>
       </c>
-      <c r="I5" s="618" t="s">
+      <c r="I5" s="609" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="619"/>
-      <c r="Q5" s="662"/>
-      <c r="R5" s="662"/>
+      <c r="J5" s="610"/>
+      <c r="Q5" s="608"/>
+      <c r="R5" s="608"/>
       <c r="S5" s="287" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="626"/>
-      <c r="B6" s="627"/>
-      <c r="C6" s="627"/>
-      <c r="D6" s="628"/>
+      <c r="A6" s="652"/>
+      <c r="B6" s="653"/>
+      <c r="C6" s="653"/>
+      <c r="D6" s="654"/>
       <c r="E6" s="443" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="618" t="s">
+      <c r="F6" s="609" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="619"/>
+      <c r="G6" s="610"/>
       <c r="H6" s="444"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="Q6" s="662"/>
-      <c r="R6" s="662"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="Q6" s="608"/>
+      <c r="R6" s="608"/>
       <c r="S6" s="287" t="s">
         <v>16</v>
       </c>
@@ -9376,108 +9376,108 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="626"/>
-      <c r="B7" s="627"/>
-      <c r="C7" s="627"/>
-      <c r="D7" s="628"/>
+      <c r="A7" s="652"/>
+      <c r="B7" s="653"/>
+      <c r="C7" s="653"/>
+      <c r="D7" s="654"/>
       <c r="E7" s="443" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="618" t="s">
+      <c r="F7" s="609" t="s">
         <v>597</v>
       </c>
-      <c r="G7" s="619"/>
+      <c r="G7" s="610"/>
       <c r="H7" s="444" t="s">
         <v>758</v>
       </c>
-      <c r="I7" s="618" t="s">
+      <c r="I7" s="609" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="Q7" s="662"/>
-      <c r="R7" s="662"/>
+      <c r="J7" s="610"/>
+      <c r="Q7" s="608"/>
+      <c r="R7" s="608"/>
     </row>
     <row r="8" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="626"/>
-      <c r="B8" s="627"/>
-      <c r="C8" s="627"/>
-      <c r="D8" s="628"/>
+      <c r="A8" s="652"/>
+      <c r="B8" s="653"/>
+      <c r="C8" s="653"/>
+      <c r="D8" s="654"/>
       <c r="E8" s="443" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="618" t="s">
+      <c r="F8" s="609" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="619"/>
+      <c r="G8" s="610"/>
       <c r="H8" s="444" t="s">
         <v>759</v>
       </c>
-      <c r="I8" s="618" t="s">
+      <c r="I8" s="609" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="619"/>
-      <c r="Q8" s="662"/>
-      <c r="R8" s="662"/>
+      <c r="J8" s="610"/>
+      <c r="Q8" s="608"/>
+      <c r="R8" s="608"/>
     </row>
     <row r="9" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="626"/>
-      <c r="B9" s="627"/>
-      <c r="C9" s="627"/>
-      <c r="D9" s="628"/>
+      <c r="A9" s="652"/>
+      <c r="B9" s="653"/>
+      <c r="C9" s="653"/>
+      <c r="D9" s="654"/>
       <c r="E9" s="443" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="618" t="s">
+      <c r="F9" s="609" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="619"/>
+      <c r="G9" s="610"/>
       <c r="H9" s="444" t="s">
         <v>760</v>
       </c>
-      <c r="I9" s="618" t="s">
+      <c r="I9" s="609" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="619"/>
+      <c r="J9" s="610"/>
     </row>
     <row r="10" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="626"/>
-      <c r="B10" s="627"/>
-      <c r="C10" s="627"/>
-      <c r="D10" s="628"/>
+      <c r="A10" s="652"/>
+      <c r="B10" s="653"/>
+      <c r="C10" s="653"/>
+      <c r="D10" s="654"/>
       <c r="E10" s="443" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="618" t="s">
+      <c r="F10" s="609" t="s">
         <v>441</v>
       </c>
-      <c r="G10" s="619"/>
+      <c r="G10" s="610"/>
       <c r="H10" s="444" t="s">
         <v>761</v>
       </c>
-      <c r="I10" s="618" t="s">
+      <c r="I10" s="609" t="s">
         <v>444</v>
       </c>
-      <c r="J10" s="619"/>
+      <c r="J10" s="610"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="629"/>
-      <c r="B11" s="630"/>
-      <c r="C11" s="630"/>
-      <c r="D11" s="631"/>
+      <c r="A11" s="655"/>
+      <c r="B11" s="656"/>
+      <c r="C11" s="656"/>
+      <c r="D11" s="657"/>
       <c r="E11" s="445" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="608" t="s">
+      <c r="F11" s="644" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="609"/>
+      <c r="G11" s="645"/>
       <c r="H11" s="445" t="s">
         <v>762</v>
       </c>
-      <c r="I11" s="608" t="s">
+      <c r="I11" s="644" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="609"/>
+      <c r="J11" s="645"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="400"/>
@@ -9493,92 +9493,92 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="610" t="s">
+      <c r="A13" s="646" t="s">
         <v>711</v>
       </c>
-      <c r="B13" s="611"/>
-      <c r="C13" s="611"/>
-      <c r="D13" s="611"/>
-      <c r="E13" s="611"/>
-      <c r="F13" s="610" t="s">
+      <c r="B13" s="647"/>
+      <c r="C13" s="647"/>
+      <c r="D13" s="647"/>
+      <c r="E13" s="647"/>
+      <c r="F13" s="646" t="s">
         <v>722</v>
       </c>
-      <c r="G13" s="611"/>
-      <c r="H13" s="611"/>
-      <c r="I13" s="611"/>
-      <c r="J13" s="617"/>
+      <c r="G13" s="647"/>
+      <c r="H13" s="647"/>
+      <c r="I13" s="647"/>
+      <c r="J13" s="648"/>
     </row>
     <row r="14" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="623" t="s">
+      <c r="A14" s="649" t="s">
         <v>764</v>
       </c>
-      <c r="B14" s="624"/>
-      <c r="C14" s="624"/>
-      <c r="D14" s="624"/>
-      <c r="E14" s="624"/>
-      <c r="F14" s="623"/>
-      <c r="G14" s="624"/>
-      <c r="H14" s="624"/>
-      <c r="I14" s="624"/>
-      <c r="J14" s="625"/>
+      <c r="B14" s="650"/>
+      <c r="C14" s="650"/>
+      <c r="D14" s="650"/>
+      <c r="E14" s="650"/>
+      <c r="F14" s="649"/>
+      <c r="G14" s="650"/>
+      <c r="H14" s="650"/>
+      <c r="I14" s="650"/>
+      <c r="J14" s="651"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J15" s="396"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="610" t="s">
+      <c r="A16" s="646" t="s">
         <v>727</v>
       </c>
-      <c r="B16" s="611"/>
-      <c r="C16" s="611"/>
-      <c r="D16" s="611"/>
-      <c r="E16" s="611"/>
-      <c r="F16" s="610" t="s">
+      <c r="B16" s="647"/>
+      <c r="C16" s="647"/>
+      <c r="D16" s="647"/>
+      <c r="E16" s="647"/>
+      <c r="F16" s="646" t="s">
         <v>606</v>
       </c>
-      <c r="G16" s="611"/>
-      <c r="H16" s="611"/>
-      <c r="I16" s="611"/>
-      <c r="J16" s="617"/>
+      <c r="G16" s="647"/>
+      <c r="H16" s="647"/>
+      <c r="I16" s="647"/>
+      <c r="J16" s="648"/>
     </row>
     <row r="17" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="632"/>
-      <c r="B17" s="633"/>
-      <c r="C17" s="633"/>
-      <c r="D17" s="633"/>
-      <c r="E17" s="633"/>
-      <c r="F17" s="634"/>
-      <c r="G17" s="635"/>
-      <c r="H17" s="635"/>
-      <c r="I17" s="635"/>
-      <c r="J17" s="636"/>
+      <c r="A17" s="629"/>
+      <c r="B17" s="630"/>
+      <c r="C17" s="630"/>
+      <c r="D17" s="630"/>
+      <c r="E17" s="630"/>
+      <c r="F17" s="631"/>
+      <c r="G17" s="632"/>
+      <c r="H17" s="632"/>
+      <c r="I17" s="632"/>
+      <c r="J17" s="633"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="637" t="s">
+      <c r="A19" s="634" t="s">
         <v>712</v>
       </c>
-      <c r="B19" s="638"/>
-      <c r="C19" s="638"/>
-      <c r="D19" s="638"/>
-      <c r="E19" s="638"/>
-      <c r="F19" s="638"/>
-      <c r="G19" s="638"/>
-      <c r="H19" s="638"/>
-      <c r="I19" s="638"/>
-      <c r="J19" s="639"/>
+      <c r="B19" s="635"/>
+      <c r="C19" s="635"/>
+      <c r="D19" s="635"/>
+      <c r="E19" s="635"/>
+      <c r="F19" s="635"/>
+      <c r="G19" s="635"/>
+      <c r="H19" s="635"/>
+      <c r="I19" s="635"/>
+      <c r="J19" s="636"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="640"/>
-      <c r="B20" s="641"/>
-      <c r="C20" s="641"/>
-      <c r="D20" s="641"/>
-      <c r="E20" s="641"/>
-      <c r="F20" s="642"/>
-      <c r="G20" s="642"/>
-      <c r="H20" s="642"/>
-      <c r="I20" s="642"/>
-      <c r="J20" s="643"/>
+      <c r="A20" s="637"/>
+      <c r="B20" s="638"/>
+      <c r="C20" s="638"/>
+      <c r="D20" s="638"/>
+      <c r="E20" s="638"/>
+      <c r="F20" s="639"/>
+      <c r="G20" s="639"/>
+      <c r="H20" s="639"/>
+      <c r="I20" s="639"/>
+      <c r="J20" s="640"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="396"/>
@@ -9590,35 +9590,35 @@
       <c r="A22" s="422" t="s">
         <v>721</v>
       </c>
-      <c r="B22" s="620" t="s">
+      <c r="B22" s="641" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="621"/>
-      <c r="D22" s="622"/>
-      <c r="E22" s="620" t="s">
+      <c r="C22" s="642"/>
+      <c r="D22" s="643"/>
+      <c r="E22" s="641" t="s">
         <v>719</v>
       </c>
-      <c r="F22" s="621"/>
-      <c r="G22" s="622"/>
-      <c r="H22" s="620" t="s">
+      <c r="F22" s="642"/>
+      <c r="G22" s="643"/>
+      <c r="H22" s="641" t="s">
         <v>720</v>
       </c>
-      <c r="I22" s="621"/>
-      <c r="J22" s="622"/>
+      <c r="I22" s="642"/>
+      <c r="J22" s="643"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="423" t="s">
         <v>713</v>
       </c>
-      <c r="B23" s="650"/>
-      <c r="C23" s="651"/>
-      <c r="D23" s="652"/>
-      <c r="E23" s="650"/>
-      <c r="F23" s="651"/>
-      <c r="G23" s="652"/>
-      <c r="H23" s="650"/>
-      <c r="I23" s="651"/>
-      <c r="J23" s="652"/>
+      <c r="B23" s="617"/>
+      <c r="C23" s="618"/>
+      <c r="D23" s="619"/>
+      <c r="E23" s="617"/>
+      <c r="F23" s="618"/>
+      <c r="G23" s="619"/>
+      <c r="H23" s="617"/>
+      <c r="I23" s="618"/>
+      <c r="J23" s="619"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="423" t="s">
@@ -9696,9 +9696,9 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="436"/>
-      <c r="B30" s="653"/>
-      <c r="C30" s="654"/>
-      <c r="D30" s="655"/>
+      <c r="B30" s="620"/>
+      <c r="C30" s="621"/>
+      <c r="D30" s="622"/>
       <c r="E30" s="437"/>
       <c r="F30" s="438"/>
       <c r="G30" s="439"/>
@@ -9710,33 +9710,33 @@
       <c r="A31" s="423" t="s">
         <v>715</v>
       </c>
-      <c r="B31" s="656"/>
-      <c r="C31" s="657"/>
-      <c r="D31" s="658"/>
-      <c r="E31" s="656"/>
-      <c r="F31" s="657"/>
-      <c r="G31" s="658"/>
-      <c r="H31" s="659"/>
-      <c r="I31" s="660"/>
-      <c r="J31" s="661"/>
+      <c r="B31" s="623"/>
+      <c r="C31" s="624"/>
+      <c r="D31" s="625"/>
+      <c r="E31" s="623"/>
+      <c r="F31" s="624"/>
+      <c r="G31" s="625"/>
+      <c r="H31" s="626"/>
+      <c r="I31" s="627"/>
+      <c r="J31" s="628"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="436" t="s">
         <v>747</v>
       </c>
-      <c r="B32" s="644" t="s">
+      <c r="B32" s="611" t="s">
         <v>748</v>
       </c>
-      <c r="C32" s="645"/>
-      <c r="D32" s="646"/>
-      <c r="E32" s="644" t="s">
+      <c r="C32" s="612"/>
+      <c r="D32" s="613"/>
+      <c r="E32" s="611" t="s">
         <v>749</v>
       </c>
-      <c r="F32" s="645"/>
-      <c r="G32" s="646"/>
-      <c r="H32" s="647"/>
-      <c r="I32" s="648"/>
-      <c r="J32" s="649"/>
+      <c r="F32" s="612"/>
+      <c r="G32" s="613"/>
+      <c r="H32" s="614"/>
+      <c r="I32" s="615"/>
+      <c r="J32" s="616"/>
     </row>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9748,27 +9748,19 @@
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
@@ -9785,19 +9777,27 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -10937,7 +10937,7 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11110,10 +11110,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="692" t="s">
+      <c r="G10" s="698" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="693" t="s">
+      <c r="H10" s="699" t="s">
         <v>430</v>
       </c>
     </row>
@@ -11133,8 +11133,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="692"/>
-      <c r="H11" s="693"/>
+      <c r="G11" s="698"/>
+      <c r="H11" s="699"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -11152,8 +11152,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="692"/>
-      <c r="H12" s="693"/>
+      <c r="G12" s="698"/>
+      <c r="H12" s="699"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -11171,8 +11171,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="692"/>
-      <c r="H13" s="693"/>
+      <c r="G13" s="698"/>
+      <c r="H13" s="699"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -11190,10 +11190,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="696" t="s">
+      <c r="G14" s="702" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="708" t="s">
+      <c r="H14" s="703" t="s">
         <v>446</v>
       </c>
     </row>
@@ -11213,8 +11213,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="696"/>
-      <c r="H15" s="708"/>
+      <c r="G15" s="702"/>
+      <c r="H15" s="703"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -11326,10 +11326,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="690" t="s">
+      <c r="G22" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="698" t="s">
+      <c r="H22" s="692" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11344,8 +11344,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="690"/>
-      <c r="H23" s="698"/>
+      <c r="G23" s="691"/>
+      <c r="H23" s="692"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -11358,7 +11358,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="690"/>
+      <c r="G24" s="691"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11372,7 +11372,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="690"/>
+      <c r="G25" s="691"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11391,7 +11391,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="690"/>
+      <c r="G26" s="691"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11410,7 +11410,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="690"/>
+      <c r="G27" s="691"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11429,7 +11429,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="690"/>
+      <c r="G28" s="691"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11442,7 +11442,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="690"/>
+      <c r="G29" s="691"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11451,7 +11451,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="690"/>
+      <c r="G30" s="691"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
@@ -11463,7 +11463,7 @@
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="690"/>
+      <c r="G31" s="691"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11482,7 +11482,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="690"/>
+      <c r="G32" s="691"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -11538,10 +11538,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="694" t="s">
+      <c r="G35" s="700" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="695" t="s">
+      <c r="H35" s="701" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11560,8 +11560,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="694"/>
-      <c r="H36" s="695"/>
+      <c r="G36" s="700"/>
+      <c r="H36" s="701"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -11578,8 +11578,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="694"/>
-      <c r="H37" s="695"/>
+      <c r="G37" s="700"/>
+      <c r="H37" s="701"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -11592,8 +11592,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="694"/>
-      <c r="H38" s="695"/>
+      <c r="G38" s="700"/>
+      <c r="H38" s="701"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -11606,8 +11606,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="694"/>
-      <c r="H39" s="695"/>
+      <c r="G39" s="700"/>
+      <c r="H39" s="701"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -11690,7 +11690,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="702"/>
+      <c r="H44" s="696"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -11703,10 +11703,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="700" t="s">
+      <c r="G45" s="694" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="702"/>
+      <c r="H45" s="696"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -11724,7 +11724,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="700"/>
+      <c r="G46" s="694"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -11764,8 +11764,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="699"/>
-      <c r="G49" s="699" t="s">
+      <c r="F49" s="693"/>
+      <c r="G49" s="693" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -11780,8 +11780,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="699"/>
-      <c r="G50" s="699"/>
+      <c r="F50" s="693"/>
+      <c r="G50" s="693"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -11794,8 +11794,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="699"/>
-      <c r="G51" s="699"/>
+      <c r="F51" s="693"/>
+      <c r="G51" s="693"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11856,10 +11856,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="691" t="s">
+      <c r="G55" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="701" t="s">
+      <c r="H55" s="695" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11874,8 +11874,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="691"/>
-      <c r="H56" s="701"/>
+      <c r="G56" s="704"/>
+      <c r="H56" s="695"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -11888,8 +11888,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="691"/>
-      <c r="H57" s="701"/>
+      <c r="G57" s="704"/>
+      <c r="H57" s="695"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -11907,8 +11907,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="691"/>
-      <c r="H58" s="701"/>
+      <c r="G58" s="704"/>
+      <c r="H58" s="695"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -12074,10 +12074,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="690" t="s">
+      <c r="G72" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="703"/>
+      <c r="H72" s="697"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -12087,8 +12087,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="690"/>
-      <c r="H73" s="703"/>
+      <c r="G73" s="691"/>
+      <c r="H73" s="697"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -12098,8 +12098,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="690"/>
-      <c r="H74" s="703"/>
+      <c r="G74" s="691"/>
+      <c r="H74" s="697"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -12109,8 +12109,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="690"/>
-      <c r="H75" s="703"/>
+      <c r="G75" s="691"/>
+      <c r="H75" s="697"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -12120,8 +12120,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="690"/>
-      <c r="H76" s="703"/>
+      <c r="G76" s="691"/>
+      <c r="H76" s="697"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -12259,10 +12259,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="690" t="s">
+      <c r="G94" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="697" t="s">
+      <c r="H94" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12273,8 +12273,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="690"/>
-      <c r="H95" s="697"/>
+      <c r="G95" s="691"/>
+      <c r="H95" s="690"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -12283,8 +12283,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="690"/>
-      <c r="H96" s="697"/>
+      <c r="G96" s="691"/>
+      <c r="H96" s="690"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -12299,7 +12299,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="690" t="s">
+      <c r="G97" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12310,7 +12310,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="690"/>
+      <c r="G98" s="691"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -12319,7 +12319,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="690"/>
+      <c r="G99" s="691"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -12334,7 +12334,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="690" t="s">
+      <c r="G100" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12346,7 +12346,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="690"/>
+      <c r="G101" s="691"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -12356,7 +12356,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="690"/>
+      <c r="G102" s="691"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -12366,7 +12366,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="690"/>
+      <c r="G103" s="691"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -12425,7 +12425,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="690" t="s">
+      <c r="G117" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -12437,7 +12437,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="690"/>
+      <c r="G118" s="691"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -12453,7 +12453,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="690" t="s">
+      <c r="G119" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12464,7 +12464,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="690"/>
+      <c r="G120" s="691"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -12498,7 +12498,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="690" t="s">
+      <c r="G126" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12509,7 +12509,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="690"/>
+      <c r="G127" s="691"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -12535,7 +12535,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="690" t="s">
+      <c r="G130" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12547,7 +12547,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="690"/>
+      <c r="G131" s="691"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -12571,7 +12571,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="690" t="s">
+      <c r="G134" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12582,7 +12582,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="690"/>
+      <c r="G135" s="691"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -12591,7 +12591,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="690"/>
+      <c r="G136" s="691"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -12622,13 +12622,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="690" t="s">
+      <c r="G140" s="691" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="690"/>
+      <c r="G141" s="691"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -12647,7 +12647,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="690"/>
+      <c r="G142" s="691"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12664,7 +12664,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="690"/>
+      <c r="G143" s="691"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12681,11 +12681,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="690"/>
+      <c r="G144" s="691"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="690"/>
+      <c r="G145" s="691"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -12737,7 +12737,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="690" t="s">
+      <c r="G152" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12748,7 +12748,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="690"/>
+      <c r="G153" s="691"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -12759,6 +12759,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G140:G145"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H94:H96"/>
     <mergeCell ref="G97:G99"/>
     <mergeCell ref="G22:G32"/>
@@ -12770,22 +12786,6 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G140:G145"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12911,10 +12911,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="690" t="s">
+      <c r="G13" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="703"/>
+      <c r="H13" s="697"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -12924,8 +12924,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="690"/>
-      <c r="H14" s="703"/>
+      <c r="G14" s="691"/>
+      <c r="H14" s="697"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -12935,8 +12935,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="690"/>
-      <c r="H15" s="703"/>
+      <c r="G15" s="691"/>
+      <c r="H15" s="697"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -12946,8 +12946,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="690"/>
-      <c r="H16" s="703"/>
+      <c r="G16" s="691"/>
+      <c r="H16" s="697"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -12957,8 +12957,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="690"/>
-      <c r="H17" s="703"/>
+      <c r="G17" s="691"/>
+      <c r="H17" s="697"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -12981,10 +12981,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="690" t="s">
+      <c r="G20" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="697" t="s">
+      <c r="H20" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12995,8 +12995,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="690"/>
-      <c r="H21" s="697"/>
+      <c r="G21" s="691"/>
+      <c r="H21" s="690"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -13005,8 +13005,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="690"/>
-      <c r="H22" s="697"/>
+      <c r="G22" s="691"/>
+      <c r="H22" s="690"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -13021,7 +13021,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="690" t="s">
+      <c r="G23" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13032,7 +13032,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="690"/>
+      <c r="G24" s="691"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -13041,7 +13041,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="690"/>
+      <c r="G25" s="691"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -13056,7 +13056,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="690" t="s">
+      <c r="G26" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13068,7 +13068,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="690"/>
+      <c r="G27" s="691"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -13078,7 +13078,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="690"/>
+      <c r="G28" s="691"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -13088,7 +13088,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="690"/>
+      <c r="G29" s="691"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -13141,7 +13141,7 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="690" t="s">
+      <c r="G37" s="691" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="705" t="s">
@@ -13161,7 +13161,7 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="690"/>
+      <c r="G38" s="691"/>
       <c r="H38" s="705"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -13177,7 +13177,7 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="690"/>
+      <c r="G39" s="691"/>
       <c r="H39" s="705"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13188,7 +13188,7 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="690"/>
+      <c r="G40" s="691"/>
       <c r="H40" s="705"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -13199,7 +13199,7 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="690"/>
+      <c r="G41" s="691"/>
       <c r="H41" s="705"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -13230,7 +13230,7 @@
       <c r="G46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="703" t="s">
+      <c r="H46" s="697" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13242,10 +13242,10 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="690" t="s">
+      <c r="G47" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="703"/>
+      <c r="H47" s="697"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
@@ -13255,7 +13255,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="690"/>
+      <c r="G48" s="691"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -13266,7 +13266,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="690"/>
+      <c r="G49" s="691"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -13294,10 +13294,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="690" t="s">
+      <c r="G54" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="697" t="s">
+      <c r="H54" s="690" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13308,8 +13308,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="690"/>
-      <c r="H55" s="697"/>
+      <c r="G55" s="691"/>
+      <c r="H55" s="690"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -13318,7 +13318,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="690"/>
+      <c r="G56" s="691"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -13328,7 +13328,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="690"/>
+      <c r="G57" s="691"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13345,7 +13345,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="690"/>
+      <c r="G58" s="691"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13362,7 +13362,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="690"/>
+      <c r="G59" s="691"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -13382,8 +13382,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="690"/>
-      <c r="G61" s="690" t="s">
+      <c r="F61" s="691"/>
+      <c r="G61" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13394,8 +13394,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="690"/>
-      <c r="G62" s="690"/>
+      <c r="F62" s="691"/>
+      <c r="G62" s="691"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -13404,8 +13404,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="690"/>
-      <c r="G63" s="690"/>
+      <c r="F63" s="691"/>
+      <c r="G63" s="691"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -13470,7 +13470,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="690" t="s">
+      <c r="G68" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -13482,7 +13482,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="690"/>
+      <c r="G69" s="691"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -13498,7 +13498,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="690" t="s">
+      <c r="G70" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="690"/>
+      <c r="G71" s="691"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -13536,10 +13536,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="690" t="s">
+      <c r="G75" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="703" t="s">
+      <c r="H75" s="697" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13557,8 +13557,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="690"/>
-      <c r="H76" s="703"/>
+      <c r="G76" s="691"/>
+      <c r="H76" s="697"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -13574,8 +13574,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="690"/>
-      <c r="H77" s="703"/>
+      <c r="G77" s="691"/>
+      <c r="H77" s="697"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -13610,10 +13610,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="690" t="s">
+      <c r="G81" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="697" t="s">
+      <c r="H81" s="690" t="s">
         <v>430</v>
       </c>
     </row>
@@ -13631,8 +13631,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="690"/>
-      <c r="H82" s="697"/>
+      <c r="G82" s="691"/>
+      <c r="H82" s="690"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -13648,8 +13648,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="690"/>
-      <c r="H83" s="697"/>
+      <c r="G83" s="691"/>
+      <c r="H83" s="690"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -13665,8 +13665,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="690"/>
-      <c r="H84" s="697"/>
+      <c r="G84" s="691"/>
+      <c r="H84" s="690"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -13682,10 +13682,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="703" t="s">
+      <c r="G85" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="703" t="s">
+      <c r="H85" s="697" t="s">
         <v>446</v>
       </c>
     </row>
@@ -13703,8 +13703,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="703"/>
-      <c r="H86" s="703"/>
+      <c r="G86" s="697"/>
+      <c r="H86" s="697"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -13736,10 +13736,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="690" t="s">
+      <c r="F89" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="704" t="s">
+      <c r="H89" s="706" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13750,8 +13750,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="690"/>
-      <c r="H90" s="704"/>
+      <c r="F90" s="691"/>
+      <c r="H90" s="706"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -13761,8 +13761,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="690"/>
-      <c r="H91" s="704"/>
+      <c r="F91" s="691"/>
+      <c r="H91" s="706"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -13778,8 +13778,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="690"/>
-      <c r="H92" s="704"/>
+      <c r="F92" s="691"/>
+      <c r="H92" s="706"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -13795,10 +13795,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="690" t="s">
+      <c r="G93" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="703" t="s">
+      <c r="H93" s="697" t="s">
         <v>51</v>
       </c>
     </row>
@@ -13815,8 +13815,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="690"/>
-      <c r="H94" s="703"/>
+      <c r="G94" s="691"/>
+      <c r="H94" s="697"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -13825,7 +13825,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="690" t="s">
+      <c r="G95" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13843,7 +13843,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="690"/>
+      <c r="G96" s="691"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -13866,7 +13866,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="690" t="s">
+      <c r="G99" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13877,7 +13877,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="690"/>
+      <c r="G100" s="691"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -13903,7 +13903,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="690" t="s">
+      <c r="G103" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13915,7 +13915,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="690"/>
+      <c r="G104" s="691"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -13939,7 +13939,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="690" t="s">
+      <c r="G107" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13950,7 +13950,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="690"/>
+      <c r="G108" s="691"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -13959,7 +13959,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="690"/>
+      <c r="G109" s="691"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -13976,7 +13976,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="690" t="s">
+      <c r="G110" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13988,7 +13988,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="690"/>
+      <c r="G111" s="691"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -14001,7 +14001,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="690"/>
+      <c r="G112" s="691"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -14018,7 +14018,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="690"/>
+      <c r="G113" s="691"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -14065,7 +14065,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="690" t="s">
+      <c r="G117" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14084,7 +14084,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="690"/>
+      <c r="G118" s="691"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -14103,7 +14103,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="690"/>
+      <c r="G119" s="691"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -14120,7 +14120,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="690"/>
+      <c r="G120" s="691"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -14137,7 +14137,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="690"/>
+      <c r="G121" s="691"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -14154,7 +14154,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="690"/>
+      <c r="G122" s="691"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -14169,7 +14169,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="690"/>
+      <c r="G123" s="691"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -14274,7 +14274,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="690" t="s">
+      <c r="G133" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14285,13 +14285,36 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="690"/>
+      <c r="G134" s="691"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G47:G49"/>
@@ -14302,29 +14325,6 @@
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="H37:H41"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14369,10 +14369,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="706" t="s">
+      <c r="B6" s="708" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="697" t="s">
+      <c r="C6" s="690" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -14381,84 +14381,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="690" t="s">
+      <c r="F6" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="697" t="s">
+      <c r="H6" s="690" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="706"/>
-      <c r="C7" s="697"/>
+      <c r="B7" s="708"/>
+      <c r="C7" s="690"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="690"/>
-      <c r="H7" s="697"/>
+      <c r="F7" s="691"/>
+      <c r="H7" s="690"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="706"/>
-      <c r="C8" s="697"/>
+      <c r="B8" s="708"/>
+      <c r="C8" s="690"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="690"/>
-      <c r="H8" s="697"/>
+      <c r="F8" s="691"/>
+      <c r="H8" s="690"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="706"/>
-      <c r="C9" s="697"/>
+      <c r="B9" s="708"/>
+      <c r="C9" s="690"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="690"/>
-      <c r="H9" s="697"/>
+      <c r="F9" s="691"/>
+      <c r="H9" s="690"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="706"/>
-      <c r="C10" s="697"/>
+      <c r="B10" s="708"/>
+      <c r="C10" s="690"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="690"/>
-      <c r="H10" s="697"/>
+      <c r="F10" s="691"/>
+      <c r="H10" s="690"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="706"/>
-      <c r="C11" s="697"/>
+      <c r="B11" s="708"/>
+      <c r="C11" s="690"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="690"/>
-      <c r="H11" s="697"/>
+      <c r="F11" s="691"/>
+      <c r="H11" s="690"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="706"/>
-      <c r="C12" s="697"/>
+      <c r="B12" s="708"/>
+      <c r="C12" s="690"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="690"/>
-      <c r="H12" s="697"/>
+      <c r="F12" s="691"/>
+      <c r="H12" s="690"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -14499,7 +14499,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="690" t="s">
+      <c r="F16" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14517,7 +14517,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="690"/>
+      <c r="F17" s="691"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -14558,7 +14558,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="690" t="s">
+      <c r="F21" s="691" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -14578,7 +14578,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="690"/>
+      <c r="F22" s="691"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -14593,7 +14593,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="690"/>
+      <c r="F23" s="691"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -14608,7 +14608,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="690"/>
+      <c r="F24" s="691"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -14623,7 +14623,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="690"/>
+      <c r="F25" s="691"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -14632,7 +14632,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="690"/>
+      <c r="F26" s="691"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -14663,10 +14663,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="690" t="s">
+      <c r="F30" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="703" t="s">
+      <c r="H30" s="697" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14683,8 +14683,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="690"/>
-      <c r="H31" s="703"/>
+      <c r="F31" s="691"/>
+      <c r="H31" s="697"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -14699,8 +14699,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="690"/>
-      <c r="H32" s="703"/>
+      <c r="F32" s="691"/>
+      <c r="H32" s="697"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -14709,8 +14709,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="690"/>
-      <c r="H33" s="703"/>
+      <c r="F33" s="691"/>
+      <c r="H33" s="697"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -14719,10 +14719,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="690" t="s">
+      <c r="G34" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="703"/>
+      <c r="H34" s="697"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -14731,8 +14731,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="690"/>
-      <c r="H35" s="703"/>
+      <c r="G35" s="691"/>
+      <c r="H35" s="697"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -14741,8 +14741,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="690"/>
-      <c r="H36" s="703"/>
+      <c r="G36" s="691"/>
+      <c r="H36" s="697"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -14757,10 +14757,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="690" t="s">
+      <c r="F37" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="703" t="s">
+      <c r="H37" s="697" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14771,8 +14771,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="690"/>
-      <c r="H38" s="703"/>
+      <c r="F38" s="691"/>
+      <c r="H38" s="697"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -14781,8 +14781,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="690"/>
-      <c r="H39" s="703"/>
+      <c r="F39" s="691"/>
+      <c r="H39" s="697"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -14797,10 +14797,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="690" t="s">
+      <c r="G40" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="703"/>
+      <c r="H40" s="697"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -14810,8 +14810,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="690"/>
-      <c r="H41" s="703"/>
+      <c r="G41" s="691"/>
+      <c r="H41" s="697"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -14821,8 +14821,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="690"/>
-      <c r="H42" s="703"/>
+      <c r="G42" s="691"/>
+      <c r="H42" s="697"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -14832,8 +14832,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="690"/>
-      <c r="H43" s="703"/>
+      <c r="G43" s="691"/>
+      <c r="H43" s="697"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -14843,8 +14843,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="690"/>
-      <c r="H44" s="703"/>
+      <c r="G44" s="691"/>
+      <c r="H44" s="697"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -14867,10 +14867,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="690" t="s">
+      <c r="G47" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="697" t="s">
+      <c r="H47" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14881,8 +14881,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="690"/>
-      <c r="H48" s="697"/>
+      <c r="G48" s="691"/>
+      <c r="H48" s="690"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -14891,8 +14891,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="690"/>
-      <c r="H49" s="697"/>
+      <c r="G49" s="691"/>
+      <c r="H49" s="690"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -14907,7 +14907,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="690" t="s">
+      <c r="G50" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14918,7 +14918,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="690"/>
+      <c r="G51" s="691"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -14927,7 +14927,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="690"/>
+      <c r="G52" s="691"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -14943,7 +14943,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="690" t="s">
+      <c r="G53" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14956,7 +14956,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="690"/>
+      <c r="G54" s="691"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -14967,7 +14967,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="690"/>
+      <c r="G55" s="691"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -14978,7 +14978,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="690"/>
+      <c r="G56" s="691"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -15099,7 +15099,7 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="690" t="s">
+      <c r="G69" s="691" t="s">
         <v>16</v>
       </c>
       <c r="H69" s="705" t="s">
@@ -15119,7 +15119,7 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="690"/>
+      <c r="G70" s="691"/>
       <c r="H70" s="705"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
@@ -15135,7 +15135,7 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="690"/>
+      <c r="G71" s="691"/>
       <c r="H71" s="705"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15146,7 +15146,7 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="690"/>
+      <c r="G72" s="691"/>
       <c r="H72" s="705"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -15157,7 +15157,7 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="690"/>
+      <c r="G73" s="691"/>
       <c r="H73" s="705"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
@@ -15188,7 +15188,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="703" t="s">
+      <c r="H78" s="697" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15200,10 +15200,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="690" t="s">
+      <c r="F79" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="703"/>
+      <c r="H79" s="697"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -15213,8 +15213,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="690"/>
-      <c r="H80" s="703"/>
+      <c r="F80" s="691"/>
+      <c r="H80" s="697"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -15224,7 +15224,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="690" t="s">
+      <c r="G81" s="691" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -15237,7 +15237,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="690"/>
+      <c r="G82" s="691"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -15248,7 +15248,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="690"/>
+      <c r="G83" s="691"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15264,7 +15264,7 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="690" t="s">
+      <c r="F85" s="691" t="s">
         <v>4</v>
       </c>
       <c r="H85" s="707" t="s">
@@ -15279,7 +15279,7 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="690"/>
+      <c r="F86" s="691"/>
       <c r="H86" s="707"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -15290,7 +15290,7 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="690"/>
+      <c r="F87" s="691"/>
       <c r="H87" s="707"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -15301,7 +15301,7 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="690"/>
+      <c r="F88" s="691"/>
       <c r="H88" s="707"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
@@ -15320,7 +15320,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="703" t="s">
+      <c r="H90" s="697" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15337,10 +15337,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="690" t="s">
+      <c r="F91" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="703"/>
+      <c r="H91" s="697"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -15350,8 +15350,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="690"/>
-      <c r="H92" s="703"/>
+      <c r="F92" s="691"/>
+      <c r="H92" s="697"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -15369,7 +15369,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="703"/>
+      <c r="H93" s="697"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -15387,7 +15387,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="703"/>
+      <c r="H94" s="697"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -15402,7 +15402,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="690" t="s">
+      <c r="F96" s="691" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -15417,7 +15417,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="690"/>
+      <c r="F97" s="691"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -15426,7 +15426,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="690"/>
+      <c r="F98" s="691"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -15441,7 +15441,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="690" t="s">
+      <c r="F99" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15458,7 +15458,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="690"/>
+      <c r="F100" s="691"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -15470,10 +15470,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="690" t="s">
+      <c r="G101" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="697" t="s">
+      <c r="H101" s="690" t="s">
         <v>40</v>
       </c>
     </row>
@@ -15484,8 +15484,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="690"/>
-      <c r="H102" s="697"/>
+      <c r="G102" s="691"/>
+      <c r="H102" s="690"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -15494,7 +15494,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="690"/>
+      <c r="G103" s="691"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -15504,7 +15504,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="690"/>
+      <c r="G104" s="691"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15521,7 +15521,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="690"/>
+      <c r="G105" s="691"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15538,7 +15538,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="690"/>
+      <c r="G106" s="691"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -15558,7 +15558,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="690" t="s">
+      <c r="F108" s="691" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -15576,7 +15576,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="690"/>
+      <c r="F109" s="691"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -15586,7 +15586,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="690"/>
+      <c r="F110" s="691"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -15596,7 +15596,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="690"/>
+      <c r="F111" s="691"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -15606,7 +15606,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="690"/>
+      <c r="F112" s="691"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -15615,7 +15615,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="690"/>
+      <c r="F113" s="691"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -15630,10 +15630,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="690" t="s">
+      <c r="F114" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="697" t="s">
+      <c r="H114" s="690" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15650,8 +15650,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="690"/>
-      <c r="H115" s="697"/>
+      <c r="F115" s="691"/>
+      <c r="H115" s="690"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -15666,8 +15666,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="690"/>
-      <c r="H116" s="697"/>
+      <c r="F116" s="691"/>
+      <c r="H116" s="690"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -15682,8 +15682,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="690"/>
-      <c r="H117" s="697"/>
+      <c r="F117" s="691"/>
+      <c r="H117" s="690"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -15692,8 +15692,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="690"/>
-      <c r="H118" s="697"/>
+      <c r="F118" s="691"/>
+      <c r="H118" s="690"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -15702,8 +15702,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="690"/>
-      <c r="H119" s="697"/>
+      <c r="F119" s="691"/>
+      <c r="H119" s="690"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -15712,8 +15712,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="690"/>
-      <c r="H120" s="697"/>
+      <c r="F120" s="691"/>
+      <c r="H120" s="690"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -15722,8 +15722,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="690"/>
-      <c r="H121" s="697"/>
+      <c r="F121" s="691"/>
+      <c r="H121" s="690"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -15732,8 +15732,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="690"/>
-      <c r="H122" s="697"/>
+      <c r="F122" s="691"/>
+      <c r="H122" s="690"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -15749,8 +15749,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="690"/>
-      <c r="G123" s="690" t="s">
+      <c r="F123" s="691"/>
+      <c r="G123" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15761,8 +15761,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="690"/>
-      <c r="G124" s="690"/>
+      <c r="F124" s="691"/>
+      <c r="G124" s="691"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -15771,8 +15771,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="690"/>
-      <c r="G125" s="690"/>
+      <c r="F125" s="691"/>
+      <c r="G125" s="691"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -15781,10 +15781,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="690" t="s">
+      <c r="F126" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="703" t="s">
+      <c r="H126" s="697" t="s">
         <v>41</v>
       </c>
     </row>
@@ -15802,8 +15802,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="690"/>
-      <c r="H127" s="703"/>
+      <c r="F127" s="691"/>
+      <c r="H127" s="697"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -15818,7 +15818,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="690"/>
+      <c r="F128" s="691"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -15827,7 +15827,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="690"/>
+      <c r="F129" s="691"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -15837,7 +15837,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="690"/>
+      <c r="F130" s="691"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -15846,7 +15846,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="690"/>
+      <c r="F131" s="691"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -15862,7 +15862,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="690" t="s">
+      <c r="F132" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15873,7 +15873,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="690"/>
+      <c r="F133" s="691"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -15960,7 +15960,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="690" t="s">
+      <c r="G139" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -15972,7 +15972,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="690"/>
+      <c r="G140" s="691"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -15988,7 +15988,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="690" t="s">
+      <c r="G141" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15999,7 +15999,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="690"/>
+      <c r="G142" s="691"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -16026,10 +16026,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="690" t="s">
+      <c r="G146" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="703" t="s">
+      <c r="H146" s="697" t="s">
         <v>48</v>
       </c>
     </row>
@@ -16047,8 +16047,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="690"/>
-      <c r="H147" s="703"/>
+      <c r="G147" s="691"/>
+      <c r="H147" s="697"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -16064,8 +16064,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="690"/>
-      <c r="H148" s="703"/>
+      <c r="G148" s="691"/>
+      <c r="H148" s="697"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -16107,10 +16107,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="690" t="s">
+      <c r="F152" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="703" t="s">
+      <c r="H152" s="697" t="s">
         <v>417</v>
       </c>
     </row>
@@ -16127,8 +16127,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="690"/>
-      <c r="H153" s="703"/>
+      <c r="F153" s="691"/>
+      <c r="H153" s="697"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -16143,8 +16143,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="690"/>
-      <c r="H154" s="703"/>
+      <c r="F154" s="691"/>
+      <c r="H154" s="697"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -16155,10 +16155,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="690" t="s">
+      <c r="G155" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="697" t="s">
+      <c r="H155" s="690" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16177,8 +16177,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="690"/>
-      <c r="H156" s="697"/>
+      <c r="G156" s="691"/>
+      <c r="H156" s="690"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -16195,8 +16195,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="690"/>
-      <c r="H157" s="697"/>
+      <c r="G157" s="691"/>
+      <c r="H157" s="690"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -16213,8 +16213,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="690"/>
-      <c r="H158" s="697"/>
+      <c r="G158" s="691"/>
+      <c r="H158" s="690"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -16230,7 +16230,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="690" t="s">
+      <c r="F159" s="691" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -16250,7 +16250,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="690"/>
+      <c r="F160" s="691"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -16268,10 +16268,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="703" t="s">
+      <c r="G161" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="703" t="s">
+      <c r="H161" s="697" t="s">
         <v>446</v>
       </c>
     </row>
@@ -16290,8 +16290,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="703"/>
-      <c r="H162" s="703"/>
+      <c r="G162" s="697"/>
+      <c r="H162" s="697"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -16310,11 +16310,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="690" t="s">
+      <c r="F164" s="691" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="703" t="s">
+      <c r="H164" s="697" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16326,9 +16326,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="690"/>
+      <c r="F165" s="691"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="703"/>
+      <c r="H165" s="697"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -16338,9 +16338,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="690"/>
+      <c r="F166" s="691"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="703"/>
+      <c r="H166" s="697"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -16356,9 +16356,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="690"/>
+      <c r="F167" s="691"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="703"/>
+      <c r="H167" s="697"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -16373,8 +16373,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="690"/>
-      <c r="H168" s="703"/>
+      <c r="F168" s="691"/>
+      <c r="H168" s="697"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -16383,8 +16383,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="690"/>
-      <c r="H169" s="703"/>
+      <c r="F169" s="691"/>
+      <c r="H169" s="697"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -16396,7 +16396,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="703"/>
+      <c r="H170" s="697"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -16416,10 +16416,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="690" t="s">
+      <c r="F172" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="704" t="s">
+      <c r="H172" s="706" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16430,8 +16430,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="690"/>
-      <c r="H173" s="704"/>
+      <c r="F173" s="691"/>
+      <c r="H173" s="706"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -16441,8 +16441,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="690"/>
-      <c r="H174" s="704"/>
+      <c r="F174" s="691"/>
+      <c r="H174" s="706"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -16458,8 +16458,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="690"/>
-      <c r="H175" s="704"/>
+      <c r="F175" s="691"/>
+      <c r="H175" s="706"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -16475,10 +16475,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="690" t="s">
+      <c r="G176" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="703" t="s">
+      <c r="H176" s="697" t="s">
         <v>51</v>
       </c>
     </row>
@@ -16495,8 +16495,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="690"/>
-      <c r="H177" s="703"/>
+      <c r="G177" s="691"/>
+      <c r="H177" s="697"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -16505,7 +16505,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="690" t="s">
+      <c r="G178" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16523,7 +16523,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="690"/>
+      <c r="G179" s="691"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -16549,7 +16549,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="703" t="s">
+      <c r="H182" s="697" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16571,7 +16571,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="703"/>
+      <c r="H183" s="697"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -16588,7 +16588,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="690" t="s">
+      <c r="G184" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16602,7 +16602,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="690"/>
+      <c r="G185" s="691"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -16637,7 +16637,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="703" t="s">
+      <c r="H188" s="697" t="s">
         <v>493</v>
       </c>
     </row>
@@ -16658,7 +16658,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="703"/>
+      <c r="H189" s="697"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -16674,10 +16674,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="690" t="s">
+      <c r="G190" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="703"/>
+      <c r="H190" s="697"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -16687,8 +16687,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="690"/>
-      <c r="H191" s="703"/>
+      <c r="G191" s="691"/>
+      <c r="H191" s="697"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -16709,7 +16709,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="690" t="s">
+      <c r="F194" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16721,7 +16721,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="690"/>
+      <c r="F195" s="691"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16739,7 +16739,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="690" t="s">
+      <c r="G196" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16753,7 +16753,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="690"/>
+      <c r="G197" s="691"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -16762,7 +16762,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="690"/>
+      <c r="G198" s="691"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -16779,7 +16779,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="690" t="s">
+      <c r="G199" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16794,7 +16794,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="690"/>
+      <c r="G200" s="691"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -16810,7 +16810,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="690"/>
+      <c r="G201" s="691"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -16828,7 +16828,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="690"/>
+      <c r="G202" s="691"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -16889,7 +16889,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="690" t="s">
+      <c r="G206" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16909,7 +16909,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="690"/>
+      <c r="G207" s="691"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -16928,7 +16928,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="690"/>
+      <c r="G208" s="691"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -16945,7 +16945,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="690"/>
+      <c r="G209" s="691"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -16962,7 +16962,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="690"/>
+      <c r="G210" s="691"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -16979,7 +16979,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="690"/>
+      <c r="G211" s="691"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -16994,7 +16994,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="690"/>
+      <c r="G212" s="691"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -17013,7 +17013,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="703" t="s">
+      <c r="H213" s="697" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17034,7 +17034,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="703"/>
+      <c r="H214" s="697"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -17050,10 +17050,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="690" t="s">
+      <c r="F215" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="703" t="s">
+      <c r="H215" s="697" t="s">
         <v>546</v>
       </c>
     </row>
@@ -17065,8 +17065,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="690"/>
-      <c r="H216" s="703"/>
+      <c r="F216" s="691"/>
+      <c r="H216" s="697"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -17132,10 +17132,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="690" t="s">
+      <c r="F220" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="703" t="s">
+      <c r="H220" s="697" t="s">
         <v>556</v>
       </c>
     </row>
@@ -17147,8 +17147,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="690"/>
-      <c r="H221" s="703"/>
+      <c r="F221" s="691"/>
+      <c r="H221" s="697"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -17157,8 +17157,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="690"/>
-      <c r="H222" s="703"/>
+      <c r="F222" s="691"/>
+      <c r="H222" s="697"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -17189,10 +17189,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="690" t="s">
+      <c r="F226" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="704" t="s">
+      <c r="H226" s="706" t="s">
         <v>566</v>
       </c>
     </row>
@@ -17203,8 +17203,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="690"/>
-      <c r="H227" s="704"/>
+      <c r="F227" s="691"/>
+      <c r="H227" s="706"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -17213,8 +17213,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="690"/>
-      <c r="H228" s="704"/>
+      <c r="F228" s="691"/>
+      <c r="H228" s="706"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -17224,8 +17224,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="690"/>
-      <c r="H229" s="704"/>
+      <c r="F229" s="691"/>
+      <c r="H229" s="706"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -17234,8 +17234,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="690"/>
-      <c r="H230" s="704"/>
+      <c r="F230" s="691"/>
+      <c r="H230" s="706"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -17254,7 +17254,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="704"/>
+      <c r="H231" s="706"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -17296,10 +17296,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="690" t="s">
+      <c r="F235" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="703" t="s">
+      <c r="H235" s="697" t="s">
         <v>580</v>
       </c>
     </row>
@@ -17310,8 +17310,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="690"/>
-      <c r="H236" s="703"/>
+      <c r="F236" s="691"/>
+      <c r="H236" s="697"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -17320,8 +17320,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="690"/>
-      <c r="H237" s="703"/>
+      <c r="F237" s="691"/>
+      <c r="H237" s="697"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -17330,8 +17330,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="690"/>
-      <c r="H238" s="703"/>
+      <c r="F238" s="691"/>
+      <c r="H238" s="697"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -17347,7 +17347,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="690" t="s">
+      <c r="G239" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17358,7 +17358,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="690"/>
+      <c r="G240" s="691"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -17374,11 +17374,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="690" t="s">
+      <c r="F241" s="691" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="703" t="s">
+      <c r="H241" s="697" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17389,9 +17389,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="690"/>
+      <c r="F242" s="691"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="703"/>
+      <c r="H242" s="697"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
@@ -17508,14 +17508,57 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="F226:F230"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="G199:G202"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G101:G106"/>
+    <mergeCell ref="F114:F122"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="F126:F131"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="G206:G212"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H176:H177"/>
     <mergeCell ref="H6:H12"/>
     <mergeCell ref="G53:G56"/>
     <mergeCell ref="H213:H214"/>
@@ -17532,57 +17575,14 @@
     <mergeCell ref="H152:H154"/>
     <mergeCell ref="F152:F154"/>
     <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="G206:G212"/>
-    <mergeCell ref="H220:H222"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="G199:G202"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G101:G106"/>
-    <mergeCell ref="F114:F122"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="F126:F131"/>
-    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="F226:F230"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G239:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2018" sheetId="4" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1641" uniqueCount="767">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="770">
   <si>
     <t>A – Analyser</t>
   </si>
@@ -1977,9 +1977,6 @@
     <t>Analyse des non linéarités et de leurs effets.</t>
   </si>
   <si>
-    <t>Précision des systèmes</t>
-  </si>
-  <si>
     <t>Rapidité</t>
   </si>
   <si>
@@ -2175,9 +2172,6 @@
   </si>
   <si>
     <t>CONCOURS 2018 &gt;&gt; SUJETS 2016, 2014…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cheville, Maxpid ?, Nacelle, </t>
   </si>
   <si>
     <t>Conc.</t>
@@ -2423,6 +2417,22 @@
   </si>
   <si>
     <t>Suite du TD.  Eventuellement lanceur vega</t>
+  </si>
+  <si>
+    <t>Stabilité, instabilité : 
+Comment définir la stabilité d'un système ?</t>
+  </si>
+  <si>
+    <t>Comment définir la rapidité d'un système ?</t>
+  </si>
+  <si>
+    <t>Comment définir la précision d'un système ?</t>
+  </si>
+  <si>
+    <t>Précision</t>
+  </si>
+  <si>
+    <t>Cheville, Maxpid ?, Nacelle,  Control X ?</t>
   </si>
 </sst>
 </file>
@@ -4670,6 +4680,258 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4694,45 +4956,6 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4766,15 +4989,6 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4787,209 +5001,131 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5003,15 +5139,6 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -5036,288 +5163,171 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5400,10 +5410,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5423,38 +5454,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5481,13 +5491,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>723901</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>1114425</xdr:rowOff>
+      <xdr:rowOff>1103842</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>378335</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>99264</xdr:rowOff>
+      <xdr:rowOff>88681</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5508,8 +5518,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1924051" y="8715375"/>
-          <a:ext cx="854584" cy="594563"/>
+          <a:off x="1919818" y="8935509"/>
+          <a:ext cx="850350" cy="593505"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5870,8 +5880,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3590925" y="6637393"/>
-          <a:ext cx="1000125" cy="915931"/>
+          <a:off x="3582458" y="6652210"/>
+          <a:ext cx="995892" cy="918047"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6789,11 +6799,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="G25" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight" activeCell="G30" sqref="G30:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6827,7 +6837,7 @@
       </c>
       <c r="F1" s="169"/>
       <c r="G1" s="171" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H1" s="170" t="s">
         <v>2</v>
@@ -6839,7 +6849,7 @@
         <v>602</v>
       </c>
       <c r="K1" s="169" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L1" s="169" t="s">
         <v>603</v>
@@ -6878,38 +6888,38 @@
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="491" t="str">
+      <c r="E2" s="523" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="506" t="s">
-        <v>705</v>
-      </c>
-      <c r="G2" s="494" t="s">
-        <v>666</v>
-      </c>
-      <c r="H2" s="524" t="str">
+      <c r="F2" s="490" t="s">
+        <v>703</v>
+      </c>
+      <c r="G2" s="511" t="s">
+        <v>665</v>
+      </c>
+      <c r="H2" s="508" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="524" t="str">
+      <c r="I2" s="508" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="528" t="s">
-        <v>669</v>
-      </c>
-      <c r="K2" s="494" t="s">
-        <v>754</v>
+      <c r="J2" s="513" t="s">
+        <v>668</v>
+      </c>
+      <c r="K2" s="511" t="s">
+        <v>752</v>
       </c>
       <c r="L2" s="199" t="s">
         <v>623</v>
       </c>
       <c r="M2" s="199" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="N2" s="280" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="O2" s="199"/>
       <c r="P2" s="253"/>
@@ -6934,24 +6944,24 @@
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="492"/>
-      <c r="F3" s="507"/>
-      <c r="G3" s="495"/>
-      <c r="H3" s="525"/>
-      <c r="I3" s="525"/>
-      <c r="J3" s="529"/>
-      <c r="K3" s="527"/>
+      <c r="E3" s="524"/>
+      <c r="F3" s="491"/>
+      <c r="G3" s="526"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
+      <c r="J3" s="514"/>
+      <c r="K3" s="512"/>
       <c r="L3" s="202" t="s">
         <v>624</v>
       </c>
       <c r="M3" s="202" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N3" s="202"/>
       <c r="O3" s="202"/>
       <c r="P3" s="254"/>
       <c r="Q3" s="203" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6973,26 +6983,26 @@
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="493"/>
-      <c r="F4" s="508"/>
-      <c r="G4" s="496"/>
-      <c r="H4" s="526"/>
-      <c r="I4" s="526"/>
+      <c r="E4" s="525"/>
+      <c r="F4" s="492"/>
+      <c r="G4" s="527"/>
+      <c r="H4" s="510"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="205" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="K4" s="286"/>
       <c r="L4" s="205" t="s">
         <v>625</v>
       </c>
       <c r="M4" s="205" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="N4" s="205"/>
       <c r="O4" s="205"/>
       <c r="P4" s="255"/>
       <c r="Q4" s="206" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.25">
@@ -7014,30 +7024,30 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="503" t="str">
+      <c r="E5" s="487" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="509" t="s">
-        <v>691</v>
-      </c>
-      <c r="G5" s="497" t="s">
-        <v>651</v>
-      </c>
-      <c r="H5" s="488" t="str">
+      <c r="F5" s="493" t="s">
+        <v>689</v>
+      </c>
+      <c r="G5" s="528" t="s">
+        <v>650</v>
+      </c>
+      <c r="H5" s="520" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="488" t="str">
+      <c r="I5" s="520" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
       <c r="J5" s="210" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K5" s="283"/>
       <c r="L5" s="210" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M5" s="210"/>
       <c r="N5" s="210"/>
@@ -7064,19 +7074,19 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="504"/>
-      <c r="F6" s="510"/>
-      <c r="G6" s="498"/>
-      <c r="H6" s="489"/>
-      <c r="I6" s="489"/>
+      <c r="E6" s="488"/>
+      <c r="F6" s="494"/>
+      <c r="G6" s="529"/>
+      <c r="H6" s="521"/>
+      <c r="I6" s="521"/>
       <c r="J6" s="207" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K6" s="284" t="s">
-        <v>689</v>
+        <v>769</v>
       </c>
       <c r="L6" s="207" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M6" s="207"/>
       <c r="N6" s="207"/>
@@ -7103,17 +7113,17 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="505"/>
-      <c r="F7" s="511"/>
-      <c r="G7" s="499"/>
-      <c r="H7" s="490"/>
-      <c r="I7" s="490"/>
+      <c r="E7" s="489"/>
+      <c r="F7" s="495"/>
+      <c r="G7" s="530"/>
+      <c r="H7" s="522"/>
+      <c r="I7" s="522"/>
       <c r="J7" s="214" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K7" s="285"/>
       <c r="L7" s="214" t="s">
-        <v>628</v>
+        <v>768</v>
       </c>
       <c r="M7" s="214"/>
       <c r="N7" s="214"/>
@@ -7144,11 +7154,11 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="520" t="s">
-        <v>696</v>
+      <c r="F8" s="504" t="s">
+        <v>694</v>
       </c>
       <c r="G8" s="218" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H8" s="219" t="str">
         <f>Tri_Semestre!B20</f>
@@ -7159,11 +7169,11 @@
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
       <c r="J8" s="218" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K8" s="218"/>
       <c r="L8" s="218" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M8" s="218"/>
       <c r="N8" s="218"/>
@@ -7185,23 +7195,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="518" t="s">
+      <c r="E9" s="502" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="521"/>
-      <c r="G9" s="512" t="s">
+      <c r="F9" s="505"/>
+      <c r="G9" s="496" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="513"/>
-      <c r="I9" s="513"/>
-      <c r="J9" s="513"/>
-      <c r="K9" s="513"/>
-      <c r="L9" s="513"/>
-      <c r="M9" s="513"/>
-      <c r="N9" s="513"/>
-      <c r="O9" s="513"/>
-      <c r="P9" s="513"/>
-      <c r="Q9" s="514"/>
+      <c r="H9" s="497"/>
+      <c r="I9" s="497"/>
+      <c r="J9" s="497"/>
+      <c r="K9" s="497"/>
+      <c r="L9" s="497"/>
+      <c r="M9" s="497"/>
+      <c r="N9" s="497"/>
+      <c r="O9" s="497"/>
+      <c r="P9" s="497"/>
+      <c r="Q9" s="498"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -7217,19 +7227,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="519"/>
-      <c r="F10" s="521"/>
-      <c r="G10" s="515"/>
-      <c r="H10" s="516"/>
-      <c r="I10" s="516"/>
-      <c r="J10" s="516"/>
-      <c r="K10" s="516"/>
-      <c r="L10" s="516"/>
-      <c r="M10" s="516"/>
-      <c r="N10" s="516"/>
-      <c r="O10" s="516"/>
-      <c r="P10" s="516"/>
-      <c r="Q10" s="517"/>
+      <c r="E10" s="503"/>
+      <c r="F10" s="505"/>
+      <c r="G10" s="499"/>
+      <c r="H10" s="500"/>
+      <c r="I10" s="500"/>
+      <c r="J10" s="500"/>
+      <c r="K10" s="500"/>
+      <c r="L10" s="500"/>
+      <c r="M10" s="500"/>
+      <c r="N10" s="500"/>
+      <c r="O10" s="500"/>
+      <c r="P10" s="500"/>
+      <c r="Q10" s="501"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -7250,30 +7260,30 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="453" t="str">
+      <c r="E11" s="537" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="521"/>
-      <c r="G11" s="486" t="s">
-        <v>652</v>
-      </c>
-      <c r="H11" s="468" t="str">
+      <c r="F11" s="505"/>
+      <c r="G11" s="515" t="s">
+        <v>651</v>
+      </c>
+      <c r="H11" s="539" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="468" t="str">
+      <c r="I11" s="539" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="486" t="s">
-        <v>673</v>
-      </c>
-      <c r="K11" s="486" t="s">
-        <v>685</v>
+      <c r="J11" s="515" t="s">
+        <v>672</v>
+      </c>
+      <c r="K11" s="515" t="s">
+        <v>684</v>
       </c>
       <c r="L11" s="223" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M11" s="223"/>
       <c r="N11" s="223"/>
@@ -7302,15 +7312,15 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="454"/>
-      <c r="F12" s="522"/>
-      <c r="G12" s="487"/>
-      <c r="H12" s="469"/>
-      <c r="I12" s="469"/>
-      <c r="J12" s="487"/>
-      <c r="K12" s="487"/>
+      <c r="E12" s="538"/>
+      <c r="F12" s="506"/>
+      <c r="G12" s="516"/>
+      <c r="H12" s="540"/>
+      <c r="I12" s="540"/>
+      <c r="J12" s="516"/>
+      <c r="K12" s="516"/>
       <c r="L12" s="226" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M12" s="226"/>
       <c r="N12" s="226"/>
@@ -7337,30 +7347,30 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="476" t="str">
+      <c r="E13" s="547" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="523" t="s">
-        <v>698</v>
-      </c>
-      <c r="G13" s="500" t="s">
-        <v>653</v>
-      </c>
-      <c r="H13" s="530" t="str">
+      <c r="F13" s="507" t="s">
+        <v>696</v>
+      </c>
+      <c r="G13" s="484" t="s">
+        <v>652</v>
+      </c>
+      <c r="H13" s="517" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="530" t="str">
+      <c r="I13" s="517" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="J13" s="393" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K13" s="281"/>
       <c r="L13" s="229" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M13" s="229"/>
       <c r="N13" s="229"/>
@@ -7387,17 +7397,17 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="477"/>
-      <c r="F14" s="501"/>
-      <c r="G14" s="501"/>
-      <c r="H14" s="531"/>
-      <c r="I14" s="531"/>
+      <c r="E14" s="548"/>
+      <c r="F14" s="485"/>
+      <c r="G14" s="485"/>
+      <c r="H14" s="518"/>
+      <c r="I14" s="518"/>
       <c r="J14" s="384" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="K14" s="384"/>
       <c r="L14" s="232" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M14" s="232"/>
       <c r="N14" s="232"/>
@@ -7424,22 +7434,22 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="478"/>
-      <c r="F15" s="502"/>
-      <c r="G15" s="502"/>
-      <c r="H15" s="532"/>
-      <c r="I15" s="532"/>
+      <c r="E15" s="549"/>
+      <c r="F15" s="486"/>
+      <c r="G15" s="486"/>
+      <c r="H15" s="519"/>
+      <c r="I15" s="519"/>
       <c r="J15" s="235" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K15" s="282" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L15" s="235" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M15" s="235" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N15" s="235"/>
       <c r="O15" s="235"/>
@@ -7465,33 +7475,33 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="455" t="str">
+      <c r="E16" s="482" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="541" t="s">
-        <v>697</v>
-      </c>
-      <c r="G16" s="455" t="s">
-        <v>654</v>
-      </c>
-      <c r="H16" s="482" t="str">
+      <c r="F16" s="447" t="s">
+        <v>695</v>
+      </c>
+      <c r="G16" s="482" t="s">
+        <v>653</v>
+      </c>
+      <c r="H16" s="550" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="484" t="str">
+      <c r="I16" s="552" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
       <c r="J16" s="244" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K16" s="244"/>
       <c r="L16" s="244" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="M16" s="244" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="N16" s="244"/>
       <c r="O16" s="244"/>
@@ -7517,20 +7527,20 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="456"/>
-      <c r="F17" s="542"/>
-      <c r="G17" s="456"/>
-      <c r="H17" s="483"/>
-      <c r="I17" s="485"/>
+      <c r="E17" s="483"/>
+      <c r="F17" s="448"/>
+      <c r="G17" s="483"/>
+      <c r="H17" s="551"/>
+      <c r="I17" s="553"/>
       <c r="J17" s="247" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="K17" s="247"/>
       <c r="L17" s="247" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M17" s="247" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N17" s="247"/>
       <c r="O17" s="247"/>
@@ -7551,21 +7561,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="470" t="s">
+      <c r="E18" s="541" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="470"/>
-      <c r="G18" s="470"/>
-      <c r="H18" s="470"/>
-      <c r="I18" s="470"/>
-      <c r="J18" s="470"/>
-      <c r="K18" s="470"/>
-      <c r="L18" s="470"/>
-      <c r="M18" s="470"/>
-      <c r="N18" s="470"/>
-      <c r="O18" s="470"/>
-      <c r="P18" s="471"/>
-      <c r="Q18" s="472"/>
+      <c r="F18" s="541"/>
+      <c r="G18" s="541"/>
+      <c r="H18" s="541"/>
+      <c r="I18" s="541"/>
+      <c r="J18" s="541"/>
+      <c r="K18" s="541"/>
+      <c r="L18" s="541"/>
+      <c r="M18" s="541"/>
+      <c r="N18" s="541"/>
+      <c r="O18" s="541"/>
+      <c r="P18" s="542"/>
+      <c r="Q18" s="543"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7581,19 +7591,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="473"/>
-      <c r="F19" s="473"/>
-      <c r="G19" s="473"/>
-      <c r="H19" s="473"/>
-      <c r="I19" s="473"/>
-      <c r="J19" s="473"/>
-      <c r="K19" s="473"/>
-      <c r="L19" s="473"/>
-      <c r="M19" s="473"/>
-      <c r="N19" s="473"/>
-      <c r="O19" s="473"/>
-      <c r="P19" s="474"/>
-      <c r="Q19" s="475"/>
+      <c r="E19" s="544"/>
+      <c r="F19" s="544"/>
+      <c r="G19" s="544"/>
+      <c r="H19" s="544"/>
+      <c r="I19" s="544"/>
+      <c r="J19" s="544"/>
+      <c r="K19" s="544"/>
+      <c r="L19" s="544"/>
+      <c r="M19" s="544"/>
+      <c r="N19" s="544"/>
+      <c r="O19" s="544"/>
+      <c r="P19" s="545"/>
+      <c r="Q19" s="546"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7614,30 +7624,30 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="457" t="str">
+      <c r="E20" s="471" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="543" t="s">
-        <v>700</v>
-      </c>
-      <c r="G20" s="457" t="s">
-        <v>699</v>
-      </c>
-      <c r="H20" s="536" t="str">
+      <c r="F20" s="449" t="s">
+        <v>698</v>
+      </c>
+      <c r="G20" s="471" t="s">
+        <v>697</v>
+      </c>
+      <c r="H20" s="463" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="536" t="str">
+      <c r="I20" s="463" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
       <c r="J20" s="238" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="K20" s="238"/>
       <c r="L20" s="238" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="M20" s="238"/>
       <c r="N20" s="238"/>
@@ -7664,15 +7674,15 @@
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="458"/>
-      <c r="F21" s="544"/>
-      <c r="G21" s="458"/>
-      <c r="H21" s="537"/>
-      <c r="I21" s="537"/>
+      <c r="E21" s="472"/>
+      <c r="F21" s="450"/>
+      <c r="G21" s="472"/>
+      <c r="H21" s="464"/>
+      <c r="I21" s="464"/>
       <c r="J21" s="250"/>
       <c r="K21" s="250"/>
       <c r="L21" s="250" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M21" s="250"/>
       <c r="N21" s="250"/>
@@ -7699,15 +7709,15 @@
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="459"/>
-      <c r="F22" s="545"/>
-      <c r="G22" s="459"/>
-      <c r="H22" s="538"/>
-      <c r="I22" s="538"/>
+      <c r="E22" s="473"/>
+      <c r="F22" s="451"/>
+      <c r="G22" s="473"/>
+      <c r="H22" s="465"/>
+      <c r="I22" s="465"/>
       <c r="J22" s="241"/>
       <c r="K22" s="241"/>
       <c r="L22" s="241" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="M22" s="241"/>
       <c r="N22" s="241"/>
@@ -7734,30 +7744,30 @@
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="460" t="str">
+      <c r="E23" s="474" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="546" t="s">
-        <v>701</v>
-      </c>
-      <c r="G23" s="460" t="s">
-        <v>655</v>
-      </c>
-      <c r="H23" s="539" t="str">
+      <c r="F23" s="452" t="s">
+        <v>699</v>
+      </c>
+      <c r="G23" s="474" t="s">
+        <v>654</v>
+      </c>
+      <c r="H23" s="466" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="539" t="str">
+      <c r="I23" s="466" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
       <c r="J23" s="184" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="K23" s="184"/>
       <c r="L23" s="184" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M23" s="184"/>
       <c r="N23" s="184"/>
@@ -7784,17 +7794,17 @@
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="461"/>
-      <c r="F24" s="547"/>
-      <c r="G24" s="461"/>
-      <c r="H24" s="540"/>
-      <c r="I24" s="540"/>
+      <c r="E24" s="475"/>
+      <c r="F24" s="453"/>
+      <c r="G24" s="475"/>
+      <c r="H24" s="467"/>
+      <c r="I24" s="467"/>
       <c r="J24" s="187" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="K24" s="187"/>
       <c r="L24" s="187" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="M24" s="187"/>
       <c r="N24" s="187"/>
@@ -7816,21 +7826,21 @@
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="470" t="s">
+      <c r="E25" s="541" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="470"/>
-      <c r="G25" s="470"/>
-      <c r="H25" s="470"/>
-      <c r="I25" s="470"/>
-      <c r="J25" s="470"/>
-      <c r="K25" s="470"/>
-      <c r="L25" s="470"/>
-      <c r="M25" s="470"/>
-      <c r="N25" s="470"/>
-      <c r="O25" s="470"/>
-      <c r="P25" s="471"/>
-      <c r="Q25" s="472"/>
+      <c r="F25" s="541"/>
+      <c r="G25" s="541"/>
+      <c r="H25" s="541"/>
+      <c r="I25" s="541"/>
+      <c r="J25" s="541"/>
+      <c r="K25" s="541"/>
+      <c r="L25" s="541"/>
+      <c r="M25" s="541"/>
+      <c r="N25" s="541"/>
+      <c r="O25" s="541"/>
+      <c r="P25" s="542"/>
+      <c r="Q25" s="543"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7846,19 +7856,19 @@
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="473"/>
-      <c r="F26" s="473"/>
-      <c r="G26" s="473"/>
-      <c r="H26" s="473"/>
-      <c r="I26" s="473"/>
-      <c r="J26" s="473"/>
-      <c r="K26" s="473"/>
-      <c r="L26" s="473"/>
-      <c r="M26" s="473"/>
-      <c r="N26" s="473"/>
-      <c r="O26" s="473"/>
-      <c r="P26" s="474"/>
-      <c r="Q26" s="475"/>
+      <c r="E26" s="544"/>
+      <c r="F26" s="544"/>
+      <c r="G26" s="544"/>
+      <c r="H26" s="544"/>
+      <c r="I26" s="544"/>
+      <c r="J26" s="544"/>
+      <c r="K26" s="544"/>
+      <c r="L26" s="544"/>
+      <c r="M26" s="544"/>
+      <c r="N26" s="544"/>
+      <c r="O26" s="544"/>
+      <c r="P26" s="545"/>
+      <c r="Q26" s="546"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7879,30 +7889,30 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="462" t="str">
+      <c r="E27" s="476" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="548" t="s">
-        <v>702</v>
-      </c>
-      <c r="G27" s="462" t="s">
-        <v>656</v>
-      </c>
-      <c r="H27" s="479" t="str">
+      <c r="F27" s="454" t="s">
+        <v>700</v>
+      </c>
+      <c r="G27" s="476" t="s">
+        <v>655</v>
+      </c>
+      <c r="H27" s="468" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="479" t="str">
+      <c r="I27" s="468" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
       <c r="J27" s="176" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="K27" s="176"/>
       <c r="L27" s="176" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="M27" s="176"/>
       <c r="N27" s="176"/>
@@ -7929,11 +7939,11 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="463"/>
-      <c r="F28" s="549"/>
-      <c r="G28" s="463"/>
-      <c r="H28" s="480"/>
-      <c r="I28" s="480"/>
+      <c r="E28" s="477"/>
+      <c r="F28" s="455"/>
+      <c r="G28" s="477"/>
+      <c r="H28" s="469"/>
+      <c r="I28" s="469"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
@@ -7964,13 +7974,13 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="464"/>
-      <c r="F29" s="550"/>
-      <c r="G29" s="464"/>
-      <c r="H29" s="481"/>
-      <c r="I29" s="481"/>
+      <c r="E29" s="478"/>
+      <c r="F29" s="456"/>
+      <c r="G29" s="478"/>
+      <c r="H29" s="470"/>
+      <c r="I29" s="470"/>
       <c r="J29" s="182" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K29" s="182"/>
       <c r="L29" s="182" t="s">
@@ -7981,7 +7991,7 @@
       <c r="O29" s="182"/>
       <c r="P29" s="274"/>
       <c r="Q29" s="446" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
@@ -8003,15 +8013,15 @@
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="465" t="s">
+      <c r="E30" s="479" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="551" t="s">
-        <v>703</v>
-      </c>
-      <c r="G30" s="465"/>
-      <c r="H30" s="533"/>
-      <c r="I30" s="533"/>
+      <c r="F30" s="457" t="s">
+        <v>701</v>
+      </c>
+      <c r="G30" s="479"/>
+      <c r="H30" s="460"/>
+      <c r="I30" s="460"/>
       <c r="J30" s="190"/>
       <c r="K30" s="190"/>
       <c r="L30" s="190"/>
@@ -8040,11 +8050,11 @@
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="466"/>
-      <c r="F31" s="552"/>
-      <c r="G31" s="466"/>
-      <c r="H31" s="534"/>
-      <c r="I31" s="534"/>
+      <c r="E31" s="480"/>
+      <c r="F31" s="458"/>
+      <c r="G31" s="480"/>
+      <c r="H31" s="461"/>
+      <c r="I31" s="461"/>
       <c r="J31" s="193"/>
       <c r="K31" s="193"/>
       <c r="L31" s="193"/>
@@ -8073,11 +8083,11 @@
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="467"/>
-      <c r="F32" s="553"/>
-      <c r="G32" s="467"/>
-      <c r="H32" s="535"/>
-      <c r="I32" s="535"/>
+      <c r="E32" s="481"/>
+      <c r="F32" s="459"/>
+      <c r="G32" s="481"/>
+      <c r="H32" s="462"/>
+      <c r="I32" s="462"/>
       <c r="J32" s="196"/>
       <c r="K32" s="196"/>
       <c r="L32" s="196"/>
@@ -8103,21 +8113,21 @@
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="447" t="s">
+      <c r="E33" s="531" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="447"/>
-      <c r="G33" s="447"/>
-      <c r="H33" s="447"/>
-      <c r="I33" s="447"/>
-      <c r="J33" s="447"/>
-      <c r="K33" s="447"/>
-      <c r="L33" s="447"/>
-      <c r="M33" s="447"/>
-      <c r="N33" s="447"/>
-      <c r="O33" s="447"/>
-      <c r="P33" s="448"/>
-      <c r="Q33" s="449"/>
+      <c r="F33" s="531"/>
+      <c r="G33" s="531"/>
+      <c r="H33" s="531"/>
+      <c r="I33" s="531"/>
+      <c r="J33" s="531"/>
+      <c r="K33" s="531"/>
+      <c r="L33" s="531"/>
+      <c r="M33" s="531"/>
+      <c r="N33" s="531"/>
+      <c r="O33" s="531"/>
+      <c r="P33" s="532"/>
+      <c r="Q33" s="533"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -8133,19 +8143,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="450"/>
-      <c r="F34" s="450"/>
-      <c r="G34" s="450"/>
-      <c r="H34" s="450"/>
-      <c r="I34" s="450"/>
-      <c r="J34" s="450"/>
-      <c r="K34" s="450"/>
-      <c r="L34" s="450"/>
-      <c r="M34" s="450"/>
-      <c r="N34" s="450"/>
-      <c r="O34" s="450"/>
-      <c r="P34" s="451"/>
-      <c r="Q34" s="452"/>
+      <c r="E34" s="534"/>
+      <c r="F34" s="534"/>
+      <c r="G34" s="534"/>
+      <c r="H34" s="534"/>
+      <c r="I34" s="534"/>
+      <c r="J34" s="534"/>
+      <c r="K34" s="534"/>
+      <c r="L34" s="534"/>
+      <c r="M34" s="534"/>
+      <c r="N34" s="534"/>
+      <c r="O34" s="534"/>
+      <c r="P34" s="535"/>
+      <c r="Q34" s="536"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8635,23 +8645,27 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="E33:Q34"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="E18:Q19"/>
+    <mergeCell ref="E25:Q26"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="I27:I29"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="G13:G15"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="F2:F4"/>
@@ -8668,27 +8682,23 @@
     <mergeCell ref="H13:H15"/>
     <mergeCell ref="I13:I15"/>
     <mergeCell ref="J11:J12"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="E33:Q34"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E27:E29"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="E18:Q19"/>
-    <mergeCell ref="E25:Q26"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="I27:I29"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8701,8 +8711,8 @@
   </sheetPr>
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="A20" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8712,38 +8722,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="558" t="s">
-        <v>716</v>
-      </c>
-      <c r="B1" s="559"/>
-      <c r="C1" s="559"/>
-      <c r="D1" s="559"/>
-      <c r="E1" s="559"/>
-      <c r="F1" s="558" t="s">
-        <v>717</v>
-      </c>
-      <c r="G1" s="559"/>
-      <c r="H1" s="559"/>
-      <c r="I1" s="559"/>
-      <c r="J1" s="559"/>
+      <c r="A1" s="582" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" s="583"/>
+      <c r="C1" s="583"/>
+      <c r="D1" s="583"/>
+      <c r="E1" s="583"/>
+      <c r="F1" s="582" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1" s="583"/>
+      <c r="H1" s="583"/>
+      <c r="I1" s="583"/>
+      <c r="J1" s="583"/>
     </row>
     <row r="2" spans="1:10" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="569" t="str">
+      <c r="A2" s="584" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="570"/>
-      <c r="C2" s="570"/>
-      <c r="D2" s="570"/>
-      <c r="E2" s="570"/>
-      <c r="F2" s="571" t="str">
+      <c r="B2" s="585"/>
+      <c r="C2" s="585"/>
+      <c r="D2" s="585"/>
+      <c r="E2" s="585"/>
+      <c r="F2" s="586" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="572"/>
-      <c r="H2" s="572"/>
-      <c r="I2" s="572"/>
-      <c r="J2" s="573"/>
+      <c r="G2" s="587"/>
+      <c r="H2" s="587"/>
+      <c r="I2" s="587"/>
+      <c r="J2" s="588"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -8753,116 +8763,116 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="558" t="s">
-        <v>724</v>
-      </c>
-      <c r="B4" s="559"/>
-      <c r="C4" s="559"/>
-      <c r="D4" s="560"/>
-      <c r="E4" s="558" t="s">
-        <v>650</v>
-      </c>
-      <c r="F4" s="559"/>
-      <c r="G4" s="560"/>
-      <c r="H4" s="558" t="s">
+      <c r="A4" s="582" t="s">
+        <v>722</v>
+      </c>
+      <c r="B4" s="583"/>
+      <c r="C4" s="583"/>
+      <c r="D4" s="595"/>
+      <c r="E4" s="582" t="s">
+        <v>649</v>
+      </c>
+      <c r="F4" s="583"/>
+      <c r="G4" s="595"/>
+      <c r="H4" s="582" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="559"/>
-      <c r="J4" s="560"/>
+      <c r="I4" s="583"/>
+      <c r="J4" s="595"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="574" t="s">
-        <v>666</v>
-      </c>
-      <c r="B5" s="575"/>
-      <c r="C5" s="575"/>
-      <c r="D5" s="576"/>
+      <c r="A5" s="589" t="s">
+        <v>665</v>
+      </c>
+      <c r="B5" s="590"/>
+      <c r="C5" s="590"/>
+      <c r="D5" s="591"/>
       <c r="E5" s="397" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="554" t="s">
+      <c r="F5" s="596" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="555"/>
+      <c r="G5" s="597"/>
       <c r="H5" s="398" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="554" t="s">
+      <c r="I5" s="596" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="555"/>
+      <c r="J5" s="597"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="574"/>
-      <c r="B6" s="575"/>
-      <c r="C6" s="575"/>
-      <c r="D6" s="576"/>
+      <c r="A6" s="589"/>
+      <c r="B6" s="590"/>
+      <c r="C6" s="590"/>
+      <c r="D6" s="591"/>
       <c r="E6" s="397"/>
-      <c r="F6" s="554"/>
-      <c r="G6" s="555"/>
+      <c r="F6" s="596"/>
+      <c r="G6" s="597"/>
       <c r="H6" s="398" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="554" t="s">
+      <c r="I6" s="596" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="555"/>
+      <c r="J6" s="597"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="574"/>
-      <c r="B7" s="575"/>
-      <c r="C7" s="575"/>
-      <c r="D7" s="576"/>
+      <c r="A7" s="589"/>
+      <c r="B7" s="590"/>
+      <c r="C7" s="590"/>
+      <c r="D7" s="591"/>
       <c r="E7" s="397"/>
-      <c r="F7" s="554"/>
-      <c r="G7" s="555"/>
+      <c r="F7" s="596"/>
+      <c r="G7" s="597"/>
       <c r="H7" s="398" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="554" t="s">
+      <c r="I7" s="596" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="555"/>
+      <c r="J7" s="597"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="574"/>
-      <c r="B8" s="575"/>
-      <c r="C8" s="575"/>
-      <c r="D8" s="576"/>
+      <c r="A8" s="589"/>
+      <c r="B8" s="590"/>
+      <c r="C8" s="590"/>
+      <c r="D8" s="591"/>
       <c r="E8" s="397" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="554" t="s">
+      <c r="F8" s="596" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="555"/>
+      <c r="G8" s="597"/>
       <c r="H8" s="398" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="554" t="s">
+      <c r="I8" s="596" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="555"/>
+      <c r="J8" s="597"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="577"/>
-      <c r="B9" s="578"/>
-      <c r="C9" s="578"/>
-      <c r="D9" s="579"/>
+      <c r="A9" s="592"/>
+      <c r="B9" s="593"/>
+      <c r="C9" s="593"/>
+      <c r="D9" s="594"/>
       <c r="E9" s="399" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="556" t="s">
+      <c r="F9" s="598" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="557"/>
+      <c r="G9" s="599"/>
       <c r="H9" s="399" t="s">
-        <v>723</v>
-      </c>
-      <c r="I9" s="556" t="s">
+        <v>721</v>
+      </c>
+      <c r="I9" s="598" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="557"/>
+      <c r="J9" s="599"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="400"/>
@@ -8872,102 +8882,102 @@
       <c r="J10" s="400"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="558" t="s">
-        <v>711</v>
-      </c>
-      <c r="B11" s="559"/>
-      <c r="C11" s="559"/>
-      <c r="D11" s="559"/>
-      <c r="E11" s="559"/>
-      <c r="F11" s="558" t="s">
-        <v>722</v>
-      </c>
-      <c r="G11" s="559"/>
-      <c r="H11" s="559"/>
-      <c r="I11" s="559"/>
-      <c r="J11" s="560"/>
+      <c r="A11" s="582" t="s">
+        <v>709</v>
+      </c>
+      <c r="B11" s="583"/>
+      <c r="C11" s="583"/>
+      <c r="D11" s="583"/>
+      <c r="E11" s="583"/>
+      <c r="F11" s="582" t="s">
+        <v>720</v>
+      </c>
+      <c r="G11" s="583"/>
+      <c r="H11" s="583"/>
+      <c r="I11" s="583"/>
+      <c r="J11" s="595"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="566" t="s">
-        <v>725</v>
-      </c>
-      <c r="B12" s="567"/>
-      <c r="C12" s="567"/>
-      <c r="D12" s="567"/>
-      <c r="E12" s="567"/>
-      <c r="F12" s="566" t="s">
-        <v>726</v>
-      </c>
-      <c r="G12" s="567"/>
-      <c r="H12" s="567"/>
-      <c r="I12" s="567"/>
-      <c r="J12" s="568"/>
+      <c r="A12" s="605" t="s">
+        <v>723</v>
+      </c>
+      <c r="B12" s="606"/>
+      <c r="C12" s="606"/>
+      <c r="D12" s="606"/>
+      <c r="E12" s="606"/>
+      <c r="F12" s="605" t="s">
+        <v>724</v>
+      </c>
+      <c r="G12" s="606"/>
+      <c r="H12" s="606"/>
+      <c r="I12" s="606"/>
+      <c r="J12" s="607"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="396"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="558" t="s">
+      <c r="A14" s="582" t="s">
+        <v>725</v>
+      </c>
+      <c r="B14" s="583"/>
+      <c r="C14" s="583"/>
+      <c r="D14" s="583"/>
+      <c r="E14" s="583"/>
+      <c r="F14" s="582" t="s">
+        <v>606</v>
+      </c>
+      <c r="G14" s="583"/>
+      <c r="H14" s="583"/>
+      <c r="I14" s="583"/>
+      <c r="J14" s="595"/>
+    </row>
+    <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="600" t="s">
+        <v>726</v>
+      </c>
+      <c r="B15" s="601"/>
+      <c r="C15" s="601"/>
+      <c r="D15" s="601"/>
+      <c r="E15" s="601"/>
+      <c r="F15" s="602" t="s">
         <v>727</v>
       </c>
-      <c r="B14" s="559"/>
-      <c r="C14" s="559"/>
-      <c r="D14" s="559"/>
-      <c r="E14" s="559"/>
-      <c r="F14" s="558" t="s">
-        <v>606</v>
-      </c>
-      <c r="G14" s="559"/>
-      <c r="H14" s="559"/>
-      <c r="I14" s="559"/>
-      <c r="J14" s="560"/>
-    </row>
-    <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="561" t="s">
-        <v>728</v>
-      </c>
-      <c r="B15" s="562"/>
-      <c r="C15" s="562"/>
-      <c r="D15" s="562"/>
-      <c r="E15" s="562"/>
-      <c r="F15" s="563" t="s">
-        <v>729</v>
-      </c>
-      <c r="G15" s="564"/>
-      <c r="H15" s="564"/>
-      <c r="I15" s="564"/>
-      <c r="J15" s="565"/>
+      <c r="G15" s="603"/>
+      <c r="H15" s="603"/>
+      <c r="I15" s="603"/>
+      <c r="J15" s="604"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="586" t="s">
-        <v>712</v>
-      </c>
-      <c r="B17" s="587"/>
-      <c r="C17" s="587"/>
-      <c r="D17" s="587"/>
-      <c r="E17" s="587"/>
-      <c r="F17" s="587"/>
-      <c r="G17" s="587"/>
-      <c r="H17" s="587"/>
-      <c r="I17" s="587"/>
-      <c r="J17" s="588"/>
+      <c r="A17" s="575" t="s">
+        <v>710</v>
+      </c>
+      <c r="B17" s="576"/>
+      <c r="C17" s="576"/>
+      <c r="D17" s="576"/>
+      <c r="E17" s="576"/>
+      <c r="F17" s="576"/>
+      <c r="G17" s="576"/>
+      <c r="H17" s="576"/>
+      <c r="I17" s="576"/>
+      <c r="J17" s="577"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="589" t="s">
-        <v>730</v>
-      </c>
-      <c r="B18" s="590"/>
-      <c r="C18" s="590"/>
-      <c r="D18" s="590"/>
-      <c r="E18" s="590"/>
-      <c r="F18" s="591" t="s">
-        <v>731</v>
-      </c>
-      <c r="G18" s="591"/>
-      <c r="H18" s="591"/>
-      <c r="I18" s="591"/>
-      <c r="J18" s="592"/>
+      <c r="A18" s="578" t="s">
+        <v>728</v>
+      </c>
+      <c r="B18" s="579"/>
+      <c r="C18" s="579"/>
+      <c r="D18" s="579"/>
+      <c r="E18" s="579"/>
+      <c r="F18" s="580" t="s">
+        <v>729</v>
+      </c>
+      <c r="G18" s="580"/>
+      <c r="H18" s="580"/>
+      <c r="I18" s="580"/>
+      <c r="J18" s="581"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="396"/>
@@ -8977,91 +8987,91 @@
     </row>
     <row r="20" spans="1:10" s="395" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="403" t="s">
-        <v>721</v>
-      </c>
-      <c r="B20" s="580" t="s">
+        <v>719</v>
+      </c>
+      <c r="B20" s="569" t="s">
+        <v>716</v>
+      </c>
+      <c r="C20" s="570"/>
+      <c r="D20" s="571"/>
+      <c r="E20" s="569" t="s">
+        <v>717</v>
+      </c>
+      <c r="F20" s="570"/>
+      <c r="G20" s="571"/>
+      <c r="H20" s="569" t="s">
         <v>718</v>
       </c>
-      <c r="C20" s="581"/>
-      <c r="D20" s="582"/>
-      <c r="E20" s="580" t="s">
-        <v>719</v>
-      </c>
-      <c r="F20" s="581"/>
-      <c r="G20" s="582"/>
-      <c r="H20" s="580" t="s">
-        <v>720</v>
-      </c>
-      <c r="I20" s="581"/>
-      <c r="J20" s="582"/>
+      <c r="I20" s="570"/>
+      <c r="J20" s="571"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="401" t="s">
-        <v>713</v>
-      </c>
-      <c r="B21" s="583" t="s">
+        <v>711</v>
+      </c>
+      <c r="B21" s="572" t="s">
+        <v>730</v>
+      </c>
+      <c r="C21" s="573"/>
+      <c r="D21" s="574"/>
+      <c r="E21" s="572" t="s">
+        <v>731</v>
+      </c>
+      <c r="F21" s="573"/>
+      <c r="G21" s="574"/>
+      <c r="H21" s="572" t="s">
         <v>732</v>
       </c>
-      <c r="C21" s="584"/>
-      <c r="D21" s="585"/>
-      <c r="E21" s="583" t="s">
-        <v>733</v>
-      </c>
-      <c r="F21" s="584"/>
-      <c r="G21" s="585"/>
-      <c r="H21" s="583" t="s">
-        <v>734</v>
-      </c>
-      <c r="I21" s="584"/>
-      <c r="J21" s="585"/>
+      <c r="I21" s="573"/>
+      <c r="J21" s="574"/>
     </row>
     <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="401" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B22" s="404" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C22" s="405" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="D22" s="406"/>
       <c r="E22" s="407" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F22" s="405" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G22" s="408"/>
       <c r="H22" s="409" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I22" s="410" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="J22" s="408"/>
     </row>
     <row r="23" spans="1:10" ht="51" x14ac:dyDescent="0.2">
       <c r="A23" s="401"/>
       <c r="B23" s="404" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C23" s="405" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D23" s="406"/>
       <c r="E23" s="407" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F23" s="405" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="G23" s="406"/>
       <c r="H23" s="407" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I23" s="405" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="J23" s="408"/>
     </row>
@@ -9071,65 +9081,65 @@
       <c r="C24" s="405"/>
       <c r="D24" s="406"/>
       <c r="E24" s="407" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="F24" s="405" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G24" s="406"/>
       <c r="H24" s="407" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I24" s="405" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="J24" s="408"/>
     </row>
     <row r="25" spans="1:10" ht="55.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="401"/>
       <c r="B25" s="404" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C25" s="405" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D25" s="406"/>
       <c r="E25" s="407" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="F25" s="405" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="G25" s="406"/>
       <c r="H25" s="407" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I25" s="405" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="J25" s="406"/>
     </row>
     <row r="26" spans="1:10" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A26" s="411"/>
       <c r="B26" s="412" t="s">
+        <v>738</v>
+      </c>
+      <c r="C26" s="413" t="s">
         <v>740</v>
-      </c>
-      <c r="C26" s="413" t="s">
-        <v>742</v>
       </c>
       <c r="D26" s="414"/>
       <c r="E26" s="415" t="s">
+        <v>739</v>
+      </c>
+      <c r="F26" s="413" t="s">
         <v>741</v>
-      </c>
-      <c r="F26" s="413" t="s">
-        <v>743</v>
       </c>
       <c r="G26" s="414"/>
       <c r="H26" s="415" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I26" s="413" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="J26" s="414"/>
     </row>
@@ -9147,9 +9157,9 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="402"/>
-      <c r="B28" s="599"/>
-      <c r="C28" s="600"/>
-      <c r="D28" s="601"/>
+      <c r="B28" s="560"/>
+      <c r="C28" s="561"/>
+      <c r="D28" s="562"/>
       <c r="E28" s="416"/>
       <c r="F28" s="417"/>
       <c r="G28" s="418"/>
@@ -9159,35 +9169,35 @@
     </row>
     <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="401" t="s">
-        <v>715</v>
-      </c>
-      <c r="B29" s="602"/>
-      <c r="C29" s="603"/>
-      <c r="D29" s="604"/>
-      <c r="E29" s="602"/>
-      <c r="F29" s="603"/>
-      <c r="G29" s="604"/>
-      <c r="H29" s="605"/>
-      <c r="I29" s="606"/>
-      <c r="J29" s="607"/>
+        <v>713</v>
+      </c>
+      <c r="B29" s="563"/>
+      <c r="C29" s="564"/>
+      <c r="D29" s="565"/>
+      <c r="E29" s="563"/>
+      <c r="F29" s="564"/>
+      <c r="G29" s="565"/>
+      <c r="H29" s="566"/>
+      <c r="I29" s="567"/>
+      <c r="J29" s="568"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="402" t="s">
+        <v>745</v>
+      </c>
+      <c r="B30" s="554" t="s">
+        <v>746</v>
+      </c>
+      <c r="C30" s="555"/>
+      <c r="D30" s="556"/>
+      <c r="E30" s="554" t="s">
         <v>747</v>
       </c>
-      <c r="B30" s="593" t="s">
-        <v>748</v>
-      </c>
-      <c r="C30" s="594"/>
-      <c r="D30" s="595"/>
-      <c r="E30" s="593" t="s">
-        <v>749</v>
-      </c>
-      <c r="F30" s="594"/>
-      <c r="G30" s="595"/>
-      <c r="H30" s="596"/>
-      <c r="I30" s="597"/>
-      <c r="J30" s="598"/>
+      <c r="F30" s="555"/>
+      <c r="G30" s="556"/>
+      <c r="H30" s="557"/>
+      <c r="I30" s="558"/>
+      <c r="J30" s="559"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9199,22 +9209,16 @@
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F1:J1"/>
@@ -9231,16 +9235,22 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9256,8 +9266,8 @@
   </sheetPr>
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:E14"/>
+    <sheetView topLeftCell="A14" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9267,37 +9277,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="646" t="s">
-        <v>716</v>
-      </c>
-      <c r="B1" s="647"/>
-      <c r="C1" s="647"/>
-      <c r="D1" s="647"/>
-      <c r="E1" s="647"/>
-      <c r="F1" s="646" t="s">
-        <v>717</v>
-      </c>
-      <c r="G1" s="647"/>
-      <c r="H1" s="647"/>
-      <c r="I1" s="647"/>
-      <c r="J1" s="647"/>
+      <c r="A1" s="610" t="s">
+        <v>714</v>
+      </c>
+      <c r="B1" s="611"/>
+      <c r="C1" s="611"/>
+      <c r="D1" s="611"/>
+      <c r="E1" s="611"/>
+      <c r="F1" s="610" t="s">
+        <v>715</v>
+      </c>
+      <c r="G1" s="611"/>
+      <c r="H1" s="611"/>
+      <c r="I1" s="611"/>
+      <c r="J1" s="611"/>
     </row>
     <row r="2" spans="1:20" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="658" t="str">
+      <c r="A2" s="612" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="B2" s="659"/>
-      <c r="C2" s="659"/>
-      <c r="D2" s="659"/>
-      <c r="E2" s="659"/>
-      <c r="F2" s="660" t="s">
-        <v>691</v>
-      </c>
-      <c r="G2" s="661"/>
-      <c r="H2" s="661"/>
-      <c r="I2" s="661"/>
-      <c r="J2" s="662"/>
+      <c r="B2" s="613"/>
+      <c r="C2" s="613"/>
+      <c r="D2" s="613"/>
+      <c r="E2" s="613"/>
+      <c r="F2" s="614" t="s">
+        <v>689</v>
+      </c>
+      <c r="G2" s="615"/>
+      <c r="H2" s="615"/>
+      <c r="I2" s="615"/>
+      <c r="J2" s="616"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -9307,67 +9317,67 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="646" t="s">
-        <v>724</v>
-      </c>
-      <c r="B4" s="647"/>
-      <c r="C4" s="647"/>
-      <c r="D4" s="648"/>
-      <c r="E4" s="646" t="s">
-        <v>650</v>
-      </c>
-      <c r="F4" s="647"/>
-      <c r="G4" s="648"/>
-      <c r="H4" s="646" t="s">
+      <c r="A4" s="610" t="s">
+        <v>722</v>
+      </c>
+      <c r="B4" s="611"/>
+      <c r="C4" s="611"/>
+      <c r="D4" s="617"/>
+      <c r="E4" s="610" t="s">
+        <v>649</v>
+      </c>
+      <c r="F4" s="611"/>
+      <c r="G4" s="617"/>
+      <c r="H4" s="610" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="647"/>
-      <c r="J4" s="648"/>
+      <c r="I4" s="611"/>
+      <c r="J4" s="617"/>
     </row>
     <row r="5" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="652" t="s">
-        <v>756</v>
-      </c>
-      <c r="B5" s="653"/>
-      <c r="C5" s="653"/>
-      <c r="D5" s="654"/>
+      <c r="A5" s="626" t="s">
+        <v>754</v>
+      </c>
+      <c r="B5" s="627"/>
+      <c r="C5" s="627"/>
+      <c r="D5" s="628"/>
       <c r="E5" s="443" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="609" t="s">
+      <c r="F5" s="618" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="610"/>
+      <c r="G5" s="619"/>
       <c r="H5" s="444" t="s">
-        <v>757</v>
-      </c>
-      <c r="I5" s="609" t="s">
+        <v>755</v>
+      </c>
+      <c r="I5" s="618" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="610"/>
-      <c r="Q5" s="608"/>
-      <c r="R5" s="608"/>
+      <c r="J5" s="619"/>
+      <c r="Q5" s="662"/>
+      <c r="R5" s="662"/>
       <c r="S5" s="287" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="652"/>
-      <c r="B6" s="653"/>
-      <c r="C6" s="653"/>
-      <c r="D6" s="654"/>
+      <c r="A6" s="626"/>
+      <c r="B6" s="627"/>
+      <c r="C6" s="627"/>
+      <c r="D6" s="628"/>
       <c r="E6" s="443" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="609" t="s">
+      <c r="F6" s="618" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="610"/>
+      <c r="G6" s="619"/>
       <c r="H6" s="444"/>
-      <c r="I6" s="609"/>
-      <c r="J6" s="610"/>
-      <c r="Q6" s="608"/>
-      <c r="R6" s="608"/>
+      <c r="I6" s="618"/>
+      <c r="J6" s="619"/>
+      <c r="Q6" s="662"/>
+      <c r="R6" s="662"/>
       <c r="S6" s="287" t="s">
         <v>16</v>
       </c>
@@ -9376,108 +9386,108 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="652"/>
-      <c r="B7" s="653"/>
-      <c r="C7" s="653"/>
-      <c r="D7" s="654"/>
+      <c r="A7" s="626"/>
+      <c r="B7" s="627"/>
+      <c r="C7" s="627"/>
+      <c r="D7" s="628"/>
       <c r="E7" s="443" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="609" t="s">
+      <c r="F7" s="618" t="s">
         <v>597</v>
       </c>
-      <c r="G7" s="610"/>
+      <c r="G7" s="619"/>
       <c r="H7" s="444" t="s">
-        <v>758</v>
-      </c>
-      <c r="I7" s="609" t="s">
+        <v>756</v>
+      </c>
+      <c r="I7" s="618" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="610"/>
-      <c r="Q7" s="608"/>
-      <c r="R7" s="608"/>
+      <c r="J7" s="619"/>
+      <c r="Q7" s="662"/>
+      <c r="R7" s="662"/>
     </row>
     <row r="8" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="652"/>
-      <c r="B8" s="653"/>
-      <c r="C8" s="653"/>
-      <c r="D8" s="654"/>
+      <c r="A8" s="626"/>
+      <c r="B8" s="627"/>
+      <c r="C8" s="627"/>
+      <c r="D8" s="628"/>
       <c r="E8" s="443" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="609" t="s">
+      <c r="F8" s="618" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="610"/>
+      <c r="G8" s="619"/>
       <c r="H8" s="444" t="s">
-        <v>759</v>
-      </c>
-      <c r="I8" s="609" t="s">
+        <v>757</v>
+      </c>
+      <c r="I8" s="618" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="610"/>
-      <c r="Q8" s="608"/>
-      <c r="R8" s="608"/>
+      <c r="J8" s="619"/>
+      <c r="Q8" s="662"/>
+      <c r="R8" s="662"/>
     </row>
     <row r="9" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="652"/>
-      <c r="B9" s="653"/>
-      <c r="C9" s="653"/>
-      <c r="D9" s="654"/>
+      <c r="A9" s="626"/>
+      <c r="B9" s="627"/>
+      <c r="C9" s="627"/>
+      <c r="D9" s="628"/>
       <c r="E9" s="443" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="609" t="s">
+      <c r="F9" s="618" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="610"/>
+      <c r="G9" s="619"/>
       <c r="H9" s="444" t="s">
-        <v>760</v>
-      </c>
-      <c r="I9" s="609" t="s">
+        <v>758</v>
+      </c>
+      <c r="I9" s="618" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="610"/>
+      <c r="J9" s="619"/>
     </row>
     <row r="10" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="652"/>
-      <c r="B10" s="653"/>
-      <c r="C10" s="653"/>
-      <c r="D10" s="654"/>
+      <c r="A10" s="626"/>
+      <c r="B10" s="627"/>
+      <c r="C10" s="627"/>
+      <c r="D10" s="628"/>
       <c r="E10" s="443" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="609" t="s">
+      <c r="F10" s="618" t="s">
         <v>441</v>
       </c>
-      <c r="G10" s="610"/>
+      <c r="G10" s="619"/>
       <c r="H10" s="444" t="s">
-        <v>761</v>
-      </c>
-      <c r="I10" s="609" t="s">
+        <v>759</v>
+      </c>
+      <c r="I10" s="618" t="s">
         <v>444</v>
       </c>
-      <c r="J10" s="610"/>
+      <c r="J10" s="619"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="655"/>
-      <c r="B11" s="656"/>
-      <c r="C11" s="656"/>
-      <c r="D11" s="657"/>
+      <c r="A11" s="629"/>
+      <c r="B11" s="630"/>
+      <c r="C11" s="630"/>
+      <c r="D11" s="631"/>
       <c r="E11" s="445" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="644" t="s">
+      <c r="F11" s="608" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="645"/>
+      <c r="G11" s="609"/>
       <c r="H11" s="445" t="s">
-        <v>762</v>
-      </c>
-      <c r="I11" s="644" t="s">
+        <v>760</v>
+      </c>
+      <c r="I11" s="608" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="645"/>
+      <c r="J11" s="609"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="400"/>
@@ -9493,92 +9503,92 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="646" t="s">
-        <v>711</v>
-      </c>
-      <c r="B13" s="647"/>
-      <c r="C13" s="647"/>
-      <c r="D13" s="647"/>
-      <c r="E13" s="647"/>
-      <c r="F13" s="646" t="s">
-        <v>722</v>
-      </c>
-      <c r="G13" s="647"/>
-      <c r="H13" s="647"/>
-      <c r="I13" s="647"/>
-      <c r="J13" s="648"/>
+      <c r="A13" s="610" t="s">
+        <v>709</v>
+      </c>
+      <c r="B13" s="611"/>
+      <c r="C13" s="611"/>
+      <c r="D13" s="611"/>
+      <c r="E13" s="611"/>
+      <c r="F13" s="610" t="s">
+        <v>720</v>
+      </c>
+      <c r="G13" s="611"/>
+      <c r="H13" s="611"/>
+      <c r="I13" s="611"/>
+      <c r="J13" s="617"/>
     </row>
     <row r="14" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="649" t="s">
-        <v>764</v>
-      </c>
-      <c r="B14" s="650"/>
-      <c r="C14" s="650"/>
-      <c r="D14" s="650"/>
-      <c r="E14" s="650"/>
-      <c r="F14" s="649"/>
-      <c r="G14" s="650"/>
-      <c r="H14" s="650"/>
-      <c r="I14" s="650"/>
-      <c r="J14" s="651"/>
+      <c r="A14" s="623" t="s">
+        <v>762</v>
+      </c>
+      <c r="B14" s="624"/>
+      <c r="C14" s="624"/>
+      <c r="D14" s="624"/>
+      <c r="E14" s="624"/>
+      <c r="F14" s="623"/>
+      <c r="G14" s="624"/>
+      <c r="H14" s="624"/>
+      <c r="I14" s="624"/>
+      <c r="J14" s="625"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J15" s="396"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="646" t="s">
-        <v>727</v>
-      </c>
-      <c r="B16" s="647"/>
-      <c r="C16" s="647"/>
-      <c r="D16" s="647"/>
-      <c r="E16" s="647"/>
-      <c r="F16" s="646" t="s">
+      <c r="A16" s="610" t="s">
+        <v>725</v>
+      </c>
+      <c r="B16" s="611"/>
+      <c r="C16" s="611"/>
+      <c r="D16" s="611"/>
+      <c r="E16" s="611"/>
+      <c r="F16" s="610" t="s">
         <v>606</v>
       </c>
-      <c r="G16" s="647"/>
-      <c r="H16" s="647"/>
-      <c r="I16" s="647"/>
-      <c r="J16" s="648"/>
+      <c r="G16" s="611"/>
+      <c r="H16" s="611"/>
+      <c r="I16" s="611"/>
+      <c r="J16" s="617"/>
     </row>
     <row r="17" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="629"/>
-      <c r="B17" s="630"/>
-      <c r="C17" s="630"/>
-      <c r="D17" s="630"/>
-      <c r="E17" s="630"/>
-      <c r="F17" s="631"/>
-      <c r="G17" s="632"/>
-      <c r="H17" s="632"/>
-      <c r="I17" s="632"/>
-      <c r="J17" s="633"/>
+      <c r="A17" s="632"/>
+      <c r="B17" s="633"/>
+      <c r="C17" s="633"/>
+      <c r="D17" s="633"/>
+      <c r="E17" s="633"/>
+      <c r="F17" s="634"/>
+      <c r="G17" s="635"/>
+      <c r="H17" s="635"/>
+      <c r="I17" s="635"/>
+      <c r="J17" s="636"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="634" t="s">
-        <v>712</v>
-      </c>
-      <c r="B19" s="635"/>
-      <c r="C19" s="635"/>
-      <c r="D19" s="635"/>
-      <c r="E19" s="635"/>
-      <c r="F19" s="635"/>
-      <c r="G19" s="635"/>
-      <c r="H19" s="635"/>
-      <c r="I19" s="635"/>
-      <c r="J19" s="636"/>
+      <c r="A19" s="637" t="s">
+        <v>710</v>
+      </c>
+      <c r="B19" s="638"/>
+      <c r="C19" s="638"/>
+      <c r="D19" s="638"/>
+      <c r="E19" s="638"/>
+      <c r="F19" s="638"/>
+      <c r="G19" s="638"/>
+      <c r="H19" s="638"/>
+      <c r="I19" s="638"/>
+      <c r="J19" s="639"/>
     </row>
     <row r="20" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="637"/>
-      <c r="B20" s="638"/>
-      <c r="C20" s="638"/>
-      <c r="D20" s="638"/>
-      <c r="E20" s="638"/>
-      <c r="F20" s="639"/>
-      <c r="G20" s="639"/>
-      <c r="H20" s="639"/>
-      <c r="I20" s="639"/>
-      <c r="J20" s="640"/>
+      <c r="A20" s="640"/>
+      <c r="B20" s="641"/>
+      <c r="C20" s="641"/>
+      <c r="D20" s="641"/>
+      <c r="E20" s="641"/>
+      <c r="F20" s="642"/>
+      <c r="G20" s="642"/>
+      <c r="H20" s="642"/>
+      <c r="I20" s="642"/>
+      <c r="J20" s="643"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F21" s="396"/>
@@ -9588,41 +9598,47 @@
     </row>
     <row r="22" spans="1:10" s="395" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="422" t="s">
-        <v>721</v>
-      </c>
-      <c r="B22" s="641" t="s">
+        <v>719</v>
+      </c>
+      <c r="B22" s="620" t="s">
+        <v>716</v>
+      </c>
+      <c r="C22" s="621"/>
+      <c r="D22" s="622"/>
+      <c r="E22" s="620" t="s">
+        <v>717</v>
+      </c>
+      <c r="F22" s="621"/>
+      <c r="G22" s="622"/>
+      <c r="H22" s="620" t="s">
         <v>718</v>
       </c>
-      <c r="C22" s="642"/>
-      <c r="D22" s="643"/>
-      <c r="E22" s="641" t="s">
-        <v>719</v>
-      </c>
-      <c r="F22" s="642"/>
-      <c r="G22" s="643"/>
-      <c r="H22" s="641" t="s">
-        <v>720</v>
-      </c>
-      <c r="I22" s="642"/>
-      <c r="J22" s="643"/>
+      <c r="I22" s="621"/>
+      <c r="J22" s="622"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="423" t="s">
-        <v>713</v>
-      </c>
-      <c r="B23" s="617"/>
-      <c r="C23" s="618"/>
-      <c r="D23" s="619"/>
-      <c r="E23" s="617"/>
-      <c r="F23" s="618"/>
-      <c r="G23" s="619"/>
-      <c r="H23" s="617"/>
-      <c r="I23" s="618"/>
-      <c r="J23" s="619"/>
+        <v>711</v>
+      </c>
+      <c r="B23" s="626" t="s">
+        <v>765</v>
+      </c>
+      <c r="C23" s="627"/>
+      <c r="D23" s="628"/>
+      <c r="E23" s="650" t="s">
+        <v>766</v>
+      </c>
+      <c r="F23" s="651"/>
+      <c r="G23" s="652"/>
+      <c r="H23" s="650" t="s">
+        <v>767</v>
+      </c>
+      <c r="I23" s="651"/>
+      <c r="J23" s="652"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="423" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B24" s="424"/>
       <c r="C24" s="425"/>
@@ -9696,9 +9712,9 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="436"/>
-      <c r="B30" s="620"/>
-      <c r="C30" s="621"/>
-      <c r="D30" s="622"/>
+      <c r="B30" s="653"/>
+      <c r="C30" s="654"/>
+      <c r="D30" s="655"/>
       <c r="E30" s="437"/>
       <c r="F30" s="438"/>
       <c r="G30" s="439"/>
@@ -9708,35 +9724,35 @@
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="423" t="s">
-        <v>715</v>
-      </c>
-      <c r="B31" s="623"/>
-      <c r="C31" s="624"/>
-      <c r="D31" s="625"/>
-      <c r="E31" s="623"/>
-      <c r="F31" s="624"/>
-      <c r="G31" s="625"/>
-      <c r="H31" s="626"/>
-      <c r="I31" s="627"/>
-      <c r="J31" s="628"/>
+        <v>713</v>
+      </c>
+      <c r="B31" s="656"/>
+      <c r="C31" s="657"/>
+      <c r="D31" s="658"/>
+      <c r="E31" s="656"/>
+      <c r="F31" s="657"/>
+      <c r="G31" s="658"/>
+      <c r="H31" s="659"/>
+      <c r="I31" s="660"/>
+      <c r="J31" s="661"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="436" t="s">
+        <v>745</v>
+      </c>
+      <c r="B32" s="644" t="s">
+        <v>746</v>
+      </c>
+      <c r="C32" s="645"/>
+      <c r="D32" s="646"/>
+      <c r="E32" s="644" t="s">
         <v>747</v>
       </c>
-      <c r="B32" s="611" t="s">
-        <v>748</v>
-      </c>
-      <c r="C32" s="612"/>
-      <c r="D32" s="613"/>
-      <c r="E32" s="611" t="s">
-        <v>749</v>
-      </c>
-      <c r="F32" s="612"/>
-      <c r="G32" s="613"/>
-      <c r="H32" s="614"/>
-      <c r="I32" s="615"/>
-      <c r="J32" s="616"/>
+      <c r="F32" s="645"/>
+      <c r="G32" s="646"/>
+      <c r="H32" s="647"/>
+      <c r="I32" s="648"/>
+      <c r="J32" s="649"/>
     </row>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9748,19 +9764,27 @@
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
@@ -9777,27 +9801,19 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9883,57 +9899,57 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
   </sheetData>
@@ -9965,32 +9981,32 @@
     <row r="1" spans="1:19" s="336" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="288"/>
       <c r="C1" s="663" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D1" s="671"/>
       <c r="E1" s="671"/>
       <c r="F1" s="671"/>
       <c r="G1" s="664"/>
       <c r="H1" s="663" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I1" s="671"/>
       <c r="J1" s="664"/>
       <c r="K1" s="663" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L1" s="671"/>
       <c r="M1" s="664"/>
       <c r="N1" s="663" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="O1" s="671"/>
       <c r="P1" s="664"/>
       <c r="Q1" s="392" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="R1" s="663" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="S1" s="664"/>
     </row>
@@ -10062,10 +10078,10 @@
       <c r="G3" s="386"/>
       <c r="H3" s="386"/>
       <c r="I3" s="386" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J3" s="386" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K3" s="386"/>
       <c r="L3" s="386"/>
@@ -10080,7 +10096,7 @@
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="673"/>
       <c r="B4" s="361" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C4" s="337"/>
       <c r="D4" s="290"/>
@@ -10103,7 +10119,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="673"/>
       <c r="B5" s="361" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C5" s="337"/>
       <c r="D5" s="290"/>
@@ -10126,7 +10142,7 @@
     <row r="6" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="674"/>
       <c r="B6" s="362" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C6" s="338"/>
       <c r="D6" s="292"/>
@@ -10162,11 +10178,11 @@
       <c r="H7" s="294"/>
       <c r="I7" s="294"/>
       <c r="J7" s="294" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="K7" s="294"/>
       <c r="L7" s="294" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M7" s="294"/>
       <c r="N7" s="294"/>
@@ -10179,7 +10195,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="676"/>
       <c r="B8" s="364" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C8" s="340"/>
       <c r="D8" s="296"/>
@@ -10202,7 +10218,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="676"/>
       <c r="B9" s="364" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C9" s="340"/>
       <c r="D9" s="296"/>
@@ -10225,7 +10241,7 @@
     <row r="10" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="677"/>
       <c r="B10" s="365" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C10" s="341"/>
       <c r="D10" s="298"/>
@@ -10262,7 +10278,7 @@
       <c r="I11" s="300"/>
       <c r="J11" s="300"/>
       <c r="K11" s="300" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L11" s="300"/>
       <c r="M11" s="300"/>
@@ -10270,7 +10286,7 @@
       <c r="O11" s="300"/>
       <c r="P11" s="300"/>
       <c r="Q11" s="300" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="R11" s="300"/>
       <c r="S11" s="301"/>
@@ -10278,7 +10294,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="679"/>
       <c r="B12" s="367" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C12" s="343"/>
       <c r="D12" s="302"/>
@@ -10301,7 +10317,7 @@
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="679"/>
       <c r="B13" s="367" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C13" s="343"/>
       <c r="D13" s="302"/>
@@ -10324,7 +10340,7 @@
     <row r="14" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="680"/>
       <c r="B14" s="368" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C14" s="344"/>
       <c r="D14" s="304"/>
@@ -10359,11 +10375,11 @@
       <c r="G15" s="306"/>
       <c r="H15" s="306"/>
       <c r="I15" s="306" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J15" s="306"/>
       <c r="K15" s="306" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L15" s="306"/>
       <c r="M15" s="306"/>
@@ -10377,7 +10393,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="682"/>
       <c r="B16" s="370" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C16" s="346"/>
       <c r="D16" s="308"/>
@@ -10400,7 +10416,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="682"/>
       <c r="B17" s="370" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C17" s="346"/>
       <c r="D17" s="308"/>
@@ -10423,7 +10439,7 @@
     <row r="18" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="683"/>
       <c r="B18" s="371" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C18" s="347"/>
       <c r="D18" s="310"/>
@@ -10457,14 +10473,14 @@
       <c r="F19" s="312"/>
       <c r="G19" s="312"/>
       <c r="H19" s="312" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I19" s="312" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J19" s="312"/>
       <c r="K19" s="312" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L19" s="312"/>
       <c r="M19" s="312"/>
@@ -10478,7 +10494,7 @@
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A20" s="685"/>
       <c r="B20" s="373" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C20" s="349"/>
       <c r="D20" s="314"/>
@@ -10501,7 +10517,7 @@
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A21" s="685"/>
       <c r="B21" s="373" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C21" s="349"/>
       <c r="D21" s="314"/>
@@ -10524,7 +10540,7 @@
     <row r="22" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="686"/>
       <c r="B22" s="374" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C22" s="350"/>
       <c r="D22" s="316"/>
@@ -10561,10 +10577,10 @@
       <c r="I23" s="318"/>
       <c r="J23" s="318"/>
       <c r="K23" s="318" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L23" s="318" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M23" s="318"/>
       <c r="N23" s="318"/>
@@ -10577,7 +10593,7 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A24" s="688"/>
       <c r="B24" s="376" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C24" s="352"/>
       <c r="D24" s="320"/>
@@ -10600,7 +10616,7 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A25" s="688"/>
       <c r="B25" s="376" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C25" s="352"/>
       <c r="D25" s="320"/>
@@ -10623,7 +10639,7 @@
     <row r="26" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="689"/>
       <c r="B26" s="377" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C26" s="353"/>
       <c r="D26" s="322"/>
@@ -10658,12 +10674,12 @@
       <c r="G27" s="324"/>
       <c r="H27" s="324"/>
       <c r="I27" s="324" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="J27" s="324"/>
       <c r="K27" s="324"/>
       <c r="L27" s="324" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="M27" s="324"/>
       <c r="N27" s="324"/>
@@ -10676,7 +10692,7 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A28" s="666"/>
       <c r="B28" s="379" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C28" s="355"/>
       <c r="D28" s="326"/>
@@ -10699,7 +10715,7 @@
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A29" s="666"/>
       <c r="B29" s="379" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C29" s="355"/>
       <c r="D29" s="326"/>
@@ -10722,7 +10738,7 @@
     <row r="30" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="667"/>
       <c r="B30" s="380" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C30" s="356"/>
       <c r="D30" s="328"/>
@@ -10763,10 +10779,10 @@
       <c r="M31" s="330"/>
       <c r="N31" s="330"/>
       <c r="O31" s="330" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="P31" s="330" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="Q31" s="330"/>
       <c r="R31" s="330"/>
@@ -10775,7 +10791,7 @@
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A32" s="669"/>
       <c r="B32" s="382" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C32" s="358"/>
       <c r="D32" s="332"/>
@@ -10798,7 +10814,7 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="669"/>
       <c r="B33" s="382" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C33" s="358"/>
       <c r="D33" s="332"/>
@@ -10821,7 +10837,7 @@
     <row r="34" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="670"/>
       <c r="B34" s="383" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C34" s="359"/>
       <c r="D34" s="334"/>
@@ -10936,8 +10952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11110,10 +11126,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="698" t="s">
+      <c r="G10" s="692" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="699" t="s">
+      <c r="H10" s="693" t="s">
         <v>430</v>
       </c>
     </row>
@@ -11133,8 +11149,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="698"/>
-      <c r="H11" s="699"/>
+      <c r="G11" s="692"/>
+      <c r="H11" s="693"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -11152,8 +11168,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="698"/>
-      <c r="H12" s="699"/>
+      <c r="G12" s="692"/>
+      <c r="H12" s="693"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -11171,8 +11187,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="698"/>
-      <c r="H13" s="699"/>
+      <c r="G13" s="692"/>
+      <c r="H13" s="693"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -11190,10 +11206,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="702" t="s">
+      <c r="G14" s="696" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="703" t="s">
+      <c r="H14" s="697" t="s">
         <v>446</v>
       </c>
     </row>
@@ -11213,8 +11229,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="702"/>
-      <c r="H15" s="703"/>
+      <c r="G15" s="696"/>
+      <c r="H15" s="697"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -11305,7 +11321,7 @@
     </row>
     <row r="21" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="69" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B21" s="70"/>
       <c r="C21" s="70"/>
@@ -11326,10 +11342,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="691" t="s">
+      <c r="G22" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="692" t="s">
+      <c r="H22" s="699" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11344,8 +11360,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="691"/>
-      <c r="H23" s="692"/>
+      <c r="G23" s="690"/>
+      <c r="H23" s="699"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -11358,7 +11374,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="691"/>
+      <c r="G24" s="690"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11372,7 +11388,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="691"/>
+      <c r="G25" s="690"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11391,7 +11407,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="691"/>
+      <c r="G26" s="690"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11410,7 +11426,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="691"/>
+      <c r="G27" s="690"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11429,7 +11445,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="691"/>
+      <c r="G28" s="690"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11442,7 +11458,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="691"/>
+      <c r="G29" s="690"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11451,19 +11467,19 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="691"/>
+      <c r="G30" s="690"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="117" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B31" s="118"/>
       <c r="C31" s="118"/>
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="691"/>
+      <c r="G31" s="690"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11482,7 +11498,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="691"/>
+      <c r="G32" s="690"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -11538,10 +11554,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="700" t="s">
+      <c r="G35" s="694" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="701" t="s">
+      <c r="H35" s="695" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11560,8 +11576,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="700"/>
-      <c r="H36" s="701"/>
+      <c r="G36" s="694"/>
+      <c r="H36" s="695"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -11578,8 +11594,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="700"/>
-      <c r="H37" s="701"/>
+      <c r="G37" s="694"/>
+      <c r="H37" s="695"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -11592,8 +11608,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="700"/>
-      <c r="H38" s="701"/>
+      <c r="G38" s="694"/>
+      <c r="H38" s="695"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -11606,8 +11622,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="700"/>
-      <c r="H39" s="701"/>
+      <c r="G39" s="694"/>
+      <c r="H39" s="695"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -11626,7 +11642,7 @@
     </row>
     <row r="41" spans="1:8" s="128" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="123" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B41" s="124"/>
       <c r="C41" s="124"/>
@@ -11690,7 +11706,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="696"/>
+      <c r="H44" s="703"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -11703,10 +11719,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="694" t="s">
+      <c r="G45" s="701" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="696"/>
+      <c r="H45" s="703"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -11724,7 +11740,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="694"/>
+      <c r="G46" s="701"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -11739,7 +11755,7 @@
     </row>
     <row r="48" spans="1:8" s="135" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="130" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B48" s="131"/>
       <c r="C48" s="131"/>
@@ -11764,8 +11780,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="693"/>
-      <c r="G49" s="693" t="s">
+      <c r="F49" s="700"/>
+      <c r="G49" s="700" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -11780,8 +11796,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="693"/>
-      <c r="G50" s="693"/>
+      <c r="F50" s="700"/>
+      <c r="G50" s="700"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -11794,8 +11810,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="693"/>
-      <c r="G51" s="693"/>
+      <c r="F51" s="700"/>
+      <c r="G51" s="700"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11856,10 +11872,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="704" t="s">
+      <c r="G55" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="695" t="s">
+      <c r="H55" s="702" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11874,8 +11890,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="704"/>
-      <c r="H56" s="695"/>
+      <c r="G56" s="691"/>
+      <c r="H56" s="702"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -11888,8 +11904,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="704"/>
-      <c r="H57" s="695"/>
+      <c r="G57" s="691"/>
+      <c r="H57" s="702"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -11907,8 +11923,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="704"/>
-      <c r="H58" s="695"/>
+      <c r="G58" s="691"/>
+      <c r="H58" s="702"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -12074,10 +12090,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="691" t="s">
+      <c r="G72" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="697"/>
+      <c r="H72" s="704"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -12087,8 +12103,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="691"/>
-      <c r="H73" s="697"/>
+      <c r="G73" s="690"/>
+      <c r="H73" s="704"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -12098,8 +12114,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="691"/>
-      <c r="H74" s="697"/>
+      <c r="G74" s="690"/>
+      <c r="H74" s="704"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -12109,8 +12125,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="691"/>
-      <c r="H75" s="697"/>
+      <c r="G75" s="690"/>
+      <c r="H75" s="704"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -12120,8 +12136,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="691"/>
-      <c r="H76" s="697"/>
+      <c r="G76" s="690"/>
+      <c r="H76" s="704"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -12259,10 +12275,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="691" t="s">
+      <c r="G94" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="690" t="s">
+      <c r="H94" s="698" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12273,8 +12289,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="691"/>
-      <c r="H95" s="690"/>
+      <c r="G95" s="690"/>
+      <c r="H95" s="698"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -12283,8 +12299,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="691"/>
-      <c r="H96" s="690"/>
+      <c r="G96" s="690"/>
+      <c r="H96" s="698"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -12299,7 +12315,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="691" t="s">
+      <c r="G97" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12310,7 +12326,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="691"/>
+      <c r="G98" s="690"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -12319,7 +12335,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="691"/>
+      <c r="G99" s="690"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -12334,7 +12350,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="691" t="s">
+      <c r="G100" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12346,7 +12362,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="691"/>
+      <c r="G101" s="690"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -12356,7 +12372,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="691"/>
+      <c r="G102" s="690"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -12366,7 +12382,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="691"/>
+      <c r="G103" s="690"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -12425,7 +12441,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="691" t="s">
+      <c r="G117" s="690" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -12437,7 +12453,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="691"/>
+      <c r="G118" s="690"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -12453,7 +12469,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="691" t="s">
+      <c r="G119" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12464,7 +12480,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="691"/>
+      <c r="G120" s="690"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -12498,7 +12514,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="691" t="s">
+      <c r="G126" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12509,7 +12525,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="691"/>
+      <c r="G127" s="690"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -12535,7 +12551,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="691" t="s">
+      <c r="G130" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12547,7 +12563,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="691"/>
+      <c r="G131" s="690"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -12571,7 +12587,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="691" t="s">
+      <c r="G134" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12582,7 +12598,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="691"/>
+      <c r="G135" s="690"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -12591,7 +12607,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="691"/>
+      <c r="G136" s="690"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -12622,13 +12638,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="691" t="s">
+      <c r="G140" s="690" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="691"/>
+      <c r="G141" s="690"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -12647,7 +12663,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="691"/>
+      <c r="G142" s="690"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12664,7 +12680,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="691"/>
+      <c r="G143" s="690"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12681,11 +12697,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="691"/>
+      <c r="G144" s="690"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="691"/>
+      <c r="G145" s="690"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -12737,7 +12753,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="691" t="s">
+      <c r="G152" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12748,7 +12764,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="691"/>
+      <c r="G153" s="690"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -12759,22 +12775,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G140:G145"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G94:G96"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H94:H96"/>
     <mergeCell ref="G97:G99"/>
     <mergeCell ref="G22:G32"/>
@@ -12786,6 +12786,22 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G140:G145"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12911,10 +12927,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="691" t="s">
+      <c r="G13" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="697"/>
+      <c r="H13" s="704"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -12924,8 +12940,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="691"/>
-      <c r="H14" s="697"/>
+      <c r="G14" s="690"/>
+      <c r="H14" s="704"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -12935,8 +12951,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="691"/>
-      <c r="H15" s="697"/>
+      <c r="G15" s="690"/>
+      <c r="H15" s="704"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -12946,8 +12962,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="691"/>
-      <c r="H16" s="697"/>
+      <c r="G16" s="690"/>
+      <c r="H16" s="704"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -12957,8 +12973,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="691"/>
-      <c r="H17" s="697"/>
+      <c r="G17" s="690"/>
+      <c r="H17" s="704"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -12981,10 +12997,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="691" t="s">
+      <c r="G20" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="690" t="s">
+      <c r="H20" s="698" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12995,8 +13011,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="691"/>
-      <c r="H21" s="690"/>
+      <c r="G21" s="690"/>
+      <c r="H21" s="698"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -13005,8 +13021,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="691"/>
-      <c r="H22" s="690"/>
+      <c r="G22" s="690"/>
+      <c r="H22" s="698"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -13021,7 +13037,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="691" t="s">
+      <c r="G23" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13032,7 +13048,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="691"/>
+      <c r="G24" s="690"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -13041,7 +13057,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="691"/>
+      <c r="G25" s="690"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -13056,7 +13072,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="691" t="s">
+      <c r="G26" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13068,7 +13084,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="691"/>
+      <c r="G27" s="690"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -13078,7 +13094,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="691"/>
+      <c r="G28" s="690"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -13088,7 +13104,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="691"/>
+      <c r="G29" s="690"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -13141,10 +13157,10 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="691" t="s">
+      <c r="G37" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="705" t="s">
+      <c r="H37" s="706" t="s">
         <v>89</v>
       </c>
     </row>
@@ -13161,8 +13177,8 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="691"/>
-      <c r="H38" s="705"/>
+      <c r="G38" s="690"/>
+      <c r="H38" s="706"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
@@ -13177,8 +13193,8 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="691"/>
-      <c r="H39" s="705"/>
+      <c r="G39" s="690"/>
+      <c r="H39" s="706"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
@@ -13188,8 +13204,8 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="691"/>
-      <c r="H40" s="705"/>
+      <c r="G40" s="690"/>
+      <c r="H40" s="706"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
@@ -13199,8 +13215,8 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="691"/>
-      <c r="H41" s="705"/>
+      <c r="G41" s="690"/>
+      <c r="H41" s="706"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
@@ -13230,7 +13246,7 @@
       <c r="G46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="697" t="s">
+      <c r="H46" s="704" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13242,10 +13258,10 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="691" t="s">
+      <c r="G47" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="697"/>
+      <c r="H47" s="704"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
@@ -13255,7 +13271,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="691"/>
+      <c r="G48" s="690"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -13266,7 +13282,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="691"/>
+      <c r="G49" s="690"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -13294,10 +13310,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="691" t="s">
+      <c r="G54" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="690" t="s">
+      <c r="H54" s="698" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13308,8 +13324,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="691"/>
-      <c r="H55" s="690"/>
+      <c r="G55" s="690"/>
+      <c r="H55" s="698"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -13318,7 +13334,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="691"/>
+      <c r="G56" s="690"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -13328,7 +13344,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="691"/>
+      <c r="G57" s="690"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13345,7 +13361,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="691"/>
+      <c r="G58" s="690"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13362,7 +13378,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="691"/>
+      <c r="G59" s="690"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -13382,8 +13398,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="691"/>
-      <c r="G61" s="691" t="s">
+      <c r="F61" s="690"/>
+      <c r="G61" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13394,8 +13410,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="691"/>
-      <c r="G62" s="691"/>
+      <c r="F62" s="690"/>
+      <c r="G62" s="690"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -13404,8 +13420,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="691"/>
-      <c r="G63" s="691"/>
+      <c r="F63" s="690"/>
+      <c r="G63" s="690"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -13470,7 +13486,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="691" t="s">
+      <c r="G68" s="690" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -13482,7 +13498,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="691"/>
+      <c r="G69" s="690"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -13498,7 +13514,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="691" t="s">
+      <c r="G70" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13509,7 +13525,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="691"/>
+      <c r="G71" s="690"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -13536,10 +13552,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="691" t="s">
+      <c r="G75" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="697" t="s">
+      <c r="H75" s="704" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13557,8 +13573,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="691"/>
-      <c r="H76" s="697"/>
+      <c r="G76" s="690"/>
+      <c r="H76" s="704"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -13574,8 +13590,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="691"/>
-      <c r="H77" s="697"/>
+      <c r="G77" s="690"/>
+      <c r="H77" s="704"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -13610,10 +13626,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="691" t="s">
+      <c r="G81" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="690" t="s">
+      <c r="H81" s="698" t="s">
         <v>430</v>
       </c>
     </row>
@@ -13631,8 +13647,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="691"/>
-      <c r="H82" s="690"/>
+      <c r="G82" s="690"/>
+      <c r="H82" s="698"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -13648,8 +13664,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="691"/>
-      <c r="H83" s="690"/>
+      <c r="G83" s="690"/>
+      <c r="H83" s="698"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -13665,8 +13681,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="691"/>
-      <c r="H84" s="690"/>
+      <c r="G84" s="690"/>
+      <c r="H84" s="698"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -13682,10 +13698,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="697" t="s">
+      <c r="G85" s="704" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="697" t="s">
+      <c r="H85" s="704" t="s">
         <v>446</v>
       </c>
     </row>
@@ -13703,8 +13719,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="697"/>
-      <c r="H86" s="697"/>
+      <c r="G86" s="704"/>
+      <c r="H86" s="704"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -13736,10 +13752,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="691" t="s">
+      <c r="F89" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="706" t="s">
+      <c r="H89" s="705" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13750,8 +13766,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="691"/>
-      <c r="H90" s="706"/>
+      <c r="F90" s="690"/>
+      <c r="H90" s="705"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -13761,8 +13777,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="691"/>
-      <c r="H91" s="706"/>
+      <c r="F91" s="690"/>
+      <c r="H91" s="705"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -13778,8 +13794,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="691"/>
-      <c r="H92" s="706"/>
+      <c r="F92" s="690"/>
+      <c r="H92" s="705"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -13795,10 +13811,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="691" t="s">
+      <c r="G93" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="697" t="s">
+      <c r="H93" s="704" t="s">
         <v>51</v>
       </c>
     </row>
@@ -13815,8 +13831,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="691"/>
-      <c r="H94" s="697"/>
+      <c r="G94" s="690"/>
+      <c r="H94" s="704"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -13825,7 +13841,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="691" t="s">
+      <c r="G95" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13843,7 +13859,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="691"/>
+      <c r="G96" s="690"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -13866,7 +13882,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="691" t="s">
+      <c r="G99" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13877,7 +13893,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="691"/>
+      <c r="G100" s="690"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -13903,7 +13919,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="691" t="s">
+      <c r="G103" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13915,7 +13931,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="691"/>
+      <c r="G104" s="690"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -13939,7 +13955,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="691" t="s">
+      <c r="G107" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13950,7 +13966,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="691"/>
+      <c r="G108" s="690"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -13959,7 +13975,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="691"/>
+      <c r="G109" s="690"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -13976,7 +13992,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="691" t="s">
+      <c r="G110" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13988,7 +14004,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="691"/>
+      <c r="G111" s="690"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -14001,7 +14017,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="691"/>
+      <c r="G112" s="690"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -14018,7 +14034,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="691"/>
+      <c r="G113" s="690"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -14065,7 +14081,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="691" t="s">
+      <c r="G117" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14084,7 +14100,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="691"/>
+      <c r="G118" s="690"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -14103,7 +14119,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="691"/>
+      <c r="G119" s="690"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -14120,7 +14136,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="691"/>
+      <c r="G120" s="690"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -14137,7 +14153,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="691"/>
+      <c r="G121" s="690"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -14154,7 +14170,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="691"/>
+      <c r="G122" s="690"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -14169,7 +14185,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="691"/>
+      <c r="G123" s="690"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -14274,7 +14290,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="691" t="s">
+      <c r="G133" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14285,36 +14301,13 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="691"/>
+      <c r="G134" s="690"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G47:G49"/>
@@ -14325,6 +14318,29 @@
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="H37:H41"/>
     <mergeCell ref="H46:H47"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14369,10 +14385,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="708" t="s">
+      <c r="B6" s="707" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="690" t="s">
+      <c r="C6" s="698" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -14381,84 +14397,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="691" t="s">
+      <c r="F6" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="690" t="s">
+      <c r="H6" s="698" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="708"/>
-      <c r="C7" s="690"/>
+      <c r="B7" s="707"/>
+      <c r="C7" s="698"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="691"/>
-      <c r="H7" s="690"/>
+      <c r="F7" s="690"/>
+      <c r="H7" s="698"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="708"/>
-      <c r="C8" s="690"/>
+      <c r="B8" s="707"/>
+      <c r="C8" s="698"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="691"/>
-      <c r="H8" s="690"/>
+      <c r="F8" s="690"/>
+      <c r="H8" s="698"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="708"/>
-      <c r="C9" s="690"/>
+      <c r="B9" s="707"/>
+      <c r="C9" s="698"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="691"/>
-      <c r="H9" s="690"/>
+      <c r="F9" s="690"/>
+      <c r="H9" s="698"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="708"/>
-      <c r="C10" s="690"/>
+      <c r="B10" s="707"/>
+      <c r="C10" s="698"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="691"/>
-      <c r="H10" s="690"/>
+      <c r="F10" s="690"/>
+      <c r="H10" s="698"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="708"/>
-      <c r="C11" s="690"/>
+      <c r="B11" s="707"/>
+      <c r="C11" s="698"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="691"/>
-      <c r="H11" s="690"/>
+      <c r="F11" s="690"/>
+      <c r="H11" s="698"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="708"/>
-      <c r="C12" s="690"/>
+      <c r="B12" s="707"/>
+      <c r="C12" s="698"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="691"/>
-      <c r="H12" s="690"/>
+      <c r="F12" s="690"/>
+      <c r="H12" s="698"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -14499,7 +14515,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="691" t="s">
+      <c r="F16" s="690" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14517,7 +14533,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="691"/>
+      <c r="F17" s="690"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -14558,7 +14574,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="691" t="s">
+      <c r="F21" s="690" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -14578,7 +14594,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="691"/>
+      <c r="F22" s="690"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -14593,7 +14609,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="691"/>
+      <c r="F23" s="690"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -14608,7 +14624,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="691"/>
+      <c r="F24" s="690"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -14623,7 +14639,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="691"/>
+      <c r="F25" s="690"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -14632,7 +14648,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="691"/>
+      <c r="F26" s="690"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -14663,10 +14679,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="691" t="s">
+      <c r="F30" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="697" t="s">
+      <c r="H30" s="704" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14683,8 +14699,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="691"/>
-      <c r="H31" s="697"/>
+      <c r="F31" s="690"/>
+      <c r="H31" s="704"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -14699,8 +14715,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="691"/>
-      <c r="H32" s="697"/>
+      <c r="F32" s="690"/>
+      <c r="H32" s="704"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -14709,8 +14725,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="691"/>
-      <c r="H33" s="697"/>
+      <c r="F33" s="690"/>
+      <c r="H33" s="704"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -14719,10 +14735,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="691" t="s">
+      <c r="G34" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="697"/>
+      <c r="H34" s="704"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -14731,8 +14747,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="691"/>
-      <c r="H35" s="697"/>
+      <c r="G35" s="690"/>
+      <c r="H35" s="704"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -14741,8 +14757,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="691"/>
-      <c r="H36" s="697"/>
+      <c r="G36" s="690"/>
+      <c r="H36" s="704"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -14757,10 +14773,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="691" t="s">
+      <c r="F37" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="697" t="s">
+      <c r="H37" s="704" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14771,8 +14787,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="691"/>
-      <c r="H38" s="697"/>
+      <c r="F38" s="690"/>
+      <c r="H38" s="704"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -14781,8 +14797,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="691"/>
-      <c r="H39" s="697"/>
+      <c r="F39" s="690"/>
+      <c r="H39" s="704"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -14797,10 +14813,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="691" t="s">
+      <c r="G40" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="697"/>
+      <c r="H40" s="704"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -14810,8 +14826,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="691"/>
-      <c r="H41" s="697"/>
+      <c r="G41" s="690"/>
+      <c r="H41" s="704"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -14821,8 +14837,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="691"/>
-      <c r="H42" s="697"/>
+      <c r="G42" s="690"/>
+      <c r="H42" s="704"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -14832,8 +14848,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="691"/>
-      <c r="H43" s="697"/>
+      <c r="G43" s="690"/>
+      <c r="H43" s="704"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -14843,8 +14859,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="691"/>
-      <c r="H44" s="697"/>
+      <c r="G44" s="690"/>
+      <c r="H44" s="704"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -14867,10 +14883,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="691" t="s">
+      <c r="G47" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="690" t="s">
+      <c r="H47" s="698" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14881,8 +14897,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="691"/>
-      <c r="H48" s="690"/>
+      <c r="G48" s="690"/>
+      <c r="H48" s="698"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -14891,8 +14907,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="691"/>
-      <c r="H49" s="690"/>
+      <c r="G49" s="690"/>
+      <c r="H49" s="698"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -14907,7 +14923,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="691" t="s">
+      <c r="G50" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14918,7 +14934,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="691"/>
+      <c r="G51" s="690"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -14927,7 +14943,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="691"/>
+      <c r="G52" s="690"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -14943,7 +14959,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="691" t="s">
+      <c r="G53" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14956,7 +14972,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="691"/>
+      <c r="G54" s="690"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -14967,7 +14983,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="691"/>
+      <c r="G55" s="690"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -14978,7 +14994,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="691"/>
+      <c r="G56" s="690"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -15099,10 +15115,10 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="691" t="s">
+      <c r="G69" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="705" t="s">
+      <c r="H69" s="706" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15119,8 +15135,8 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="691"/>
-      <c r="H70" s="705"/>
+      <c r="G70" s="690"/>
+      <c r="H70" s="706"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
@@ -15135,8 +15151,8 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="691"/>
-      <c r="H71" s="705"/>
+      <c r="G71" s="690"/>
+      <c r="H71" s="706"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
@@ -15146,8 +15162,8 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="691"/>
-      <c r="H72" s="705"/>
+      <c r="G72" s="690"/>
+      <c r="H72" s="706"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
@@ -15157,8 +15173,8 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="691"/>
-      <c r="H73" s="705"/>
+      <c r="G73" s="690"/>
+      <c r="H73" s="706"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
@@ -15188,7 +15204,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="697" t="s">
+      <c r="H78" s="704" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15200,10 +15216,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="691" t="s">
+      <c r="F79" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="697"/>
+      <c r="H79" s="704"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -15213,8 +15229,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="691"/>
-      <c r="H80" s="697"/>
+      <c r="F80" s="690"/>
+      <c r="H80" s="704"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -15224,7 +15240,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="691" t="s">
+      <c r="G81" s="690" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -15237,7 +15253,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="691"/>
+      <c r="G82" s="690"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -15248,7 +15264,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="691"/>
+      <c r="G83" s="690"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15264,10 +15280,10 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="691" t="s">
+      <c r="F85" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="707" t="s">
+      <c r="H85" s="708" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15279,8 +15295,8 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="691"/>
-      <c r="H86" s="707"/>
+      <c r="F86" s="690"/>
+      <c r="H86" s="708"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
@@ -15290,8 +15306,8 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="691"/>
-      <c r="H87" s="707"/>
+      <c r="F87" s="690"/>
+      <c r="H87" s="708"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
@@ -15301,8 +15317,8 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="691"/>
-      <c r="H88" s="707"/>
+      <c r="F88" s="690"/>
+      <c r="H88" s="708"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
@@ -15320,7 +15336,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="697" t="s">
+      <c r="H90" s="704" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15337,10 +15353,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="691" t="s">
+      <c r="F91" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="697"/>
+      <c r="H91" s="704"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -15350,8 +15366,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="691"/>
-      <c r="H92" s="697"/>
+      <c r="F92" s="690"/>
+      <c r="H92" s="704"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -15369,7 +15385,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="697"/>
+      <c r="H93" s="704"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -15387,7 +15403,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="697"/>
+      <c r="H94" s="704"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -15402,7 +15418,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="691" t="s">
+      <c r="F96" s="690" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -15417,7 +15433,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="691"/>
+      <c r="F97" s="690"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -15426,7 +15442,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="691"/>
+      <c r="F98" s="690"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -15441,7 +15457,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="691" t="s">
+      <c r="F99" s="690" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15458,7 +15474,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="691"/>
+      <c r="F100" s="690"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -15470,10 +15486,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="691" t="s">
+      <c r="G101" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="690" t="s">
+      <c r="H101" s="698" t="s">
         <v>40</v>
       </c>
     </row>
@@ -15484,8 +15500,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="691"/>
-      <c r="H102" s="690"/>
+      <c r="G102" s="690"/>
+      <c r="H102" s="698"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -15494,7 +15510,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="691"/>
+      <c r="G103" s="690"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -15504,7 +15520,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="691"/>
+      <c r="G104" s="690"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15521,7 +15537,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="691"/>
+      <c r="G105" s="690"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15538,7 +15554,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="691"/>
+      <c r="G106" s="690"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -15558,7 +15574,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="691" t="s">
+      <c r="F108" s="690" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -15576,7 +15592,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="691"/>
+      <c r="F109" s="690"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -15586,7 +15602,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="691"/>
+      <c r="F110" s="690"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -15596,7 +15612,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="691"/>
+      <c r="F111" s="690"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -15606,7 +15622,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="691"/>
+      <c r="F112" s="690"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -15615,7 +15631,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="691"/>
+      <c r="F113" s="690"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -15630,10 +15646,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="691" t="s">
+      <c r="F114" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="690" t="s">
+      <c r="H114" s="698" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15650,8 +15666,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="691"/>
-      <c r="H115" s="690"/>
+      <c r="F115" s="690"/>
+      <c r="H115" s="698"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -15666,8 +15682,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="691"/>
-      <c r="H116" s="690"/>
+      <c r="F116" s="690"/>
+      <c r="H116" s="698"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -15682,8 +15698,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="691"/>
-      <c r="H117" s="690"/>
+      <c r="F117" s="690"/>
+      <c r="H117" s="698"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -15692,8 +15708,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="691"/>
-      <c r="H118" s="690"/>
+      <c r="F118" s="690"/>
+      <c r="H118" s="698"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -15702,8 +15718,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="691"/>
-      <c r="H119" s="690"/>
+      <c r="F119" s="690"/>
+      <c r="H119" s="698"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -15712,8 +15728,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="691"/>
-      <c r="H120" s="690"/>
+      <c r="F120" s="690"/>
+      <c r="H120" s="698"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -15722,8 +15738,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="691"/>
-      <c r="H121" s="690"/>
+      <c r="F121" s="690"/>
+      <c r="H121" s="698"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -15732,8 +15748,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="691"/>
-      <c r="H122" s="690"/>
+      <c r="F122" s="690"/>
+      <c r="H122" s="698"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -15749,8 +15765,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="691"/>
-      <c r="G123" s="691" t="s">
+      <c r="F123" s="690"/>
+      <c r="G123" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15761,8 +15777,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="691"/>
-      <c r="G124" s="691"/>
+      <c r="F124" s="690"/>
+      <c r="G124" s="690"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -15771,8 +15787,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="691"/>
-      <c r="G125" s="691"/>
+      <c r="F125" s="690"/>
+      <c r="G125" s="690"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -15781,10 +15797,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="691" t="s">
+      <c r="F126" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="697" t="s">
+      <c r="H126" s="704" t="s">
         <v>41</v>
       </c>
     </row>
@@ -15802,8 +15818,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="691"/>
-      <c r="H127" s="697"/>
+      <c r="F127" s="690"/>
+      <c r="H127" s="704"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -15818,7 +15834,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="691"/>
+      <c r="F128" s="690"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -15827,7 +15843,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="691"/>
+      <c r="F129" s="690"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -15837,7 +15853,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="691"/>
+      <c r="F130" s="690"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -15846,7 +15862,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="691"/>
+      <c r="F131" s="690"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -15862,7 +15878,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="691" t="s">
+      <c r="F132" s="690" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15873,7 +15889,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="691"/>
+      <c r="F133" s="690"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -15960,7 +15976,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="691" t="s">
+      <c r="G139" s="690" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -15972,7 +15988,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="691"/>
+      <c r="G140" s="690"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -15988,7 +16004,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="691" t="s">
+      <c r="G141" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15999,7 +16015,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="691"/>
+      <c r="G142" s="690"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -16026,10 +16042,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="691" t="s">
+      <c r="G146" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="697" t="s">
+      <c r="H146" s="704" t="s">
         <v>48</v>
       </c>
     </row>
@@ -16047,8 +16063,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="691"/>
-      <c r="H147" s="697"/>
+      <c r="G147" s="690"/>
+      <c r="H147" s="704"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -16064,8 +16080,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="691"/>
-      <c r="H148" s="697"/>
+      <c r="G148" s="690"/>
+      <c r="H148" s="704"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -16107,10 +16123,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="691" t="s">
+      <c r="F152" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="697" t="s">
+      <c r="H152" s="704" t="s">
         <v>417</v>
       </c>
     </row>
@@ -16127,8 +16143,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="691"/>
-      <c r="H153" s="697"/>
+      <c r="F153" s="690"/>
+      <c r="H153" s="704"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -16143,8 +16159,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="691"/>
-      <c r="H154" s="697"/>
+      <c r="F154" s="690"/>
+      <c r="H154" s="704"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -16155,10 +16171,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="691" t="s">
+      <c r="G155" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="690" t="s">
+      <c r="H155" s="698" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16177,8 +16193,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="691"/>
-      <c r="H156" s="690"/>
+      <c r="G156" s="690"/>
+      <c r="H156" s="698"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -16195,8 +16211,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="691"/>
-      <c r="H157" s="690"/>
+      <c r="G157" s="690"/>
+      <c r="H157" s="698"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -16213,8 +16229,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="691"/>
-      <c r="H158" s="690"/>
+      <c r="G158" s="690"/>
+      <c r="H158" s="698"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -16230,7 +16246,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="691" t="s">
+      <c r="F159" s="690" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -16250,7 +16266,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="691"/>
+      <c r="F160" s="690"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -16268,10 +16284,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="697" t="s">
+      <c r="G161" s="704" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="697" t="s">
+      <c r="H161" s="704" t="s">
         <v>446</v>
       </c>
     </row>
@@ -16290,8 +16306,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="697"/>
-      <c r="H162" s="697"/>
+      <c r="G162" s="704"/>
+      <c r="H162" s="704"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -16310,11 +16326,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="691" t="s">
+      <c r="F164" s="690" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="697" t="s">
+      <c r="H164" s="704" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16326,9 +16342,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="691"/>
+      <c r="F165" s="690"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="697"/>
+      <c r="H165" s="704"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -16338,9 +16354,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="691"/>
+      <c r="F166" s="690"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="697"/>
+      <c r="H166" s="704"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -16356,9 +16372,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="691"/>
+      <c r="F167" s="690"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="697"/>
+      <c r="H167" s="704"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -16373,8 +16389,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="691"/>
-      <c r="H168" s="697"/>
+      <c r="F168" s="690"/>
+      <c r="H168" s="704"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -16383,8 +16399,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="691"/>
-      <c r="H169" s="697"/>
+      <c r="F169" s="690"/>
+      <c r="H169" s="704"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -16396,7 +16412,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="697"/>
+      <c r="H170" s="704"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -16416,10 +16432,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="691" t="s">
+      <c r="F172" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="706" t="s">
+      <c r="H172" s="705" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16430,8 +16446,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="691"/>
-      <c r="H173" s="706"/>
+      <c r="F173" s="690"/>
+      <c r="H173" s="705"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -16441,8 +16457,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="691"/>
-      <c r="H174" s="706"/>
+      <c r="F174" s="690"/>
+      <c r="H174" s="705"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -16458,8 +16474,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="691"/>
-      <c r="H175" s="706"/>
+      <c r="F175" s="690"/>
+      <c r="H175" s="705"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -16475,10 +16491,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="691" t="s">
+      <c r="G176" s="690" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="697" t="s">
+      <c r="H176" s="704" t="s">
         <v>51</v>
       </c>
     </row>
@@ -16495,8 +16511,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="691"/>
-      <c r="H177" s="697"/>
+      <c r="G177" s="690"/>
+      <c r="H177" s="704"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -16505,7 +16521,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="691" t="s">
+      <c r="G178" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16523,7 +16539,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="691"/>
+      <c r="G179" s="690"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -16549,7 +16565,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="697" t="s">
+      <c r="H182" s="704" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16571,7 +16587,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="697"/>
+      <c r="H183" s="704"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -16588,7 +16604,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="691" t="s">
+      <c r="G184" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16602,7 +16618,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="691"/>
+      <c r="G185" s="690"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -16637,7 +16653,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="697" t="s">
+      <c r="H188" s="704" t="s">
         <v>493</v>
       </c>
     </row>
@@ -16658,7 +16674,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="697"/>
+      <c r="H189" s="704"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -16674,10 +16690,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="691" t="s">
+      <c r="G190" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="697"/>
+      <c r="H190" s="704"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -16687,8 +16703,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="691"/>
-      <c r="H191" s="697"/>
+      <c r="G191" s="690"/>
+      <c r="H191" s="704"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -16709,7 +16725,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="691" t="s">
+      <c r="F194" s="690" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16721,7 +16737,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="691"/>
+      <c r="F195" s="690"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16739,7 +16755,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="691" t="s">
+      <c r="G196" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16753,7 +16769,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="691"/>
+      <c r="G197" s="690"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -16762,7 +16778,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="691"/>
+      <c r="G198" s="690"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -16779,7 +16795,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="691" t="s">
+      <c r="G199" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16794,7 +16810,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="691"/>
+      <c r="G200" s="690"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -16810,7 +16826,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="691"/>
+      <c r="G201" s="690"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -16828,7 +16844,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="691"/>
+      <c r="G202" s="690"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -16889,7 +16905,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="691" t="s">
+      <c r="G206" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16909,7 +16925,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="691"/>
+      <c r="G207" s="690"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -16928,7 +16944,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="691"/>
+      <c r="G208" s="690"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -16945,7 +16961,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="691"/>
+      <c r="G209" s="690"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -16962,7 +16978,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="691"/>
+      <c r="G210" s="690"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -16979,7 +16995,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="691"/>
+      <c r="G211" s="690"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -16994,7 +17010,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="691"/>
+      <c r="G212" s="690"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -17013,7 +17029,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="697" t="s">
+      <c r="H213" s="704" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17034,7 +17050,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="697"/>
+      <c r="H214" s="704"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -17050,10 +17066,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="691" t="s">
+      <c r="F215" s="690" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="697" t="s">
+      <c r="H215" s="704" t="s">
         <v>546</v>
       </c>
     </row>
@@ -17065,8 +17081,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="691"/>
-      <c r="H216" s="697"/>
+      <c r="F216" s="690"/>
+      <c r="H216" s="704"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -17132,10 +17148,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="691" t="s">
+      <c r="F220" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="697" t="s">
+      <c r="H220" s="704" t="s">
         <v>556</v>
       </c>
     </row>
@@ -17147,8 +17163,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="691"/>
-      <c r="H221" s="697"/>
+      <c r="F221" s="690"/>
+      <c r="H221" s="704"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -17157,8 +17173,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="691"/>
-      <c r="H222" s="697"/>
+      <c r="F222" s="690"/>
+      <c r="H222" s="704"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -17189,10 +17205,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="691" t="s">
+      <c r="F226" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="706" t="s">
+      <c r="H226" s="705" t="s">
         <v>566</v>
       </c>
     </row>
@@ -17203,8 +17219,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="691"/>
-      <c r="H227" s="706"/>
+      <c r="F227" s="690"/>
+      <c r="H227" s="705"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -17213,8 +17229,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="691"/>
-      <c r="H228" s="706"/>
+      <c r="F228" s="690"/>
+      <c r="H228" s="705"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -17224,8 +17240,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="691"/>
-      <c r="H229" s="706"/>
+      <c r="F229" s="690"/>
+      <c r="H229" s="705"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -17234,8 +17250,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="691"/>
-      <c r="H230" s="706"/>
+      <c r="F230" s="690"/>
+      <c r="H230" s="705"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -17254,7 +17270,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="706"/>
+      <c r="H231" s="705"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -17296,10 +17312,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="691" t="s">
+      <c r="F235" s="690" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="697" t="s">
+      <c r="H235" s="704" t="s">
         <v>580</v>
       </c>
     </row>
@@ -17310,8 +17326,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="691"/>
-      <c r="H236" s="697"/>
+      <c r="F236" s="690"/>
+      <c r="H236" s="704"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -17320,8 +17336,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="691"/>
-      <c r="H237" s="697"/>
+      <c r="F237" s="690"/>
+      <c r="H237" s="704"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -17330,8 +17346,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="691"/>
-      <c r="H238" s="697"/>
+      <c r="F238" s="690"/>
+      <c r="H238" s="704"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -17347,7 +17363,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="691" t="s">
+      <c r="G239" s="690" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17358,7 +17374,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="691"/>
+      <c r="G240" s="690"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -17374,11 +17390,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="691" t="s">
+      <c r="F241" s="690" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="697" t="s">
+      <c r="H241" s="704" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17389,9 +17405,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="691"/>
+      <c r="F242" s="690"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="697"/>
+      <c r="H242" s="704"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
@@ -17508,6 +17524,65 @@
     </row>
   </sheetData>
   <mergeCells count="75">
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="F226:F230"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="H6:H12"/>
+    <mergeCell ref="G53:G56"/>
+    <mergeCell ref="H213:H214"/>
+    <mergeCell ref="F215:F216"/>
+    <mergeCell ref="H215:H216"/>
+    <mergeCell ref="F164:F169"/>
+    <mergeCell ref="H164:H170"/>
+    <mergeCell ref="H172:H175"/>
+    <mergeCell ref="F172:F175"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G141:G142"/>
+    <mergeCell ref="G146:G148"/>
+    <mergeCell ref="H146:H148"/>
+    <mergeCell ref="H152:H154"/>
+    <mergeCell ref="F152:F154"/>
+    <mergeCell ref="F108:F113"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H176:H177"/>
+    <mergeCell ref="G206:G212"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="F91:F92"/>
     <mergeCell ref="F194:F195"/>
     <mergeCell ref="G196:G198"/>
     <mergeCell ref="G199:G202"/>
@@ -17524,65 +17599,6 @@
     <mergeCell ref="F123:F125"/>
     <mergeCell ref="F126:F131"/>
     <mergeCell ref="F21:F26"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="G206:G212"/>
-    <mergeCell ref="H220:H222"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="H6:H12"/>
-    <mergeCell ref="G53:G56"/>
-    <mergeCell ref="H213:H214"/>
-    <mergeCell ref="F215:F216"/>
-    <mergeCell ref="H215:H216"/>
-    <mergeCell ref="F164:F169"/>
-    <mergeCell ref="H164:H170"/>
-    <mergeCell ref="H172:H175"/>
-    <mergeCell ref="F172:F175"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G141:G142"/>
-    <mergeCell ref="G146:G148"/>
-    <mergeCell ref="H146:H148"/>
-    <mergeCell ref="H152:H154"/>
-    <mergeCell ref="F152:F154"/>
-    <mergeCell ref="F108:F113"/>
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="F226:F230"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G239:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="782">
   <si>
     <t>A – Analyser</t>
   </si>
@@ -2433,6 +2433,44 @@
   </si>
   <si>
     <t>Cheville, Maxpid ?, Nacelle,  Control X ?</t>
+  </si>
+  <si>
+    <t>DM 1
+SLCI</t>
+  </si>
+  <si>
+    <t>DS 1
+SLCI</t>
+  </si>
+  <si>
+    <t>DM 2 SLCI</t>
+  </si>
+  <si>
+    <t>DS2 SLCI</t>
+  </si>
+  <si>
+    <t>DM3 SLCI</t>
+  </si>
+  <si>
+    <t>DS 3 SLCI</t>
+  </si>
+  <si>
+    <t>DM 4 Dyn</t>
+  </si>
+  <si>
+    <t>DS 4 Dyn</t>
+  </si>
+  <si>
+    <t>DM5  Dyn</t>
+  </si>
+  <si>
+    <t>DS5 Dyn</t>
+  </si>
+  <si>
+    <t>DM 6 Leq ?</t>
+  </si>
+  <si>
+    <t>DS 6 Leq + SED</t>
   </si>
 </sst>
 </file>
@@ -4680,6 +4718,288 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4719,287 +5039,122 @@
     <xf numFmtId="0" fontId="5" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5046,122 +5201,122 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -5175,6 +5330,27 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5190,144 +5366,6 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5410,61 +5448,61 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6800,10 +6838,10 @@
   <dimension ref="A1:Q95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E22" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="K26" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="G30" sqref="G30:G32"/>
+      <selection pane="bottomRight" activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6888,28 +6926,28 @@
 au
 10/09/17</v>
       </c>
-      <c r="E2" s="523" t="str">
+      <c r="E2" s="491" t="str">
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="490" t="s">
+      <c r="F2" s="506" t="s">
         <v>703</v>
       </c>
-      <c r="G2" s="511" t="s">
+      <c r="G2" s="494" t="s">
         <v>665</v>
       </c>
-      <c r="H2" s="508" t="str">
+      <c r="H2" s="524" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="508" t="str">
+      <c r="I2" s="524" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
-      <c r="J2" s="513" t="s">
+      <c r="J2" s="528" t="s">
         <v>668</v>
       </c>
-      <c r="K2" s="511" t="s">
+      <c r="K2" s="494" t="s">
         <v>752</v>
       </c>
       <c r="L2" s="199" t="s">
@@ -6944,13 +6982,13 @@
 au
 17/09/17</v>
       </c>
-      <c r="E3" s="524"/>
-      <c r="F3" s="491"/>
-      <c r="G3" s="526"/>
-      <c r="H3" s="509"/>
-      <c r="I3" s="509"/>
-      <c r="J3" s="514"/>
-      <c r="K3" s="512"/>
+      <c r="E3" s="492"/>
+      <c r="F3" s="507"/>
+      <c r="G3" s="495"/>
+      <c r="H3" s="525"/>
+      <c r="I3" s="525"/>
+      <c r="J3" s="529"/>
+      <c r="K3" s="527"/>
       <c r="L3" s="202" t="s">
         <v>624</v>
       </c>
@@ -6983,11 +7021,11 @@
 au
 24/09/17</v>
       </c>
-      <c r="E4" s="525"/>
-      <c r="F4" s="492"/>
-      <c r="G4" s="527"/>
-      <c r="H4" s="510"/>
-      <c r="I4" s="510"/>
+      <c r="E4" s="493"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="496"/>
+      <c r="H4" s="526"/>
+      <c r="I4" s="526"/>
       <c r="J4" s="205" t="s">
         <v>667</v>
       </c>
@@ -6998,7 +7036,9 @@
       <c r="M4" s="205" t="s">
         <v>707</v>
       </c>
-      <c r="N4" s="205"/>
+      <c r="N4" s="205" t="s">
+        <v>770</v>
+      </c>
       <c r="O4" s="205"/>
       <c r="P4" s="255"/>
       <c r="Q4" s="206" t="s">
@@ -7024,21 +7064,21 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="487" t="str">
+      <c r="E5" s="503" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="493" t="s">
+      <c r="F5" s="509" t="s">
         <v>689</v>
       </c>
-      <c r="G5" s="528" t="s">
+      <c r="G5" s="497" t="s">
         <v>650</v>
       </c>
-      <c r="H5" s="520" t="str">
+      <c r="H5" s="488" t="str">
         <f>Tri_Semestre!B16</f>
         <v>Mod3.C2, Res2.C4, Res2.C5, Res2.C6, Res2.C7, Res2.C10, Res2.C11</v>
       </c>
-      <c r="I5" s="520" t="str">
+      <c r="I5" s="488" t="str">
         <f>Tri_Semestre!D16</f>
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
@@ -7050,7 +7090,9 @@
         <v>627</v>
       </c>
       <c r="M5" s="210"/>
-      <c r="N5" s="210"/>
+      <c r="N5" s="210" t="s">
+        <v>771</v>
+      </c>
       <c r="O5" s="210"/>
       <c r="P5" s="256"/>
       <c r="Q5" s="211"/>
@@ -7074,11 +7116,11 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="488"/>
-      <c r="F6" s="494"/>
-      <c r="G6" s="529"/>
-      <c r="H6" s="521"/>
-      <c r="I6" s="521"/>
+      <c r="E6" s="504"/>
+      <c r="F6" s="510"/>
+      <c r="G6" s="498"/>
+      <c r="H6" s="489"/>
+      <c r="I6" s="489"/>
       <c r="J6" s="207" t="s">
         <v>670</v>
       </c>
@@ -7113,11 +7155,11 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="489"/>
-      <c r="F7" s="495"/>
-      <c r="G7" s="530"/>
-      <c r="H7" s="522"/>
-      <c r="I7" s="522"/>
+      <c r="E7" s="505"/>
+      <c r="F7" s="511"/>
+      <c r="G7" s="499"/>
+      <c r="H7" s="490"/>
+      <c r="I7" s="490"/>
       <c r="J7" s="214" t="s">
         <v>671</v>
       </c>
@@ -7126,7 +7168,9 @@
         <v>768</v>
       </c>
       <c r="M7" s="214"/>
-      <c r="N7" s="214"/>
+      <c r="N7" s="214" t="s">
+        <v>772</v>
+      </c>
       <c r="O7" s="214"/>
       <c r="P7" s="258"/>
       <c r="Q7" s="215"/>
@@ -7154,7 +7198,7 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="504" t="s">
+      <c r="F8" s="520" t="s">
         <v>694</v>
       </c>
       <c r="G8" s="218" t="s">
@@ -7176,7 +7220,9 @@
         <v>628</v>
       </c>
       <c r="M8" s="218"/>
-      <c r="N8" s="218"/>
+      <c r="N8" s="218" t="s">
+        <v>773</v>
+      </c>
       <c r="O8" s="218"/>
       <c r="P8" s="259"/>
       <c r="Q8" s="220"/>
@@ -7195,23 +7241,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="502" t="s">
+      <c r="E9" s="518" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="505"/>
-      <c r="G9" s="496" t="s">
+      <c r="F9" s="521"/>
+      <c r="G9" s="512" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="497"/>
-      <c r="I9" s="497"/>
-      <c r="J9" s="497"/>
-      <c r="K9" s="497"/>
-      <c r="L9" s="497"/>
-      <c r="M9" s="497"/>
-      <c r="N9" s="497"/>
-      <c r="O9" s="497"/>
-      <c r="P9" s="497"/>
-      <c r="Q9" s="498"/>
+      <c r="H9" s="513"/>
+      <c r="I9" s="513"/>
+      <c r="J9" s="513"/>
+      <c r="K9" s="513"/>
+      <c r="L9" s="513"/>
+      <c r="M9" s="513"/>
+      <c r="N9" s="513"/>
+      <c r="O9" s="513"/>
+      <c r="P9" s="513"/>
+      <c r="Q9" s="514"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -7227,19 +7273,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="503"/>
-      <c r="F10" s="505"/>
-      <c r="G10" s="499"/>
-      <c r="H10" s="500"/>
-      <c r="I10" s="500"/>
-      <c r="J10" s="500"/>
-      <c r="K10" s="500"/>
-      <c r="L10" s="500"/>
-      <c r="M10" s="500"/>
-      <c r="N10" s="500"/>
-      <c r="O10" s="500"/>
-      <c r="P10" s="500"/>
-      <c r="Q10" s="501"/>
+      <c r="E10" s="519"/>
+      <c r="F10" s="521"/>
+      <c r="G10" s="515"/>
+      <c r="H10" s="516"/>
+      <c r="I10" s="516"/>
+      <c r="J10" s="516"/>
+      <c r="K10" s="516"/>
+      <c r="L10" s="516"/>
+      <c r="M10" s="516"/>
+      <c r="N10" s="516"/>
+      <c r="O10" s="516"/>
+      <c r="P10" s="516"/>
+      <c r="Q10" s="517"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -7260,26 +7306,26 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="537" t="str">
+      <c r="E11" s="453" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="505"/>
-      <c r="G11" s="515" t="s">
+      <c r="F11" s="521"/>
+      <c r="G11" s="486" t="s">
         <v>651</v>
       </c>
-      <c r="H11" s="539" t="str">
+      <c r="H11" s="468" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="539" t="str">
+      <c r="I11" s="468" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
-      <c r="J11" s="515" t="s">
+      <c r="J11" s="486" t="s">
         <v>672</v>
       </c>
-      <c r="K11" s="515" t="s">
+      <c r="K11" s="486" t="s">
         <v>684</v>
       </c>
       <c r="L11" s="223" t="s">
@@ -7312,18 +7358,20 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="538"/>
-      <c r="F12" s="506"/>
-      <c r="G12" s="516"/>
-      <c r="H12" s="540"/>
-      <c r="I12" s="540"/>
-      <c r="J12" s="516"/>
-      <c r="K12" s="516"/>
+      <c r="E12" s="454"/>
+      <c r="F12" s="522"/>
+      <c r="G12" s="487"/>
+      <c r="H12" s="469"/>
+      <c r="I12" s="469"/>
+      <c r="J12" s="487"/>
+      <c r="K12" s="487"/>
       <c r="L12" s="226" t="s">
         <v>630</v>
       </c>
       <c r="M12" s="226"/>
-      <c r="N12" s="226"/>
+      <c r="N12" s="226" t="s">
+        <v>774</v>
+      </c>
       <c r="O12" s="226"/>
       <c r="P12" s="261"/>
       <c r="Q12" s="227"/>
@@ -7347,21 +7395,21 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="547" t="str">
+      <c r="E13" s="476" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="507" t="s">
+      <c r="F13" s="523" t="s">
         <v>696</v>
       </c>
-      <c r="G13" s="484" t="s">
+      <c r="G13" s="500" t="s">
         <v>652</v>
       </c>
-      <c r="H13" s="517" t="str">
+      <c r="H13" s="530" t="str">
         <f>Tri_Semestre!B29</f>
         <v>Mod2.C13, Mod2.C14, Mod2.C15, Mod2.C16, Mod2.C17, Res1.C1, Res1.C2</v>
       </c>
-      <c r="I13" s="517" t="str">
+      <c r="I13" s="530" t="str">
         <f>Tri_Semestre!D29</f>
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
@@ -7373,7 +7421,9 @@
         <v>631</v>
       </c>
       <c r="M13" s="229"/>
-      <c r="N13" s="229"/>
+      <c r="N13" s="229" t="s">
+        <v>775</v>
+      </c>
       <c r="O13" s="229"/>
       <c r="P13" s="262"/>
       <c r="Q13" s="230"/>
@@ -7397,11 +7447,11 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="548"/>
-      <c r="F14" s="485"/>
-      <c r="G14" s="485"/>
-      <c r="H14" s="518"/>
-      <c r="I14" s="518"/>
+      <c r="E14" s="477"/>
+      <c r="F14" s="501"/>
+      <c r="G14" s="501"/>
+      <c r="H14" s="531"/>
+      <c r="I14" s="531"/>
       <c r="J14" s="384" t="s">
         <v>702</v>
       </c>
@@ -7434,11 +7484,11 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="549"/>
-      <c r="F15" s="486"/>
-      <c r="G15" s="486"/>
-      <c r="H15" s="519"/>
-      <c r="I15" s="519"/>
+      <c r="E15" s="478"/>
+      <c r="F15" s="502"/>
+      <c r="G15" s="502"/>
+      <c r="H15" s="532"/>
+      <c r="I15" s="532"/>
       <c r="J15" s="235" t="s">
         <v>686</v>
       </c>
@@ -7451,7 +7501,9 @@
       <c r="M15" s="235" t="s">
         <v>636</v>
       </c>
-      <c r="N15" s="235"/>
+      <c r="N15" s="235" t="s">
+        <v>776</v>
+      </c>
       <c r="O15" s="235"/>
       <c r="P15" s="264"/>
       <c r="Q15" s="236"/>
@@ -7475,21 +7527,21 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="482" t="str">
+      <c r="E16" s="455" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="447" t="s">
+      <c r="F16" s="541" t="s">
         <v>695</v>
       </c>
-      <c r="G16" s="482" t="s">
+      <c r="G16" s="455" t="s">
         <v>653</v>
       </c>
-      <c r="H16" s="550" t="str">
+      <c r="H16" s="482" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="552" t="str">
+      <c r="I16" s="484" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
@@ -7527,11 +7579,11 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="483"/>
-      <c r="F17" s="448"/>
-      <c r="G17" s="483"/>
-      <c r="H17" s="551"/>
-      <c r="I17" s="553"/>
+      <c r="E17" s="456"/>
+      <c r="F17" s="542"/>
+      <c r="G17" s="456"/>
+      <c r="H17" s="483"/>
+      <c r="I17" s="485"/>
       <c r="J17" s="247" t="s">
         <v>644</v>
       </c>
@@ -7542,7 +7594,9 @@
       <c r="M17" s="247" t="s">
         <v>636</v>
       </c>
-      <c r="N17" s="247"/>
+      <c r="N17" s="247" t="s">
+        <v>777</v>
+      </c>
       <c r="O17" s="247"/>
       <c r="P17" s="266"/>
       <c r="Q17" s="248"/>
@@ -7561,21 +7615,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="541" t="s">
+      <c r="E18" s="470" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="541"/>
-      <c r="G18" s="541"/>
-      <c r="H18" s="541"/>
-      <c r="I18" s="541"/>
-      <c r="J18" s="541"/>
-      <c r="K18" s="541"/>
-      <c r="L18" s="541"/>
-      <c r="M18" s="541"/>
-      <c r="N18" s="541"/>
-      <c r="O18" s="541"/>
-      <c r="P18" s="542"/>
-      <c r="Q18" s="543"/>
+      <c r="F18" s="470"/>
+      <c r="G18" s="470"/>
+      <c r="H18" s="470"/>
+      <c r="I18" s="470"/>
+      <c r="J18" s="470"/>
+      <c r="K18" s="470"/>
+      <c r="L18" s="470"/>
+      <c r="M18" s="470"/>
+      <c r="N18" s="470"/>
+      <c r="O18" s="470"/>
+      <c r="P18" s="471"/>
+      <c r="Q18" s="472"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -7591,19 +7645,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="544"/>
-      <c r="F19" s="544"/>
-      <c r="G19" s="544"/>
-      <c r="H19" s="544"/>
-      <c r="I19" s="544"/>
-      <c r="J19" s="544"/>
-      <c r="K19" s="544"/>
-      <c r="L19" s="544"/>
-      <c r="M19" s="544"/>
-      <c r="N19" s="544"/>
-      <c r="O19" s="544"/>
-      <c r="P19" s="545"/>
-      <c r="Q19" s="546"/>
+      <c r="E19" s="473"/>
+      <c r="F19" s="473"/>
+      <c r="G19" s="473"/>
+      <c r="H19" s="473"/>
+      <c r="I19" s="473"/>
+      <c r="J19" s="473"/>
+      <c r="K19" s="473"/>
+      <c r="L19" s="473"/>
+      <c r="M19" s="473"/>
+      <c r="N19" s="473"/>
+      <c r="O19" s="473"/>
+      <c r="P19" s="474"/>
+      <c r="Q19" s="475"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -7624,21 +7678,21 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="471" t="str">
+      <c r="E20" s="457" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="449" t="s">
+      <c r="F20" s="543" t="s">
         <v>698</v>
       </c>
-      <c r="G20" s="471" t="s">
+      <c r="G20" s="457" t="s">
         <v>697</v>
       </c>
-      <c r="H20" s="463" t="str">
+      <c r="H20" s="536" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="463" t="str">
+      <c r="I20" s="536" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
@@ -7674,18 +7728,20 @@
 au
 21/01/18</v>
       </c>
-      <c r="E21" s="472"/>
-      <c r="F21" s="450"/>
-      <c r="G21" s="472"/>
-      <c r="H21" s="464"/>
-      <c r="I21" s="464"/>
+      <c r="E21" s="458"/>
+      <c r="F21" s="544"/>
+      <c r="G21" s="458"/>
+      <c r="H21" s="537"/>
+      <c r="I21" s="537"/>
       <c r="J21" s="250"/>
       <c r="K21" s="250"/>
       <c r="L21" s="250" t="s">
         <v>639</v>
       </c>
       <c r="M21" s="250"/>
-      <c r="N21" s="250"/>
+      <c r="N21" s="250" t="s">
+        <v>778</v>
+      </c>
       <c r="O21" s="250"/>
       <c r="P21" s="268"/>
       <c r="Q21" s="251"/>
@@ -7709,18 +7765,20 @@
 au
 28/01/18</v>
       </c>
-      <c r="E22" s="473"/>
-      <c r="F22" s="451"/>
-      <c r="G22" s="473"/>
-      <c r="H22" s="465"/>
-      <c r="I22" s="465"/>
+      <c r="E22" s="459"/>
+      <c r="F22" s="545"/>
+      <c r="G22" s="459"/>
+      <c r="H22" s="538"/>
+      <c r="I22" s="538"/>
       <c r="J22" s="241"/>
       <c r="K22" s="241"/>
       <c r="L22" s="241" t="s">
         <v>640</v>
       </c>
       <c r="M22" s="241"/>
-      <c r="N22" s="241"/>
+      <c r="N22" s="241" t="s">
+        <v>779</v>
+      </c>
       <c r="O22" s="241"/>
       <c r="P22" s="269"/>
       <c r="Q22" s="242"/>
@@ -7744,21 +7802,21 @@
 au
 04/02/18</v>
       </c>
-      <c r="E23" s="474" t="str">
+      <c r="E23" s="460" t="str">
         <f>Tri_Semestre!A48</f>
         <v>Cycle 7 : Modélisation des chaînes de solide dans le but de déterminer les contraintes géométriques dans un mécanisme.</v>
       </c>
-      <c r="F23" s="452" t="s">
+      <c r="F23" s="546" t="s">
         <v>699</v>
       </c>
-      <c r="G23" s="474" t="s">
+      <c r="G23" s="460" t="s">
         <v>654</v>
       </c>
-      <c r="H23" s="466" t="str">
+      <c r="H23" s="539" t="str">
         <f>Tri_Semestre!B53</f>
         <v xml:space="preserve">Mod2.C34, Mod2.C35, Mod2.C36, </v>
       </c>
-      <c r="I23" s="466" t="str">
+      <c r="I23" s="539" t="str">
         <f>Tri_Semestre!D53</f>
         <v>Mod2.C34.SF1, , , Res2.C15.SF3</v>
       </c>
@@ -7794,11 +7852,11 @@
 au
 11/02/18</v>
       </c>
-      <c r="E24" s="475"/>
-      <c r="F24" s="453"/>
-      <c r="G24" s="475"/>
-      <c r="H24" s="467"/>
-      <c r="I24" s="467"/>
+      <c r="E24" s="461"/>
+      <c r="F24" s="547"/>
+      <c r="G24" s="461"/>
+      <c r="H24" s="540"/>
+      <c r="I24" s="540"/>
       <c r="J24" s="187" t="s">
         <v>647</v>
       </c>
@@ -7807,7 +7865,9 @@
         <v>641</v>
       </c>
       <c r="M24" s="187"/>
-      <c r="N24" s="187"/>
+      <c r="N24" s="187" t="s">
+        <v>780</v>
+      </c>
       <c r="O24" s="187"/>
       <c r="P24" s="271"/>
       <c r="Q24" s="188"/>
@@ -7826,21 +7886,21 @@
         <f>CONCATENATE(TEXT(B25,"JJ/MM/AA")," au ",TEXT(C25,"JJ/MM/AA"))</f>
         <v>12/02/18 au 18/02/18</v>
       </c>
-      <c r="E25" s="541" t="s">
+      <c r="E25" s="470" t="s">
         <v>612</v>
       </c>
-      <c r="F25" s="541"/>
-      <c r="G25" s="541"/>
-      <c r="H25" s="541"/>
-      <c r="I25" s="541"/>
-      <c r="J25" s="541"/>
-      <c r="K25" s="541"/>
-      <c r="L25" s="541"/>
-      <c r="M25" s="541"/>
-      <c r="N25" s="541"/>
-      <c r="O25" s="541"/>
-      <c r="P25" s="542"/>
-      <c r="Q25" s="543"/>
+      <c r="F25" s="470"/>
+      <c r="G25" s="470"/>
+      <c r="H25" s="470"/>
+      <c r="I25" s="470"/>
+      <c r="J25" s="470"/>
+      <c r="K25" s="470"/>
+      <c r="L25" s="470"/>
+      <c r="M25" s="470"/>
+      <c r="N25" s="470"/>
+      <c r="O25" s="470"/>
+      <c r="P25" s="471"/>
+      <c r="Q25" s="472"/>
     </row>
     <row r="26" spans="1:17" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="158"/>
@@ -7856,19 +7916,19 @@
         <f>CONCATENATE(TEXT(B26,"JJ/MM/AA")," au ",TEXT(C26,"JJ/MM/AA"))</f>
         <v>19/02/18 au 25/02/18</v>
       </c>
-      <c r="E26" s="544"/>
-      <c r="F26" s="544"/>
-      <c r="G26" s="544"/>
-      <c r="H26" s="544"/>
-      <c r="I26" s="544"/>
-      <c r="J26" s="544"/>
-      <c r="K26" s="544"/>
-      <c r="L26" s="544"/>
-      <c r="M26" s="544"/>
-      <c r="N26" s="544"/>
-      <c r="O26" s="544"/>
-      <c r="P26" s="545"/>
-      <c r="Q26" s="546"/>
+      <c r="E26" s="473"/>
+      <c r="F26" s="473"/>
+      <c r="G26" s="473"/>
+      <c r="H26" s="473"/>
+      <c r="I26" s="473"/>
+      <c r="J26" s="473"/>
+      <c r="K26" s="473"/>
+      <c r="L26" s="473"/>
+      <c r="M26" s="473"/>
+      <c r="N26" s="473"/>
+      <c r="O26" s="473"/>
+      <c r="P26" s="474"/>
+      <c r="Q26" s="475"/>
     </row>
     <row r="27" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A27" s="158">
@@ -7889,21 +7949,21 @@
 au
 04/03/18</v>
       </c>
-      <c r="E27" s="476" t="str">
+      <c r="E27" s="462" t="str">
         <f>Tri_Semestre!A54</f>
         <v>Cycle 8 : analyse de la chaine d'information d'un système.</v>
       </c>
-      <c r="F27" s="454" t="s">
+      <c r="F27" s="548" t="s">
         <v>700</v>
       </c>
-      <c r="G27" s="476" t="s">
+      <c r="G27" s="462" t="s">
         <v>655</v>
       </c>
-      <c r="H27" s="468" t="str">
+      <c r="H27" s="479" t="str">
         <f>Tri_Semestre!B63</f>
         <v>Exp2.C3, Exp2.C4, Exp2.C5, Exp2.C6, Exp3.C7, Exp3.C8, Exp3.C2, Exp3.C3</v>
       </c>
-      <c r="I27" s="468" t="str">
+      <c r="I27" s="479" t="str">
         <f>Tri_Semestre!D63</f>
         <v>Exp2.C3.SF1, , , Exp2.C6.SF1, Exp3.C7.SF1, Exp3.C7.SF2, Exp3.C2.SF1, Exp3.C3.SF1</v>
       </c>
@@ -7939,18 +7999,20 @@
 au
 11/03/18</v>
       </c>
-      <c r="E28" s="477"/>
-      <c r="F28" s="455"/>
-      <c r="G28" s="477"/>
-      <c r="H28" s="469"/>
-      <c r="I28" s="469"/>
+      <c r="E28" s="463"/>
+      <c r="F28" s="549"/>
+      <c r="G28" s="463"/>
+      <c r="H28" s="480"/>
+      <c r="I28" s="480"/>
       <c r="J28" s="179"/>
       <c r="K28" s="179"/>
       <c r="L28" s="179" t="s">
         <v>384</v>
       </c>
       <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
+      <c r="N28" s="179" t="s">
+        <v>781</v>
+      </c>
       <c r="O28" s="179"/>
       <c r="P28" s="273"/>
       <c r="Q28" s="180"/>
@@ -7974,11 +8036,11 @@
 au
 18/03/18</v>
       </c>
-      <c r="E29" s="478"/>
-      <c r="F29" s="456"/>
-      <c r="G29" s="478"/>
-      <c r="H29" s="470"/>
-      <c r="I29" s="470"/>
+      <c r="E29" s="464"/>
+      <c r="F29" s="550"/>
+      <c r="G29" s="464"/>
+      <c r="H29" s="481"/>
+      <c r="I29" s="481"/>
       <c r="J29" s="182" t="s">
         <v>643</v>
       </c>
@@ -8013,15 +8075,15 @@
 au
 25/03/18</v>
       </c>
-      <c r="E30" s="479" t="s">
+      <c r="E30" s="465" t="s">
         <v>620</v>
       </c>
-      <c r="F30" s="457" t="s">
+      <c r="F30" s="551" t="s">
         <v>701</v>
       </c>
-      <c r="G30" s="479"/>
-      <c r="H30" s="460"/>
-      <c r="I30" s="460"/>
+      <c r="G30" s="465"/>
+      <c r="H30" s="533"/>
+      <c r="I30" s="533"/>
       <c r="J30" s="190"/>
       <c r="K30" s="190"/>
       <c r="L30" s="190"/>
@@ -8050,11 +8112,11 @@
 au
 01/04/18</v>
       </c>
-      <c r="E31" s="480"/>
-      <c r="F31" s="458"/>
-      <c r="G31" s="480"/>
-      <c r="H31" s="461"/>
-      <c r="I31" s="461"/>
+      <c r="E31" s="466"/>
+      <c r="F31" s="552"/>
+      <c r="G31" s="466"/>
+      <c r="H31" s="534"/>
+      <c r="I31" s="534"/>
       <c r="J31" s="193"/>
       <c r="K31" s="193"/>
       <c r="L31" s="193"/>
@@ -8083,11 +8145,11 @@
 au
 08/04/18</v>
       </c>
-      <c r="E32" s="481"/>
-      <c r="F32" s="459"/>
-      <c r="G32" s="481"/>
-      <c r="H32" s="462"/>
-      <c r="I32" s="462"/>
+      <c r="E32" s="467"/>
+      <c r="F32" s="553"/>
+      <c r="G32" s="467"/>
+      <c r="H32" s="535"/>
+      <c r="I32" s="535"/>
       <c r="J32" s="196"/>
       <c r="K32" s="196"/>
       <c r="L32" s="196"/>
@@ -8113,21 +8175,21 @@
         <f>CONCATENATE(TEXT(B33,"JJ/MM/AA")," au ",TEXT(C33,"JJ/MM/AA"))</f>
         <v>09/04/18 au 15/04/18</v>
       </c>
-      <c r="E33" s="531" t="s">
+      <c r="E33" s="447" t="s">
         <v>613</v>
       </c>
-      <c r="F33" s="531"/>
-      <c r="G33" s="531"/>
-      <c r="H33" s="531"/>
-      <c r="I33" s="531"/>
-      <c r="J33" s="531"/>
-      <c r="K33" s="531"/>
-      <c r="L33" s="531"/>
-      <c r="M33" s="531"/>
-      <c r="N33" s="531"/>
-      <c r="O33" s="531"/>
-      <c r="P33" s="532"/>
-      <c r="Q33" s="533"/>
+      <c r="F33" s="447"/>
+      <c r="G33" s="447"/>
+      <c r="H33" s="447"/>
+      <c r="I33" s="447"/>
+      <c r="J33" s="447"/>
+      <c r="K33" s="447"/>
+      <c r="L33" s="447"/>
+      <c r="M33" s="447"/>
+      <c r="N33" s="447"/>
+      <c r="O33" s="447"/>
+      <c r="P33" s="448"/>
+      <c r="Q33" s="449"/>
     </row>
     <row r="34" spans="1:17" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A34" s="160"/>
@@ -8143,19 +8205,19 @@
         <f>CONCATENATE(TEXT(B34,"JJ/MM/AA")," au ",TEXT(C34,"JJ/MM/AA"))</f>
         <v>16/04/18 au 22/04/18</v>
       </c>
-      <c r="E34" s="534"/>
-      <c r="F34" s="534"/>
-      <c r="G34" s="534"/>
-      <c r="H34" s="534"/>
-      <c r="I34" s="534"/>
-      <c r="J34" s="534"/>
-      <c r="K34" s="534"/>
-      <c r="L34" s="534"/>
-      <c r="M34" s="534"/>
-      <c r="N34" s="534"/>
-      <c r="O34" s="534"/>
-      <c r="P34" s="535"/>
-      <c r="Q34" s="536"/>
+      <c r="E34" s="450"/>
+      <c r="F34" s="450"/>
+      <c r="G34" s="450"/>
+      <c r="H34" s="450"/>
+      <c r="I34" s="450"/>
+      <c r="J34" s="450"/>
+      <c r="K34" s="450"/>
+      <c r="L34" s="450"/>
+      <c r="M34" s="450"/>
+      <c r="N34" s="450"/>
+      <c r="O34" s="450"/>
+      <c r="P34" s="451"/>
+      <c r="Q34" s="452"/>
     </row>
     <row r="35" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A35" s="158"/>
@@ -8645,6 +8707,44 @@
     </row>
   </sheetData>
   <mergeCells count="54">
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="F27:F29"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="H30:H32"/>
+    <mergeCell ref="I30:I32"/>
+    <mergeCell ref="H20:H22"/>
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="H27:H29"/>
+    <mergeCell ref="G20:G22"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G27:G29"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G9:Q10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F8:F12"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="G5:G7"/>
     <mergeCell ref="E33:Q34"/>
     <mergeCell ref="E11:E12"/>
     <mergeCell ref="E16:E17"/>
@@ -8661,44 +8761,6 @@
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G9:Q10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F8:F12"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="I2:I4"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="G20:G22"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G27:G29"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H30:H32"/>
-    <mergeCell ref="I30:I32"/>
-    <mergeCell ref="H20:H22"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="H27:H29"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="F27:F29"/>
-    <mergeCell ref="F30:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8722,38 +8784,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="582" t="s">
+      <c r="A1" s="558" t="s">
         <v>714</v>
       </c>
-      <c r="B1" s="583"/>
-      <c r="C1" s="583"/>
-      <c r="D1" s="583"/>
-      <c r="E1" s="583"/>
-      <c r="F1" s="582" t="s">
+      <c r="B1" s="559"/>
+      <c r="C1" s="559"/>
+      <c r="D1" s="559"/>
+      <c r="E1" s="559"/>
+      <c r="F1" s="558" t="s">
         <v>715</v>
       </c>
-      <c r="G1" s="583"/>
-      <c r="H1" s="583"/>
-      <c r="I1" s="583"/>
-      <c r="J1" s="583"/>
+      <c r="G1" s="559"/>
+      <c r="H1" s="559"/>
+      <c r="I1" s="559"/>
+      <c r="J1" s="559"/>
     </row>
     <row r="2" spans="1:10" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="584" t="str">
+      <c r="A2" s="569" t="str">
         <f>'2017-2018'!E2:E4</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="B2" s="585"/>
-      <c r="C2" s="585"/>
-      <c r="D2" s="585"/>
-      <c r="E2" s="585"/>
-      <c r="F2" s="586" t="str">
+      <c r="B2" s="570"/>
+      <c r="C2" s="570"/>
+      <c r="D2" s="570"/>
+      <c r="E2" s="570"/>
+      <c r="F2" s="571" t="str">
         <f>'2017-2018'!F2:F4</f>
         <v>Comment améliorer la fiabilité d'un modèle dans le but de minimiser les écarts modèle-réel ?</v>
       </c>
-      <c r="G2" s="587"/>
-      <c r="H2" s="587"/>
-      <c r="I2" s="587"/>
-      <c r="J2" s="588"/>
+      <c r="G2" s="572"/>
+      <c r="H2" s="572"/>
+      <c r="I2" s="572"/>
+      <c r="J2" s="573"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -8763,116 +8825,116 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="582" t="s">
+      <c r="A4" s="558" t="s">
         <v>722</v>
       </c>
-      <c r="B4" s="583"/>
-      <c r="C4" s="583"/>
-      <c r="D4" s="595"/>
-      <c r="E4" s="582" t="s">
+      <c r="B4" s="559"/>
+      <c r="C4" s="559"/>
+      <c r="D4" s="560"/>
+      <c r="E4" s="558" t="s">
         <v>649</v>
       </c>
-      <c r="F4" s="583"/>
-      <c r="G4" s="595"/>
-      <c r="H4" s="582" t="s">
+      <c r="F4" s="559"/>
+      <c r="G4" s="560"/>
+      <c r="H4" s="558" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="583"/>
-      <c r="J4" s="595"/>
+      <c r="I4" s="559"/>
+      <c r="J4" s="560"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="589" t="s">
+      <c r="A5" s="574" t="s">
         <v>665</v>
       </c>
-      <c r="B5" s="590"/>
-      <c r="C5" s="590"/>
-      <c r="D5" s="591"/>
+      <c r="B5" s="575"/>
+      <c r="C5" s="575"/>
+      <c r="D5" s="576"/>
       <c r="E5" s="397" t="s">
         <v>271</v>
       </c>
-      <c r="F5" s="596" t="s">
+      <c r="F5" s="554" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="597"/>
+      <c r="G5" s="555"/>
       <c r="H5" s="398" t="s">
         <v>274</v>
       </c>
-      <c r="I5" s="596" t="s">
+      <c r="I5" s="554" t="s">
         <v>249</v>
       </c>
-      <c r="J5" s="597"/>
+      <c r="J5" s="555"/>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="589"/>
-      <c r="B6" s="590"/>
-      <c r="C6" s="590"/>
-      <c r="D6" s="591"/>
+      <c r="A6" s="574"/>
+      <c r="B6" s="575"/>
+      <c r="C6" s="575"/>
+      <c r="D6" s="576"/>
       <c r="E6" s="397"/>
-      <c r="F6" s="596"/>
-      <c r="G6" s="597"/>
+      <c r="F6" s="554"/>
+      <c r="G6" s="555"/>
       <c r="H6" s="398" t="s">
         <v>275</v>
       </c>
-      <c r="I6" s="596" t="s">
+      <c r="I6" s="554" t="s">
         <v>250</v>
       </c>
-      <c r="J6" s="597"/>
+      <c r="J6" s="555"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="589"/>
-      <c r="B7" s="590"/>
-      <c r="C7" s="590"/>
-      <c r="D7" s="591"/>
+      <c r="A7" s="574"/>
+      <c r="B7" s="575"/>
+      <c r="C7" s="575"/>
+      <c r="D7" s="576"/>
       <c r="E7" s="397"/>
-      <c r="F7" s="596"/>
-      <c r="G7" s="597"/>
+      <c r="F7" s="554"/>
+      <c r="G7" s="555"/>
       <c r="H7" s="398" t="s">
         <v>276</v>
       </c>
-      <c r="I7" s="596" t="s">
+      <c r="I7" s="554" t="s">
         <v>251</v>
       </c>
-      <c r="J7" s="597"/>
+      <c r="J7" s="555"/>
     </row>
     <row r="8" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="589"/>
-      <c r="B8" s="590"/>
-      <c r="C8" s="590"/>
-      <c r="D8" s="591"/>
+      <c r="A8" s="574"/>
+      <c r="B8" s="575"/>
+      <c r="C8" s="575"/>
+      <c r="D8" s="576"/>
       <c r="E8" s="397" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="596" t="s">
+      <c r="F8" s="554" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="597"/>
+      <c r="G8" s="555"/>
       <c r="H8" s="398" t="s">
         <v>295</v>
       </c>
-      <c r="I8" s="596" t="s">
+      <c r="I8" s="554" t="s">
         <v>95</v>
       </c>
-      <c r="J8" s="597"/>
+      <c r="J8" s="555"/>
     </row>
     <row r="9" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="592"/>
-      <c r="B9" s="593"/>
-      <c r="C9" s="593"/>
-      <c r="D9" s="594"/>
+      <c r="A9" s="577"/>
+      <c r="B9" s="578"/>
+      <c r="C9" s="578"/>
+      <c r="D9" s="579"/>
       <c r="E9" s="399" t="s">
         <v>391</v>
       </c>
-      <c r="F9" s="598" t="s">
+      <c r="F9" s="556" t="s">
         <v>595</v>
       </c>
-      <c r="G9" s="599"/>
+      <c r="G9" s="557"/>
       <c r="H9" s="399" t="s">
         <v>721</v>
       </c>
-      <c r="I9" s="598" t="s">
+      <c r="I9" s="556" t="s">
         <v>105</v>
       </c>
-      <c r="J9" s="599"/>
+      <c r="J9" s="557"/>
     </row>
     <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F10" s="400"/>
@@ -8882,102 +8944,102 @@
       <c r="J10" s="400"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="582" t="s">
+      <c r="A11" s="558" t="s">
         <v>709</v>
       </c>
-      <c r="B11" s="583"/>
-      <c r="C11" s="583"/>
-      <c r="D11" s="583"/>
-      <c r="E11" s="583"/>
-      <c r="F11" s="582" t="s">
+      <c r="B11" s="559"/>
+      <c r="C11" s="559"/>
+      <c r="D11" s="559"/>
+      <c r="E11" s="559"/>
+      <c r="F11" s="558" t="s">
         <v>720</v>
       </c>
-      <c r="G11" s="583"/>
-      <c r="H11" s="583"/>
-      <c r="I11" s="583"/>
-      <c r="J11" s="595"/>
+      <c r="G11" s="559"/>
+      <c r="H11" s="559"/>
+      <c r="I11" s="559"/>
+      <c r="J11" s="560"/>
     </row>
     <row r="12" spans="1:10" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="605" t="s">
+      <c r="A12" s="566" t="s">
         <v>723</v>
       </c>
-      <c r="B12" s="606"/>
-      <c r="C12" s="606"/>
-      <c r="D12" s="606"/>
-      <c r="E12" s="606"/>
-      <c r="F12" s="605" t="s">
+      <c r="B12" s="567"/>
+      <c r="C12" s="567"/>
+      <c r="D12" s="567"/>
+      <c r="E12" s="567"/>
+      <c r="F12" s="566" t="s">
         <v>724</v>
       </c>
-      <c r="G12" s="606"/>
-      <c r="H12" s="606"/>
-      <c r="I12" s="606"/>
-      <c r="J12" s="607"/>
+      <c r="G12" s="567"/>
+      <c r="H12" s="567"/>
+      <c r="I12" s="567"/>
+      <c r="J12" s="568"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J13" s="396"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="582" t="s">
+      <c r="A14" s="558" t="s">
         <v>725</v>
       </c>
-      <c r="B14" s="583"/>
-      <c r="C14" s="583"/>
-      <c r="D14" s="583"/>
-      <c r="E14" s="583"/>
-      <c r="F14" s="582" t="s">
+      <c r="B14" s="559"/>
+      <c r="C14" s="559"/>
+      <c r="D14" s="559"/>
+      <c r="E14" s="559"/>
+      <c r="F14" s="558" t="s">
         <v>606</v>
       </c>
-      <c r="G14" s="583"/>
-      <c r="H14" s="583"/>
-      <c r="I14" s="583"/>
-      <c r="J14" s="595"/>
+      <c r="G14" s="559"/>
+      <c r="H14" s="559"/>
+      <c r="I14" s="559"/>
+      <c r="J14" s="560"/>
     </row>
     <row r="15" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="600" t="s">
+      <c r="A15" s="561" t="s">
         <v>726</v>
       </c>
-      <c r="B15" s="601"/>
-      <c r="C15" s="601"/>
-      <c r="D15" s="601"/>
-      <c r="E15" s="601"/>
-      <c r="F15" s="602" t="s">
+      <c r="B15" s="562"/>
+      <c r="C15" s="562"/>
+      <c r="D15" s="562"/>
+      <c r="E15" s="562"/>
+      <c r="F15" s="563" t="s">
         <v>727</v>
       </c>
-      <c r="G15" s="603"/>
-      <c r="H15" s="603"/>
-      <c r="I15" s="603"/>
-      <c r="J15" s="604"/>
+      <c r="G15" s="564"/>
+      <c r="H15" s="564"/>
+      <c r="I15" s="564"/>
+      <c r="J15" s="565"/>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="575" t="s">
+      <c r="A17" s="586" t="s">
         <v>710</v>
       </c>
-      <c r="B17" s="576"/>
-      <c r="C17" s="576"/>
-      <c r="D17" s="576"/>
-      <c r="E17" s="576"/>
-      <c r="F17" s="576"/>
-      <c r="G17" s="576"/>
-      <c r="H17" s="576"/>
-      <c r="I17" s="576"/>
-      <c r="J17" s="577"/>
+      <c r="B17" s="587"/>
+      <c r="C17" s="587"/>
+      <c r="D17" s="587"/>
+      <c r="E17" s="587"/>
+      <c r="F17" s="587"/>
+      <c r="G17" s="587"/>
+      <c r="H17" s="587"/>
+      <c r="I17" s="587"/>
+      <c r="J17" s="588"/>
     </row>
     <row r="18" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="578" t="s">
+      <c r="A18" s="589" t="s">
         <v>728</v>
       </c>
-      <c r="B18" s="579"/>
-      <c r="C18" s="579"/>
-      <c r="D18" s="579"/>
-      <c r="E18" s="579"/>
-      <c r="F18" s="580" t="s">
+      <c r="B18" s="590"/>
+      <c r="C18" s="590"/>
+      <c r="D18" s="590"/>
+      <c r="E18" s="590"/>
+      <c r="F18" s="591" t="s">
         <v>729</v>
       </c>
-      <c r="G18" s="580"/>
-      <c r="H18" s="580"/>
-      <c r="I18" s="580"/>
-      <c r="J18" s="581"/>
+      <c r="G18" s="591"/>
+      <c r="H18" s="591"/>
+      <c r="I18" s="591"/>
+      <c r="J18" s="592"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F19" s="396"/>
@@ -8989,41 +9051,41 @@
       <c r="A20" s="403" t="s">
         <v>719</v>
       </c>
-      <c r="B20" s="569" t="s">
+      <c r="B20" s="580" t="s">
         <v>716</v>
       </c>
-      <c r="C20" s="570"/>
-      <c r="D20" s="571"/>
-      <c r="E20" s="569" t="s">
+      <c r="C20" s="581"/>
+      <c r="D20" s="582"/>
+      <c r="E20" s="580" t="s">
         <v>717</v>
       </c>
-      <c r="F20" s="570"/>
-      <c r="G20" s="571"/>
-      <c r="H20" s="569" t="s">
+      <c r="F20" s="581"/>
+      <c r="G20" s="582"/>
+      <c r="H20" s="580" t="s">
         <v>718</v>
       </c>
-      <c r="I20" s="570"/>
-      <c r="J20" s="571"/>
+      <c r="I20" s="581"/>
+      <c r="J20" s="582"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="401" t="s">
         <v>711</v>
       </c>
-      <c r="B21" s="572" t="s">
+      <c r="B21" s="583" t="s">
         <v>730</v>
       </c>
-      <c r="C21" s="573"/>
-      <c r="D21" s="574"/>
-      <c r="E21" s="572" t="s">
+      <c r="C21" s="584"/>
+      <c r="D21" s="585"/>
+      <c r="E21" s="583" t="s">
         <v>731</v>
       </c>
-      <c r="F21" s="573"/>
-      <c r="G21" s="574"/>
-      <c r="H21" s="572" t="s">
+      <c r="F21" s="584"/>
+      <c r="G21" s="585"/>
+      <c r="H21" s="583" t="s">
         <v>732</v>
       </c>
-      <c r="I21" s="573"/>
-      <c r="J21" s="574"/>
+      <c r="I21" s="584"/>
+      <c r="J21" s="585"/>
     </row>
     <row r="22" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A22" s="401" t="s">
@@ -9157,9 +9219,9 @@
     </row>
     <row r="28" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="402"/>
-      <c r="B28" s="560"/>
-      <c r="C28" s="561"/>
-      <c r="D28" s="562"/>
+      <c r="B28" s="599"/>
+      <c r="C28" s="600"/>
+      <c r="D28" s="601"/>
       <c r="E28" s="416"/>
       <c r="F28" s="417"/>
       <c r="G28" s="418"/>
@@ -9171,33 +9233,33 @@
       <c r="A29" s="401" t="s">
         <v>713</v>
       </c>
-      <c r="B29" s="563"/>
-      <c r="C29" s="564"/>
-      <c r="D29" s="565"/>
-      <c r="E29" s="563"/>
-      <c r="F29" s="564"/>
-      <c r="G29" s="565"/>
-      <c r="H29" s="566"/>
-      <c r="I29" s="567"/>
-      <c r="J29" s="568"/>
+      <c r="B29" s="602"/>
+      <c r="C29" s="603"/>
+      <c r="D29" s="604"/>
+      <c r="E29" s="602"/>
+      <c r="F29" s="603"/>
+      <c r="G29" s="604"/>
+      <c r="H29" s="605"/>
+      <c r="I29" s="606"/>
+      <c r="J29" s="607"/>
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="402" t="s">
         <v>745</v>
       </c>
-      <c r="B30" s="554" t="s">
+      <c r="B30" s="593" t="s">
         <v>746</v>
       </c>
-      <c r="C30" s="555"/>
-      <c r="D30" s="556"/>
-      <c r="E30" s="554" t="s">
+      <c r="C30" s="594"/>
+      <c r="D30" s="595"/>
+      <c r="E30" s="593" t="s">
         <v>747</v>
       </c>
-      <c r="F30" s="555"/>
-      <c r="G30" s="556"/>
-      <c r="H30" s="557"/>
-      <c r="I30" s="558"/>
-      <c r="J30" s="559"/>
+      <c r="F30" s="594"/>
+      <c r="G30" s="595"/>
+      <c r="H30" s="596"/>
+      <c r="I30" s="597"/>
+      <c r="J30" s="598"/>
     </row>
     <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9209,16 +9271,22 @@
     <row r="42" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F1:J1"/>
@@ -9235,22 +9303,16 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="I7:J7"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F11:J11"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -9277,37 +9339,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="610" t="s">
+      <c r="A1" s="649" t="s">
         <v>714</v>
       </c>
-      <c r="B1" s="611"/>
-      <c r="C1" s="611"/>
-      <c r="D1" s="611"/>
-      <c r="E1" s="611"/>
-      <c r="F1" s="610" t="s">
+      <c r="B1" s="650"/>
+      <c r="C1" s="650"/>
+      <c r="D1" s="650"/>
+      <c r="E1" s="650"/>
+      <c r="F1" s="649" t="s">
         <v>715</v>
       </c>
-      <c r="G1" s="611"/>
-      <c r="H1" s="611"/>
-      <c r="I1" s="611"/>
-      <c r="J1" s="611"/>
+      <c r="G1" s="650"/>
+      <c r="H1" s="650"/>
+      <c r="I1" s="650"/>
+      <c r="J1" s="650"/>
     </row>
     <row r="2" spans="1:20" s="395" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="612" t="str">
+      <c r="A2" s="658" t="str">
         <f>Cycles!A2</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="B2" s="613"/>
-      <c r="C2" s="613"/>
-      <c r="D2" s="613"/>
-      <c r="E2" s="613"/>
-      <c r="F2" s="614" t="s">
+      <c r="B2" s="659"/>
+      <c r="C2" s="659"/>
+      <c r="D2" s="659"/>
+      <c r="E2" s="659"/>
+      <c r="F2" s="660" t="s">
         <v>689</v>
       </c>
-      <c r="G2" s="615"/>
-      <c r="H2" s="615"/>
-      <c r="I2" s="615"/>
-      <c r="J2" s="616"/>
+      <c r="G2" s="661"/>
+      <c r="H2" s="661"/>
+      <c r="I2" s="661"/>
+      <c r="J2" s="662"/>
     </row>
     <row r="3" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F3" s="394"/>
@@ -9317,67 +9379,67 @@
       <c r="J3" s="394"/>
     </row>
     <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="610" t="s">
+      <c r="A4" s="649" t="s">
         <v>722</v>
       </c>
-      <c r="B4" s="611"/>
-      <c r="C4" s="611"/>
-      <c r="D4" s="617"/>
-      <c r="E4" s="610" t="s">
+      <c r="B4" s="650"/>
+      <c r="C4" s="650"/>
+      <c r="D4" s="651"/>
+      <c r="E4" s="649" t="s">
         <v>649</v>
       </c>
-      <c r="F4" s="611"/>
-      <c r="G4" s="617"/>
-      <c r="H4" s="610" t="s">
+      <c r="F4" s="650"/>
+      <c r="G4" s="651"/>
+      <c r="H4" s="649" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="611"/>
-      <c r="J4" s="617"/>
+      <c r="I4" s="650"/>
+      <c r="J4" s="651"/>
     </row>
     <row r="5" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="626" t="s">
+      <c r="A5" s="617" t="s">
         <v>754</v>
       </c>
-      <c r="B5" s="627"/>
-      <c r="C5" s="627"/>
-      <c r="D5" s="628"/>
+      <c r="B5" s="618"/>
+      <c r="C5" s="618"/>
+      <c r="D5" s="619"/>
       <c r="E5" s="443" t="s">
         <v>392</v>
       </c>
-      <c r="F5" s="618" t="s">
+      <c r="F5" s="609" t="s">
         <v>390</v>
       </c>
-      <c r="G5" s="619"/>
+      <c r="G5" s="610"/>
       <c r="H5" s="444" t="s">
         <v>755</v>
       </c>
-      <c r="I5" s="618" t="s">
+      <c r="I5" s="609" t="s">
         <v>106</v>
       </c>
-      <c r="J5" s="619"/>
-      <c r="Q5" s="662"/>
-      <c r="R5" s="662"/>
+      <c r="J5" s="610"/>
+      <c r="Q5" s="608"/>
+      <c r="R5" s="608"/>
       <c r="S5" s="287" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="626"/>
-      <c r="B6" s="627"/>
-      <c r="C6" s="627"/>
-      <c r="D6" s="628"/>
+      <c r="A6" s="617"/>
+      <c r="B6" s="618"/>
+      <c r="C6" s="618"/>
+      <c r="D6" s="619"/>
       <c r="E6" s="443" t="s">
         <v>422</v>
       </c>
-      <c r="F6" s="618" t="s">
+      <c r="F6" s="609" t="s">
         <v>437</v>
       </c>
-      <c r="G6" s="619"/>
+      <c r="G6" s="610"/>
       <c r="H6" s="444"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="619"/>
-      <c r="Q6" s="662"/>
-      <c r="R6" s="662"/>
+      <c r="I6" s="609"/>
+      <c r="J6" s="610"/>
+      <c r="Q6" s="608"/>
+      <c r="R6" s="608"/>
       <c r="S6" s="287" t="s">
         <v>16</v>
       </c>
@@ -9386,108 +9448,108 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="626"/>
-      <c r="B7" s="627"/>
-      <c r="C7" s="627"/>
-      <c r="D7" s="628"/>
+      <c r="A7" s="617"/>
+      <c r="B7" s="618"/>
+      <c r="C7" s="618"/>
+      <c r="D7" s="619"/>
       <c r="E7" s="443" t="s">
         <v>423</v>
       </c>
-      <c r="F7" s="618" t="s">
+      <c r="F7" s="609" t="s">
         <v>597</v>
       </c>
-      <c r="G7" s="619"/>
+      <c r="G7" s="610"/>
       <c r="H7" s="444" t="s">
         <v>756</v>
       </c>
-      <c r="I7" s="618" t="s">
+      <c r="I7" s="609" t="s">
         <v>427</v>
       </c>
-      <c r="J7" s="619"/>
-      <c r="Q7" s="662"/>
-      <c r="R7" s="662"/>
+      <c r="J7" s="610"/>
+      <c r="Q7" s="608"/>
+      <c r="R7" s="608"/>
     </row>
     <row r="8" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="626"/>
-      <c r="B8" s="627"/>
-      <c r="C8" s="627"/>
-      <c r="D8" s="628"/>
+      <c r="A8" s="617"/>
+      <c r="B8" s="618"/>
+      <c r="C8" s="618"/>
+      <c r="D8" s="619"/>
       <c r="E8" s="443" t="s">
         <v>424</v>
       </c>
-      <c r="F8" s="618" t="s">
+      <c r="F8" s="609" t="s">
         <v>438</v>
       </c>
-      <c r="G8" s="619"/>
+      <c r="G8" s="610"/>
       <c r="H8" s="444" t="s">
         <v>757</v>
       </c>
-      <c r="I8" s="618" t="s">
+      <c r="I8" s="609" t="s">
         <v>428</v>
       </c>
-      <c r="J8" s="619"/>
-      <c r="Q8" s="662"/>
-      <c r="R8" s="662"/>
+      <c r="J8" s="610"/>
+      <c r="Q8" s="608"/>
+      <c r="R8" s="608"/>
     </row>
     <row r="9" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="626"/>
-      <c r="B9" s="627"/>
-      <c r="C9" s="627"/>
-      <c r="D9" s="628"/>
+      <c r="A9" s="617"/>
+      <c r="B9" s="618"/>
+      <c r="C9" s="618"/>
+      <c r="D9" s="619"/>
       <c r="E9" s="443" t="s">
         <v>425</v>
       </c>
-      <c r="F9" s="618" t="s">
+      <c r="F9" s="609" t="s">
         <v>439</v>
       </c>
-      <c r="G9" s="619"/>
+      <c r="G9" s="610"/>
       <c r="H9" s="444" t="s">
         <v>758</v>
       </c>
-      <c r="I9" s="618" t="s">
+      <c r="I9" s="609" t="s">
         <v>429</v>
       </c>
-      <c r="J9" s="619"/>
+      <c r="J9" s="610"/>
     </row>
     <row r="10" spans="1:20" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="626"/>
-      <c r="B10" s="627"/>
-      <c r="C10" s="627"/>
-      <c r="D10" s="628"/>
+      <c r="A10" s="617"/>
+      <c r="B10" s="618"/>
+      <c r="C10" s="618"/>
+      <c r="D10" s="619"/>
       <c r="E10" s="443" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="618" t="s">
+      <c r="F10" s="609" t="s">
         <v>441</v>
       </c>
-      <c r="G10" s="619"/>
+      <c r="G10" s="610"/>
       <c r="H10" s="444" t="s">
         <v>759</v>
       </c>
-      <c r="I10" s="618" t="s">
+      <c r="I10" s="609" t="s">
         <v>444</v>
       </c>
-      <c r="J10" s="619"/>
+      <c r="J10" s="610"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="629"/>
-      <c r="B11" s="630"/>
-      <c r="C11" s="630"/>
-      <c r="D11" s="631"/>
+      <c r="A11" s="655"/>
+      <c r="B11" s="656"/>
+      <c r="C11" s="656"/>
+      <c r="D11" s="657"/>
       <c r="E11" s="445" t="s">
         <v>443</v>
       </c>
-      <c r="F11" s="608" t="s">
+      <c r="F11" s="647" t="s">
         <v>442</v>
       </c>
-      <c r="G11" s="609"/>
+      <c r="G11" s="648"/>
       <c r="H11" s="445" t="s">
         <v>760</v>
       </c>
-      <c r="I11" s="608" t="s">
+      <c r="I11" s="647" t="s">
         <v>445</v>
       </c>
-      <c r="J11" s="609"/>
+      <c r="J11" s="648"/>
     </row>
     <row r="12" spans="1:20" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F12" s="400"/>
@@ -9503,53 +9565,53 @@
       </c>
     </row>
     <row r="13" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="610" t="s">
+      <c r="A13" s="649" t="s">
         <v>709</v>
       </c>
-      <c r="B13" s="611"/>
-      <c r="C13" s="611"/>
-      <c r="D13" s="611"/>
-      <c r="E13" s="611"/>
-      <c r="F13" s="610" t="s">
+      <c r="B13" s="650"/>
+      <c r="C13" s="650"/>
+      <c r="D13" s="650"/>
+      <c r="E13" s="650"/>
+      <c r="F13" s="649" t="s">
         <v>720</v>
       </c>
-      <c r="G13" s="611"/>
-      <c r="H13" s="611"/>
-      <c r="I13" s="611"/>
-      <c r="J13" s="617"/>
+      <c r="G13" s="650"/>
+      <c r="H13" s="650"/>
+      <c r="I13" s="650"/>
+      <c r="J13" s="651"/>
     </row>
     <row r="14" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="623" t="s">
+      <c r="A14" s="652" t="s">
         <v>762</v>
       </c>
-      <c r="B14" s="624"/>
-      <c r="C14" s="624"/>
-      <c r="D14" s="624"/>
-      <c r="E14" s="624"/>
-      <c r="F14" s="623"/>
-      <c r="G14" s="624"/>
-      <c r="H14" s="624"/>
-      <c r="I14" s="624"/>
-      <c r="J14" s="625"/>
+      <c r="B14" s="653"/>
+      <c r="C14" s="653"/>
+      <c r="D14" s="653"/>
+      <c r="E14" s="653"/>
+      <c r="F14" s="652"/>
+      <c r="G14" s="653"/>
+      <c r="H14" s="653"/>
+      <c r="I14" s="653"/>
+      <c r="J14" s="654"/>
     </row>
     <row r="15" spans="1:20" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="J15" s="396"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="610" t="s">
+      <c r="A16" s="649" t="s">
         <v>725</v>
       </c>
-      <c r="B16" s="611"/>
-      <c r="C16" s="611"/>
-      <c r="D16" s="611"/>
-      <c r="E16" s="611"/>
-      <c r="F16" s="610" t="s">
+      <c r="B16" s="650"/>
+      <c r="C16" s="650"/>
+      <c r="D16" s="650"/>
+      <c r="E16" s="650"/>
+      <c r="F16" s="649" t="s">
         <v>606</v>
       </c>
-      <c r="G16" s="611"/>
-      <c r="H16" s="611"/>
-      <c r="I16" s="611"/>
-      <c r="J16" s="617"/>
+      <c r="G16" s="650"/>
+      <c r="H16" s="650"/>
+      <c r="I16" s="650"/>
+      <c r="J16" s="651"/>
     </row>
     <row r="17" spans="1:10" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="632"/>
@@ -9600,41 +9662,41 @@
       <c r="A22" s="422" t="s">
         <v>719</v>
       </c>
-      <c r="B22" s="620" t="s">
+      <c r="B22" s="644" t="s">
         <v>716</v>
       </c>
-      <c r="C22" s="621"/>
-      <c r="D22" s="622"/>
-      <c r="E22" s="620" t="s">
+      <c r="C22" s="645"/>
+      <c r="D22" s="646"/>
+      <c r="E22" s="644" t="s">
         <v>717</v>
       </c>
-      <c r="F22" s="621"/>
-      <c r="G22" s="622"/>
-      <c r="H22" s="620" t="s">
+      <c r="F22" s="645"/>
+      <c r="G22" s="646"/>
+      <c r="H22" s="644" t="s">
         <v>718</v>
       </c>
-      <c r="I22" s="621"/>
-      <c r="J22" s="622"/>
+      <c r="I22" s="645"/>
+      <c r="J22" s="646"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="423" t="s">
         <v>711</v>
       </c>
-      <c r="B23" s="626" t="s">
+      <c r="B23" s="617" t="s">
         <v>765</v>
       </c>
-      <c r="C23" s="627"/>
-      <c r="D23" s="628"/>
-      <c r="E23" s="650" t="s">
+      <c r="C23" s="618"/>
+      <c r="D23" s="619"/>
+      <c r="E23" s="620" t="s">
         <v>766</v>
       </c>
-      <c r="F23" s="651"/>
-      <c r="G23" s="652"/>
-      <c r="H23" s="650" t="s">
+      <c r="F23" s="621"/>
+      <c r="G23" s="622"/>
+      <c r="H23" s="620" t="s">
         <v>767</v>
       </c>
-      <c r="I23" s="651"/>
-      <c r="J23" s="652"/>
+      <c r="I23" s="621"/>
+      <c r="J23" s="622"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="423" t="s">
@@ -9712,9 +9774,9 @@
     </row>
     <row r="30" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="436"/>
-      <c r="B30" s="653"/>
-      <c r="C30" s="654"/>
-      <c r="D30" s="655"/>
+      <c r="B30" s="623"/>
+      <c r="C30" s="624"/>
+      <c r="D30" s="625"/>
       <c r="E30" s="437"/>
       <c r="F30" s="438"/>
       <c r="G30" s="439"/>
@@ -9726,33 +9788,33 @@
       <c r="A31" s="423" t="s">
         <v>713</v>
       </c>
-      <c r="B31" s="656"/>
-      <c r="C31" s="657"/>
-      <c r="D31" s="658"/>
-      <c r="E31" s="656"/>
-      <c r="F31" s="657"/>
-      <c r="G31" s="658"/>
-      <c r="H31" s="659"/>
-      <c r="I31" s="660"/>
-      <c r="J31" s="661"/>
+      <c r="B31" s="626"/>
+      <c r="C31" s="627"/>
+      <c r="D31" s="628"/>
+      <c r="E31" s="626"/>
+      <c r="F31" s="627"/>
+      <c r="G31" s="628"/>
+      <c r="H31" s="629"/>
+      <c r="I31" s="630"/>
+      <c r="J31" s="631"/>
     </row>
     <row r="32" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="436" t="s">
         <v>745</v>
       </c>
-      <c r="B32" s="644" t="s">
+      <c r="B32" s="611" t="s">
         <v>746</v>
       </c>
-      <c r="C32" s="645"/>
-      <c r="D32" s="646"/>
-      <c r="E32" s="644" t="s">
+      <c r="C32" s="612"/>
+      <c r="D32" s="613"/>
+      <c r="E32" s="611" t="s">
         <v>747</v>
       </c>
-      <c r="F32" s="645"/>
-      <c r="G32" s="646"/>
-      <c r="H32" s="647"/>
-      <c r="I32" s="648"/>
-      <c r="J32" s="649"/>
+      <c r="F32" s="612"/>
+      <c r="G32" s="613"/>
+      <c r="H32" s="614"/>
+      <c r="I32" s="615"/>
+      <c r="J32" s="616"/>
     </row>
     <row r="33" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9764,27 +9826,19 @@
     <row r="44" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="A19:J19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="F2:J2"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="E22:G22"/>
     <mergeCell ref="H22:J22"/>
@@ -9801,19 +9855,27 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="F2:J2"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11126,10 +11188,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="88"/>
       <c r="F10" s="89"/>
-      <c r="G10" s="692" t="s">
+      <c r="G10" s="698" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="693" t="s">
+      <c r="H10" s="699" t="s">
         <v>430</v>
       </c>
     </row>
@@ -11149,8 +11211,8 @@
         <v>427</v>
       </c>
       <c r="F11" s="89"/>
-      <c r="G11" s="692"/>
-      <c r="H11" s="693"/>
+      <c r="G11" s="698"/>
+      <c r="H11" s="699"/>
     </row>
     <row r="12" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="86"/>
@@ -11168,8 +11230,8 @@
         <v>428</v>
       </c>
       <c r="F12" s="89"/>
-      <c r="G12" s="692"/>
-      <c r="H12" s="693"/>
+      <c r="G12" s="698"/>
+      <c r="H12" s="699"/>
     </row>
     <row r="13" spans="1:8" s="91" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="86"/>
@@ -11187,8 +11249,8 @@
         <v>429</v>
       </c>
       <c r="F13" s="89"/>
-      <c r="G13" s="692"/>
-      <c r="H13" s="693"/>
+      <c r="G13" s="698"/>
+      <c r="H13" s="699"/>
     </row>
     <row r="14" spans="1:8" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="86"/>
@@ -11206,10 +11268,10 @@
         <v>444</v>
       </c>
       <c r="F14" s="89"/>
-      <c r="G14" s="696" t="s">
+      <c r="G14" s="702" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="697" t="s">
+      <c r="H14" s="703" t="s">
         <v>446</v>
       </c>
     </row>
@@ -11229,8 +11291,8 @@
         <v>445</v>
       </c>
       <c r="F15" s="89"/>
-      <c r="G15" s="696"/>
-      <c r="H15" s="697"/>
+      <c r="G15" s="702"/>
+      <c r="H15" s="703"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="36" t="str">
@@ -11342,10 +11404,10 @@
       <c r="D22" s="82"/>
       <c r="E22" s="83"/>
       <c r="F22" s="84"/>
-      <c r="G22" s="690" t="s">
+      <c r="G22" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="699" t="s">
+      <c r="H22" s="692" t="s">
         <v>40</v>
       </c>
     </row>
@@ -11360,8 +11422,8 @@
       <c r="D23" s="82"/>
       <c r="E23" s="83"/>
       <c r="F23" s="84"/>
-      <c r="G23" s="690"/>
-      <c r="H23" s="699"/>
+      <c r="G23" s="691"/>
+      <c r="H23" s="692"/>
     </row>
     <row r="24" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="81"/>
@@ -11374,7 +11436,7 @@
       <c r="D24" s="82"/>
       <c r="E24" s="83"/>
       <c r="F24" s="84"/>
-      <c r="G24" s="690"/>
+      <c r="G24" s="691"/>
       <c r="H24" s="115"/>
     </row>
     <row r="25" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11388,7 +11450,7 @@
       <c r="D25" s="82"/>
       <c r="E25" s="83"/>
       <c r="F25" s="84"/>
-      <c r="G25" s="690"/>
+      <c r="G25" s="691"/>
       <c r="H25" s="115"/>
     </row>
     <row r="26" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11407,7 +11469,7 @@
         <v>320</v>
       </c>
       <c r="F26" s="84"/>
-      <c r="G26" s="690"/>
+      <c r="G26" s="691"/>
       <c r="H26" s="115"/>
     </row>
     <row r="27" spans="1:8" s="85" customFormat="1" x14ac:dyDescent="0.25">
@@ -11426,7 +11488,7 @@
         <v>401</v>
       </c>
       <c r="F27" s="84"/>
-      <c r="G27" s="690"/>
+      <c r="G27" s="691"/>
       <c r="H27" s="115"/>
     </row>
     <row r="28" spans="1:8" s="85" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11445,7 +11507,7 @@
         <v>402</v>
       </c>
       <c r="F28" s="84"/>
-      <c r="G28" s="690"/>
+      <c r="G28" s="691"/>
       <c r="H28" s="115"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -11458,7 +11520,7 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="F29" s="39"/>
-      <c r="G29" s="690"/>
+      <c r="G29" s="691"/>
       <c r="H29" s="42"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -11467,7 +11529,7 @@
       <c r="D30" s="43"/>
       <c r="E30" s="40"/>
       <c r="F30" s="39"/>
-      <c r="G30" s="690"/>
+      <c r="G30" s="691"/>
       <c r="H30" s="42"/>
     </row>
     <row r="31" spans="1:8" s="122" customFormat="1" x14ac:dyDescent="0.25">
@@ -11479,7 +11541,7 @@
       <c r="D31" s="118"/>
       <c r="E31" s="119"/>
       <c r="F31" s="120"/>
-      <c r="G31" s="690"/>
+      <c r="G31" s="691"/>
       <c r="H31" s="121"/>
     </row>
     <row r="32" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11498,7 +11560,7 @@
         <v>321</v>
       </c>
       <c r="F32" s="95"/>
-      <c r="G32" s="690"/>
+      <c r="G32" s="691"/>
       <c r="H32" s="116"/>
     </row>
     <row r="33" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
@@ -11554,10 +11616,10 @@
         <v>257</v>
       </c>
       <c r="F35" s="95"/>
-      <c r="G35" s="694" t="s">
+      <c r="G35" s="700" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="695" t="s">
+      <c r="H35" s="701" t="s">
         <v>89</v>
       </c>
     </row>
@@ -11576,8 +11638,8 @@
         <v>258</v>
       </c>
       <c r="F36" s="95"/>
-      <c r="G36" s="694"/>
-      <c r="H36" s="695"/>
+      <c r="G36" s="700"/>
+      <c r="H36" s="701"/>
     </row>
     <row r="37" spans="1:8" s="96" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="92"/>
@@ -11594,8 +11656,8 @@
         <v>259</v>
       </c>
       <c r="F37" s="95"/>
-      <c r="G37" s="694"/>
-      <c r="H37" s="695"/>
+      <c r="G37" s="700"/>
+      <c r="H37" s="701"/>
     </row>
     <row r="38" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="92"/>
@@ -11608,8 +11670,8 @@
         <v>260</v>
       </c>
       <c r="F38" s="95"/>
-      <c r="G38" s="694"/>
-      <c r="H38" s="695"/>
+      <c r="G38" s="700"/>
+      <c r="H38" s="701"/>
     </row>
     <row r="39" spans="1:8" s="96" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="92"/>
@@ -11622,8 +11684,8 @@
         <v>261</v>
       </c>
       <c r="F39" s="95"/>
-      <c r="G39" s="694"/>
-      <c r="H39" s="695"/>
+      <c r="G39" s="700"/>
+      <c r="H39" s="701"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="147" t="str">
@@ -11706,7 +11768,7 @@
       </c>
       <c r="F44" s="57"/>
       <c r="G44" s="129"/>
-      <c r="H44" s="703"/>
+      <c r="H44" s="696"/>
     </row>
     <row r="45" spans="1:8" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="54"/>
@@ -11719,10 +11781,10 @@
       <c r="D45" s="55"/>
       <c r="E45" s="56"/>
       <c r="F45" s="57"/>
-      <c r="G45" s="701" t="s">
+      <c r="G45" s="694" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="703"/>
+      <c r="H45" s="696"/>
     </row>
     <row r="46" spans="1:8" s="59" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="54"/>
@@ -11740,7 +11802,7 @@
         <v>111</v>
       </c>
       <c r="F46" s="57"/>
-      <c r="G46" s="701"/>
+      <c r="G46" s="694"/>
       <c r="H46" s="60"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -11780,8 +11842,8 @@
       <c r="E49" s="105" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="700"/>
-      <c r="G49" s="700" t="s">
+      <c r="F49" s="693"/>
+      <c r="G49" s="693" t="s">
         <v>13</v>
       </c>
       <c r="H49" s="106"/>
@@ -11796,8 +11858,8 @@
       </c>
       <c r="D50" s="104"/>
       <c r="E50" s="105"/>
-      <c r="F50" s="700"/>
-      <c r="G50" s="700"/>
+      <c r="F50" s="693"/>
+      <c r="G50" s="693"/>
       <c r="H50" s="106"/>
     </row>
     <row r="51" spans="1:8" s="107" customFormat="1" x14ac:dyDescent="0.25">
@@ -11810,8 +11872,8 @@
       </c>
       <c r="D51" s="104"/>
       <c r="E51" s="105"/>
-      <c r="F51" s="700"/>
-      <c r="G51" s="700"/>
+      <c r="F51" s="693"/>
+      <c r="G51" s="693"/>
       <c r="H51" s="106"/>
     </row>
     <row r="52" spans="1:8" s="107" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -11872,10 +11934,10 @@
         <v>514</v>
       </c>
       <c r="F55" s="139"/>
-      <c r="G55" s="691" t="s">
+      <c r="G55" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="H55" s="702" t="s">
+      <c r="H55" s="695" t="s">
         <v>63</v>
       </c>
     </row>
@@ -11890,8 +11952,8 @@
       <c r="D56" s="137"/>
       <c r="E56" s="138"/>
       <c r="F56" s="139"/>
-      <c r="G56" s="691"/>
-      <c r="H56" s="702"/>
+      <c r="G56" s="704"/>
+      <c r="H56" s="695"/>
     </row>
     <row r="57" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="136"/>
@@ -11904,8 +11966,8 @@
       <c r="D57" s="137"/>
       <c r="E57" s="138"/>
       <c r="F57" s="139"/>
-      <c r="G57" s="691"/>
-      <c r="H57" s="702"/>
+      <c r="G57" s="704"/>
+      <c r="H57" s="695"/>
     </row>
     <row r="58" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="136"/>
@@ -11923,8 +11985,8 @@
         <v>515</v>
       </c>
       <c r="F58" s="139"/>
-      <c r="G58" s="691"/>
-      <c r="H58" s="702"/>
+      <c r="G58" s="704"/>
+      <c r="H58" s="695"/>
     </row>
     <row r="59" spans="1:8" s="140" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="136"/>
@@ -12090,10 +12152,10 @@
       <c r="E72" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G72" s="690" t="s">
+      <c r="G72" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H72" s="704"/>
+      <c r="H72" s="697"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B73" s="28" t="s">
@@ -12103,8 +12165,8 @@
         <v>190</v>
       </c>
       <c r="D73" s="29"/>
-      <c r="G73" s="690"/>
-      <c r="H73" s="704"/>
+      <c r="G73" s="691"/>
+      <c r="H73" s="697"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B74" s="28" t="s">
@@ -12114,8 +12176,8 @@
         <v>191</v>
       </c>
       <c r="D74" s="29"/>
-      <c r="G74" s="690"/>
-      <c r="H74" s="704"/>
+      <c r="G74" s="691"/>
+      <c r="H74" s="697"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B75" s="28" t="s">
@@ -12125,8 +12187,8 @@
         <v>192</v>
       </c>
       <c r="D75" s="29"/>
-      <c r="G75" s="690"/>
-      <c r="H75" s="704"/>
+      <c r="G75" s="691"/>
+      <c r="H75" s="697"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B76" s="28" t="s">
@@ -12136,8 +12198,8 @@
         <v>193</v>
       </c>
       <c r="D76" s="29"/>
-      <c r="G76" s="690"/>
-      <c r="H76" s="704"/>
+      <c r="G76" s="691"/>
+      <c r="H76" s="697"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -12275,10 +12337,10 @@
       <c r="E94" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G94" s="690" t="s">
+      <c r="G94" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H94" s="698" t="s">
+      <c r="H94" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -12289,8 +12351,8 @@
       <c r="E95" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G95" s="690"/>
-      <c r="H95" s="698"/>
+      <c r="G95" s="691"/>
+      <c r="H95" s="690"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D96" s="28" t="s">
@@ -12299,8 +12361,8 @@
       <c r="E96" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G96" s="690"/>
-      <c r="H96" s="698"/>
+      <c r="G96" s="691"/>
+      <c r="H96" s="690"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B97" s="28" t="s">
@@ -12315,7 +12377,7 @@
       <c r="E97" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G97" s="690" t="s">
+      <c r="G97" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12326,7 +12388,7 @@
       <c r="E98" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G98" s="690"/>
+      <c r="G98" s="691"/>
     </row>
     <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D99" s="28" t="s">
@@ -12335,7 +12397,7 @@
       <c r="E99" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G99" s="690"/>
+      <c r="G99" s="691"/>
     </row>
     <row r="100" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B100" s="28" t="s">
@@ -12350,7 +12412,7 @@
       <c r="E100" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G100" s="690" t="s">
+      <c r="G100" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12362,7 +12424,7 @@
       <c r="E101" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="690"/>
+      <c r="G101" s="691"/>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C102" s="29"/>
@@ -12372,7 +12434,7 @@
       <c r="E102" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G102" s="690"/>
+      <c r="G102" s="691"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C103" s="29"/>
@@ -12382,7 +12444,7 @@
       <c r="E103" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G103" s="690"/>
+      <c r="G103" s="691"/>
     </row>
     <row r="105" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
@@ -12441,7 +12503,7 @@
       <c r="E117" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G117" s="690" t="s">
+      <c r="G117" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H117" s="27"/>
@@ -12453,7 +12515,7 @@
       <c r="E118" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G118" s="690"/>
+      <c r="G118" s="691"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B119" s="28" t="s">
@@ -12469,7 +12531,7 @@
       <c r="E119" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G119" s="690" t="s">
+      <c r="G119" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12480,7 +12542,7 @@
       <c r="E120" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G120" s="690"/>
+      <c r="G120" s="691"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
@@ -12514,7 +12576,7 @@
       <c r="E126" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G126" s="690" t="s">
+      <c r="G126" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12525,7 +12587,7 @@
       <c r="E127" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G127" s="690"/>
+      <c r="G127" s="691"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="11" t="s">
@@ -12551,7 +12613,7 @@
       <c r="E130" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G130" s="690" t="s">
+      <c r="G130" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12563,7 +12625,7 @@
       <c r="E131" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G131" s="690"/>
+      <c r="G131" s="691"/>
       <c r="H131" s="1" t="s">
         <v>493</v>
       </c>
@@ -12587,7 +12649,7 @@
       <c r="E134" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G134" s="690" t="s">
+      <c r="G134" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12598,7 +12660,7 @@
       <c r="E135" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G135" s="690"/>
+      <c r="G135" s="691"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D136" s="28" t="s">
@@ -12607,7 +12669,7 @@
       <c r="E136" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G136" s="690"/>
+      <c r="G136" s="691"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="11" t="s">
@@ -12638,13 +12700,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="11"/>
-      <c r="G140" s="690" t="s">
+      <c r="G140" s="691" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="11"/>
-      <c r="G141" s="690"/>
+      <c r="G141" s="691"/>
       <c r="H141" s="1" t="s">
         <v>65</v>
       </c>
@@ -12663,7 +12725,7 @@
       <c r="E142" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G142" s="690"/>
+      <c r="G142" s="691"/>
       <c r="H142" s="25"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -12680,7 +12742,7 @@
       <c r="E143" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G143" s="690"/>
+      <c r="G143" s="691"/>
       <c r="H143" s="25"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -12697,11 +12759,11 @@
       <c r="E144" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G144" s="690"/>
+      <c r="G144" s="691"/>
       <c r="H144" s="25"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G145" s="690"/>
+      <c r="G145" s="691"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
@@ -12753,7 +12815,7 @@
       <c r="E152" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G152" s="690" t="s">
+      <c r="G152" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -12764,7 +12826,7 @@
       <c r="E153" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G153" s="690"/>
+      <c r="G153" s="691"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D154" s="29"/>
@@ -12775,6 +12837,22 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="G126:G127"/>
+    <mergeCell ref="G130:G131"/>
+    <mergeCell ref="G134:G136"/>
+    <mergeCell ref="G55:G58"/>
+    <mergeCell ref="G140:G145"/>
+    <mergeCell ref="G119:G120"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G94:G96"/>
+    <mergeCell ref="G10:G13"/>
+    <mergeCell ref="H10:H13"/>
+    <mergeCell ref="G35:G39"/>
+    <mergeCell ref="H35:H39"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
     <mergeCell ref="H94:H96"/>
     <mergeCell ref="G97:G99"/>
     <mergeCell ref="G22:G32"/>
@@ -12786,22 +12864,6 @@
     <mergeCell ref="H44:H45"/>
     <mergeCell ref="G72:G76"/>
     <mergeCell ref="H72:H76"/>
-    <mergeCell ref="G10:G13"/>
-    <mergeCell ref="H10:H13"/>
-    <mergeCell ref="G35:G39"/>
-    <mergeCell ref="H35:H39"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="G126:G127"/>
-    <mergeCell ref="G130:G131"/>
-    <mergeCell ref="G134:G136"/>
-    <mergeCell ref="G55:G58"/>
-    <mergeCell ref="G140:G145"/>
-    <mergeCell ref="G119:G120"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="G94:G96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12927,10 +12989,10 @@
       <c r="E13" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="690" t="s">
+      <c r="G13" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="704"/>
+      <c r="H13" s="697"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B14" s="28" t="s">
@@ -12940,8 +13002,8 @@
         <v>190</v>
       </c>
       <c r="D14" s="29"/>
-      <c r="G14" s="690"/>
-      <c r="H14" s="704"/>
+      <c r="G14" s="691"/>
+      <c r="H14" s="697"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
@@ -12951,8 +13013,8 @@
         <v>191</v>
       </c>
       <c r="D15" s="29"/>
-      <c r="G15" s="690"/>
-      <c r="H15" s="704"/>
+      <c r="G15" s="691"/>
+      <c r="H15" s="697"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B16" s="28" t="s">
@@ -12962,8 +13024,8 @@
         <v>192</v>
       </c>
       <c r="D16" s="29"/>
-      <c r="G16" s="690"/>
-      <c r="H16" s="704"/>
+      <c r="G16" s="691"/>
+      <c r="H16" s="697"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="28" t="s">
@@ -12973,8 +13035,8 @@
         <v>193</v>
       </c>
       <c r="D17" s="29"/>
-      <c r="G17" s="690"/>
-      <c r="H17" s="704"/>
+      <c r="G17" s="691"/>
+      <c r="H17" s="697"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -12997,10 +13059,10 @@
       <c r="E20" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="G20" s="690" t="s">
+      <c r="G20" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H20" s="698" t="s">
+      <c r="H20" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -13011,8 +13073,8 @@
       <c r="E21" s="29" t="s">
         <v>203</v>
       </c>
-      <c r="G21" s="690"/>
-      <c r="H21" s="698"/>
+      <c r="G21" s="691"/>
+      <c r="H21" s="690"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D22" s="28" t="s">
@@ -13021,8 +13083,8 @@
       <c r="E22" s="29" t="s">
         <v>204</v>
       </c>
-      <c r="G22" s="690"/>
-      <c r="H22" s="698"/>
+      <c r="G22" s="691"/>
+      <c r="H22" s="690"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="28" t="s">
@@ -13037,7 +13099,7 @@
       <c r="E23" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="G23" s="690" t="s">
+      <c r="G23" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13048,7 +13110,7 @@
       <c r="E24" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="G24" s="690"/>
+      <c r="G24" s="691"/>
     </row>
     <row r="25" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D25" s="28" t="s">
@@ -13057,7 +13119,7 @@
       <c r="E25" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="G25" s="690"/>
+      <c r="G25" s="691"/>
     </row>
     <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="28" t="s">
@@ -13072,7 +13134,7 @@
       <c r="E26" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="G26" s="690" t="s">
+      <c r="G26" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13084,7 +13146,7 @@
       <c r="E27" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="G27" s="690"/>
+      <c r="G27" s="691"/>
     </row>
     <row r="28" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C28" s="29"/>
@@ -13094,7 +13156,7 @@
       <c r="E28" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="690"/>
+      <c r="G28" s="691"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C29" s="29"/>
@@ -13104,7 +13166,7 @@
       <c r="E29" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="G29" s="690"/>
+      <c r="G29" s="691"/>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
@@ -13157,10 +13219,10 @@
       <c r="E37" s="29" t="s">
         <v>257</v>
       </c>
-      <c r="G37" s="690" t="s">
+      <c r="G37" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H37" s="706" t="s">
+      <c r="H37" s="705" t="s">
         <v>89</v>
       </c>
     </row>
@@ -13177,8 +13239,8 @@
       <c r="E38" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="G38" s="690"/>
-      <c r="H38" s="706"/>
+      <c r="G38" s="691"/>
+      <c r="H38" s="705"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="28" t="s">
@@ -13193,8 +13255,8 @@
       <c r="E39" s="29" t="s">
         <v>259</v>
       </c>
-      <c r="G39" s="690"/>
-      <c r="H39" s="706"/>
+      <c r="G39" s="691"/>
+      <c r="H39" s="705"/>
     </row>
     <row r="40" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="29"/>
@@ -13204,8 +13266,8 @@
       <c r="E40" s="29" t="s">
         <v>260</v>
       </c>
-      <c r="G40" s="690"/>
-      <c r="H40" s="706"/>
+      <c r="G40" s="691"/>
+      <c r="H40" s="705"/>
     </row>
     <row r="41" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="29"/>
@@ -13215,8 +13277,8 @@
       <c r="E41" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="G41" s="690"/>
-      <c r="H41" s="706"/>
+      <c r="G41" s="691"/>
+      <c r="H41" s="705"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C42" s="29"/>
@@ -13246,7 +13308,7 @@
       <c r="G46" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="H46" s="704" t="s">
+      <c r="H46" s="697" t="s">
         <v>32</v>
       </c>
     </row>
@@ -13258,10 +13320,10 @@
       <c r="E47" s="29" t="s">
         <v>249</v>
       </c>
-      <c r="G47" s="690" t="s">
+      <c r="G47" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="704"/>
+      <c r="H47" s="697"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C48" s="30"/>
@@ -13271,7 +13333,7 @@
       <c r="E48" s="29" t="s">
         <v>250</v>
       </c>
-      <c r="G48" s="690"/>
+      <c r="G48" s="691"/>
       <c r="H48" s="27"/>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -13282,7 +13344,7 @@
       <c r="E49" s="29" t="s">
         <v>251</v>
       </c>
-      <c r="G49" s="690"/>
+      <c r="G49" s="691"/>
       <c r="H49" s="27"/>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -13310,10 +13372,10 @@
       <c r="C54" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="G54" s="690" t="s">
+      <c r="G54" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H54" s="698" t="s">
+      <c r="H54" s="690" t="s">
         <v>40</v>
       </c>
     </row>
@@ -13324,8 +13386,8 @@
       <c r="C55" s="28" t="s">
         <v>309</v>
       </c>
-      <c r="G55" s="690"/>
-      <c r="H55" s="698"/>
+      <c r="G55" s="691"/>
+      <c r="H55" s="690"/>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B56" s="28" t="s">
@@ -13334,7 +13396,7 @@
       <c r="C56" s="28" t="s">
         <v>310</v>
       </c>
-      <c r="G56" s="690"/>
+      <c r="G56" s="691"/>
       <c r="H56" s="30"/>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -13344,7 +13406,7 @@
       <c r="C57" s="28" t="s">
         <v>311</v>
       </c>
-      <c r="G57" s="690"/>
+      <c r="G57" s="691"/>
       <c r="H57" s="30"/>
     </row>
     <row r="58" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13361,7 +13423,7 @@
       <c r="E58" s="29" t="s">
         <v>320</v>
       </c>
-      <c r="G58" s="690"/>
+      <c r="G58" s="691"/>
       <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -13378,7 +13440,7 @@
       <c r="E59" s="29" t="s">
         <v>321</v>
       </c>
-      <c r="G59" s="690"/>
+      <c r="G59" s="691"/>
       <c r="H59" s="30"/>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -13398,8 +13460,8 @@
       <c r="E61" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="690"/>
-      <c r="G61" s="690" t="s">
+      <c r="F61" s="691"/>
+      <c r="G61" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13410,8 +13472,8 @@
       <c r="C62" s="28" t="s">
         <v>364</v>
       </c>
-      <c r="F62" s="690"/>
-      <c r="G62" s="690"/>
+      <c r="F62" s="691"/>
+      <c r="G62" s="691"/>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B63" s="28" t="s">
@@ -13420,8 +13482,8 @@
       <c r="C63" s="28" t="s">
         <v>365</v>
       </c>
-      <c r="F63" s="690"/>
-      <c r="G63" s="690"/>
+      <c r="F63" s="691"/>
+      <c r="G63" s="691"/>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C64" s="29"/>
@@ -13486,7 +13548,7 @@
       <c r="E68" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G68" s="690" t="s">
+      <c r="G68" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H68" s="27"/>
@@ -13498,7 +13560,7 @@
       <c r="E69" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G69" s="690"/>
+      <c r="G69" s="691"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B70" s="28" t="s">
@@ -13514,7 +13576,7 @@
       <c r="E70" s="29" t="s">
         <v>393</v>
       </c>
-      <c r="G70" s="690" t="s">
+      <c r="G70" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13525,7 +13587,7 @@
       <c r="E71" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="G71" s="690"/>
+      <c r="G71" s="691"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
@@ -13552,10 +13614,10 @@
       <c r="E75" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="G75" s="690" t="s">
+      <c r="G75" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H75" s="704" t="s">
+      <c r="H75" s="697" t="s">
         <v>48</v>
       </c>
     </row>
@@ -13573,8 +13635,8 @@
       <c r="E76" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="G76" s="690"/>
-      <c r="H76" s="704"/>
+      <c r="G76" s="691"/>
+      <c r="H76" s="697"/>
     </row>
     <row r="77" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B77" s="28" t="s">
@@ -13590,8 +13652,8 @@
       <c r="E77" s="29" t="s">
         <v>403</v>
       </c>
-      <c r="G77" s="690"/>
-      <c r="H77" s="704"/>
+      <c r="G77" s="691"/>
+      <c r="H77" s="697"/>
     </row>
     <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="28" t="s">
@@ -13626,10 +13688,10 @@
       <c r="C81" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G81" s="690" t="s">
+      <c r="G81" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="698" t="s">
+      <c r="H81" s="690" t="s">
         <v>430</v>
       </c>
     </row>
@@ -13647,8 +13709,8 @@
       <c r="E82" s="29" t="s">
         <v>427</v>
       </c>
-      <c r="G82" s="690"/>
-      <c r="H82" s="698"/>
+      <c r="G82" s="691"/>
+      <c r="H82" s="690"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B83" s="28" t="s">
@@ -13664,8 +13726,8 @@
       <c r="E83" s="29" t="s">
         <v>428</v>
       </c>
-      <c r="G83" s="690"/>
-      <c r="H83" s="698"/>
+      <c r="G83" s="691"/>
+      <c r="H83" s="690"/>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B84" s="28" t="s">
@@ -13681,8 +13743,8 @@
       <c r="E84" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="G84" s="690"/>
-      <c r="H84" s="698"/>
+      <c r="G84" s="691"/>
+      <c r="H84" s="690"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="28" t="s">
@@ -13698,10 +13760,10 @@
       <c r="E85" s="29" t="s">
         <v>444</v>
       </c>
-      <c r="G85" s="704" t="s">
+      <c r="G85" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="704" t="s">
+      <c r="H85" s="697" t="s">
         <v>446</v>
       </c>
     </row>
@@ -13719,8 +13781,8 @@
       <c r="E86" s="29" t="s">
         <v>445</v>
       </c>
-      <c r="G86" s="704"/>
-      <c r="H86" s="704"/>
+      <c r="G86" s="697"/>
+      <c r="H86" s="697"/>
     </row>
     <row r="87" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D87" s="28" t="s">
@@ -13752,10 +13814,10 @@
       <c r="E89" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="F89" s="690" t="s">
+      <c r="F89" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H89" s="705" t="s">
+      <c r="H89" s="706" t="s">
         <v>473</v>
       </c>
     </row>
@@ -13766,8 +13828,8 @@
       <c r="C90" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="F90" s="690"/>
-      <c r="H90" s="705"/>
+      <c r="F90" s="691"/>
+      <c r="H90" s="706"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B91" s="28" t="s">
@@ -13777,8 +13839,8 @@
         <v>463</v>
       </c>
       <c r="D91" s="29"/>
-      <c r="F91" s="690"/>
-      <c r="H91" s="705"/>
+      <c r="F91" s="691"/>
+      <c r="H91" s="706"/>
     </row>
     <row r="92" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="28" t="s">
@@ -13794,8 +13856,8 @@
       <c r="E92" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F92" s="690"/>
-      <c r="H92" s="705"/>
+      <c r="F92" s="691"/>
+      <c r="H92" s="706"/>
     </row>
     <row r="93" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B93" s="28" t="s">
@@ -13811,10 +13873,10 @@
       <c r="E93" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="G93" s="690" t="s">
+      <c r="G93" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="704" t="s">
+      <c r="H93" s="697" t="s">
         <v>51</v>
       </c>
     </row>
@@ -13831,8 +13893,8 @@
       <c r="E94" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G94" s="690"/>
-      <c r="H94" s="704"/>
+      <c r="G94" s="691"/>
+      <c r="H94" s="697"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B95" s="28" t="s">
@@ -13841,7 +13903,7 @@
       <c r="C95" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="G95" s="690" t="s">
+      <c r="G95" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13859,7 +13921,7 @@
       <c r="E96" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="G96" s="690"/>
+      <c r="G96" s="691"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="11" t="s">
@@ -13882,7 +13944,7 @@
       <c r="E99" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="G99" s="690" t="s">
+      <c r="G99" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13893,7 +13955,7 @@
       <c r="E100" s="29" t="s">
         <v>488</v>
       </c>
-      <c r="G100" s="690"/>
+      <c r="G100" s="691"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="11" t="s">
@@ -13919,7 +13981,7 @@
       <c r="E103" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G103" s="690" t="s">
+      <c r="G103" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13931,7 +13993,7 @@
       <c r="E104" s="29" t="s">
         <v>492</v>
       </c>
-      <c r="G104" s="690"/>
+      <c r="G104" s="691"/>
       <c r="H104" s="1" t="s">
         <v>493</v>
       </c>
@@ -13955,7 +14017,7 @@
       <c r="E107" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="G107" s="690" t="s">
+      <c r="G107" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -13966,7 +14028,7 @@
       <c r="E108" s="29" t="s">
         <v>502</v>
       </c>
-      <c r="G108" s="690"/>
+      <c r="G108" s="691"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D109" s="28" t="s">
@@ -13975,7 +14037,7 @@
       <c r="E109" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="G109" s="690"/>
+      <c r="G109" s="691"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="11"/>
@@ -13992,7 +14054,7 @@
       <c r="E110" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G110" s="690" t="s">
+      <c r="G110" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14004,7 +14066,7 @@
       <c r="C111" s="28" t="s">
         <v>511</v>
       </c>
-      <c r="G111" s="690"/>
+      <c r="G111" s="691"/>
       <c r="H111" s="1" t="s">
         <v>63</v>
       </c>
@@ -14017,7 +14079,7 @@
       <c r="C112" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="G112" s="690"/>
+      <c r="G112" s="691"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="11"/>
@@ -14034,7 +14096,7 @@
       <c r="E113" s="29" t="s">
         <v>515</v>
       </c>
-      <c r="G113" s="690"/>
+      <c r="G113" s="691"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="11"/>
@@ -14081,7 +14143,7 @@
       <c r="E117" s="29" t="s">
         <v>524</v>
       </c>
-      <c r="G117" s="690" t="s">
+      <c r="G117" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14100,7 +14162,7 @@
       <c r="E118" s="29" t="s">
         <v>525</v>
       </c>
-      <c r="G118" s="690"/>
+      <c r="G118" s="691"/>
       <c r="H118" s="1" t="s">
         <v>65</v>
       </c>
@@ -14119,7 +14181,7 @@
       <c r="E119" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="G119" s="690"/>
+      <c r="G119" s="691"/>
       <c r="H119" s="25"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
@@ -14136,7 +14198,7 @@
       <c r="E120" s="29" t="s">
         <v>530</v>
       </c>
-      <c r="G120" s="690"/>
+      <c r="G120" s="691"/>
       <c r="H120" s="25"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
@@ -14153,7 +14215,7 @@
       <c r="E121" s="29" t="s">
         <v>531</v>
       </c>
-      <c r="G121" s="690"/>
+      <c r="G121" s="691"/>
       <c r="H121" s="25"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
@@ -14170,7 +14232,7 @@
       <c r="E122" s="29" t="s">
         <v>537</v>
       </c>
-      <c r="G122" s="690"/>
+      <c r="G122" s="691"/>
     </row>
     <row r="123" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="28" t="s">
@@ -14185,7 +14247,7 @@
       <c r="E123" s="29" t="s">
         <v>538</v>
       </c>
-      <c r="G123" s="690"/>
+      <c r="G123" s="691"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
@@ -14290,7 +14352,7 @@
       <c r="E133" s="29" t="s">
         <v>581</v>
       </c>
-      <c r="G133" s="690" t="s">
+      <c r="G133" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14301,13 +14363,36 @@
       <c r="E134" s="29" t="s">
         <v>582</v>
       </c>
-      <c r="G134" s="690"/>
+      <c r="G134" s="691"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D135" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="G133:G134"/>
+    <mergeCell ref="G107:G109"/>
+    <mergeCell ref="G110:G113"/>
+    <mergeCell ref="G117:G123"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="H85:H86"/>
+    <mergeCell ref="F89:F92"/>
+    <mergeCell ref="H89:H92"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="G75:G77"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="G81:G84"/>
+    <mergeCell ref="H81:H84"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="G61:G63"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="H54:H55"/>
     <mergeCell ref="H13:H17"/>
     <mergeCell ref="G13:G17"/>
     <mergeCell ref="G47:G49"/>
@@ -14318,29 +14403,6 @@
     <mergeCell ref="G37:G41"/>
     <mergeCell ref="H37:H41"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="G61:G63"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="F89:F92"/>
-    <mergeCell ref="H89:H92"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="G75:G77"/>
-    <mergeCell ref="H75:H77"/>
-    <mergeCell ref="G81:G84"/>
-    <mergeCell ref="H81:H84"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="H85:H86"/>
-    <mergeCell ref="G133:G134"/>
-    <mergeCell ref="G107:G109"/>
-    <mergeCell ref="G110:G113"/>
-    <mergeCell ref="G117:G123"/>
-    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -14385,10 +14447,10 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="707" t="s">
+      <c r="B6" s="708" t="s">
         <v>134</v>
       </c>
-      <c r="C6" s="698" t="s">
+      <c r="C6" s="690" t="s">
         <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -14397,84 +14459,84 @@
       <c r="E6" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="690" t="s">
+      <c r="F6" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="698" t="s">
+      <c r="H6" s="690" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="707"/>
-      <c r="C7" s="698"/>
+      <c r="B7" s="708"/>
+      <c r="C7" s="690"/>
       <c r="D7" s="2" t="s">
         <v>136</v>
       </c>
       <c r="E7" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="690"/>
-      <c r="H7" s="698"/>
+      <c r="F7" s="691"/>
+      <c r="H7" s="690"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="707"/>
-      <c r="C8" s="698"/>
+      <c r="B8" s="708"/>
+      <c r="C8" s="690"/>
       <c r="D8" s="2" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="F8" s="690"/>
-      <c r="H8" s="698"/>
+      <c r="F8" s="691"/>
+      <c r="H8" s="690"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="707"/>
-      <c r="C9" s="698"/>
+      <c r="B9" s="708"/>
+      <c r="C9" s="690"/>
       <c r="D9" s="2" t="s">
         <v>138</v>
       </c>
       <c r="E9" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="690"/>
-      <c r="H9" s="698"/>
+      <c r="F9" s="691"/>
+      <c r="H9" s="690"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="707"/>
-      <c r="C10" s="698"/>
+      <c r="B10" s="708"/>
+      <c r="C10" s="690"/>
       <c r="D10" s="2" t="s">
         <v>139</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="F10" s="690"/>
-      <c r="H10" s="698"/>
+      <c r="F10" s="691"/>
+      <c r="H10" s="690"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="707"/>
-      <c r="C11" s="698"/>
+      <c r="B11" s="708"/>
+      <c r="C11" s="690"/>
       <c r="D11" s="2" t="s">
         <v>140</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="F11" s="690"/>
-      <c r="H11" s="698"/>
+      <c r="F11" s="691"/>
+      <c r="H11" s="690"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="707"/>
-      <c r="C12" s="698"/>
+      <c r="B12" s="708"/>
+      <c r="C12" s="690"/>
       <c r="D12" s="2" t="s">
         <v>141</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="690"/>
-      <c r="H12" s="698"/>
+      <c r="F12" s="691"/>
+      <c r="H12" s="690"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
@@ -14515,7 +14577,7 @@
       <c r="E16" s="14" t="s">
         <v>145</v>
       </c>
-      <c r="F16" s="690" t="s">
+      <c r="F16" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -14533,7 +14595,7 @@
       <c r="E17" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="690"/>
+      <c r="F17" s="691"/>
     </row>
     <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
@@ -14574,7 +14636,7 @@
       <c r="E21" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F21" s="690" t="s">
+      <c r="F21" s="691" t="s">
         <v>4</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -14594,7 +14656,7 @@
       <c r="E22" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="F22" s="690"/>
+      <c r="F22" s="691"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
@@ -14609,7 +14671,7 @@
       <c r="E23" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="F23" s="690"/>
+      <c r="F23" s="691"/>
     </row>
     <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
@@ -14624,7 +14686,7 @@
       <c r="E24" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="F24" s="690"/>
+      <c r="F24" s="691"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
@@ -14639,7 +14701,7 @@
       <c r="E25" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="F25" s="690"/>
+      <c r="F25" s="691"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D26" s="2" t="s">
@@ -14648,7 +14710,7 @@
       <c r="E26" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F26" s="690"/>
+      <c r="F26" s="691"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C27" s="2"/>
@@ -14679,10 +14741,10 @@
       <c r="E30" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="F30" s="690" t="s">
+      <c r="F30" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="704" t="s">
+      <c r="H30" s="697" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14699,8 +14761,8 @@
       <c r="E31" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F31" s="690"/>
-      <c r="H31" s="704"/>
+      <c r="F31" s="691"/>
+      <c r="H31" s="697"/>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
@@ -14715,8 +14777,8 @@
       <c r="E32" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F32" s="690"/>
-      <c r="H32" s="704"/>
+      <c r="F32" s="691"/>
+      <c r="H32" s="697"/>
     </row>
     <row r="33" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D33" s="2" t="s">
@@ -14725,8 +14787,8 @@
       <c r="E33" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="F33" s="690"/>
-      <c r="H33" s="704"/>
+      <c r="F33" s="691"/>
+      <c r="H33" s="697"/>
     </row>
     <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D34" s="2" t="s">
@@ -14735,10 +14797,10 @@
       <c r="E34" s="14" t="s">
         <v>177</v>
       </c>
-      <c r="G34" s="690" t="s">
+      <c r="G34" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H34" s="704"/>
+      <c r="H34" s="697"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D35" s="2" t="s">
@@ -14747,8 +14809,8 @@
       <c r="E35" s="14" t="s">
         <v>178</v>
       </c>
-      <c r="G35" s="690"/>
-      <c r="H35" s="704"/>
+      <c r="G35" s="691"/>
+      <c r="H35" s="697"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D36" s="2" t="s">
@@ -14757,8 +14819,8 @@
       <c r="E36" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="G36" s="690"/>
-      <c r="H36" s="704"/>
+      <c r="G36" s="691"/>
+      <c r="H36" s="697"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B37" s="3" t="s">
@@ -14773,10 +14835,10 @@
       <c r="E37" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="690" t="s">
+      <c r="F37" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H37" s="704" t="s">
+      <c r="H37" s="697" t="s">
         <v>17</v>
       </c>
     </row>
@@ -14787,8 +14849,8 @@
       <c r="C38" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F38" s="690"/>
-      <c r="H38" s="704"/>
+      <c r="F38" s="691"/>
+      <c r="H38" s="697"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
@@ -14797,8 +14859,8 @@
       <c r="C39" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F39" s="690"/>
-      <c r="H39" s="704"/>
+      <c r="F39" s="691"/>
+      <c r="H39" s="697"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
@@ -14813,10 +14875,10 @@
       <c r="E40" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="G40" s="690" t="s">
+      <c r="G40" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="704"/>
+      <c r="H40" s="697"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B41" s="3" t="s">
@@ -14826,8 +14888,8 @@
         <v>190</v>
       </c>
       <c r="D41" s="2"/>
-      <c r="G41" s="690"/>
-      <c r="H41" s="704"/>
+      <c r="G41" s="691"/>
+      <c r="H41" s="697"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
@@ -14837,8 +14899,8 @@
         <v>191</v>
       </c>
       <c r="D42" s="2"/>
-      <c r="G42" s="690"/>
-      <c r="H42" s="704"/>
+      <c r="G42" s="691"/>
+      <c r="H42" s="697"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B43" s="3" t="s">
@@ -14848,8 +14910,8 @@
         <v>192</v>
       </c>
       <c r="D43" s="2"/>
-      <c r="G43" s="690"/>
-      <c r="H43" s="704"/>
+      <c r="G43" s="691"/>
+      <c r="H43" s="697"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
@@ -14859,8 +14921,8 @@
         <v>193</v>
       </c>
       <c r="D44" s="2"/>
-      <c r="G44" s="690"/>
-      <c r="H44" s="704"/>
+      <c r="G44" s="691"/>
+      <c r="H44" s="697"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
@@ -14883,10 +14945,10 @@
       <c r="E47" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="690" t="s">
+      <c r="G47" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H47" s="698" t="s">
+      <c r="H47" s="690" t="s">
         <v>542</v>
       </c>
     </row>
@@ -14897,8 +14959,8 @@
       <c r="E48" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="G48" s="690"/>
-      <c r="H48" s="698"/>
+      <c r="G48" s="691"/>
+      <c r="H48" s="690"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D49" s="3" t="s">
@@ -14907,8 +14969,8 @@
       <c r="E49" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="G49" s="690"/>
-      <c r="H49" s="698"/>
+      <c r="G49" s="691"/>
+      <c r="H49" s="690"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" s="3" t="s">
@@ -14923,7 +14985,7 @@
       <c r="E50" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="G50" s="690" t="s">
+      <c r="G50" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14934,7 +14996,7 @@
       <c r="E51" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="G51" s="690"/>
+      <c r="G51" s="691"/>
     </row>
     <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D52" s="3" t="s">
@@ -14943,7 +15005,7 @@
       <c r="E52" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G52" s="690"/>
+      <c r="G52" s="691"/>
     </row>
     <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
@@ -14959,7 +15021,7 @@
         <v>226</v>
       </c>
       <c r="F53" s="22"/>
-      <c r="G53" s="690" t="s">
+      <c r="G53" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -14972,7 +15034,7 @@
         <v>227</v>
       </c>
       <c r="F54" s="22"/>
-      <c r="G54" s="690"/>
+      <c r="G54" s="691"/>
     </row>
     <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C55" s="2"/>
@@ -14983,7 +15045,7 @@
         <v>228</v>
       </c>
       <c r="F55" s="22"/>
-      <c r="G55" s="690"/>
+      <c r="G55" s="691"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C56" s="2"/>
@@ -14994,7 +15056,7 @@
         <v>229</v>
       </c>
       <c r="F56" s="22"/>
-      <c r="G56" s="690"/>
+      <c r="G56" s="691"/>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
@@ -15115,10 +15177,10 @@
       <c r="E69" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="G69" s="690" t="s">
+      <c r="G69" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H69" s="706" t="s">
+      <c r="H69" s="705" t="s">
         <v>89</v>
       </c>
     </row>
@@ -15135,8 +15197,8 @@
       <c r="E70" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="G70" s="690"/>
-      <c r="H70" s="706"/>
+      <c r="G70" s="691"/>
+      <c r="H70" s="705"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
@@ -15151,8 +15213,8 @@
       <c r="E71" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G71" s="690"/>
-      <c r="H71" s="706"/>
+      <c r="G71" s="691"/>
+      <c r="H71" s="705"/>
     </row>
     <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C72" s="2"/>
@@ -15162,8 +15224,8 @@
       <c r="E72" s="14" t="s">
         <v>260</v>
       </c>
-      <c r="G72" s="690"/>
-      <c r="H72" s="706"/>
+      <c r="G72" s="691"/>
+      <c r="H72" s="705"/>
     </row>
     <row r="73" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C73" s="2"/>
@@ -15173,8 +15235,8 @@
       <c r="E73" s="14" t="s">
         <v>261</v>
       </c>
-      <c r="G73" s="690"/>
-      <c r="H73" s="706"/>
+      <c r="G73" s="691"/>
+      <c r="H73" s="705"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C74" s="2"/>
@@ -15204,7 +15266,7 @@
       <c r="G78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H78" s="704" t="s">
+      <c r="H78" s="697" t="s">
         <v>32</v>
       </c>
     </row>
@@ -15216,10 +15278,10 @@
       <c r="E79" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F79" s="690" t="s">
+      <c r="F79" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H79" s="704"/>
+      <c r="H79" s="697"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C80" s="5"/>
@@ -15229,8 +15291,8 @@
       <c r="E80" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F80" s="690"/>
-      <c r="H80" s="704"/>
+      <c r="F80" s="691"/>
+      <c r="H80" s="697"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C81" s="5"/>
@@ -15240,7 +15302,7 @@
       <c r="E81" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="G81" s="690" t="s">
+      <c r="G81" s="691" t="s">
         <v>16</v>
       </c>
       <c r="H81" s="18"/>
@@ -15253,7 +15315,7 @@
       <c r="E82" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="690"/>
+      <c r="G82" s="691"/>
       <c r="H82" s="18"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -15264,7 +15326,7 @@
       <c r="E83" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="G83" s="690"/>
+      <c r="G83" s="691"/>
       <c r="H83" s="18"/>
     </row>
     <row r="85" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15280,10 +15342,10 @@
       <c r="E85" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="690" t="s">
+      <c r="F85" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H85" s="708" t="s">
+      <c r="H85" s="707" t="s">
         <v>92</v>
       </c>
     </row>
@@ -15295,8 +15357,8 @@
         <v>277</v>
       </c>
       <c r="D86" s="2"/>
-      <c r="F86" s="690"/>
-      <c r="H86" s="708"/>
+      <c r="F86" s="691"/>
+      <c r="H86" s="707"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
@@ -15306,8 +15368,8 @@
         <v>278</v>
       </c>
       <c r="D87" s="2"/>
-      <c r="F87" s="690"/>
-      <c r="H87" s="708"/>
+      <c r="F87" s="691"/>
+      <c r="H87" s="707"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
@@ -15317,8 +15379,8 @@
         <v>279</v>
       </c>
       <c r="D88" s="2"/>
-      <c r="F88" s="690"/>
-      <c r="H88" s="708"/>
+      <c r="F88" s="691"/>
+      <c r="H88" s="707"/>
     </row>
     <row r="90" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
@@ -15336,7 +15398,7 @@
       <c r="F90" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H90" s="704" t="s">
+      <c r="H90" s="697" t="s">
         <v>36</v>
       </c>
     </row>
@@ -15353,10 +15415,10 @@
       <c r="E91" s="14" t="s">
         <v>288</v>
       </c>
-      <c r="F91" s="690" t="s">
+      <c r="F91" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="704"/>
+      <c r="H91" s="697"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C92" s="2"/>
@@ -15366,8 +15428,8 @@
       <c r="E92" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="F92" s="690"/>
-      <c r="H92" s="704"/>
+      <c r="F92" s="691"/>
+      <c r="H92" s="697"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
@@ -15385,7 +15447,7 @@
       <c r="G93" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H93" s="704"/>
+      <c r="H93" s="697"/>
     </row>
     <row r="94" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
@@ -15403,7 +15465,7 @@
       <c r="F94" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H94" s="704"/>
+      <c r="H94" s="697"/>
     </row>
     <row r="96" spans="2:8" ht="105" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -15418,7 +15480,7 @@
       <c r="E96" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="F96" s="690" t="s">
+      <c r="F96" s="691" t="s">
         <v>4</v>
       </c>
       <c r="H96" s="1" t="s">
@@ -15433,7 +15495,7 @@
       <c r="E97" s="14" t="s">
         <v>298</v>
       </c>
-      <c r="F97" s="690"/>
+      <c r="F97" s="691"/>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D98" s="3" t="s">
@@ -15442,7 +15504,7 @@
       <c r="E98" s="14" t="s">
         <v>299</v>
       </c>
-      <c r="F98" s="690"/>
+      <c r="F98" s="691"/>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
@@ -15457,7 +15519,7 @@
       <c r="E99" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="F99" s="690" t="s">
+      <c r="F99" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15474,7 +15536,7 @@
       <c r="E100" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F100" s="690"/>
+      <c r="F100" s="691"/>
       <c r="H100" s="21" t="s">
         <v>100</v>
       </c>
@@ -15486,10 +15548,10 @@
       <c r="C101" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G101" s="690" t="s">
+      <c r="G101" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H101" s="698" t="s">
+      <c r="H101" s="690" t="s">
         <v>40</v>
       </c>
     </row>
@@ -15500,8 +15562,8 @@
       <c r="C102" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G102" s="690"/>
-      <c r="H102" s="698"/>
+      <c r="G102" s="691"/>
+      <c r="H102" s="690"/>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="3" t="s">
@@ -15510,7 +15572,7 @@
       <c r="C103" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G103" s="690"/>
+      <c r="G103" s="691"/>
       <c r="H103" s="21"/>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.25">
@@ -15520,7 +15582,7 @@
       <c r="C104" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="690"/>
+      <c r="G104" s="691"/>
       <c r="H104" s="21"/>
     </row>
     <row r="105" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15537,7 +15599,7 @@
       <c r="E105" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="G105" s="690"/>
+      <c r="G105" s="691"/>
       <c r="H105" s="21"/>
     </row>
     <row r="106" spans="2:8" ht="30" x14ac:dyDescent="0.25">
@@ -15554,7 +15616,7 @@
       <c r="E106" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="G106" s="690"/>
+      <c r="G106" s="691"/>
       <c r="H106" s="21"/>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
@@ -15574,7 +15636,7 @@
       <c r="E108" s="14" t="s">
         <v>334</v>
       </c>
-      <c r="F108" s="690" t="s">
+      <c r="F108" s="691" t="s">
         <v>9</v>
       </c>
       <c r="H108" s="21"/>
@@ -15592,7 +15654,7 @@
       <c r="E109" s="14" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="690"/>
+      <c r="F109" s="691"/>
       <c r="H109" s="21"/>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
@@ -15602,7 +15664,7 @@
       <c r="C110" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="F110" s="690"/>
+      <c r="F110" s="691"/>
       <c r="H110" s="21"/>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.25">
@@ -15612,7 +15674,7 @@
       <c r="C111" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="F111" s="690"/>
+      <c r="F111" s="691"/>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="3" t="s">
@@ -15622,7 +15684,7 @@
         <v>326</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="F112" s="690"/>
+      <c r="F112" s="691"/>
     </row>
     <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="3" t="s">
@@ -15631,7 +15693,7 @@
       <c r="C113" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="F113" s="690"/>
+      <c r="F113" s="691"/>
     </row>
     <row r="114" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B114" s="3" t="s">
@@ -15646,10 +15708,10 @@
       <c r="E114" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="F114" s="690" t="s">
+      <c r="F114" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H114" s="698" t="s">
+      <c r="H114" s="690" t="s">
         <v>101</v>
       </c>
     </row>
@@ -15666,8 +15728,8 @@
       <c r="E115" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="F115" s="690"/>
-      <c r="H115" s="698"/>
+      <c r="F115" s="691"/>
+      <c r="H115" s="690"/>
     </row>
     <row r="116" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B116" s="3" t="s">
@@ -15682,8 +15744,8 @@
       <c r="E116" s="14" t="s">
         <v>357</v>
       </c>
-      <c r="F116" s="690"/>
-      <c r="H116" s="698"/>
+      <c r="F116" s="691"/>
+      <c r="H116" s="690"/>
     </row>
     <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" s="3" t="s">
@@ -15698,8 +15760,8 @@
       <c r="E117" s="14" t="s">
         <v>358</v>
       </c>
-      <c r="F117" s="690"/>
-      <c r="H117" s="698"/>
+      <c r="F117" s="691"/>
+      <c r="H117" s="690"/>
     </row>
     <row r="118" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="3" t="s">
@@ -15708,8 +15770,8 @@
       <c r="C118" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="F118" s="690"/>
-      <c r="H118" s="698"/>
+      <c r="F118" s="691"/>
+      <c r="H118" s="690"/>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B119" s="3" t="s">
@@ -15718,8 +15780,8 @@
       <c r="C119" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="F119" s="690"/>
-      <c r="H119" s="698"/>
+      <c r="F119" s="691"/>
+      <c r="H119" s="690"/>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="3" t="s">
@@ -15728,8 +15790,8 @@
       <c r="C120" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="F120" s="690"/>
-      <c r="H120" s="698"/>
+      <c r="F120" s="691"/>
+      <c r="H120" s="690"/>
     </row>
     <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="3" t="s">
@@ -15738,8 +15800,8 @@
       <c r="C121" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="F121" s="690"/>
-      <c r="H121" s="698"/>
+      <c r="F121" s="691"/>
+      <c r="H121" s="690"/>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="3" t="s">
@@ -15748,8 +15810,8 @@
       <c r="C122" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F122" s="690"/>
-      <c r="H122" s="698"/>
+      <c r="F122" s="691"/>
+      <c r="H122" s="690"/>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="3" t="s">
@@ -15765,8 +15827,8 @@
       <c r="E123" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="F123" s="690"/>
-      <c r="G123" s="690" t="s">
+      <c r="F123" s="691"/>
+      <c r="G123" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -15777,8 +15839,8 @@
       <c r="C124" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="F124" s="690"/>
-      <c r="G124" s="690"/>
+      <c r="F124" s="691"/>
+      <c r="G124" s="691"/>
     </row>
     <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="3" t="s">
@@ -15787,8 +15849,8 @@
       <c r="C125" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="F125" s="690"/>
-      <c r="G125" s="690"/>
+      <c r="F125" s="691"/>
+      <c r="G125" s="691"/>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="3" t="s">
@@ -15797,10 +15859,10 @@
       <c r="C126" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="F126" s="690" t="s">
+      <c r="F126" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H126" s="704" t="s">
+      <c r="H126" s="697" t="s">
         <v>41</v>
       </c>
     </row>
@@ -15818,8 +15880,8 @@
       <c r="E127" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="F127" s="690"/>
-      <c r="H127" s="704"/>
+      <c r="F127" s="691"/>
+      <c r="H127" s="697"/>
     </row>
     <row r="128" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B128" s="3" t="s">
@@ -15834,7 +15896,7 @@
       <c r="E128" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="F128" s="690"/>
+      <c r="F128" s="691"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B129" s="3" t="s">
@@ -15843,7 +15905,7 @@
       <c r="C129" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="F129" s="690"/>
+      <c r="F129" s="691"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B130" s="3" t="s">
@@ -15853,7 +15915,7 @@
         <v>370</v>
       </c>
       <c r="D130" s="2"/>
-      <c r="F130" s="690"/>
+      <c r="F130" s="691"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B131" s="3" t="s">
@@ -15862,7 +15924,7 @@
       <c r="C131" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="F131" s="690"/>
+      <c r="F131" s="691"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B132" s="9" t="s">
@@ -15878,7 +15940,7 @@
       <c r="E132" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="F132" s="690" t="s">
+      <c r="F132" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -15889,7 +15951,7 @@
       <c r="C133" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F133" s="690"/>
+      <c r="F133" s="691"/>
     </row>
     <row r="134" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="9" t="s">
@@ -15976,7 +16038,7 @@
         <v>393</v>
       </c>
       <c r="F139" s="7"/>
-      <c r="G139" s="690" t="s">
+      <c r="G139" s="691" t="s">
         <v>13</v>
       </c>
       <c r="H139" s="18"/>
@@ -15988,7 +16050,7 @@
       <c r="E140" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G140" s="690"/>
+      <c r="G140" s="691"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B141" s="9" t="s">
@@ -16004,7 +16066,7 @@
       <c r="E141" s="14" t="s">
         <v>393</v>
       </c>
-      <c r="G141" s="690" t="s">
+      <c r="G141" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16015,7 +16077,7 @@
       <c r="E142" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="G142" s="690"/>
+      <c r="G142" s="691"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
@@ -16042,10 +16104,10 @@
       <c r="E146" s="14" t="s">
         <v>401</v>
       </c>
-      <c r="G146" s="690" t="s">
+      <c r="G146" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H146" s="704" t="s">
+      <c r="H146" s="697" t="s">
         <v>48</v>
       </c>
     </row>
@@ -16063,8 +16125,8 @@
       <c r="E147" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="G147" s="690"/>
-      <c r="H147" s="704"/>
+      <c r="G147" s="691"/>
+      <c r="H147" s="697"/>
     </row>
     <row r="148" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B148" s="9" t="s">
@@ -16080,8 +16142,8 @@
       <c r="E148" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="G148" s="690"/>
-      <c r="H148" s="704"/>
+      <c r="G148" s="691"/>
+      <c r="H148" s="697"/>
     </row>
     <row r="149" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B149" s="9" t="s">
@@ -16123,10 +16185,10 @@
       <c r="E152" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="F152" s="690" t="s">
+      <c r="F152" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H152" s="704" t="s">
+      <c r="H152" s="697" t="s">
         <v>417</v>
       </c>
     </row>
@@ -16143,8 +16205,8 @@
       <c r="E153" s="14" t="s">
         <v>415</v>
       </c>
-      <c r="F153" s="690"/>
-      <c r="H153" s="704"/>
+      <c r="F153" s="691"/>
+      <c r="H153" s="697"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B154" s="9" t="s">
@@ -16159,8 +16221,8 @@
       <c r="E154" s="14" t="s">
         <v>416</v>
       </c>
-      <c r="F154" s="690"/>
-      <c r="H154" s="704"/>
+      <c r="F154" s="691"/>
+      <c r="H154" s="697"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B155" s="16" t="s">
@@ -16171,10 +16233,10 @@
       </c>
       <c r="D155" s="16"/>
       <c r="F155" s="13"/>
-      <c r="G155" s="690" t="s">
+      <c r="G155" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H155" s="698" t="s">
+      <c r="H155" s="690" t="s">
         <v>430</v>
       </c>
     </row>
@@ -16193,8 +16255,8 @@
         <v>427</v>
       </c>
       <c r="F156" s="13"/>
-      <c r="G156" s="690"/>
-      <c r="H156" s="698"/>
+      <c r="G156" s="691"/>
+      <c r="H156" s="690"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B157" s="16" t="s">
@@ -16211,8 +16273,8 @@
         <v>428</v>
       </c>
       <c r="F157" s="13"/>
-      <c r="G157" s="690"/>
-      <c r="H157" s="698"/>
+      <c r="G157" s="691"/>
+      <c r="H157" s="690"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B158" s="16" t="s">
@@ -16229,8 +16291,8 @@
         <v>429</v>
       </c>
       <c r="F158" s="13"/>
-      <c r="G158" s="690"/>
-      <c r="H158" s="698"/>
+      <c r="G158" s="691"/>
+      <c r="H158" s="690"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B159" s="16" t="s">
@@ -16246,7 +16308,7 @@
       <c r="E159" s="14" t="s">
         <v>431</v>
       </c>
-      <c r="F159" s="690" t="s">
+      <c r="F159" s="691" t="s">
         <v>4</v>
       </c>
       <c r="G159" s="13"/>
@@ -16266,7 +16328,7 @@
       <c r="E160" s="14" t="s">
         <v>432</v>
       </c>
-      <c r="F160" s="690"/>
+      <c r="F160" s="691"/>
       <c r="G160" s="13"/>
       <c r="H160" s="18"/>
     </row>
@@ -16284,10 +16346,10 @@
       <c r="E161" s="14" t="s">
         <v>444</v>
       </c>
-      <c r="G161" s="704" t="s">
+      <c r="G161" s="697" t="s">
         <v>16</v>
       </c>
-      <c r="H161" s="704" t="s">
+      <c r="H161" s="697" t="s">
         <v>446</v>
       </c>
     </row>
@@ -16306,8 +16368,8 @@
         <v>445</v>
       </c>
       <c r="F162" s="13"/>
-      <c r="G162" s="704"/>
-      <c r="H162" s="704"/>
+      <c r="G162" s="697"/>
+      <c r="H162" s="697"/>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="G163" s="13"/>
@@ -16326,11 +16388,11 @@
       <c r="E164" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="F164" s="690" t="s">
+      <c r="F164" s="691" t="s">
         <v>9</v>
       </c>
       <c r="G164" s="13"/>
-      <c r="H164" s="704" t="s">
+      <c r="H164" s="697" t="s">
         <v>454</v>
       </c>
     </row>
@@ -16342,9 +16404,9 @@
         <v>447</v>
       </c>
       <c r="D165" s="14"/>
-      <c r="F165" s="690"/>
+      <c r="F165" s="691"/>
       <c r="G165" s="13"/>
-      <c r="H165" s="704"/>
+      <c r="H165" s="697"/>
     </row>
     <row r="166" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
@@ -16354,9 +16416,9 @@
         <v>448</v>
       </c>
       <c r="D166" s="14"/>
-      <c r="F166" s="690"/>
+      <c r="F166" s="691"/>
       <c r="G166" s="13"/>
-      <c r="H166" s="704"/>
+      <c r="H166" s="697"/>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
@@ -16372,9 +16434,9 @@
       <c r="E167" s="14" t="s">
         <v>452</v>
       </c>
-      <c r="F167" s="690"/>
+      <c r="F167" s="691"/>
       <c r="G167" s="13"/>
-      <c r="H167" s="704"/>
+      <c r="H167" s="697"/>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
@@ -16389,8 +16451,8 @@
       <c r="E168" s="14" t="s">
         <v>453</v>
       </c>
-      <c r="F168" s="690"/>
-      <c r="H168" s="704"/>
+      <c r="F168" s="691"/>
+      <c r="H168" s="697"/>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
@@ -16399,8 +16461,8 @@
       <c r="C169" s="14" t="s">
         <v>451</v>
       </c>
-      <c r="F169" s="690"/>
-      <c r="H169" s="704"/>
+      <c r="F169" s="691"/>
+      <c r="H169" s="697"/>
     </row>
     <row r="170" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="D170" s="16" t="s">
@@ -16412,7 +16474,7 @@
       <c r="G170" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H170" s="704"/>
+      <c r="H170" s="697"/>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
@@ -16432,10 +16494,10 @@
       <c r="E172" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="F172" s="690" t="s">
+      <c r="F172" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H172" s="705" t="s">
+      <c r="H172" s="706" t="s">
         <v>473</v>
       </c>
     </row>
@@ -16446,8 +16508,8 @@
       <c r="C173" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="F173" s="690"/>
-      <c r="H173" s="705"/>
+      <c r="F173" s="691"/>
+      <c r="H173" s="706"/>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="16" t="s">
@@ -16457,8 +16519,8 @@
         <v>463</v>
       </c>
       <c r="D174" s="2"/>
-      <c r="F174" s="690"/>
-      <c r="H174" s="705"/>
+      <c r="F174" s="691"/>
+      <c r="H174" s="706"/>
     </row>
     <row r="175" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B175" s="16" t="s">
@@ -16474,8 +16536,8 @@
       <c r="E175" s="14" t="s">
         <v>466</v>
       </c>
-      <c r="F175" s="690"/>
-      <c r="H175" s="705"/>
+      <c r="F175" s="691"/>
+      <c r="H175" s="706"/>
     </row>
     <row r="176" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B176" s="16" t="s">
@@ -16491,10 +16553,10 @@
       <c r="E176" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="G176" s="690" t="s">
+      <c r="G176" s="691" t="s">
         <v>16</v>
       </c>
-      <c r="H176" s="704" t="s">
+      <c r="H176" s="697" t="s">
         <v>51</v>
       </c>
     </row>
@@ -16511,8 +16573,8 @@
       <c r="E177" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G177" s="690"/>
-      <c r="H177" s="704"/>
+      <c r="G177" s="691"/>
+      <c r="H177" s="697"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B178" s="19" t="s">
@@ -16521,7 +16583,7 @@
       <c r="C178" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="G178" s="690" t="s">
+      <c r="G178" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16539,7 +16601,7 @@
       <c r="E179" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G179" s="690"/>
+      <c r="G179" s="691"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="11" t="s">
@@ -16565,7 +16627,7 @@
       <c r="F182" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H182" s="704" t="s">
+      <c r="H182" s="697" t="s">
         <v>55</v>
       </c>
     </row>
@@ -16587,7 +16649,7 @@
         <v>9</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="704"/>
+      <c r="H183" s="697"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B184" s="19" t="s">
@@ -16604,7 +16666,7 @@
         <v>487</v>
       </c>
       <c r="F184" s="17"/>
-      <c r="G184" s="690" t="s">
+      <c r="G184" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16618,7 +16680,7 @@
         <v>488</v>
       </c>
       <c r="F185" s="17"/>
-      <c r="G185" s="690"/>
+      <c r="G185" s="691"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="11" t="s">
@@ -16653,7 +16715,7 @@
       <c r="F188" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H188" s="704" t="s">
+      <c r="H188" s="697" t="s">
         <v>493</v>
       </c>
     </row>
@@ -16674,7 +16736,7 @@
       <c r="F189" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H189" s="704"/>
+      <c r="H189" s="697"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B190" s="19" t="s">
@@ -16690,10 +16752,10 @@
       <c r="E190" s="20" t="s">
         <v>491</v>
       </c>
-      <c r="G190" s="690" t="s">
+      <c r="G190" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="H190" s="704"/>
+      <c r="H190" s="697"/>
     </row>
     <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
@@ -16703,8 +16765,8 @@
       <c r="E191" s="20" t="s">
         <v>492</v>
       </c>
-      <c r="G191" s="690"/>
-      <c r="H191" s="704"/>
+      <c r="G191" s="691"/>
+      <c r="H191" s="697"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="11" t="s">
@@ -16725,7 +16787,7 @@
       <c r="E194" s="20" t="s">
         <v>499</v>
       </c>
-      <c r="F194" s="690" t="s">
+      <c r="F194" s="691" t="s">
         <v>9</v>
       </c>
     </row>
@@ -16737,7 +16799,7 @@
       <c r="E195" s="20" t="s">
         <v>500</v>
       </c>
-      <c r="F195" s="690"/>
+      <c r="F195" s="691"/>
       <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -16755,7 +16817,7 @@
         <v>501</v>
       </c>
       <c r="F196" s="17"/>
-      <c r="G196" s="690" t="s">
+      <c r="G196" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16769,7 +16831,7 @@
         <v>502</v>
       </c>
       <c r="F197" s="17"/>
-      <c r="G197" s="690"/>
+      <c r="G197" s="691"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D198" s="19" t="s">
@@ -16778,7 +16840,7 @@
       <c r="E198" s="20" t="s">
         <v>503</v>
       </c>
-      <c r="G198" s="690"/>
+      <c r="G198" s="691"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="11"/>
@@ -16795,7 +16857,7 @@
       <c r="E199" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="G199" s="690" t="s">
+      <c r="G199" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16810,7 +16872,7 @@
       <c r="D200" s="19"/>
       <c r="E200" s="20"/>
       <c r="F200" s="17"/>
-      <c r="G200" s="690"/>
+      <c r="G200" s="691"/>
       <c r="H200" s="1" t="s">
         <v>63</v>
       </c>
@@ -16826,7 +16888,7 @@
       <c r="D201" s="19"/>
       <c r="E201" s="20"/>
       <c r="F201" s="17"/>
-      <c r="G201" s="690"/>
+      <c r="G201" s="691"/>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="11"/>
@@ -16844,7 +16906,7 @@
         <v>515</v>
       </c>
       <c r="F202" s="17"/>
-      <c r="G202" s="690"/>
+      <c r="G202" s="691"/>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="11"/>
@@ -16905,7 +16967,7 @@
         <v>524</v>
       </c>
       <c r="F206" s="17"/>
-      <c r="G206" s="690" t="s">
+      <c r="G206" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -16925,7 +16987,7 @@
         <v>525</v>
       </c>
       <c r="F207" s="17"/>
-      <c r="G207" s="690"/>
+      <c r="G207" s="691"/>
       <c r="H207" s="1" t="s">
         <v>65</v>
       </c>
@@ -16944,7 +17006,7 @@
       <c r="E208" s="14" t="s">
         <v>491</v>
       </c>
-      <c r="G208" s="690"/>
+      <c r="G208" s="691"/>
       <c r="H208" s="25"/>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -16961,7 +17023,7 @@
       <c r="E209" s="23" t="s">
         <v>530</v>
       </c>
-      <c r="G209" s="690"/>
+      <c r="G209" s="691"/>
       <c r="H209" s="25"/>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
@@ -16978,7 +17040,7 @@
       <c r="E210" s="23" t="s">
         <v>531</v>
       </c>
-      <c r="G210" s="690"/>
+      <c r="G210" s="691"/>
       <c r="H210" s="25"/>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
@@ -16995,7 +17057,7 @@
       <c r="E211" s="23" t="s">
         <v>537</v>
       </c>
-      <c r="G211" s="690"/>
+      <c r="G211" s="691"/>
     </row>
     <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="24" t="s">
@@ -17010,7 +17072,7 @@
       <c r="E212" s="23" t="s">
         <v>538</v>
       </c>
-      <c r="G212" s="690"/>
+      <c r="G212" s="691"/>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B213" s="24" t="s">
@@ -17029,7 +17091,7 @@
       <c r="F213" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="H213" s="704" t="s">
+      <c r="H213" s="697" t="s">
         <v>67</v>
       </c>
     </row>
@@ -17050,7 +17112,7 @@
       <c r="F214" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H214" s="704"/>
+      <c r="H214" s="697"/>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B215" s="24" t="s">
@@ -17066,10 +17128,10 @@
       <c r="E215" s="23" t="s">
         <v>544</v>
       </c>
-      <c r="F215" s="690" t="s">
+      <c r="F215" s="691" t="s">
         <v>4</v>
       </c>
-      <c r="H215" s="704" t="s">
+      <c r="H215" s="697" t="s">
         <v>546</v>
       </c>
     </row>
@@ -17081,8 +17143,8 @@
       <c r="E216" s="23" t="s">
         <v>545</v>
       </c>
-      <c r="F216" s="690"/>
-      <c r="H216" s="704"/>
+      <c r="F216" s="691"/>
+      <c r="H216" s="697"/>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
@@ -17148,10 +17210,10 @@
       <c r="E220" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="F220" s="690" t="s">
+      <c r="F220" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H220" s="704" t="s">
+      <c r="H220" s="697" t="s">
         <v>556</v>
       </c>
     </row>
@@ -17163,8 +17225,8 @@
         <v>384</v>
       </c>
       <c r="D221" s="2"/>
-      <c r="F221" s="690"/>
-      <c r="H221" s="704"/>
+      <c r="F221" s="691"/>
+      <c r="H221" s="697"/>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B222" s="24" t="s">
@@ -17173,8 +17235,8 @@
       <c r="C222" s="24" t="s">
         <v>555</v>
       </c>
-      <c r="F222" s="690"/>
-      <c r="H222" s="704"/>
+      <c r="F222" s="691"/>
+      <c r="H222" s="697"/>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B223" s="24"/>
@@ -17205,10 +17267,10 @@
       <c r="E226" s="23" t="s">
         <v>561</v>
       </c>
-      <c r="F226" s="690" t="s">
+      <c r="F226" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H226" s="705" t="s">
+      <c r="H226" s="706" t="s">
         <v>566</v>
       </c>
     </row>
@@ -17219,8 +17281,8 @@
       <c r="E227" s="23" t="s">
         <v>562</v>
       </c>
-      <c r="F227" s="690"/>
-      <c r="H227" s="705"/>
+      <c r="F227" s="691"/>
+      <c r="H227" s="706"/>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D228" s="24" t="s">
@@ -17229,8 +17291,8 @@
       <c r="E228" s="23" t="s">
         <v>563</v>
       </c>
-      <c r="F228" s="690"/>
-      <c r="H228" s="705"/>
+      <c r="F228" s="691"/>
+      <c r="H228" s="706"/>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C229" s="2"/>
@@ -17240,8 +17302,8 @@
       <c r="E229" s="23" t="s">
         <v>564</v>
       </c>
-      <c r="F229" s="690"/>
-      <c r="H229" s="705"/>
+      <c r="F229" s="691"/>
+      <c r="H229" s="706"/>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D230" s="24" t="s">
@@ -17250,8 +17312,8 @@
       <c r="E230" s="23" t="s">
         <v>565</v>
       </c>
-      <c r="F230" s="690"/>
-      <c r="H230" s="705"/>
+      <c r="F230" s="691"/>
+      <c r="H230" s="706"/>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B231" s="24" t="s">
@@ -17270,7 +17332,7 @@
       <c r="G231" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H231" s="705"/>
+      <c r="H231" s="706"/>
     </row>
     <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="B232" s="24" t="s">
@@ -17312,10 +17374,10 @@
       <c r="E235" s="23" t="s">
         <v>576</v>
       </c>
-      <c r="F235" s="690" t="s">
+      <c r="F235" s="691" t="s">
         <v>9</v>
       </c>
-      <c r="H235" s="704" t="s">
+      <c r="H235" s="697" t="s">
         <v>580</v>
       </c>
     </row>
@@ -17326,8 +17388,8 @@
       <c r="E236" s="23" t="s">
         <v>577</v>
       </c>
-      <c r="F236" s="690"/>
-      <c r="H236" s="704"/>
+      <c r="F236" s="691"/>
+      <c r="H236" s="697"/>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D237" s="24" t="s">
@@ -17336,8 +17398,8 @@
       <c r="E237" s="23" t="s">
         <v>578</v>
       </c>
-      <c r="F237" s="690"/>
-      <c r="H237" s="704"/>
+      <c r="F237" s="691"/>
+      <c r="H237" s="697"/>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D238" s="24" t="s">
@@ -17346,8 +17408,8 @@
       <c r="E238" s="23" t="s">
         <v>579</v>
       </c>
-      <c r="F238" s="690"/>
-      <c r="H238" s="704"/>
+      <c r="F238" s="691"/>
+      <c r="H238" s="697"/>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B239" s="24" t="s">
@@ -17363,7 +17425,7 @@
       <c r="E239" s="23" t="s">
         <v>581</v>
       </c>
-      <c r="G239" s="690" t="s">
+      <c r="G239" s="691" t="s">
         <v>13</v>
       </c>
     </row>
@@ -17374,7 +17436,7 @@
       <c r="E240" s="23" t="s">
         <v>582</v>
       </c>
-      <c r="G240" s="690"/>
+      <c r="G240" s="691"/>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B241" s="24" t="s">
@@ -17390,11 +17452,11 @@
       <c r="E241" s="23" t="s">
         <v>584</v>
       </c>
-      <c r="F241" s="690" t="s">
+      <c r="F241" s="691" t="s">
         <v>9</v>
       </c>
       <c r="G241" s="22"/>
-      <c r="H241" s="704" t="s">
+      <c r="H241" s="697" t="s">
         <v>79</v>
       </c>
     </row>
@@ -17405,9 +17467,9 @@
       <c r="E242" s="23" t="s">
         <v>585</v>
       </c>
-      <c r="F242" s="690"/>
+      <c r="F242" s="691"/>
       <c r="G242" s="22"/>
-      <c r="H242" s="704"/>
+      <c r="H242" s="697"/>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D243" s="2"/>
@@ -17524,14 +17586,57 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F241:F242"/>
-    <mergeCell ref="H241:H242"/>
-    <mergeCell ref="F220:F222"/>
-    <mergeCell ref="F226:F230"/>
-    <mergeCell ref="H226:H231"/>
-    <mergeCell ref="F235:F238"/>
-    <mergeCell ref="H235:H238"/>
-    <mergeCell ref="G239:G240"/>
+    <mergeCell ref="F194:F195"/>
+    <mergeCell ref="G196:G198"/>
+    <mergeCell ref="G199:G202"/>
+    <mergeCell ref="B6:B12"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F6:F12"/>
+    <mergeCell ref="C6:C12"/>
+    <mergeCell ref="F132:F133"/>
+    <mergeCell ref="G139:G140"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="G101:G106"/>
+    <mergeCell ref="F114:F122"/>
+    <mergeCell ref="F123:F125"/>
+    <mergeCell ref="F126:F131"/>
+    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="H78:H80"/>
+    <mergeCell ref="H90:H94"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G81:G83"/>
+    <mergeCell ref="G40:G44"/>
+    <mergeCell ref="H37:H44"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="G50:G52"/>
+    <mergeCell ref="F85:F88"/>
+    <mergeCell ref="H85:H88"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="G34:G36"/>
+    <mergeCell ref="F30:F33"/>
+    <mergeCell ref="H30:H36"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="H69:H73"/>
+    <mergeCell ref="G69:G73"/>
+    <mergeCell ref="G206:G212"/>
+    <mergeCell ref="H220:H222"/>
+    <mergeCell ref="H114:H122"/>
+    <mergeCell ref="G123:G125"/>
+    <mergeCell ref="G155:G158"/>
+    <mergeCell ref="H155:H158"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="G190:G191"/>
+    <mergeCell ref="H188:H191"/>
+    <mergeCell ref="G178:G179"/>
+    <mergeCell ref="H182:H183"/>
+    <mergeCell ref="G184:G185"/>
+    <mergeCell ref="H101:H102"/>
+    <mergeCell ref="H161:H162"/>
+    <mergeCell ref="G161:G162"/>
+    <mergeCell ref="G176:G177"/>
+    <mergeCell ref="H176:H177"/>
     <mergeCell ref="H6:H12"/>
     <mergeCell ref="G53:G56"/>
     <mergeCell ref="H213:H214"/>
@@ -17548,57 +17653,14 @@
     <mergeCell ref="H152:H154"/>
     <mergeCell ref="F152:F154"/>
     <mergeCell ref="F108:F113"/>
-    <mergeCell ref="H101:H102"/>
-    <mergeCell ref="H161:H162"/>
-    <mergeCell ref="G161:G162"/>
-    <mergeCell ref="G176:G177"/>
-    <mergeCell ref="H176:H177"/>
-    <mergeCell ref="G206:G212"/>
-    <mergeCell ref="H220:H222"/>
-    <mergeCell ref="H114:H122"/>
-    <mergeCell ref="G123:G125"/>
-    <mergeCell ref="G155:G158"/>
-    <mergeCell ref="H155:H158"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="G190:G191"/>
-    <mergeCell ref="H188:H191"/>
-    <mergeCell ref="G178:G179"/>
-    <mergeCell ref="H182:H183"/>
-    <mergeCell ref="G184:G185"/>
-    <mergeCell ref="G34:G36"/>
-    <mergeCell ref="F30:F33"/>
-    <mergeCell ref="H30:H36"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="H69:H73"/>
-    <mergeCell ref="G69:G73"/>
-    <mergeCell ref="H78:H80"/>
-    <mergeCell ref="H90:H94"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G81:G83"/>
-    <mergeCell ref="G40:G44"/>
-    <mergeCell ref="H37:H44"/>
-    <mergeCell ref="H47:H49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="G50:G52"/>
-    <mergeCell ref="F85:F88"/>
-    <mergeCell ref="H85:H88"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F194:F195"/>
-    <mergeCell ref="G196:G198"/>
-    <mergeCell ref="G199:G202"/>
-    <mergeCell ref="B6:B12"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F6:F12"/>
-    <mergeCell ref="C6:C12"/>
-    <mergeCell ref="F132:F133"/>
-    <mergeCell ref="G139:G140"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="G101:G106"/>
-    <mergeCell ref="F114:F122"/>
-    <mergeCell ref="F123:F125"/>
-    <mergeCell ref="F126:F131"/>
-    <mergeCell ref="F21:F26"/>
+    <mergeCell ref="F241:F242"/>
+    <mergeCell ref="H241:H242"/>
+    <mergeCell ref="F220:F222"/>
+    <mergeCell ref="F226:F230"/>
+    <mergeCell ref="H226:H231"/>
+    <mergeCell ref="F235:F238"/>
+    <mergeCell ref="H235:H238"/>
+    <mergeCell ref="G239:G240"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pedagogie/Progression_PSI_V2.xlsx
+++ b/Pedagogie/Progression_PSI_V2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Enseignement\GitHub\PSI\Pedagogie\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13140" windowHeight="6705" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2017-2018" sheetId="4" r:id="rId1"/>
@@ -16,8 +21,9 @@
     <sheet name="Tri_Semestre" sheetId="3" r:id="rId7"/>
     <sheet name="Programme_S3_S4" sheetId="2" r:id="rId8"/>
     <sheet name="Programme" sheetId="1" r:id="rId9"/>
+    <sheet name="Rotation TP" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1795" uniqueCount="858">
   <si>
     <t>A – Analyser</t>
   </si>
@@ -1951,9 +1957,6 @@
 Pentecôte</t>
   </si>
   <si>
-    <t>Cycle 8 : analyse de la chaine d'information d'un système.</t>
-  </si>
-  <si>
     <t>Cycle 9 : Modélisation multiphysique et simulation des systèmes complexes.</t>
   </si>
   <si>
@@ -2467,11 +2470,242 @@
   <si>
     <t>DS 6 Leq + SED</t>
   </si>
+  <si>
+    <t>Cycle 8 : Analyse de la chaine d'information d'un système.</t>
+  </si>
+  <si>
+    <t>A1C1</t>
+  </si>
+  <si>
+    <t>A2C2</t>
+  </si>
+  <si>
+    <t>B1B2</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>T1_1</t>
+  </si>
+  <si>
+    <t>T1_2</t>
+  </si>
+  <si>
+    <t>T1_3</t>
+  </si>
+  <si>
+    <t>T3_1</t>
+  </si>
+  <si>
+    <t>T3_2</t>
+  </si>
+  <si>
+    <t>T3_3</t>
+  </si>
+  <si>
+    <t>T5_1</t>
+  </si>
+  <si>
+    <t>T5_2</t>
+  </si>
+  <si>
+    <t>T5_3</t>
+  </si>
+  <si>
+    <t>T13_1</t>
+  </si>
+  <si>
+    <t>T13_2</t>
+  </si>
+  <si>
+    <t>T13_3</t>
+  </si>
+  <si>
+    <t>T15_1</t>
+  </si>
+  <si>
+    <t>T15_2</t>
+  </si>
+  <si>
+    <t>T15_3</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T10_1</t>
+  </si>
+  <si>
+    <t>T10_2</t>
+  </si>
+  <si>
+    <t>T10_3</t>
+  </si>
+  <si>
+    <t>T12_1</t>
+  </si>
+  <si>
+    <t>T12_2</t>
+  </si>
+  <si>
+    <t>T12_3</t>
+  </si>
+  <si>
+    <t>T14_1</t>
+  </si>
+  <si>
+    <t>T14_2</t>
+  </si>
+  <si>
+    <t>T14_3</t>
+  </si>
+  <si>
+    <t>T2_1</t>
+  </si>
+  <si>
+    <t>T2_2</t>
+  </si>
+  <si>
+    <t>T2_3</t>
+  </si>
+  <si>
+    <t>T4_1</t>
+  </si>
+  <si>
+    <t>T4_2</t>
+  </si>
+  <si>
+    <t>T4_3</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>T7_1</t>
+  </si>
+  <si>
+    <t>T7_2</t>
+  </si>
+  <si>
+    <t>T7_3</t>
+  </si>
+  <si>
+    <t>T9_1</t>
+  </si>
+  <si>
+    <t>T9_2</t>
+  </si>
+  <si>
+    <t>T9_3</t>
+  </si>
+  <si>
+    <t>T11_1</t>
+  </si>
+  <si>
+    <t>T11_2</t>
+  </si>
+  <si>
+    <t>T11_3</t>
+  </si>
+  <si>
+    <t>T6_1</t>
+  </si>
+  <si>
+    <t>T6_2</t>
+  </si>
+  <si>
+    <t>T6_3</t>
+  </si>
+  <si>
+    <t>T8_1</t>
+  </si>
+  <si>
+    <t>T8_2</t>
+  </si>
+  <si>
+    <t>T8_3</t>
+  </si>
+  <si>
+    <t>Coordinateur</t>
+  </si>
+  <si>
+    <t>Modélisateur</t>
+  </si>
+  <si>
+    <t>Expérimentateur</t>
+  </si>
+  <si>
+    <t>Cycle 1</t>
+  </si>
+  <si>
+    <t>Cheville NAO</t>
+  </si>
+  <si>
+    <t>Control'X</t>
+  </si>
+  <si>
+    <t>Ericc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-40C]General"/>
@@ -2716,7 +2950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="57">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -3440,12 +3674,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="710">
+  <cellXfs count="739">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -4710,6 +5018,9 @@
     <xf numFmtId="0" fontId="5" fillId="18" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4902,48 +5213,48 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4958,6 +5269,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5493,15 +5813,78 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -5540,7 +5923,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFDB3A4A-30E8-4849-9D6F-779194BAEACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5584,7 +5967,7 @@
         <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C8BB945-20F8-4223-AFA4-4148BC508098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5636,7 +6019,7 @@
         <xdr:cNvPr id="4" name="Image 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94FC38CD-B077-4D73-AE48-8231C73E27B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5680,7 +6063,7 @@
         <xdr:cNvPr id="5" name="Image 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E50C3C4-4C6E-4F6A-9A05-70BCACDD859E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5724,7 +6107,7 @@
         <xdr:cNvPr id="6" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35E389F1-AF58-49C1-BE18-C65E9A958FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5809,7 +6192,7 @@
         <xdr:cNvPr id="7" name="Image 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C8BB945-20F8-4223-AFA4-4148BC508098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5861,7 +6244,7 @@
         <xdr:cNvPr id="8" name="Image 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94FC38CD-B077-4D73-AE48-8231C73E27B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5905,7 +6288,7 @@
         <xdr:cNvPr id="9" name="Image 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E50C3C4-4C6E-4F6A-9A05-70BCACDD859E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5949,7 +6332,7 @@
         <xdr:cNvPr id="11" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35E389F1-AF58-49C1-BE18-C65E9A958FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6029,7 +6412,7 @@
         <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CFDB3A4A-30E8-4849-9D6F-779194BAEACF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6073,7 +6456,7 @@
         <xdr:cNvPr id="5" name="Image 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2E8E0600-71BE-46D4-ACAC-6C40662801DF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6117,7 +6500,7 @@
         <xdr:cNvPr id="6" name="Image 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D4FDB9DD-5C45-472C-99A1-61F84C51A210}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6161,7 +6544,7 @@
         <xdr:cNvPr id="13" name="Image 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7EB5C94C-64FF-4A91-BCC7-382945C66F43}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6205,7 +6588,7 @@
         <xdr:cNvPr id="14" name="Image 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1C8BB945-20F8-4223-AFA4-4148BC508098}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6257,7 +6640,7 @@
         <xdr:cNvPr id="15" name="Image 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{94FC38CD-B077-4D73-AE48-8231C73E27B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6301,7 +6684,7 @@
         <xdr:cNvPr id="16" name="Image 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1E50C3C4-4C6E-4F6A-9A05-70BCACDD859E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6345,7 +6728,7 @@
         <xdr:cNvPr id="17" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{35E389F1-AF58-49C1-BE18-C65E9A958FF4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6430,7 +6813,7 @@
         <xdr:cNvPr id="7" name="Image 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5BDA700C-59E8-4346-84F8-0C06808B45A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6482,7 +6865,7 @@
         <xdr:cNvPr id="8" name="Image 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A7917190-0D10-44D9-B280-4A1857F65F80}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6526,7 +6909,7 @@
         <xdr:cNvPr id="9" name="Image 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EC24FD4B-C71B-4B0C-8778-A045FA19E6F2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6570,7 +6953,7 @@
         <xdr:cNvPr id="10" name="Image 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{CDE537EC-2571-49FD-85CC-6299BB9A1C27}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6614,7 +6997,7 @@
         <xdr:cNvPr id="12" name="Image 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4B18F87F-AD1D-4F7F-988C-099D0B3649C6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6656,7 +7039,7 @@
         <xdr:cNvPr id="14" name="Image 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C37F1701-0EE6-4825-8921-41EFEBCEE0BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6700,7 +7083,7 @@
         <xdr:cNvPr id="15" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3AFFF55B-BE6C-4F33-AAD7-12849E536890}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6780,7 +7163,7 @@
         <xdr:cNvPr id="16" name="Image 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{98AEE5E4-2303-49E2-85F4-298E63DB5D7E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6832,7 +7215,7 @@
         <xdr:cNvPr id="17" name="Image 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A94DE8D-8623-459D-A6CF-C491139E653A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6876,7 +7259,7 @@
         <xdr:cNvPr id="18" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{83A20956-55E3-4E93-A7C0-2A331425B97B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6944,7 +7327,7 @@
         <xdr:cNvPr id="13" name="Image 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B8FBE4E0-0447-4225-89AF-5E8DC5E8BA51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6996,7 +7379,7 @@
         <xdr:cNvPr id="19" name="Image 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{80817C6A-4C2C-4566-9747-2B12DAD4548E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7068,7 +7451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -7120,7 +7503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -7314,7 +7697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7327,11 +7710,11 @@
   </sheetPr>
   <dimension ref="A1:Q95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E23" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="E18" sqref="A16:Q19"/>
+      <selection pane="bottomRight" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -7365,19 +7748,19 @@
       </c>
       <c r="F1" s="169"/>
       <c r="G1" s="171" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H1" s="170" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="171" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J1" s="169" t="s">
         <v>602</v>
       </c>
       <c r="K1" s="169" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L1" s="169" t="s">
         <v>603</v>
@@ -7392,7 +7775,7 @@
         <v>608</v>
       </c>
       <c r="P1" s="252" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="Q1" s="172" t="s">
         <v>607</v>
@@ -7420,40 +7803,40 @@
         <f>Tri_Semestre!A1</f>
         <v>Cycle 1 : Modéliser le comportement linéaire et non linéaire des systèmes.</v>
       </c>
-      <c r="F2" s="489" t="s">
-        <v>703</v>
-      </c>
-      <c r="G2" s="510" t="s">
-        <v>665</v>
-      </c>
-      <c r="H2" s="507" t="str">
+      <c r="F2" s="490" t="s">
+        <v>702</v>
+      </c>
+      <c r="G2" s="524" t="s">
+        <v>664</v>
+      </c>
+      <c r="H2" s="508" t="str">
         <f>Tri_Semestre!B7</f>
         <v>Mod2.C1, Mod2.C8, Mod3.C1</v>
       </c>
-      <c r="I2" s="507" t="str">
+      <c r="I2" s="508" t="str">
         <f>Tri_Semestre!D7</f>
         <v>Mod2.C1.SF4, Mod2.C1.SF5, Mod2.C1.SF6, Mod2.C8.SF1, Mod3.C1.SF1</v>
       </c>
       <c r="J2" s="511" t="s">
-        <v>668</v>
-      </c>
-      <c r="K2" s="707" t="s">
-        <v>752</v>
+        <v>667</v>
+      </c>
+      <c r="K2" s="530" t="s">
+        <v>751</v>
       </c>
       <c r="L2" s="199" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="M2" s="199" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="N2" s="280" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O2" s="199"/>
       <c r="P2" s="253"/>
       <c r="Q2" s="200"/>
     </row>
-    <row r="3" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="76.5" x14ac:dyDescent="0.25">
       <c r="A3" s="158">
         <f>A2+1</f>
         <v>1</v>
@@ -7473,23 +7856,23 @@
 17/09/17</v>
       </c>
       <c r="E3" s="522"/>
-      <c r="F3" s="490"/>
-      <c r="G3" s="524"/>
-      <c r="H3" s="508"/>
-      <c r="I3" s="508"/>
+      <c r="F3" s="491"/>
+      <c r="G3" s="525"/>
+      <c r="H3" s="509"/>
+      <c r="I3" s="509"/>
       <c r="J3" s="512"/>
-      <c r="K3" s="708"/>
+      <c r="K3" s="531"/>
       <c r="L3" s="202" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="M3" s="202" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="N3" s="202"/>
       <c r="O3" s="202"/>
       <c r="P3" s="254"/>
       <c r="Q3" s="203" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7512,27 +7895,27 @@
 24/09/17</v>
       </c>
       <c r="E4" s="523"/>
-      <c r="F4" s="491"/>
-      <c r="G4" s="525"/>
-      <c r="H4" s="509"/>
-      <c r="I4" s="509"/>
+      <c r="F4" s="492"/>
+      <c r="G4" s="526"/>
+      <c r="H4" s="510"/>
+      <c r="I4" s="510"/>
       <c r="J4" s="205" t="s">
-        <v>667</v>
-      </c>
-      <c r="K4" s="709"/>
+        <v>666</v>
+      </c>
+      <c r="K4" s="532"/>
       <c r="L4" s="205" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="M4" s="205" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="N4" s="205" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="O4" s="205"/>
       <c r="P4" s="255"/>
       <c r="Q4" s="206" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="51" x14ac:dyDescent="0.25">
@@ -7554,15 +7937,15 @@
 au
 01/10/17</v>
       </c>
-      <c r="E5" s="486" t="str">
+      <c r="E5" s="487" t="str">
         <f>Tri_Semestre!A8</f>
         <v xml:space="preserve">Cycle 2 : Prévoir les performances des systèmes asservis. </v>
       </c>
-      <c r="F5" s="492" t="s">
-        <v>689</v>
-      </c>
-      <c r="G5" s="526" t="s">
-        <v>650</v>
+      <c r="F5" s="493" t="s">
+        <v>688</v>
+      </c>
+      <c r="G5" s="527" t="s">
+        <v>649</v>
       </c>
       <c r="H5" s="518" t="str">
         <f>Tri_Semestre!B16</f>
@@ -7573,15 +7956,15 @@
         <v>Mod3.C2.SF1, , Res2.C5.SF1, Res2.C6.SF1, Res2.C7.SF1, Res2.C10.SF1, Res2.C11.SF1</v>
       </c>
       <c r="J5" s="210" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K5" s="283"/>
       <c r="L5" s="210" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="M5" s="210"/>
       <c r="N5" s="210" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="O5" s="210"/>
       <c r="P5" s="256"/>
@@ -7606,19 +7989,19 @@
 au
 08/10/17</v>
       </c>
-      <c r="E6" s="487"/>
-      <c r="F6" s="493"/>
-      <c r="G6" s="527"/>
+      <c r="E6" s="488"/>
+      <c r="F6" s="494"/>
+      <c r="G6" s="528"/>
       <c r="H6" s="519"/>
       <c r="I6" s="519"/>
       <c r="J6" s="207" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="K6" s="284" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="L6" s="207" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="M6" s="207"/>
       <c r="N6" s="207"/>
@@ -7645,21 +8028,21 @@
 au
 15/10/17</v>
       </c>
-      <c r="E7" s="488"/>
-      <c r="F7" s="494"/>
-      <c r="G7" s="528"/>
+      <c r="E7" s="489"/>
+      <c r="F7" s="495"/>
+      <c r="G7" s="529"/>
       <c r="H7" s="520"/>
       <c r="I7" s="520"/>
       <c r="J7" s="214" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K7" s="285"/>
       <c r="L7" s="214" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="M7" s="214"/>
       <c r="N7" s="214" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="O7" s="214"/>
       <c r="P7" s="258"/>
@@ -7688,11 +8071,11 @@
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F8" s="503" t="s">
-        <v>694</v>
+      <c r="F8" s="504" t="s">
+        <v>693</v>
       </c>
       <c r="G8" s="218" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H8" s="219" t="str">
         <f>Tri_Semestre!B20</f>
@@ -7703,15 +8086,15 @@
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
       <c r="J8" s="218" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="K8" s="218"/>
       <c r="L8" s="218" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="M8" s="218"/>
       <c r="N8" s="218" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="O8" s="218"/>
       <c r="P8" s="259"/>
@@ -7731,23 +8114,23 @@
         <f>CONCATENATE(TEXT(B9,"JJ/MM/AA")," au ",TEXT(C9,"JJ/MM/AA"))</f>
         <v>23/10/17 au 29/10/17</v>
       </c>
-      <c r="E9" s="501" t="s">
+      <c r="E9" s="502" t="s">
         <v>610</v>
       </c>
-      <c r="F9" s="504"/>
-      <c r="G9" s="495" t="s">
+      <c r="F9" s="505"/>
+      <c r="G9" s="496" t="s">
         <v>610</v>
       </c>
-      <c r="H9" s="496"/>
-      <c r="I9" s="496"/>
-      <c r="J9" s="496"/>
-      <c r="K9" s="496"/>
-      <c r="L9" s="496"/>
-      <c r="M9" s="496"/>
-      <c r="N9" s="496"/>
-      <c r="O9" s="496"/>
-      <c r="P9" s="496"/>
-      <c r="Q9" s="497"/>
+      <c r="H9" s="497"/>
+      <c r="I9" s="497"/>
+      <c r="J9" s="497"/>
+      <c r="K9" s="497"/>
+      <c r="L9" s="497"/>
+      <c r="M9" s="497"/>
+      <c r="N9" s="497"/>
+      <c r="O9" s="497"/>
+      <c r="P9" s="497"/>
+      <c r="Q9" s="498"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="158"/>
@@ -7763,19 +8146,19 @@
         <f>CONCATENATE(TEXT(B10,"JJ/MM/AA")," au ",TEXT(C10,"JJ/MM/AA"))</f>
         <v>30/10/17 au 05/11/17</v>
       </c>
-      <c r="E10" s="502"/>
-      <c r="F10" s="504"/>
-      <c r="G10" s="498"/>
-      <c r="H10" s="499"/>
-      <c r="I10" s="499"/>
-      <c r="J10" s="499"/>
-      <c r="K10" s="499"/>
-      <c r="L10" s="499"/>
-      <c r="M10" s="499"/>
-      <c r="N10" s="499"/>
-      <c r="O10" s="499"/>
-      <c r="P10" s="499"/>
-      <c r="Q10" s="500"/>
+      <c r="E10" s="503"/>
+      <c r="F10" s="505"/>
+      <c r="G10" s="499"/>
+      <c r="H10" s="500"/>
+      <c r="I10" s="500"/>
+      <c r="J10" s="500"/>
+      <c r="K10" s="500"/>
+      <c r="L10" s="500"/>
+      <c r="M10" s="500"/>
+      <c r="N10" s="500"/>
+      <c r="O10" s="500"/>
+      <c r="P10" s="500"/>
+      <c r="Q10" s="501"/>
     </row>
     <row r="11" spans="1:17" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="158">
@@ -7796,30 +8179,30 @@
 au
 12/11/17</v>
       </c>
-      <c r="E11" s="535" t="str">
+      <c r="E11" s="539" t="str">
         <f>Tri_Semestre!A17</f>
         <v xml:space="preserve">Cycle 3 : Concevoir la partie commande des systèmes asservis afin de valider leurs performances. </v>
       </c>
-      <c r="F11" s="504"/>
+      <c r="F11" s="505"/>
       <c r="G11" s="513" t="s">
-        <v>651</v>
-      </c>
-      <c r="H11" s="537" t="str">
+        <v>650</v>
+      </c>
+      <c r="H11" s="541" t="str">
         <f>Tri_Semestre!B20</f>
         <v>Res1.C4, Con.C2</v>
       </c>
-      <c r="I11" s="537" t="str">
+      <c r="I11" s="541" t="str">
         <f>Tri_Semestre!D20</f>
         <v>Res1.C4.SF1, Con.C2.SF1</v>
       </c>
       <c r="J11" s="513" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K11" s="513" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L11" s="223" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="M11" s="223"/>
       <c r="N11" s="223"/>
@@ -7848,19 +8231,19 @@
 au
 19/11/17</v>
       </c>
-      <c r="E12" s="536"/>
-      <c r="F12" s="505"/>
+      <c r="E12" s="540"/>
+      <c r="F12" s="506"/>
       <c r="G12" s="514"/>
-      <c r="H12" s="538"/>
-      <c r="I12" s="538"/>
+      <c r="H12" s="542"/>
+      <c r="I12" s="542"/>
       <c r="J12" s="514"/>
       <c r="K12" s="514"/>
       <c r="L12" s="226" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="M12" s="226"/>
       <c r="N12" s="226" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="O12" s="226"/>
       <c r="P12" s="261"/>
@@ -7885,15 +8268,15 @@
 au
 26/11/17</v>
       </c>
-      <c r="E13" s="545" t="str">
+      <c r="E13" s="549" t="str">
         <f>Tri_Semestre!A21</f>
         <v>Cycle 4 : Modéliser le comportement dynamique des systèmes mécaniques dans le but d'établir une loi de comportement ou de déterminer des actions mécaniques.</v>
       </c>
-      <c r="F13" s="506" t="s">
-        <v>696</v>
-      </c>
-      <c r="G13" s="483" t="s">
-        <v>652</v>
+      <c r="F13" s="507" t="s">
+        <v>695</v>
+      </c>
+      <c r="G13" s="484" t="s">
+        <v>651</v>
       </c>
       <c r="H13" s="515" t="str">
         <f>Tri_Semestre!B29</f>
@@ -7904,15 +8287,15 @@
         <v>, , , , Mod2.C17.SF1, Res1.C1.SF1, Res1.C2.SF1</v>
       </c>
       <c r="J13" s="392" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K13" s="281"/>
       <c r="L13" s="229" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="M13" s="229"/>
       <c r="N13" s="229" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="O13" s="229"/>
       <c r="P13" s="262"/>
@@ -7937,17 +8320,17 @@
 au
 03/12/17</v>
       </c>
-      <c r="E14" s="546"/>
-      <c r="F14" s="484"/>
-      <c r="G14" s="484"/>
+      <c r="E14" s="550"/>
+      <c r="F14" s="485"/>
+      <c r="G14" s="485"/>
       <c r="H14" s="516"/>
       <c r="I14" s="516"/>
       <c r="J14" s="383" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K14" s="383"/>
       <c r="L14" s="232" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="M14" s="232"/>
       <c r="N14" s="232"/>
@@ -7974,25 +8357,25 @@
 au
 10/12/17</v>
       </c>
-      <c r="E15" s="547"/>
-      <c r="F15" s="485"/>
-      <c r="G15" s="485"/>
+      <c r="E15" s="551"/>
+      <c r="F15" s="486"/>
+      <c r="G15" s="486"/>
       <c r="H15" s="517"/>
       <c r="I15" s="517"/>
       <c r="J15" s="235" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K15" s="282" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L15" s="235" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="M15" s="235" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N15" s="235" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="O15" s="235"/>
       <c r="P15" s="264"/>
@@ -8017,33 +8400,33 @@
 au
 17/12/17</v>
       </c>
-      <c r="E16" s="481" t="str">
+      <c r="E16" s="482" t="str">
         <f>Tri_Semestre!A31</f>
         <v>Cycle 5 : Modéliser le comportement énergétique des systèmes dans le but d'établir une loi de comportement.</v>
       </c>
-      <c r="F16" s="446" t="s">
-        <v>695</v>
-      </c>
-      <c r="G16" s="481" t="s">
-        <v>653</v>
-      </c>
-      <c r="H16" s="548" t="str">
+      <c r="F16" s="447" t="s">
+        <v>694</v>
+      </c>
+      <c r="G16" s="482" t="s">
+        <v>652</v>
+      </c>
+      <c r="H16" s="552" t="str">
         <f>Tri_Semestre!B40</f>
         <v xml:space="preserve">Mod2.C18, Res1.C1, Res1.C3, Mod1.C4, Mod1.C5, Mod1.C6, , </v>
       </c>
-      <c r="I16" s="550" t="str">
+      <c r="I16" s="554" t="str">
         <f>Tri_Semestre!D40</f>
         <v>Mod2.C18.SF1, Res1.C1.SF1, Res1.C3.SF1, Mod1.C4.SF1, Mod1.C5.SF1, Mod1.C6.SF1, Mod1.C5.SF2, Mod1.C5.SF3</v>
       </c>
       <c r="J16" s="244" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K16" s="244"/>
       <c r="L16" s="244" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="M16" s="244" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="N16" s="244"/>
       <c r="O16" s="244"/>
@@ -8069,23 +8452,23 @@
 au
 24/12/17</v>
       </c>
-      <c r="E17" s="482"/>
-      <c r="F17" s="447"/>
-      <c r="G17" s="482"/>
-      <c r="H17" s="549"/>
-      <c r="I17" s="551"/>
+      <c r="E17" s="483"/>
+      <c r="F17" s="448"/>
+      <c r="G17" s="483"/>
+      <c r="H17" s="553"/>
+      <c r="I17" s="555"/>
       <c r="J17" s="247" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="K17" s="247"/>
       <c r="L17" s="247" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="M17" s="247" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="N17" s="247" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O17" s="247"/>
       <c r="P17" s="266"/>
@@ -8105,21 +8488,21 @@
         <f>CONCATENATE(TEXT(B18,"JJ/MM/AA")," au ",TEXT(C18,"JJ/MM/AA"))</f>
         <v>25/12/17 au 31/12/17</v>
       </c>
-      <c r="E18" s="539" t="s">
+      <c r="E18" s="543" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="539"/>
-      <c r="G18" s="539"/>
-      <c r="H18" s="539"/>
-      <c r="I18" s="539"/>
-      <c r="J18" s="539"/>
-      <c r="K18" s="539"/>
-      <c r="L18" s="539"/>
-      <c r="M18" s="539"/>
-      <c r="N18" s="539"/>
-      <c r="O18" s="539"/>
-      <c r="P18" s="540"/>
-      <c r="Q18" s="541"/>
+      <c r="F18" s="543"/>
+      <c r="G18" s="543"/>
+      <c r="H18" s="543"/>
+      <c r="I18" s="543"/>
+      <c r="J18" s="543"/>
+      <c r="K18" s="543"/>
+      <c r="L18" s="543"/>
+      <c r="M18" s="543"/>
+      <c r="N18" s="543"/>
+      <c r="O18" s="543"/>
+      <c r="P18" s="544"/>
+      <c r="Q18" s="545"/>
     </row>
     <row r="19" spans="1:17" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="158"/>
@@ -8135,19 +8518,19 @@
         <f>CONCATENATE(TEXT(B19,"JJ/MM/AA")," au ",TEXT(C19,"JJ/MM/AA"))</f>
         <v>01/01/18 au 07/01/18</v>
       </c>
-      <c r="E19" s="542"/>
-      <c r="F19" s="542"/>
-      <c r="G19" s="542"/>
-      <c r="H19" s="542"/>
-      <c r="I19" s="542"/>
-      <c r="J19" s="542"/>
-      <c r="K19" s="542"/>
-      <c r="L19" s="542"/>
-      <c r="M19" s="542"/>
-      <c r="N19" s="542"/>
-      <c r="O19" s="542"/>
-      <c r="P19" s="543"/>
-      <c r="Q19" s="544"/>
+      <c r="E19" s="546"/>
+      <c r="F19" s="546"/>
+      <c r="G19" s="546"/>
+      <c r="H19" s="546"/>
+      <c r="I19" s="546"/>
+      <c r="J19" s="546"/>
+      <c r="K19" s="546"/>
+      <c r="L19" s="546"/>
+      <c r="M19" s="546"/>
+      <c r="N19" s="546"/>
+      <c r="O19" s="546"/>
+      <c r="P19" s="547"/>
+      <c r="Q19" s="548"/>
     </row>
     <row r="20" spans="1:17" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A20" s="158">
@@ -8168,30 +8551,30 @@
 au
 14/01/18</v>
       </c>
-      <c r="E20" s="470" t="str">
+      <c r="E20" s="471" t="str">
         <f>Tri_Semestre!A41</f>
         <v>Cycle 6 : Démarches de résolution pour résoudre les problèmes dynamiques ou énergétique.</v>
       </c>
-      <c r="F20" s="448" t="s">
-        <v>698</v>
-      </c>
-      <c r="G20" s="470" t="s">
+      <c r="F20" s="449" t="s">
         <v>697</v>
       </c>
-      <c r="H20" s="462" t="str">
+      <c r="G20" s="471" t="s">
+        <v>696</v>
+      </c>
+      <c r="H20" s="463" t="str">
         <f>Tri_Semestre!B47</f>
         <v>Res1.C3, Res2.C22, Res2.C23, Res2.C24, Res2.C25</v>
       </c>
-      <c r="I20" s="462" t="str">
+      <c r="I20" s="463" t="str">
         <f>Tri_Semestre!D47</f>
         <v>Res1.C3.SF1, Res2.C22.SF1, Res2.C22.SF2, , Res2.C25.SF1</v>
       </c>
       <c r="J20" s="238" t="s">
-        <v>645</v>
+        <v